--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajask_000\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TA\working\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -343,19 +343,19 @@
     <t>DJIA</t>
   </si>
   <si>
-    <t>Down -1.14 Points per Component with overall change of 1.24% from closing price 2083.25 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -3.08 Points per Component with overall change of 2.73% from closing price 4400.16 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.43 Points per Component with overall change of 1.02% from closing price 710.04 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.94 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -2.55 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Down -2.40 Points per Component with overall change of 2.80% from closing price 2037.41 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -4.53 Points per Component with overall change of 3.93% from closing price 4285.70 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.90 Points per Component with overall change of 2.89% from closing price 692.01 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -1.54 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -3.36 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -365,10 +365,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0%_);[Red]\(#,##0.0%\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +397,12 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -677,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -738,34 +744,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S39"/>
+  <dimension ref="B2:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1143,26 +1152,26 @@
         <v>77</v>
       </c>
       <c r="D4" s="30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="30">
         <v>7</v>
       </c>
       <c r="F4" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="30">
         <v>9</v>
       </c>
       <c r="H4" s="32">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="I4" s="34">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="J4" s="35">
-        <f>H4-I4</f>
-        <v>0</v>
+        <f t="shared" ref="J4:J39" si="0">H4-I4</f>
+        <v>-0.5</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>4</v>
@@ -1171,22 +1180,22 @@
         <v>66</v>
       </c>
       <c r="N4" s="23">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="O4" s="23">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P4" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R4" s="23">
+        <v>-3.25</v>
+      </c>
+      <c r="S4" s="23">
         <v>0.25</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
@@ -1197,26 +1206,26 @@
         <v>94</v>
       </c>
       <c r="D5" s="31">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3</v>
+      </c>
+      <c r="F5" s="31">
         <v>6</v>
       </c>
-      <c r="E5" s="31">
-        <v>6</v>
-      </c>
-      <c r="F5" s="31">
-        <v>8</v>
-      </c>
       <c r="G5" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="33">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="I5" s="36">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J5" s="37">
-        <f>H5-I5</f>
-        <v>-0.5</v>
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>42</v>
@@ -1225,52 +1234,52 @@
         <v>63</v>
       </c>
       <c r="N5" s="23">
+        <v>-5</v>
+      </c>
+      <c r="O5" s="23">
+        <v>-3</v>
+      </c>
+      <c r="P5" s="23">
         <v>2</v>
       </c>
-      <c r="O5" s="23">
-        <v>2</v>
-      </c>
-      <c r="P5" s="23">
-        <v>5</v>
-      </c>
       <c r="Q5" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" s="23">
-        <v>3</v>
+        <v>-1.25</v>
       </c>
       <c r="S5" s="23">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D6" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="33">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="I6" s="36">
-        <v>6.75</v>
+        <v>3.25</v>
       </c>
       <c r="J6" s="37">
-        <f>H6-I6</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>43</v>
@@ -1279,52 +1288,52 @@
         <v>64</v>
       </c>
       <c r="N6" s="23">
+        <v>-5</v>
+      </c>
+      <c r="O6" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="23">
         <v>3</v>
       </c>
-      <c r="O6" s="23">
-        <v>3</v>
-      </c>
-      <c r="P6" s="23">
-        <v>5</v>
-      </c>
       <c r="Q6" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" s="23">
-        <v>3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S6" s="23">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="31">
-        <v>4</v>
-      </c>
-      <c r="E7" s="31">
-        <v>3</v>
-      </c>
-      <c r="F7" s="31">
-        <v>8</v>
-      </c>
       <c r="G7" s="31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" s="33">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="I7" s="36">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J7" s="37">
-        <f>H7-I7</f>
-        <v>-0.75</v>
+        <f t="shared" si="0"/>
+        <v>-2.75</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>44</v>
@@ -1333,51 +1342,51 @@
         <v>65</v>
       </c>
       <c r="N7" s="23">
+        <v>-4</v>
+      </c>
+      <c r="O7" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="23">
         <v>2</v>
       </c>
-      <c r="O7" s="23">
-        <v>3</v>
-      </c>
-      <c r="P7" s="23">
-        <v>5</v>
-      </c>
       <c r="Q7" s="23">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
+        <v>-0.75</v>
+      </c>
+      <c r="S7" s="23">
         <v>2</v>
-      </c>
-      <c r="R7" s="23">
-        <v>3</v>
-      </c>
-      <c r="S7" s="23">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D8" s="31">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E8" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="33">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="I8" s="36">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="J8" s="37">
-        <f>H8-I8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -1387,52 +1396,52 @@
         <v>104</v>
       </c>
       <c r="N8" s="23">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="O8" s="23">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P8" s="23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="23">
         <v>5</v>
       </c>
       <c r="R8" s="23">
-        <v>4.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S8" s="23">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="31">
+        <v>-3</v>
+      </c>
+      <c r="E9" s="31">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="G9" s="31">
         <v>4</v>
       </c>
-      <c r="E9" s="31">
-        <v>6</v>
-      </c>
-      <c r="F9" s="31">
-        <v>8</v>
-      </c>
-      <c r="G9" s="31">
-        <v>2</v>
-      </c>
       <c r="H9" s="33">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="36">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="37">
-        <f>H9-I9</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>27</v>
@@ -1441,52 +1450,52 @@
         <v>67</v>
       </c>
       <c r="N9" s="23">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="O9" s="23">
+        <v>-4</v>
+      </c>
+      <c r="P9" s="23">
         <v>-3</v>
-      </c>
-      <c r="P9" s="23">
-        <v>-2</v>
       </c>
       <c r="Q9" s="23">
         <v>-4</v>
       </c>
       <c r="R9" s="23">
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
       <c r="S9" s="23">
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D10" s="31">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="E10" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="33">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="36">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="J10" s="37">
-        <f>H10-I10</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>-2.75</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>5</v>
@@ -1495,52 +1504,52 @@
         <v>69</v>
       </c>
       <c r="N10" s="23">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="O10" s="23">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P10" s="23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q10" s="23">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="R10" s="23">
-        <v>-3.75</v>
+        <v>-5.5</v>
       </c>
       <c r="S10" s="23">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D11" s="31">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E11" s="31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="33">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="I11" s="36">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="37">
-        <f>H11-I11</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>6</v>
@@ -1549,52 +1558,52 @@
         <v>96</v>
       </c>
       <c r="N11" s="23">
+        <v>-7</v>
+      </c>
+      <c r="O11" s="23">
+        <v>-4</v>
+      </c>
+      <c r="P11" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="23">
         <v>4</v>
       </c>
-      <c r="O11" s="23">
+      <c r="R11" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="S11" s="23">
         <v>3</v>
-      </c>
-      <c r="P11" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>7</v>
-      </c>
-      <c r="R11" s="23">
-        <v>5.5</v>
-      </c>
-      <c r="S11" s="23">
-        <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D12" s="31">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E12" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="33">
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="36">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="37">
-        <f>H12-I12</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>7</v>
@@ -1603,52 +1612,52 @@
         <v>72</v>
       </c>
       <c r="N12" s="23">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="O12" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P12" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="23">
         <v>2</v>
       </c>
       <c r="R12" s="23">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="S12" s="23">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D13" s="31">
+        <v>-6</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
         <v>5</v>
       </c>
-      <c r="E13" s="31">
-        <v>4</v>
-      </c>
-      <c r="F13" s="31">
-        <v>6</v>
-      </c>
       <c r="G13" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="33">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="I13" s="36">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="J13" s="37">
-        <f>H13-I13</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>8</v>
@@ -1657,52 +1666,52 @@
         <v>73</v>
       </c>
       <c r="N13" s="23">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="O13" s="23">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="P13" s="23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q13" s="23">
+        <v>-2</v>
+      </c>
+      <c r="R13" s="23">
+        <v>-3.5</v>
+      </c>
+      <c r="S13" s="23">
         <v>-1</v>
-      </c>
-      <c r="R13" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="S13" s="23">
-        <v>1.75</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="31">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="E14" s="31">
+        <v>-4</v>
+      </c>
+      <c r="F14" s="31">
+        <v>7</v>
+      </c>
+      <c r="G14" s="31">
         <v>3</v>
       </c>
-      <c r="F14" s="31">
-        <v>6</v>
-      </c>
-      <c r="G14" s="31">
-        <v>5</v>
-      </c>
       <c r="H14" s="33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="36">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="J14" s="37">
-        <f>H14-I14</f>
-        <v>-0.5</v>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>9</v>
@@ -1711,52 +1720,52 @@
         <v>74</v>
       </c>
       <c r="N14" s="23">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="O14" s="23">
+        <v>-4</v>
+      </c>
+      <c r="P14" s="23">
         <v>3</v>
       </c>
-      <c r="P14" s="23">
-        <v>6</v>
-      </c>
       <c r="Q14" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14" s="23">
-        <v>4</v>
+        <v>-1.25</v>
       </c>
       <c r="S14" s="23">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D15" s="31">
+        <v>-5</v>
+      </c>
+      <c r="E15" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="31">
         <v>3</v>
       </c>
-      <c r="E15" s="31">
-        <v>3</v>
-      </c>
-      <c r="F15" s="31">
-        <v>6</v>
-      </c>
       <c r="G15" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="33">
-        <v>4</v>
+        <v>-0.5</v>
       </c>
       <c r="I15" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="37">
-        <f>H15-I15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>10</v>
@@ -1765,36 +1774,36 @@
         <v>75</v>
       </c>
       <c r="N15" s="23">
+        <v>-8</v>
+      </c>
+      <c r="O15" s="23">
+        <v>-3</v>
+      </c>
+      <c r="P15" s="23">
         <v>3</v>
       </c>
-      <c r="O15" s="23">
-        <v>3</v>
-      </c>
-      <c r="P15" s="23">
-        <v>6</v>
-      </c>
       <c r="Q15" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15" s="23">
-        <v>4</v>
+        <v>-1.75</v>
       </c>
       <c r="S15" s="23">
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D16" s="31">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="E16" s="31">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F16" s="31">
         <v>5</v>
@@ -1803,14 +1812,14 @@
         <v>4</v>
       </c>
       <c r="H16" s="33">
-        <v>4</v>
+        <v>-0.5</v>
       </c>
       <c r="I16" s="36">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="37">
-        <f>H16-I16</f>
-        <v>-2.5</v>
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>11</v>
@@ -1819,52 +1828,52 @@
         <v>76</v>
       </c>
       <c r="N16" s="23">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="23">
         <v>5</v>
       </c>
-      <c r="O16" s="23">
-        <v>5</v>
-      </c>
-      <c r="P16" s="23">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
+        <v>3.25</v>
+      </c>
+      <c r="S16" s="23">
         <v>6</v>
-      </c>
-      <c r="R16" s="23">
-        <v>5.75</v>
-      </c>
-      <c r="S16" s="23">
-        <v>6.75</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D17" s="31">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="E17" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="31">
         <v>2</v>
       </c>
-      <c r="F17" s="31">
-        <v>6</v>
-      </c>
       <c r="G17" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="33">
-        <v>4</v>
+        <v>-0.5</v>
       </c>
       <c r="I17" s="36">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="J17" s="37">
-        <f>H17-I17</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>-1.75</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>12</v>
@@ -1873,52 +1882,52 @@
         <v>77</v>
       </c>
       <c r="N17" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O17" s="23">
         <v>7</v>
       </c>
       <c r="P17" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="23">
         <v>9</v>
       </c>
       <c r="R17" s="23">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="S17" s="23">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="31">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E18" s="31">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G18" s="31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" s="33">
-        <v>3.75</v>
+        <v>-0.75</v>
       </c>
       <c r="I18" s="36">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="J18" s="37">
-        <f>H18-I18</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>-2.75</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>13</v>
@@ -1927,52 +1936,52 @@
         <v>78</v>
       </c>
       <c r="N18" s="23">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="O18" s="23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="23">
         <v>2</v>
       </c>
       <c r="Q18" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="23">
+        <v>-1.5</v>
+      </c>
+      <c r="S18" s="23">
         <v>0.75</v>
-      </c>
-      <c r="S18" s="23">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D19" s="31">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="E19" s="31">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
         <v>5</v>
       </c>
-      <c r="G19" s="31">
-        <v>3</v>
-      </c>
       <c r="H19" s="33">
-        <v>3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="I19" s="36">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="J19" s="37">
-        <f>H19-I19</f>
-        <v>-0.75</v>
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>14</v>
@@ -1981,52 +1990,52 @@
         <v>79</v>
       </c>
       <c r="N19" s="23">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="O19" s="23">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="P19" s="23">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q19" s="23">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R19" s="23">
-        <v>0.5</v>
+        <v>-4.75</v>
       </c>
       <c r="S19" s="23">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" s="31">
+        <v>-4</v>
+      </c>
+      <c r="E20" s="31">
+        <v>-3</v>
+      </c>
+      <c r="F20" s="31">
+        <v>2</v>
+      </c>
+      <c r="G20" s="31">
         <v>1</v>
       </c>
-      <c r="E20" s="31">
-        <v>5</v>
-      </c>
-      <c r="F20" s="31">
-        <v>6</v>
-      </c>
-      <c r="G20" s="31">
-        <v>2</v>
-      </c>
       <c r="H20" s="33">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="I20" s="36">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="J20" s="37">
-        <f>H20-I20</f>
-        <v>-1.75</v>
+        <f t="shared" si="0"/>
+        <v>-3.25</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>15</v>
@@ -2035,52 +2044,52 @@
         <v>80</v>
       </c>
       <c r="N20" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O20" s="23">
+        <v>3</v>
+      </c>
+      <c r="P20" s="23">
         <v>4</v>
-      </c>
-      <c r="P20" s="23">
-        <v>6</v>
       </c>
       <c r="Q20" s="23">
         <v>4</v>
       </c>
       <c r="R20" s="23">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="S20" s="23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D21" s="31">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E21" s="31">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F21" s="31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="33">
-        <v>3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="I21" s="36">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="J21" s="37">
-        <f>H21-I21</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>-2.75</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>45</v>
@@ -2089,52 +2098,52 @@
         <v>70</v>
       </c>
       <c r="N21" s="23">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="O21" s="23">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="P21" s="23">
         <v>7</v>
       </c>
       <c r="Q21" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" s="23">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S21" s="23">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D22" s="31">
+        <v>-8</v>
+      </c>
+      <c r="E22" s="31">
+        <v>-4</v>
+      </c>
+      <c r="F22" s="31">
+        <v>3</v>
+      </c>
+      <c r="G22" s="31">
         <v>4</v>
       </c>
-      <c r="E22" s="31">
-        <v>4</v>
-      </c>
-      <c r="F22" s="31">
-        <v>5</v>
-      </c>
-      <c r="G22" s="31">
-        <v>0</v>
-      </c>
       <c r="H22" s="33">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="I22" s="36">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J22" s="37">
-        <f>H22-I22</f>
-        <v>-0.75</v>
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>46</v>
@@ -2143,52 +2152,52 @@
         <v>71</v>
       </c>
       <c r="N22" s="23">
+        <v>-7</v>
+      </c>
+      <c r="O22" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="23">
         <v>3</v>
       </c>
-      <c r="O22" s="23">
-        <v>5</v>
-      </c>
-      <c r="P22" s="23">
-        <v>7</v>
-      </c>
       <c r="Q22" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22" s="23">
-        <v>4.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S22" s="23">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D23" s="31">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="E23" s="31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="33">
-        <v>3</v>
+        <v>-1.25</v>
       </c>
       <c r="I23" s="36">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J23" s="37">
-        <f>H23-I23</f>
-        <v>-0.25</v>
+        <f t="shared" si="0"/>
+        <v>-4.75</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>47</v>
@@ -2197,52 +2206,52 @@
         <v>81</v>
       </c>
       <c r="N23" s="23">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="O23" s="23">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="P23" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23" s="23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R23" s="23">
-        <v>-0.5</v>
+        <v>-4</v>
       </c>
       <c r="S23" s="23">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D24" s="31">
+        <v>-7</v>
+      </c>
+      <c r="E24" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="31">
         <v>2</v>
       </c>
-      <c r="E24" s="31">
-        <v>3</v>
-      </c>
-      <c r="F24" s="31">
-        <v>5</v>
-      </c>
       <c r="G24" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="33">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="I24" s="36">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="J24" s="37">
-        <f>H24-I24</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>48</v>
@@ -2251,52 +2260,52 @@
         <v>82</v>
       </c>
       <c r="N24" s="23">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="O24" s="23">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="P24" s="23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" s="23">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="S24" s="23">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D25" s="31">
+        <v>-8</v>
+      </c>
+      <c r="E25" s="31">
+        <v>-3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>3</v>
+      </c>
+      <c r="G25" s="31">
         <v>1</v>
       </c>
-      <c r="E25" s="31">
-        <v>4</v>
-      </c>
-      <c r="F25" s="31">
-        <v>5</v>
-      </c>
-      <c r="G25" s="31">
-        <v>2</v>
-      </c>
       <c r="H25" s="33">
-        <v>3</v>
+        <v>-1.75</v>
       </c>
       <c r="I25" s="36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="J25" s="37">
-        <f>H25-I25</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>-5</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>49</v>
@@ -2308,49 +2317,49 @@
         <v>-9</v>
       </c>
       <c r="O25" s="23">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="P25" s="23">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="Q25" s="23">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="R25" s="23">
-        <v>-3</v>
+        <v>-6.5</v>
       </c>
       <c r="S25" s="23">
-        <v>1.25</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D26" s="31">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E26" s="31">
+        <v>-3</v>
+      </c>
+      <c r="F26" s="31">
         <v>2</v>
       </c>
-      <c r="F26" s="31">
-        <v>3</v>
-      </c>
       <c r="G26" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="33">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="I26" s="36">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J26" s="37">
-        <f>H26-I26</f>
-        <v>-1.5</v>
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>50</v>
@@ -2359,52 +2368,52 @@
         <v>68</v>
       </c>
       <c r="N26" s="23">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="O26" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="P26" s="23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q26" s="23">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="R26" s="23">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="S26" s="23">
-        <v>3.75</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D27" s="31">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E27" s="31">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="F27" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="33">
-        <v>0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="I27" s="36">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="J27" s="37">
-        <f>H27-I27</f>
-        <v>-2.25</v>
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>51</v>
@@ -2413,52 +2422,52 @@
         <v>84</v>
       </c>
       <c r="N27" s="23">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="O27" s="23">
+        <v>-3</v>
+      </c>
+      <c r="P27" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="23">
         <v>0</v>
       </c>
-      <c r="P27" s="23">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>1</v>
-      </c>
       <c r="R27" s="23">
+        <v>-2.5</v>
+      </c>
+      <c r="S27" s="23">
         <v>-0.25</v>
-      </c>
-      <c r="S27" s="23">
-        <v>3.75</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D28" s="31">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="E28" s="31">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F28" s="31">
         <v>1</v>
       </c>
       <c r="G28" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="33">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I28" s="36">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J28" s="37">
-        <f>H28-I28</f>
-        <v>1.75</v>
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>99</v>
@@ -2470,49 +2479,49 @@
         <v>-8</v>
       </c>
       <c r="O28" s="23">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="P28" s="23">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="Q28" s="23">
         <v>-4</v>
       </c>
       <c r="R28" s="23">
-        <v>-4.25</v>
+        <v>-5.75</v>
       </c>
       <c r="S28" s="23">
-        <v>-2.25</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D29" s="31">
+        <v>-8</v>
+      </c>
+      <c r="E29" s="31">
         <v>-1</v>
       </c>
-      <c r="E29" s="31">
+      <c r="F29" s="31">
         <v>1</v>
       </c>
-      <c r="F29" s="31">
-        <v>2</v>
-      </c>
       <c r="G29" s="31">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H29" s="33">
+        <v>-2.75</v>
+      </c>
+      <c r="I29" s="36">
         <v>0.25</v>
       </c>
-      <c r="I29" s="36">
-        <v>0.75</v>
-      </c>
       <c r="J29" s="37">
-        <f>H29-I29</f>
-        <v>-0.5</v>
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>52</v>
@@ -2521,52 +2530,52 @@
         <v>85</v>
       </c>
       <c r="N29" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="O29" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P29" s="23">
         <v>5</v>
       </c>
       <c r="Q29" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" s="23">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="S29" s="23">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D30" s="31">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E30" s="31">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F30" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H30" s="33">
+        <v>-3.25</v>
+      </c>
+      <c r="I30" s="36">
         <v>0.25</v>
       </c>
-      <c r="I30" s="36">
-        <v>0.5</v>
-      </c>
       <c r="J30" s="37">
-        <f>H30-I30</f>
-        <v>-0.25</v>
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
       </c>
       <c r="L30" s="23" t="s">
         <v>53</v>
@@ -2575,52 +2584,52 @@
         <v>86</v>
       </c>
       <c r="N30" s="23">
+        <v>-3</v>
+      </c>
+      <c r="O30" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="23">
         <v>0</v>
       </c>
-      <c r="O30" s="23">
-        <v>2</v>
-      </c>
-      <c r="P30" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="23">
-        <v>1</v>
-      </c>
       <c r="R30" s="23">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S30" s="23">
-        <v>3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="31">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="31">
         <v>-4</v>
       </c>
-      <c r="E31" s="31">
+      <c r="F31" s="31">
+        <v>-3</v>
+      </c>
+      <c r="G31" s="31">
+        <v>-4</v>
+      </c>
+      <c r="H31" s="33">
+        <v>-3.5</v>
+      </c>
+      <c r="I31" s="36">
+        <v>-3.5</v>
+      </c>
+      <c r="J31" s="37">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F31" s="31">
-        <v>4</v>
-      </c>
-      <c r="G31" s="31">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="33">
-        <v>-0.25</v>
-      </c>
-      <c r="I31" s="36">
-        <v>1.75</v>
-      </c>
-      <c r="J31" s="37">
-        <f>H31-I31</f>
-        <v>-2</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>54</v>
@@ -2629,52 +2638,52 @@
         <v>87</v>
       </c>
       <c r="N31" s="23">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="O31" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P31" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="23">
         <v>-3</v>
       </c>
       <c r="R31" s="23">
-        <v>-2</v>
+        <v>-2.75</v>
       </c>
       <c r="S31" s="23">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D32" s="31">
         <v>-6</v>
       </c>
       <c r="E32" s="31">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F32" s="31">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="31">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="33">
-        <v>-0.25</v>
+        <v>-3.5</v>
       </c>
       <c r="I32" s="36">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="37">
-        <f>H32-I32</f>
-        <v>-4</v>
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
       </c>
       <c r="L32" s="23" t="s">
         <v>55</v>
@@ -2683,22 +2692,22 @@
         <v>88</v>
       </c>
       <c r="N32" s="23">
+        <v>-6</v>
+      </c>
+      <c r="O32" s="23">
         <v>1</v>
       </c>
-      <c r="O32" s="23">
+      <c r="P32" s="23">
         <v>5</v>
       </c>
-      <c r="P32" s="23">
-        <v>6</v>
-      </c>
       <c r="Q32" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" s="23">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="S32" s="23">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
@@ -2709,26 +2718,26 @@
         <v>81</v>
       </c>
       <c r="D33" s="31">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="E33" s="31">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F33" s="31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G33" s="31">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H33" s="33">
-        <v>-0.5</v>
+        <v>-4</v>
       </c>
       <c r="I33" s="36">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="J33" s="37">
-        <f>H33-I33</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>56</v>
@@ -2737,52 +2746,52 @@
         <v>89</v>
       </c>
       <c r="N33" s="23">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="O33" s="23">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="P33" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="23">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R33" s="23">
-        <v>0.25</v>
+        <v>-4</v>
       </c>
       <c r="S33" s="23">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D34" s="31">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="E34" s="31">
+        <v>-6</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="31">
         <v>-3</v>
       </c>
-      <c r="F34" s="31">
-        <v>-2</v>
-      </c>
-      <c r="G34" s="31">
+      <c r="H34" s="33">
         <v>-4</v>
       </c>
-      <c r="H34" s="33">
-        <v>-2</v>
-      </c>
       <c r="I34" s="36">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="J34" s="37">
-        <f>H34-I34</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>57</v>
@@ -2791,52 +2800,52 @@
         <v>90</v>
       </c>
       <c r="N34" s="23">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="O34" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q34" s="23">
         <v>2</v>
       </c>
       <c r="R34" s="23">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="S34" s="23">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="29" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D35" s="31">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E35" s="31">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F35" s="31">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G35" s="31">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H35" s="33">
-        <v>-2</v>
+        <v>-4.75</v>
       </c>
       <c r="I35" s="36">
-        <v>3.75</v>
+        <v>-1.5</v>
       </c>
       <c r="J35" s="37">
-        <f>H35-I35</f>
-        <v>-5.75</v>
+        <f t="shared" si="0"/>
+        <v>-3.25</v>
       </c>
       <c r="L35" s="23" t="s">
         <v>58</v>
@@ -2845,52 +2854,52 @@
         <v>91</v>
       </c>
       <c r="N35" s="23">
+        <v>-3</v>
+      </c>
+      <c r="O35" s="23">
+        <v>1</v>
+      </c>
+      <c r="P35" s="23">
         <v>4</v>
       </c>
-      <c r="O35" s="23">
-        <v>4</v>
-      </c>
-      <c r="P35" s="23">
-        <v>5</v>
-      </c>
       <c r="Q35" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="23">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="S35" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D36" s="31">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E36" s="31">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F36" s="31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G36" s="31">
+        <v>-7</v>
+      </c>
+      <c r="H36" s="33">
+        <v>-5.5</v>
+      </c>
+      <c r="I36" s="36">
         <v>-3</v>
       </c>
-      <c r="H36" s="33">
-        <v>-2</v>
-      </c>
-      <c r="I36" s="36">
-        <v>1.25</v>
-      </c>
       <c r="J36" s="37">
-        <f>H36-I36</f>
-        <v>-3.25</v>
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
       </c>
       <c r="L36" s="23" t="s">
         <v>59</v>
@@ -2899,52 +2908,52 @@
         <v>92</v>
       </c>
       <c r="N36" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="O36" s="23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P36" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="23">
         <v>4</v>
       </c>
       <c r="R36" s="23">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="S36" s="23">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D37" s="31">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E37" s="31">
+        <v>-6</v>
+      </c>
+      <c r="F37" s="31">
+        <v>-5</v>
+      </c>
+      <c r="G37" s="31">
+        <v>-4</v>
+      </c>
+      <c r="H37" s="33">
+        <v>-5.75</v>
+      </c>
+      <c r="I37" s="36">
+        <v>-3.75</v>
+      </c>
+      <c r="J37" s="37">
+        <f t="shared" si="0"/>
         <v>-2</v>
-      </c>
-      <c r="F37" s="31">
-        <v>2</v>
-      </c>
-      <c r="G37" s="31">
-        <v>-3</v>
-      </c>
-      <c r="H37" s="33">
-        <v>-3</v>
-      </c>
-      <c r="I37" s="36">
-        <v>1.25</v>
-      </c>
-      <c r="J37" s="37">
-        <f>H37-I37</f>
-        <v>-4.25</v>
       </c>
       <c r="L37" s="23" t="s">
         <v>60</v>
@@ -2953,52 +2962,52 @@
         <v>93</v>
       </c>
       <c r="N37" s="23">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="O37" s="23">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P37" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" s="23">
-        <v>3.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S37" s="23">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="29" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="31">
+        <v>-10</v>
+      </c>
+      <c r="E38" s="31">
+        <v>-8</v>
+      </c>
+      <c r="F38" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="31">
         <v>-5</v>
       </c>
-      <c r="E38" s="31">
+      <c r="H38" s="33">
+        <v>-6</v>
+      </c>
+      <c r="I38" s="36">
+        <v>-4</v>
+      </c>
+      <c r="J38" s="37">
+        <f t="shared" si="0"/>
         <v>-2</v>
-      </c>
-      <c r="F38" s="31">
-        <v>-2</v>
-      </c>
-      <c r="G38" s="31">
-        <v>-6</v>
-      </c>
-      <c r="H38" s="33">
-        <v>-3.75</v>
-      </c>
-      <c r="I38" s="36">
-        <v>-1.25</v>
-      </c>
-      <c r="J38" s="37">
-        <f>H38-I38</f>
-        <v>-2.5</v>
       </c>
       <c r="L38" s="23" t="s">
         <v>61</v>
@@ -3007,52 +3016,52 @@
         <v>94</v>
       </c>
       <c r="N38" s="23">
+        <v>3</v>
+      </c>
+      <c r="O38" s="23">
+        <v>3</v>
+      </c>
+      <c r="P38" s="23">
         <v>6</v>
       </c>
-      <c r="O38" s="23">
-        <v>6</v>
-      </c>
-      <c r="P38" s="23">
-        <v>8</v>
-      </c>
       <c r="Q38" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R38" s="23">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="S38" s="23">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D39" s="31">
+        <v>-9</v>
+      </c>
+      <c r="E39" s="31">
         <v>-8</v>
       </c>
-      <c r="E39" s="31">
+      <c r="F39" s="31">
+        <v>-3</v>
+      </c>
+      <c r="G39" s="31">
+        <v>-6</v>
+      </c>
+      <c r="H39" s="33">
+        <v>-6.5</v>
+      </c>
+      <c r="I39" s="38">
         <v>-4</v>
       </c>
-      <c r="F39" s="31">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="31">
-        <v>-4</v>
-      </c>
-      <c r="H39" s="33">
-        <v>-4.25</v>
-      </c>
-      <c r="I39" s="38">
-        <v>-2.25</v>
-      </c>
       <c r="J39" s="39">
-        <f>H39-I39</f>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
       </c>
       <c r="L39" s="23" t="s">
         <v>62</v>
@@ -3061,22 +3070,36 @@
         <v>95</v>
       </c>
       <c r="N39" s="23">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="O39" s="23">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="P39" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="23">
-        <v>4</v>
+        <v>-2.25</v>
       </c>
       <c r="S39" s="23">
-        <v>3</v>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="40">
+        <f>AVERAGE(H4:H39)</f>
+        <v>-1.0902777777777777</v>
+      </c>
+      <c r="I40" s="40">
+        <f>AVERAGE(I4:I39)</f>
+        <v>1.125</v>
+      </c>
+      <c r="J40" s="40">
+        <f>AVERAGE(J4:J39)</f>
+        <v>-2.2152777777777777</v>
       </c>
     </row>
   </sheetData>
@@ -3092,14 +3115,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="11" bestFit="1" customWidth="1"/>
@@ -3149,384 +3172,384 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>315.67</v>
+        <v>-1647.58</v>
       </c>
       <c r="C3" s="6">
-        <v>337</v>
+        <v>-8150</v>
       </c>
       <c r="D3" s="6">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6">
-        <v>95</v>
+        <v>464</v>
       </c>
       <c r="F3" s="6">
-        <v>310</v>
+        <v>-425</v>
       </c>
       <c r="G3" s="13">
-        <v>0.80200000000000005</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>1701</v>
+        <v>212</v>
       </c>
       <c r="I3" s="6">
-        <v>439</v>
+        <v>4325</v>
       </c>
       <c r="J3" s="6">
-        <v>1262</v>
+        <v>-4112</v>
       </c>
       <c r="K3" s="16">
-        <v>1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L3" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>-115.39</v>
+        <v>578.75</v>
       </c>
       <c r="C4" s="6">
-        <v>-283</v>
+        <v>454</v>
       </c>
       <c r="D4" s="6">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="E4" s="6">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6">
-        <v>-4</v>
+        <v>426</v>
       </c>
       <c r="G4" s="13">
-        <v>0.49099999999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H4" s="6">
-        <v>1599</v>
+        <v>1826</v>
       </c>
       <c r="I4" s="6">
-        <v>1306</v>
+        <v>138</v>
       </c>
       <c r="J4" s="6">
-        <v>293</v>
+        <v>1687</v>
       </c>
       <c r="K4" s="16">
-        <v>1.37</v>
+        <v>0.9</v>
       </c>
       <c r="L4" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>69.78</v>
+        <v>-11.03</v>
       </c>
       <c r="C5" s="6">
-        <v>28</v>
+        <v>-17</v>
       </c>
       <c r="D5" s="6">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="E5" s="6">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="F5" s="6">
-        <v>119</v>
+        <v>-70</v>
       </c>
       <c r="G5" s="13">
-        <v>0.61399999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H5" s="6">
-        <v>1176</v>
+        <v>582</v>
       </c>
       <c r="I5" s="6">
-        <v>966</v>
+        <v>1261</v>
       </c>
       <c r="J5" s="6">
-        <v>209</v>
+        <v>-679</v>
       </c>
       <c r="K5" s="16">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="L5" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>-31.02</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="C6" s="6">
-        <v>-47</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="E6" s="6">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="F6" s="6">
-        <v>-54</v>
+        <v>121</v>
       </c>
       <c r="G6" s="13">
-        <v>0.44</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H6" s="6">
-        <v>1055</v>
+        <v>1285</v>
       </c>
       <c r="I6" s="6">
-        <v>1011</v>
+        <v>646</v>
       </c>
       <c r="J6" s="6">
-        <v>43</v>
+        <v>639</v>
       </c>
       <c r="K6" s="16">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="L6" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>-76.849999999999994</v>
+        <v>323.64</v>
       </c>
       <c r="C7" s="6">
-        <v>-137</v>
+        <v>306</v>
       </c>
       <c r="D7" s="6">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="E7" s="6">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="F7" s="6">
-        <v>-95</v>
+        <v>313</v>
       </c>
       <c r="G7" s="13">
-        <v>0.40200000000000002</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H7" s="6">
-        <v>751</v>
+        <v>1705</v>
       </c>
       <c r="I7" s="6">
-        <v>1506</v>
+        <v>436</v>
       </c>
       <c r="J7" s="6">
-        <v>-754</v>
+        <v>1269</v>
       </c>
       <c r="K7" s="16">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="L7" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>-326.47000000000003</v>
+        <v>-117.61</v>
       </c>
       <c r="C8" s="6">
-        <v>-314</v>
+        <v>-251</v>
       </c>
       <c r="D8" s="6">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="E8" s="6">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="F8" s="6">
-        <v>-372</v>
+        <v>-5</v>
       </c>
       <c r="G8" s="13">
-        <v>0.127</v>
+        <v>0.49</v>
       </c>
       <c r="H8" s="6">
-        <v>312</v>
+        <v>1594</v>
       </c>
       <c r="I8" s="6">
-        <v>1731</v>
+        <v>1308</v>
       </c>
       <c r="J8" s="6">
-        <v>-1419</v>
+        <v>285</v>
       </c>
       <c r="K8" s="16">
-        <v>0.96</v>
+        <v>1.33</v>
       </c>
       <c r="L8" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <v>-522.36</v>
+        <v>71.13</v>
       </c>
       <c r="C9" s="6">
-        <v>-489</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="E9" s="6">
-        <v>446</v>
+        <v>191</v>
       </c>
       <c r="F9" s="6">
-        <v>-391</v>
+        <v>120</v>
       </c>
       <c r="G9" s="13">
-        <v>0.109</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H9" s="6">
-        <v>279</v>
+        <v>1172</v>
       </c>
       <c r="I9" s="6">
-        <v>1774</v>
+        <v>966</v>
       </c>
       <c r="J9" s="6">
-        <v>-1495</v>
+        <v>206</v>
       </c>
       <c r="K9" s="16">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="L9" s="18">
-        <v>42531</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>-101.09</v>
+        <v>-32.119999999999997</v>
       </c>
       <c r="C10" s="6">
-        <v>-53</v>
+        <v>-42</v>
       </c>
       <c r="D10" s="6">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E10" s="6">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F10" s="6">
-        <v>-80</v>
+        <v>-57</v>
       </c>
       <c r="G10" s="13">
-        <v>0.41399999999999998</v>
+        <v>0.437</v>
       </c>
       <c r="H10" s="6">
-        <v>695</v>
+        <v>1049</v>
       </c>
       <c r="I10" s="6">
-        <v>1165</v>
+        <v>1015</v>
       </c>
       <c r="J10" s="6">
-        <v>-469</v>
+        <v>33</v>
       </c>
       <c r="K10" s="16">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="L10" s="18">
-        <v>42530</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <v>154.94999999999999</v>
+        <v>-79.61</v>
       </c>
       <c r="C11" s="6">
-        <v>134</v>
+        <v>-117</v>
       </c>
       <c r="D11" s="6">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="E11" s="6">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="F11" s="6">
-        <v>185</v>
+        <v>-96</v>
       </c>
       <c r="G11" s="13">
-        <v>0.67300000000000004</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="H11" s="6">
-        <v>1133</v>
+        <v>751</v>
       </c>
       <c r="I11" s="6">
-        <v>708</v>
+        <v>1506</v>
       </c>
       <c r="J11" s="6">
-        <v>424</v>
+        <v>-754</v>
       </c>
       <c r="K11" s="16">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="L11" s="18">
-        <v>42529</v>
+        <v>42535</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>60.04</v>
+        <v>-330.74</v>
       </c>
       <c r="C12" s="4">
-        <v>-37</v>
+        <v>-290</v>
       </c>
       <c r="D12" s="4">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4">
-        <v>199</v>
+        <v>438</v>
       </c>
       <c r="F12" s="4">
-        <v>102</v>
+        <v>-375</v>
       </c>
       <c r="G12" s="14">
-        <v>0.59599999999999997</v>
+        <v>0.125</v>
       </c>
       <c r="H12" s="4">
-        <v>1117</v>
+        <v>309</v>
       </c>
       <c r="I12" s="4">
-        <v>866</v>
+        <v>1734</v>
       </c>
       <c r="J12" s="4">
-        <v>250</v>
+        <v>-1425</v>
       </c>
       <c r="K12" s="17">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="L12" s="18">
-        <v>42528</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>-572.74</v>
+        <v>-1209.22</v>
       </c>
       <c r="C13" s="1">
-        <v>-861</v>
+        <v>-8066</v>
       </c>
       <c r="D13" s="1">
-        <v>2357</v>
+        <v>2479</v>
       </c>
       <c r="E13" s="1">
-        <v>2637</v>
+        <v>2527</v>
       </c>
       <c r="F13" s="1">
-        <v>-280</v>
+        <v>-48</v>
       </c>
       <c r="G13" s="11">
-        <v>0.47199999999999998</v>
+        <v>0.495</v>
       </c>
       <c r="H13" s="1">
-        <v>9822</v>
+        <v>10490</v>
       </c>
       <c r="I13" s="1">
-        <v>11477</v>
+        <v>13340</v>
       </c>
       <c r="J13" s="1">
-        <v>-1655</v>
+        <v>-2850</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3573,384 +3596,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
-        <v>120.24</v>
+        <v>-573.66</v>
       </c>
       <c r="C18" s="6">
-        <v>132</v>
+        <v>-3682</v>
       </c>
       <c r="D18" s="6">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F18" s="6">
-        <v>80</v>
+        <v>-102</v>
       </c>
       <c r="G18" s="13">
-        <v>0.87</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H18" s="6">
-        <v>441</v>
+        <v>19</v>
       </c>
       <c r="I18" s="6">
-        <v>135</v>
+        <v>1322</v>
       </c>
       <c r="J18" s="6">
-        <v>306</v>
+        <v>-1303</v>
       </c>
       <c r="K18" s="16">
-        <v>1.01</v>
+        <v>2.25</v>
       </c>
       <c r="L18" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
-        <v>-137.11000000000001</v>
+        <v>186.05</v>
       </c>
       <c r="C19" s="6">
-        <v>-310</v>
+        <v>161</v>
       </c>
       <c r="D19" s="6">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E19" s="6">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6">
-        <v>-59</v>
+        <v>98</v>
       </c>
       <c r="G19" s="13">
-        <v>0.222</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="H19" s="6">
-        <v>219</v>
+        <v>547</v>
       </c>
       <c r="I19" s="6">
-        <v>575</v>
+        <v>20</v>
       </c>
       <c r="J19" s="6">
-        <v>-356</v>
+        <v>527</v>
       </c>
       <c r="K19" s="16">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="L19" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
-        <v>25.83</v>
+        <v>-0.68</v>
       </c>
       <c r="C20" s="6">
-        <v>18</v>
+        <v>-79</v>
       </c>
       <c r="D20" s="6">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6">
-        <v>46</v>
+        <v>-7</v>
       </c>
       <c r="G20" s="13">
-        <v>0.71299999999999997</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="H20" s="6">
-        <v>421</v>
+        <v>162</v>
       </c>
       <c r="I20" s="6">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="J20" s="6">
-        <v>279</v>
+        <v>-208</v>
       </c>
       <c r="K20" s="16">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="L20" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
-        <v>-15.1</v>
+        <v>-16.86</v>
       </c>
       <c r="C21" s="6">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="D21" s="6">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E21" s="6">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="G21" s="13">
-        <v>0.39800000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="H21" s="6">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="I21" s="6">
-        <v>361</v>
+        <v>183</v>
       </c>
       <c r="J21" s="6">
-        <v>-211</v>
+        <v>114</v>
       </c>
       <c r="K21" s="16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="L21" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
-        <v>-12.56</v>
+        <v>120.24</v>
       </c>
       <c r="C22" s="6">
-        <v>-17</v>
+        <v>110</v>
       </c>
       <c r="D22" s="6">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E22" s="6">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>-12</v>
+        <v>80</v>
       </c>
       <c r="G22" s="13">
-        <v>0.44400000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="H22" s="6">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="I22" s="6">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="J22" s="6">
-        <v>-12</v>
+        <v>306</v>
       </c>
       <c r="K22" s="16">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L22" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <v>-65.11</v>
+        <v>-137.11000000000001</v>
       </c>
       <c r="C23" s="6">
-        <v>-66</v>
+        <v>-273</v>
       </c>
       <c r="D23" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F23" s="6">
-        <v>-73</v>
+        <v>-59</v>
       </c>
       <c r="G23" s="13">
-        <v>0.157</v>
+        <v>0.222</v>
       </c>
       <c r="H23" s="6">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="I23" s="6">
-        <v>494</v>
+        <v>575</v>
       </c>
       <c r="J23" s="6">
-        <v>-366</v>
+        <v>-356</v>
       </c>
       <c r="K23" s="16">
-        <v>1.0900000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="L23" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
-        <v>-187.5</v>
+        <v>25.83</v>
       </c>
       <c r="C24" s="6">
-        <v>-185</v>
+        <v>15</v>
       </c>
       <c r="D24" s="6">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E24" s="6">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F24" s="6">
-        <v>-96</v>
+        <v>46</v>
       </c>
       <c r="G24" s="13">
-        <v>5.6000000000000001E-2</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H24" s="6">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="I24" s="6">
-        <v>515</v>
+        <v>142</v>
       </c>
       <c r="J24" s="6">
-        <v>-459</v>
+        <v>279</v>
       </c>
       <c r="K24" s="16">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="L24" s="18">
-        <v>42531</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>-49.94</v>
+        <v>-15.1</v>
       </c>
       <c r="C25" s="6">
-        <v>-36</v>
+        <v>-15</v>
       </c>
       <c r="D25" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F25" s="6">
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="G25" s="13">
-        <v>0.37</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="H25" s="6">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="I25" s="6">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="J25" s="6">
-        <v>31</v>
+        <v>-211</v>
       </c>
       <c r="K25" s="16">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="L25" s="18">
-        <v>42530</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>28.23</v>
+        <v>-12.56</v>
       </c>
       <c r="C26" s="6">
-        <v>24</v>
+        <v>-12</v>
       </c>
       <c r="D26" s="6">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F26" s="6">
-        <v>16</v>
+        <v>-12</v>
       </c>
       <c r="G26" s="13">
-        <v>0.57399999999999995</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H26" s="6">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="I26" s="6">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J26" s="6">
-        <v>-70</v>
+        <v>-12</v>
       </c>
       <c r="K26" s="16">
-        <v>0.81</v>
+        <v>0.98</v>
       </c>
       <c r="L26" s="18">
-        <v>42529</v>
+        <v>42535</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>-40.090000000000003</v>
+        <v>-65.11</v>
       </c>
       <c r="C27" s="4">
-        <v>-149</v>
+        <v>-58</v>
       </c>
       <c r="D27" s="4">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4">
-        <v>12</v>
+        <v>-73</v>
       </c>
       <c r="G27" s="14">
-        <v>0.54600000000000004</v>
+        <v>0.157</v>
       </c>
       <c r="H27" s="4">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="I27" s="4">
-        <v>254</v>
+        <v>494</v>
       </c>
       <c r="J27" s="4">
-        <v>-24</v>
+        <v>-366</v>
       </c>
       <c r="K27" s="17">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="L27" s="18">
-        <v>42528</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>-333.11</v>
+        <v>-488.96</v>
       </c>
       <c r="C28" s="1">
-        <v>-605</v>
+        <v>-3853</v>
       </c>
       <c r="D28" s="1">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="E28" s="1">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="F28" s="1">
-        <v>-133</v>
+        <v>-36</v>
       </c>
       <c r="G28" s="11">
-        <v>0.438</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="H28" s="1">
-        <v>2378</v>
+        <v>2675</v>
       </c>
       <c r="I28" s="1">
-        <v>3261</v>
+        <v>3905</v>
       </c>
       <c r="J28" s="1">
-        <v>-883</v>
+        <v>-1230</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3997,384 +4020,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
-        <v>237.74</v>
+        <v>-697.43</v>
       </c>
       <c r="C33" s="6">
-        <v>208</v>
+        <v>-4304</v>
       </c>
       <c r="D33" s="6">
-        <v>494</v>
+        <v>32</v>
       </c>
       <c r="E33" s="6">
-        <v>92</v>
+        <v>566</v>
       </c>
       <c r="F33" s="6">
-        <v>402</v>
+        <v>-534</v>
       </c>
       <c r="G33" s="13">
-        <v>0.82099999999999995</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H33" s="6">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="I33" s="6">
-        <v>45</v>
+        <v>623</v>
       </c>
       <c r="J33" s="6">
-        <v>135</v>
+        <v>-590</v>
       </c>
       <c r="K33" s="16">
-        <v>0.9</v>
+        <v>2.48</v>
       </c>
       <c r="L33" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>-87.61</v>
+        <v>393.35</v>
       </c>
       <c r="C34" s="6">
-        <v>-285</v>
+        <v>306</v>
       </c>
       <c r="D34" s="6">
-        <v>266</v>
+        <v>560</v>
       </c>
       <c r="E34" s="6">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="F34" s="6">
-        <v>-60</v>
+        <v>523</v>
       </c>
       <c r="G34" s="13">
-        <v>0.442</v>
+        <v>0.93</v>
       </c>
       <c r="H34" s="6">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="I34" s="6">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="J34" s="6">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="K34" s="16">
-        <v>1.58</v>
+        <v>0.91</v>
       </c>
       <c r="L34" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>-3.52</v>
+        <v>-88.91</v>
       </c>
       <c r="C35" s="6">
-        <v>-19</v>
+        <v>-97</v>
       </c>
       <c r="D35" s="6">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="E35" s="6">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="F35" s="6">
-        <v>-15</v>
+        <v>-221</v>
       </c>
       <c r="G35" s="13">
-        <v>0.47699999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H35" s="6">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I35" s="6">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="J35" s="6">
-        <v>-43</v>
+        <v>-103</v>
       </c>
       <c r="K35" s="16">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="L35" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>-34.71</v>
+        <v>-50.82</v>
       </c>
       <c r="C36" s="6">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="E36" s="6">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="F36" s="6">
-        <v>-48</v>
+        <v>-133</v>
       </c>
       <c r="G36" s="13">
-        <v>0.44400000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="H36" s="6">
+        <v>87</v>
+      </c>
+      <c r="I36" s="6">
         <v>118</v>
       </c>
-      <c r="I36" s="6">
-        <v>95</v>
-      </c>
       <c r="J36" s="6">
-        <v>22</v>
+        <v>-31</v>
       </c>
       <c r="K36" s="16">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="L36" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>15.67</v>
+        <v>237.74</v>
       </c>
       <c r="C37" s="6">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="D37" s="6">
-        <v>283</v>
+        <v>494</v>
       </c>
       <c r="E37" s="6">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="F37" s="6">
-        <v>-26</v>
+        <v>402</v>
       </c>
       <c r="G37" s="13">
-        <v>0.47</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="H37" s="6">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="I37" s="6">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J37" s="6">
-        <v>-14</v>
+        <v>135</v>
       </c>
       <c r="K37" s="16">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L37" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>-223.27</v>
+        <v>-87.61</v>
       </c>
       <c r="C38" s="6">
-        <v>-169</v>
+        <v>-244</v>
       </c>
       <c r="D38" s="6">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="E38" s="6">
-        <v>493</v>
+        <v>326</v>
       </c>
       <c r="F38" s="6">
-        <v>-392</v>
+        <v>-60</v>
       </c>
       <c r="G38" s="13">
-        <v>0.16800000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="H38" s="6">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="I38" s="6">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J38" s="6">
-        <v>-130</v>
+        <v>57</v>
       </c>
       <c r="K38" s="16">
-        <v>0.89</v>
+        <v>1.53</v>
       </c>
       <c r="L38" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>-274.05</v>
+        <v>-3.52</v>
       </c>
       <c r="C39" s="6">
-        <v>-216</v>
+        <v>-18</v>
       </c>
       <c r="D39" s="6">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="E39" s="6">
-        <v>534</v>
+        <v>302</v>
       </c>
       <c r="F39" s="6">
-        <v>-476</v>
+        <v>-15</v>
       </c>
       <c r="G39" s="13">
-        <v>9.6000000000000002E-2</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="H39" s="6">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I39" s="6">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="J39" s="6">
-        <v>-178</v>
+        <v>-43</v>
       </c>
       <c r="K39" s="16">
         <v>0.89</v>
       </c>
       <c r="L39" s="18">
-        <v>42531</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>-131.72999999999999</v>
+        <v>-34.71</v>
       </c>
       <c r="C40" s="6">
-        <v>-141</v>
+        <v>-21</v>
       </c>
       <c r="D40" s="6">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="E40" s="6">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="F40" s="6">
-        <v>-275</v>
+        <v>-48</v>
       </c>
       <c r="G40" s="13">
-        <v>0.26100000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H40" s="6">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="I40" s="6">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="J40" s="6">
-        <v>-108</v>
+        <v>22</v>
       </c>
       <c r="K40" s="16">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="L40" s="18">
-        <v>42530</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>175.54</v>
+        <v>15.67</v>
       </c>
       <c r="C41" s="6">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6">
-        <v>477</v>
+        <v>283</v>
       </c>
       <c r="E41" s="6">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="F41" s="6">
-        <v>370</v>
+        <v>-26</v>
       </c>
       <c r="G41" s="13">
-        <v>0.79200000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="H41" s="6">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="I41" s="6">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="J41" s="6">
-        <v>158</v>
+        <v>-14</v>
       </c>
       <c r="K41" s="16">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="L41" s="18">
-        <v>42529</v>
+        <v>42535</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>65.53</v>
+        <v>-223.27</v>
       </c>
       <c r="C42" s="4">
-        <v>76</v>
+        <v>-151</v>
       </c>
       <c r="D42" s="4">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="E42" s="4">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="F42" s="4">
-        <v>114</v>
+        <v>-392</v>
       </c>
       <c r="G42" s="14">
-        <v>0.57599999999999996</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H42" s="4">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="I42" s="4">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="J42" s="4">
-        <v>72</v>
+        <v>-130</v>
       </c>
       <c r="K42" s="17">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L42" s="18">
-        <v>42528</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>-260.41000000000003</v>
+        <v>-539.51</v>
       </c>
       <c r="C43" s="1">
-        <v>-363</v>
+        <v>-4315</v>
       </c>
       <c r="D43" s="1">
-        <v>2737</v>
+        <v>2699</v>
       </c>
       <c r="E43" s="1">
-        <v>3143</v>
+        <v>3203</v>
       </c>
       <c r="F43" s="1">
-        <v>-406</v>
+        <v>-504</v>
       </c>
       <c r="G43" s="11">
-        <v>0.46500000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="H43" s="1">
-        <v>1215</v>
+        <v>1162</v>
       </c>
       <c r="I43" s="1">
-        <v>1244</v>
+        <v>1679</v>
       </c>
       <c r="J43" s="1">
-        <v>-29</v>
+        <v>-517</v>
       </c>
       <c r="K43" s="2">
-        <v>0.97</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4421,384 +4444,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
-        <v>626.63</v>
+        <v>-2879.85</v>
       </c>
       <c r="C48" s="6">
-        <v>638</v>
+        <v>-14404</v>
       </c>
       <c r="D48" s="6">
-        <v>1081</v>
+        <v>116</v>
       </c>
       <c r="E48" s="6">
-        <v>237</v>
+        <v>1255</v>
       </c>
       <c r="F48" s="6">
-        <v>844</v>
+        <v>-1139</v>
       </c>
       <c r="G48" s="13">
-        <v>0.80700000000000005</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="H48" s="6">
-        <v>2748</v>
+        <v>529</v>
       </c>
       <c r="I48" s="6">
-        <v>701</v>
+        <v>6938</v>
       </c>
       <c r="J48" s="6">
-        <v>2046</v>
+        <v>-6409</v>
       </c>
       <c r="K48" s="16">
-        <v>0.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L48" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
-        <v>-86.49</v>
+        <v>1123.23</v>
       </c>
       <c r="C49" s="6">
-        <v>-105</v>
+        <v>913</v>
       </c>
       <c r="D49" s="6">
-        <v>697</v>
+        <v>1251</v>
       </c>
       <c r="E49" s="6">
-        <v>625</v>
+        <v>117</v>
       </c>
       <c r="F49" s="6">
-        <v>72</v>
+        <v>1134</v>
       </c>
       <c r="G49" s="13">
-        <v>0.52100000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H49" s="6">
-        <v>2772</v>
+        <v>2943</v>
       </c>
       <c r="I49" s="6">
-        <v>2097</v>
+        <v>301</v>
       </c>
       <c r="J49" s="6">
-        <v>675</v>
+        <v>2642</v>
       </c>
       <c r="K49" s="16">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="L49" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
-        <v>-8.4700000000000006</v>
+        <v>-107.35</v>
       </c>
       <c r="C50" s="6">
-        <v>-104</v>
+        <v>-217</v>
       </c>
       <c r="D50" s="6">
-        <v>653</v>
+        <v>537</v>
       </c>
       <c r="E50" s="6">
-        <v>652</v>
+        <v>806</v>
       </c>
       <c r="F50" s="6">
-        <v>1</v>
+        <v>-269</v>
       </c>
       <c r="G50" s="13">
-        <v>0.48799999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="H50" s="6">
-        <v>1788</v>
+        <v>1102</v>
       </c>
       <c r="I50" s="6">
-        <v>1743</v>
+        <v>1976</v>
       </c>
       <c r="J50" s="6">
-        <v>45</v>
+        <v>-874</v>
       </c>
       <c r="K50" s="16">
-        <v>1.01</v>
+        <v>0.87</v>
       </c>
       <c r="L50" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
-        <v>67.02</v>
+        <v>-10.53</v>
       </c>
       <c r="C51" s="6">
-        <v>56</v>
+        <v>-40</v>
       </c>
       <c r="D51" s="6">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E51" s="6">
-        <v>594</v>
+        <v>647</v>
       </c>
       <c r="F51" s="6">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G51" s="13">
-        <v>0.53700000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="H51" s="6">
-        <v>1935</v>
+        <v>1882</v>
       </c>
       <c r="I51" s="6">
-        <v>1542</v>
+        <v>1317</v>
       </c>
       <c r="J51" s="6">
-        <v>392</v>
+        <v>565</v>
       </c>
       <c r="K51" s="16">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="L51" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>-238.58</v>
+        <v>663.16</v>
       </c>
       <c r="C52" s="6">
-        <v>-432</v>
+        <v>601</v>
       </c>
       <c r="D52" s="6">
-        <v>478</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="6">
-        <v>840</v>
+        <v>243</v>
       </c>
       <c r="F52" s="6">
-        <v>-362</v>
+        <v>877</v>
       </c>
       <c r="G52" s="13">
-        <v>0.35699999999999998</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H52" s="6">
-        <v>1276</v>
+        <v>2736</v>
       </c>
       <c r="I52" s="6">
-        <v>2435</v>
+        <v>701</v>
       </c>
       <c r="J52" s="6">
-        <v>-1158</v>
+        <v>2035</v>
       </c>
       <c r="K52" s="16">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="L52" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
-        <v>-591.9</v>
+        <v>-110.65</v>
       </c>
       <c r="C53" s="6">
-        <v>-232</v>
+        <v>-160</v>
       </c>
       <c r="D53" s="6">
-        <v>199</v>
+        <v>711</v>
       </c>
       <c r="E53" s="6">
-        <v>1121</v>
+        <v>657</v>
       </c>
       <c r="F53" s="6">
-        <v>-922</v>
+        <v>54</v>
       </c>
       <c r="G53" s="13">
-        <v>0.14899999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="H53" s="6">
-        <v>627</v>
+        <v>2728</v>
       </c>
       <c r="I53" s="6">
-        <v>2785</v>
+        <v>2123</v>
       </c>
       <c r="J53" s="6">
-        <v>-2158</v>
+        <v>605</v>
       </c>
       <c r="K53" s="16">
-        <v>0.97</v>
+        <v>1.35</v>
       </c>
       <c r="L53" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
-        <v>-1069.68</v>
+        <v>-9.07</v>
       </c>
       <c r="C54" s="6">
-        <v>-956</v>
+        <v>-100</v>
       </c>
       <c r="D54" s="6">
-        <v>131</v>
+        <v>674</v>
       </c>
       <c r="E54" s="6">
-        <v>1192</v>
+        <v>678</v>
       </c>
       <c r="F54" s="6">
-        <v>-1061</v>
+        <v>-4</v>
       </c>
       <c r="G54" s="13">
-        <v>9.8000000000000004E-2</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="H54" s="6">
-        <v>470</v>
+        <v>1779</v>
       </c>
       <c r="I54" s="6">
-        <v>3013</v>
+        <v>1714</v>
       </c>
       <c r="J54" s="6">
-        <v>-2543</v>
+        <v>65</v>
       </c>
       <c r="K54" s="16">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="L54" s="18">
-        <v>42531</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
-        <v>-352.79</v>
+        <v>71.06</v>
       </c>
       <c r="C55" s="6">
-        <v>-330</v>
+        <v>56</v>
       </c>
       <c r="D55" s="6">
-        <v>460</v>
+        <v>740</v>
       </c>
       <c r="E55" s="6">
-        <v>851</v>
+        <v>617</v>
       </c>
       <c r="F55" s="6">
-        <v>-391</v>
+        <v>123</v>
       </c>
       <c r="G55" s="13">
-        <v>0.34399999999999997</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="H55" s="6">
-        <v>1155</v>
+        <v>1908</v>
       </c>
       <c r="I55" s="6">
-        <v>1930</v>
+        <v>1533</v>
       </c>
       <c r="J55" s="6">
-        <v>-774</v>
+        <v>375</v>
       </c>
       <c r="K55" s="16">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="L55" s="18">
-        <v>42530</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
-        <v>223.72</v>
+        <v>-246.16</v>
       </c>
       <c r="C56" s="6">
-        <v>193</v>
+        <v>-388</v>
       </c>
       <c r="D56" s="6">
-        <v>853</v>
+        <v>493</v>
       </c>
       <c r="E56" s="6">
-        <v>448</v>
+        <v>871</v>
       </c>
       <c r="F56" s="6">
-        <v>405</v>
+        <v>-378</v>
       </c>
       <c r="G56" s="13">
-        <v>0.63700000000000001</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="H56" s="6">
-        <v>1901</v>
+        <v>1262</v>
       </c>
       <c r="I56" s="6">
-        <v>1331</v>
+        <v>2420</v>
       </c>
       <c r="J56" s="6">
-        <v>570</v>
+        <v>-1157</v>
       </c>
       <c r="K56" s="16">
-        <v>0.92</v>
+        <v>1.02</v>
       </c>
       <c r="L56" s="18">
-        <v>42529</v>
+        <v>42535</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
-        <v>176.82</v>
+        <v>-627.27</v>
       </c>
       <c r="C57" s="4">
-        <v>279</v>
+        <v>-267</v>
       </c>
       <c r="D57" s="4">
-        <v>814</v>
+        <v>205</v>
       </c>
       <c r="E57" s="4">
-        <v>496</v>
+        <v>1159</v>
       </c>
       <c r="F57" s="4">
-        <v>318</v>
+        <v>-954</v>
       </c>
       <c r="G57" s="14">
-        <v>0.60799999999999998</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="H57" s="4">
-        <v>1998</v>
+        <v>622</v>
       </c>
       <c r="I57" s="4">
-        <v>1424</v>
+        <v>2769</v>
       </c>
       <c r="J57" s="4">
-        <v>573</v>
+        <v>-2146</v>
       </c>
       <c r="K57" s="17">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="L57" s="18">
-        <v>42528</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>-1253.72</v>
+        <v>-2133.4299999999998</v>
       </c>
       <c r="C58" s="1">
-        <v>-993</v>
+        <v>-14006</v>
       </c>
       <c r="D58" s="1">
-        <v>6085</v>
+        <v>6557</v>
       </c>
       <c r="E58" s="1">
-        <v>7056</v>
+        <v>7050</v>
       </c>
       <c r="F58" s="1">
-        <v>-971</v>
+        <v>-493</v>
       </c>
       <c r="G58" s="11">
-        <v>0.46300000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="H58" s="1">
-        <v>16677</v>
+        <v>17496</v>
       </c>
       <c r="I58" s="1">
-        <v>19007</v>
+        <v>21795</v>
       </c>
       <c r="J58" s="1">
-        <v>-2330</v>
+        <v>-4299</v>
       </c>
       <c r="K58" s="2">
-        <v>1.01</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4847,360 +4870,360 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
-        <v>13.21</v>
+        <v>-65.78</v>
       </c>
       <c r="C63" s="6">
-        <v>12</v>
+        <v>-473</v>
       </c>
       <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
         <v>18</v>
       </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
       <c r="F63" s="6">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="G63" s="13">
-        <v>0.94699999999999995</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H63" s="6">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I63" s="6">
-        <v>15</v>
+        <v>806</v>
       </c>
       <c r="J63" s="6">
-        <v>238</v>
+        <v>-782</v>
       </c>
       <c r="K63" s="16">
-        <v>0.98</v>
+        <v>2.82</v>
       </c>
       <c r="L63" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
-        <v>-13.62</v>
+        <v>26.88</v>
       </c>
       <c r="C64" s="6">
-        <v>-22</v>
+        <v>23</v>
       </c>
       <c r="D64" s="6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E64" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="G64" s="13">
-        <v>0.21099999999999999</v>
+        <v>1</v>
       </c>
       <c r="H64" s="6">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I64" s="6">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>-277</v>
+        <v>285</v>
       </c>
       <c r="K64" s="16">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="L64" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
-        <v>1.85</v>
+        <v>-1.63</v>
       </c>
       <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
         <v>4</v>
       </c>
-      <c r="D65" s="6">
-        <v>12</v>
-      </c>
       <c r="E65" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F65" s="6">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G65" s="13">
-        <v>0.63200000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H65" s="6">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="I65" s="6">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="J65" s="6">
-        <v>244</v>
+        <v>-212</v>
       </c>
       <c r="K65" s="16">
-        <v>1.4</v>
+        <v>0.88</v>
       </c>
       <c r="L65" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
-        <v>-0.52</v>
+        <v>-2.93</v>
       </c>
       <c r="C66" s="6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D66" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="6">
         <v>9</v>
       </c>
       <c r="F66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="13">
-        <v>0.47399999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H66" s="6">
+        <v>164</v>
+      </c>
+      <c r="I66" s="6">
+        <v>62</v>
+      </c>
+      <c r="J66" s="6">
         <v>102</v>
       </c>
-      <c r="I66" s="6">
-        <v>189</v>
-      </c>
-      <c r="J66" s="6">
-        <v>-86</v>
-      </c>
       <c r="K66" s="16">
-        <v>1.06</v>
+        <v>0.77</v>
       </c>
       <c r="L66" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
-        <v>-5.39</v>
+        <v>13.21</v>
       </c>
       <c r="C67" s="6">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="D67" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E67" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="G67" s="13">
-        <v>0.26300000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H67" s="6">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="I67" s="6">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="J67" s="6">
-        <v>-209</v>
+        <v>238</v>
       </c>
       <c r="K67" s="16">
-        <v>1.22</v>
+        <v>0.92</v>
       </c>
       <c r="L67" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
-        <v>-15.82</v>
+        <v>-13.62</v>
       </c>
       <c r="C68" s="6">
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E68" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F68" s="6">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="G68" s="13">
-        <v>0</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H68" s="6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I68" s="6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="J68" s="6">
-        <v>-326</v>
+        <v>-277</v>
       </c>
       <c r="K68" s="16">
-        <v>1.19</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L68" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
-        <v>-21.56</v>
+        <v>1.85</v>
       </c>
       <c r="C69" s="6">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="D69" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E69" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F69" s="6">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="G69" s="13">
-        <v>5.2999999999999999E-2</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H69" s="6">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="I69" s="6">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="J69" s="6">
-        <v>-292</v>
+        <v>244</v>
       </c>
       <c r="K69" s="16">
-        <v>1.1399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="L69" s="18">
-        <v>42531</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
-        <v>-8.68</v>
+        <v>-0.52</v>
       </c>
       <c r="C70" s="6">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E70" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F70" s="6">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G70" s="13">
-        <v>0.21099999999999999</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H70" s="6">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I70" s="6">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="J70" s="6">
-        <v>-174</v>
+        <v>-86</v>
       </c>
       <c r="K70" s="16">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="L70" s="18">
-        <v>42530</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
-        <v>6.07</v>
+        <v>-5.39</v>
       </c>
       <c r="C71" s="6">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D71" s="6">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E71" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F71" s="6">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="G71" s="13">
-        <v>0.89500000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H71" s="6">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="I71" s="6">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="J71" s="6">
-        <v>168</v>
+        <v>-209</v>
       </c>
       <c r="K71" s="16">
-        <v>0.75</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L71" s="18">
-        <v>42529</v>
+        <v>42535</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5">
-        <v>-4.01</v>
+        <v>-15.82</v>
       </c>
       <c r="C72" s="4">
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="D72" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F72" s="4">
-        <v>5</v>
+        <v>-19</v>
       </c>
       <c r="G72" s="14">
-        <v>0.63200000000000001</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I72" s="4">
-        <v>58</v>
+        <v>326</v>
       </c>
       <c r="J72" s="4">
-        <v>66</v>
+        <v>-326</v>
       </c>
       <c r="K72" s="17">
-        <v>0.67</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L72" s="18">
-        <v>42528</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>-48.47</v>
+        <v>-63.75</v>
       </c>
       <c r="C73" s="1">
-        <v>-71</v>
+        <v>-481</v>
       </c>
       <c r="D73" s="1">
         <v>82</v>
@@ -5215,16 +5238,16 @@
         <v>0.439</v>
       </c>
       <c r="H73" s="1">
-        <v>1096</v>
+        <v>1244</v>
       </c>
       <c r="I73" s="1">
-        <v>1746</v>
+        <v>2268</v>
       </c>
       <c r="J73" s="1">
-        <v>-650</v>
+        <v>-1024</v>
       </c>
       <c r="K73" s="2">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5308,11 +5331,11 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
@@ -5337,11 +5360,11 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="111">
   <si>
     <t>130dma</t>
   </si>
@@ -343,19 +343,22 @@
     <t>DJIA</t>
   </si>
   <si>
-    <t>Down -2.40 Points per Component with overall change of 2.80% from closing price 2037.41 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -4.53 Points per Component with overall change of 3.93% from closing price 4285.70 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.90 Points per Component with overall change of 2.89% from closing price 692.01 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -1.54 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -3.36 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Up 0.66 Points per Component with overall change of -1.00% from closing price 2098.86 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.56 Points per Component with overall change of 0.15% from closing price 4417.70 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.18 Points per Component with overall change of -0.76% from closing price 708.36 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.32 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.27 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S40"/>
+  <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1114,8 +1117,8 @@
     <col min="18" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
         <v>97</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
@@ -1152,26 +1155,26 @@
         <v>77</v>
       </c>
       <c r="D4" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="32">
+        <v>9.25</v>
+      </c>
+      <c r="I4" s="34">
         <v>8</v>
       </c>
-      <c r="I4" s="34">
-        <v>8.5</v>
-      </c>
       <c r="J4" s="35">
-        <f t="shared" ref="J4:J39" si="0">H4-I4</f>
-        <v>-0.5</v>
+        <f>H4-I4</f>
+        <v>1.25</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>4</v>
@@ -1180,52 +1183,52 @@
         <v>66</v>
       </c>
       <c r="N4" s="23">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="O4" s="23">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="23">
         <v>0</v>
       </c>
-      <c r="Q4" s="23">
-        <v>-2</v>
-      </c>
-      <c r="R4" s="23">
-        <v>-3.25</v>
-      </c>
       <c r="S4" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D5" s="31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="33">
-        <v>4.25</v>
+        <v>8</v>
       </c>
       <c r="I5" s="36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J5" s="37">
-        <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <f>H5-I5</f>
+        <v>2.5</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>42</v>
@@ -1234,25 +1237,25 @@
         <v>63</v>
       </c>
       <c r="N5" s="23">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="O5" s="23">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="P5" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="23">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="S5" s="23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
@@ -1260,26 +1263,26 @@
         <v>80</v>
       </c>
       <c r="D6" s="31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G6" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6" s="33">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="36">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="J6" s="37">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f>H6-I6</f>
+        <v>2.75</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>43</v>
@@ -1288,52 +1291,52 @@
         <v>64</v>
       </c>
       <c r="N6" s="23">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="23">
         <v>3</v>
       </c>
-      <c r="Q6" s="23">
-        <v>1</v>
-      </c>
       <c r="R6" s="23">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="S6" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D7" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="31">
         <v>5</v>
       </c>
       <c r="H7" s="33">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="I7" s="36">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <f>H7-I7</f>
+        <v>0.5</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>44</v>
@@ -1342,52 +1345,52 @@
         <v>65</v>
       </c>
       <c r="N7" s="23">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P7" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="23">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S7" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D8" s="31">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I8" s="36">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H8-I8</f>
+        <v>1</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>103</v>
@@ -1396,52 +1399,52 @@
         <v>104</v>
       </c>
       <c r="N8" s="23">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="O8" s="23">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P8" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="23">
         <v>5</v>
       </c>
       <c r="R8" s="23">
-        <v>-0.75</v>
+        <v>3.5</v>
       </c>
       <c r="S8" s="23">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D9" s="31">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="33">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="I9" s="36">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H9-I9</f>
+        <v>-1.25</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>27</v>
@@ -1450,52 +1453,52 @@
         <v>67</v>
       </c>
       <c r="N9" s="23">
+        <v>1</v>
+      </c>
+      <c r="O9" s="23">
+        <v>-2</v>
+      </c>
+      <c r="P9" s="23">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="23">
         <v>-3</v>
       </c>
-      <c r="O9" s="23">
-        <v>-4</v>
-      </c>
-      <c r="P9" s="23">
+      <c r="R9" s="23">
+        <v>-1.5</v>
+      </c>
+      <c r="S9" s="23">
         <v>-3</v>
       </c>
-      <c r="Q9" s="23">
-        <v>-4</v>
-      </c>
-      <c r="R9" s="23">
-        <v>-3.5</v>
-      </c>
-      <c r="S9" s="23">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D10" s="31">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="33">
+        <v>4.25</v>
+      </c>
+      <c r="I10" s="36">
+        <v>2.75</v>
+      </c>
+      <c r="J10" s="37">
+        <f>H10-I10</f>
         <v>1.5</v>
-      </c>
-      <c r="I10" s="36">
-        <v>4.25</v>
-      </c>
-      <c r="J10" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.75</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>5</v>
@@ -1504,52 +1507,52 @@
         <v>69</v>
       </c>
       <c r="N10" s="23">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="O10" s="23">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="P10" s="23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Q10" s="23">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="R10" s="23">
-        <v>-5.5</v>
+        <v>-3.75</v>
       </c>
       <c r="S10" s="23">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+        <v>-4.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="31">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="33">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="I11" s="36">
-        <v>0.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" s="37">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f>H11-I11</f>
+        <v>-1.5</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>6</v>
@@ -1558,52 +1561,52 @@
         <v>96</v>
       </c>
       <c r="N11" s="23">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="O11" s="23">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P11" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="23">
         <v>4</v>
       </c>
       <c r="R11" s="23">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="S11" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="31">
-        <v>-3</v>
-      </c>
       <c r="E12" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="31">
         <v>4</v>
       </c>
       <c r="G12" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="33">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="36">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J12" s="37">
-        <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <f>H12-I12</f>
+        <v>0</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>7</v>
@@ -1612,52 +1615,52 @@
         <v>72</v>
       </c>
       <c r="N12" s="23">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="O12" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="23">
         <v>2</v>
       </c>
       <c r="R12" s="23">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="S12" s="23">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="31">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="31">
         <v>5</v>
       </c>
       <c r="G13" s="31">
+        <v>3</v>
+      </c>
+      <c r="H13" s="33">
+        <v>3</v>
+      </c>
+      <c r="I13" s="36">
         <v>1</v>
       </c>
-      <c r="H13" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="36">
-        <v>1.75</v>
-      </c>
       <c r="J13" s="37">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <f>H13-I13</f>
+        <v>2</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>8</v>
@@ -1666,52 +1669,52 @@
         <v>73</v>
       </c>
       <c r="N13" s="23">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O13" s="23">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="P13" s="23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="23">
-        <v>-3.5</v>
+        <v>1</v>
       </c>
       <c r="S13" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D14" s="31">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="31">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14" s="31">
         <v>3</v>
       </c>
       <c r="H14" s="33">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I14" s="36">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="J14" s="37">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <f>H14-I14</f>
+        <v>-0.75</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>9</v>
@@ -1720,52 +1723,52 @@
         <v>74</v>
       </c>
       <c r="N14" s="23">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="O14" s="23">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P14" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="23">
         <v>4</v>
       </c>
       <c r="R14" s="23">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="S14" s="23">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D15" s="31">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="31">
         <v>3</v>
       </c>
       <c r="G15" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="33">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I15" s="36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J15" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <f>H15-I15</f>
+        <v>0</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>10</v>
@@ -1774,52 +1777,55 @@
         <v>75</v>
       </c>
       <c r="N15" s="23">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="23">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="P15" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="23">
         <v>3</v>
       </c>
-      <c r="Q15" s="23">
-        <v>1</v>
-      </c>
       <c r="R15" s="23">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="S15" s="23">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="W15" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D16" s="31">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E16" s="31">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2.75</v>
+      </c>
+      <c r="J16" s="37">
+        <f>H16-I16</f>
         <v>-0.5</v>
-      </c>
-      <c r="I16" s="36">
-        <v>3</v>
-      </c>
-      <c r="J16" s="37">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>11</v>
@@ -1828,52 +1834,52 @@
         <v>76</v>
       </c>
       <c r="N16" s="23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O16" s="23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P16" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R16" s="23">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="S16" s="23">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D17" s="31">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="33">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="I17" s="36">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="J17" s="37">
-        <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <f>H17-I17</f>
+        <v>0.5</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>12</v>
@@ -1882,52 +1888,52 @@
         <v>77</v>
       </c>
       <c r="N17" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P17" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R17" s="23">
+        <v>9.25</v>
+      </c>
+      <c r="S17" s="23">
         <v>8</v>
-      </c>
-      <c r="S17" s="23">
-        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="31">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F18" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="33">
+        <v>2</v>
+      </c>
+      <c r="I18" s="36">
+        <v>2.75</v>
+      </c>
+      <c r="J18" s="37">
+        <f>H18-I18</f>
         <v>-0.75</v>
-      </c>
-      <c r="I18" s="36">
-        <v>2</v>
-      </c>
-      <c r="J18" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.75</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>13</v>
@@ -1936,52 +1942,52 @@
         <v>78</v>
       </c>
       <c r="N18" s="23">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="O18" s="23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="23">
-        <v>-1.5</v>
+        <v>2.25</v>
       </c>
       <c r="S18" s="23">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D19" s="31">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19" s="33">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="I19" s="36">
         <v>3.25</v>
       </c>
       <c r="J19" s="37">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <f>H19-I19</f>
+        <v>-1.25</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>14</v>
@@ -1990,52 +1996,52 @@
         <v>79</v>
       </c>
       <c r="N19" s="23">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="O19" s="23">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="P19" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="23">
         <v>-2</v>
       </c>
       <c r="R19" s="23">
-        <v>-4.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S19" s="23">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D20" s="31">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E20" s="31">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="36">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="J20" s="37">
-        <f t="shared" si="0"/>
-        <v>-3.25</v>
+        <f>H20-I20</f>
+        <v>-2</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>15</v>
@@ -2044,52 +2050,52 @@
         <v>80</v>
       </c>
       <c r="N20" s="23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O20" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P20" s="23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R20" s="23">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="S20" s="23">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D21" s="31">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E21" s="31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="33">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="I21" s="36">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J21" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <f>H21-I21</f>
+        <v>-3.25</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>45</v>
@@ -2098,52 +2104,52 @@
         <v>70</v>
       </c>
       <c r="N21" s="23">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="O21" s="23">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="P21" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" s="23">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="S21" s="23">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="31">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E22" s="31">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="31">
+        <v>4</v>
+      </c>
+      <c r="G22" s="31">
         <v>3</v>
       </c>
-      <c r="G22" s="31">
-        <v>4</v>
-      </c>
       <c r="H22" s="33">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="I22" s="36">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="J22" s="37">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <f>H22-I22</f>
+        <v>-1.5</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>46</v>
@@ -2152,22 +2158,22 @@
         <v>71</v>
       </c>
       <c r="N22" s="23">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="O22" s="23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="23">
         <v>3</v>
       </c>
-      <c r="Q22" s="23">
-        <v>0</v>
-      </c>
       <c r="R22" s="23">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="S22" s="23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
@@ -2178,26 +2184,26 @@
         <v>71</v>
       </c>
       <c r="D23" s="31">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E23" s="31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="31">
+        <v>4</v>
+      </c>
+      <c r="G23" s="31">
         <v>3</v>
       </c>
-      <c r="G23" s="31">
-        <v>0</v>
-      </c>
       <c r="H23" s="33">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="I23" s="36">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="37">
-        <f t="shared" si="0"/>
-        <v>-4.75</v>
+        <f>H23-I23</f>
+        <v>-2.25</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>47</v>
@@ -2206,52 +2212,52 @@
         <v>81</v>
       </c>
       <c r="N23" s="23">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O23" s="23">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="23">
         <v>-2</v>
       </c>
-      <c r="Q23" s="23">
-        <v>-3</v>
-      </c>
       <c r="R23" s="23">
-        <v>-4</v>
+        <v>-0.75</v>
       </c>
       <c r="S23" s="23">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="31">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="I24" s="36">
+        <v>3.25</v>
+      </c>
+      <c r="J24" s="37">
+        <f>H24-I24</f>
         <v>-1.5</v>
-      </c>
-      <c r="I24" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="J24" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.25</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>48</v>
@@ -2260,52 +2266,52 @@
         <v>82</v>
       </c>
       <c r="N24" s="23">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="O24" s="23">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" s="23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="S24" s="23">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D25" s="31">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E25" s="31">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="31">
         <v>1</v>
       </c>
       <c r="H25" s="33">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="I25" s="36">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="J25" s="37">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <f>H25-I25</f>
+        <v>-0.25</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>49</v>
@@ -2314,52 +2320,52 @@
         <v>83</v>
       </c>
       <c r="N25" s="23">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="O25" s="23">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="P25" s="23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="23">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="R25" s="23">
-        <v>-6.5</v>
+        <v>-3.5</v>
       </c>
       <c r="S25" s="23">
-        <v>-4</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" s="31">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E26" s="31">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="31">
         <v>2</v>
       </c>
       <c r="H26" s="33">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="I26" s="36">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="J26" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <f>H26-I26</f>
+        <v>-1.25</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>50</v>
@@ -2368,52 +2374,52 @@
         <v>68</v>
       </c>
       <c r="N26" s="23">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="O26" s="23">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="P26" s="23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="23">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="23">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="S26" s="23">
-        <v>-4</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D27" s="31">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="31">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="31">
         <v>0</v>
       </c>
       <c r="H27" s="33">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="I27" s="36">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="J27" s="37">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <f>H27-I27</f>
+        <v>0.75</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>51</v>
@@ -2422,52 +2428,52 @@
         <v>84</v>
       </c>
       <c r="N27" s="23">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="O27" s="23">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P27" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>3</v>
+      </c>
+      <c r="R27" s="23">
+        <v>3</v>
+      </c>
+      <c r="S27" s="23">
         <v>1</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>0</v>
-      </c>
-      <c r="R27" s="23">
-        <v>-2.5</v>
-      </c>
-      <c r="S27" s="23">
-        <v>-0.25</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="31">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E28" s="31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="31">
+        <v>3</v>
+      </c>
+      <c r="G28" s="31">
         <v>1</v>
       </c>
-      <c r="G28" s="31">
-        <v>0</v>
-      </c>
       <c r="H28" s="33">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="I28" s="36">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="J28" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <f>H28-I28</f>
+        <v>-0.75</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>99</v>
@@ -2476,52 +2482,52 @@
         <v>100</v>
       </c>
       <c r="N28" s="23">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="O28" s="23">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="P28" s="23">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="23">
         <v>-4</v>
       </c>
       <c r="R28" s="23">
-        <v>-5.75</v>
+        <v>-3.75</v>
       </c>
       <c r="S28" s="23">
-        <v>-3.75</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D29" s="31">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="31">
+        <v>0</v>
+      </c>
+      <c r="F29" s="31">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31">
         <v>-1</v>
       </c>
-      <c r="F29" s="31">
-        <v>1</v>
-      </c>
-      <c r="G29" s="31">
-        <v>-3</v>
-      </c>
       <c r="H29" s="33">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="I29" s="36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="37">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f>H29-I29</f>
+        <v>-0.5</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>52</v>
@@ -2530,52 +2536,52 @@
         <v>85</v>
       </c>
       <c r="N29" s="23">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="O29" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q29" s="23">
         <v>3</v>
       </c>
       <c r="R29" s="23">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="S29" s="23">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="31">
+        <v>-2</v>
+      </c>
+      <c r="E30" s="31">
+        <v>-2</v>
+      </c>
+      <c r="F30" s="31">
         <v>4</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="31">
-        <v>-7</v>
-      </c>
-      <c r="E30" s="31">
-        <v>-4</v>
-      </c>
-      <c r="F30" s="31">
-        <v>0</v>
-      </c>
       <c r="G30" s="31">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="33">
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
       <c r="I30" s="36">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="J30" s="37">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <f>H30-I30</f>
+        <v>-3</v>
       </c>
       <c r="L30" s="23" t="s">
         <v>53</v>
@@ -2584,52 +2590,52 @@
         <v>86</v>
       </c>
       <c r="N30" s="23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O30" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S30" s="23">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D31" s="31">
         <v>-3</v>
       </c>
       <c r="E31" s="31">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="31">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="31">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="33">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I31" s="36">
-        <v>-3.5</v>
+        <v>-1</v>
       </c>
       <c r="J31" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H31-I31</f>
+        <v>0.5</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>54</v>
@@ -2638,52 +2644,52 @@
         <v>87</v>
       </c>
       <c r="N31" s="23">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="O31" s="23">
+        <v>1</v>
+      </c>
+      <c r="P31" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>-2</v>
+      </c>
+      <c r="R31" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="S31" s="23">
         <v>-1</v>
-      </c>
-      <c r="P31" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>-3</v>
-      </c>
-      <c r="R31" s="23">
-        <v>-2.75</v>
-      </c>
-      <c r="S31" s="23">
-        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D32" s="31">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E32" s="31">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F32" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="31">
         <v>-2</v>
       </c>
       <c r="H32" s="33">
-        <v>-3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="I32" s="36">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="J32" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <f>H32-I32</f>
+        <v>1</v>
       </c>
       <c r="L32" s="23" t="s">
         <v>55</v>
@@ -2692,52 +2698,52 @@
         <v>88</v>
       </c>
       <c r="N32" s="23">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="O32" s="23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P32" s="23">
         <v>5</v>
       </c>
       <c r="Q32" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" s="23">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S32" s="23">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D33" s="31">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="31">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F33" s="31">
+        <v>2</v>
+      </c>
+      <c r="G33" s="31">
         <v>-2</v>
       </c>
-      <c r="G33" s="31">
-        <v>-3</v>
-      </c>
       <c r="H33" s="33">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I33" s="36">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="J33" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <f>H33-I33</f>
+        <v>-0.25</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>56</v>
@@ -2746,52 +2752,52 @@
         <v>89</v>
       </c>
       <c r="N33" s="23">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="O33" s="23">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="P33" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R33" s="23">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="S33" s="23">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D34" s="31">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="E34" s="31">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F34" s="31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G34" s="31">
         <v>-3</v>
       </c>
       <c r="H34" s="33">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="I34" s="36">
-        <v>-1.5</v>
+        <v>-3</v>
       </c>
       <c r="J34" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <f>H34-I34</f>
+        <v>1.5</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>57</v>
@@ -2800,7 +2806,7 @@
         <v>90</v>
       </c>
       <c r="N34" s="23">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="O34" s="23">
         <v>2</v>
@@ -2812,10 +2818,10 @@
         <v>2</v>
       </c>
       <c r="R34" s="23">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="S34" s="23">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
@@ -2826,26 +2832,26 @@
         <v>79</v>
       </c>
       <c r="D35" s="31">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="31">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="F35" s="31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="31">
         <v>-2</v>
       </c>
       <c r="H35" s="33">
-        <v>-4.75</v>
+        <v>-1.5</v>
       </c>
       <c r="I35" s="36">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="37">
-        <f t="shared" si="0"/>
-        <v>-3.25</v>
+        <f>H35-I35</f>
+        <v>-0.5</v>
       </c>
       <c r="L35" s="23" t="s">
         <v>58</v>
@@ -2854,52 +2860,52 @@
         <v>91</v>
       </c>
       <c r="N35" s="23">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O35" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="23">
         <v>1</v>
       </c>
       <c r="R35" s="23">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="S35" s="23">
-        <v>1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="31">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E36" s="31">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F36" s="31">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="31">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H36" s="33">
-        <v>-5.5</v>
+        <v>-2</v>
       </c>
       <c r="I36" s="36">
-        <v>-3</v>
+        <v>-1.75</v>
       </c>
       <c r="J36" s="37">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <f>H36-I36</f>
+        <v>-0.25</v>
       </c>
       <c r="L36" s="23" t="s">
         <v>59</v>
@@ -2908,10 +2914,10 @@
         <v>92</v>
       </c>
       <c r="N36" s="23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O36" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36" s="23">
         <v>7</v>
@@ -2920,40 +2926,40 @@
         <v>4</v>
       </c>
       <c r="R36" s="23">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="S36" s="23">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D37" s="31">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E37" s="31">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F37" s="31">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G37" s="31">
         <v>-4</v>
       </c>
       <c r="H37" s="33">
-        <v>-5.75</v>
+        <v>-3.5</v>
       </c>
       <c r="I37" s="36">
-        <v>-3.75</v>
+        <v>-3.25</v>
       </c>
       <c r="J37" s="37">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f>H37-I37</f>
+        <v>-0.25</v>
       </c>
       <c r="L37" s="23" t="s">
         <v>60</v>
@@ -2962,52 +2968,52 @@
         <v>93</v>
       </c>
       <c r="N37" s="23">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="O37" s="23">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P37" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37" s="23">
-        <v>-1.75</v>
+        <v>2.5</v>
       </c>
       <c r="S37" s="23">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="29" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38" s="31">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E38" s="31">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="F38" s="31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G38" s="31">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H38" s="33">
-        <v>-6</v>
+        <v>-3.75</v>
       </c>
       <c r="I38" s="36">
-        <v>-4</v>
+        <v>-4.75</v>
       </c>
       <c r="J38" s="37">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f>H38-I38</f>
+        <v>1</v>
       </c>
       <c r="L38" s="23" t="s">
         <v>61</v>
@@ -3016,52 +3022,52 @@
         <v>94</v>
       </c>
       <c r="N38" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O38" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P38" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="23">
         <v>5</v>
       </c>
       <c r="R38" s="23">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="S38" s="23">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D39" s="31">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E39" s="31">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F39" s="31">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G39" s="31">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="H39" s="33">
-        <v>-6.5</v>
+        <v>-3.75</v>
       </c>
       <c r="I39" s="38">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="J39" s="39">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <f>H39-I39</f>
+        <v>-0.25</v>
       </c>
       <c r="L39" s="23" t="s">
         <v>62</v>
@@ -3070,36 +3076,36 @@
         <v>95</v>
       </c>
       <c r="N39" s="23">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="O39" s="23">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="P39" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R39" s="23">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S39" s="23">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H40" s="40">
         <f>AVERAGE(H4:H39)</f>
-        <v>-1.0902777777777777</v>
+        <v>1.7708333333333333</v>
       </c>
       <c r="I40" s="40">
         <f>AVERAGE(I4:I39)</f>
-        <v>1.125</v>
+        <v>1.9652777777777777</v>
       </c>
       <c r="J40" s="40">
         <f>AVERAGE(J4:J39)</f>
-        <v>-2.2152777777777777</v>
+        <v>-0.19444444444444445</v>
       </c>
     </row>
   </sheetData>
@@ -3115,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,389 +3178,389 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>-1647.58</v>
+        <v>568.70000000000005</v>
       </c>
       <c r="C3" s="6">
-        <v>-8150</v>
+        <v>1034</v>
       </c>
       <c r="D3" s="6">
-        <v>39</v>
+        <v>453</v>
       </c>
       <c r="E3" s="6">
-        <v>464</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6">
-        <v>-425</v>
+        <v>404</v>
       </c>
       <c r="G3" s="13">
-        <v>7.6999999999999999E-2</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H3" s="6">
-        <v>212</v>
+        <v>2507</v>
       </c>
       <c r="I3" s="6">
-        <v>4325</v>
+        <v>313</v>
       </c>
       <c r="J3" s="6">
-        <v>-4112</v>
+        <v>2193</v>
       </c>
       <c r="K3" s="16">
-        <v>2.0699999999999998</v>
+        <v>1.24</v>
       </c>
       <c r="L3" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>578.75</v>
+        <v>743.47</v>
       </c>
       <c r="C4" s="6">
-        <v>454</v>
+        <v>907</v>
       </c>
       <c r="D4" s="6">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E4" s="6">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="G4" s="13">
-        <v>0.91700000000000004</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H4" s="6">
-        <v>1826</v>
+        <v>2359</v>
       </c>
       <c r="I4" s="6">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="J4" s="6">
-        <v>1687</v>
+        <v>2125</v>
       </c>
       <c r="K4" s="16">
-        <v>0.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L4" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>-11.03</v>
+        <v>737.56</v>
       </c>
       <c r="C5" s="6">
-        <v>-17</v>
+        <v>1042</v>
       </c>
       <c r="D5" s="6">
-        <v>213</v>
+        <v>470</v>
       </c>
       <c r="E5" s="6">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6">
-        <v>-70</v>
+        <v>439</v>
       </c>
       <c r="G5" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H5" s="6">
-        <v>582</v>
+        <v>2574</v>
       </c>
       <c r="I5" s="6">
-        <v>1261</v>
+        <v>146</v>
       </c>
       <c r="J5" s="6">
-        <v>-679</v>
+        <v>2427</v>
       </c>
       <c r="K5" s="16">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="L5" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>35.950000000000003</v>
+        <v>-880.81</v>
       </c>
       <c r="C6" s="6">
-        <v>14</v>
+        <v>-1992</v>
       </c>
       <c r="D6" s="6">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="E6" s="6">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="F6" s="6">
-        <v>121</v>
+        <v>-349</v>
       </c>
       <c r="G6" s="13">
-        <v>0.61299999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="H6" s="6">
-        <v>1285</v>
+        <v>358</v>
       </c>
       <c r="I6" s="6">
-        <v>646</v>
+        <v>2993</v>
       </c>
       <c r="J6" s="6">
-        <v>639</v>
+        <v>-2635</v>
       </c>
       <c r="K6" s="16">
-        <v>0.89</v>
+        <v>1.47</v>
       </c>
       <c r="L6" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>323.64</v>
+        <v>-1647.58</v>
       </c>
       <c r="C7" s="6">
-        <v>306</v>
+        <v>-7166</v>
       </c>
       <c r="D7" s="6">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="E7" s="6">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="F7" s="6">
-        <v>313</v>
+        <v>-425</v>
       </c>
       <c r="G7" s="13">
-        <v>0.80400000000000005</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>1705</v>
+        <v>212</v>
       </c>
       <c r="I7" s="6">
-        <v>436</v>
+        <v>4325</v>
       </c>
       <c r="J7" s="6">
-        <v>1269</v>
+        <v>-4112</v>
       </c>
       <c r="K7" s="16">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="L7" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>-117.61</v>
+        <v>578.75</v>
       </c>
       <c r="C8" s="6">
-        <v>-251</v>
+        <v>411</v>
       </c>
       <c r="D8" s="6">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="E8" s="6">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6">
-        <v>-5</v>
+        <v>426</v>
       </c>
       <c r="G8" s="13">
-        <v>0.49</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H8" s="6">
-        <v>1594</v>
+        <v>1826</v>
       </c>
       <c r="I8" s="6">
-        <v>1308</v>
+        <v>138</v>
       </c>
       <c r="J8" s="6">
-        <v>285</v>
+        <v>1687</v>
       </c>
       <c r="K8" s="16">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="L8" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <v>71.13</v>
+        <v>-11.03</v>
       </c>
       <c r="C9" s="6">
-        <v>27</v>
+        <v>-15</v>
       </c>
       <c r="D9" s="6">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="E9" s="6">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="F9" s="6">
-        <v>120</v>
+        <v>-70</v>
       </c>
       <c r="G9" s="13">
-        <v>0.61499999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H9" s="6">
-        <v>1172</v>
+        <v>582</v>
       </c>
       <c r="I9" s="6">
-        <v>966</v>
+        <v>1261</v>
       </c>
       <c r="J9" s="6">
-        <v>206</v>
+        <v>-679</v>
       </c>
       <c r="K9" s="16">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="L9" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>-32.119999999999997</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="C10" s="6">
-        <v>-42</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="E10" s="6">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="F10" s="6">
-        <v>-57</v>
+        <v>121</v>
       </c>
       <c r="G10" s="13">
-        <v>0.437</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H10" s="6">
-        <v>1049</v>
+        <v>1285</v>
       </c>
       <c r="I10" s="6">
-        <v>1015</v>
+        <v>646</v>
       </c>
       <c r="J10" s="6">
-        <v>33</v>
+        <v>639</v>
       </c>
       <c r="K10" s="16">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="L10" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <v>-79.61</v>
+        <v>323.64</v>
       </c>
       <c r="C11" s="6">
-        <v>-117</v>
+        <v>277</v>
       </c>
       <c r="D11" s="6">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="E11" s="6">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6">
-        <v>-96</v>
+        <v>313</v>
       </c>
       <c r="G11" s="13">
-        <v>0.40100000000000002</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H11" s="6">
-        <v>751</v>
+        <v>1705</v>
       </c>
       <c r="I11" s="6">
-        <v>1506</v>
+        <v>436</v>
       </c>
       <c r="J11" s="6">
-        <v>-754</v>
+        <v>1269</v>
       </c>
       <c r="K11" s="16">
-        <v>1.03</v>
+        <v>0.94</v>
       </c>
       <c r="L11" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>-330.74</v>
+        <v>-117.61</v>
       </c>
       <c r="C12" s="4">
-        <v>-290</v>
+        <v>-229</v>
       </c>
       <c r="D12" s="4">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="E12" s="4">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="F12" s="4">
-        <v>-375</v>
+        <v>-5</v>
       </c>
       <c r="G12" s="14">
-        <v>0.125</v>
+        <v>0.49</v>
       </c>
       <c r="H12" s="4">
-        <v>309</v>
+        <v>1594</v>
       </c>
       <c r="I12" s="4">
-        <v>1734</v>
+        <v>1308</v>
       </c>
       <c r="J12" s="4">
-        <v>-1425</v>
+        <v>285</v>
       </c>
       <c r="K12" s="17">
-        <v>0.93</v>
+        <v>1.28</v>
       </c>
       <c r="L12" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>-1209.22</v>
+        <v>331.04</v>
       </c>
       <c r="C13" s="1">
-        <v>-8066</v>
+        <v>-5719</v>
       </c>
       <c r="D13" s="1">
-        <v>2479</v>
+        <v>3157</v>
       </c>
       <c r="E13" s="1">
-        <v>2527</v>
+        <v>1853</v>
       </c>
       <c r="F13" s="1">
-        <v>-48</v>
+        <v>1304</v>
       </c>
       <c r="G13" s="11">
-        <v>0.495</v>
+        <v>0.63</v>
       </c>
       <c r="H13" s="1">
-        <v>10490</v>
+        <v>15005</v>
       </c>
       <c r="I13" s="1">
-        <v>13340</v>
+        <v>11805</v>
       </c>
       <c r="J13" s="1">
-        <v>-2850</v>
+        <v>3200</v>
       </c>
       <c r="K13" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3596,389 +3602,389 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
-        <v>-573.66</v>
+        <v>116.07</v>
       </c>
       <c r="C18" s="6">
-        <v>-3682</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E18" s="6">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6">
-        <v>-102</v>
+        <v>80</v>
       </c>
       <c r="G18" s="13">
-        <v>2.8000000000000001E-2</v>
+        <v>0.9</v>
       </c>
       <c r="H18" s="6">
-        <v>19</v>
+        <v>651</v>
       </c>
       <c r="I18" s="6">
-        <v>1322</v>
+        <v>42</v>
       </c>
       <c r="J18" s="6">
-        <v>-1303</v>
+        <v>609</v>
       </c>
       <c r="K18" s="16">
-        <v>2.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L18" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
-        <v>186.05</v>
+        <v>228.78</v>
       </c>
       <c r="C19" s="6">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="D19" s="6">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E19" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="6">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G19" s="13">
-        <v>0.95399999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="H19" s="6">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="I19" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J19" s="6">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="K19" s="16">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="L19" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
-        <v>-0.68</v>
+        <v>208.1</v>
       </c>
       <c r="C20" s="6">
-        <v>-79</v>
+        <v>263</v>
       </c>
       <c r="D20" s="6">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E20" s="6">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6">
-        <v>-7</v>
+        <v>94</v>
       </c>
       <c r="G20" s="13">
-        <v>0.45400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="H20" s="6">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="I20" s="6">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="J20" s="6">
-        <v>-208</v>
+        <v>677</v>
       </c>
       <c r="K20" s="16">
-        <v>0.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L20" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
-        <v>-16.86</v>
+        <v>-230.93</v>
       </c>
       <c r="C21" s="6">
-        <v>-20</v>
+        <v>-546</v>
       </c>
       <c r="D21" s="6">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F21" s="6">
-        <v>13</v>
+        <v>-82</v>
       </c>
       <c r="G21" s="13">
-        <v>0.55600000000000005</v>
+        <v>0.09</v>
       </c>
       <c r="H21" s="6">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="I21" s="6">
-        <v>183</v>
+        <v>837</v>
       </c>
       <c r="J21" s="6">
-        <v>114</v>
+        <v>-791</v>
       </c>
       <c r="K21" s="16">
-        <v>0.88</v>
+        <v>1.46</v>
       </c>
       <c r="L21" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
-        <v>120.24</v>
+        <v>-538.79</v>
       </c>
       <c r="C22" s="6">
-        <v>110</v>
+        <v>-3017</v>
       </c>
       <c r="D22" s="6">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E22" s="6">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F22" s="6">
-        <v>80</v>
+        <v>-94</v>
       </c>
       <c r="G22" s="13">
-        <v>0.87</v>
+        <v>0.03</v>
       </c>
       <c r="H22" s="6">
-        <v>441</v>
+        <v>19</v>
       </c>
       <c r="I22" s="6">
-        <v>135</v>
+        <v>1280</v>
       </c>
       <c r="J22" s="6">
-        <v>306</v>
+        <v>-1261</v>
       </c>
       <c r="K22" s="16">
-        <v>0.97</v>
+        <v>2.16</v>
       </c>
       <c r="L22" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <v>-137.11000000000001</v>
+        <v>180.05</v>
       </c>
       <c r="C23" s="6">
-        <v>-273</v>
+        <v>143</v>
       </c>
       <c r="D23" s="6">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E23" s="6">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="F23" s="6">
-        <v>-59</v>
+        <v>90</v>
       </c>
       <c r="G23" s="13">
-        <v>0.222</v>
+        <v>0.95</v>
       </c>
       <c r="H23" s="6">
-        <v>219</v>
+        <v>537</v>
       </c>
       <c r="I23" s="6">
-        <v>575</v>
+        <v>20</v>
       </c>
       <c r="J23" s="6">
-        <v>-356</v>
+        <v>517</v>
       </c>
       <c r="K23" s="16">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="L23" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
-        <v>25.83</v>
+        <v>-3.51</v>
       </c>
       <c r="C24" s="6">
-        <v>15</v>
+        <v>-70</v>
       </c>
       <c r="D24" s="6">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F24" s="6">
-        <v>46</v>
+        <v>-11</v>
       </c>
       <c r="G24" s="13">
-        <v>0.71299999999999997</v>
+        <v>0.43</v>
       </c>
       <c r="H24" s="6">
-        <v>421</v>
+        <v>151</v>
       </c>
       <c r="I24" s="6">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="J24" s="6">
-        <v>279</v>
+        <v>-217</v>
       </c>
       <c r="K24" s="16">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="L24" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>-15.1</v>
+        <v>-14.41</v>
       </c>
       <c r="C25" s="6">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="D25" s="6">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="G25" s="13">
-        <v>0.39800000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H25" s="6">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="I25" s="6">
-        <v>361</v>
+        <v>172</v>
       </c>
       <c r="J25" s="6">
-        <v>-211</v>
+        <v>125</v>
       </c>
       <c r="K25" s="16">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="L25" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>-12.56</v>
+        <v>115.14</v>
       </c>
       <c r="C26" s="6">
-        <v>-12</v>
+        <v>97</v>
       </c>
       <c r="D26" s="6">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E26" s="6">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6">
-        <v>-12</v>
+        <v>72</v>
       </c>
       <c r="G26" s="13">
-        <v>0.44400000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H26" s="6">
-        <v>286</v>
+        <v>431</v>
       </c>
       <c r="I26" s="6">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="J26" s="6">
-        <v>-12</v>
+        <v>295</v>
       </c>
       <c r="K26" s="16">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="L26" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>-65.11</v>
+        <v>-116.73</v>
       </c>
       <c r="C27" s="4">
-        <v>-58</v>
+        <v>-206</v>
       </c>
       <c r="D27" s="4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F27" s="4">
-        <v>-73</v>
+        <v>-53</v>
       </c>
       <c r="G27" s="14">
-        <v>0.157</v>
+        <v>0.23</v>
       </c>
       <c r="H27" s="4">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="I27" s="4">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="J27" s="4">
-        <v>-366</v>
+        <v>-346</v>
       </c>
       <c r="K27" s="17">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="L27" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>-488.96</v>
+        <v>-56.23</v>
       </c>
       <c r="C28" s="1">
-        <v>-3853</v>
+        <v>-2931</v>
       </c>
       <c r="D28" s="1">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="E28" s="1">
-        <v>554</v>
+        <v>395</v>
       </c>
       <c r="F28" s="1">
-        <v>-36</v>
+        <v>205</v>
       </c>
       <c r="G28" s="11">
-        <v>0.48299999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="H28" s="1">
-        <v>2675</v>
+        <v>3646</v>
       </c>
       <c r="I28" s="1">
-        <v>3905</v>
+        <v>3456</v>
       </c>
       <c r="J28" s="1">
-        <v>-1230</v>
+        <v>190</v>
       </c>
       <c r="K28" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4020,389 +4026,389 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
-        <v>-697.43</v>
+        <v>408.56</v>
       </c>
       <c r="C33" s="6">
-        <v>-4304</v>
+        <v>647</v>
       </c>
       <c r="D33" s="6">
-        <v>32</v>
+        <v>542</v>
       </c>
       <c r="E33" s="6">
-        <v>566</v>
+        <v>55</v>
       </c>
       <c r="F33" s="6">
-        <v>-534</v>
+        <v>487</v>
       </c>
       <c r="G33" s="13">
-        <v>5.2999999999999999E-2</v>
+        <v>0.9</v>
       </c>
       <c r="H33" s="6">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="I33" s="6">
-        <v>623</v>
+        <v>46</v>
       </c>
       <c r="J33" s="6">
-        <v>-590</v>
+        <v>216</v>
       </c>
       <c r="K33" s="16">
-        <v>2.48</v>
+        <v>1.17</v>
       </c>
       <c r="L33" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>393.35</v>
+        <v>387.36</v>
       </c>
       <c r="C34" s="6">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D34" s="6">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E34" s="6">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F34" s="6">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="G34" s="13">
-        <v>0.93</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H34" s="6">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I34" s="6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J34" s="6">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="K34" s="16">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="L34" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>-88.91</v>
+        <v>175.16</v>
       </c>
       <c r="C35" s="6">
-        <v>-97</v>
+        <v>165</v>
       </c>
       <c r="D35" s="6">
-        <v>183</v>
+        <v>459</v>
       </c>
       <c r="E35" s="6">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="F35" s="6">
-        <v>-221</v>
+        <v>324</v>
       </c>
       <c r="G35" s="13">
-        <v>0.30399999999999999</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="H35" s="6">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="I35" s="6">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="J35" s="6">
-        <v>-103</v>
+        <v>180</v>
       </c>
       <c r="K35" s="16">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
       <c r="L35" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>-50.82</v>
+        <v>-567.69000000000005</v>
       </c>
       <c r="C36" s="6">
-        <v>5</v>
+        <v>-915</v>
       </c>
       <c r="D36" s="6">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6">
-        <v>359</v>
+        <v>553</v>
       </c>
       <c r="F36" s="6">
-        <v>-133</v>
+        <v>-507</v>
       </c>
       <c r="G36" s="13">
-        <v>0.375</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H36" s="6">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="I36" s="6">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="J36" s="6">
-        <v>-31</v>
+        <v>-291</v>
       </c>
       <c r="K36" s="16">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="L36" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>237.74</v>
+        <v>-697.98</v>
       </c>
       <c r="C37" s="6">
-        <v>190</v>
+        <v>-4031</v>
       </c>
       <c r="D37" s="6">
-        <v>494</v>
+        <v>32</v>
       </c>
       <c r="E37" s="6">
-        <v>92</v>
+        <v>567</v>
       </c>
       <c r="F37" s="6">
-        <v>402</v>
+        <v>-535</v>
       </c>
       <c r="G37" s="13">
-        <v>0.82099999999999995</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H37" s="6">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="I37" s="6">
-        <v>45</v>
+        <v>628</v>
       </c>
       <c r="J37" s="6">
-        <v>135</v>
+        <v>-594</v>
       </c>
       <c r="K37" s="16">
-        <v>0.87</v>
+        <v>2.46</v>
       </c>
       <c r="L37" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>-87.61</v>
+        <v>393.62</v>
       </c>
       <c r="C38" s="6">
-        <v>-244</v>
+        <v>289</v>
       </c>
       <c r="D38" s="6">
-        <v>266</v>
+        <v>561</v>
       </c>
       <c r="E38" s="6">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="F38" s="6">
-        <v>-60</v>
+        <v>524</v>
       </c>
       <c r="G38" s="13">
-        <v>0.442</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H38" s="6">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="I38" s="6">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="J38" s="6">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="K38" s="16">
-        <v>1.53</v>
+        <v>0.9</v>
       </c>
       <c r="L38" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>-3.52</v>
+        <v>-88.94</v>
       </c>
       <c r="C39" s="6">
-        <v>-18</v>
+        <v>-89</v>
       </c>
       <c r="D39" s="6">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="E39" s="6">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="F39" s="6">
-        <v>-15</v>
+        <v>-222</v>
       </c>
       <c r="G39" s="13">
-        <v>0.47699999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H39" s="6">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I39" s="6">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="J39" s="6">
-        <v>-43</v>
+        <v>-103</v>
       </c>
       <c r="K39" s="16">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="L39" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>-34.71</v>
+        <v>-50.5</v>
       </c>
       <c r="C40" s="6">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="D40" s="6">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="E40" s="6">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="F40" s="6">
-        <v>-48</v>
+        <v>-132</v>
       </c>
       <c r="G40" s="13">
-        <v>0.44400000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="H40" s="6">
+        <v>88</v>
+      </c>
+      <c r="I40" s="6">
         <v>118</v>
       </c>
-      <c r="I40" s="6">
-        <v>95</v>
-      </c>
       <c r="J40" s="6">
-        <v>22</v>
+        <v>-30</v>
       </c>
       <c r="K40" s="16">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="L40" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>15.67</v>
+        <v>237.19</v>
       </c>
       <c r="C41" s="6">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D41" s="6">
-        <v>283</v>
+        <v>494</v>
       </c>
       <c r="E41" s="6">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="F41" s="6">
-        <v>-26</v>
+        <v>401</v>
       </c>
       <c r="G41" s="13">
-        <v>0.47</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="H41" s="6">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="I41" s="6">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J41" s="6">
-        <v>-14</v>
+        <v>135</v>
       </c>
       <c r="K41" s="16">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L41" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>-223.27</v>
+        <v>-87.69</v>
       </c>
       <c r="C42" s="4">
-        <v>-151</v>
+        <v>-229</v>
       </c>
       <c r="D42" s="4">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="E42" s="4">
-        <v>493</v>
+        <v>327</v>
       </c>
       <c r="F42" s="4">
-        <v>-392</v>
+        <v>-61</v>
       </c>
       <c r="G42" s="14">
-        <v>0.16800000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="H42" s="4">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="I42" s="4">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J42" s="4">
-        <v>-130</v>
+        <v>55</v>
       </c>
       <c r="K42" s="17">
-        <v>0.86</v>
+        <v>1.52</v>
       </c>
       <c r="L42" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>-539.51</v>
+        <v>109.09</v>
       </c>
       <c r="C43" s="1">
-        <v>-4315</v>
+        <v>-3603</v>
       </c>
       <c r="D43" s="1">
-        <v>2699</v>
+        <v>3363</v>
       </c>
       <c r="E43" s="1">
-        <v>3203</v>
+        <v>2577</v>
       </c>
       <c r="F43" s="1">
-        <v>-504</v>
+        <v>786</v>
       </c>
       <c r="G43" s="11">
-        <v>0.45700000000000002</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="H43" s="1">
-        <v>1162</v>
+        <v>1543</v>
       </c>
       <c r="I43" s="1">
-        <v>1679</v>
+        <v>1580</v>
       </c>
       <c r="J43" s="1">
-        <v>-517</v>
+        <v>-37</v>
       </c>
       <c r="K43" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4444,389 +4450,389 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
-        <v>-2879.85</v>
+        <v>975.21</v>
       </c>
       <c r="C48" s="6">
-        <v>-14404</v>
+        <v>1642</v>
       </c>
       <c r="D48" s="6">
-        <v>116</v>
+        <v>1185</v>
       </c>
       <c r="E48" s="6">
-        <v>1255</v>
+        <v>229</v>
       </c>
       <c r="F48" s="6">
-        <v>-1139</v>
+        <v>956</v>
       </c>
       <c r="G48" s="13">
-        <v>8.4000000000000005E-2</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="H48" s="6">
-        <v>529</v>
+        <v>3822</v>
       </c>
       <c r="I48" s="6">
-        <v>6938</v>
+        <v>728</v>
       </c>
       <c r="J48" s="6">
-        <v>-6409</v>
+        <v>3093</v>
       </c>
       <c r="K48" s="16">
-        <v>2.0699999999999998</v>
+        <v>1.21</v>
       </c>
       <c r="L48" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
-        <v>1123.23</v>
+        <v>1423.98</v>
       </c>
       <c r="C49" s="6">
-        <v>913</v>
+        <v>2144</v>
       </c>
       <c r="D49" s="6">
-        <v>1251</v>
+        <v>1321</v>
       </c>
       <c r="E49" s="6">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F49" s="6">
-        <v>1134</v>
+        <v>1221</v>
       </c>
       <c r="G49" s="13">
-        <v>0.90300000000000002</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="H49" s="6">
-        <v>2943</v>
+        <v>3834</v>
       </c>
       <c r="I49" s="6">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J49" s="6">
-        <v>2642</v>
+        <v>3523</v>
       </c>
       <c r="K49" s="16">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L49" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
-        <v>-107.35</v>
+        <v>1347.59</v>
       </c>
       <c r="C50" s="6">
-        <v>-217</v>
+        <v>1687</v>
       </c>
       <c r="D50" s="6">
-        <v>537</v>
+        <v>1287</v>
       </c>
       <c r="E50" s="6">
-        <v>806</v>
+        <v>135</v>
       </c>
       <c r="F50" s="6">
-        <v>-269</v>
+        <v>1152</v>
       </c>
       <c r="G50" s="13">
-        <v>0.38700000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H50" s="6">
-        <v>1102</v>
+        <v>3972</v>
       </c>
       <c r="I50" s="6">
-        <v>1976</v>
+        <v>348</v>
       </c>
       <c r="J50" s="6">
-        <v>-874</v>
+        <v>3624</v>
       </c>
       <c r="K50" s="16">
-        <v>0.87</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L50" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
-        <v>-10.53</v>
+        <v>-1880.28</v>
       </c>
       <c r="C51" s="6">
-        <v>-40</v>
+        <v>-3715</v>
       </c>
       <c r="D51" s="6">
-        <v>710</v>
+        <v>166</v>
       </c>
       <c r="E51" s="6">
-        <v>647</v>
+        <v>1252</v>
       </c>
       <c r="F51" s="6">
-        <v>63</v>
+        <v>-1086</v>
       </c>
       <c r="G51" s="13">
-        <v>0.51200000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H51" s="6">
-        <v>1882</v>
+        <v>611</v>
       </c>
       <c r="I51" s="6">
-        <v>1317</v>
+        <v>4750</v>
       </c>
       <c r="J51" s="6">
-        <v>565</v>
+        <v>-4138</v>
       </c>
       <c r="K51" s="16">
-        <v>0.89</v>
+        <v>1.42</v>
       </c>
       <c r="L51" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>663.16</v>
+        <v>-3026.61</v>
       </c>
       <c r="C52" s="6">
-        <v>601</v>
+        <v>-13592</v>
       </c>
       <c r="D52" s="6">
-        <v>1120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="6">
-        <v>243</v>
+        <v>1304</v>
       </c>
       <c r="F52" s="6">
-        <v>877</v>
+        <v>-1186</v>
       </c>
       <c r="G52" s="13">
-        <v>0.80800000000000005</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H52" s="6">
-        <v>2736</v>
+        <v>541</v>
       </c>
       <c r="I52" s="6">
-        <v>701</v>
+        <v>7030</v>
       </c>
       <c r="J52" s="6">
-        <v>2035</v>
+        <v>-6489</v>
       </c>
       <c r="K52" s="16">
-        <v>0.95</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L52" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
-        <v>-110.65</v>
+        <v>1173.44</v>
       </c>
       <c r="C53" s="6">
-        <v>-160</v>
+        <v>863</v>
       </c>
       <c r="D53" s="6">
-        <v>711</v>
+        <v>1296</v>
       </c>
       <c r="E53" s="6">
-        <v>657</v>
+        <v>124</v>
       </c>
       <c r="F53" s="6">
-        <v>54</v>
+        <v>1172</v>
       </c>
       <c r="G53" s="13">
-        <v>0.51300000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="H53" s="6">
-        <v>2728</v>
+        <v>2979</v>
       </c>
       <c r="I53" s="6">
-        <v>2123</v>
+        <v>302</v>
       </c>
       <c r="J53" s="6">
-        <v>605</v>
+        <v>2677</v>
       </c>
       <c r="K53" s="16">
-        <v>1.35</v>
+        <v>0.87</v>
       </c>
       <c r="L53" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
-        <v>-9.07</v>
+        <v>-105.68</v>
       </c>
       <c r="C54" s="6">
-        <v>-100</v>
+        <v>-191</v>
       </c>
       <c r="D54" s="6">
-        <v>674</v>
+        <v>564</v>
       </c>
       <c r="E54" s="6">
-        <v>678</v>
+        <v>830</v>
       </c>
       <c r="F54" s="6">
-        <v>-4</v>
+        <v>-266</v>
       </c>
       <c r="G54" s="13">
-        <v>0.48599999999999999</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="H54" s="6">
-        <v>1779</v>
+        <v>1124</v>
       </c>
       <c r="I54" s="6">
-        <v>1714</v>
+        <v>1992</v>
       </c>
       <c r="J54" s="6">
-        <v>65</v>
+        <v>-867</v>
       </c>
       <c r="K54" s="16">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="L54" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
-        <v>71.06</v>
+        <v>-27.65</v>
       </c>
       <c r="C55" s="6">
-        <v>56</v>
+        <v>-52</v>
       </c>
       <c r="D55" s="6">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E55" s="6">
-        <v>617</v>
+        <v>678</v>
       </c>
       <c r="F55" s="6">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="G55" s="13">
-        <v>0.53400000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="H55" s="6">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="I55" s="6">
-        <v>1533</v>
+        <v>1336</v>
       </c>
       <c r="J55" s="6">
-        <v>375</v>
+        <v>563</v>
       </c>
       <c r="K55" s="16">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="L55" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
-        <v>-246.16</v>
+        <v>696.02</v>
       </c>
       <c r="C56" s="6">
-        <v>-388</v>
+        <v>573</v>
       </c>
       <c r="D56" s="6">
-        <v>493</v>
+        <v>1166</v>
       </c>
       <c r="E56" s="6">
-        <v>871</v>
+        <v>248</v>
       </c>
       <c r="F56" s="6">
-        <v>-378</v>
+        <v>918</v>
       </c>
       <c r="G56" s="13">
-        <v>0.35599999999999998</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H56" s="6">
-        <v>1262</v>
+        <v>2772</v>
       </c>
       <c r="I56" s="6">
-        <v>2420</v>
+        <v>704</v>
       </c>
       <c r="J56" s="6">
-        <v>-1157</v>
+        <v>2067</v>
       </c>
       <c r="K56" s="16">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="L56" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
-        <v>-627.27</v>
+        <v>-110.33</v>
       </c>
       <c r="C57" s="4">
-        <v>-267</v>
+        <v>-158</v>
       </c>
       <c r="D57" s="4">
-        <v>205</v>
+        <v>739</v>
       </c>
       <c r="E57" s="4">
-        <v>1159</v>
+        <v>679</v>
       </c>
       <c r="F57" s="4">
-        <v>-954</v>
+        <v>60</v>
       </c>
       <c r="G57" s="14">
-        <v>0.14799999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="H57" s="4">
-        <v>622</v>
+        <v>2783</v>
       </c>
       <c r="I57" s="4">
-        <v>2769</v>
+        <v>2142</v>
       </c>
       <c r="J57" s="4">
-        <v>-2146</v>
+        <v>641</v>
       </c>
       <c r="K57" s="17">
-        <v>0.94</v>
+        <v>1.31</v>
       </c>
       <c r="L57" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>-2133.4299999999998</v>
+        <v>465.69</v>
       </c>
       <c r="C58" s="1">
-        <v>-14006</v>
+        <v>-10799</v>
       </c>
       <c r="D58" s="1">
-        <v>6557</v>
+        <v>8573</v>
       </c>
       <c r="E58" s="1">
-        <v>7050</v>
+        <v>5579</v>
       </c>
       <c r="F58" s="1">
-        <v>-493</v>
+        <v>2994</v>
       </c>
       <c r="G58" s="11">
-        <v>0.48199999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="H58" s="1">
-        <v>17496</v>
+        <v>24342</v>
       </c>
       <c r="I58" s="1">
-        <v>21795</v>
+        <v>19647</v>
       </c>
       <c r="J58" s="1">
-        <v>-4299</v>
+        <v>4695</v>
       </c>
       <c r="K58" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4870,45 +4876,45 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
-        <v>-65.78</v>
+        <v>23.57</v>
       </c>
       <c r="C63" s="6">
-        <v>-473</v>
+        <v>42</v>
       </c>
       <c r="D63" s="6">
+        <v>19</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>19</v>
+      </c>
+      <c r="G63" s="13">
         <v>1</v>
       </c>
-      <c r="E63" s="6">
-        <v>18</v>
-      </c>
-      <c r="F63" s="6">
-        <v>-17</v>
-      </c>
-      <c r="G63" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
       <c r="H63" s="6">
-        <v>24</v>
+        <v>429</v>
       </c>
       <c r="I63" s="6">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>-782</v>
+        <v>429</v>
       </c>
       <c r="K63" s="16">
-        <v>2.82</v>
+        <v>1.36</v>
       </c>
       <c r="L63" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
-        <v>26.88</v>
+        <v>30.35</v>
       </c>
       <c r="C64" s="6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D64" s="6">
         <v>19</v>
@@ -4923,336 +4929,336 @@
         <v>1</v>
       </c>
       <c r="H64" s="6">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="I64" s="6">
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="K64" s="16">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="L64" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
-        <v>-1.63</v>
+        <v>33.58</v>
       </c>
       <c r="C65" s="6">
+        <v>56</v>
+      </c>
+      <c r="D65" s="6">
+        <v>19</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>19</v>
+      </c>
+      <c r="G65" s="13">
         <v>1</v>
       </c>
-      <c r="D65" s="6">
-        <v>4</v>
-      </c>
-      <c r="E65" s="6">
-        <v>15</v>
-      </c>
-      <c r="F65" s="6">
-        <v>-11</v>
-      </c>
-      <c r="G65" s="13">
-        <v>0.21099999999999999</v>
-      </c>
       <c r="H65" s="6">
-        <v>24</v>
+        <v>445</v>
       </c>
       <c r="I65" s="6">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>-212</v>
+        <v>445</v>
       </c>
       <c r="K65" s="16">
-        <v>0.88</v>
+        <v>1.4</v>
       </c>
       <c r="L65" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
-        <v>-2.93</v>
+        <v>-38.549999999999997</v>
       </c>
       <c r="C66" s="6">
-        <v>-2</v>
+        <v>-150</v>
       </c>
       <c r="D66" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E66" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F66" s="6">
-        <v>1</v>
+        <v>-17</v>
       </c>
       <c r="G66" s="13">
-        <v>0.52600000000000002</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H66" s="6">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I66" s="6">
-        <v>62</v>
+        <v>649</v>
       </c>
       <c r="J66" s="6">
-        <v>102</v>
+        <v>-632</v>
       </c>
       <c r="K66" s="16">
-        <v>0.77</v>
+        <v>2.1</v>
       </c>
       <c r="L66" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
-        <v>13.21</v>
+        <v>-65.78</v>
       </c>
       <c r="C67" s="6">
-        <v>10</v>
+        <v>-385</v>
       </c>
       <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
         <v>18</v>
       </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
       <c r="F67" s="6">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="G67" s="13">
-        <v>0.94699999999999995</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H67" s="6">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I67" s="6">
-        <v>15</v>
+        <v>806</v>
       </c>
       <c r="J67" s="6">
-        <v>238</v>
+        <v>-782</v>
       </c>
       <c r="K67" s="16">
-        <v>0.92</v>
+        <v>2.62</v>
       </c>
       <c r="L67" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
-        <v>-13.62</v>
+        <v>26.88</v>
       </c>
       <c r="C68" s="6">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="D68" s="6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E68" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F68" s="6">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="G68" s="13">
-        <v>0.21099999999999999</v>
+        <v>1</v>
       </c>
       <c r="H68" s="6">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I68" s="6">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>-277</v>
+        <v>285</v>
       </c>
       <c r="K68" s="16">
-        <v>1.1100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L68" s="18">
-        <v>42538</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
-        <v>1.85</v>
+        <v>-1.63</v>
       </c>
       <c r="C69" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E69" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F69" s="6">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G69" s="13">
-        <v>0.63200000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H69" s="6">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="I69" s="6">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="J69" s="6">
-        <v>244</v>
+        <v>-212</v>
       </c>
       <c r="K69" s="16">
-        <v>1.31</v>
+        <v>0.82</v>
       </c>
       <c r="L69" s="18">
-        <v>42537</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
-        <v>-0.52</v>
+        <v>-2.93</v>
       </c>
       <c r="C70" s="6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D70" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="6">
         <v>9</v>
       </c>
       <c r="F70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="13">
-        <v>0.47399999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H70" s="6">
+        <v>164</v>
+      </c>
+      <c r="I70" s="6">
+        <v>62</v>
+      </c>
+      <c r="J70" s="6">
         <v>102</v>
       </c>
-      <c r="I70" s="6">
-        <v>189</v>
-      </c>
-      <c r="J70" s="6">
-        <v>-86</v>
-      </c>
       <c r="K70" s="16">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="L70" s="18">
-        <v>42536</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
-        <v>-5.39</v>
+        <v>13.21</v>
       </c>
       <c r="C71" s="6">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E71" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="G71" s="13">
-        <v>0.26300000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H71" s="6">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="I71" s="6">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="J71" s="6">
-        <v>-209</v>
+        <v>238</v>
       </c>
       <c r="K71" s="16">
-        <v>1.1299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="L71" s="18">
-        <v>42535</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5">
-        <v>-15.82</v>
+        <v>-13.62</v>
       </c>
       <c r="C72" s="4">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D72" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F72" s="4">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="G72" s="14">
-        <v>0</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I72" s="4">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="J72" s="4">
-        <v>-326</v>
+        <v>-277</v>
       </c>
       <c r="K72" s="17">
-        <v>1.1100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="L72" s="18">
-        <v>42534</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>-63.75</v>
+        <v>5.08</v>
       </c>
       <c r="C73" s="1">
-        <v>-481</v>
+        <v>-384</v>
       </c>
       <c r="D73" s="1">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E73" s="1">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F73" s="1">
-        <v>-23</v>
+        <v>38</v>
       </c>
       <c r="G73" s="11">
-        <v>0.439</v>
+        <v>0.6</v>
       </c>
       <c r="H73" s="1">
-        <v>1244</v>
+        <v>2063</v>
       </c>
       <c r="I73" s="1">
-        <v>2268</v>
+        <v>2073</v>
       </c>
       <c r="J73" s="1">
-        <v>-1024</v>
+        <v>-10</v>
       </c>
       <c r="K73" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -346,19 +346,19 @@
     <t>+</t>
   </si>
   <si>
-    <t>Up 0.66 Points per Component with overall change of -1.00% from closing price 2098.86 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.56 Points per Component with overall change of 0.15% from closing price 4417.70 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.18 Points per Component with overall change of -0.76% from closing price 708.36 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.32 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.27 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 1.14 Points per Component with overall change of -1.53% from closing price 2102.94 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.41 Points per Component with overall change of -1.44% from closing price 4437.44 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.39 Points per Component with overall change of -1.24% from closing price 710.17 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.64 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.45 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1170,11 +1170,11 @@
         <v>9.25</v>
       </c>
       <c r="I4" s="34">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="J4" s="35">
         <f>H4-I4</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>4</v>
@@ -1209,7 +1209,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="31">
         <v>8</v>
@@ -1221,14 +1221,14 @@
         <v>7</v>
       </c>
       <c r="H5" s="33">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="I5" s="36">
-        <v>5.5</v>
+        <v>7.25</v>
       </c>
       <c r="J5" s="37">
         <f>H5-I5</f>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>42</v>
@@ -1266,23 +1266,23 @@
         <v>9</v>
       </c>
       <c r="E6" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="33">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="I6" s="36">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J6" s="37">
         <f>H6-I6</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>43</v>
@@ -1311,32 +1311,32 @@
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D7" s="31">
+        <v>7</v>
+      </c>
+      <c r="E7" s="31">
         <v>6</v>
       </c>
-      <c r="E7" s="31">
-        <v>5</v>
-      </c>
       <c r="F7" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="33">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I7" s="36">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" s="37">
         <f>H7-I7</f>
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>44</v>
@@ -1365,32 +1365,32 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D8" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="31">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31">
+        <v>8</v>
+      </c>
+      <c r="G8" s="31">
         <v>4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="H8" s="33">
         <v>6</v>
       </c>
-      <c r="G8" s="31">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33">
-        <v>4.5</v>
-      </c>
       <c r="I8" s="36">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="37">
         <f>H8-I8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>103</v>
@@ -1419,32 +1419,32 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D9" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="31">
         <v>8</v>
       </c>
       <c r="G9" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="33">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="I9" s="36">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J9" s="37">
         <f>H9-I9</f>
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>27</v>
@@ -1473,32 +1473,32 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D10" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="31">
         <v>4</v>
       </c>
       <c r="H10" s="33">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="I10" s="36">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="J10" s="37">
         <f>H10-I10</f>
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>5</v>
@@ -1533,10 +1533,10 @@
         <v>92</v>
       </c>
       <c r="D11" s="31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="31">
         <v>7</v>
@@ -1545,14 +1545,14 @@
         <v>4</v>
       </c>
       <c r="H11" s="33">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I11" s="36">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="J11" s="37">
         <f>H11-I11</f>
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>6</v>
@@ -1581,32 +1581,32 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D12" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="31">
+        <v>4</v>
+      </c>
+      <c r="F12" s="31">
+        <v>6</v>
+      </c>
+      <c r="G12" s="31">
         <v>2</v>
       </c>
-      <c r="F12" s="31">
-        <v>4</v>
-      </c>
-      <c r="G12" s="31">
-        <v>5</v>
-      </c>
       <c r="H12" s="33">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="I12" s="36">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="J12" s="37">
         <f>H12-I12</f>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>7</v>
@@ -1635,32 +1635,32 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D13" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="31">
         <v>5</v>
       </c>
       <c r="G13" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="36">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="J13" s="37">
         <f>H13-I13</f>
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>8</v>
@@ -1689,28 +1689,28 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D14" s="31">
         <v>2</v>
       </c>
       <c r="E14" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="31">
         <v>3</v>
       </c>
       <c r="H14" s="33">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="I14" s="36">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" s="37">
         <f>H14-I14</f>
@@ -1743,32 +1743,32 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D15" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="31">
         <v>2</v>
       </c>
       <c r="F15" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="31">
         <v>3</v>
       </c>
       <c r="H15" s="33">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="I15" s="36">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J15" s="37">
         <f>H15-I15</f>
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>10</v>
@@ -1800,32 +1800,32 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D16" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="31">
         <v>2</v>
       </c>
       <c r="F16" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="31">
         <v>3</v>
       </c>
       <c r="H16" s="33">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="I16" s="36">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J16" s="37">
         <f>H16-I16</f>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>11</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D17" s="31">
         <v>2</v>
@@ -1866,20 +1866,20 @@
         <v>2</v>
       </c>
       <c r="F17" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="31">
         <v>2</v>
       </c>
       <c r="H17" s="33">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="I17" s="36">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="J17" s="37">
         <f>H17-I17</f>
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>12</v>
@@ -1908,32 +1908,32 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="31">
         <v>1</v>
       </c>
       <c r="E18" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="33">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="I18" s="36">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="J18" s="37">
         <f>H18-I18</f>
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>13</v>
@@ -1971,23 +1971,23 @@
         <v>-1</v>
       </c>
       <c r="E19" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="31">
+        <v>6</v>
+      </c>
+      <c r="G19" s="31">
         <v>5</v>
       </c>
-      <c r="G19" s="31">
-        <v>4</v>
-      </c>
       <c r="H19" s="33">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="I19" s="36">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J19" s="37">
         <f>H19-I19</f>
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>14</v>
@@ -2016,32 +2016,32 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D20" s="31">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="33">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="I20" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="37">
         <f>H20-I20</f>
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>15</v>
@@ -2070,32 +2070,32 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31">
         <v>6</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="31">
-        <v>-4</v>
-      </c>
-      <c r="E21" s="31">
-        <v>0</v>
-      </c>
-      <c r="F21" s="31">
-        <v>7</v>
-      </c>
       <c r="G21" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="33">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="I21" s="36">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="J21" s="37">
         <f>H21-I21</f>
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>45</v>
@@ -2124,32 +2124,32 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D22" s="31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="31">
         <v>4</v>
       </c>
       <c r="G22" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="33">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="I22" s="36">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J22" s="37">
         <f>H22-I22</f>
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>46</v>
@@ -2178,32 +2178,32 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D23" s="31">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E23" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="31">
+        <v>7</v>
+      </c>
+      <c r="G23" s="31">
+        <v>5</v>
+      </c>
+      <c r="H23" s="33">
         <v>2</v>
       </c>
-      <c r="F23" s="31">
-        <v>4</v>
-      </c>
-      <c r="G23" s="31">
-        <v>3</v>
-      </c>
-      <c r="H23" s="33">
-        <v>1.75</v>
-      </c>
       <c r="I23" s="36">
-        <v>4</v>
+        <v>7.25</v>
       </c>
       <c r="J23" s="37">
         <f>H23-I23</f>
-        <v>-2.25</v>
+        <v>-5.25</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>47</v>
@@ -2232,32 +2232,32 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" s="31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="31">
+        <v>4</v>
+      </c>
+      <c r="G24" s="31">
         <v>2</v>
       </c>
-      <c r="F24" s="31">
-        <v>5</v>
-      </c>
-      <c r="G24" s="31">
-        <v>1</v>
-      </c>
       <c r="H24" s="33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="I24" s="36">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="J24" s="37">
         <f>H24-I24</f>
-        <v>-1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>48</v>
@@ -2286,32 +2286,32 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D25" s="31">
+        <v>2</v>
+      </c>
+      <c r="E25" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>6</v>
+      </c>
+      <c r="G25" s="31">
         <v>0</v>
       </c>
-      <c r="E25" s="31">
-        <v>1</v>
-      </c>
-      <c r="F25" s="31">
-        <v>4</v>
-      </c>
-      <c r="G25" s="31">
-        <v>1</v>
-      </c>
       <c r="H25" s="33">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="I25" s="36">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J25" s="37">
         <f>H25-I25</f>
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>49</v>
@@ -2340,32 +2340,32 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D26" s="31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F26" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="33">
         <v>1.5</v>
       </c>
       <c r="I26" s="36">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="J26" s="37">
         <f>H26-I26</f>
-        <v>-1.25</v>
+        <v>-4.5</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>50</v>
@@ -2394,32 +2394,32 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D27" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="31">
         <v>0</v>
       </c>
       <c r="F27" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I27" s="36">
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
       <c r="J27" s="37">
         <f>H27-I27</f>
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>51</v>
@@ -2448,32 +2448,32 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="31">
         <v>3</v>
       </c>
       <c r="G28" s="31">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H28" s="33">
         <v>1</v>
       </c>
       <c r="I28" s="36">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="J28" s="37">
         <f>H28-I28</f>
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>99</v>
@@ -2502,32 +2502,32 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D29" s="31">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E29" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I29" s="36">
-        <v>0.5</v>
+        <v>7.25</v>
       </c>
       <c r="J29" s="37">
         <f>H29-I29</f>
-        <v>-0.5</v>
+        <v>-6.5</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>52</v>
@@ -2556,32 +2556,32 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D30" s="31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="31">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="31">
         <v>-1</v>
       </c>
       <c r="H30" s="33">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="J30" s="37">
         <f>H30-I30</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L30" s="23" t="s">
         <v>53</v>
@@ -2610,32 +2610,32 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D31" s="31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="31">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="33">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="36">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="37">
         <f>H31-I31</f>
-        <v>0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>54</v>
@@ -2664,32 +2664,32 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D32" s="31">
         <v>0</v>
       </c>
       <c r="E32" s="31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="31">
+        <v>3</v>
+      </c>
+      <c r="G32" s="31">
         <v>0</v>
       </c>
-      <c r="G32" s="31">
-        <v>-2</v>
-      </c>
       <c r="H32" s="33">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I32" s="36">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="J32" s="37">
         <f>H32-I32</f>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="L32" s="23" t="s">
         <v>55</v>
@@ -2718,32 +2718,32 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D33" s="31">
+        <v>3</v>
+      </c>
+      <c r="E33" s="31">
         <v>-1</v>
       </c>
-      <c r="E33" s="31">
-        <v>-3</v>
-      </c>
       <c r="F33" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="31">
         <v>-2</v>
       </c>
       <c r="H33" s="33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="36">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="J33" s="37">
         <f>H33-I33</f>
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>56</v>
@@ -2772,32 +2772,32 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D34" s="31">
         <v>1</v>
       </c>
       <c r="E34" s="31">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="31">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="31">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="33">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="I34" s="36">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="J34" s="37">
         <f>H34-I34</f>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>57</v>
@@ -2832,26 +2832,26 @@
         <v>79</v>
       </c>
       <c r="D35" s="31">
+        <v>1</v>
+      </c>
+      <c r="E35" s="31">
+        <v>-2</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31">
         <v>-1</v>
       </c>
-      <c r="E35" s="31">
-        <v>-3</v>
-      </c>
-      <c r="F35" s="31">
-        <v>0</v>
-      </c>
-      <c r="G35" s="31">
-        <v>-2</v>
-      </c>
       <c r="H35" s="33">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="I35" s="36">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="J35" s="37">
         <f>H35-I35</f>
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="L35" s="23" t="s">
         <v>58</v>
@@ -2880,32 +2880,32 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="31">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E36" s="31">
         <v>-2</v>
       </c>
       <c r="F36" s="31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="31">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="H36" s="33">
-        <v>-2</v>
+        <v>-2.75</v>
       </c>
       <c r="I36" s="36">
-        <v>-1.75</v>
+        <v>-2.75</v>
       </c>
       <c r="J36" s="37">
         <f>H36-I36</f>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="L36" s="23" t="s">
         <v>59</v>
@@ -2934,32 +2934,32 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D37" s="31">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E37" s="31">
         <v>-4</v>
       </c>
       <c r="F37" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="31">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H37" s="33">
         <v>-3.5</v>
       </c>
       <c r="I37" s="36">
-        <v>-3.25</v>
+        <v>5.75</v>
       </c>
       <c r="J37" s="37">
         <f>H37-I37</f>
-        <v>-0.25</v>
+        <v>-9.25</v>
       </c>
       <c r="L37" s="23" t="s">
         <v>60</v>
@@ -2988,32 +2988,32 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="29" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D38" s="31">
         <v>-4</v>
       </c>
       <c r="E38" s="31">
+        <v>-4</v>
+      </c>
+      <c r="F38" s="31">
         <v>-3</v>
       </c>
-      <c r="F38" s="31">
-        <v>-2</v>
-      </c>
       <c r="G38" s="31">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="H38" s="33">
         <v>-3.75</v>
       </c>
       <c r="I38" s="36">
-        <v>-4.75</v>
+        <v>2.25</v>
       </c>
       <c r="J38" s="37">
         <f>H38-I38</f>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="L38" s="23" t="s">
         <v>61</v>
@@ -3042,32 +3042,32 @@
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D39" s="31">
+        <v>-7</v>
+      </c>
+      <c r="E39" s="31">
         <v>-5</v>
       </c>
-      <c r="E39" s="31">
-        <v>-4</v>
-      </c>
       <c r="F39" s="31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G39" s="31">
         <v>-4</v>
       </c>
       <c r="H39" s="33">
-        <v>-3.75</v>
+        <v>-4</v>
       </c>
       <c r="I39" s="38">
-        <v>-3.5</v>
+        <v>2.75</v>
       </c>
       <c r="J39" s="39">
         <f>H39-I39</f>
-        <v>-0.25</v>
+        <v>-6.75</v>
       </c>
       <c r="L39" s="23" t="s">
         <v>62</v>
@@ -3097,15 +3097,15 @@
     <row r="40" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H40" s="40">
         <f>AVERAGE(H4:H39)</f>
-        <v>1.7708333333333333</v>
+        <v>2.3680555555555554</v>
       </c>
       <c r="I40" s="40">
         <f>AVERAGE(I4:I39)</f>
-        <v>1.9652777777777777</v>
+        <v>4.2013888888888893</v>
       </c>
       <c r="J40" s="40">
         <f>AVERAGE(J4:J39)</f>
-        <v>-0.19444444444444445</v>
+        <v>-1.8333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3121,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,384 +3178,384 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>568.70000000000005</v>
+        <v>124.36</v>
       </c>
       <c r="C3" s="6">
-        <v>1034</v>
+        <v>132</v>
       </c>
       <c r="D3" s="6">
-        <v>453</v>
+        <v>293</v>
       </c>
       <c r="E3" s="6">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="F3" s="6">
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="G3" s="13">
-        <v>0.89500000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H3" s="6">
-        <v>2507</v>
+        <v>1212</v>
       </c>
       <c r="I3" s="6">
-        <v>313</v>
+        <v>928</v>
       </c>
       <c r="J3" s="6">
-        <v>2193</v>
+        <v>283</v>
       </c>
       <c r="K3" s="16">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
       <c r="L3" s="18">
-        <v>42551</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>743.47</v>
+        <v>568.69000000000005</v>
       </c>
       <c r="C4" s="6">
-        <v>907</v>
+        <v>1004</v>
       </c>
       <c r="D4" s="6">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E4" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="G4" s="13">
-        <v>0.94099999999999995</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="H4" s="6">
-        <v>2359</v>
+        <v>2488</v>
       </c>
       <c r="I4" s="6">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="J4" s="6">
-        <v>2125</v>
+        <v>2198</v>
       </c>
       <c r="K4" s="16">
-        <v>1.1399999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="L4" s="18">
-        <v>42550</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>737.56</v>
+        <v>743.51</v>
       </c>
       <c r="C5" s="6">
-        <v>1042</v>
+        <v>908</v>
       </c>
       <c r="D5" s="6">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E5" s="6">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G5" s="13">
-        <v>0.92900000000000005</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="H5" s="6">
-        <v>2574</v>
+        <v>2360</v>
       </c>
       <c r="I5" s="6">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="J5" s="6">
-        <v>2427</v>
+        <v>2129</v>
       </c>
       <c r="K5" s="16">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L5" s="18">
-        <v>42549</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>-880.81</v>
+        <v>737.66</v>
       </c>
       <c r="C6" s="6">
-        <v>-1992</v>
+        <v>1047</v>
       </c>
       <c r="D6" s="6">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="E6" s="6">
-        <v>426</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6">
-        <v>-349</v>
+        <v>439</v>
       </c>
       <c r="G6" s="13">
-        <v>0.152</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="H6" s="6">
-        <v>358</v>
+        <v>2583</v>
       </c>
       <c r="I6" s="6">
-        <v>2993</v>
+        <v>148</v>
       </c>
       <c r="J6" s="6">
-        <v>-2635</v>
+        <v>2435</v>
       </c>
       <c r="K6" s="16">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="L6" s="18">
-        <v>42548</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>-1647.58</v>
+        <v>-881.02</v>
       </c>
       <c r="C7" s="6">
-        <v>-7166</v>
+        <v>-1989</v>
       </c>
       <c r="D7" s="6">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="F7" s="6">
-        <v>-425</v>
+        <v>-353</v>
       </c>
       <c r="G7" s="13">
-        <v>7.6999999999999999E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="H7" s="6">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="I7" s="6">
-        <v>4325</v>
+        <v>3002</v>
       </c>
       <c r="J7" s="6">
-        <v>-4112</v>
+        <v>-2655</v>
       </c>
       <c r="K7" s="16">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="L7" s="18">
-        <v>42545</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>578.75</v>
+        <v>-1647.43</v>
       </c>
       <c r="C8" s="6">
-        <v>411</v>
+        <v>-7167</v>
       </c>
       <c r="D8" s="6">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6">
-        <v>38</v>
+        <v>462</v>
       </c>
       <c r="F8" s="6">
-        <v>426</v>
+        <v>-422</v>
       </c>
       <c r="G8" s="13">
-        <v>0.91700000000000004</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>1826</v>
+        <v>213</v>
       </c>
       <c r="I8" s="6">
-        <v>138</v>
+        <v>4315</v>
       </c>
       <c r="J8" s="6">
-        <v>1687</v>
+        <v>-4102</v>
       </c>
       <c r="K8" s="16">
-        <v>0.87</v>
+        <v>2</v>
       </c>
       <c r="L8" s="18">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <v>-11.03</v>
+        <v>578.83000000000004</v>
       </c>
       <c r="C9" s="6">
-        <v>-15</v>
+        <v>413</v>
       </c>
       <c r="D9" s="6">
-        <v>213</v>
+        <v>465</v>
       </c>
       <c r="E9" s="6">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6">
-        <v>-70</v>
+        <v>428</v>
       </c>
       <c r="G9" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H9" s="6">
-        <v>582</v>
+        <v>1828</v>
       </c>
       <c r="I9" s="6">
-        <v>1261</v>
+        <v>137</v>
       </c>
       <c r="J9" s="6">
-        <v>-679</v>
+        <v>1691</v>
       </c>
       <c r="K9" s="16">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="L9" s="18">
-        <v>42543</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>35.950000000000003</v>
+        <v>-11.2</v>
       </c>
       <c r="C10" s="6">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="D10" s="6">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="E10" s="6">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="F10" s="6">
-        <v>121</v>
+        <v>-71</v>
       </c>
       <c r="G10" s="13">
-        <v>0.61299999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H10" s="6">
-        <v>1285</v>
+        <v>594</v>
       </c>
       <c r="I10" s="6">
-        <v>646</v>
+        <v>1263</v>
       </c>
       <c r="J10" s="6">
-        <v>639</v>
+        <v>-669</v>
       </c>
       <c r="K10" s="16">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L10" s="18">
-        <v>42542</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <v>323.64</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="C11" s="6">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="E11" s="6">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="F11" s="6">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="G11" s="13">
-        <v>0.80400000000000005</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H11" s="6">
-        <v>1705</v>
+        <v>1275</v>
       </c>
       <c r="I11" s="6">
-        <v>436</v>
+        <v>645</v>
       </c>
       <c r="J11" s="6">
-        <v>1269</v>
+        <v>630</v>
       </c>
       <c r="K11" s="16">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="L11" s="18">
-        <v>42541</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>-117.61</v>
+        <v>323.69</v>
       </c>
       <c r="C12" s="4">
-        <v>-229</v>
+        <v>277</v>
       </c>
       <c r="D12" s="4">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="E12" s="4">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="F12" s="4">
-        <v>-5</v>
+        <v>311</v>
       </c>
       <c r="G12" s="14">
-        <v>0.49</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="H12" s="4">
-        <v>1594</v>
+        <v>1701</v>
       </c>
       <c r="I12" s="4">
-        <v>1308</v>
+        <v>441</v>
       </c>
       <c r="J12" s="4">
-        <v>285</v>
+        <v>1259</v>
       </c>
       <c r="K12" s="17">
-        <v>1.28</v>
+        <v>0.95</v>
       </c>
       <c r="L12" s="18">
-        <v>42538</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>331.04</v>
+        <v>573.07000000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>-5719</v>
+        <v>-5377</v>
       </c>
       <c r="D13" s="1">
-        <v>3157</v>
+        <v>3202</v>
       </c>
       <c r="E13" s="1">
-        <v>1853</v>
+        <v>1808</v>
       </c>
       <c r="F13" s="1">
-        <v>1304</v>
+        <v>1394</v>
       </c>
       <c r="G13" s="11">
-        <v>0.63</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>15005</v>
+        <v>14606</v>
       </c>
       <c r="I13" s="1">
-        <v>11805</v>
+        <v>11404</v>
       </c>
       <c r="J13" s="1">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="K13" s="2">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3602,384 +3602,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
-        <v>116.07</v>
+        <v>80.36</v>
       </c>
       <c r="C18" s="6">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G18" s="13">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="H18" s="6">
-        <v>651</v>
+        <v>300</v>
       </c>
       <c r="I18" s="6">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="J18" s="6">
-        <v>609</v>
+        <v>36</v>
       </c>
       <c r="K18" s="16">
-        <v>1.1499999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="L18" s="18">
-        <v>42551</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
-        <v>228.78</v>
+        <v>116.07</v>
       </c>
       <c r="C19" s="6">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="D19" s="6">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E19" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" s="6">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G19" s="13">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="H19" s="6">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="I19" s="6">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J19" s="6">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="K19" s="16">
-        <v>1.07</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L19" s="18">
-        <v>42550</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
-        <v>208.1</v>
+        <v>228.78</v>
       </c>
       <c r="C20" s="6">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D20" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="13">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="H20" s="6">
-        <v>681</v>
+        <v>613</v>
       </c>
       <c r="I20" s="6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J20" s="6">
-        <v>677</v>
+        <v>582</v>
       </c>
       <c r="K20" s="16">
-        <v>1.1399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="L20" s="18">
-        <v>42549</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
-        <v>-230.93</v>
+        <v>208.1</v>
       </c>
       <c r="C21" s="6">
-        <v>-546</v>
+        <v>263</v>
       </c>
       <c r="D21" s="6">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="F21" s="6">
-        <v>-82</v>
+        <v>94</v>
       </c>
       <c r="G21" s="13">
-        <v>0.09</v>
+        <v>0.97</v>
       </c>
       <c r="H21" s="6">
-        <v>45</v>
+        <v>681</v>
       </c>
       <c r="I21" s="6">
-        <v>837</v>
+        <v>4</v>
       </c>
       <c r="J21" s="6">
-        <v>-791</v>
+        <v>677</v>
       </c>
       <c r="K21" s="16">
-        <v>1.46</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L21" s="18">
-        <v>42548</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
-        <v>-538.79</v>
+        <v>-230.93</v>
       </c>
       <c r="C22" s="6">
-        <v>-3017</v>
+        <v>-546</v>
       </c>
       <c r="D22" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F22" s="6">
-        <v>-94</v>
+        <v>-82</v>
       </c>
       <c r="G22" s="13">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H22" s="6">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I22" s="6">
-        <v>1280</v>
+        <v>837</v>
       </c>
       <c r="J22" s="6">
-        <v>-1261</v>
+        <v>-791</v>
       </c>
       <c r="K22" s="16">
-        <v>2.16</v>
+        <v>1.46</v>
       </c>
       <c r="L22" s="18">
-        <v>42545</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <v>180.05</v>
+        <v>-538.79</v>
       </c>
       <c r="C23" s="6">
-        <v>143</v>
+        <v>-3011</v>
       </c>
       <c r="D23" s="6">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6">
-        <v>90</v>
+        <v>-94</v>
       </c>
       <c r="G23" s="13">
-        <v>0.95</v>
+        <v>0.03</v>
       </c>
       <c r="H23" s="6">
-        <v>537</v>
+        <v>19</v>
       </c>
       <c r="I23" s="6">
-        <v>20</v>
+        <v>1280</v>
       </c>
       <c r="J23" s="6">
-        <v>517</v>
+        <v>-1261</v>
       </c>
       <c r="K23" s="16">
-        <v>0.93</v>
+        <v>2.15</v>
       </c>
       <c r="L23" s="18">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
-        <v>-3.51</v>
+        <v>180.05</v>
       </c>
       <c r="C24" s="6">
-        <v>-70</v>
+        <v>143</v>
       </c>
       <c r="D24" s="6">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E24" s="6">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F24" s="6">
-        <v>-11</v>
+        <v>90</v>
       </c>
       <c r="G24" s="13">
-        <v>0.43</v>
+        <v>0.95</v>
       </c>
       <c r="H24" s="6">
-        <v>151</v>
+        <v>537</v>
       </c>
       <c r="I24" s="6">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="J24" s="6">
-        <v>-217</v>
+        <v>517</v>
       </c>
       <c r="K24" s="16">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="L24" s="18">
-        <v>42543</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>-14.41</v>
+        <v>-3.51</v>
       </c>
       <c r="C25" s="6">
-        <v>-16</v>
+        <v>-68</v>
       </c>
       <c r="D25" s="6">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F25" s="6">
-        <v>17</v>
+        <v>-11</v>
       </c>
       <c r="G25" s="13">
-        <v>0.57999999999999996</v>
+        <v>0.43</v>
       </c>
       <c r="H25" s="6">
-        <v>297</v>
+        <v>151</v>
       </c>
       <c r="I25" s="6">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="J25" s="6">
-        <v>125</v>
+        <v>-217</v>
       </c>
       <c r="K25" s="16">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="L25" s="18">
-        <v>42542</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>115.14</v>
+        <v>-14.41</v>
       </c>
       <c r="C26" s="6">
-        <v>97</v>
+        <v>-16</v>
       </c>
       <c r="D26" s="6">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F26" s="6">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G26" s="13">
-        <v>0.86</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H26" s="6">
-        <v>431</v>
+        <v>297</v>
       </c>
       <c r="I26" s="6">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="J26" s="6">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="K26" s="16">
-        <v>0.94</v>
+        <v>0.85</v>
       </c>
       <c r="L26" s="18">
-        <v>42541</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>-116.73</v>
+        <v>115.14</v>
       </c>
       <c r="C27" s="4">
-        <v>-206</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F27" s="4">
-        <v>-53</v>
+        <v>72</v>
       </c>
       <c r="G27" s="14">
-        <v>0.23</v>
+        <v>0.86</v>
       </c>
       <c r="H27" s="4">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="I27" s="4">
-        <v>563</v>
+        <v>135</v>
       </c>
       <c r="J27" s="4">
-        <v>-346</v>
+        <v>295</v>
       </c>
       <c r="K27" s="17">
-        <v>1.31</v>
+        <v>0.94</v>
       </c>
       <c r="L27" s="18">
-        <v>42538</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>-56.23</v>
+        <v>140.86000000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>-2931</v>
+        <v>-2660</v>
       </c>
       <c r="D28" s="1">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="E28" s="1">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="F28" s="1">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="G28" s="11">
-        <v>0.60299999999999998</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>3646</v>
+        <v>3730</v>
       </c>
       <c r="I28" s="1">
-        <v>3456</v>
+        <v>3157</v>
       </c>
       <c r="J28" s="1">
-        <v>190</v>
+        <v>573</v>
       </c>
       <c r="K28" s="2">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4026,384 +4026,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
-        <v>408.56</v>
+        <v>41.63</v>
       </c>
       <c r="C33" s="6">
-        <v>647</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6">
-        <v>542</v>
+        <v>342</v>
       </c>
       <c r="E33" s="6">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="F33" s="6">
-        <v>487</v>
+        <v>90</v>
       </c>
       <c r="G33" s="13">
-        <v>0.9</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H33" s="6">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="I33" s="6">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="J33" s="6">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="K33" s="16">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="L33" s="18">
-        <v>42551</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>387.36</v>
+        <v>408.83</v>
       </c>
       <c r="C34" s="6">
-        <v>380</v>
+        <v>647</v>
       </c>
       <c r="D34" s="6">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E34" s="6">
+        <v>55</v>
+      </c>
+      <c r="F34" s="6">
+        <v>487</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H34" s="6">
+        <v>263</v>
+      </c>
+      <c r="I34" s="6">
         <v>46</v>
       </c>
-      <c r="F34" s="6">
-        <v>507</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H34" s="6">
-        <v>234</v>
-      </c>
-      <c r="I34" s="6">
-        <v>22</v>
-      </c>
       <c r="J34" s="6">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K34" s="16">
-        <v>0.95</v>
+        <v>1.17</v>
       </c>
       <c r="L34" s="18">
-        <v>42550</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>175.16</v>
+        <v>386.47</v>
       </c>
       <c r="C35" s="6">
-        <v>165</v>
+        <v>380</v>
       </c>
       <c r="D35" s="6">
-        <v>459</v>
+        <v>552</v>
       </c>
       <c r="E35" s="6">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="F35" s="6">
-        <v>324</v>
+        <v>505</v>
       </c>
       <c r="G35" s="13">
-        <v>0.76200000000000001</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H35" s="6">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="I35" s="6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J35" s="6">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="K35" s="16">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="L35" s="18">
-        <v>42549</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>-567.69000000000005</v>
+        <v>173.72</v>
       </c>
       <c r="C36" s="6">
-        <v>-915</v>
+        <v>167</v>
       </c>
       <c r="D36" s="6">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="E36" s="6">
-        <v>553</v>
+        <v>135</v>
       </c>
       <c r="F36" s="6">
-        <v>-507</v>
+        <v>324</v>
       </c>
       <c r="G36" s="13">
-        <v>7.5999999999999998E-2</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="H36" s="6">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="I36" s="6">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="J36" s="6">
-        <v>-291</v>
+        <v>179</v>
       </c>
       <c r="K36" s="16">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="L36" s="18">
-        <v>42548</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>-697.98</v>
+        <v>-568.04</v>
       </c>
       <c r="C37" s="6">
-        <v>-4031</v>
+        <v>-928</v>
       </c>
       <c r="D37" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F37" s="6">
-        <v>-535</v>
+        <v>-507</v>
       </c>
       <c r="G37" s="13">
-        <v>5.2999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H37" s="6">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I37" s="6">
-        <v>628</v>
+        <v>311</v>
       </c>
       <c r="J37" s="6">
-        <v>-594</v>
+        <v>-292</v>
       </c>
       <c r="K37" s="16">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="L37" s="18">
-        <v>42545</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>393.62</v>
+        <v>-695.71</v>
       </c>
       <c r="C38" s="6">
-        <v>289</v>
+        <v>-4021</v>
       </c>
       <c r="D38" s="6">
-        <v>561</v>
+        <v>33</v>
       </c>
       <c r="E38" s="6">
-        <v>37</v>
+        <v>566</v>
       </c>
       <c r="F38" s="6">
-        <v>524</v>
+        <v>-533</v>
       </c>
       <c r="G38" s="13">
-        <v>0.93200000000000005</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H38" s="6">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="I38" s="6">
-        <v>29</v>
+        <v>627</v>
       </c>
       <c r="J38" s="6">
-        <v>181</v>
+        <v>-593</v>
       </c>
       <c r="K38" s="16">
-        <v>0.9</v>
+        <v>2.46</v>
       </c>
       <c r="L38" s="18">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>-88.94</v>
+        <v>391.94</v>
       </c>
       <c r="C39" s="6">
-        <v>-89</v>
+        <v>290</v>
       </c>
       <c r="D39" s="6">
-        <v>183</v>
+        <v>559</v>
       </c>
       <c r="E39" s="6">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="F39" s="6">
-        <v>-222</v>
+        <v>520</v>
       </c>
       <c r="G39" s="13">
-        <v>0.30399999999999999</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H39" s="6">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="I39" s="6">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="J39" s="6">
-        <v>-103</v>
+        <v>180</v>
       </c>
       <c r="K39" s="16">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L39" s="18">
-        <v>42543</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>-50.5</v>
+        <v>-88.7</v>
       </c>
       <c r="C40" s="6">
-        <v>2</v>
+        <v>-89</v>
       </c>
       <c r="D40" s="6">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="E40" s="6">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="F40" s="6">
-        <v>-132</v>
+        <v>-220</v>
       </c>
       <c r="G40" s="13">
-        <v>0.377</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H40" s="6">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I40" s="6">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="J40" s="6">
-        <v>-30</v>
+        <v>-102</v>
       </c>
       <c r="K40" s="16">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="L40" s="18">
-        <v>42542</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>237.19</v>
+        <v>-49.44</v>
       </c>
       <c r="C41" s="6">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>494</v>
+        <v>228</v>
       </c>
       <c r="E41" s="6">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="F41" s="6">
-        <v>401</v>
+        <v>-130</v>
       </c>
       <c r="G41" s="13">
-        <v>0.82099999999999995</v>
+        <v>0.379</v>
       </c>
       <c r="H41" s="6">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="I41" s="6">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="J41" s="6">
-        <v>135</v>
+        <v>-30</v>
       </c>
       <c r="K41" s="16">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="L41" s="18">
-        <v>42541</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>-87.69</v>
+        <v>236.18</v>
       </c>
       <c r="C42" s="4">
-        <v>-229</v>
+        <v>178</v>
       </c>
       <c r="D42" s="4">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="E42" s="4">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="F42" s="4">
-        <v>-61</v>
+        <v>399</v>
       </c>
       <c r="G42" s="14">
-        <v>0.442</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="H42" s="4">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="I42" s="4">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="J42" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="K42" s="17">
-        <v>1.52</v>
+        <v>0.87</v>
       </c>
       <c r="L42" s="18">
-        <v>42538</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>109.09</v>
+        <v>236.88</v>
       </c>
       <c r="C43" s="1">
-        <v>-3603</v>
+        <v>-3331</v>
       </c>
       <c r="D43" s="1">
-        <v>3363</v>
+        <v>3438</v>
       </c>
       <c r="E43" s="1">
-        <v>2577</v>
+        <v>2503</v>
       </c>
       <c r="F43" s="1">
-        <v>786</v>
+        <v>935</v>
       </c>
       <c r="G43" s="11">
-        <v>0.56599999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H43" s="1">
-        <v>1543</v>
+        <v>1465</v>
       </c>
       <c r="I43" s="1">
-        <v>1580</v>
+        <v>1475</v>
       </c>
       <c r="J43" s="1">
-        <v>-37</v>
+        <v>-10</v>
       </c>
       <c r="K43" s="2">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4450,384 +4450,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
-        <v>975.21</v>
+        <v>343.43</v>
       </c>
       <c r="C48" s="6">
-        <v>1642</v>
+        <v>309</v>
       </c>
       <c r="D48" s="6">
-        <v>1185</v>
+        <v>891</v>
       </c>
       <c r="E48" s="6">
-        <v>229</v>
+        <v>521</v>
       </c>
       <c r="F48" s="6">
-        <v>956</v>
+        <v>370</v>
       </c>
       <c r="G48" s="13">
-        <v>0.82599999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H48" s="6">
-        <v>3822</v>
+        <v>2136</v>
       </c>
       <c r="I48" s="6">
-        <v>728</v>
+        <v>1265</v>
       </c>
       <c r="J48" s="6">
-        <v>3093</v>
+        <v>870</v>
       </c>
       <c r="K48" s="16">
-        <v>1.21</v>
+        <v>0.91</v>
       </c>
       <c r="L48" s="18">
-        <v>42551</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
-        <v>1423.98</v>
+        <v>984.95</v>
       </c>
       <c r="C49" s="6">
-        <v>2144</v>
+        <v>1637</v>
       </c>
       <c r="D49" s="6">
-        <v>1321</v>
+        <v>1187</v>
       </c>
       <c r="E49" s="6">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="F49" s="6">
-        <v>1221</v>
+        <v>956</v>
       </c>
       <c r="G49" s="13">
-        <v>0.92100000000000004</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H49" s="6">
-        <v>3834</v>
+        <v>3807</v>
       </c>
       <c r="I49" s="6">
-        <v>311</v>
+        <v>717</v>
       </c>
       <c r="J49" s="6">
-        <v>3523</v>
+        <v>3089</v>
       </c>
       <c r="K49" s="16">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="L49" s="18">
-        <v>42550</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
-        <v>1347.59</v>
+        <v>1420.39</v>
       </c>
       <c r="C50" s="6">
-        <v>1687</v>
+        <v>2042</v>
       </c>
       <c r="D50" s="6">
-        <v>1287</v>
+        <v>1328</v>
       </c>
       <c r="E50" s="6">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="F50" s="6">
-        <v>1152</v>
+        <v>1231</v>
       </c>
       <c r="G50" s="13">
-        <v>0.89700000000000002</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H50" s="6">
-        <v>3972</v>
+        <v>3851</v>
       </c>
       <c r="I50" s="6">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="J50" s="6">
-        <v>3624</v>
+        <v>3544</v>
       </c>
       <c r="K50" s="16">
-        <v>1.1399999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L50" s="18">
-        <v>42549</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
-        <v>-1880.28</v>
+        <v>1345.42</v>
       </c>
       <c r="C51" s="6">
-        <v>-3715</v>
+        <v>1691</v>
       </c>
       <c r="D51" s="6">
-        <v>166</v>
+        <v>1292</v>
       </c>
       <c r="E51" s="6">
-        <v>1252</v>
+        <v>138</v>
       </c>
       <c r="F51" s="6">
-        <v>-1086</v>
+        <v>1154</v>
       </c>
       <c r="G51" s="13">
-        <v>0.11600000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="H51" s="6">
-        <v>611</v>
+        <v>3991</v>
       </c>
       <c r="I51" s="6">
-        <v>4750</v>
+        <v>352</v>
       </c>
       <c r="J51" s="6">
-        <v>-4138</v>
+        <v>3639</v>
       </c>
       <c r="K51" s="16">
-        <v>1.42</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L51" s="18">
-        <v>42548</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>-3026.61</v>
+        <v>-1879.75</v>
       </c>
       <c r="C52" s="6">
-        <v>-13592</v>
+        <v>-3730</v>
       </c>
       <c r="D52" s="6">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E52" s="6">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="F52" s="6">
-        <v>-1186</v>
+        <v>-1099</v>
       </c>
       <c r="G52" s="13">
-        <v>8.2000000000000003E-2</v>
+        <v>0.113</v>
       </c>
       <c r="H52" s="6">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="I52" s="6">
-        <v>7030</v>
+        <v>4774</v>
       </c>
       <c r="J52" s="6">
-        <v>-6489</v>
+        <v>-4174</v>
       </c>
       <c r="K52" s="16">
-        <v>2.0099999999999998</v>
+        <v>1.43</v>
       </c>
       <c r="L52" s="18">
-        <v>42545</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
-        <v>1173.44</v>
+        <v>-3032.05</v>
       </c>
       <c r="C53" s="6">
-        <v>863</v>
+        <v>-13604</v>
       </c>
       <c r="D53" s="6">
-        <v>1296</v>
+        <v>119</v>
       </c>
       <c r="E53" s="6">
-        <v>124</v>
+        <v>1307</v>
       </c>
       <c r="F53" s="6">
-        <v>1172</v>
+        <v>-1188</v>
       </c>
       <c r="G53" s="13">
-        <v>0.90400000000000003</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H53" s="6">
-        <v>2979</v>
+        <v>541</v>
       </c>
       <c r="I53" s="6">
-        <v>302</v>
+        <v>7031</v>
       </c>
       <c r="J53" s="6">
-        <v>2677</v>
+        <v>-6490</v>
       </c>
       <c r="K53" s="16">
-        <v>0.87</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L53" s="18">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
-        <v>-105.68</v>
+        <v>1174.19</v>
       </c>
       <c r="C54" s="6">
-        <v>-191</v>
+        <v>866</v>
       </c>
       <c r="D54" s="6">
-        <v>564</v>
+        <v>1303</v>
       </c>
       <c r="E54" s="6">
-        <v>830</v>
+        <v>122</v>
       </c>
       <c r="F54" s="6">
-        <v>-266</v>
+        <v>1181</v>
       </c>
       <c r="G54" s="13">
-        <v>0.39300000000000002</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H54" s="6">
-        <v>1124</v>
+        <v>2994</v>
       </c>
       <c r="I54" s="6">
-        <v>1992</v>
+        <v>300</v>
       </c>
       <c r="J54" s="6">
-        <v>-867</v>
+        <v>2693</v>
       </c>
       <c r="K54" s="16">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="L54" s="18">
-        <v>42543</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
-        <v>-27.65</v>
+        <v>-106.97</v>
       </c>
       <c r="C55" s="6">
-        <v>-52</v>
+        <v>-189</v>
       </c>
       <c r="D55" s="6">
-        <v>731</v>
+        <v>565</v>
       </c>
       <c r="E55" s="6">
-        <v>678</v>
+        <v>835</v>
       </c>
       <c r="F55" s="6">
-        <v>53</v>
+        <v>-270</v>
       </c>
       <c r="G55" s="13">
-        <v>0.51</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="H55" s="6">
-        <v>1899</v>
+        <v>1136</v>
       </c>
       <c r="I55" s="6">
-        <v>1336</v>
+        <v>2000</v>
       </c>
       <c r="J55" s="6">
-        <v>563</v>
+        <v>-863</v>
       </c>
       <c r="K55" s="16">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L55" s="18">
-        <v>42542</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
-        <v>696.02</v>
+        <v>-29.6</v>
       </c>
       <c r="C56" s="6">
-        <v>573</v>
+        <v>-53</v>
       </c>
       <c r="D56" s="6">
-        <v>1166</v>
+        <v>734</v>
       </c>
       <c r="E56" s="6">
-        <v>248</v>
+        <v>678</v>
       </c>
       <c r="F56" s="6">
-        <v>918</v>
+        <v>56</v>
       </c>
       <c r="G56" s="13">
-        <v>0.81299999999999994</v>
+        <v>0.51</v>
       </c>
       <c r="H56" s="6">
-        <v>2772</v>
+        <v>1898</v>
       </c>
       <c r="I56" s="6">
-        <v>704</v>
+        <v>1336</v>
       </c>
       <c r="J56" s="6">
-        <v>2067</v>
+        <v>562</v>
       </c>
       <c r="K56" s="16">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="L56" s="18">
-        <v>42541</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
-        <v>-110.33</v>
+        <v>699.6</v>
       </c>
       <c r="C57" s="4">
-        <v>-158</v>
+        <v>575</v>
       </c>
       <c r="D57" s="4">
-        <v>739</v>
+        <v>1172</v>
       </c>
       <c r="E57" s="4">
-        <v>679</v>
+        <v>247</v>
       </c>
       <c r="F57" s="4">
-        <v>60</v>
+        <v>925</v>
       </c>
       <c r="G57" s="14">
-        <v>0.51500000000000001</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="H57" s="4">
-        <v>2783</v>
+        <v>2775</v>
       </c>
       <c r="I57" s="4">
-        <v>2142</v>
+        <v>708</v>
       </c>
       <c r="J57" s="4">
-        <v>641</v>
+        <v>2066</v>
       </c>
       <c r="K57" s="17">
-        <v>1.31</v>
+        <v>0.93</v>
       </c>
       <c r="L57" s="18">
-        <v>42538</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>465.69</v>
+        <v>919.61</v>
       </c>
       <c r="C58" s="1">
-        <v>-10799</v>
+        <v>-10456</v>
       </c>
       <c r="D58" s="1">
-        <v>8573</v>
+        <v>8753</v>
       </c>
       <c r="E58" s="1">
-        <v>5579</v>
+        <v>5437</v>
       </c>
       <c r="F58" s="1">
-        <v>2994</v>
+        <v>3316</v>
       </c>
       <c r="G58" s="11">
-        <v>0.60599999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="H58" s="1">
-        <v>24342</v>
+        <v>23733</v>
       </c>
       <c r="I58" s="1">
-        <v>19647</v>
+        <v>18796</v>
       </c>
       <c r="J58" s="1">
-        <v>4695</v>
+        <v>4937</v>
       </c>
       <c r="K58" s="2">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4876,42 +4876,42 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
-        <v>23.57</v>
+        <v>8.93</v>
       </c>
       <c r="C63" s="6">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D63" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G63" s="13">
-        <v>1</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H63" s="6">
-        <v>429</v>
+        <v>239</v>
       </c>
       <c r="I63" s="6">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J63" s="6">
-        <v>429</v>
+        <v>181</v>
       </c>
       <c r="K63" s="16">
-        <v>1.36</v>
+        <v>0.94</v>
       </c>
       <c r="L63" s="18">
-        <v>42551</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
-        <v>30.35</v>
+        <v>23.57</v>
       </c>
       <c r="C64" s="6">
         <v>42</v>
@@ -4929,27 +4929,27 @@
         <v>1</v>
       </c>
       <c r="H64" s="6">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="I64" s="6">
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="K64" s="16">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="L64" s="18">
-        <v>42550</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
-        <v>33.58</v>
+        <v>30.35</v>
       </c>
       <c r="C65" s="6">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D65" s="6">
         <v>19</v>
@@ -4964,62 +4964,62 @@
         <v>1</v>
       </c>
       <c r="H65" s="6">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="I65" s="6">
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="K65" s="16">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L65" s="18">
-        <v>42549</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
-        <v>-38.549999999999997</v>
+        <v>33.58</v>
       </c>
       <c r="C66" s="6">
-        <v>-150</v>
+        <v>57</v>
       </c>
       <c r="D66" s="6">
+        <v>19</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>19</v>
+      </c>
+      <c r="G66" s="13">
         <v>1</v>
       </c>
-      <c r="E66" s="6">
-        <v>18</v>
-      </c>
-      <c r="F66" s="6">
-        <v>-17</v>
-      </c>
-      <c r="G66" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
       <c r="H66" s="6">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="I66" s="6">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>-632</v>
+        <v>445</v>
       </c>
       <c r="K66" s="16">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="L66" s="18">
-        <v>42548</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
-        <v>-65.78</v>
+        <v>-38.549999999999997</v>
       </c>
       <c r="C67" s="6">
-        <v>-385</v>
+        <v>-151</v>
       </c>
       <c r="D67" s="6">
         <v>1</v>
@@ -5034,223 +5034,223 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H67" s="6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I67" s="6">
-        <v>806</v>
+        <v>649</v>
       </c>
       <c r="J67" s="6">
-        <v>-782</v>
+        <v>-632</v>
       </c>
       <c r="K67" s="16">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="L67" s="18">
-        <v>42545</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
-        <v>26.88</v>
+        <v>-65.78</v>
       </c>
       <c r="C68" s="6">
-        <v>19</v>
+        <v>-388</v>
       </c>
       <c r="D68" s="6">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F68" s="6">
-        <v>19</v>
+        <v>-17</v>
       </c>
       <c r="G68" s="13">
-        <v>1</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H68" s="6">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="I68" s="6">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="J68" s="6">
-        <v>285</v>
+        <v>-782</v>
       </c>
       <c r="K68" s="16">
-        <v>0.9</v>
+        <v>2.64</v>
       </c>
       <c r="L68" s="18">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
-        <v>-1.63</v>
+        <v>26.88</v>
       </c>
       <c r="C69" s="6">
+        <v>19</v>
+      </c>
+      <c r="D69" s="6">
+        <v>19</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>19</v>
+      </c>
+      <c r="G69" s="13">
         <v>1</v>
       </c>
-      <c r="D69" s="6">
-        <v>4</v>
-      </c>
-      <c r="E69" s="6">
-        <v>15</v>
-      </c>
-      <c r="F69" s="6">
-        <v>-11</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0.21099999999999999</v>
-      </c>
       <c r="H69" s="6">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I69" s="6">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>-212</v>
+        <v>285</v>
       </c>
       <c r="K69" s="16">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="L69" s="18">
-        <v>42543</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
-        <v>-2.93</v>
+        <v>-1.63</v>
       </c>
       <c r="C70" s="6">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E70" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F70" s="6">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="G70" s="13">
-        <v>0.52600000000000002</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H70" s="6">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="I70" s="6">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="J70" s="6">
-        <v>102</v>
+        <v>-212</v>
       </c>
       <c r="K70" s="16">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="L70" s="18">
-        <v>42542</v>
+        <v>42543</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
-        <v>13.21</v>
+        <v>-2.93</v>
       </c>
       <c r="C71" s="6">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D71" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E71" s="6">
+        <v>9</v>
+      </c>
+      <c r="F71" s="6">
         <v>1</v>
       </c>
-      <c r="F71" s="6">
-        <v>17</v>
-      </c>
       <c r="G71" s="13">
-        <v>0.94699999999999995</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H71" s="6">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="I71" s="6">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J71" s="6">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="K71" s="16">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="L71" s="18">
-        <v>42541</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5">
-        <v>-13.62</v>
+        <v>13.21</v>
       </c>
       <c r="C72" s="4">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="D72" s="4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>17</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H72" s="4">
+        <v>254</v>
+      </c>
+      <c r="I72" s="4">
         <v>15</v>
       </c>
-      <c r="F72" s="4">
-        <v>-11</v>
-      </c>
-      <c r="G72" s="14">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="H72" s="4">
-        <v>24</v>
-      </c>
-      <c r="I72" s="4">
-        <v>301</v>
-      </c>
       <c r="J72" s="4">
-        <v>-277</v>
+        <v>238</v>
       </c>
       <c r="K72" s="17">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="L72" s="18">
-        <v>42538</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>5.08</v>
+        <v>27.63</v>
       </c>
       <c r="C73" s="1">
-        <v>-384</v>
+        <v>-366</v>
       </c>
       <c r="D73" s="1">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E73" s="1">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F73" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G73" s="11">
-        <v>0.6</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H73" s="1">
-        <v>2063</v>
+        <v>2278</v>
       </c>
       <c r="I73" s="1">
-        <v>2073</v>
+        <v>1828</v>
       </c>
       <c r="J73" s="1">
-        <v>-10</v>
+        <v>450</v>
       </c>
       <c r="K73" s="2">
         <v>1.3</v>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
   <si>
     <t>130dma</t>
   </si>
@@ -346,19 +346,22 @@
     <t>+</t>
   </si>
   <si>
-    <t>Up 1.14 Points per Component with overall change of -1.53% from closing price 2102.94 which was 11 days ago.</t>
-  </si>
-  <si>
     <t>Up 1.41 Points per Component with overall change of -1.44% from closing price 4437.44 which was 11 days ago.</t>
   </si>
   <si>
-    <t>Up 0.39 Points per Component with overall change of -1.24% from closing price 710.17 which was 11 days ago.</t>
-  </si>
-  <si>
     <t>Up 0.64 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
   <si>
     <t>Up 1.45 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.10 Points per Component with overall change of -1.53% from closing price 2102.94 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.40 Points per Component with overall change of -1.24% from closing price 710.17 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Chg=Total Change of all components        Force=Chg * Volume, summed for each component</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1155,22 +1158,22 @@
         <v>77</v>
       </c>
       <c r="D4" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="30">
         <v>9</v>
       </c>
       <c r="F4" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="32">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="I4" s="34">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="J4" s="35">
         <f>H4-I4</f>
@@ -1183,10 +1186,10 @@
         <v>66</v>
       </c>
       <c r="N4" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="23">
         <v>2</v>
@@ -1195,10 +1198,10 @@
         <v>-1</v>
       </c>
       <c r="R4" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="23">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
@@ -1237,22 +1240,22 @@
         <v>63</v>
       </c>
       <c r="N5" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="23">
         <v>2</v>
       </c>
       <c r="R5" s="23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S5" s="23">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
@@ -1291,22 +1294,22 @@
         <v>64</v>
       </c>
       <c r="N6" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="23">
         <v>2</v>
       </c>
       <c r="P6" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="23">
         <v>3</v>
       </c>
       <c r="R6" s="23">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="S6" s="23">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
@@ -1345,22 +1348,22 @@
         <v>65</v>
       </c>
       <c r="N7" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="23">
         <v>4</v>
       </c>
       <c r="Q7" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="23">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="S7" s="23">
-        <v>1.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
@@ -1399,22 +1402,22 @@
         <v>104</v>
       </c>
       <c r="N8" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O8" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="23">
         <v>5</v>
       </c>
       <c r="R8" s="23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S8" s="23">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
@@ -1453,22 +1456,22 @@
         <v>67</v>
       </c>
       <c r="N9" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
         <v>-2</v>
       </c>
-      <c r="P9" s="23">
-        <v>-2</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>-3</v>
-      </c>
       <c r="R9" s="23">
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
         <v>-1.5</v>
-      </c>
-      <c r="S9" s="23">
-        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
@@ -1507,22 +1510,22 @@
         <v>69</v>
       </c>
       <c r="N10" s="23">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O10" s="23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q10" s="23">
         <v>-6</v>
       </c>
       <c r="R10" s="23">
-        <v>-3.75</v>
+        <v>-2.75</v>
       </c>
       <c r="S10" s="23">
-        <v>-4.75</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
@@ -1561,7 +1564,7 @@
         <v>96</v>
       </c>
       <c r="N11" s="23">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="O11" s="23">
         <v>0</v>
@@ -1570,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="Q11" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" s="23">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="S11" s="23">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
@@ -1615,7 +1618,7 @@
         <v>72</v>
       </c>
       <c r="N12" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O12" s="23">
         <v>6</v>
@@ -1624,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12" s="23">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="S12" s="23">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
@@ -1675,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="23">
         <v>4</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>0</v>
-      </c>
-      <c r="R13" s="23">
-        <v>1</v>
-      </c>
-      <c r="S13" s="23">
-        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
@@ -1726,19 +1729,19 @@
         <v>-1</v>
       </c>
       <c r="O14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="23">
         <v>5</v>
       </c>
-      <c r="Q14" s="23">
-        <v>4</v>
-      </c>
       <c r="R14" s="23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S14" s="23">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
@@ -1777,7 +1780,7 @@
         <v>75</v>
       </c>
       <c r="N15" s="23">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O15" s="23">
         <v>1</v>
@@ -1789,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="R15" s="23">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="S15" s="23">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="W15" s="23" t="s">
         <v>105</v>
@@ -1834,7 +1837,7 @@
         <v>76</v>
       </c>
       <c r="N16" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" s="23">
         <v>8</v>
@@ -1846,10 +1849,10 @@
         <v>7</v>
       </c>
       <c r="R16" s="23">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="S16" s="23">
-        <v>5.5</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
@@ -1888,19 +1891,19 @@
         <v>77</v>
       </c>
       <c r="N17" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" s="23">
         <v>9</v>
       </c>
       <c r="P17" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R17" s="23">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="S17" s="23">
         <v>8</v>
@@ -1942,22 +1945,22 @@
         <v>78</v>
       </c>
       <c r="N18" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>1</v>
+      </c>
+      <c r="R18" s="23">
+        <v>2.75</v>
+      </c>
+      <c r="S18" s="23">
         <v>3</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>2</v>
-      </c>
-      <c r="R18" s="23">
-        <v>2.25</v>
-      </c>
-      <c r="S18" s="23">
-        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
@@ -1996,22 +1999,22 @@
         <v>79</v>
       </c>
       <c r="N19" s="23">
+        <v>1</v>
+      </c>
+      <c r="O19" s="23">
+        <v>-2</v>
+      </c>
+      <c r="P19" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23">
         <v>-1</v>
       </c>
-      <c r="O19" s="23">
-        <v>-3</v>
-      </c>
-      <c r="P19" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>-2</v>
-      </c>
       <c r="R19" s="23">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S19" s="23">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
@@ -2053,19 +2056,19 @@
         <v>9</v>
       </c>
       <c r="O20" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P20" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20" s="23">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="S20" s="23">
-        <v>5.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
@@ -2104,22 +2107,22 @@
         <v>70</v>
       </c>
       <c r="N21" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O21" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P21" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="23">
         <v>4</v>
       </c>
       <c r="R21" s="23">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="S21" s="23">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
@@ -2158,22 +2161,22 @@
         <v>71</v>
       </c>
       <c r="N22" s="23">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="O22" s="23">
         <v>2</v>
       </c>
       <c r="P22" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="23">
         <v>3</v>
       </c>
       <c r="R22" s="23">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="S22" s="23">
-        <v>4</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
@@ -2187,7 +2190,7 @@
         <v>-3</v>
       </c>
       <c r="E23" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="31">
         <v>7</v>
@@ -2196,10 +2199,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I23" s="36">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="J23" s="37">
         <f>H23-I23</f>
@@ -2212,22 +2215,22 @@
         <v>81</v>
       </c>
       <c r="N23" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="23">
         <v>-1</v>
       </c>
       <c r="P23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="23">
         <v>0</v>
       </c>
-      <c r="Q23" s="23">
-        <v>-2</v>
-      </c>
-      <c r="R23" s="23">
-        <v>-0.75</v>
-      </c>
       <c r="S23" s="23">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
@@ -2266,22 +2269,22 @@
         <v>82</v>
       </c>
       <c r="N24" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" s="23">
         <v>2</v>
       </c>
       <c r="P24" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="23">
         <v>3</v>
       </c>
       <c r="R24" s="23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="S24" s="23">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
@@ -2320,10 +2323,10 @@
         <v>83</v>
       </c>
       <c r="N25" s="23">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="O25" s="23">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="P25" s="23">
         <v>0</v>
@@ -2332,10 +2335,10 @@
         <v>-4</v>
       </c>
       <c r="R25" s="23">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="S25" s="23">
-        <v>-3.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
@@ -2374,22 +2377,22 @@
         <v>68</v>
       </c>
       <c r="N26" s="23">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="O26" s="23">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P26" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R26" s="23">
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
       <c r="S26" s="23">
-        <v>-1.75</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
@@ -2428,7 +2431,7 @@
         <v>84</v>
       </c>
       <c r="N27" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" s="23">
         <v>2</v>
@@ -2440,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="R27" s="23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S27" s="23">
-        <v>1</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
@@ -2482,13 +2485,13 @@
         <v>100</v>
       </c>
       <c r="N28" s="23">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="O28" s="23">
         <v>-4</v>
       </c>
       <c r="P28" s="23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q28" s="23">
         <v>-4</v>
@@ -2497,7 +2500,7 @@
         <v>-3.75</v>
       </c>
       <c r="S28" s="23">
-        <v>-3.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
@@ -2539,19 +2542,19 @@
         <v>5</v>
       </c>
       <c r="O29" s="23">
+        <v>5</v>
+      </c>
+      <c r="P29" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="23">
         <v>4</v>
       </c>
-      <c r="P29" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>3</v>
-      </c>
       <c r="R29" s="23">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="S29" s="23">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
@@ -2590,7 +2593,7 @@
         <v>86</v>
       </c>
       <c r="N30" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="23">
         <v>0</v>
@@ -2602,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="R30" s="23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="S30" s="23">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
@@ -2644,22 +2647,22 @@
         <v>87</v>
       </c>
       <c r="N31" s="23">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="O31" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="23">
         <v>-2</v>
       </c>
       <c r="R31" s="23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S31" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
@@ -2701,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P32" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" s="23">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="S32" s="23">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
@@ -2752,22 +2755,22 @@
         <v>89</v>
       </c>
       <c r="N33" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="23">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S33" s="23">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
@@ -2806,22 +2809,22 @@
         <v>90</v>
       </c>
       <c r="N34" s="23">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O34" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P34" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S34" s="23">
-        <v>4</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
@@ -2860,22 +2863,22 @@
         <v>91</v>
       </c>
       <c r="N35" s="23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O35" s="23">
+        <v>4</v>
+      </c>
+      <c r="P35" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="23">
         <v>2</v>
       </c>
-      <c r="P35" s="23">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="23">
-        <v>1</v>
-      </c>
       <c r="R35" s="23">
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="S35" s="23">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
@@ -2914,10 +2917,10 @@
         <v>92</v>
       </c>
       <c r="N36" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O36" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P36" s="23">
         <v>7</v>
@@ -2926,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="R36" s="23">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="S36" s="23">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
@@ -2968,22 +2971,22 @@
         <v>93</v>
       </c>
       <c r="N37" s="23">
+        <v>1</v>
+      </c>
+      <c r="O37" s="23">
+        <v>1</v>
+      </c>
+      <c r="P37" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="23">
         <v>2</v>
       </c>
-      <c r="O37" s="23">
+      <c r="R37" s="23">
         <v>2</v>
       </c>
-      <c r="P37" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>3</v>
-      </c>
-      <c r="R37" s="23">
-        <v>2.5</v>
-      </c>
       <c r="S37" s="23">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
@@ -3037,7 +3040,7 @@
         <v>6</v>
       </c>
       <c r="S38" s="23">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -3076,22 +3079,22 @@
         <v>95</v>
       </c>
       <c r="N39" s="23">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O39" s="23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P39" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q39" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="23">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S39" s="23">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -3121,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,6 +3146,9 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
@@ -3178,31 +3184,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>124.36</v>
+        <v>125.13</v>
       </c>
       <c r="C3" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="6">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E3" s="6">
         <v>208</v>
       </c>
       <c r="F3" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="13">
-        <v>0.57899999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H3" s="6">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="I3" s="6">
         <v>928</v>
       </c>
       <c r="J3" s="6">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K3" s="16">
         <v>0.95</v>
@@ -3213,34 +3219,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>568.69000000000005</v>
+        <v>565.34</v>
       </c>
       <c r="C4" s="6">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="D4" s="6">
         <v>452</v>
       </c>
       <c r="E4" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="13">
-        <v>0.89300000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="H4" s="6">
-        <v>2488</v>
+        <v>2510</v>
       </c>
       <c r="I4" s="6">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="J4" s="6">
-        <v>2198</v>
+        <v>2168</v>
       </c>
       <c r="K4" s="16">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="L4" s="18">
         <v>42551</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>743.51</v>
+        <v>734.69</v>
       </c>
       <c r="C5" s="6">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D5" s="6">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E5" s="6">
         <v>24</v>
       </c>
       <c r="F5" s="6">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G5" s="13">
         <v>0.94299999999999995</v>
@@ -3283,31 +3289,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>737.66</v>
+        <v>734.21</v>
       </c>
       <c r="C6" s="6">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D6" s="6">
         <v>471</v>
       </c>
       <c r="E6" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G6" s="13">
-        <v>0.93100000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H6" s="6">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="I6" s="6">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J6" s="6">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="K6" s="16">
         <v>1.21</v>
@@ -3318,31 +3324,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>-881.02</v>
+        <v>-882.7</v>
       </c>
       <c r="C7" s="6">
-        <v>-1989</v>
+        <v>-1991</v>
       </c>
       <c r="D7" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="6">
         <v>428</v>
       </c>
       <c r="F7" s="6">
-        <v>-353</v>
+        <v>-352</v>
       </c>
       <c r="G7" s="13">
-        <v>0.14799999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="6">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I7" s="6">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="J7" s="6">
-        <v>-2655</v>
+        <v>-2653</v>
       </c>
       <c r="K7" s="16">
         <v>1.48</v>
@@ -3353,31 +3359,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>-1647.43</v>
+        <v>-1638.11</v>
       </c>
       <c r="C8" s="6">
-        <v>-7167</v>
+        <v>-7127</v>
       </c>
       <c r="D8" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6">
         <v>462</v>
       </c>
       <c r="F8" s="6">
-        <v>-422</v>
+        <v>-421</v>
       </c>
       <c r="G8" s="13">
-        <v>7.9000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I8" s="6">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="J8" s="6">
-        <v>-4102</v>
+        <v>-4098</v>
       </c>
       <c r="K8" s="16">
         <v>2</v>
@@ -3388,31 +3394,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <v>578.83000000000004</v>
+        <v>575.16</v>
       </c>
       <c r="C9" s="6">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D9" s="6">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E9" s="6">
         <v>37</v>
       </c>
       <c r="F9" s="6">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G9" s="13">
         <v>0.91900000000000004</v>
       </c>
       <c r="H9" s="6">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="I9" s="6">
         <v>137</v>
       </c>
       <c r="J9" s="6">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="K9" s="16">
         <v>0.87</v>
@@ -3423,31 +3429,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>-11.2</v>
+        <v>-12.67</v>
       </c>
       <c r="C10" s="6">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="D10" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="6">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F10" s="6">
-        <v>-71</v>
+        <v>-74</v>
       </c>
       <c r="G10" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="H10" s="6">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I10" s="6">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="J10" s="6">
-        <v>-669</v>
+        <v>-673</v>
       </c>
       <c r="K10" s="16">
         <v>0.82</v>
@@ -3458,31 +3464,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <v>35.979999999999997</v>
+        <v>37.76</v>
       </c>
       <c r="C11" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E11" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" s="6">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G11" s="13">
-        <v>0.61299999999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H11" s="6">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="I11" s="6">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J11" s="6">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K11" s="16">
         <v>0.86</v>
@@ -3493,31 +3499,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>323.69</v>
+        <v>317.07</v>
       </c>
       <c r="C12" s="4">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D12" s="4">
         <v>406</v>
       </c>
       <c r="E12" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="14">
-        <v>0.80200000000000005</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="H12" s="4">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="I12" s="4">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J12" s="4">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="K12" s="17">
         <v>0.95</v>
@@ -3528,31 +3534,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>573.07000000000005</v>
+        <v>555.88</v>
       </c>
       <c r="C13" s="1">
-        <v>-5377</v>
+        <v>-5341</v>
       </c>
       <c r="D13" s="1">
-        <v>3202</v>
+        <v>3208</v>
       </c>
       <c r="E13" s="1">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="F13" s="1">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G13" s="11">
         <v>0.63900000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>14606</v>
+        <v>14631</v>
       </c>
       <c r="I13" s="1">
-        <v>11404</v>
+        <v>11456</v>
       </c>
       <c r="J13" s="1">
-        <v>3202</v>
+        <v>3175</v>
       </c>
       <c r="K13" s="2">
         <v>1.1499999999999999</v>
@@ -3560,13 +3566,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -3984,13 +3993,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -4026,31 +4038,31 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
-        <v>41.63</v>
+        <v>42.48</v>
       </c>
       <c r="C33" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="6">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E33" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F33" s="6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G33" s="13">
-        <v>0.56799999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H33" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I33" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J33" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" s="16">
         <v>0.83</v>
@@ -4061,19 +4073,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>408.83</v>
+        <v>411.31</v>
       </c>
       <c r="C34" s="6">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="D34" s="6">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E34" s="6">
         <v>55</v>
       </c>
       <c r="F34" s="6">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G34" s="13">
         <v>0.9</v>
@@ -4096,31 +4108,31 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>386.47</v>
+        <v>387.67</v>
       </c>
       <c r="C35" s="6">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D35" s="6">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E35" s="6">
         <v>47</v>
       </c>
       <c r="F35" s="6">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G35" s="13">
         <v>0.91700000000000004</v>
       </c>
       <c r="H35" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I35" s="6">
         <v>22</v>
       </c>
       <c r="J35" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K35" s="16">
         <v>0.96</v>
@@ -4131,22 +4143,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>173.72</v>
+        <v>173.16</v>
       </c>
       <c r="C36" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D36" s="6">
         <v>459</v>
       </c>
       <c r="E36" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F36" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G36" s="13">
-        <v>0.76200000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="H36" s="6">
         <v>224</v>
@@ -4155,7 +4167,7 @@
         <v>44</v>
       </c>
       <c r="J36" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36" s="16">
         <v>1.01</v>
@@ -4166,19 +4178,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>-568.04</v>
+        <v>-570.76</v>
       </c>
       <c r="C37" s="6">
-        <v>-928</v>
+        <v>-934</v>
       </c>
       <c r="D37" s="6">
         <v>46</v>
       </c>
       <c r="E37" s="6">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F37" s="6">
-        <v>-507</v>
+        <v>-508</v>
       </c>
       <c r="G37" s="13">
         <v>7.5999999999999998E-2</v>
@@ -4187,10 +4199,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="6">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J37" s="6">
-        <v>-292</v>
+        <v>-293</v>
       </c>
       <c r="K37" s="16">
         <v>1.24</v>
@@ -4201,31 +4213,31 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>-695.71</v>
+        <v>-693.94</v>
       </c>
       <c r="C38" s="6">
-        <v>-4021</v>
+        <v>-4014</v>
       </c>
       <c r="D38" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" s="6">
         <v>566</v>
       </c>
       <c r="F38" s="6">
-        <v>-533</v>
+        <v>-532</v>
       </c>
       <c r="G38" s="13">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H38" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I38" s="6">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J38" s="6">
-        <v>-593</v>
+        <v>-591</v>
       </c>
       <c r="K38" s="16">
         <v>2.46</v>
@@ -4236,22 +4248,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>391.94</v>
+        <v>391.31</v>
       </c>
       <c r="C39" s="6">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D39" s="6">
         <v>559</v>
       </c>
       <c r="E39" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="6">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G39" s="13">
-        <v>0.92900000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="H39" s="6">
         <v>211</v>
@@ -4271,25 +4283,25 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>-88.7</v>
+        <v>-87.7</v>
       </c>
       <c r="C40" s="6">
-        <v>-89</v>
+        <v>-88</v>
       </c>
       <c r="D40" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E40" s="6">
         <v>404</v>
       </c>
       <c r="F40" s="6">
-        <v>-220</v>
+        <v>-219</v>
       </c>
       <c r="G40" s="13">
-        <v>0.30599999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="H40" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I40" s="6">
         <v>160</v>
@@ -4306,31 +4318,31 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>-49.44</v>
+        <v>-51.14</v>
       </c>
       <c r="C41" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41" s="6">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F41" s="6">
-        <v>-130</v>
+        <v>-133</v>
       </c>
       <c r="G41" s="13">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="H41" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I41" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J41" s="6">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="K41" s="16">
         <v>0.79</v>
@@ -4341,25 +4353,25 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>236.18</v>
+        <v>236.9</v>
       </c>
       <c r="C42" s="4">
         <v>178</v>
       </c>
       <c r="D42" s="4">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E42" s="4">
         <v>94</v>
       </c>
       <c r="F42" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G42" s="14">
         <v>0.81899999999999995</v>
       </c>
       <c r="H42" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I42" s="4">
         <v>46</v>
@@ -4376,31 +4388,31 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>236.88</v>
+        <v>239.29</v>
       </c>
       <c r="C43" s="1">
-        <v>-3331</v>
+        <v>-3307</v>
       </c>
       <c r="D43" s="1">
-        <v>3438</v>
+        <v>3444</v>
       </c>
       <c r="E43" s="1">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="F43" s="1">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G43" s="11">
         <v>0.57899999999999996</v>
       </c>
       <c r="H43" s="1">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="I43" s="1">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="J43" s="1">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="K43" s="2">
         <v>1.1100000000000001</v>
@@ -4408,13 +4420,16 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="47" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -4832,12 +4847,15 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>101</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5258,7 +5276,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>130dma</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Chg</t>
   </si>
   <si>
-    <t>STOCKS - Over $10 and 500k volume</t>
-  </si>
-  <si>
     <t>XRT</t>
   </si>
   <si>
@@ -346,22 +343,13 @@
     <t>+</t>
   </si>
   <si>
-    <t>Up 1.41 Points per Component with overall change of -1.44% from closing price 4437.44 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.64 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.45 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.10 Points per Component with overall change of -1.53% from closing price 2102.94 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.40 Points per Component with overall change of -1.24% from closing price 710.17 which was 11 days ago.</t>
-  </si>
-  <si>
     <t>Chg=Total Change of all components        Force=Chg * Volume, summed for each component</t>
+  </si>
+  <si>
+    <t>Done.</t>
+  </si>
+  <si>
+    <t>STOCKS - Over $10 and 500k vol</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1091,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1123,16 +1111,16 @@
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="D3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>0</v>
@@ -1141,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>25</v>
@@ -1152,110 +1140,110 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="30">
         <v>9</v>
       </c>
       <c r="F4" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="32">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="I4" s="34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4" s="35">
         <f>H4-I4</f>
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O4" s="23">
+        <v>4</v>
+      </c>
+      <c r="P4" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="23">
         <v>1</v>
       </c>
-      <c r="P4" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>-1</v>
-      </c>
       <c r="R4" s="23">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="S4" s="23">
-        <v>2.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" s="33">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="I5" s="36">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="J5" s="37">
         <f>H5-I5</f>
         <v>0.5</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" s="23">
         <v>5</v>
       </c>
       <c r="Q5" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="23">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="S5" s="23">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
@@ -1263,473 +1251,473 @@
         <v>15</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="31">
         <v>9</v>
       </c>
       <c r="E6" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6" s="33">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="I6" s="36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="37">
         <f>H6-I6</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N6" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="23">
         <v>3</v>
       </c>
       <c r="R6" s="23">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="S6" s="23">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="31">
         <v>9</v>
       </c>
       <c r="G7" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" s="33">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="I7" s="36">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J7" s="37">
         <f>H7-I7</f>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>3</v>
+      </c>
+      <c r="R7" s="23">
         <v>4</v>
       </c>
-      <c r="Q7" s="23">
-        <v>2</v>
-      </c>
-      <c r="R7" s="23">
-        <v>2.25</v>
-      </c>
       <c r="S7" s="23">
-        <v>4</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D8" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="31">
         <v>8</v>
       </c>
       <c r="G8" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H8" s="33">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="I8" s="36">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="37">
         <f>H8-I8</f>
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="L8" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="N8" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O8" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P8" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="23">
         <v>5</v>
       </c>
       <c r="R8" s="23">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="S8" s="23">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="31">
+        <v>5</v>
+      </c>
+      <c r="E9" s="31">
         <v>6</v>
-      </c>
-      <c r="E9" s="31">
-        <v>5</v>
       </c>
       <c r="F9" s="31">
         <v>8</v>
       </c>
       <c r="G9" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="33">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I9" s="36">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="37">
         <f>H9-I9</f>
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="23">
+        <v>8</v>
+      </c>
+      <c r="O9" s="23">
         <v>3</v>
       </c>
-      <c r="O9" s="23">
-        <v>-1</v>
-      </c>
       <c r="P9" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="23">
         <v>-2</v>
       </c>
       <c r="R9" s="23">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="S9" s="23">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D10" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="31">
         <v>7</v>
       </c>
       <c r="G10" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="33">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I10" s="36">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="J10" s="37">
         <f>H10-I10</f>
-        <v>-0.5</v>
+        <v>4</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="23">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="O10" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="23">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="R10" s="23">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="S10" s="23">
-        <v>-2.75</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D11" s="31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="31">
         <v>5</v>
       </c>
       <c r="F11" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="31">
         <v>4</v>
       </c>
       <c r="H11" s="33">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I11" s="36">
-        <v>6.75</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="37">
         <f>H11-I11</f>
-        <v>-1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" s="23">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="O11" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="23">
         <v>5</v>
       </c>
       <c r="R11" s="23">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="S11" s="23">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D12" s="31">
+        <v>8</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="31">
         <v>5</v>
-      </c>
-      <c r="E12" s="31">
-        <v>4</v>
-      </c>
-      <c r="F12" s="31">
-        <v>6</v>
       </c>
       <c r="G12" s="31">
         <v>2</v>
       </c>
       <c r="H12" s="33">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="I12" s="36">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="J12" s="37">
         <f>H12-I12</f>
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O12" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P12" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="23">
         <v>4</v>
       </c>
       <c r="R12" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S12" s="23">
-        <v>7</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D13" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="31">
         <v>5</v>
       </c>
       <c r="H13" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="36">
-        <v>4.75</v>
+        <v>-0.75</v>
       </c>
       <c r="J13" s="37">
         <f>H13-I13</f>
-        <v>-0.75</v>
+        <v>5.75</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="23">
         <v>3</v>
       </c>
       <c r="Q13" s="23">
+        <v>0</v>
+      </c>
+      <c r="R13" s="23">
+        <v>1.75</v>
+      </c>
+      <c r="S13" s="23">
         <v>-1</v>
-      </c>
-      <c r="R13" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="S13" s="23">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D14" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="36">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="37">
         <f>H14-I14</f>
-        <v>-0.75</v>
+        <v>6</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" s="23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O14" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="23">
         <v>6</v>
@@ -1738,157 +1726,157 @@
         <v>5</v>
       </c>
       <c r="R14" s="23">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="S14" s="23">
-        <v>4.75</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="33">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="I15" s="36">
-        <v>5.5</v>
+        <v>-0.5</v>
       </c>
       <c r="J15" s="37">
         <f>H15-I15</f>
-        <v>-2.25</v>
+        <v>5.25</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N15" s="23">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="O15" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="23">
         <v>4</v>
       </c>
-      <c r="Q15" s="23">
-        <v>3</v>
-      </c>
       <c r="R15" s="23">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="S15" s="23">
-        <v>6</v>
+        <v>-0.5</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D16" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="31">
         <v>3</v>
       </c>
       <c r="H16" s="33">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I16" s="36">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="J16" s="37">
         <f>H16-I16</f>
-        <v>-1.5</v>
+        <v>4.5</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N16" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" s="23">
         <v>8</v>
       </c>
       <c r="P16" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="23">
         <v>7</v>
       </c>
       <c r="R16" s="23">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="S16" s="23">
-        <v>7.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="31">
         <v>5</v>
       </c>
       <c r="G17" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="33">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="I17" s="36">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="37">
         <f>H17-I17</f>
-        <v>-2</v>
+        <v>3.75</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" s="23">
         <v>9</v>
@@ -1906,141 +1894,141 @@
         <v>9</v>
       </c>
       <c r="S17" s="23">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D18" s="31">
+        <v>6</v>
+      </c>
+      <c r="E18" s="31">
+        <v>3</v>
+      </c>
+      <c r="F18" s="31">
+        <v>7</v>
+      </c>
+      <c r="G18" s="31">
         <v>1</v>
       </c>
-      <c r="E18" s="31">
-        <v>2</v>
-      </c>
-      <c r="F18" s="31">
-        <v>5</v>
-      </c>
-      <c r="G18" s="31">
-        <v>3</v>
-      </c>
       <c r="H18" s="33">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="I18" s="36">
-        <v>5.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J18" s="37">
         <f>H18-I18</f>
-        <v>-2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N18" s="23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O18" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P18" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="23">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="S18" s="23">
-        <v>3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" s="31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="31">
+        <v>4</v>
+      </c>
+      <c r="F19" s="31">
+        <v>5</v>
+      </c>
+      <c r="G19" s="31">
         <v>1</v>
       </c>
-      <c r="F19" s="31">
-        <v>6</v>
-      </c>
-      <c r="G19" s="31">
-        <v>5</v>
-      </c>
       <c r="H19" s="33">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="I19" s="36">
-        <v>4.75</v>
+        <v>-1.5</v>
       </c>
       <c r="J19" s="37">
         <f>H19-I19</f>
-        <v>-2</v>
+        <v>5.75</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19" s="23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O19" s="23">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P19" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="23">
-        <v>-0.25</v>
+        <v>2.75</v>
       </c>
       <c r="S19" s="23">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D20" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="31">
+        <v>7</v>
+      </c>
+      <c r="G20" s="31">
         <v>4</v>
       </c>
-      <c r="G20" s="31">
-        <v>1</v>
-      </c>
       <c r="H20" s="33">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="I20" s="36">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="J20" s="37">
         <f>H20-I20</f>
@@ -2050,195 +2038,195 @@
         <v>15</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20" s="23">
         <v>9</v>
       </c>
       <c r="O20" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P20" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R20" s="23">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="S20" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D21" s="31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="31">
         <v>3</v>
       </c>
       <c r="H21" s="33">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="36">
-        <v>4.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J21" s="37">
         <f>H21-I21</f>
-        <v>-1.75</v>
+        <v>4.25</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N21" s="23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O21" s="23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P21" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R21" s="23">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="S21" s="23">
-        <v>4.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D22" s="31">
         <v>1</v>
       </c>
       <c r="E22" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="31">
+        <v>7</v>
+      </c>
+      <c r="G22" s="31">
         <v>4</v>
       </c>
-      <c r="G22" s="31">
-        <v>2</v>
-      </c>
       <c r="H22" s="33">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="I22" s="36">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J22" s="37">
         <f>H22-I22</f>
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" s="23">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O22" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P22" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22" s="23">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="S22" s="23">
-        <v>7.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31">
         <v>6</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="31">
-        <v>-3</v>
-      </c>
-      <c r="E23" s="31">
-        <v>0</v>
-      </c>
-      <c r="F23" s="31">
-        <v>7</v>
-      </c>
       <c r="G23" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="33">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="I23" s="36">
-        <v>7.5</v>
+        <v>-0.75</v>
       </c>
       <c r="J23" s="37">
         <f>H23-I23</f>
-        <v>-5.25</v>
+        <v>4.25</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N23" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O23" s="23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="23">
         <v>-1</v>
       </c>
       <c r="R23" s="23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S23" s="23">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D24" s="31">
         <v>1</v>
@@ -2247,109 +2235,109 @@
         <v>1</v>
       </c>
       <c r="F24" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" s="33">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" s="36">
-        <v>5.25</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="37">
         <f>H24-I24</f>
-        <v>-3.25</v>
+        <v>4.25</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N24" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O24" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P24" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" s="23">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="S24" s="23">
-        <v>5.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="31">
+        <v>5</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>5</v>
+      </c>
+      <c r="G25" s="31">
         <v>2</v>
       </c>
-      <c r="E25" s="31">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="31">
-        <v>6</v>
-      </c>
-      <c r="G25" s="31">
-        <v>0</v>
-      </c>
       <c r="H25" s="33">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="I25" s="36">
-        <v>3.75</v>
+        <v>-2.5</v>
       </c>
       <c r="J25" s="37">
         <f>H25-I25</f>
-        <v>-2</v>
+        <v>5.75</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N25" s="23">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="O25" s="23">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="P25" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="23">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="R25" s="23">
-        <v>-4</v>
+        <v>-1.75</v>
       </c>
       <c r="S25" s="23">
-        <v>2.75</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D26" s="31">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E26" s="31">
         <v>1</v>
@@ -2358,325 +2346,325 @@
         <v>4</v>
       </c>
       <c r="G26" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="33">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="I26" s="36">
-        <v>6</v>
+        <v>-0.75</v>
       </c>
       <c r="J26" s="37">
         <f>H26-I26</f>
-        <v>-4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N26" s="23">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="O26" s="23">
         <v>-4</v>
       </c>
       <c r="P26" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="23">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S26" s="23">
-        <v>5.75</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D27" s="31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E27" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="31">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H27" s="33">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="I27" s="36">
-        <v>3.25</v>
+        <v>-2.5</v>
       </c>
       <c r="J27" s="37">
         <f>H27-I27</f>
-        <v>-2</v>
+        <v>5.25</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="23">
         <v>3</v>
       </c>
       <c r="O27" s="23">
+        <v>1</v>
+      </c>
+      <c r="P27" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="23">
         <v>2</v>
       </c>
-      <c r="P27" s="23">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>3</v>
-      </c>
       <c r="R27" s="23">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="S27" s="23">
-        <v>4.75</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D28" s="31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28" s="31">
         <v>2</v>
       </c>
       <c r="F28" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="33">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="I28" s="36">
-        <v>0</v>
+        <v>-3.25</v>
       </c>
       <c r="J28" s="37">
         <f>H28-I28</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L28" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="N28" s="23">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="O28" s="23">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="23">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Q28" s="23">
         <v>-4</v>
       </c>
       <c r="R28" s="23">
-        <v>-3.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S28" s="23">
-        <v>2.25</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D29" s="31">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31">
+        <v>4</v>
+      </c>
+      <c r="G29" s="31">
         <v>2</v>
       </c>
-      <c r="F29" s="31">
-        <v>3</v>
-      </c>
-      <c r="G29" s="31">
-        <v>3</v>
-      </c>
       <c r="H29" s="33">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="I29" s="36">
-        <v>7.25</v>
+        <v>-0.75</v>
       </c>
       <c r="J29" s="37">
         <f>H29-I29</f>
-        <v>-6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O29" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P29" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="23">
         <v>7</v>
       </c>
-      <c r="Q29" s="23">
-        <v>4</v>
-      </c>
       <c r="R29" s="23">
-        <v>5.25</v>
+        <v>7.75</v>
       </c>
       <c r="S29" s="23">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="31">
         <v>4</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0</v>
-      </c>
       <c r="E30" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" s="31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H30" s="33">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="I30" s="36">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="J30" s="37">
         <f>H30-I30</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N30" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O30" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="23">
         <v>1</v>
       </c>
       <c r="R30" s="23">
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="S30" s="23">
-        <v>3.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D31" s="31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="31">
         <v>-1</v>
       </c>
       <c r="H31" s="33">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="I31" s="36">
-        <v>4</v>
+        <v>-2.5</v>
       </c>
       <c r="J31" s="37">
         <f>H31-I31</f>
-        <v>-3.5</v>
+        <v>4.75</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N31" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O31" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="23">
         <v>-2</v>
       </c>
       <c r="R31" s="23">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="S31" s="23">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D32" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="31">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="31">
         <v>3</v>
@@ -2685,23 +2673,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="33">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="I32" s="36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="37">
         <f>H32-I32</f>
-        <v>-0.5</v>
+        <v>2.75</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N32" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O32" s="23">
         <v>1</v>
@@ -2713,172 +2701,172 @@
         <v>3</v>
       </c>
       <c r="R32" s="23">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="S32" s="23">
-        <v>4.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D33" s="31">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E33" s="31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F33" s="31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" s="31">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H33" s="33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I33" s="36">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J33" s="37">
         <f>H33-I33</f>
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N33" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O33" s="23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P33" s="23">
         <v>3</v>
       </c>
       <c r="Q33" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R33" s="23">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S33" s="23">
-        <v>0.75</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D34" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34" s="31">
         <v>-1</v>
       </c>
       <c r="F34" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="31">
         <v>-1</v>
       </c>
       <c r="H34" s="33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I34" s="36">
-        <v>-0.25</v>
+        <v>-3</v>
       </c>
       <c r="J34" s="37">
         <f>H34-I34</f>
-        <v>0.25</v>
+        <v>4.5</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="O34" s="23">
+        <v>1</v>
+      </c>
+      <c r="P34" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="23">
         <v>2</v>
       </c>
-      <c r="O34" s="23">
-        <v>4</v>
-      </c>
-      <c r="P34" s="23">
-        <v>7</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>3</v>
-      </c>
       <c r="R34" s="23">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="S34" s="23">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="29" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D35" s="31">
+        <v>-3</v>
+      </c>
+      <c r="E35" s="31">
+        <v>0</v>
+      </c>
+      <c r="F35" s="31">
+        <v>4</v>
+      </c>
+      <c r="G35" s="31">
         <v>1</v>
       </c>
-      <c r="E35" s="31">
-        <v>-2</v>
-      </c>
-      <c r="F35" s="31">
-        <v>1</v>
-      </c>
-      <c r="G35" s="31">
-        <v>-1</v>
-      </c>
       <c r="H35" s="33">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I35" s="36">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="37">
         <f>H35-I35</f>
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N35" s="23">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="O35" s="23">
+        <v>0</v>
+      </c>
+      <c r="P35" s="23">
         <v>4</v>
       </c>
-      <c r="P35" s="23">
-        <v>6</v>
-      </c>
       <c r="Q35" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35" s="23">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="S35" s="23">
-        <v>5.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
@@ -2886,41 +2874,41 @@
         <v>5</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="31">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G36" s="31">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H36" s="33">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="I36" s="36">
-        <v>-2.75</v>
+        <v>-4</v>
       </c>
       <c r="J36" s="37">
         <f>H36-I36</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N36" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O36" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P36" s="23">
         <v>7</v>
@@ -2929,49 +2917,49 @@
         <v>4</v>
       </c>
       <c r="R36" s="23">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="S36" s="23">
-        <v>6.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="31">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E37" s="31">
         <v>-4</v>
       </c>
       <c r="F37" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="31">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H37" s="33">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I37" s="36">
-        <v>5.75</v>
+        <v>-4.75</v>
       </c>
       <c r="J37" s="37">
         <f>H37-I37</f>
-        <v>-9.25</v>
+        <v>3.25</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N37" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="23">
         <v>1</v>
@@ -2980,140 +2968,144 @@
         <v>4</v>
       </c>
       <c r="Q37" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R37" s="23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S37" s="23">
-        <v>5.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>100</v>
-      </c>
       <c r="D38" s="31">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="31">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F38" s="31">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="31">
         <v>-4</v>
       </c>
       <c r="H38" s="33">
-        <v>-3.75</v>
+        <v>-1.75</v>
       </c>
       <c r="I38" s="36">
-        <v>2.25</v>
+        <v>-5.5</v>
       </c>
       <c r="J38" s="37">
         <f>H38-I38</f>
-        <v>-6</v>
+        <v>3.75</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N38" s="23">
+        <v>5</v>
+      </c>
+      <c r="O38" s="23">
         <v>6</v>
-      </c>
-      <c r="O38" s="23">
-        <v>5</v>
       </c>
       <c r="P38" s="23">
         <v>8</v>
       </c>
       <c r="Q38" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R38" s="23">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="S38" s="23">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="31">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="31">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F39" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="31">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H39" s="33">
-        <v>-4</v>
+        <v>-1.75</v>
       </c>
       <c r="I39" s="38">
-        <v>2.75</v>
+        <v>-5.75</v>
       </c>
       <c r="J39" s="39">
         <f>H39-I39</f>
-        <v>-6.75</v>
+        <v>4</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" s="23">
+        <v>5</v>
+      </c>
+      <c r="O39" s="23">
+        <v>1</v>
+      </c>
+      <c r="P39" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="23">
         <v>2</v>
       </c>
-      <c r="O39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="23">
-        <v>0</v>
-      </c>
       <c r="R39" s="23">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="S39" s="23">
-        <v>3.75</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H40" s="40">
         <f>AVERAGE(H4:H39)</f>
-        <v>2.3680555555555554</v>
+        <v>3.7569444444444446</v>
       </c>
       <c r="I40" s="40">
         <f>AVERAGE(I4:I39)</f>
-        <v>4.2013888888888893</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J40" s="40">
         <f>AVERAGE(J4:J39)</f>
-        <v>-1.8333333333333333</v>
+        <v>3.6458333333333335</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B4:J39">
     <sortCondition descending="1" ref="H4:H39"/>
+    <sortCondition descending="1" ref="I4:I39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3122,15 +3114,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
@@ -3142,15 +3135,15 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
@@ -3182,402 +3175,397 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>125.13</v>
+        <v>736.55</v>
       </c>
       <c r="C3" s="6">
-        <v>133</v>
+        <v>636</v>
       </c>
       <c r="D3" s="6">
-        <v>294</v>
+        <v>494</v>
       </c>
       <c r="E3" s="6">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6">
-        <v>86</v>
+        <v>487</v>
       </c>
       <c r="G3" s="13">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2157</v>
+      </c>
+      <c r="I3" s="6">
+        <v>31</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2126</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="L3" s="18">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>-51.9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-128</v>
+      </c>
+      <c r="D4" s="6">
+        <v>263</v>
+      </c>
+      <c r="E4" s="6">
+        <v>229</v>
+      </c>
+      <c r="F4" s="6">
+        <v>34</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1233</v>
+      </c>
+      <c r="I4" s="6">
+        <v>816</v>
+      </c>
+      <c r="J4" s="6">
+        <v>417</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>253.1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>246</v>
+      </c>
+      <c r="D5" s="6">
+        <v>378</v>
+      </c>
+      <c r="E5" s="6">
+        <v>119</v>
+      </c>
+      <c r="F5" s="6">
+        <v>259</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.749</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1752</v>
+      </c>
+      <c r="I5" s="6">
+        <v>573</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1178</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="L5" s="18">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>-318.58</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-350</v>
+      </c>
+      <c r="D6" s="6">
+        <v>131</v>
+      </c>
+      <c r="E6" s="6">
+        <v>368</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-237</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>476</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1708</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-1232</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="L6" s="18">
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>125.15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>126</v>
+      </c>
+      <c r="D7" s="6">
+        <v>293</v>
+      </c>
+      <c r="E7" s="6">
+        <v>206</v>
+      </c>
+      <c r="F7" s="6">
+        <v>87</v>
+      </c>
+      <c r="G7" s="13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H3" s="6">
-        <v>1215</v>
-      </c>
-      <c r="I3" s="6">
-        <v>928</v>
-      </c>
-      <c r="J3" s="6">
-        <v>286</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="H7" s="6">
+        <v>1197</v>
+      </c>
+      <c r="I7" s="6">
+        <v>901</v>
+      </c>
+      <c r="J7" s="6">
+        <v>295</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="L7" s="18">
         <v>42552</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>565.34</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1025</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>565.37</v>
+      </c>
+      <c r="C8" s="6">
+        <v>985</v>
+      </c>
+      <c r="D8" s="6">
         <v>452</v>
       </c>
-      <c r="E4" s="6">
-        <v>50</v>
-      </c>
-      <c r="F4" s="6">
-        <v>402</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E8" s="6">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6">
+        <v>404</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H8" s="6">
         <v>2510</v>
       </c>
-      <c r="I4" s="6">
-        <v>342</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2168</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="I8" s="6">
+        <v>338</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2171</v>
+      </c>
+      <c r="K8" s="16">
         <v>1.26</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L8" s="18">
         <v>42551</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>734.69</v>
-      </c>
-      <c r="C5" s="6">
-        <v>898</v>
-      </c>
-      <c r="D5" s="6">
-        <v>478</v>
-      </c>
-      <c r="E5" s="6">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>734.68</v>
+      </c>
+      <c r="C9" s="6">
+        <v>881</v>
+      </c>
+      <c r="D9" s="6">
+        <v>477</v>
+      </c>
+      <c r="E9" s="6">
         <v>24</v>
       </c>
-      <c r="F5" s="6">
-        <v>454</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2360</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="F9" s="6">
+        <v>453</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2359</v>
+      </c>
+      <c r="I9" s="6">
         <v>230</v>
       </c>
-      <c r="J5" s="6">
-        <v>2129</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J9" s="6">
+        <v>2128</v>
+      </c>
+      <c r="K9" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L9" s="18">
         <v>42550</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>734.21</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1046</v>
-      </c>
-      <c r="D6" s="6">
-        <v>471</v>
-      </c>
-      <c r="E6" s="6">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6">
-        <v>438</v>
-      </c>
-      <c r="G6" s="13">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>734.1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1019</v>
+      </c>
+      <c r="D10" s="6">
+        <v>469</v>
+      </c>
+      <c r="E10" s="6">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6">
+        <v>437</v>
+      </c>
+      <c r="G10" s="13">
         <v>0.92900000000000005</v>
       </c>
-      <c r="H6" s="6">
-        <v>2584</v>
-      </c>
-      <c r="I6" s="6">
-        <v>150</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2434</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1.21</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="H10" s="6">
+        <v>2573</v>
+      </c>
+      <c r="I10" s="6">
+        <v>148</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2425</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="L10" s="18">
         <v>42549</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>-882.7</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-1991</v>
-      </c>
-      <c r="D7" s="6">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>-882.6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-1945</v>
+      </c>
+      <c r="D11" s="6">
         <v>76</v>
       </c>
-      <c r="E7" s="6">
-        <v>428</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-352</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="E11" s="6">
+        <v>425</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-349</v>
+      </c>
+      <c r="G11" s="13">
         <v>0.15</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H11" s="6">
         <v>348</v>
       </c>
-      <c r="I7" s="6">
-        <v>3001</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-2653</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1.48</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="I11" s="6">
+        <v>2991</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-2642</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1.47</v>
+      </c>
+      <c r="L11" s="18">
         <v>42548</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>-1638.11</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-7127</v>
-      </c>
-      <c r="D8" s="6">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6">
-        <v>462</v>
-      </c>
-      <c r="F8" s="6">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>-1638.16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-7004</v>
+      </c>
+      <c r="D12" s="4">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
+        <v>461</v>
+      </c>
+      <c r="F12" s="4">
         <v>-421</v>
       </c>
-      <c r="G8" s="13">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>214</v>
-      </c>
-      <c r="I8" s="6">
-        <v>4313</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="G12" s="14">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>213</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4312</v>
+      </c>
+      <c r="J12" s="4">
         <v>-4098</v>
       </c>
-      <c r="K8" s="16">
-        <v>2</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="K12" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="L12" s="18">
         <v>42545</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>575.16</v>
-      </c>
-      <c r="C9" s="6">
-        <v>408</v>
-      </c>
-      <c r="D9" s="6">
-        <v>466</v>
-      </c>
-      <c r="E9" s="6">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6">
-        <v>429</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1827</v>
-      </c>
-      <c r="I9" s="6">
-        <v>137</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1689</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.87</v>
-      </c>
-      <c r="L9" s="18">
-        <v>42544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>-12.67</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D10" s="6">
-        <v>212</v>
-      </c>
-      <c r="E10" s="6">
-        <v>286</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-74</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H10" s="6">
-        <v>591</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1265</v>
-      </c>
-      <c r="J10" s="6">
-        <v>-673</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.82</v>
-      </c>
-      <c r="L10" s="18">
-        <v>42543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>37.76</v>
-      </c>
-      <c r="C11" s="6">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>312</v>
-      </c>
-      <c r="E11" s="6">
-        <v>188</v>
-      </c>
-      <c r="F11" s="6">
-        <v>124</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1278</v>
-      </c>
-      <c r="I11" s="6">
-        <v>642</v>
-      </c>
-      <c r="J11" s="6">
-        <v>635</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0.86</v>
-      </c>
-      <c r="L11" s="18">
-        <v>42542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>317.07</v>
-      </c>
-      <c r="C12" s="4">
-        <v>269</v>
-      </c>
-      <c r="D12" s="4">
-        <v>406</v>
-      </c>
-      <c r="E12" s="4">
-        <v>96</v>
-      </c>
-      <c r="F12" s="4">
-        <v>310</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1699</v>
-      </c>
-      <c r="I12" s="4">
-        <v>442</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1256</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="L12" s="18">
-        <v>42541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>555.88</v>
+        <v>257.70999999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>-5341</v>
+        <v>-5534</v>
       </c>
       <c r="D13" s="1">
-        <v>3208</v>
+        <v>3073</v>
       </c>
       <c r="E13" s="1">
-        <v>1812</v>
+        <v>1919</v>
       </c>
       <c r="F13" s="1">
-        <v>1396</v>
+        <v>1154</v>
       </c>
       <c r="G13" s="11">
-        <v>0.63900000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>14631</v>
+        <v>14823</v>
       </c>
       <c r="I13" s="1">
-        <v>11456</v>
+        <v>12054</v>
       </c>
       <c r="J13" s="1">
-        <v>3175</v>
+        <v>2769</v>
       </c>
       <c r="K13" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -3609,402 +3597,397 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
+        <v>177.21</v>
+      </c>
+      <c r="C18" s="6">
+        <v>148</v>
+      </c>
+      <c r="D18" s="6">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>92</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="H18" s="6">
+        <v>553</v>
+      </c>
+      <c r="I18" s="6">
+        <v>22</v>
+      </c>
+      <c r="J18" s="6">
+        <v>531</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="L18" s="18">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>51.47</v>
+      </c>
+      <c r="C19" s="6">
+        <v>64</v>
+      </c>
+      <c r="D19" s="6">
+        <v>66</v>
+      </c>
+      <c r="E19" s="6">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6">
+        <v>33</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="H19" s="6">
+        <v>429</v>
+      </c>
+      <c r="I19" s="6">
+        <v>89</v>
+      </c>
+      <c r="J19" s="6">
+        <v>339</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="L19" s="18">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>98.49</v>
+      </c>
+      <c r="C20" s="6">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="6">
+        <v>447</v>
+      </c>
+      <c r="I20" s="6">
+        <v>149</v>
+      </c>
+      <c r="J20" s="6">
+        <v>297</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="L20" s="18">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>-49.23</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-34</v>
+      </c>
+      <c r="D21" s="6">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6">
+        <v>73</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-46</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="H21" s="6">
+        <v>124</v>
+      </c>
+      <c r="I21" s="6">
+        <v>423</v>
+      </c>
+      <c r="J21" s="6">
+        <v>-298</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="L21" s="18">
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>80.36</v>
       </c>
-      <c r="C18" s="6">
-        <v>60</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C22" s="6">
         <v>59</v>
       </c>
-      <c r="E18" s="6">
+      <c r="D22" s="6">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6">
         <v>41</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F22" s="6">
         <v>18</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G22" s="13">
         <v>0.59</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H22" s="6">
         <v>300</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I22" s="6">
         <v>264</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J22" s="6">
         <v>36</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K22" s="16">
         <v>0.94</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L22" s="18">
         <v>42552</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>116.07</v>
       </c>
-      <c r="C19" s="6">
-        <v>159</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C23" s="6">
+        <v>157</v>
+      </c>
+      <c r="D23" s="6">
         <v>90</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E23" s="6">
         <v>10</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F23" s="6">
         <v>80</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G23" s="13">
         <v>0.9</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H23" s="6">
         <v>651</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I23" s="6">
         <v>42</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J23" s="6">
         <v>609</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K23" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L23" s="18">
         <v>42551</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>228.78</v>
       </c>
-      <c r="C20" s="6">
-        <v>259</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C24" s="6">
+        <v>263</v>
+      </c>
+      <c r="D24" s="6">
         <v>96</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E24" s="6">
         <v>4</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F24" s="6">
         <v>92</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G24" s="13">
         <v>0.96</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H24" s="6">
         <v>613</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I24" s="6">
         <v>30</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J24" s="6">
         <v>582</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K24" s="16">
         <v>1.07</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L24" s="18">
         <v>42550</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
         <v>208.1</v>
       </c>
-      <c r="C21" s="6">
-        <v>263</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C25" s="6">
+        <v>261</v>
+      </c>
+      <c r="D25" s="6">
         <v>97</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E25" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F25" s="6">
         <v>94</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G25" s="13">
         <v>0.97</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H25" s="6">
         <v>681</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I25" s="6">
         <v>4</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J25" s="6">
         <v>677</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K25" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L25" s="18">
         <v>42549</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>-230.93</v>
       </c>
-      <c r="C22" s="6">
-        <v>-546</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C26" s="6">
+        <v>-545</v>
+      </c>
+      <c r="D26" s="6">
         <v>9</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E26" s="6">
         <v>91</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F26" s="6">
         <v>-82</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G26" s="13">
         <v>0.09</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H26" s="6">
         <v>45</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I26" s="6">
         <v>837</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J26" s="6">
         <v>-791</v>
       </c>
-      <c r="K22" s="16">
-        <v>1.46</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="K26" s="16">
+        <v>1.47</v>
+      </c>
+      <c r="L26" s="18">
         <v>42548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
         <v>-538.79</v>
       </c>
-      <c r="C23" s="6">
-        <v>-3011</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C27" s="4">
+        <v>-3031</v>
+      </c>
+      <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E27" s="4">
         <v>97</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F27" s="4">
         <v>-94</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G27" s="14">
         <v>0.03</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H27" s="4">
         <v>19</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I27" s="4">
         <v>1280</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J27" s="4">
         <v>-1261</v>
       </c>
-      <c r="K23" s="16">
-        <v>2.15</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="K27" s="17">
+        <v>2.16</v>
+      </c>
+      <c r="L27" s="18">
         <v>42545</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>180.05</v>
-      </c>
-      <c r="C24" s="6">
-        <v>143</v>
-      </c>
-      <c r="D24" s="6">
-        <v>95</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6">
-        <v>90</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="H24" s="6">
-        <v>537</v>
-      </c>
-      <c r="I24" s="6">
-        <v>20</v>
-      </c>
-      <c r="J24" s="6">
-        <v>517</v>
-      </c>
-      <c r="K24" s="16">
-        <v>0.93</v>
-      </c>
-      <c r="L24" s="18">
-        <v>42544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>-3.51</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-68</v>
-      </c>
-      <c r="D25" s="6">
-        <v>43</v>
-      </c>
-      <c r="E25" s="6">
-        <v>54</v>
-      </c>
-      <c r="F25" s="6">
-        <v>-11</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0.43</v>
-      </c>
-      <c r="H25" s="6">
-        <v>151</v>
-      </c>
-      <c r="I25" s="6">
-        <v>369</v>
-      </c>
-      <c r="J25" s="6">
-        <v>-217</v>
-      </c>
-      <c r="K25" s="16">
-        <v>0.87</v>
-      </c>
-      <c r="L25" s="18">
-        <v>42543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
-        <v>-14.41</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-16</v>
-      </c>
-      <c r="D26" s="6">
-        <v>58</v>
-      </c>
-      <c r="E26" s="6">
-        <v>41</v>
-      </c>
-      <c r="F26" s="6">
-        <v>17</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H26" s="6">
-        <v>297</v>
-      </c>
-      <c r="I26" s="6">
-        <v>172</v>
-      </c>
-      <c r="J26" s="6">
-        <v>125</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="L26" s="18">
-        <v>42542</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>115.14</v>
-      </c>
-      <c r="C27" s="4">
-        <v>97</v>
-      </c>
-      <c r="D27" s="4">
-        <v>86</v>
-      </c>
-      <c r="E27" s="4">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4">
-        <v>72</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="H27" s="4">
-        <v>431</v>
-      </c>
-      <c r="I27" s="4">
-        <v>135</v>
-      </c>
-      <c r="J27" s="4">
-        <v>295</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0.94</v>
-      </c>
-      <c r="L27" s="18">
-        <v>42541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>140.86000000000001</v>
+        <v>141.53</v>
       </c>
       <c r="C28" s="1">
-        <v>-2660</v>
+        <v>-2568</v>
       </c>
       <c r="D28" s="1">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E28" s="1">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F28" s="1">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="G28" s="11">
-        <v>0.63900000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="H28" s="1">
-        <v>3730</v>
+        <v>3867</v>
       </c>
       <c r="I28" s="1">
-        <v>3157</v>
+        <v>3146</v>
       </c>
       <c r="J28" s="1">
-        <v>573</v>
+        <v>721</v>
       </c>
       <c r="K28" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>25</v>
       </c>
@@ -4038,397 +4021,392 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
-        <v>42.48</v>
+        <v>446.12</v>
       </c>
       <c r="C33" s="6">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="D33" s="6">
-        <v>344</v>
+        <v>584</v>
       </c>
       <c r="E33" s="6">
+        <v>14</v>
+      </c>
+      <c r="F33" s="6">
+        <v>570</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="H33" s="6">
         <v>251</v>
       </c>
-      <c r="F33" s="6">
-        <v>93</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H33" s="6">
-        <v>151</v>
-      </c>
       <c r="I33" s="6">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="J33" s="6">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="K33" s="16">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="L33" s="18">
-        <v>42552</v>
+        <v>42559</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>411.31</v>
+        <v>32.96</v>
       </c>
       <c r="C34" s="6">
-        <v>664</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6">
-        <v>543</v>
+        <v>346</v>
       </c>
       <c r="E34" s="6">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="F34" s="6">
-        <v>488</v>
+        <v>103</v>
       </c>
       <c r="G34" s="13">
-        <v>0.9</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="H34" s="6">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="I34" s="6">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J34" s="6">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="K34" s="16">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="L34" s="18">
-        <v>42551</v>
+        <v>42558</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>387.67</v>
+        <v>130.88999999999999</v>
       </c>
       <c r="C35" s="6">
-        <v>385</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6">
-        <v>553</v>
+        <v>429</v>
       </c>
       <c r="E35" s="6">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F35" s="6">
-        <v>506</v>
+        <v>271</v>
       </c>
       <c r="G35" s="13">
-        <v>0.91700000000000004</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H35" s="6">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="I35" s="6">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="J35" s="6">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="K35" s="16">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="L35" s="18">
-        <v>42550</v>
+        <v>42557</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>173.16</v>
+        <v>-248.22</v>
       </c>
       <c r="C36" s="6">
-        <v>168</v>
+        <v>-172</v>
       </c>
       <c r="D36" s="6">
-        <v>459</v>
+        <v>96</v>
       </c>
       <c r="E36" s="6">
-        <v>136</v>
+        <v>499</v>
       </c>
       <c r="F36" s="6">
-        <v>323</v>
+        <v>-403</v>
       </c>
       <c r="G36" s="13">
-        <v>0.76100000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="H36" s="6">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="I36" s="6">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="J36" s="6">
-        <v>180</v>
+        <v>-161</v>
       </c>
       <c r="K36" s="16">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="L36" s="18">
-        <v>42549</v>
+        <v>42556</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>-570.76</v>
+        <v>42.43</v>
       </c>
       <c r="C37" s="6">
-        <v>-934</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6">
-        <v>46</v>
+        <v>343</v>
       </c>
       <c r="E37" s="6">
-        <v>554</v>
+        <v>250</v>
       </c>
       <c r="F37" s="6">
-        <v>-508</v>
+        <v>93</v>
       </c>
       <c r="G37" s="13">
-        <v>7.5999999999999998E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H37" s="6">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="I37" s="6">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="J37" s="6">
-        <v>-293</v>
+        <v>85</v>
       </c>
       <c r="K37" s="16">
-        <v>1.24</v>
+        <v>0.83</v>
       </c>
       <c r="L37" s="18">
-        <v>42548</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>-693.94</v>
+        <v>407.87</v>
       </c>
       <c r="C38" s="6">
-        <v>-4014</v>
+        <v>619</v>
       </c>
       <c r="D38" s="6">
-        <v>34</v>
+        <v>541</v>
       </c>
       <c r="E38" s="6">
-        <v>566</v>
+        <v>55</v>
       </c>
       <c r="F38" s="6">
-        <v>-532</v>
+        <v>486</v>
       </c>
       <c r="G38" s="13">
-        <v>5.6000000000000001E-2</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="H38" s="6">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="I38" s="6">
-        <v>626</v>
+        <v>46</v>
       </c>
       <c r="J38" s="6">
-        <v>-591</v>
+        <v>207</v>
       </c>
       <c r="K38" s="16">
-        <v>2.46</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L38" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>391.31</v>
+        <v>387.11</v>
       </c>
       <c r="C39" s="6">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="D39" s="6">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E39" s="6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F39" s="6">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="G39" s="13">
-        <v>0.92700000000000005</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H39" s="6">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="I39" s="6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J39" s="6">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="K39" s="16">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="L39" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>-87.7</v>
+        <v>173.99</v>
       </c>
       <c r="C40" s="6">
-        <v>-88</v>
+        <v>173</v>
       </c>
       <c r="D40" s="6">
-        <v>185</v>
+        <v>458</v>
       </c>
       <c r="E40" s="6">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="F40" s="6">
-        <v>-219</v>
+        <v>323</v>
       </c>
       <c r="G40" s="13">
-        <v>0.307</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="H40" s="6">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="I40" s="6">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="J40" s="6">
-        <v>-102</v>
+        <v>180</v>
       </c>
       <c r="K40" s="16">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="L40" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>-51.14</v>
+        <v>-570.04</v>
       </c>
       <c r="C41" s="6">
-        <v>2</v>
+        <v>-935</v>
       </c>
       <c r="D41" s="6">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="E41" s="6">
-        <v>360</v>
+        <v>553</v>
       </c>
       <c r="F41" s="6">
-        <v>-133</v>
+        <v>-508</v>
       </c>
       <c r="G41" s="13">
-        <v>0.376</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H41" s="6">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="I41" s="6">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="J41" s="6">
-        <v>-31</v>
+        <v>-292</v>
       </c>
       <c r="K41" s="16">
-        <v>0.79</v>
+        <v>1.25</v>
       </c>
       <c r="L41" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>236.9</v>
+        <v>-694.69</v>
       </c>
       <c r="C42" s="4">
-        <v>178</v>
+        <v>-4054</v>
       </c>
       <c r="D42" s="4">
-        <v>494</v>
+        <v>33</v>
       </c>
       <c r="E42" s="4">
-        <v>94</v>
+        <v>565</v>
       </c>
       <c r="F42" s="4">
-        <v>400</v>
+        <v>-532</v>
       </c>
       <c r="G42" s="14">
-        <v>0.81899999999999995</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H42" s="4">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="I42" s="4">
-        <v>46</v>
+        <v>626</v>
       </c>
       <c r="J42" s="4">
-        <v>135</v>
+        <v>-591</v>
       </c>
       <c r="K42" s="17">
-        <v>0.87</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L42" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>239.29</v>
+        <v>108.42</v>
       </c>
       <c r="C43" s="1">
-        <v>-3307</v>
+        <v>-3382</v>
       </c>
       <c r="D43" s="1">
-        <v>3444</v>
+        <v>3427</v>
       </c>
       <c r="E43" s="1">
-        <v>2507</v>
+        <v>2518</v>
       </c>
       <c r="F43" s="1">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="G43" s="11">
-        <v>0.57899999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="H43" s="1">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="I43" s="1">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="J43" s="1">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>110</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>26</v>
+      <c r="A46" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4465,397 +4443,392 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
-        <v>343.43</v>
+        <v>1316.24</v>
       </c>
       <c r="C48" s="6">
-        <v>309</v>
+        <v>1077</v>
       </c>
       <c r="D48" s="6">
-        <v>891</v>
+        <v>1353</v>
       </c>
       <c r="E48" s="6">
-        <v>521</v>
+        <v>72</v>
       </c>
       <c r="F48" s="6">
-        <v>370</v>
+        <v>1281</v>
       </c>
       <c r="G48" s="13">
-        <v>0.61899999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="H48" s="6">
-        <v>2136</v>
+        <v>3427</v>
       </c>
       <c r="I48" s="6">
-        <v>1265</v>
+        <v>222</v>
       </c>
       <c r="J48" s="6">
-        <v>870</v>
+        <v>3204</v>
       </c>
       <c r="K48" s="16">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="L48" s="18">
-        <v>42552</v>
+        <v>42559</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
-        <v>984.95</v>
+        <v>41.49</v>
       </c>
       <c r="C49" s="6">
-        <v>1637</v>
+        <v>92</v>
       </c>
       <c r="D49" s="6">
-        <v>1187</v>
+        <v>789</v>
       </c>
       <c r="E49" s="6">
-        <v>231</v>
+        <v>618</v>
       </c>
       <c r="F49" s="6">
-        <v>956</v>
+        <v>171</v>
       </c>
       <c r="G49" s="13">
-        <v>0.82499999999999996</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="H49" s="6">
-        <v>3807</v>
+        <v>1975</v>
       </c>
       <c r="I49" s="6">
-        <v>717</v>
+        <v>1420</v>
       </c>
       <c r="J49" s="6">
-        <v>3089</v>
+        <v>554</v>
       </c>
       <c r="K49" s="16">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="L49" s="18">
-        <v>42551</v>
+        <v>42558</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
-        <v>1420.39</v>
+        <v>455.11</v>
       </c>
       <c r="C50" s="6">
-        <v>2042</v>
+        <v>459</v>
       </c>
       <c r="D50" s="6">
-        <v>1328</v>
+        <v>1008</v>
       </c>
       <c r="E50" s="6">
-        <v>97</v>
+        <v>406</v>
       </c>
       <c r="F50" s="6">
-        <v>1231</v>
+        <v>602</v>
       </c>
       <c r="G50" s="13">
-        <v>0.92300000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H50" s="6">
-        <v>3851</v>
+        <v>2743</v>
       </c>
       <c r="I50" s="6">
-        <v>307</v>
+        <v>1055</v>
       </c>
       <c r="J50" s="6">
-        <v>3544</v>
+        <v>1688</v>
       </c>
       <c r="K50" s="16">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="L50" s="18">
-        <v>42550</v>
+        <v>42557</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
-        <v>1345.42</v>
+        <v>-767.73</v>
       </c>
       <c r="C51" s="6">
-        <v>1691</v>
+        <v>-736</v>
       </c>
       <c r="D51" s="6">
-        <v>1292</v>
+        <v>308</v>
       </c>
       <c r="E51" s="6">
-        <v>138</v>
+        <v>1114</v>
       </c>
       <c r="F51" s="6">
-        <v>1154</v>
+        <v>-806</v>
       </c>
       <c r="G51" s="13">
-        <v>0.89800000000000002</v>
+        <v>0.214</v>
       </c>
       <c r="H51" s="6">
-        <v>3991</v>
+        <v>773</v>
       </c>
       <c r="I51" s="6">
-        <v>352</v>
+        <v>2720</v>
       </c>
       <c r="J51" s="6">
-        <v>3639</v>
+        <v>-1946</v>
       </c>
       <c r="K51" s="16">
-        <v>1.1499999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L51" s="18">
-        <v>42549</v>
+        <v>42556</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>-1879.75</v>
+        <v>346.76</v>
       </c>
       <c r="C52" s="6">
-        <v>-3730</v>
+        <v>305</v>
       </c>
       <c r="D52" s="6">
-        <v>162</v>
+        <v>886</v>
       </c>
       <c r="E52" s="6">
-        <v>1261</v>
+        <v>524</v>
       </c>
       <c r="F52" s="6">
-        <v>-1099</v>
+        <v>362</v>
       </c>
       <c r="G52" s="13">
-        <v>0.113</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H52" s="6">
-        <v>599</v>
+        <v>2116</v>
       </c>
       <c r="I52" s="6">
-        <v>4774</v>
+        <v>1243</v>
       </c>
       <c r="J52" s="6">
-        <v>-4174</v>
+        <v>873</v>
       </c>
       <c r="K52" s="16">
-        <v>1.43</v>
+        <v>0.89</v>
       </c>
       <c r="L52" s="18">
-        <v>42548</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
-        <v>-3032.05</v>
+        <v>991.73</v>
       </c>
       <c r="C53" s="6">
-        <v>-13604</v>
+        <v>1580</v>
       </c>
       <c r="D53" s="6">
-        <v>119</v>
+        <v>1191</v>
       </c>
       <c r="E53" s="6">
-        <v>1307</v>
+        <v>227</v>
       </c>
       <c r="F53" s="6">
-        <v>-1188</v>
+        <v>964</v>
       </c>
       <c r="G53" s="13">
-        <v>8.3000000000000004E-2</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="H53" s="6">
-        <v>541</v>
+        <v>3817</v>
       </c>
       <c r="I53" s="6">
-        <v>7031</v>
+        <v>719</v>
       </c>
       <c r="J53" s="6">
-        <v>-6490</v>
+        <v>3097</v>
       </c>
       <c r="K53" s="16">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="L53" s="18">
-        <v>42545</v>
+        <v>42551</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
-        <v>1174.19</v>
+        <v>1424.02</v>
       </c>
       <c r="C54" s="6">
-        <v>866</v>
+        <v>1956</v>
       </c>
       <c r="D54" s="6">
-        <v>1303</v>
+        <v>1331</v>
       </c>
       <c r="E54" s="6">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F54" s="6">
-        <v>1181</v>
+        <v>1237</v>
       </c>
       <c r="G54" s="13">
-        <v>0.90500000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H54" s="6">
-        <v>2994</v>
+        <v>3852</v>
       </c>
       <c r="I54" s="6">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J54" s="6">
-        <v>2693</v>
+        <v>3546</v>
       </c>
       <c r="K54" s="16">
-        <v>0.88</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L54" s="18">
-        <v>42544</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
-        <v>-106.97</v>
+        <v>1348.45</v>
       </c>
       <c r="C55" s="6">
-        <v>-189</v>
+        <v>1664</v>
       </c>
       <c r="D55" s="6">
-        <v>565</v>
+        <v>1292</v>
       </c>
       <c r="E55" s="6">
-        <v>835</v>
+        <v>135</v>
       </c>
       <c r="F55" s="6">
-        <v>-270</v>
+        <v>1157</v>
       </c>
       <c r="G55" s="13">
-        <v>0.39300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H55" s="6">
-        <v>1136</v>
+        <v>3977</v>
       </c>
       <c r="I55" s="6">
-        <v>2000</v>
+        <v>354</v>
       </c>
       <c r="J55" s="6">
-        <v>-863</v>
+        <v>3622</v>
       </c>
       <c r="K55" s="16">
-        <v>0.85</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L55" s="18">
-        <v>42543</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
-        <v>-29.6</v>
+        <v>-1879.89</v>
       </c>
       <c r="C56" s="6">
-        <v>-53</v>
+        <v>-3654</v>
       </c>
       <c r="D56" s="6">
-        <v>734</v>
+        <v>165</v>
       </c>
       <c r="E56" s="6">
-        <v>678</v>
+        <v>1257</v>
       </c>
       <c r="F56" s="6">
-        <v>56</v>
+        <v>-1092</v>
       </c>
       <c r="G56" s="13">
-        <v>0.51</v>
+        <v>0.115</v>
       </c>
       <c r="H56" s="6">
-        <v>1898</v>
+        <v>604</v>
       </c>
       <c r="I56" s="6">
-        <v>1336</v>
+        <v>4765</v>
       </c>
       <c r="J56" s="6">
-        <v>562</v>
+        <v>-4161</v>
       </c>
       <c r="K56" s="16">
-        <v>0.87</v>
+        <v>1.42</v>
       </c>
       <c r="L56" s="18">
-        <v>42542</v>
+        <v>42548</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
-        <v>699.6</v>
+        <v>-3036.83</v>
       </c>
       <c r="C57" s="4">
-        <v>575</v>
+        <v>-13306</v>
       </c>
       <c r="D57" s="4">
-        <v>1172</v>
+        <v>120</v>
       </c>
       <c r="E57" s="4">
-        <v>247</v>
+        <v>1306</v>
       </c>
       <c r="F57" s="4">
-        <v>925</v>
+        <v>-1186</v>
       </c>
       <c r="G57" s="14">
-        <v>0.81399999999999995</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H57" s="4">
-        <v>2775</v>
+        <v>545</v>
       </c>
       <c r="I57" s="4">
-        <v>708</v>
+        <v>7043</v>
       </c>
       <c r="J57" s="4">
-        <v>2066</v>
+        <v>-6498</v>
       </c>
       <c r="K57" s="17">
-        <v>0.93</v>
+        <v>2</v>
       </c>
       <c r="L57" s="18">
-        <v>42541</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>919.61</v>
+        <v>239.35</v>
       </c>
       <c r="C58" s="1">
-        <v>-10456</v>
+        <v>-10563</v>
       </c>
       <c r="D58" s="1">
-        <v>8753</v>
+        <v>8443</v>
       </c>
       <c r="E58" s="1">
-        <v>5437</v>
+        <v>5753</v>
       </c>
       <c r="F58" s="1">
-        <v>3316</v>
+        <v>2690</v>
       </c>
       <c r="G58" s="11">
-        <v>0.61699999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="H58" s="1">
-        <v>23733</v>
+        <v>23834</v>
       </c>
       <c r="I58" s="1">
-        <v>18796</v>
+        <v>19851</v>
       </c>
       <c r="J58" s="1">
-        <v>4937</v>
+        <v>3983</v>
       </c>
       <c r="K58" s="2">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>107</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
-        <v>101</v>
+      <c r="A61" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4894,220 +4867,220 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
-        <v>8.93</v>
+        <v>28.38</v>
       </c>
       <c r="C63" s="6">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D63" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E63" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G63" s="13">
-        <v>0.78900000000000003</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="I63" s="6">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="K63" s="16">
-        <v>0.94</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L63" s="18">
-        <v>42552</v>
+        <v>42559</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
-        <v>23.57</v>
+        <v>1.38</v>
       </c>
       <c r="C64" s="6">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E64" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F64" s="6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G64" s="13">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="H64" s="6">
+        <v>128</v>
+      </c>
+      <c r="I64" s="6">
+        <v>148</v>
+      </c>
+      <c r="J64" s="6">
+        <v>-20</v>
+      </c>
+      <c r="K64" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="L64" s="18">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>14.18</v>
+      </c>
+      <c r="C65" s="6">
+        <v>13</v>
+      </c>
+      <c r="D65" s="6">
+        <v>18</v>
+      </c>
+      <c r="E65" s="6">
         <v>1</v>
       </c>
-      <c r="H64" s="6">
-        <v>429</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>429</v>
-      </c>
-      <c r="K64" s="16">
-        <v>1.36</v>
-      </c>
-      <c r="L64" s="18">
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
-        <v>30.35</v>
-      </c>
-      <c r="C65" s="6">
-        <v>42</v>
-      </c>
-      <c r="D65" s="6">
-        <v>19</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
       <c r="F65" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G65" s="13">
-        <v>1</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H65" s="6">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="I65" s="6">
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="K65" s="16">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="L65" s="18">
-        <v>42550</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
-        <v>33.58</v>
+        <v>-15.51</v>
       </c>
       <c r="C66" s="6">
+        <v>-13</v>
+      </c>
+      <c r="D66" s="6">
+        <v>3</v>
+      </c>
+      <c r="E66" s="6">
+        <v>16</v>
+      </c>
+      <c r="F66" s="6">
+        <v>-13</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0.158</v>
+      </c>
+      <c r="H66" s="6">
+        <v>32</v>
+      </c>
+      <c r="I66" s="6">
+        <v>284</v>
+      </c>
+      <c r="J66" s="6">
+        <v>-251</v>
+      </c>
+      <c r="K66" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="L66" s="18">
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>8.93</v>
+      </c>
+      <c r="C67" s="6">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>15</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6">
+        <v>11</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H67" s="6">
+        <v>239</v>
+      </c>
+      <c r="I67" s="6">
         <v>57</v>
       </c>
-      <c r="D66" s="6">
+      <c r="J67" s="6">
+        <v>181</v>
+      </c>
+      <c r="K67" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="L67" s="18">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <v>23.57</v>
+      </c>
+      <c r="C68" s="6">
+        <v>39</v>
+      </c>
+      <c r="D68" s="6">
         <v>19</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E68" s="6">
         <v>0</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F68" s="6">
         <v>19</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G68" s="13">
         <v>1</v>
       </c>
-      <c r="H66" s="6">
-        <v>445</v>
-      </c>
-      <c r="I66" s="6">
+      <c r="H68" s="6">
+        <v>429</v>
+      </c>
+      <c r="I68" s="6">
         <v>0</v>
       </c>
-      <c r="J66" s="6">
-        <v>445</v>
-      </c>
-      <c r="K66" s="16">
-        <v>1.41</v>
-      </c>
-      <c r="L66" s="18">
-        <v>42549</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="7">
-        <v>-38.549999999999997</v>
-      </c>
-      <c r="C67" s="6">
-        <v>-151</v>
-      </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="6">
-        <v>18</v>
-      </c>
-      <c r="F67" s="6">
-        <v>-17</v>
-      </c>
-      <c r="G67" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H67" s="6">
-        <v>17</v>
-      </c>
-      <c r="I67" s="6">
-        <v>649</v>
-      </c>
-      <c r="J67" s="6">
-        <v>-632</v>
-      </c>
-      <c r="K67" s="16">
-        <v>2.11</v>
-      </c>
-      <c r="L67" s="18">
-        <v>42548</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="7">
-        <v>-65.78</v>
-      </c>
-      <c r="C68" s="6">
-        <v>-388</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>18</v>
-      </c>
-      <c r="F68" s="6">
-        <v>-17</v>
-      </c>
-      <c r="G68" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H68" s="6">
-        <v>24</v>
-      </c>
-      <c r="I68" s="6">
-        <v>806</v>
-      </c>
       <c r="J68" s="6">
-        <v>-782</v>
+        <v>429</v>
       </c>
       <c r="K68" s="16">
-        <v>2.64</v>
+        <v>1.33</v>
       </c>
       <c r="L68" s="18">
-        <v>42545</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
-        <v>26.88</v>
+        <v>30.35</v>
       </c>
       <c r="C69" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D69" s="6">
         <v>19</v>
@@ -5122,161 +5095,156 @@
         <v>1</v>
       </c>
       <c r="H69" s="6">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="I69" s="6">
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="K69" s="16">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="L69" s="18">
-        <v>42544</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42550</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
-        <v>-1.63</v>
+        <v>33.58</v>
       </c>
       <c r="C70" s="6">
+        <v>53</v>
+      </c>
+      <c r="D70" s="6">
+        <v>19</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>19</v>
+      </c>
+      <c r="G70" s="13">
         <v>1</v>
       </c>
-      <c r="D70" s="6">
-        <v>4</v>
-      </c>
-      <c r="E70" s="6">
-        <v>15</v>
-      </c>
-      <c r="F70" s="6">
-        <v>-11</v>
-      </c>
-      <c r="G70" s="13">
-        <v>0.21099999999999999</v>
-      </c>
       <c r="H70" s="6">
+        <v>445</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>445</v>
+      </c>
+      <c r="K70" s="16">
+        <v>1.38</v>
+      </c>
+      <c r="L70" s="18">
+        <v>42549</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>-38.549999999999997</v>
+      </c>
+      <c r="C71" s="6">
+        <v>-141</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>18</v>
+      </c>
+      <c r="F71" s="6">
+        <v>-17</v>
+      </c>
+      <c r="G71" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H71" s="6">
+        <v>17</v>
+      </c>
+      <c r="I71" s="6">
+        <v>649</v>
+      </c>
+      <c r="J71" s="6">
+        <v>-632</v>
+      </c>
+      <c r="K71" s="16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L71" s="18">
+        <v>42548</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>-65.78</v>
+      </c>
+      <c r="C72" s="4">
+        <v>-360</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>18</v>
+      </c>
+      <c r="F72" s="4">
+        <v>-17</v>
+      </c>
+      <c r="G72" s="14">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H72" s="4">
         <v>24</v>
       </c>
-      <c r="I70" s="6">
-        <v>236</v>
-      </c>
-      <c r="J70" s="6">
-        <v>-212</v>
-      </c>
-      <c r="K70" s="16">
-        <v>0.83</v>
-      </c>
-      <c r="L70" s="18">
-        <v>42543</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
-        <v>-2.93</v>
-      </c>
-      <c r="C71" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D71" s="6">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6">
-        <v>9</v>
-      </c>
-      <c r="F71" s="6">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="H71" s="6">
-        <v>164</v>
-      </c>
-      <c r="I71" s="6">
-        <v>62</v>
-      </c>
-      <c r="J71" s="6">
-        <v>102</v>
-      </c>
-      <c r="K71" s="16">
-        <v>0.72</v>
-      </c>
-      <c r="L71" s="18">
-        <v>42542</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="5">
-        <v>13.21</v>
-      </c>
-      <c r="C72" s="4">
-        <v>8</v>
-      </c>
-      <c r="D72" s="4">
-        <v>18</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>17</v>
-      </c>
-      <c r="G72" s="14">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H72" s="4">
-        <v>254</v>
-      </c>
       <c r="I72" s="4">
-        <v>15</v>
+        <v>806</v>
       </c>
       <c r="J72" s="4">
-        <v>238</v>
+        <v>-782</v>
       </c>
       <c r="K72" s="17">
-        <v>0.86</v>
+        <v>2.58</v>
       </c>
       <c r="L72" s="18">
-        <v>42541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42545</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>27.63</v>
+        <v>20.53</v>
       </c>
       <c r="C73" s="1">
-        <v>-366</v>
+        <v>-334</v>
       </c>
       <c r="D73" s="1">
         <v>125</v>
       </c>
       <c r="E73" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F73" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G73" s="11">
-        <v>0.65800000000000003</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="H73" s="1">
-        <v>2278</v>
+        <v>2383</v>
       </c>
       <c r="I73" s="1">
-        <v>1828</v>
+        <v>1946</v>
       </c>
       <c r="J73" s="1">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="K73" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>108</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -5301,18 +5269,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="19">
         <v>898</v>
@@ -5323,7 +5291,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="20">
         <v>2178</v>
@@ -5334,7 +5302,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="19">
         <v>103</v>
@@ -5345,7 +5313,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="20">
         <v>3179</v>
@@ -5356,14 +5324,14 @@
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="19">
         <v>25</v>
@@ -5374,7 +5342,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="19">
         <v>40</v>
@@ -5385,14 +5353,14 @@
     </row>
     <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20">
         <v>3842255423</v>
@@ -5403,7 +5371,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="20">
         <v>1366099656</v>
@@ -5414,7 +5382,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="20">
         <v>2443036676</v>
@@ -5425,7 +5393,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="20">
         <v>33119091</v>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
   <si>
     <t>130dma</t>
   </si>
@@ -346,10 +346,22 @@
     <t>Chg=Total Change of all components        Force=Chg * Volume, summed for each component</t>
   </si>
   <si>
-    <t>Done.</t>
-  </si>
-  <si>
-    <t>STOCKS - Over $10 and 500k vol</t>
+    <t>STOCKS - Over $10 and 500k volume</t>
+  </si>
+  <si>
+    <t>Up 1.75 Points per Component with overall change of -2.12% from closing price 2175.03 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.55 Points per Component with overall change of -3.04% from closing price 4666.07 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.82 Points per Component with overall change of -2.69% from closing price 741.86 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.26 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.35 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="30">
         <v>9</v>
@@ -1155,17 +1167,17 @@
         <v>10</v>
       </c>
       <c r="G4" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="32">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="I4" s="34">
-        <v>2</v>
+        <v>9.75</v>
       </c>
       <c r="J4" s="35">
         <f>H4-I4</f>
-        <v>7.25</v>
+        <v>-0.75</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>4</v>
@@ -1174,36 +1186,36 @@
         <v>65</v>
       </c>
       <c r="N4" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P4" s="23">
         <v>5</v>
       </c>
       <c r="Q4" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="23">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="S4" s="23">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D5" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="31">
         <v>9</v>
@@ -1215,11 +1227,11 @@
         <v>9</v>
       </c>
       <c r="I5" s="36">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J5" s="37">
         <f>H5-I5</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>41</v>
@@ -1228,36 +1240,36 @@
         <v>62</v>
       </c>
       <c r="N5" s="23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O5" s="23">
+        <v>6</v>
+      </c>
+      <c r="P5" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="23">
         <v>4</v>
       </c>
-      <c r="P5" s="23">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>3</v>
-      </c>
       <c r="R5" s="23">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="S5" s="23">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="31">
         <v>9</v>
@@ -1269,11 +1281,11 @@
         <v>9</v>
       </c>
       <c r="I6" s="36">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J6" s="37">
         <f>H6-I6</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>42</v>
@@ -1282,52 +1294,52 @@
         <v>63</v>
       </c>
       <c r="N6" s="23">
+        <v>8</v>
+      </c>
+      <c r="O6" s="23">
+        <v>6</v>
+      </c>
+      <c r="P6" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="23">
         <v>5</v>
       </c>
-      <c r="O6" s="23">
-        <v>4</v>
-      </c>
-      <c r="P6" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>3</v>
-      </c>
       <c r="R6" s="23">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="S6" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D7" s="31">
         <v>9</v>
       </c>
       <c r="E7" s="31">
+        <v>9</v>
+      </c>
+      <c r="F7" s="31">
         <v>8</v>
       </c>
-      <c r="F7" s="31">
-        <v>9</v>
-      </c>
       <c r="G7" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="33">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="I7" s="36">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="J7" s="37">
         <f>H7-I7</f>
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>43</v>
@@ -1336,22 +1348,22 @@
         <v>64</v>
       </c>
       <c r="N7" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O7" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P7" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="23">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="S7" s="23">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
@@ -1371,17 +1383,17 @@
         <v>8</v>
       </c>
       <c r="G8" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="33">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="I8" s="36">
-        <v>3.5</v>
+        <v>8.25</v>
       </c>
       <c r="J8" s="37">
         <f>H8-I8</f>
-        <v>4.25</v>
+        <v>-0.25</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>102</v>
@@ -1390,36 +1402,36 @@
         <v>103</v>
       </c>
       <c r="N8" s="23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O8" s="23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P8" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8" s="23">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="S8" s="23">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D9" s="31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="31">
         <v>8</v>
@@ -1428,10 +1440,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="33">
-        <v>6.25</v>
+        <v>7.75</v>
       </c>
       <c r="I9" s="36">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="37">
         <f>H9-I9</f>
@@ -1459,37 +1471,37 @@
         <v>2.75</v>
       </c>
       <c r="S9" s="23">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D10" s="31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="31">
+        <v>9</v>
+      </c>
+      <c r="F10" s="31">
+        <v>8</v>
+      </c>
+      <c r="G10" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="31">
-        <v>7</v>
-      </c>
-      <c r="G10" s="31">
-        <v>5</v>
-      </c>
       <c r="H10" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="I10" s="36">
         <v>5.75</v>
-      </c>
-      <c r="I10" s="36">
-        <v>1.75</v>
       </c>
       <c r="J10" s="37">
         <f>H10-I10</f>
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>5</v>
@@ -1501,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="O10" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="23">
         <v>1</v>
@@ -1510,40 +1522,40 @@
         <v>-5</v>
       </c>
       <c r="R10" s="23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S10" s="23">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" s="31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" s="33">
-        <v>5.5</v>
+        <v>7.25</v>
       </c>
       <c r="I11" s="36">
-        <v>0.75</v>
+        <v>8.5</v>
       </c>
       <c r="J11" s="37">
         <f>H11-I11</f>
-        <v>4.75</v>
+        <v>-1.25</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>6</v>
@@ -1552,52 +1564,52 @@
         <v>95</v>
       </c>
       <c r="N11" s="23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O11" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P11" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="23">
         <v>6</v>
       </c>
-      <c r="Q11" s="23">
-        <v>5</v>
-      </c>
       <c r="R11" s="23">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="S11" s="23">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="31">
         <v>8</v>
       </c>
       <c r="E12" s="31">
+        <v>7</v>
+      </c>
+      <c r="F12" s="31">
+        <v>7</v>
+      </c>
+      <c r="G12" s="31">
         <v>6</v>
       </c>
-      <c r="F12" s="31">
-        <v>5</v>
-      </c>
-      <c r="G12" s="31">
-        <v>2</v>
-      </c>
       <c r="H12" s="33">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="I12" s="36">
-        <v>1.75</v>
+        <v>7.25</v>
       </c>
       <c r="J12" s="37">
         <f>H12-I12</f>
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>7</v>
@@ -1606,52 +1618,52 @@
         <v>71</v>
       </c>
       <c r="N12" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O12" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="23">
         <v>4</v>
       </c>
       <c r="R12" s="23">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="S12" s="23">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="31">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="31">
-        <v>6</v>
-      </c>
       <c r="E13" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="31">
         <v>5</v>
       </c>
       <c r="H13" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="36">
-        <v>-0.75</v>
+        <v>7</v>
       </c>
       <c r="J13" s="37">
         <f>H13-I13</f>
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>8</v>
@@ -1660,52 +1672,52 @@
         <v>72</v>
       </c>
       <c r="N13" s="23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O13" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="23">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="S13" s="23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D14" s="31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="33">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="I14" s="36">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="J14" s="37">
         <f>H14-I14</f>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>9</v>
@@ -1714,52 +1726,52 @@
         <v>73</v>
       </c>
       <c r="N14" s="23">
+        <v>9</v>
+      </c>
+      <c r="O14" s="23">
+        <v>7</v>
+      </c>
+      <c r="P14" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="23">
         <v>6</v>
       </c>
-      <c r="O14" s="23">
-        <v>3</v>
-      </c>
-      <c r="P14" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>5</v>
-      </c>
       <c r="R14" s="23">
-        <v>5</v>
+        <v>7.25</v>
       </c>
       <c r="S14" s="23">
-        <v>-0.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D15" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="31">
         <v>4</v>
       </c>
       <c r="F15" s="31">
+        <v>9</v>
+      </c>
+      <c r="G15" s="31">
         <v>6</v>
       </c>
-      <c r="G15" s="31">
-        <v>4</v>
-      </c>
       <c r="H15" s="33">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="I15" s="36">
-        <v>-0.5</v>
+        <v>7.25</v>
       </c>
       <c r="J15" s="37">
         <f>H15-I15</f>
-        <v>5.25</v>
+        <v>-0.75</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>10</v>
@@ -1768,22 +1780,22 @@
         <v>74</v>
       </c>
       <c r="N15" s="23">
+        <v>9</v>
+      </c>
+      <c r="O15" s="23">
+        <v>7</v>
+      </c>
+      <c r="P15" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="23">
         <v>5</v>
       </c>
-      <c r="O15" s="23">
-        <v>4</v>
-      </c>
-      <c r="P15" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>4</v>
-      </c>
       <c r="R15" s="23">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="S15" s="23">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="W15" s="23" t="s">
         <v>104</v>
@@ -1791,32 +1803,32 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D16" s="31">
+        <v>7</v>
+      </c>
+      <c r="E16" s="31">
+        <v>7</v>
+      </c>
+      <c r="F16" s="31">
+        <v>7</v>
+      </c>
+      <c r="G16" s="31">
         <v>5</v>
       </c>
-      <c r="E16" s="31">
-        <v>4</v>
-      </c>
-      <c r="F16" s="31">
-        <v>6</v>
-      </c>
-      <c r="G16" s="31">
-        <v>3</v>
-      </c>
       <c r="H16" s="33">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="I16" s="36">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="J16" s="37">
         <f>H16-I16</f>
-        <v>4.5</v>
+        <v>-0.25</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>11</v>
@@ -1831,46 +1843,46 @@
         <v>8</v>
       </c>
       <c r="P16" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="23">
         <v>7</v>
       </c>
       <c r="R16" s="23">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="S16" s="23">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D17" s="31">
+        <v>9</v>
+      </c>
+      <c r="E17" s="31">
         <v>5</v>
       </c>
-      <c r="E17" s="31">
+      <c r="F17" s="31">
+        <v>8</v>
+      </c>
+      <c r="G17" s="31">
         <v>4</v>
       </c>
-      <c r="F17" s="31">
-        <v>5</v>
-      </c>
-      <c r="G17" s="31">
-        <v>3</v>
-      </c>
       <c r="H17" s="33">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="I17" s="36">
-        <v>0.5</v>
+        <v>5.75</v>
       </c>
       <c r="J17" s="37">
         <f>H17-I17</f>
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>12</v>
@@ -1879,7 +1891,7 @@
         <v>76</v>
       </c>
       <c r="N17" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O17" s="23">
         <v>9</v>
@@ -1891,10 +1903,10 @@
         <v>9</v>
       </c>
       <c r="R17" s="23">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="S17" s="23">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
@@ -1905,26 +1917,26 @@
         <v>85</v>
       </c>
       <c r="D18" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="31">
+        <v>7</v>
+      </c>
+      <c r="F18" s="31">
+        <v>8</v>
+      </c>
+      <c r="G18" s="31">
         <v>3</v>
       </c>
-      <c r="F18" s="31">
-        <v>7</v>
-      </c>
-      <c r="G18" s="31">
-        <v>1</v>
-      </c>
       <c r="H18" s="33">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="I18" s="36">
-        <v>-0.25</v>
+        <v>5.25</v>
       </c>
       <c r="J18" s="37">
         <f>H18-I18</f>
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>13</v>
@@ -1933,7 +1945,7 @@
         <v>77</v>
       </c>
       <c r="N18" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" s="23">
         <v>6</v>
@@ -1942,43 +1954,43 @@
         <v>5</v>
       </c>
       <c r="Q18" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="23">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="S18" s="23">
-        <v>1.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="31">
         <v>7</v>
       </c>
       <c r="E19" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="31">
+        <v>7</v>
+      </c>
+      <c r="G19" s="31">
         <v>5</v>
       </c>
-      <c r="G19" s="31">
-        <v>1</v>
-      </c>
       <c r="H19" s="33">
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
       <c r="I19" s="36">
-        <v>-1.5</v>
+        <v>6.5</v>
       </c>
       <c r="J19" s="37">
         <f>H19-I19</f>
-        <v>5.75</v>
+        <v>-0.25</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>14</v>
@@ -1987,52 +1999,52 @@
         <v>78</v>
       </c>
       <c r="N19" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="23">
+        <v>1</v>
+      </c>
+      <c r="R19" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="S19" s="23">
         <v>0</v>
-      </c>
-      <c r="R19" s="23">
-        <v>2.75</v>
-      </c>
-      <c r="S19" s="23">
-        <v>-3.25</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E20" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="33">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="I20" s="36">
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
       <c r="J20" s="37">
         <f>H20-I20</f>
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>15</v>
@@ -2047,46 +2059,46 @@
         <v>9</v>
       </c>
       <c r="P20" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="23">
         <v>9</v>
       </c>
       <c r="R20" s="23">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="S20" s="23">
-        <v>7</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D21" s="31">
+        <v>7</v>
+      </c>
+      <c r="E21" s="31">
+        <v>6</v>
+      </c>
+      <c r="F21" s="31">
+        <v>7</v>
+      </c>
+      <c r="G21" s="31">
         <v>5</v>
       </c>
-      <c r="E21" s="31">
-        <v>3</v>
-      </c>
-      <c r="F21" s="31">
-        <v>5</v>
-      </c>
-      <c r="G21" s="31">
-        <v>3</v>
-      </c>
       <c r="H21" s="33">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="I21" s="36">
-        <v>-0.25</v>
+        <v>5.25</v>
       </c>
       <c r="J21" s="37">
         <f>H21-I21</f>
-        <v>4.25</v>
+        <v>1</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>44</v>
@@ -2098,33 +2110,33 @@
         <v>10</v>
       </c>
       <c r="O21" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P21" s="23">
         <v>10</v>
       </c>
       <c r="Q21" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R21" s="23">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="S21" s="23">
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D22" s="31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22" s="31">
         <v>7</v>
@@ -2133,14 +2145,14 @@
         <v>4</v>
       </c>
       <c r="H22" s="33">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I22" s="36">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="J22" s="37">
         <f>H22-I22</f>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>45</v>
@@ -2149,52 +2161,52 @@
         <v>70</v>
       </c>
       <c r="N22" s="23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O22" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P22" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="23">
         <v>5</v>
       </c>
       <c r="R22" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S22" s="23">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D23" s="31">
+        <v>8</v>
+      </c>
+      <c r="E23" s="31">
+        <v>5</v>
+      </c>
+      <c r="F23" s="31">
+        <v>7</v>
+      </c>
+      <c r="G23" s="31">
         <v>4</v>
       </c>
-      <c r="E23" s="31">
-        <v>1</v>
-      </c>
-      <c r="F23" s="31">
+      <c r="H23" s="33">
         <v>6</v>
       </c>
-      <c r="G23" s="31">
-        <v>3</v>
-      </c>
-      <c r="H23" s="33">
-        <v>3.5</v>
-      </c>
       <c r="I23" s="36">
-        <v>-0.75</v>
+        <v>5.75</v>
       </c>
       <c r="J23" s="37">
         <f>H23-I23</f>
-        <v>4.25</v>
+        <v>0.25</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>46</v>
@@ -2203,52 +2215,52 @@
         <v>80</v>
       </c>
       <c r="N23" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O23" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R23" s="23">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="S23" s="23">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="31">
+        <v>8</v>
+      </c>
+      <c r="E24" s="31">
         <v>6</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31">
-        <v>1</v>
       </c>
       <c r="F24" s="31">
         <v>6</v>
       </c>
       <c r="G24" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="33">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="I24" s="36">
-        <v>-1</v>
+        <v>5.75</v>
       </c>
       <c r="J24" s="37">
         <f>H24-I24</f>
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>47</v>
@@ -2257,52 +2269,52 @@
         <v>81</v>
       </c>
       <c r="N24" s="23">
+        <v>9</v>
+      </c>
+      <c r="O24" s="23">
+        <v>6</v>
+      </c>
+      <c r="P24" s="23">
         <v>7</v>
       </c>
-      <c r="O24" s="23">
+      <c r="Q24" s="23">
         <v>5</v>
       </c>
-      <c r="P24" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="23">
-        <v>4</v>
-      </c>
       <c r="R24" s="23">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="S24" s="23">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D25" s="31">
+        <v>7</v>
+      </c>
+      <c r="E25" s="31">
         <v>5</v>
       </c>
-      <c r="E25" s="31">
-        <v>1</v>
-      </c>
       <c r="F25" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="33">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I25" s="36">
-        <v>-2.5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="37">
         <f>H25-I25</f>
-        <v>5.75</v>
+        <v>-0.5</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>48</v>
@@ -2311,52 +2323,52 @@
         <v>82</v>
       </c>
       <c r="N25" s="23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O25" s="23">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="P25" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="23">
         <v>1</v>
       </c>
-      <c r="Q25" s="23">
-        <v>-3</v>
-      </c>
       <c r="R25" s="23">
-        <v>-1.75</v>
+        <v>5</v>
       </c>
       <c r="S25" s="23">
-        <v>-5.75</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D26" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E26" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="33">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="I26" s="36">
-        <v>-0.75</v>
+        <v>5.75</v>
       </c>
       <c r="J26" s="37">
         <f>H26-I26</f>
-        <v>3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>49</v>
@@ -2365,19 +2377,19 @@
         <v>67</v>
       </c>
       <c r="N26" s="23">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="O26" s="23">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="P26" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="23">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="23">
-        <v>-1.5</v>
+        <v>6.25</v>
       </c>
       <c r="S26" s="23">
         <v>-4.75</v>
@@ -2385,32 +2397,32 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D27" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="31">
+        <v>4</v>
+      </c>
+      <c r="F27" s="31">
+        <v>5</v>
+      </c>
+      <c r="G27" s="31">
         <v>3</v>
       </c>
-      <c r="F27" s="31">
-        <v>2</v>
-      </c>
-      <c r="G27" s="31">
-        <v>-2</v>
-      </c>
       <c r="H27" s="33">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="I27" s="36">
-        <v>-2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J27" s="37">
         <f>H27-I27</f>
-        <v>5.25</v>
+        <v>-0.75</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>50</v>
@@ -2419,22 +2431,22 @@
         <v>83</v>
       </c>
       <c r="N27" s="23">
+        <v>8</v>
+      </c>
+      <c r="O27" s="23">
         <v>3</v>
       </c>
-      <c r="O27" s="23">
-        <v>1</v>
-      </c>
       <c r="P27" s="23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q27" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R27" s="23">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="S27" s="23">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
@@ -2445,26 +2457,26 @@
         <v>78</v>
       </c>
       <c r="D28" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="31">
+        <v>5</v>
+      </c>
+      <c r="F28" s="31">
+        <v>3</v>
+      </c>
+      <c r="G28" s="31">
         <v>2</v>
       </c>
-      <c r="F28" s="31">
-        <v>2</v>
-      </c>
-      <c r="G28" s="31">
-        <v>0</v>
-      </c>
       <c r="H28" s="33">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="I28" s="36">
-        <v>-3.25</v>
+        <v>5</v>
       </c>
       <c r="J28" s="37">
         <f>H28-I28</f>
-        <v>6</v>
+        <v>-0.5</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>98</v>
@@ -2473,52 +2485,52 @@
         <v>99</v>
       </c>
       <c r="N28" s="23">
+        <v>9</v>
+      </c>
+      <c r="O28" s="23">
         <v>0</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="23">
         <v>-2</v>
       </c>
-      <c r="P28" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>-4</v>
-      </c>
       <c r="R28" s="23">
-        <v>-1.75</v>
+        <v>2.5</v>
       </c>
       <c r="S28" s="23">
-        <v>-5.5</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="31">
+        <v>9</v>
+      </c>
+      <c r="E29" s="31">
         <v>3</v>
       </c>
-      <c r="E29" s="31">
-        <v>1</v>
-      </c>
       <c r="F29" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I29" s="36">
-        <v>-0.75</v>
+        <v>4.5</v>
       </c>
       <c r="J29" s="37">
         <f>H29-I29</f>
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>51</v>
@@ -2527,52 +2539,52 @@
         <v>84</v>
       </c>
       <c r="N29" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O29" s="23">
         <v>8</v>
       </c>
       <c r="P29" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="23">
         <v>7</v>
       </c>
       <c r="R29" s="23">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="S29" s="23">
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D30" s="31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E30" s="31">
+        <v>5</v>
+      </c>
+      <c r="F30" s="31">
         <v>3</v>
       </c>
-      <c r="F30" s="31">
-        <v>4</v>
-      </c>
       <c r="G30" s="31">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="33">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="I30" s="36">
-        <v>-0.75</v>
+        <v>4.25</v>
       </c>
       <c r="J30" s="37">
         <f>H30-I30</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="23" t="s">
         <v>52</v>
@@ -2581,10 +2593,10 @@
         <v>85</v>
       </c>
       <c r="N30" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O30" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" s="23">
         <v>7</v>
@@ -2593,40 +2605,40 @@
         <v>1</v>
       </c>
       <c r="R30" s="23">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="S30" s="23">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D31" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F31" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="33">
+        <v>4.25</v>
+      </c>
+      <c r="I31" s="36">
         <v>2.25</v>
-      </c>
-      <c r="I31" s="36">
-        <v>-2.5</v>
       </c>
       <c r="J31" s="37">
         <f>H31-I31</f>
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>53</v>
@@ -2635,52 +2647,52 @@
         <v>86</v>
       </c>
       <c r="N31" s="23">
+        <v>6</v>
+      </c>
+      <c r="O31" s="23">
         <v>4</v>
-      </c>
-      <c r="O31" s="23">
-        <v>3</v>
       </c>
       <c r="P31" s="23">
         <v>4</v>
       </c>
       <c r="Q31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="S31" s="23">
         <v>2.25</v>
-      </c>
-      <c r="S31" s="23">
-        <v>-0.75</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D32" s="31">
         <v>3</v>
       </c>
       <c r="E32" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="31">
+        <v>5</v>
+      </c>
+      <c r="G32" s="31">
         <v>3</v>
       </c>
-      <c r="G32" s="31">
-        <v>0</v>
-      </c>
       <c r="H32" s="33">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="I32" s="36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J32" s="37">
         <f>H32-I32</f>
-        <v>2.75</v>
+        <v>-2.5</v>
       </c>
       <c r="L32" s="23" t="s">
         <v>54</v>
@@ -2689,52 +2701,52 @@
         <v>87</v>
       </c>
       <c r="N32" s="23">
+        <v>8</v>
+      </c>
+      <c r="O32" s="23">
         <v>4</v>
       </c>
-      <c r="O32" s="23">
-        <v>1</v>
-      </c>
       <c r="P32" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="23">
         <v>3</v>
       </c>
       <c r="R32" s="23">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="S32" s="23">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D33" s="31">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E33" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="33">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="I33" s="36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="37">
         <f>H33-I33</f>
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>55</v>
@@ -2743,52 +2755,52 @@
         <v>88</v>
       </c>
       <c r="N33" s="23">
+        <v>8</v>
+      </c>
+      <c r="O33" s="23">
         <v>5</v>
       </c>
-      <c r="O33" s="23">
-        <v>-1</v>
-      </c>
       <c r="P33" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R33" s="23">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="S33" s="23">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D34" s="31">
+        <v>7</v>
+      </c>
+      <c r="E34" s="31">
         <v>5</v>
       </c>
-      <c r="E34" s="31">
-        <v>-1</v>
-      </c>
       <c r="F34" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" s="31">
         <v>-1</v>
       </c>
       <c r="H34" s="33">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="I34" s="36">
-        <v>-3</v>
+        <v>2.75</v>
       </c>
       <c r="J34" s="37">
         <f>H34-I34</f>
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="L34" s="23" t="s">
         <v>56</v>
@@ -2797,7 +2809,7 @@
         <v>89</v>
       </c>
       <c r="N34" s="23">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="23">
         <v>1</v>
@@ -2809,40 +2821,40 @@
         <v>2</v>
       </c>
       <c r="R34" s="23">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="S34" s="23">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="29" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D35" s="31">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E35" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="31">
+        <v>7</v>
+      </c>
+      <c r="G35" s="31">
         <v>4</v>
       </c>
-      <c r="G35" s="31">
-        <v>1</v>
-      </c>
       <c r="H35" s="33">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I35" s="36">
-        <v>0.5</v>
+        <v>6.25</v>
       </c>
       <c r="J35" s="37">
         <f>H35-I35</f>
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="L35" s="23" t="s">
         <v>57</v>
@@ -2851,52 +2863,52 @@
         <v>90</v>
       </c>
       <c r="N35" s="23">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O35" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="23">
         <v>1</v>
       </c>
       <c r="R35" s="23">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S35" s="23">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D36" s="31">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E36" s="31">
         <v>0</v>
       </c>
       <c r="F36" s="31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G36" s="31">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="33">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I36" s="36">
-        <v>-4</v>
+        <v>5.25</v>
       </c>
       <c r="J36" s="37">
         <f>H36-I36</f>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="L36" s="23" t="s">
         <v>58</v>
@@ -2905,10 +2917,10 @@
         <v>91</v>
       </c>
       <c r="N36" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P36" s="23">
         <v>7</v>
@@ -2917,40 +2929,40 @@
         <v>4</v>
       </c>
       <c r="R36" s="23">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="S36" s="23">
-        <v>2.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D37" s="31">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E37" s="31">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="31">
         <v>2</v>
       </c>
       <c r="G37" s="31">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H37" s="33">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="I37" s="36">
-        <v>-4.75</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="37">
         <f>H37-I37</f>
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L37" s="23" t="s">
         <v>59</v>
@@ -2959,52 +2971,52 @@
         <v>92</v>
       </c>
       <c r="N37" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O37" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P37" s="23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q37" s="23">
         <v>4</v>
       </c>
       <c r="R37" s="23">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="S37" s="23">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="29" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D38" s="31">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E38" s="31">
         <v>-2</v>
       </c>
       <c r="F38" s="31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G38" s="31">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="33">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="I38" s="36">
-        <v>-5.5</v>
+        <v>2.75</v>
       </c>
       <c r="J38" s="37">
         <f>H38-I38</f>
-        <v>3.75</v>
+        <v>-2.25</v>
       </c>
       <c r="L38" s="23" t="s">
         <v>60</v>
@@ -3013,52 +3025,52 @@
         <v>93</v>
       </c>
       <c r="N38" s="23">
+        <v>9</v>
+      </c>
+      <c r="O38" s="23">
+        <v>8</v>
+      </c>
+      <c r="P38" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="23">
         <v>5</v>
       </c>
-      <c r="O38" s="23">
-        <v>6</v>
-      </c>
-      <c r="P38" s="23">
-        <v>8</v>
-      </c>
-      <c r="Q38" s="23">
-        <v>6</v>
-      </c>
       <c r="R38" s="23">
-        <v>6.25</v>
+        <v>7.75</v>
       </c>
       <c r="S38" s="23">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D39" s="31">
+        <v>-6</v>
+      </c>
+      <c r="E39" s="31">
+        <v>-2</v>
+      </c>
+      <c r="F39" s="31">
+        <v>4</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="33">
         <v>-1</v>
       </c>
-      <c r="E39" s="31">
-        <v>-4</v>
-      </c>
-      <c r="F39" s="31">
-        <v>1</v>
-      </c>
-      <c r="G39" s="31">
-        <v>-3</v>
-      </c>
-      <c r="H39" s="33">
-        <v>-1.75</v>
-      </c>
       <c r="I39" s="38">
-        <v>-5.75</v>
+        <v>3.5</v>
       </c>
       <c r="J39" s="39">
         <f>H39-I39</f>
-        <v>4</v>
+        <v>-4.5</v>
       </c>
       <c r="L39" s="23" t="s">
         <v>61</v>
@@ -3067,39 +3079,36 @@
         <v>94</v>
       </c>
       <c r="N39" s="23">
+        <v>6</v>
+      </c>
+      <c r="O39" s="23">
         <v>5</v>
       </c>
-      <c r="O39" s="23">
-        <v>1</v>
-      </c>
       <c r="P39" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q39" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R39" s="23">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="S39" s="23">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H40" s="40">
         <f>AVERAGE(H4:H39)</f>
-        <v>3.7569444444444446</v>
+        <v>5.4722222222222223</v>
       </c>
       <c r="I40" s="40">
         <f>AVERAGE(I4:I39)</f>
-        <v>0.1111111111111111</v>
+        <v>5.8055555555555554</v>
       </c>
       <c r="J40" s="40">
         <f>AVERAGE(J4:J39)</f>
-        <v>3.6458333333333335</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>106</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -3114,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,7 +3144,7 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
@@ -3175,389 +3184,394 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>736.55</v>
+        <v>271.24</v>
       </c>
       <c r="C3" s="6">
-        <v>636</v>
+        <v>219</v>
       </c>
       <c r="D3" s="6">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="E3" s="6">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F3" s="6">
-        <v>487</v>
+        <v>301</v>
       </c>
       <c r="G3" s="13">
-        <v>0.97799999999999998</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H3" s="6">
-        <v>2157</v>
+        <v>1427</v>
       </c>
       <c r="I3" s="6">
-        <v>31</v>
+        <v>510</v>
       </c>
       <c r="J3" s="6">
-        <v>2126</v>
+        <v>917</v>
       </c>
       <c r="K3" s="16">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="L3" s="18">
-        <v>42559</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>-51.9</v>
+        <v>-173.12</v>
       </c>
       <c r="C4" s="6">
-        <v>-128</v>
+        <v>-107</v>
       </c>
       <c r="D4" s="6">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="E4" s="6">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="F4" s="6">
+        <v>-198</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>799</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1434</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-635</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>251.05</v>
+      </c>
+      <c r="C5" s="6">
+        <v>281</v>
+      </c>
+      <c r="D5" s="6">
+        <v>345</v>
+      </c>
+      <c r="E5" s="6">
+        <v>153</v>
+      </c>
+      <c r="F5" s="6">
+        <v>192</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="6">
+        <v>553</v>
+      </c>
+      <c r="J5" s="6">
+        <v>946</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="18">
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>-81.38</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-92</v>
+      </c>
+      <c r="D6" s="6">
+        <v>194</v>
+      </c>
+      <c r="E6" s="6">
+        <v>297</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-103</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>764</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1084</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-320</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="L6" s="18">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>89.95</v>
+      </c>
+      <c r="C7" s="6">
         <v>34</v>
       </c>
-      <c r="G4" s="13">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1233</v>
-      </c>
-      <c r="I4" s="6">
-        <v>816</v>
-      </c>
-      <c r="J4" s="6">
-        <v>417</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0.92</v>
-      </c>
-      <c r="L4" s="18">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>253.1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>246</v>
-      </c>
-      <c r="D5" s="6">
-        <v>378</v>
-      </c>
-      <c r="E5" s="6">
-        <v>119</v>
-      </c>
-      <c r="F5" s="6">
-        <v>259</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.749</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1752</v>
-      </c>
-      <c r="I5" s="6">
-        <v>573</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1178</v>
-      </c>
-      <c r="K5" s="16">
-        <v>1.04</v>
-      </c>
-      <c r="L5" s="18">
-        <v>42557</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>-318.58</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-350</v>
-      </c>
-      <c r="D6" s="6">
-        <v>131</v>
-      </c>
-      <c r="E6" s="6">
-        <v>368</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-237</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="H6" s="6">
-        <v>476</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1708</v>
-      </c>
-      <c r="J6" s="6">
-        <v>-1232</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0.97</v>
-      </c>
-      <c r="L6" s="18">
-        <v>42556</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>125.15</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
+        <v>296</v>
+      </c>
+      <c r="E7" s="6">
+        <v>198</v>
+      </c>
+      <c r="F7" s="6">
+        <v>98</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1285</v>
+      </c>
+      <c r="I7" s="6">
+        <v>519</v>
+      </c>
+      <c r="J7" s="6">
+        <v>766</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="L7" s="18">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>-70.489999999999995</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-49</v>
+      </c>
+      <c r="D8" s="6">
+        <v>222</v>
+      </c>
+      <c r="E8" s="6">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-47</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="H8" s="6">
+        <v>883</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1037</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-154</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="L8" s="18">
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>163.44</v>
+      </c>
+      <c r="C9" s="6">
+        <v>136</v>
+      </c>
+      <c r="D9" s="6">
+        <v>334</v>
+      </c>
+      <c r="E9" s="6">
+        <v>161</v>
+      </c>
+      <c r="F9" s="6">
+        <v>173</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1549</v>
+      </c>
+      <c r="I9" s="6">
+        <v>457</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1091</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="18">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>-21.73</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>256</v>
+      </c>
+      <c r="E10" s="6">
+        <v>244</v>
+      </c>
+      <c r="F10" s="6">
+        <v>12</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>983</v>
+      </c>
+      <c r="I10" s="6">
+        <v>944</v>
+      </c>
+      <c r="J10" s="6">
+        <v>38</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="L10" s="18">
+        <v>42564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>291.54000000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>315</v>
+      </c>
+      <c r="D11" s="6">
+        <v>373</v>
+      </c>
+      <c r="E11" s="6">
         <v>126</v>
       </c>
-      <c r="D7" s="6">
-        <v>293</v>
-      </c>
-      <c r="E7" s="6">
-        <v>206</v>
-      </c>
-      <c r="F7" s="6">
-        <v>87</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1197</v>
-      </c>
-      <c r="I7" s="6">
-        <v>901</v>
-      </c>
-      <c r="J7" s="6">
-        <v>295</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0.93</v>
-      </c>
-      <c r="L7" s="18">
-        <v>42552</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>565.37</v>
-      </c>
-      <c r="C8" s="6">
-        <v>985</v>
-      </c>
-      <c r="D8" s="6">
-        <v>452</v>
-      </c>
-      <c r="E8" s="6">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6">
-        <v>404</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2510</v>
-      </c>
-      <c r="I8" s="6">
-        <v>338</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2171</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1.26</v>
-      </c>
-      <c r="L8" s="18">
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>734.68</v>
-      </c>
-      <c r="C9" s="6">
-        <v>881</v>
-      </c>
-      <c r="D9" s="6">
-        <v>477</v>
-      </c>
-      <c r="E9" s="6">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6">
-        <v>453</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2359</v>
-      </c>
-      <c r="I9" s="6">
-        <v>230</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2128</v>
-      </c>
-      <c r="K9" s="16">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L9" s="18">
-        <v>42550</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>734.1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1019</v>
-      </c>
-      <c r="D10" s="6">
-        <v>469</v>
-      </c>
-      <c r="E10" s="6">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6">
-        <v>437</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2573</v>
-      </c>
-      <c r="I10" s="6">
-        <v>148</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2425</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="L10" s="18">
-        <v>42549</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>-882.6</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-1945</v>
-      </c>
-      <c r="D11" s="6">
-        <v>76</v>
-      </c>
-      <c r="E11" s="6">
-        <v>425</v>
-      </c>
       <c r="F11" s="6">
-        <v>-349</v>
+        <v>247</v>
       </c>
       <c r="G11" s="13">
-        <v>0.15</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="H11" s="6">
-        <v>348</v>
+        <v>1916</v>
       </c>
       <c r="I11" s="6">
-        <v>2991</v>
+        <v>376</v>
       </c>
       <c r="J11" s="6">
-        <v>-2642</v>
+        <v>1539</v>
       </c>
       <c r="K11" s="16">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="L11" s="18">
-        <v>42548</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>-1638.16</v>
+        <v>157.97</v>
       </c>
       <c r="C12" s="4">
-        <v>-7004</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="E12" s="4">
-        <v>461</v>
+        <v>155</v>
       </c>
       <c r="F12" s="4">
-        <v>-421</v>
+        <v>188</v>
       </c>
       <c r="G12" s="14">
-        <v>7.9000000000000001E-2</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="H12" s="4">
-        <v>213</v>
+        <v>1412</v>
       </c>
       <c r="I12" s="4">
-        <v>4312</v>
+        <v>463</v>
       </c>
       <c r="J12" s="4">
-        <v>-4098</v>
+        <v>949</v>
       </c>
       <c r="K12" s="17">
-        <v>1.99</v>
+        <v>0.83</v>
       </c>
       <c r="L12" s="18">
-        <v>42545</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>257.70999999999998</v>
+        <v>878.47</v>
       </c>
       <c r="C13" s="1">
-        <v>-5534</v>
+        <v>848</v>
       </c>
       <c r="D13" s="1">
-        <v>3073</v>
+        <v>2913</v>
       </c>
       <c r="E13" s="1">
-        <v>1919</v>
+        <v>2050</v>
       </c>
       <c r="F13" s="1">
-        <v>1154</v>
+        <v>863</v>
       </c>
       <c r="G13" s="11">
-        <v>0.61599999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>14823</v>
+        <v>12522</v>
       </c>
       <c r="I13" s="1">
-        <v>12054</v>
+        <v>7383</v>
       </c>
       <c r="J13" s="1">
-        <v>2769</v>
+        <v>5139</v>
       </c>
       <c r="K13" s="2">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3565,7 +3579,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -3597,389 +3611,394 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
-        <v>177.21</v>
+        <v>44.37</v>
       </c>
       <c r="C18" s="6">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G18" s="13">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="H18" s="6">
-        <v>553</v>
+        <v>380</v>
       </c>
       <c r="I18" s="6">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="J18" s="6">
-        <v>531</v>
+        <v>223</v>
       </c>
       <c r="K18" s="16">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="L18" s="18">
-        <v>42559</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
-        <v>51.47</v>
+        <v>-42.55</v>
       </c>
       <c r="C19" s="6">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D19" s="6">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F19" s="6">
-        <v>33</v>
+        <v>-47</v>
       </c>
       <c r="G19" s="13">
-        <v>0.66</v>
+        <v>0.26</v>
       </c>
       <c r="H19" s="6">
-        <v>429</v>
+        <v>189</v>
       </c>
       <c r="I19" s="6">
-        <v>89</v>
+        <v>448</v>
       </c>
       <c r="J19" s="6">
-        <v>339</v>
+        <v>-258</v>
       </c>
       <c r="K19" s="16">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="L19" s="18">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
-        <v>98.49</v>
+        <v>144.75</v>
       </c>
       <c r="C20" s="6">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="D20" s="6">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E20" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G20" s="13">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="H20" s="6">
-        <v>447</v>
+        <v>615</v>
       </c>
       <c r="I20" s="6">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="J20" s="6">
-        <v>297</v>
+        <v>549</v>
       </c>
       <c r="K20" s="16">
-        <v>0.99</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L20" s="18">
-        <v>42557</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
-        <v>-49.23</v>
+        <v>-59.74</v>
       </c>
       <c r="C21" s="6">
-        <v>-34</v>
+        <v>-76</v>
       </c>
       <c r="D21" s="6">
         <v>27</v>
       </c>
       <c r="E21" s="6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="6">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="G21" s="13">
         <v>0.27</v>
       </c>
       <c r="H21" s="6">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="I21" s="6">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="J21" s="6">
-        <v>-298</v>
+        <v>-188</v>
       </c>
       <c r="K21" s="16">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="L21" s="18">
-        <v>42556</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
-        <v>80.36</v>
+        <v>70.36</v>
       </c>
       <c r="C22" s="6">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6">
+        <v>30</v>
+      </c>
+      <c r="F22" s="6">
+        <v>40</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H22" s="6">
+        <v>392</v>
+      </c>
+      <c r="I22" s="6">
+        <v>106</v>
+      </c>
+      <c r="J22" s="6">
+        <v>285</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="L22" s="18">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>-26.2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>35</v>
+      </c>
+      <c r="E23" s="6">
+        <v>63</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-28</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="H23" s="6">
+        <v>185</v>
+      </c>
+      <c r="I23" s="6">
+        <v>321</v>
+      </c>
+      <c r="J23" s="6">
+        <v>-135</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="L23" s="18">
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>62.53</v>
+      </c>
+      <c r="C24" s="6">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6">
+        <v>48</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="H24" s="6">
+        <v>413</v>
+      </c>
+      <c r="I24" s="6">
+        <v>87</v>
+      </c>
+      <c r="J24" s="6">
+        <v>326</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="18">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>-51.78</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-31</v>
+      </c>
+      <c r="D25" s="6">
         <v>41</v>
       </c>
-      <c r="F22" s="6">
-        <v>18</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0.59</v>
-      </c>
-      <c r="H22" s="6">
-        <v>300</v>
-      </c>
-      <c r="I22" s="6">
-        <v>264</v>
-      </c>
-      <c r="J22" s="6">
-        <v>36</v>
-      </c>
-      <c r="K22" s="16">
-        <v>0.94</v>
-      </c>
-      <c r="L22" s="18">
-        <v>42552</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>116.07</v>
-      </c>
-      <c r="C23" s="6">
-        <v>157</v>
-      </c>
-      <c r="D23" s="6">
-        <v>90</v>
-      </c>
-      <c r="E23" s="6">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6">
-        <v>80</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="H23" s="6">
-        <v>651</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="E25" s="6">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-17</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="H25" s="6">
+        <v>248</v>
+      </c>
+      <c r="I25" s="6">
+        <v>278</v>
+      </c>
+      <c r="J25" s="6">
+        <v>-29</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="L25" s="18">
+        <v>42564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>34.85</v>
+      </c>
+      <c r="C26" s="6">
+        <v>48</v>
+      </c>
+      <c r="D26" s="6">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6">
+        <v>35</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="H26" s="6">
+        <v>454</v>
+      </c>
+      <c r="I26" s="6">
+        <v>161</v>
+      </c>
+      <c r="J26" s="6">
+        <v>292</v>
+      </c>
+      <c r="K26" s="16">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>78.12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>76</v>
+      </c>
+      <c r="D27" s="4">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4">
         <v>42</v>
       </c>
-      <c r="J23" s="6">
-        <v>609</v>
-      </c>
-      <c r="K23" s="16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L23" s="18">
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>228.78</v>
-      </c>
-      <c r="C24" s="6">
-        <v>263</v>
-      </c>
-      <c r="D24" s="6">
-        <v>96</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4</v>
-      </c>
-      <c r="F24" s="6">
-        <v>92</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="H24" s="6">
-        <v>613</v>
-      </c>
-      <c r="I24" s="6">
-        <v>30</v>
-      </c>
-      <c r="J24" s="6">
-        <v>582</v>
-      </c>
-      <c r="K24" s="16">
-        <v>1.07</v>
-      </c>
-      <c r="L24" s="18">
-        <v>42550</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>208.1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>261</v>
-      </c>
-      <c r="D25" s="6">
-        <v>97</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6">
-        <v>94</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="H25" s="6">
-        <v>681</v>
-      </c>
-      <c r="I25" s="6">
-        <v>4</v>
-      </c>
-      <c r="J25" s="6">
-        <v>677</v>
-      </c>
-      <c r="K25" s="16">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L25" s="18">
-        <v>42549</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
-        <v>-230.93</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-545</v>
-      </c>
-      <c r="D26" s="6">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="G27" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="H27" s="4">
+        <v>439</v>
+      </c>
+      <c r="I27" s="4">
         <v>91</v>
       </c>
-      <c r="F26" s="6">
-        <v>-82</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="H26" s="6">
-        <v>45</v>
-      </c>
-      <c r="I26" s="6">
-        <v>837</v>
-      </c>
-      <c r="J26" s="6">
-        <v>-791</v>
-      </c>
-      <c r="K26" s="16">
-        <v>1.47</v>
-      </c>
-      <c r="L26" s="18">
-        <v>42548</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>-538.79</v>
-      </c>
-      <c r="C27" s="4">
-        <v>-3031</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>97</v>
-      </c>
-      <c r="F27" s="4">
-        <v>-94</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="H27" s="4">
-        <v>19</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1280</v>
-      </c>
       <c r="J27" s="4">
-        <v>-1261</v>
+        <v>348</v>
       </c>
       <c r="K27" s="17">
-        <v>2.16</v>
+        <v>0.86</v>
       </c>
       <c r="L27" s="18">
-        <v>42545</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>141.53</v>
+        <v>254.71</v>
       </c>
       <c r="C28" s="1">
-        <v>-2568</v>
+        <v>339</v>
       </c>
       <c r="D28" s="1">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="E28" s="1">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="F28" s="1">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="G28" s="11">
-        <v>0.624</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="H28" s="1">
-        <v>3867</v>
+        <v>3491</v>
       </c>
       <c r="I28" s="1">
-        <v>3146</v>
+        <v>2079</v>
       </c>
       <c r="J28" s="1">
-        <v>721</v>
+        <v>1412</v>
       </c>
       <c r="K28" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +4006,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>25</v>
       </c>
@@ -4021,389 +4040,395 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
-        <v>446.12</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="C33" s="6">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6">
-        <v>584</v>
+        <v>413</v>
       </c>
       <c r="E33" s="6">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="F33" s="6">
-        <v>570</v>
+        <v>238</v>
       </c>
       <c r="G33" s="13">
-        <v>0.97</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="H33" s="6">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="I33" s="6">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J33" s="6">
-        <v>245</v>
+        <v>50</v>
       </c>
       <c r="K33" s="16">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="L33" s="18">
-        <v>42559</v>
+        <v>42573</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>32.96</v>
+        <v>-121.43</v>
       </c>
       <c r="C34" s="6">
-        <v>26</v>
+        <v>-227</v>
       </c>
       <c r="D34" s="6">
-        <v>346</v>
+        <v>169</v>
       </c>
       <c r="E34" s="6">
-        <v>243</v>
+        <v>408</v>
       </c>
       <c r="F34" s="6">
-        <v>103</v>
+        <v>-239</v>
       </c>
       <c r="G34" s="13">
-        <v>0.57499999999999996</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H34" s="6">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="I34" s="6">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="J34" s="6">
-        <v>30</v>
+        <v>-59</v>
       </c>
       <c r="K34" s="16">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="L34" s="18">
-        <v>42558</v>
+        <v>42572</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>130.88999999999999</v>
+        <v>116.09</v>
       </c>
       <c r="C35" s="6">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D35" s="6">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E35" s="6">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F35" s="6">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="G35" s="13">
-        <v>0.71299999999999997</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="H35" s="6">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I35" s="6">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J35" s="6">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K35" s="16">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="L35" s="18">
-        <v>42557</v>
+        <v>42571</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>-248.22</v>
+        <v>-132.97999999999999</v>
       </c>
       <c r="C36" s="6">
-        <v>-172</v>
+        <v>-143</v>
       </c>
       <c r="D36" s="6">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="E36" s="6">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="F36" s="6">
-        <v>-403</v>
+        <v>-275</v>
       </c>
       <c r="G36" s="13">
-        <v>0.159</v>
+        <v>0.254</v>
       </c>
       <c r="H36" s="6">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I36" s="6">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="J36" s="6">
-        <v>-161</v>
+        <v>-113</v>
       </c>
       <c r="K36" s="16">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L36" s="18">
-        <v>42556</v>
+        <v>42570</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>42.43</v>
+        <v>21.4</v>
       </c>
       <c r="C37" s="6">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="E37" s="6">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F37" s="6">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>0.56999999999999995</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="H37" s="6">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="I37" s="6">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J37" s="6">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="K37" s="16">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="L37" s="18">
-        <v>42552</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>407.87</v>
+        <v>32.4</v>
       </c>
       <c r="C38" s="6">
-        <v>619</v>
+        <v>26</v>
       </c>
       <c r="D38" s="6">
-        <v>541</v>
+        <v>354</v>
       </c>
       <c r="E38" s="6">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="F38" s="6">
-        <v>486</v>
+        <v>117</v>
       </c>
       <c r="G38" s="13">
-        <v>0.89900000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="H38" s="6">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="I38" s="6">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="J38" s="6">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="K38" s="16">
-        <v>1.1499999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="L38" s="18">
-        <v>42551</v>
+        <v>42566</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>387.11</v>
+        <v>-11.64</v>
       </c>
       <c r="C39" s="6">
-        <v>386</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="6">
-        <v>552</v>
+        <v>275</v>
       </c>
       <c r="E39" s="6">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="F39" s="6">
-        <v>506</v>
+        <v>-37</v>
       </c>
       <c r="G39" s="13">
-        <v>0.91700000000000004</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="H39" s="6">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="I39" s="6">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="J39" s="6">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="K39" s="16">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="L39" s="18">
-        <v>42550</v>
+        <v>42565</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>173.99</v>
+        <v>-3.38</v>
       </c>
       <c r="C40" s="6">
-        <v>173</v>
+        <v>-21</v>
       </c>
       <c r="D40" s="6">
-        <v>458</v>
+        <v>326</v>
       </c>
       <c r="E40" s="6">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="F40" s="6">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="G40" s="13">
-        <v>0.76100000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="H40" s="6">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="I40" s="6">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="J40" s="6">
-        <v>180</v>
+        <v>-44</v>
       </c>
       <c r="K40" s="16">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L40" s="18">
-        <v>42549</v>
+        <v>42564</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>-570.04</v>
+        <v>248.36</v>
       </c>
       <c r="C41" s="6">
-        <v>-935</v>
+        <v>265</v>
       </c>
       <c r="D41" s="6">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="E41" s="6">
-        <v>553</v>
+        <v>84</v>
       </c>
       <c r="F41" s="6">
-        <v>-508</v>
+        <v>427</v>
       </c>
       <c r="G41" s="13">
-        <v>7.4999999999999997E-2</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="H41" s="6">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="I41" s="6">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c r="J41" s="6">
-        <v>-292</v>
+        <v>204</v>
       </c>
       <c r="K41" s="16">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="L41" s="18">
-        <v>42548</v>
+        <v>42563</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>-694.69</v>
+        <v>211</v>
       </c>
       <c r="C42" s="4">
-        <v>-4054</v>
+        <v>244</v>
       </c>
       <c r="D42" s="4">
-        <v>33</v>
+        <v>500</v>
       </c>
       <c r="E42" s="4">
-        <v>565</v>
+        <v>93</v>
       </c>
       <c r="F42" s="4">
-        <v>-532</v>
+        <v>407</v>
       </c>
       <c r="G42" s="14">
-        <v>5.5E-2</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="H42" s="4">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="I42" s="4">
-        <v>626</v>
+        <v>45</v>
       </c>
       <c r="J42" s="4">
-        <v>-591</v>
+        <v>152</v>
       </c>
       <c r="K42" s="17">
-        <v>2.4900000000000002</v>
+        <v>0.95</v>
       </c>
       <c r="L42" s="18">
-        <v>42545</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>108.42</v>
+        <v>489.87</v>
       </c>
       <c r="C43" s="1">
-        <v>-3382</v>
+        <v>267</v>
       </c>
       <c r="D43" s="1">
-        <v>3427</v>
+        <v>3408</v>
       </c>
       <c r="E43" s="1">
-        <v>2518</v>
+        <v>2453</v>
       </c>
       <c r="F43" s="1">
-        <v>909</v>
+        <v>955</v>
       </c>
       <c r="G43" s="11">
-        <v>0.57599999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="H43" s="1">
-        <v>1485</v>
+        <v>1281</v>
       </c>
       <c r="I43" s="1">
-        <v>1484</v>
+        <v>915</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="K43" s="2">
-        <v>1.1299999999999999</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>107</v>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>105</v>
@@ -4443,388 +4468,394 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
-        <v>1316.24</v>
+        <v>477.16</v>
       </c>
       <c r="C48" s="6">
-        <v>1077</v>
+        <v>323</v>
       </c>
       <c r="D48" s="6">
-        <v>1353</v>
+        <v>1036</v>
       </c>
       <c r="E48" s="6">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="F48" s="6">
-        <v>1281</v>
+        <v>687</v>
       </c>
       <c r="G48" s="13">
-        <v>0.94</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H48" s="6">
-        <v>3427</v>
+        <v>2148</v>
       </c>
       <c r="I48" s="6">
-        <v>222</v>
+        <v>962</v>
       </c>
       <c r="J48" s="6">
-        <v>3204</v>
+        <v>1185</v>
       </c>
       <c r="K48" s="16">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="L48" s="18">
-        <v>42559</v>
+        <v>42573</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
-        <v>41.49</v>
+        <v>-251.63</v>
       </c>
       <c r="C49" s="6">
-        <v>92</v>
+        <v>-22</v>
       </c>
       <c r="D49" s="6">
-        <v>789</v>
+        <v>466</v>
       </c>
       <c r="E49" s="6">
-        <v>618</v>
+        <v>915</v>
       </c>
       <c r="F49" s="6">
-        <v>171</v>
+        <v>-449</v>
       </c>
       <c r="G49" s="13">
-        <v>0.54800000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="H49" s="6">
-        <v>1975</v>
+        <v>1268</v>
       </c>
       <c r="I49" s="6">
-        <v>1420</v>
+        <v>2292</v>
       </c>
       <c r="J49" s="6">
-        <v>554</v>
+        <v>-1024</v>
       </c>
       <c r="K49" s="16">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="L49" s="18">
-        <v>42558</v>
+        <v>42572</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
-        <v>455.11</v>
+        <v>531.91999999999996</v>
       </c>
       <c r="C50" s="6">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="D50" s="6">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="E50" s="6">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F50" s="6">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="G50" s="13">
-        <v>0.7</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="H50" s="6">
-        <v>2743</v>
+        <v>2419</v>
       </c>
       <c r="I50" s="6">
-        <v>1055</v>
+        <v>952</v>
       </c>
       <c r="J50" s="6">
-        <v>1688</v>
+        <v>1467</v>
       </c>
       <c r="K50" s="16">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="L50" s="18">
-        <v>42557</v>
+        <v>42571</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
-        <v>-767.73</v>
+        <v>-264.13</v>
       </c>
       <c r="C51" s="6">
-        <v>-736</v>
+        <v>-249</v>
       </c>
       <c r="D51" s="6">
-        <v>308</v>
+        <v>480</v>
       </c>
       <c r="E51" s="6">
-        <v>1114</v>
+        <v>887</v>
       </c>
       <c r="F51" s="6">
-        <v>-806</v>
+        <v>-407</v>
       </c>
       <c r="G51" s="13">
-        <v>0.214</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="H51" s="6">
-        <v>773</v>
+        <v>1161</v>
       </c>
       <c r="I51" s="6">
-        <v>2720</v>
+        <v>1818</v>
       </c>
       <c r="J51" s="6">
-        <v>-1946</v>
+        <v>-656</v>
       </c>
       <c r="K51" s="16">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="L51" s="18">
-        <v>42556</v>
+        <v>42570</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>346.76</v>
+        <v>257.42</v>
       </c>
       <c r="C52" s="6">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="D52" s="6">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="E52" s="6">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F52" s="6">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G52" s="13">
-        <v>0.61499999999999999</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="H52" s="6">
-        <v>2116</v>
+        <v>2063</v>
       </c>
       <c r="I52" s="6">
-        <v>1243</v>
+        <v>882</v>
       </c>
       <c r="J52" s="6">
-        <v>873</v>
+        <v>1181</v>
       </c>
       <c r="K52" s="16">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="L52" s="18">
-        <v>42552</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
-        <v>991.73</v>
+        <v>-49.94</v>
       </c>
       <c r="C53" s="6">
-        <v>1580</v>
+        <v>46</v>
       </c>
       <c r="D53" s="6">
-        <v>1191</v>
+        <v>672</v>
       </c>
       <c r="E53" s="6">
-        <v>227</v>
+        <v>697</v>
       </c>
       <c r="F53" s="6">
-        <v>964</v>
+        <v>-25</v>
       </c>
       <c r="G53" s="13">
-        <v>0.82699999999999996</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H53" s="6">
-        <v>3817</v>
+        <v>1491</v>
       </c>
       <c r="I53" s="6">
-        <v>719</v>
+        <v>1606</v>
       </c>
       <c r="J53" s="6">
-        <v>3097</v>
+        <v>-114</v>
       </c>
       <c r="K53" s="16">
-        <v>1.2</v>
+        <v>0.84</v>
       </c>
       <c r="L53" s="18">
-        <v>42551</v>
+        <v>42566</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
-        <v>1424.02</v>
+        <v>279.92</v>
       </c>
       <c r="C54" s="6">
-        <v>1956</v>
+        <v>248</v>
       </c>
       <c r="D54" s="6">
-        <v>1331</v>
+        <v>872</v>
       </c>
       <c r="E54" s="6">
-        <v>94</v>
+        <v>506</v>
       </c>
       <c r="F54" s="6">
-        <v>1237</v>
+        <v>366</v>
       </c>
       <c r="G54" s="13">
-        <v>0.92400000000000004</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="H54" s="6">
-        <v>3852</v>
+        <v>2410</v>
       </c>
       <c r="I54" s="6">
-        <v>306</v>
+        <v>889</v>
       </c>
       <c r="J54" s="6">
-        <v>3546</v>
+        <v>1521</v>
       </c>
       <c r="K54" s="16">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L54" s="18">
-        <v>42550</v>
+        <v>42565</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
-        <v>1348.45</v>
+        <v>-175.86</v>
       </c>
       <c r="C55" s="6">
-        <v>1664</v>
+        <v>-95</v>
       </c>
       <c r="D55" s="6">
-        <v>1292</v>
+        <v>601</v>
       </c>
       <c r="E55" s="6">
-        <v>135</v>
+        <v>774</v>
       </c>
       <c r="F55" s="6">
-        <v>1157</v>
+        <v>-173</v>
       </c>
       <c r="G55" s="13">
-        <v>0.89700000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H55" s="6">
-        <v>3977</v>
+        <v>1548</v>
       </c>
       <c r="I55" s="6">
-        <v>354</v>
+        <v>1761</v>
       </c>
       <c r="J55" s="6">
-        <v>3622</v>
+        <v>-212</v>
       </c>
       <c r="K55" s="16">
-        <v>1.1399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="L55" s="18">
-        <v>42549</v>
+        <v>42564</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
-        <v>-1879.89</v>
+        <v>671.15</v>
       </c>
       <c r="C56" s="6">
-        <v>-3654</v>
+        <v>866</v>
       </c>
       <c r="D56" s="6">
-        <v>165</v>
+        <v>1059</v>
       </c>
       <c r="E56" s="6">
-        <v>1257</v>
+        <v>323</v>
       </c>
       <c r="F56" s="6">
-        <v>-1092</v>
+        <v>736</v>
       </c>
       <c r="G56" s="13">
-        <v>0.115</v>
+        <v>0.749</v>
       </c>
       <c r="H56" s="6">
-        <v>604</v>
+        <v>3061</v>
       </c>
       <c r="I56" s="6">
-        <v>4765</v>
+        <v>741</v>
       </c>
       <c r="J56" s="6">
-        <v>-4161</v>
+        <v>2320</v>
       </c>
       <c r="K56" s="16">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="L56" s="18">
-        <v>42548</v>
+        <v>42563</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
-        <v>-3036.83</v>
+        <v>429.16</v>
       </c>
       <c r="C57" s="4">
-        <v>-13306</v>
+        <v>390</v>
       </c>
       <c r="D57" s="4">
-        <v>120</v>
+        <v>1021</v>
       </c>
       <c r="E57" s="4">
-        <v>1306</v>
+        <v>363</v>
       </c>
       <c r="F57" s="4">
-        <v>-1186</v>
+        <v>658</v>
       </c>
       <c r="G57" s="14">
-        <v>8.3000000000000004E-2</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="H57" s="4">
-        <v>545</v>
+        <v>2381</v>
       </c>
       <c r="I57" s="4">
-        <v>7043</v>
+        <v>798</v>
       </c>
       <c r="J57" s="4">
-        <v>-6498</v>
+        <v>1582</v>
       </c>
       <c r="K57" s="17">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="L57" s="18">
-        <v>42545</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>239.35</v>
+        <v>1905.17</v>
       </c>
       <c r="C58" s="1">
-        <v>-10563</v>
+        <v>2287</v>
       </c>
       <c r="D58" s="1">
-        <v>8443</v>
+        <v>8065</v>
       </c>
       <c r="E58" s="1">
-        <v>5753</v>
+        <v>5707</v>
       </c>
       <c r="F58" s="1">
-        <v>2690</v>
+        <v>2358</v>
       </c>
       <c r="G58" s="11">
-        <v>0.59499999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H58" s="1">
-        <v>23834</v>
+        <v>19955</v>
       </c>
       <c r="I58" s="1">
-        <v>19851</v>
+        <v>12705</v>
       </c>
       <c r="J58" s="1">
-        <v>3983</v>
+        <v>7250</v>
       </c>
       <c r="K58" s="2">
-        <v>1.1599999999999999</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4867,10 +4898,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
-        <v>28.38</v>
+        <v>8.41</v>
       </c>
       <c r="C63" s="6">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D63" s="6">
         <v>19</v>
@@ -4885,366 +4916,371 @@
         <v>1</v>
       </c>
       <c r="H63" s="6">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="I63" s="6">
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="K63" s="16">
-        <v>1.1100000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L63" s="18">
-        <v>42559</v>
+        <v>42573</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
-        <v>1.38</v>
+        <v>-2.37</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="6">
+        <v>4</v>
+      </c>
+      <c r="E64" s="6">
+        <v>15</v>
+      </c>
+      <c r="F64" s="6">
+        <v>-11</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H64" s="6">
+        <v>24</v>
+      </c>
+      <c r="I64" s="6">
+        <v>181</v>
+      </c>
+      <c r="J64" s="6">
+        <v>-156</v>
+      </c>
+      <c r="K64" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="L64" s="18">
+        <v>42572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>12.65</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6">
+        <v>14</v>
+      </c>
+      <c r="E65" s="6">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6">
+        <v>9</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="H65" s="6">
+        <v>162</v>
+      </c>
+      <c r="I65" s="6">
+        <v>33</v>
+      </c>
+      <c r="J65" s="6">
+        <v>129</v>
+      </c>
+      <c r="K65" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="L65" s="18">
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="7">
+        <v>-6.54</v>
+      </c>
+      <c r="C66" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D66" s="6">
+        <v>5</v>
+      </c>
+      <c r="E66" s="6">
+        <v>14</v>
+      </c>
+      <c r="F66" s="6">
+        <v>-9</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H66" s="6">
+        <v>38</v>
+      </c>
+      <c r="I66" s="6">
+        <v>137</v>
+      </c>
+      <c r="J66" s="6">
+        <v>-98</v>
+      </c>
+      <c r="K66" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="L66" s="18">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>16</v>
+      </c>
+      <c r="E67" s="6">
+        <v>3</v>
+      </c>
+      <c r="F67" s="6">
+        <v>13</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H67" s="6">
+        <v>169</v>
+      </c>
+      <c r="I67" s="6">
+        <v>19</v>
+      </c>
+      <c r="J67" s="6">
+        <v>149</v>
+      </c>
+      <c r="K67" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L67" s="18">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6">
+        <v>7</v>
+      </c>
+      <c r="E68" s="6">
+        <v>10</v>
+      </c>
+      <c r="F68" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H68" s="6">
+        <v>49</v>
+      </c>
+      <c r="I68" s="6">
+        <v>206</v>
+      </c>
+      <c r="J68" s="6">
+        <v>-157</v>
+      </c>
+      <c r="K68" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="L68" s="18">
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="C69" s="6">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6">
+        <v>15</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6">
         <v>11</v>
       </c>
-      <c r="E64" s="6">
-        <v>7</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="G69" s="13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H69" s="6">
+        <v>251</v>
+      </c>
+      <c r="I69" s="6">
+        <v>34</v>
+      </c>
+      <c r="J69" s="6">
+        <v>216</v>
+      </c>
+      <c r="K69" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="L69" s="18">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>-5.87</v>
+      </c>
+      <c r="C70" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8</v>
+      </c>
+      <c r="E70" s="6">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="H70" s="6">
+        <v>56</v>
+      </c>
+      <c r="I70" s="6">
+        <v>165</v>
+      </c>
+      <c r="J70" s="6">
+        <v>-108</v>
+      </c>
+      <c r="K70" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="L70" s="18">
+        <v>42564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>14.45</v>
+      </c>
+      <c r="C71" s="6">
+        <v>17</v>
+      </c>
+      <c r="D71" s="6">
+        <v>17</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" s="6">
+        <v>15</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H71" s="6">
+        <v>297</v>
+      </c>
+      <c r="I71" s="6">
+        <v>33</v>
+      </c>
+      <c r="J71" s="6">
+        <v>263</v>
+      </c>
+      <c r="K71" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="L71" s="18">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>7.48</v>
+      </c>
+      <c r="C72" s="4">
         <v>4</v>
       </c>
-      <c r="G64" s="13">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="H64" s="6">
-        <v>128</v>
-      </c>
-      <c r="I64" s="6">
-        <v>148</v>
-      </c>
-      <c r="J64" s="6">
-        <v>-20</v>
-      </c>
-      <c r="K64" s="16">
-        <v>0.88</v>
-      </c>
-      <c r="L64" s="18">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
-        <v>14.18</v>
-      </c>
-      <c r="C65" s="6">
+      <c r="D72" s="4">
+        <v>16</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4">
         <v>13</v>
       </c>
-      <c r="D65" s="6">
-        <v>18</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>17</v>
-      </c>
-      <c r="G65" s="13">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H65" s="6">
-        <v>315</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>315</v>
-      </c>
-      <c r="K65" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="L65" s="18">
-        <v>42557</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="7">
-        <v>-15.51</v>
-      </c>
-      <c r="C66" s="6">
-        <v>-13</v>
-      </c>
-      <c r="D66" s="6">
-        <v>3</v>
-      </c>
-      <c r="E66" s="6">
-        <v>16</v>
-      </c>
-      <c r="F66" s="6">
-        <v>-13</v>
-      </c>
-      <c r="G66" s="13">
-        <v>0.158</v>
-      </c>
-      <c r="H66" s="6">
-        <v>32</v>
-      </c>
-      <c r="I66" s="6">
-        <v>284</v>
-      </c>
-      <c r="J66" s="6">
-        <v>-251</v>
-      </c>
-      <c r="K66" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="L66" s="18">
-        <v>42556</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="7">
-        <v>8.93</v>
-      </c>
-      <c r="C67" s="6">
-        <v>5</v>
-      </c>
-      <c r="D67" s="6">
-        <v>15</v>
-      </c>
-      <c r="E67" s="6">
-        <v>4</v>
-      </c>
-      <c r="F67" s="6">
-        <v>11</v>
-      </c>
-      <c r="G67" s="13">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="H67" s="6">
-        <v>239</v>
-      </c>
-      <c r="I67" s="6">
-        <v>57</v>
-      </c>
-      <c r="J67" s="6">
-        <v>181</v>
-      </c>
-      <c r="K67" s="16">
-        <v>0.92</v>
-      </c>
-      <c r="L67" s="18">
-        <v>42552</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="7">
-        <v>23.57</v>
-      </c>
-      <c r="C68" s="6">
-        <v>39</v>
-      </c>
-      <c r="D68" s="6">
-        <v>19</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6">
-        <v>19</v>
-      </c>
-      <c r="G68" s="13">
-        <v>1</v>
-      </c>
-      <c r="H68" s="6">
-        <v>429</v>
-      </c>
-      <c r="I68" s="6">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>429</v>
-      </c>
-      <c r="K68" s="16">
-        <v>1.33</v>
-      </c>
-      <c r="L68" s="18">
-        <v>42551</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="7">
-        <v>30.35</v>
-      </c>
-      <c r="C69" s="6">
-        <v>39</v>
-      </c>
-      <c r="D69" s="6">
-        <v>19</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
-        <v>19</v>
-      </c>
-      <c r="G69" s="13">
-        <v>1</v>
-      </c>
-      <c r="H69" s="6">
-        <v>393</v>
-      </c>
-      <c r="I69" s="6">
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>393</v>
-      </c>
-      <c r="K69" s="16">
-        <v>1.22</v>
-      </c>
-      <c r="L69" s="18">
-        <v>42550</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="7">
-        <v>33.58</v>
-      </c>
-      <c r="C70" s="6">
-        <v>53</v>
-      </c>
-      <c r="D70" s="6">
-        <v>19</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <v>19</v>
-      </c>
-      <c r="G70" s="13">
-        <v>1</v>
-      </c>
-      <c r="H70" s="6">
-        <v>445</v>
-      </c>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>445</v>
-      </c>
-      <c r="K70" s="16">
-        <v>1.38</v>
-      </c>
-      <c r="L70" s="18">
-        <v>42549</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
-        <v>-38.549999999999997</v>
-      </c>
-      <c r="C71" s="6">
-        <v>-141</v>
-      </c>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="6">
-        <v>18</v>
-      </c>
-      <c r="F71" s="6">
-        <v>-17</v>
-      </c>
-      <c r="G71" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H71" s="6">
-        <v>17</v>
-      </c>
-      <c r="I71" s="6">
-        <v>649</v>
-      </c>
-      <c r="J71" s="6">
-        <v>-632</v>
-      </c>
-      <c r="K71" s="16">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L71" s="18">
-        <v>42548</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="5">
-        <v>-65.78</v>
-      </c>
-      <c r="C72" s="4">
-        <v>-360</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>18</v>
-      </c>
-      <c r="F72" s="4">
-        <v>-17</v>
-      </c>
       <c r="G72" s="14">
-        <v>5.2999999999999999E-2</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H72" s="4">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="I72" s="4">
-        <v>806</v>
+        <v>22</v>
       </c>
       <c r="J72" s="4">
-        <v>-782</v>
+        <v>193</v>
       </c>
       <c r="K72" s="17">
-        <v>2.58</v>
+        <v>0.74</v>
       </c>
       <c r="L72" s="18">
-        <v>42545</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>20.53</v>
+        <v>42.97</v>
       </c>
       <c r="C73" s="1">
-        <v>-334</v>
+        <v>33</v>
       </c>
       <c r="D73" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E73" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F73" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G73" s="11">
-        <v>0.66100000000000003</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="H73" s="1">
-        <v>2383</v>
+        <v>1454</v>
       </c>
       <c r="I73" s="1">
-        <v>1946</v>
+        <v>834</v>
       </c>
       <c r="J73" s="1">
-        <v>437</v>
+        <v>620</v>
       </c>
       <c r="K73" s="2">
-        <v>1.34</v>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TA\working\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PTV\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -318,19 +318,19 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 2.23 Points per Component with overall change of -2.34% from closing price 2351.16 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 4.34 Points per Component with overall change of -3.16% from closing price 5324.72 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.55 Points per Component with overall change of -1.64% from closing price 855.10 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.30 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 2.38 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 2.80 Points per Component with overall change of -2.37% from closing price 2384.20 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 5.96 Points per Component with overall change of -4.30% from closing price 5583.53 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.81 Points per Component with overall change of -4.38% from closing price 851.36 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.48 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.60 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1122,193 +1122,193 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D4" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9">
         <v>7</v>
       </c>
       <c r="F4" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="13">
         <v>6.25</v>
       </c>
       <c r="J4" s="14">
         <f>H4-I4</f>
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="10">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10">
-        <v>9</v>
-      </c>
-      <c r="G5" s="10">
-        <v>9</v>
-      </c>
       <c r="H5" s="12">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="I5" s="15">
         <v>6.5</v>
       </c>
       <c r="J5" s="16">
         <f>H5-I5</f>
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10">
         <v>7</v>
       </c>
-      <c r="F6" s="10">
-        <v>9</v>
-      </c>
       <c r="G6" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12">
-        <v>8.25</v>
+        <v>5.75</v>
       </c>
       <c r="I6" s="15">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J6" s="16">
         <f>H6-I6</f>
-        <v>2</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10">
         <v>7</v>
       </c>
-      <c r="E7" s="10">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10">
-        <v>9</v>
-      </c>
       <c r="H7" s="12">
-        <v>7.75</v>
+        <v>5.75</v>
       </c>
       <c r="I7" s="15">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="16">
         <f>H7-I7</f>
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10">
         <v>4</v>
       </c>
       <c r="E8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
         <v>6</v>
       </c>
-      <c r="F8" s="10">
-        <v>9</v>
-      </c>
       <c r="G8" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" s="12">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="I8" s="15">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="J8" s="16">
         <f>H8-I8</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D9" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="10">
         <v>9</v>
       </c>
       <c r="H9" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" s="15">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J9" s="16">
         <f>H9-I9</f>
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D10" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
         <v>6</v>
@@ -1317,223 +1317,223 @@
         <v>7</v>
       </c>
       <c r="G10" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="12">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
       <c r="I10" s="15">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="J10" s="16">
         <f>H10-I10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5</v>
+      </c>
+      <c r="G11" s="10">
         <v>6</v>
       </c>
-      <c r="F11" s="10">
-        <v>6</v>
-      </c>
-      <c r="G11" s="10">
-        <v>7</v>
-      </c>
       <c r="H11" s="12">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
       <c r="I11" s="15">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="J11" s="16">
         <f>H11-I11</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="10">
-        <v>7</v>
-      </c>
       <c r="G12" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="12">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
       <c r="I12" s="15">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="16">
         <f>H12-I12</f>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10">
         <v>6</v>
       </c>
-      <c r="F13" s="10">
-        <v>8</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8</v>
-      </c>
       <c r="H13" s="12">
-        <v>6.75</v>
+        <v>4.75</v>
       </c>
       <c r="I13" s="15">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="J13" s="16">
         <f>H13-I13</f>
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
         <v>5</v>
-      </c>
-      <c r="F14" s="10">
-        <v>6</v>
       </c>
       <c r="G14" s="10">
         <v>7</v>
       </c>
       <c r="H14" s="12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="I14" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="16">
         <f>H14-I14</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
-        <v>6</v>
-      </c>
-      <c r="F15" s="10">
-        <v>7</v>
-      </c>
-      <c r="G15" s="10">
-        <v>7</v>
-      </c>
       <c r="H15" s="12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="15">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="J15" s="16">
         <f>H15-I15</f>
-        <v>2</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
         <v>7</v>
       </c>
-      <c r="F16" s="10">
-        <v>6</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
       <c r="H16" s="12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="15">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="J16" s="16">
         <f>H16-I16</f>
-        <v>2.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D17" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
         <v>9</v>
       </c>
-      <c r="G17" s="10">
-        <v>8</v>
-      </c>
       <c r="H17" s="12">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="I17" s="15">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="J17" s="16">
         <f>H17-I17</f>
@@ -1542,62 +1542,62 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
         <v>4</v>
       </c>
-      <c r="F18" s="10">
-        <v>6</v>
-      </c>
       <c r="G18" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H18" s="12">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I18" s="15">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="J18" s="16">
         <f>H18-I18</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D19" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10">
         <v>4</v>
       </c>
-      <c r="F19" s="10">
-        <v>8</v>
-      </c>
-      <c r="G19" s="10">
-        <v>7</v>
-      </c>
       <c r="H19" s="12">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="I19" s="15">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="J19" s="16">
         <f>H19-I19</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -1608,52 +1608,52 @@
         <v>51</v>
       </c>
       <c r="D20" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10">
         <v>5</v>
       </c>
-      <c r="F20" s="10">
-        <v>6</v>
-      </c>
-      <c r="G20" s="10">
-        <v>6</v>
-      </c>
       <c r="H20" s="12">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="I20" s="15">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="J20" s="16">
         <f>H20-I20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10">
+        <v>3</v>
+      </c>
+      <c r="G21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="10">
-        <v>5</v>
-      </c>
-      <c r="F21" s="10">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10">
-        <v>6</v>
-      </c>
       <c r="H21" s="12">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I21" s="15">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="J21" s="16">
         <f>H21-I21</f>
@@ -1668,292 +1668,292 @@
         <v>50</v>
       </c>
       <c r="D22" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="10">
         <v>5</v>
       </c>
       <c r="H22" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" s="15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J22" s="16">
         <f>H22-I22</f>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10">
         <v>3</v>
       </c>
-      <c r="E23" s="10">
+      <c r="G23" s="10">
         <v>3</v>
       </c>
-      <c r="F23" s="10">
-        <v>6</v>
-      </c>
-      <c r="G23" s="10">
-        <v>7</v>
-      </c>
       <c r="H23" s="12">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I23" s="15">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="J23" s="16">
         <f>H23-I23</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D24" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10">
         <v>4</v>
       </c>
-      <c r="F24" s="10">
-        <v>6</v>
-      </c>
-      <c r="G24" s="10">
-        <v>7</v>
-      </c>
       <c r="H24" s="12">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="I24" s="15">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J24" s="16">
         <f>H24-I24</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D25" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="I25" s="15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J25" s="16">
         <f>H25-I25</f>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D26" s="10">
         <v>4</v>
       </c>
       <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="10">
-        <v>5</v>
-      </c>
-      <c r="G26" s="10">
-        <v>3</v>
-      </c>
       <c r="H26" s="12">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I26" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="16">
         <f>H26-I26</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D27" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="10">
         <v>4</v>
       </c>
       <c r="G27" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" s="12">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="I27" s="15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="J27" s="16">
         <f>H27-I27</f>
-        <v>1.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" s="10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F28" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="10">
+        <v>8</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="I28" s="15">
         <v>3</v>
-      </c>
-      <c r="H28" s="12">
-        <v>4</v>
-      </c>
-      <c r="I28" s="15">
-        <v>1.5</v>
       </c>
       <c r="J28" s="16">
         <f>H28-I28</f>
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D29" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="10">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="F29" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="12">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="I29" s="15">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="J29" s="16">
         <f>H29-I29</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D30" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="12">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="I30" s="15">
-        <v>2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="J30" s="16">
         <f>H30-I30</f>
-        <v>1</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D31" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="10">
         <v>5</v>
       </c>
-      <c r="G31" s="10">
-        <v>6</v>
-      </c>
       <c r="H31" s="12">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="I31" s="15">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="J31" s="16">
         <f>H31-I31</f>
@@ -1962,152 +1962,152 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32" s="10">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F32" s="10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H32" s="12">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="I32" s="15">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="J32" s="16">
         <f>H32-I32</f>
-        <v>2</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D33" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F33" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="I33" s="15">
         <v>3.5</v>
-      </c>
-      <c r="I33" s="15">
-        <v>2.75</v>
       </c>
       <c r="J33" s="16">
         <f>H33-I33</f>
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D34" s="10">
         <v>4</v>
       </c>
       <c r="E34" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F34" s="10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="I34" s="15">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="J34" s="16">
         <f>H34-I34</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D35" s="10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E35" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="I35" s="15">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J35" s="16">
         <f>H35-I35</f>
-        <v>-2.25</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D36" s="10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E36" s="10">
         <v>-3</v>
       </c>
       <c r="F36" s="10">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G36" s="10">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="H36" s="12">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="I36" s="15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="16">
         <f>H36-I36</f>
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -2118,52 +2118,52 @@
         <v>79</v>
       </c>
       <c r="D37" s="10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E37" s="10">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F37" s="10">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G37" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H37" s="12">
-        <v>0</v>
+        <v>-4.75</v>
       </c>
       <c r="I37" s="15">
-        <v>1.5</v>
+        <v>-4.25</v>
       </c>
       <c r="J37" s="16">
         <f>H37-I37</f>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D38" s="10">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="E38" s="10">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F38" s="10">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G38" s="10">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H38" s="12">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="I38" s="15">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="J38" s="16">
         <f>H38-I38</f>
@@ -2172,92 +2172,92 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D39" s="10">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E39" s="10">
+        <v>-8</v>
+      </c>
+      <c r="F39" s="10">
+        <v>-8</v>
+      </c>
+      <c r="G39" s="10">
         <v>-6</v>
       </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-      <c r="G39" s="10">
-        <v>3</v>
-      </c>
       <c r="H39" s="12">
-        <v>-1.75</v>
+        <v>-7.5</v>
       </c>
       <c r="I39" s="15">
-        <v>0.25</v>
+        <v>-7</v>
       </c>
       <c r="J39" s="16">
         <f>H39-I39</f>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D40" s="10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E40" s="10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F40" s="10">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G40" s="10">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="H40" s="35">
-        <v>-2.5</v>
+        <v>-7.75</v>
       </c>
       <c r="I40" s="36">
-        <v>0</v>
+        <v>-7.25</v>
       </c>
       <c r="J40" s="37">
         <f>H40-I40</f>
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D41" s="38">
         <f t="shared" ref="D41:I41" si="0">AVERAGE(D4:D40)</f>
-        <v>4.1891891891891895</v>
+        <v>1.6216216216216217</v>
       </c>
       <c r="E41" s="38">
         <f t="shared" si="0"/>
-        <v>3.7567567567567566</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="F41" s="38">
         <f t="shared" si="0"/>
-        <v>5.2702702702702702</v>
+        <v>2.0810810810810811</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" si="0"/>
-        <v>5.4054054054054053</v>
+        <v>4.1081081081081079</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="0"/>
-        <v>4.6554054054054053</v>
+        <v>2.1486486486486487</v>
       </c>
       <c r="I41" s="40">
         <f t="shared" si="0"/>
-        <v>3.9864864864864864</v>
+        <v>2.2702702702702702</v>
       </c>
       <c r="J41" s="41">
         <f t="shared" ref="J41" si="1">H41-I41</f>
-        <v>0.66891891891891886</v>
+        <v>-0.12162162162162149</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2275,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2290,7 +2290,9 @@
     <col min="10" max="10" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2335,384 +2337,384 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <v>97.85</v>
+        <v>-90.03</v>
       </c>
       <c r="C3" s="27">
-        <v>162</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="27">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="E3" s="27">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="F3" s="27">
-        <v>116</v>
+        <v>-217</v>
       </c>
       <c r="G3" s="28">
-        <v>0.60599999999999998</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H3" s="27">
-        <v>1218</v>
+        <v>649</v>
       </c>
       <c r="I3" s="27">
-        <v>831</v>
+        <v>1536</v>
       </c>
       <c r="J3" s="27">
-        <v>387</v>
+        <v>-887</v>
       </c>
       <c r="K3" s="29">
-        <v>0.99</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L3" s="30">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>-65.040000000000006</v>
+        <v>29.81</v>
       </c>
       <c r="C4" s="27">
-        <v>-90</v>
+        <v>-121</v>
       </c>
       <c r="D4" s="27">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="E4" s="27">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="F4" s="27">
-        <v>-92</v>
+        <v>42</v>
       </c>
       <c r="G4" s="28">
-        <v>0.40400000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="H4" s="27">
-        <v>725</v>
+        <v>1054</v>
       </c>
       <c r="I4" s="27">
-        <v>1263</v>
+        <v>1142</v>
       </c>
       <c r="J4" s="27">
-        <v>-538</v>
+        <v>-87</v>
       </c>
       <c r="K4" s="29">
-        <v>0.98</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L4" s="30">
-        <v>42782</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>223.7</v>
+        <v>20.72</v>
       </c>
       <c r="C5" s="27">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="D5" s="27">
-        <v>358</v>
+        <v>241</v>
       </c>
       <c r="E5" s="27">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="F5" s="27">
-        <v>217</v>
+        <v>-12</v>
       </c>
       <c r="G5" s="28">
-        <v>0.70899999999999996</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H5" s="27">
-        <v>1540</v>
+        <v>1106</v>
       </c>
       <c r="I5" s="27">
-        <v>697</v>
+        <v>1106</v>
       </c>
       <c r="J5" s="27">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="K5" s="29">
-        <v>1.05</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L5" s="30">
-        <v>42781</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>100.23</v>
+        <v>260.14999999999998</v>
       </c>
       <c r="C6" s="27">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="D6" s="27">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="E6" s="27">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="F6" s="27">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="G6" s="28">
-        <v>0.59599999999999997</v>
+        <v>0.749</v>
       </c>
       <c r="H6" s="27">
-        <v>1398</v>
+        <v>1719</v>
       </c>
       <c r="I6" s="27">
-        <v>752</v>
+        <v>584</v>
       </c>
       <c r="J6" s="27">
-        <v>646</v>
+        <v>1135</v>
       </c>
       <c r="K6" s="29">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="L6" s="30">
-        <v>42780</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>196.18</v>
+        <v>565.28</v>
       </c>
       <c r="C7" s="27">
-        <v>169</v>
+        <v>1140</v>
       </c>
       <c r="D7" s="27">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="E7" s="27">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="F7" s="27">
-        <v>218</v>
+        <v>357</v>
       </c>
       <c r="G7" s="28">
-        <v>0.71099999999999997</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="H7" s="27">
-        <v>1388</v>
+        <v>1769</v>
       </c>
       <c r="I7" s="27">
-        <v>578</v>
+        <v>411</v>
       </c>
       <c r="J7" s="27">
-        <v>810</v>
+        <v>1357</v>
       </c>
       <c r="K7" s="29">
-        <v>0.92</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L7" s="30">
-        <v>42779</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>225.01</v>
+        <v>-110.36</v>
       </c>
       <c r="C8" s="27">
-        <v>305</v>
+        <v>-123</v>
       </c>
       <c r="D8" s="27">
-        <v>356</v>
+        <v>162</v>
       </c>
       <c r="E8" s="27">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="F8" s="27">
-        <v>211</v>
+        <v>-175</v>
       </c>
       <c r="G8" s="28">
-        <v>0.70499999999999996</v>
+        <v>0.32</v>
       </c>
       <c r="H8" s="27">
-        <v>1305</v>
+        <v>495</v>
       </c>
       <c r="I8" s="27">
-        <v>768</v>
+        <v>1571</v>
       </c>
       <c r="J8" s="27">
-        <v>536</v>
+        <v>-1075</v>
       </c>
       <c r="K8" s="29">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="L8" s="30">
-        <v>42776</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>304.07</v>
+        <v>377.78</v>
       </c>
       <c r="C9" s="27">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="D9" s="27">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E9" s="27">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F9" s="27">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G9" s="28">
-        <v>0.754</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="H9" s="27">
-        <v>1506</v>
+        <v>1711</v>
       </c>
       <c r="I9" s="27">
-        <v>577</v>
+        <v>372</v>
       </c>
       <c r="J9" s="27">
-        <v>928</v>
+        <v>1339</v>
       </c>
       <c r="K9" s="29">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="L9" s="30">
-        <v>42775</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>132.91</v>
+        <v>91.05</v>
       </c>
       <c r="C10" s="27">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="D10" s="27">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="E10" s="27">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="F10" s="27">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="G10" s="28">
-        <v>0.60199999999999998</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="H10" s="27">
-        <v>1099</v>
+        <v>926</v>
       </c>
       <c r="I10" s="27">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="J10" s="27">
-        <v>103</v>
+        <v>-79</v>
       </c>
       <c r="K10" s="29">
         <v>0.99</v>
       </c>
       <c r="L10" s="30">
-        <v>42774</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>11.25</v>
+        <v>-177.08</v>
       </c>
       <c r="C11" s="27">
-        <v>-43</v>
+        <v>-330</v>
       </c>
       <c r="D11" s="27">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="E11" s="27">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="F11" s="27">
-        <v>-20</v>
+        <v>-94</v>
       </c>
       <c r="G11" s="28">
-        <v>0.47299999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="H11" s="27">
-        <v>828</v>
+        <v>643</v>
       </c>
       <c r="I11" s="27">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="J11" s="27">
-        <v>-412</v>
+        <v>-599</v>
       </c>
       <c r="K11" s="29">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L11" s="30">
-        <v>42773</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31">
-        <v>-106.21</v>
+        <v>441.09</v>
       </c>
       <c r="C12" s="32">
-        <v>-66</v>
+        <v>260</v>
       </c>
       <c r="D12" s="32">
-        <v>173</v>
+        <v>465</v>
       </c>
       <c r="E12" s="32">
-        <v>328</v>
+        <v>35</v>
       </c>
       <c r="F12" s="32">
-        <v>-155</v>
+        <v>430</v>
       </c>
       <c r="G12" s="33">
-        <v>0.34300000000000003</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H12" s="32">
-        <v>662</v>
+        <v>1438</v>
       </c>
       <c r="I12" s="32">
-        <v>1245</v>
+        <v>178</v>
       </c>
       <c r="J12" s="32">
-        <v>-583</v>
+        <v>1260</v>
       </c>
       <c r="K12" s="34">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="L12" s="30">
-        <v>42772</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
-        <v>1119.95</v>
+        <v>1408.41</v>
       </c>
       <c r="C13" s="19">
-        <v>1138</v>
+        <v>1890</v>
       </c>
       <c r="D13" s="19">
-        <v>2981</v>
+        <v>2945</v>
       </c>
       <c r="E13" s="19">
-        <v>2011</v>
+        <v>2043</v>
       </c>
       <c r="F13" s="19">
-        <v>970</v>
+        <v>902</v>
       </c>
       <c r="G13" s="20">
-        <v>0.59699999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="H13" s="19">
-        <v>11674</v>
+        <v>11514</v>
       </c>
       <c r="I13" s="19">
-        <v>8952</v>
+        <v>9151</v>
       </c>
       <c r="J13" s="19">
-        <v>2722</v>
+        <v>2363</v>
       </c>
       <c r="K13" s="21">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2763,384 +2765,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>39.700000000000003</v>
+        <v>28.9</v>
       </c>
       <c r="C18" s="27">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="D18" s="27">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E18" s="27">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F18" s="27">
-        <v>32</v>
+        <v>-30</v>
       </c>
       <c r="G18" s="28">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
       <c r="H18" s="27">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="I18" s="27">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="J18" s="27">
-        <v>197</v>
+        <v>-93</v>
       </c>
       <c r="K18" s="29">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="L18" s="30">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>2.5099999999999998</v>
+        <v>78.2</v>
       </c>
       <c r="C19" s="27">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D19" s="27">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E19" s="27">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F19" s="27">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="G19" s="28">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="H19" s="27">
-        <v>248</v>
+        <v>429</v>
       </c>
       <c r="I19" s="27">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="J19" s="27">
-        <v>-57</v>
+        <v>251</v>
       </c>
       <c r="K19" s="29">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="L19" s="30">
-        <v>42782</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>87.48</v>
+        <v>-15.81</v>
       </c>
       <c r="C20" s="27">
-        <v>97</v>
+        <v>-60</v>
       </c>
       <c r="D20" s="27">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E20" s="27">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F20" s="27">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="G20" s="28">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="H20" s="27">
-        <v>443</v>
+        <v>238</v>
       </c>
       <c r="I20" s="27">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="J20" s="27">
-        <v>320</v>
+        <v>-59</v>
       </c>
       <c r="K20" s="29">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="L20" s="30">
-        <v>42781</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>15.15</v>
+        <v>85.51</v>
       </c>
       <c r="C21" s="27">
+        <v>100</v>
+      </c>
+      <c r="D21" s="27">
+        <v>81</v>
+      </c>
+      <c r="E21" s="27">
         <v>19</v>
       </c>
-      <c r="D21" s="27">
-        <v>59</v>
-      </c>
-      <c r="E21" s="27">
-        <v>40</v>
-      </c>
       <c r="F21" s="27">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G21" s="28">
-        <v>0.59</v>
+        <v>0.81</v>
       </c>
       <c r="H21" s="27">
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="I21" s="27">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="J21" s="27">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="K21" s="29">
-        <v>1.06</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L21" s="30">
-        <v>42780</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>63.22</v>
+        <v>202.12</v>
       </c>
       <c r="C22" s="27">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="D22" s="27">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E22" s="27">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F22" s="27">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G22" s="28">
-        <v>0.69</v>
+        <v>0.88</v>
       </c>
       <c r="H22" s="27">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="I22" s="27">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="J22" s="27">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="K22" s="29">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="L22" s="30">
-        <v>42779</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>55.22</v>
+        <v>-25.34</v>
       </c>
       <c r="C23" s="27">
-        <v>120</v>
+        <v>-47</v>
       </c>
       <c r="D23" s="27">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E23" s="27">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F23" s="27">
-        <v>12</v>
+        <v>-23</v>
       </c>
       <c r="G23" s="28">
-        <v>0.56000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="H23" s="27">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="I23" s="27">
         <v>287</v>
       </c>
       <c r="J23" s="27">
-        <v>16</v>
+        <v>-99</v>
       </c>
       <c r="K23" s="29">
-        <v>1.0900000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="L23" s="30">
-        <v>42776</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>57.09</v>
+        <v>84.98</v>
       </c>
       <c r="C24" s="27">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D24" s="27">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E24" s="27">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F24" s="27">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G24" s="28">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="H24" s="27">
-        <v>327</v>
+        <v>408</v>
       </c>
       <c r="I24" s="27">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="J24" s="27">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="K24" s="29">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L24" s="30">
-        <v>42775</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>43.86</v>
+        <v>90.3</v>
       </c>
       <c r="C25" s="27">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="D25" s="27">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E25" s="27">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F25" s="27">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G25" s="28">
-        <v>0.57999999999999996</v>
+        <v>0.66</v>
       </c>
       <c r="H25" s="27">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="I25" s="27">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="J25" s="27">
-        <v>-3</v>
+        <v>83</v>
       </c>
       <c r="K25" s="29">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="L25" s="30">
-        <v>42774</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>45.96</v>
+        <v>-41.5</v>
       </c>
       <c r="C26" s="27">
-        <v>44</v>
+        <v>-40</v>
       </c>
       <c r="D26" s="27">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E26" s="27">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F26" s="27">
-        <v>19</v>
+        <v>-5</v>
       </c>
       <c r="G26" s="28">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="H26" s="27">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="I26" s="27">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="J26" s="27">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="K26" s="29">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="L26" s="30">
-        <v>42773</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>23.89</v>
+        <v>108.96</v>
       </c>
       <c r="C27" s="32">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D27" s="32">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E27" s="32">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F27" s="32">
-        <v>-3</v>
+        <v>84</v>
       </c>
       <c r="G27" s="33">
-        <v>0.48</v>
+        <v>0.92</v>
       </c>
       <c r="H27" s="32">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="I27" s="32">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="J27" s="32">
-        <v>-4</v>
+        <v>262</v>
       </c>
       <c r="K27" s="34">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="L27" s="30">
-        <v>42772</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
-        <v>434.08</v>
+        <v>596.32000000000005</v>
       </c>
       <c r="C28" s="19">
-        <v>621</v>
+        <v>887</v>
       </c>
       <c r="D28" s="19">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="E28" s="19">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="F28" s="19">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="G28" s="20">
-        <v>0.61599999999999999</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H28" s="19">
-        <v>3154</v>
+        <v>3236</v>
       </c>
       <c r="I28" s="19">
-        <v>2241</v>
+        <v>1862</v>
       </c>
       <c r="J28" s="19">
-        <v>913</v>
+        <v>1374</v>
       </c>
       <c r="K28" s="21">
-        <v>1.01</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3190,384 +3192,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
-        <v>-27.37</v>
+        <v>-275.88</v>
       </c>
       <c r="C33" s="27">
-        <v>-66</v>
+        <v>-362</v>
       </c>
       <c r="D33" s="27">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="E33" s="27">
-        <v>317</v>
+        <v>474</v>
       </c>
       <c r="F33" s="27">
-        <v>-63</v>
+        <v>-355</v>
       </c>
       <c r="G33" s="28">
-        <v>0.42199999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H33" s="27">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I33" s="27">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="J33" s="27">
-        <v>-23</v>
+        <v>-135</v>
       </c>
       <c r="K33" s="29">
-        <v>1.02</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L33" s="30">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>-53.01</v>
+        <v>15.8</v>
       </c>
       <c r="C34" s="27">
-        <v>-107</v>
+        <v>-17</v>
       </c>
       <c r="D34" s="27">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E34" s="27">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="F34" s="27">
-        <v>-68</v>
+        <v>-94</v>
       </c>
       <c r="G34" s="28">
-        <v>0.42199999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="H34" s="27">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I34" s="27">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="J34" s="27">
-        <v>-18</v>
+        <v>-98</v>
       </c>
       <c r="K34" s="29">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="L34" s="30">
-        <v>42782</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>144.36000000000001</v>
+        <v>167.03</v>
       </c>
       <c r="C35" s="27">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="D35" s="27">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="E35" s="27">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F35" s="27">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="G35" s="28">
-        <v>0.66100000000000003</v>
+        <v>0.752</v>
       </c>
       <c r="H35" s="27">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="I35" s="27">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="J35" s="27">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="K35" s="29">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="L35" s="30">
-        <v>42781</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>20.47</v>
+        <v>216.35</v>
       </c>
       <c r="C36" s="27">
-        <v>57</v>
+        <v>326</v>
       </c>
       <c r="D36" s="27">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="E36" s="27">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="F36" s="27">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="G36" s="28">
-        <v>0.52</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H36" s="27">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="I36" s="27">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="J36" s="27">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="K36" s="29">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="L36" s="30">
-        <v>42780</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>36.880000000000003</v>
+        <v>296.87</v>
       </c>
       <c r="C37" s="27">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="D37" s="27">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="E37" s="27">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="F37" s="27">
-        <v>66</v>
+        <v>382</v>
       </c>
       <c r="G37" s="28">
-        <v>0.54</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="H37" s="27">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="I37" s="27">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="J37" s="27">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="K37" s="29">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="L37" s="30">
-        <v>42779</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>194.5</v>
+        <v>-72.239999999999995</v>
       </c>
       <c r="C38" s="27">
-        <v>191</v>
+        <v>-117</v>
       </c>
       <c r="D38" s="27">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="E38" s="27">
-        <v>117</v>
+        <v>357</v>
       </c>
       <c r="F38" s="27">
-        <v>340</v>
+        <v>-131</v>
       </c>
       <c r="G38" s="28">
-        <v>0.75900000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="H38" s="27">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I38" s="27">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="J38" s="27">
-        <v>76</v>
+        <v>-17</v>
       </c>
       <c r="K38" s="29">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="L38" s="30">
-        <v>42776</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>322.23</v>
+        <v>327.48</v>
       </c>
       <c r="C39" s="27">
-        <v>468</v>
+        <v>372</v>
       </c>
       <c r="D39" s="27">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E39" s="27">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="27">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G39" s="28">
-        <v>0.82399999999999995</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="H39" s="27">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="I39" s="27">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J39" s="27">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K39" s="29">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="L39" s="30">
-        <v>42775</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>-37.630000000000003</v>
+        <v>120.64</v>
       </c>
       <c r="C40" s="27">
-        <v>-15</v>
+        <v>106</v>
       </c>
       <c r="D40" s="27">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="E40" s="27">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="F40" s="27">
-        <v>-118</v>
+        <v>246</v>
       </c>
       <c r="G40" s="28">
-        <v>0.38700000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="H40" s="27">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I40" s="27">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J40" s="27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" s="29">
-        <v>1.07</v>
+        <v>0.94</v>
       </c>
       <c r="L40" s="30">
-        <v>42774</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-64.44</v>
+        <v>28.01</v>
       </c>
       <c r="C41" s="27">
-        <v>-55</v>
+        <v>37</v>
       </c>
       <c r="D41" s="27">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="E41" s="27">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="F41" s="27">
-        <v>-197</v>
+        <v>68</v>
       </c>
       <c r="G41" s="28">
-        <v>0.311</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H41" s="27">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="I41" s="27">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="J41" s="27">
-        <v>-94</v>
+        <v>62</v>
       </c>
       <c r="K41" s="29">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="L41" s="30">
-        <v>42773</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31">
-        <v>-206.54</v>
+        <v>265.31</v>
       </c>
       <c r="C42" s="32">
-        <v>-192</v>
+        <v>166</v>
       </c>
       <c r="D42" s="32">
-        <v>109</v>
+        <v>505</v>
       </c>
       <c r="E42" s="32">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="F42" s="32">
-        <v>-364</v>
+        <v>427</v>
       </c>
       <c r="G42" s="33">
-        <v>0.18099999999999999</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="H42" s="32">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="I42" s="32">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="J42" s="32">
-        <v>-96</v>
+        <v>114</v>
       </c>
       <c r="K42" s="34">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L42" s="30">
-        <v>42772</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
-        <v>329.45</v>
+        <v>1089.3699999999999</v>
       </c>
       <c r="C43" s="19">
-        <v>571</v>
+        <v>1065</v>
       </c>
       <c r="D43" s="19">
-        <v>3026</v>
+        <v>3701</v>
       </c>
       <c r="E43" s="19">
-        <v>2745</v>
+        <v>2116</v>
       </c>
       <c r="F43" s="19">
-        <v>281</v>
+        <v>1585</v>
       </c>
       <c r="G43" s="20">
-        <v>0.52400000000000002</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="H43" s="19">
-        <v>1504</v>
+        <v>1888</v>
       </c>
       <c r="I43" s="19">
-        <v>1280</v>
+        <v>1365</v>
       </c>
       <c r="J43" s="19">
-        <v>224</v>
+        <v>523</v>
       </c>
       <c r="K43" s="21">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3618,384 +3620,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="26">
-        <v>159.85</v>
+        <v>-284.08</v>
       </c>
       <c r="C48" s="27">
-        <v>421</v>
+        <v>-439</v>
       </c>
       <c r="D48" s="27">
-        <v>737</v>
+        <v>393</v>
       </c>
       <c r="E48" s="27">
-        <v>620</v>
+        <v>928</v>
       </c>
       <c r="F48" s="27">
-        <v>117</v>
+        <v>-535</v>
       </c>
       <c r="G48" s="28">
-        <v>0.52600000000000002</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H48" s="27">
-        <v>1980</v>
+        <v>1168</v>
       </c>
       <c r="I48" s="27">
-        <v>1646</v>
+        <v>2499</v>
       </c>
       <c r="J48" s="27">
-        <v>334</v>
+        <v>-1331</v>
       </c>
       <c r="K48" s="29">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L48" s="30">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>-169.04</v>
+        <v>-35.869999999999997</v>
       </c>
       <c r="C49" s="27">
-        <v>-224</v>
+        <v>-378</v>
       </c>
       <c r="D49" s="27">
-        <v>541</v>
+        <v>666</v>
       </c>
       <c r="E49" s="27">
-        <v>830</v>
+        <v>649</v>
       </c>
       <c r="F49" s="27">
-        <v>-289</v>
+        <v>17</v>
       </c>
       <c r="G49" s="28">
-        <v>0.38600000000000001</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="H49" s="27">
-        <v>1287</v>
+        <v>1956</v>
       </c>
       <c r="I49" s="27">
-        <v>2432</v>
+        <v>2038</v>
       </c>
       <c r="J49" s="27">
-        <v>-1144</v>
+        <v>-82</v>
       </c>
       <c r="K49" s="29">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="L49" s="30">
-        <v>42782</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>387.95</v>
+        <v>4.67</v>
       </c>
       <c r="C50" s="27">
-        <v>551</v>
+        <v>41</v>
       </c>
       <c r="D50" s="27">
-        <v>895</v>
+        <v>694</v>
       </c>
       <c r="E50" s="27">
-        <v>481</v>
+        <v>619</v>
       </c>
       <c r="F50" s="27">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="G50" s="28">
-        <v>0.63900000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="H50" s="27">
-        <v>2522</v>
+        <v>2022</v>
       </c>
       <c r="I50" s="27">
-        <v>1339</v>
+        <v>1927</v>
       </c>
       <c r="J50" s="27">
-        <v>1183</v>
+        <v>95</v>
       </c>
       <c r="K50" s="29">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="L50" s="30">
-        <v>42781</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>190.87</v>
+        <v>496.47</v>
       </c>
       <c r="C51" s="27">
-        <v>254</v>
+        <v>815</v>
       </c>
       <c r="D51" s="27">
-        <v>849</v>
+        <v>986</v>
       </c>
       <c r="E51" s="27">
-        <v>526</v>
+        <v>332</v>
       </c>
       <c r="F51" s="27">
-        <v>323</v>
+        <v>654</v>
       </c>
       <c r="G51" s="28">
-        <v>0.60599999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="H51" s="27">
-        <v>2405</v>
+        <v>2847</v>
       </c>
       <c r="I51" s="27">
-        <v>1332</v>
+        <v>1031</v>
       </c>
       <c r="J51" s="27">
-        <v>1072</v>
+        <v>1816</v>
       </c>
       <c r="K51" s="29">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="L51" s="30">
-        <v>42780</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>291.49</v>
+        <v>848.06</v>
       </c>
       <c r="C52" s="27">
-        <v>357</v>
+        <v>1386</v>
       </c>
       <c r="D52" s="27">
-        <v>862</v>
+        <v>1089</v>
       </c>
       <c r="E52" s="27">
-        <v>513</v>
+        <v>235</v>
       </c>
       <c r="F52" s="27">
-        <v>349</v>
+        <v>854</v>
       </c>
       <c r="G52" s="28">
-        <v>0.61599999999999999</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="H52" s="27">
-        <v>2503</v>
+        <v>2902</v>
       </c>
       <c r="I52" s="27">
-        <v>1106</v>
+        <v>682</v>
       </c>
       <c r="J52" s="27">
-        <v>1396</v>
+        <v>2219</v>
       </c>
       <c r="K52" s="29">
-        <v>0.98</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L52" s="30">
-        <v>42779</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>360.61</v>
+        <v>-169.77</v>
       </c>
       <c r="C53" s="27">
-        <v>432</v>
+        <v>-183</v>
       </c>
       <c r="D53" s="27">
-        <v>959</v>
+        <v>465</v>
       </c>
       <c r="E53" s="27">
-        <v>414</v>
+        <v>845</v>
       </c>
       <c r="F53" s="27">
-        <v>545</v>
+        <v>-380</v>
       </c>
       <c r="G53" s="28">
-        <v>0.68500000000000005</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H53" s="27">
-        <v>2366</v>
+        <v>1081</v>
       </c>
       <c r="I53" s="27">
-        <v>1382</v>
+        <v>2304</v>
       </c>
       <c r="J53" s="27">
-        <v>984</v>
+        <v>-1222</v>
       </c>
       <c r="K53" s="29">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="L53" s="30">
-        <v>42776</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>641.07000000000005</v>
+        <v>617.27</v>
       </c>
       <c r="C54" s="27">
-        <v>853</v>
+        <v>559</v>
       </c>
       <c r="D54" s="27">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E54" s="27">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="F54" s="27">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="G54" s="28">
-        <v>0.72799999999999998</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H54" s="27">
-        <v>2657</v>
+        <v>2715</v>
       </c>
       <c r="I54" s="27">
-        <v>1240</v>
+        <v>828</v>
       </c>
       <c r="J54" s="27">
-        <v>1416</v>
+        <v>1886</v>
       </c>
       <c r="K54" s="29">
         <v>1.07</v>
       </c>
       <c r="L54" s="30">
-        <v>42775</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>255.08</v>
+        <v>75.25</v>
       </c>
       <c r="C55" s="27">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="D55" s="27">
-        <v>788</v>
+        <v>712</v>
       </c>
       <c r="E55" s="27">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="F55" s="27">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="G55" s="28">
-        <v>0.56299999999999994</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="H55" s="27">
-        <v>2227</v>
+        <v>1591</v>
       </c>
       <c r="I55" s="27">
-        <v>1602</v>
+        <v>1669</v>
       </c>
       <c r="J55" s="27">
-        <v>625</v>
+        <v>-78</v>
       </c>
       <c r="K55" s="29">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L55" s="30">
-        <v>42774</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>-96.67</v>
+        <v>-218.14</v>
       </c>
       <c r="C56" s="27">
-        <v>-177</v>
+        <v>-365</v>
       </c>
       <c r="D56" s="27">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E56" s="27">
-        <v>789</v>
+        <v>732</v>
       </c>
       <c r="F56" s="27">
-        <v>-216</v>
+        <v>-152</v>
       </c>
       <c r="G56" s="28">
-        <v>0.40899999999999997</v>
+        <v>0.43</v>
       </c>
       <c r="H56" s="27">
-        <v>1421</v>
+        <v>1205</v>
       </c>
       <c r="I56" s="27">
-        <v>2291</v>
+        <v>1935</v>
       </c>
       <c r="J56" s="27">
-        <v>-869</v>
+        <v>-729</v>
       </c>
       <c r="K56" s="29">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="L56" s="30">
-        <v>42773</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="31">
-        <v>-204.19</v>
+        <v>661.86</v>
       </c>
       <c r="C57" s="32">
-        <v>-122</v>
+        <v>416</v>
       </c>
       <c r="D57" s="32">
-        <v>476</v>
+        <v>1137</v>
       </c>
       <c r="E57" s="32">
-        <v>896</v>
+        <v>180</v>
       </c>
       <c r="F57" s="32">
-        <v>-420</v>
+        <v>957</v>
       </c>
       <c r="G57" s="33">
-        <v>0.34</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H57" s="32">
-        <v>1290</v>
+        <v>2341</v>
       </c>
       <c r="I57" s="32">
-        <v>2026</v>
+        <v>374</v>
       </c>
       <c r="J57" s="32">
-        <v>-736</v>
+        <v>1966</v>
       </c>
       <c r="K57" s="34">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="L57" s="30">
-        <v>42772</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
-        <v>1817.02</v>
+        <v>1995.72</v>
       </c>
       <c r="C58" s="19">
-        <v>2667</v>
+        <v>1888</v>
       </c>
       <c r="D58" s="19">
-        <v>7699</v>
+        <v>7743</v>
       </c>
       <c r="E58" s="19">
-        <v>6002</v>
+        <v>5419</v>
       </c>
       <c r="F58" s="19">
-        <v>1697</v>
+        <v>2324</v>
       </c>
       <c r="G58" s="20">
-        <v>0.56200000000000006</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="H58" s="19">
-        <v>20663</v>
+        <v>19832</v>
       </c>
       <c r="I58" s="19">
-        <v>16400</v>
+        <v>15293</v>
       </c>
       <c r="J58" s="19">
-        <v>4263</v>
+        <v>4539</v>
       </c>
       <c r="K58" s="21">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4048,290 +4050,290 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
-        <v>1.95</v>
+        <v>-6.97</v>
       </c>
       <c r="C63" s="27">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D63" s="27">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E63" s="27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F63" s="27">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="G63" s="28">
-        <v>0.63200000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H63" s="27">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="I63" s="27">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="J63" s="27">
-        <v>148</v>
+        <v>-158</v>
       </c>
       <c r="K63" s="29">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="L63" s="30">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>-3.79</v>
+        <v>0.79</v>
       </c>
       <c r="C64" s="27">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D64" s="27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E64" s="27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F64" s="27">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="G64" s="28">
-        <v>0.316</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H64" s="27">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="I64" s="27">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="J64" s="27">
-        <v>-178</v>
+        <v>-29</v>
       </c>
       <c r="K64" s="29">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="L64" s="30">
-        <v>42782</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>12.54</v>
+        <v>2.13</v>
       </c>
       <c r="C65" s="27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D65" s="27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E65" s="27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" s="27">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="G65" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H65" s="27">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="I65" s="27">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="J65" s="27">
-        <v>223</v>
+        <v>-149</v>
       </c>
       <c r="K65" s="29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="L65" s="30">
-        <v>42781</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>9.01</v>
+        <v>14.96</v>
       </c>
       <c r="C66" s="27">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="27">
+        <v>17</v>
+      </c>
+      <c r="E66" s="27">
+        <v>2</v>
+      </c>
+      <c r="F66" s="27">
         <v>15</v>
       </c>
-      <c r="E66" s="27">
-        <v>4</v>
-      </c>
-      <c r="F66" s="27">
-        <v>11</v>
-      </c>
       <c r="G66" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H66" s="27">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="I66" s="27">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J66" s="27">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="K66" s="29">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="L66" s="30">
-        <v>42780</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>9.5</v>
+        <v>21.35</v>
       </c>
       <c r="C67" s="27">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D67" s="27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" s="27">
         <v>1</v>
       </c>
       <c r="F67" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H67" s="27">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="I67" s="27">
         <v>1</v>
       </c>
       <c r="J67" s="27">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="K67" s="29">
-        <v>0.99</v>
+        <v>1.17</v>
       </c>
       <c r="L67" s="30">
-        <v>42779</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>8.3800000000000008</v>
+        <v>-6.42</v>
       </c>
       <c r="C68" s="27">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="D68" s="27">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E68" s="27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F68" s="27">
-        <v>17</v>
+        <v>-13</v>
       </c>
       <c r="G68" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.158</v>
       </c>
       <c r="H68" s="27">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I68" s="27">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J68" s="27">
-        <v>230</v>
+        <v>-294</v>
       </c>
       <c r="K68" s="29">
-        <v>0.86</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L68" s="30">
-        <v>42776</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>14.15</v>
+        <v>15.17</v>
       </c>
       <c r="C69" s="27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D69" s="27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" s="27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G69" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H69" s="27">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="I69" s="27">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J69" s="27">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="K69" s="29">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="L69" s="30">
-        <v>42775</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>0.63</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C70" s="27">
         <v>0</v>
       </c>
       <c r="D70" s="27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" s="28">
-        <v>0.57899999999999996</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H70" s="27">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="I70" s="27">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="J70" s="27">
-        <v>10</v>
+        <v>-92</v>
       </c>
       <c r="K70" s="29">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="L70" s="30">
-        <v>42774</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>-2.71</v>
+        <v>-6.37</v>
       </c>
       <c r="C71" s="27">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D71" s="27">
         <v>8</v>
@@ -4346,86 +4348,86 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="H71" s="27">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="I71" s="27">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="J71" s="27">
-        <v>10</v>
+        <v>-155</v>
       </c>
       <c r="K71" s="29">
         <v>0.9</v>
       </c>
       <c r="L71" s="30">
-        <v>42773</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="31">
-        <v>-4.42</v>
+        <v>14.88</v>
       </c>
       <c r="C72" s="32">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D72" s="32">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E72" s="32">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F72" s="32">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="G72" s="33">
-        <v>0.26300000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H72" s="32">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="I72" s="32">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="J72" s="32">
-        <v>-137</v>
+        <v>259</v>
       </c>
       <c r="K72" s="34">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="L72" s="30">
-        <v>42772</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="18">
-        <v>45.24</v>
+        <v>49.38</v>
       </c>
       <c r="C73" s="19">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D73" s="19">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E73" s="19">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F73" s="19">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G73" s="20">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="H73" s="19">
-        <v>1795</v>
+        <v>1638</v>
       </c>
       <c r="I73" s="19">
-        <v>778</v>
+        <v>1354</v>
       </c>
       <c r="J73" s="19">
-        <v>1017</v>
+        <v>284</v>
       </c>
       <c r="K73" s="21">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -318,19 +318,19 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 2.80 Points per Component with overall change of -2.37% from closing price 2384.20 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 5.96 Points per Component with overall change of -4.30% from closing price 5583.53 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.81 Points per Component with overall change of -4.38% from closing price 851.36 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.48 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 2.60 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 2.51 Points per Component with overall change of -2.15% from closing price 2399.29 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 5.67 Points per Component with overall change of -3.75% from closing price 5646.09 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.54 Points per Component with overall change of -1.14% from closing price 848.96 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.12 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.98 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1131,91 +1131,91 @@
         <v>5</v>
       </c>
       <c r="E4" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="9">
         <v>8</v>
       </c>
       <c r="G4" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="13">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="J4" s="14">
         <f>H4-I4</f>
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D5" s="10">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
         <v>4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>6</v>
       </c>
       <c r="F5" s="10">
         <v>6</v>
       </c>
       <c r="G5" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="12">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I5" s="15">
         <v>6.5</v>
       </c>
       <c r="J5" s="16">
         <f>H5-I5</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10">
         <v>4</v>
       </c>
       <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10">
         <v>7</v>
       </c>
-      <c r="G6" s="10">
-        <v>10</v>
-      </c>
       <c r="H6" s="12">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I6" s="15">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J6" s="16">
         <f>H6-I6</f>
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D7" s="10">
         <v>5</v>
@@ -1224,16 +1224,16 @@
         <v>5</v>
       </c>
       <c r="F7" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="10">
         <v>7</v>
       </c>
       <c r="H7" s="12">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I7" s="15">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" s="16">
         <f>H7-I7</f>
@@ -1242,169 +1242,169 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8" s="12">
         <v>5.25</v>
       </c>
       <c r="I8" s="15">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J8" s="16">
         <f>H8-I8</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10">
         <v>7</v>
-      </c>
-      <c r="G9" s="10">
-        <v>9</v>
       </c>
       <c r="H9" s="12">
         <v>5</v>
       </c>
       <c r="I9" s="15">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="J9" s="16">
         <f>H9-I9</f>
-        <v>0.25</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10">
         <v>7</v>
       </c>
-      <c r="G10" s="10">
-        <v>6</v>
-      </c>
       <c r="H10" s="12">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" s="15">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" s="16">
         <f>H10-I10</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D11" s="10">
         <v>5</v>
       </c>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="10">
-        <v>6</v>
-      </c>
       <c r="H11" s="12">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I11" s="15">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="J11" s="16">
         <f>H11-I11</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H12" s="12">
         <v>4.75</v>
       </c>
       <c r="I12" s="15">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="J12" s="16">
         <f>H12-I12</f>
-        <v>0.75</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D13" s="10">
         <v>4</v>
       </c>
       <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10">
         <v>5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>4</v>
       </c>
       <c r="G13" s="10">
         <v>6</v>
@@ -1413,199 +1413,199 @@
         <v>4.75</v>
       </c>
       <c r="I13" s="15">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="J13" s="16">
         <f>H13-I13</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="10">
         <v>5</v>
       </c>
       <c r="G14" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" s="12">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" s="15">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J14" s="16">
         <f>H14-I14</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="10">
         <v>6</v>
       </c>
       <c r="H15" s="12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I15" s="15">
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
       <c r="J15" s="16">
         <f>H15-I15</f>
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10">
         <v>5</v>
       </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>4</v>
-      </c>
       <c r="G16" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="12">
         <v>4</v>
       </c>
       <c r="I16" s="15">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="J16" s="16">
         <f>H16-I16</f>
-        <v>1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D17" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F17" s="10">
         <v>3</v>
       </c>
       <c r="G17" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I17" s="15">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="J17" s="16">
         <f>H17-I17</f>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" s="12">
         <v>3.5</v>
       </c>
       <c r="I18" s="15">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="J18" s="16">
         <f>H18-I18</f>
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D19" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I19" s="15">
         <v>4</v>
       </c>
       <c r="J19" s="16">
         <f>H19-I19</f>
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="10">
         <v>3</v>
@@ -1623,211 +1623,211 @@
         <v>3.25</v>
       </c>
       <c r="I20" s="15">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J20" s="16">
         <f>H20-I20</f>
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>6</v>
+      </c>
+      <c r="H21" s="12">
         <v>3</v>
       </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10">
-        <v>3</v>
-      </c>
-      <c r="G21" s="10">
-        <v>4</v>
-      </c>
-      <c r="H21" s="12">
-        <v>3.25</v>
-      </c>
       <c r="I21" s="15">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="J21" s="16">
         <f>H21-I21</f>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>3</v>
-      </c>
       <c r="G22" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I22" s="15">
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="J22" s="16">
         <f>H22-I22</f>
-        <v>-0.5</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="10">
-        <v>3</v>
-      </c>
       <c r="G23" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I23" s="15">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="J23" s="16">
         <f>H23-I23</f>
-        <v>1.75</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="10">
         <v>2</v>
       </c>
       <c r="F24" s="10">
+        <v>2</v>
+      </c>
+      <c r="G24" s="10">
         <v>3</v>
       </c>
-      <c r="G24" s="10">
-        <v>4</v>
-      </c>
       <c r="H24" s="12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="I24" s="15">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="J24" s="16">
         <f>H24-I24</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
         <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10">
-        <v>3</v>
       </c>
       <c r="G25" s="10">
         <v>3</v>
       </c>
       <c r="H25" s="12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I25" s="15">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="J25" s="16">
         <f>H25-I25</f>
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
       </c>
       <c r="F26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10">
         <v>4</v>
       </c>
       <c r="H26" s="12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I26" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" s="16">
         <f>H26-I26</f>
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F27" s="10">
         <v>2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>4</v>
-      </c>
-      <c r="G27" s="10">
-        <v>2</v>
       </c>
       <c r="H27" s="12">
         <v>2.25</v>
@@ -1842,242 +1842,242 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D28" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
       <c r="G28" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H28" s="12">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="I28" s="15">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J28" s="16">
         <f>H28-I28</f>
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D29" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
       </c>
       <c r="G29" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H29" s="12">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="I29" s="15">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="J29" s="16">
         <f>H29-I29</f>
-        <v>0</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D30" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3</v>
+      </c>
+      <c r="G30" s="10">
         <v>1</v>
       </c>
-      <c r="F30" s="10">
+      <c r="H30" s="12">
         <v>1</v>
       </c>
-      <c r="G30" s="10">
-        <v>2</v>
-      </c>
-      <c r="H30" s="12">
-        <v>2</v>
-      </c>
       <c r="I30" s="15">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="J30" s="16">
         <f>H30-I30</f>
-        <v>2.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J31" s="16">
         <f>H31-I31</f>
-        <v>1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H32" s="12">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="I32" s="15">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="J32" s="16">
         <f>H32-I32</f>
-        <v>-0.25</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D33" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>-3</v>
+      </c>
+      <c r="G33" s="10">
         <v>-2</v>
       </c>
-      <c r="F33" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>5</v>
-      </c>
       <c r="H33" s="12">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="I33" s="15">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="J33" s="16">
         <f>H33-I33</f>
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D34" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E34" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F34" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="12">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="I34" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J34" s="16">
         <f>H34-I34</f>
-        <v>0</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D35" s="10">
+        <v>-2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F35" s="10">
         <v>-4</v>
       </c>
-      <c r="E35" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
+        <v>3</v>
+      </c>
+      <c r="H35" s="12">
+        <v>-1.5</v>
+      </c>
+      <c r="I35" s="15">
         <v>2</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="I35" s="15">
-        <v>5.5</v>
       </c>
       <c r="J35" s="16">
         <f>H35-I35</f>
-        <v>-6.25</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -2088,7 +2088,7 @@
         <v>81</v>
       </c>
       <c r="D36" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="10">
         <v>-3</v>
@@ -2100,14 +2100,14 @@
         <v>-4</v>
       </c>
       <c r="H36" s="12">
-        <v>-2.75</v>
+        <v>-2.5</v>
       </c>
       <c r="I36" s="15">
-        <v>-1</v>
+        <v>-4.25</v>
       </c>
       <c r="J36" s="16">
         <f>H36-I36</f>
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -2118,26 +2118,26 @@
         <v>79</v>
       </c>
       <c r="D37" s="10">
+        <v>-4</v>
+      </c>
+      <c r="E37" s="10">
         <v>-5</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="10">
         <v>-6</v>
       </c>
-      <c r="F37" s="10">
-        <v>-5</v>
-      </c>
       <c r="G37" s="10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H37" s="12">
         <v>-4.75</v>
       </c>
       <c r="I37" s="15">
-        <v>-4.25</v>
+        <v>-4.75</v>
       </c>
       <c r="J37" s="16">
         <f>H37-I37</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
         <v>77</v>
       </c>
       <c r="D38" s="10">
+        <v>-5</v>
+      </c>
+      <c r="E38" s="10">
         <v>-7</v>
-      </c>
-      <c r="E38" s="10">
-        <v>-8</v>
       </c>
       <c r="F38" s="10">
         <v>-8</v>
@@ -2160,14 +2160,14 @@
         <v>-5</v>
       </c>
       <c r="H38" s="12">
-        <v>-7</v>
+        <v>-6.25</v>
       </c>
       <c r="I38" s="15">
         <v>-7</v>
       </c>
       <c r="J38" s="16">
         <f>H38-I38</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -2178,26 +2178,26 @@
         <v>59</v>
       </c>
       <c r="D39" s="10">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E39" s="10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F39" s="10">
         <v>-8</v>
       </c>
       <c r="G39" s="10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H39" s="12">
-        <v>-7.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I39" s="15">
         <v>-7</v>
       </c>
       <c r="J39" s="16">
         <f>H39-I39</f>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2208,56 +2208,56 @@
         <v>78</v>
       </c>
       <c r="D40" s="10">
+        <v>-8</v>
+      </c>
+      <c r="E40" s="10">
+        <v>-10</v>
+      </c>
+      <c r="F40" s="10">
         <v>-9</v>
       </c>
-      <c r="E40" s="10">
-        <v>-9</v>
-      </c>
-      <c r="F40" s="10">
-        <v>-8</v>
-      </c>
       <c r="G40" s="10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H40" s="35">
-        <v>-7.75</v>
+        <v>-8.25</v>
       </c>
       <c r="I40" s="36">
         <v>-7.25</v>
       </c>
       <c r="J40" s="37">
         <f>H40-I40</f>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D41" s="38">
         <f t="shared" ref="D41:I41" si="0">AVERAGE(D4:D40)</f>
-        <v>1.6216216216216217</v>
+        <v>1.9459459459459461</v>
       </c>
       <c r="E41" s="38">
         <f t="shared" si="0"/>
-        <v>0.78378378378378377</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="F41" s="38">
         <f t="shared" si="0"/>
-        <v>2.0810810810810811</v>
+        <v>1.4594594594594594</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" si="0"/>
-        <v>4.1081081081081079</v>
+        <v>3.6756756756756759</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="0"/>
-        <v>2.1486486486486487</v>
+        <v>1.8581081081081081</v>
       </c>
       <c r="I41" s="40">
         <f t="shared" si="0"/>
-        <v>2.2702702702702702</v>
+        <v>2.9729729729729728</v>
       </c>
       <c r="J41" s="41">
         <f t="shared" ref="J41" si="1">H41-I41</f>
-        <v>-0.12162162162162149</v>
+        <v>-1.1148648648648647</v>
       </c>
     </row>
   </sheetData>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2337,384 +2337,384 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <v>-90.03</v>
+        <v>230.74</v>
       </c>
       <c r="C3" s="27">
-        <v>-1</v>
+        <v>237</v>
       </c>
       <c r="D3" s="27">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="E3" s="27">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="F3" s="27">
-        <v>-217</v>
+        <v>235</v>
       </c>
       <c r="G3" s="28">
-        <v>0.27900000000000003</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H3" s="27">
-        <v>649</v>
+        <v>1342</v>
       </c>
       <c r="I3" s="27">
-        <v>1536</v>
+        <v>478</v>
       </c>
       <c r="J3" s="27">
-        <v>-887</v>
+        <v>863</v>
       </c>
       <c r="K3" s="29">
-        <v>1.1299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L3" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>29.81</v>
+        <v>149.57</v>
       </c>
       <c r="C4" s="27">
-        <v>-121</v>
+        <v>247</v>
       </c>
       <c r="D4" s="27">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E4" s="27">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F4" s="27">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G4" s="28">
-        <v>0.53200000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="H4" s="27">
-        <v>1054</v>
+        <v>903</v>
       </c>
       <c r="I4" s="27">
-        <v>1142</v>
+        <v>1326</v>
       </c>
       <c r="J4" s="27">
-        <v>-87</v>
+        <v>-422</v>
       </c>
       <c r="K4" s="29">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L4" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>20.72</v>
+        <v>-108.74</v>
       </c>
       <c r="C5" s="27">
-        <v>108</v>
+        <v>-249</v>
       </c>
       <c r="D5" s="27">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E5" s="27">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F5" s="27">
-        <v>-12</v>
+        <v>-94</v>
       </c>
       <c r="G5" s="28">
-        <v>0.47599999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="H5" s="27">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="I5" s="27">
-        <v>1106</v>
+        <v>1143</v>
       </c>
       <c r="J5" s="27">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="K5" s="29">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L5" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>260.14999999999998</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="C6" s="27">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="D6" s="27">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="E6" s="27">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F6" s="27">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="G6" s="28">
-        <v>0.749</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="H6" s="27">
-        <v>1719</v>
+        <v>1069</v>
       </c>
       <c r="I6" s="27">
-        <v>584</v>
+        <v>1326</v>
       </c>
       <c r="J6" s="27">
-        <v>1135</v>
+        <v>-257</v>
       </c>
       <c r="K6" s="29">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="L6" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>565.28</v>
+        <v>51.41</v>
       </c>
       <c r="C7" s="27">
-        <v>1140</v>
+        <v>52</v>
       </c>
       <c r="D7" s="27">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="E7" s="27">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="F7" s="27">
-        <v>357</v>
+        <v>-38</v>
       </c>
       <c r="G7" s="28">
-        <v>0.84599999999999997</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H7" s="27">
-        <v>1769</v>
+        <v>993</v>
       </c>
       <c r="I7" s="27">
-        <v>411</v>
+        <v>873</v>
       </c>
       <c r="J7" s="27">
-        <v>1357</v>
+        <v>120</v>
       </c>
       <c r="K7" s="29">
-        <v>1.1499999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="L7" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>-110.36</v>
+        <v>-90.03</v>
       </c>
       <c r="C8" s="27">
-        <v>-123</v>
+        <v>-15</v>
       </c>
       <c r="D8" s="27">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E8" s="27">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F8" s="27">
-        <v>-175</v>
+        <v>-217</v>
       </c>
       <c r="G8" s="28">
-        <v>0.32</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H8" s="27">
-        <v>495</v>
+        <v>649</v>
       </c>
       <c r="I8" s="27">
-        <v>1571</v>
+        <v>1536</v>
       </c>
       <c r="J8" s="27">
-        <v>-1075</v>
+        <v>-887</v>
       </c>
       <c r="K8" s="29">
-        <v>1.06</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L8" s="30">
-        <v>42846</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>377.78</v>
+        <v>29.81</v>
       </c>
       <c r="C9" s="27">
-        <v>446</v>
+        <v>-88</v>
       </c>
       <c r="D9" s="27">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="E9" s="27">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="F9" s="27">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="G9" s="28">
-        <v>0.78700000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="H9" s="27">
-        <v>1711</v>
+        <v>1054</v>
       </c>
       <c r="I9" s="27">
-        <v>372</v>
+        <v>1142</v>
       </c>
       <c r="J9" s="27">
-        <v>1339</v>
+        <v>-87</v>
       </c>
       <c r="K9" s="29">
-        <v>1.06</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L9" s="30">
-        <v>42845</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>91.05</v>
+        <v>20.72</v>
       </c>
       <c r="C10" s="27">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D10" s="27">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E10" s="27">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F10" s="27">
-        <v>19</v>
+        <v>-12</v>
       </c>
       <c r="G10" s="28">
-        <v>0.51400000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H10" s="27">
-        <v>926</v>
+        <v>1106</v>
       </c>
       <c r="I10" s="27">
-        <v>1005</v>
+        <v>1106</v>
       </c>
       <c r="J10" s="27">
-        <v>-79</v>
+        <v>0</v>
       </c>
       <c r="K10" s="29">
-        <v>0.99</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L10" s="30">
-        <v>42844</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>-177.08</v>
+        <v>260.14999999999998</v>
       </c>
       <c r="C11" s="27">
-        <v>-330</v>
+        <v>312</v>
       </c>
       <c r="D11" s="27">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="E11" s="27">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="F11" s="27">
-        <v>-94</v>
+        <v>257</v>
       </c>
       <c r="G11" s="28">
-        <v>0.39900000000000002</v>
+        <v>0.749</v>
       </c>
       <c r="H11" s="27">
-        <v>643</v>
+        <v>1719</v>
       </c>
       <c r="I11" s="27">
-        <v>1242</v>
+        <v>584</v>
       </c>
       <c r="J11" s="27">
-        <v>-599</v>
+        <v>1135</v>
       </c>
       <c r="K11" s="29">
-        <v>0.96</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L11" s="30">
-        <v>42843</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31">
-        <v>441.09</v>
+        <v>565.28</v>
       </c>
       <c r="C12" s="32">
-        <v>260</v>
+        <v>1076</v>
       </c>
       <c r="D12" s="32">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E12" s="32">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F12" s="32">
-        <v>430</v>
+        <v>357</v>
       </c>
       <c r="G12" s="33">
-        <v>0.91900000000000004</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="H12" s="32">
-        <v>1438</v>
+        <v>1769</v>
       </c>
       <c r="I12" s="32">
-        <v>178</v>
+        <v>411</v>
       </c>
       <c r="J12" s="32">
-        <v>1260</v>
+        <v>1357</v>
       </c>
       <c r="K12" s="34">
-        <v>0.82</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L12" s="30">
-        <v>42842</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
-        <v>1408.41</v>
+        <v>1264.21</v>
       </c>
       <c r="C13" s="19">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D13" s="19">
-        <v>2945</v>
+        <v>2825</v>
       </c>
       <c r="E13" s="19">
-        <v>2043</v>
+        <v>2153</v>
       </c>
       <c r="F13" s="19">
-        <v>902</v>
+        <v>672</v>
       </c>
       <c r="G13" s="20">
-        <v>0.59</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="H13" s="19">
-        <v>11514</v>
+        <v>11734</v>
       </c>
       <c r="I13" s="19">
-        <v>9151</v>
+        <v>9929</v>
       </c>
       <c r="J13" s="19">
-        <v>2363</v>
+        <v>1805</v>
       </c>
       <c r="K13" s="21">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2765,384 +2765,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>28.9</v>
+        <v>24.31</v>
       </c>
       <c r="C18" s="27">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="D18" s="27">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E18" s="27">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F18" s="27">
-        <v>-30</v>
+        <v>36</v>
       </c>
       <c r="G18" s="28">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="H18" s="27">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="I18" s="27">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="J18" s="27">
-        <v>-93</v>
+        <v>200</v>
       </c>
       <c r="K18" s="29">
-        <v>1.4</v>
+        <v>0.94</v>
       </c>
       <c r="L18" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>78.2</v>
+        <v>65.58</v>
       </c>
       <c r="C19" s="27">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="27">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E19" s="27">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F19" s="27">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G19" s="28">
-        <v>0.68</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H19" s="27">
-        <v>429</v>
+        <v>211</v>
       </c>
       <c r="I19" s="27">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="J19" s="27">
-        <v>251</v>
+        <v>-75</v>
       </c>
       <c r="K19" s="29">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="L19" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-15.81</v>
+        <v>-49.37</v>
       </c>
       <c r="C20" s="27">
-        <v>-60</v>
+        <v>-184</v>
       </c>
       <c r="D20" s="27">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E20" s="27">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F20" s="27">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="G20" s="28">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="H20" s="27">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="I20" s="27">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="J20" s="27">
-        <v>-59</v>
+        <v>-140</v>
       </c>
       <c r="K20" s="29">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="L20" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>85.51</v>
+        <v>48.84</v>
       </c>
       <c r="C21" s="27">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D21" s="27">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E21" s="27">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F21" s="27">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G21" s="28">
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="H21" s="27">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="I21" s="27">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="J21" s="27">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="K21" s="29">
-        <v>1.1599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="L21" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>202.12</v>
+        <v>98.3</v>
       </c>
       <c r="C22" s="27">
-        <v>347</v>
+        <v>122</v>
       </c>
       <c r="D22" s="27">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E22" s="27">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F22" s="27">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G22" s="28">
-        <v>0.88</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H22" s="27">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="I22" s="27">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J22" s="27">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="K22" s="29">
-        <v>1.19</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L22" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>-25.34</v>
+        <v>28.9</v>
       </c>
       <c r="C23" s="27">
-        <v>-47</v>
+        <v>130</v>
       </c>
       <c r="D23" s="27">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="27">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F23" s="27">
-        <v>-23</v>
+        <v>-30</v>
       </c>
       <c r="G23" s="28">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="H23" s="27">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="I23" s="27">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="J23" s="27">
-        <v>-99</v>
+        <v>-93</v>
       </c>
       <c r="K23" s="29">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="L23" s="30">
-        <v>42846</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>84.98</v>
+        <v>78.2</v>
       </c>
       <c r="C24" s="27">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D24" s="27">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E24" s="27">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F24" s="27">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G24" s="28">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="H24" s="27">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="I24" s="27">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="J24" s="27">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="K24" s="29">
-        <v>1.0900000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="L24" s="30">
-        <v>42845</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>90.3</v>
+        <v>-15.81</v>
       </c>
       <c r="C25" s="27">
-        <v>204</v>
+        <v>-60</v>
       </c>
       <c r="D25" s="27">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E25" s="27">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F25" s="27">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G25" s="28">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="H25" s="27">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="I25" s="27">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="J25" s="27">
-        <v>83</v>
+        <v>-59</v>
       </c>
       <c r="K25" s="29">
-        <v>1.06</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L25" s="30">
-        <v>42844</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>-41.5</v>
+        <v>85.51</v>
       </c>
       <c r="C26" s="27">
-        <v>-40</v>
+        <v>95</v>
       </c>
       <c r="D26" s="27">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E26" s="27">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F26" s="27">
-        <v>-5</v>
+        <v>62</v>
       </c>
       <c r="G26" s="28">
-        <v>0.47</v>
+        <v>0.81</v>
       </c>
       <c r="H26" s="27">
-        <v>197</v>
+        <v>463</v>
       </c>
       <c r="I26" s="27">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="J26" s="27">
-        <v>8</v>
+        <v>378</v>
       </c>
       <c r="K26" s="29">
-        <v>0.83</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L26" s="30">
-        <v>42843</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>108.96</v>
+        <v>202.12</v>
       </c>
       <c r="C27" s="32">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="D27" s="32">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F27" s="32">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" s="33">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="H27" s="32">
-        <v>307</v>
+        <v>430</v>
       </c>
       <c r="I27" s="32">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="J27" s="32">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K27" s="34">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="L27" s="30">
-        <v>42842</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
-        <v>596.32000000000005</v>
+        <v>566.58000000000004</v>
       </c>
       <c r="C28" s="19">
-        <v>887</v>
+        <v>739</v>
       </c>
       <c r="D28" s="19">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="E28" s="19">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="F28" s="19">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="G28" s="20">
-        <v>0.65600000000000003</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="H28" s="19">
-        <v>3236</v>
+        <v>3281</v>
       </c>
       <c r="I28" s="19">
-        <v>1862</v>
+        <v>2229</v>
       </c>
       <c r="J28" s="19">
-        <v>1374</v>
+        <v>1052</v>
       </c>
       <c r="K28" s="21">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3192,384 +3192,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
-        <v>-275.88</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="C33" s="27">
-        <v>-362</v>
+        <v>67</v>
       </c>
       <c r="D33" s="27">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="E33" s="27">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="F33" s="27">
-        <v>-355</v>
+        <v>153</v>
       </c>
       <c r="G33" s="28">
-        <v>0.19700000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="H33" s="27">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="I33" s="27">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="J33" s="27">
-        <v>-135</v>
+        <v>184</v>
       </c>
       <c r="K33" s="29">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L33" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>15.8</v>
+        <v>-25.81</v>
       </c>
       <c r="C34" s="27">
-        <v>-17</v>
+        <v>-52</v>
       </c>
       <c r="D34" s="27">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E34" s="27">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F34" s="27">
-        <v>-94</v>
+        <v>-42</v>
       </c>
       <c r="G34" s="28">
-        <v>0.40400000000000003</v>
+        <v>0.443</v>
       </c>
       <c r="H34" s="27">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I34" s="27">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="J34" s="27">
-        <v>-98</v>
+        <v>-114</v>
       </c>
       <c r="K34" s="29">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="L34" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>167.03</v>
+        <v>-163.41</v>
       </c>
       <c r="C35" s="27">
-        <v>246</v>
+        <v>-245</v>
       </c>
       <c r="D35" s="27">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="E35" s="27">
-        <v>126</v>
+        <v>396</v>
       </c>
       <c r="F35" s="27">
-        <v>328</v>
+        <v>-214</v>
       </c>
       <c r="G35" s="28">
-        <v>0.752</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="H35" s="27">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="I35" s="27">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="J35" s="27">
-        <v>142</v>
+        <v>-118</v>
       </c>
       <c r="K35" s="29">
-        <v>1.25</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L35" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>216.35</v>
+        <v>-94.29</v>
       </c>
       <c r="C36" s="27">
-        <v>326</v>
+        <v>-219</v>
       </c>
       <c r="D36" s="27">
-        <v>443</v>
+        <v>235</v>
       </c>
       <c r="E36" s="27">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="F36" s="27">
-        <v>298</v>
+        <v>-102</v>
       </c>
       <c r="G36" s="28">
-        <v>0.73299999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="H36" s="27">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="I36" s="27">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="J36" s="27">
-        <v>73</v>
+        <v>-52</v>
       </c>
       <c r="K36" s="29">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L36" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>296.87</v>
+        <v>104.03</v>
       </c>
       <c r="C37" s="27">
-        <v>308</v>
+        <v>94</v>
       </c>
       <c r="D37" s="27">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="E37" s="27">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="F37" s="27">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="G37" s="28">
-        <v>0.79600000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="H37" s="27">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="I37" s="27">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="J37" s="27">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="K37" s="29">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="L37" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>-72.239999999999995</v>
+        <v>-277.79000000000002</v>
       </c>
       <c r="C38" s="27">
-        <v>-117</v>
+        <v>-357</v>
       </c>
       <c r="D38" s="27">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="E38" s="27">
-        <v>357</v>
+        <v>474</v>
       </c>
       <c r="F38" s="27">
-        <v>-131</v>
+        <v>-355</v>
       </c>
       <c r="G38" s="28">
-        <v>0.374</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H38" s="27">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="I38" s="27">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="J38" s="27">
-        <v>-17</v>
+        <v>-135</v>
       </c>
       <c r="K38" s="29">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="L38" s="30">
-        <v>42846</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>327.48</v>
+        <v>21.52</v>
       </c>
       <c r="C39" s="27">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="D39" s="27">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="E39" s="27">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="F39" s="27">
-        <v>416</v>
+        <v>-91</v>
       </c>
       <c r="G39" s="28">
-        <v>0.82799999999999996</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H39" s="27">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="I39" s="27">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="J39" s="27">
-        <v>187</v>
+        <v>-93</v>
       </c>
       <c r="K39" s="29">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="L39" s="30">
-        <v>42845</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>120.64</v>
+        <v>167.62</v>
       </c>
       <c r="C40" s="27">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="D40" s="27">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="E40" s="27">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F40" s="27">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="G40" s="28">
-        <v>0.67400000000000004</v>
+        <v>0.753</v>
       </c>
       <c r="H40" s="27">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="I40" s="27">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J40" s="27">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="K40" s="29">
-        <v>0.94</v>
+        <v>1.22</v>
       </c>
       <c r="L40" s="30">
-        <v>42844</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>28.01</v>
+        <v>216.96</v>
       </c>
       <c r="C41" s="27">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="D41" s="27">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="E41" s="27">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="F41" s="27">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="G41" s="28">
-        <v>0.53300000000000003</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="H41" s="27">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="I41" s="27">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J41" s="27">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K41" s="29">
-        <v>0.84</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L41" s="30">
-        <v>42843</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31">
-        <v>265.31</v>
+        <v>297.33999999999997</v>
       </c>
       <c r="C42" s="32">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="D42" s="32">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="E42" s="32">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F42" s="32">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="G42" s="33">
-        <v>0.83599999999999997</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="H42" s="32">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="I42" s="32">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J42" s="32">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="K42" s="34">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="L42" s="30">
-        <v>42842</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
-        <v>1089.3699999999999</v>
+        <v>325.43</v>
       </c>
       <c r="C43" s="19">
-        <v>1065</v>
+        <v>185</v>
       </c>
       <c r="D43" s="19">
-        <v>3701</v>
+        <v>3146</v>
       </c>
       <c r="E43" s="19">
-        <v>2116</v>
+        <v>2652</v>
       </c>
       <c r="F43" s="19">
-        <v>1585</v>
+        <v>494</v>
       </c>
       <c r="G43" s="20">
-        <v>0.63600000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H43" s="19">
-        <v>1888</v>
+        <v>1814</v>
       </c>
       <c r="I43" s="19">
-        <v>1365</v>
+        <v>1714</v>
       </c>
       <c r="J43" s="19">
-        <v>523</v>
+        <v>100</v>
       </c>
       <c r="K43" s="21">
-        <v>1.04</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3620,384 +3620,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="26">
-        <v>-284.08</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="C48" s="27">
-        <v>-439</v>
+        <v>858</v>
       </c>
       <c r="D48" s="27">
-        <v>393</v>
+        <v>1008</v>
       </c>
       <c r="E48" s="27">
-        <v>928</v>
+        <v>325</v>
       </c>
       <c r="F48" s="27">
-        <v>-535</v>
+        <v>683</v>
       </c>
       <c r="G48" s="28">
-        <v>0.29099999999999998</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H48" s="27">
-        <v>1168</v>
+        <v>2523</v>
       </c>
       <c r="I48" s="27">
-        <v>2499</v>
+        <v>813</v>
       </c>
       <c r="J48" s="27">
-        <v>-1331</v>
+        <v>1709</v>
       </c>
       <c r="K48" s="29">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="L48" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>-35.869999999999997</v>
+        <v>-22.42</v>
       </c>
       <c r="C49" s="27">
-        <v>-378</v>
+        <v>-217</v>
       </c>
       <c r="D49" s="27">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="E49" s="27">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="F49" s="27">
-        <v>17</v>
+        <v>-67</v>
       </c>
       <c r="G49" s="28">
-        <v>0.49299999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="H49" s="27">
-        <v>1956</v>
+        <v>1613</v>
       </c>
       <c r="I49" s="27">
-        <v>2038</v>
+        <v>2324</v>
       </c>
       <c r="J49" s="27">
-        <v>-82</v>
+        <v>-710</v>
       </c>
       <c r="K49" s="29">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="L49" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>4.67</v>
+        <v>-280.89</v>
       </c>
       <c r="C50" s="27">
-        <v>41</v>
+        <v>-599</v>
       </c>
       <c r="D50" s="27">
-        <v>694</v>
+        <v>447</v>
       </c>
       <c r="E50" s="27">
-        <v>619</v>
+        <v>881</v>
       </c>
       <c r="F50" s="27">
-        <v>75</v>
+        <v>-434</v>
       </c>
       <c r="G50" s="28">
-        <v>0.51400000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="H50" s="27">
-        <v>2022</v>
+        <v>1583</v>
       </c>
       <c r="I50" s="27">
-        <v>1927</v>
+        <v>2222</v>
       </c>
       <c r="J50" s="27">
-        <v>95</v>
+        <v>-639</v>
       </c>
       <c r="K50" s="29">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L50" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>496.47</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C51" s="27">
-        <v>815</v>
+        <v>266</v>
       </c>
       <c r="D51" s="27">
-        <v>986</v>
+        <v>692</v>
       </c>
       <c r="E51" s="27">
-        <v>332</v>
+        <v>644</v>
       </c>
       <c r="F51" s="27">
-        <v>654</v>
+        <v>48</v>
       </c>
       <c r="G51" s="28">
-        <v>0.73</v>
+        <v>0.503</v>
       </c>
       <c r="H51" s="27">
-        <v>2847</v>
+        <v>1917</v>
       </c>
       <c r="I51" s="27">
-        <v>1031</v>
+        <v>2114</v>
       </c>
       <c r="J51" s="27">
-        <v>1816</v>
+        <v>-197</v>
       </c>
       <c r="K51" s="29">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="L51" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>848.06</v>
+        <v>169.7</v>
       </c>
       <c r="C52" s="27">
-        <v>1386</v>
+        <v>159</v>
       </c>
       <c r="D52" s="27">
-        <v>1089</v>
+        <v>716</v>
       </c>
       <c r="E52" s="27">
-        <v>235</v>
+        <v>614</v>
       </c>
       <c r="F52" s="27">
-        <v>854</v>
+        <v>102</v>
       </c>
       <c r="G52" s="28">
-        <v>0.80700000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="H52" s="27">
-        <v>2902</v>
+        <v>1723</v>
       </c>
       <c r="I52" s="27">
-        <v>682</v>
+        <v>1452</v>
       </c>
       <c r="J52" s="27">
-        <v>2219</v>
+        <v>271</v>
       </c>
       <c r="K52" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="L52" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>-169.77</v>
+        <v>-299.02999999999997</v>
       </c>
       <c r="C53" s="27">
-        <v>-183</v>
+        <v>-446</v>
       </c>
       <c r="D53" s="27">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="E53" s="27">
-        <v>845</v>
+        <v>941</v>
       </c>
       <c r="F53" s="27">
-        <v>-380</v>
+        <v>-537</v>
       </c>
       <c r="G53" s="28">
-        <v>0.34399999999999997</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="H53" s="27">
-        <v>1081</v>
+        <v>1184</v>
       </c>
       <c r="I53" s="27">
-        <v>2304</v>
+        <v>2514</v>
       </c>
       <c r="J53" s="27">
-        <v>-1222</v>
+        <v>-1329</v>
       </c>
       <c r="K53" s="29">
-        <v>1.03</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L53" s="30">
-        <v>42846</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>617.27</v>
+        <v>-44.5</v>
       </c>
       <c r="C54" s="27">
-        <v>559</v>
+        <v>-289</v>
       </c>
       <c r="D54" s="27">
-        <v>1021</v>
+        <v>677</v>
       </c>
       <c r="E54" s="27">
-        <v>299</v>
+        <v>661</v>
       </c>
       <c r="F54" s="27">
-        <v>722</v>
+        <v>16</v>
       </c>
       <c r="G54" s="28">
-        <v>0.75600000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="H54" s="27">
-        <v>2715</v>
+        <v>1942</v>
       </c>
       <c r="I54" s="27">
-        <v>828</v>
+        <v>1999</v>
       </c>
       <c r="J54" s="27">
-        <v>1886</v>
+        <v>-57</v>
       </c>
       <c r="K54" s="29">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="L54" s="30">
-        <v>42845</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>75.25</v>
+        <v>6.74</v>
       </c>
       <c r="C55" s="27">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D55" s="27">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E55" s="27">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="F55" s="27">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G55" s="28">
-        <v>0.52700000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="H55" s="27">
-        <v>1591</v>
+        <v>2019</v>
       </c>
       <c r="I55" s="27">
-        <v>1669</v>
+        <v>1904</v>
       </c>
       <c r="J55" s="27">
-        <v>-78</v>
+        <v>115</v>
       </c>
       <c r="K55" s="29">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="L55" s="30">
-        <v>42844</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>-218.14</v>
+        <v>505.8</v>
       </c>
       <c r="C56" s="27">
-        <v>-365</v>
+        <v>771</v>
       </c>
       <c r="D56" s="27">
-        <v>580</v>
+        <v>1009</v>
       </c>
       <c r="E56" s="27">
-        <v>732</v>
+        <v>332</v>
       </c>
       <c r="F56" s="27">
-        <v>-152</v>
+        <v>677</v>
       </c>
       <c r="G56" s="28">
-        <v>0.43</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H56" s="27">
-        <v>1205</v>
+        <v>2841</v>
       </c>
       <c r="I56" s="27">
-        <v>1935</v>
+        <v>1031</v>
       </c>
       <c r="J56" s="27">
-        <v>-729</v>
+        <v>1809</v>
       </c>
       <c r="K56" s="29">
-        <v>0.95</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L56" s="30">
-        <v>42843</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="31">
-        <v>661.86</v>
+        <v>848.76</v>
       </c>
       <c r="C57" s="32">
-        <v>416</v>
+        <v>1308</v>
       </c>
       <c r="D57" s="32">
-        <v>1137</v>
+        <v>1101</v>
       </c>
       <c r="E57" s="32">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="F57" s="32">
-        <v>957</v>
+        <v>855</v>
       </c>
       <c r="G57" s="33">
-        <v>0.84199999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="H57" s="32">
-        <v>2341</v>
+        <v>2903</v>
       </c>
       <c r="I57" s="32">
-        <v>374</v>
+        <v>676</v>
       </c>
       <c r="J57" s="32">
-        <v>1966</v>
+        <v>2226</v>
       </c>
       <c r="K57" s="34">
-        <v>0.82</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L57" s="30">
-        <v>42842</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
-        <v>1995.72</v>
+        <v>1538.34</v>
       </c>
       <c r="C58" s="19">
-        <v>1888</v>
+        <v>1877</v>
       </c>
       <c r="D58" s="19">
-        <v>7743</v>
+        <v>7396</v>
       </c>
       <c r="E58" s="19">
-        <v>5419</v>
+        <v>5971</v>
       </c>
       <c r="F58" s="19">
-        <v>2324</v>
+        <v>1425</v>
       </c>
       <c r="G58" s="20">
-        <v>0.58799999999999997</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="H58" s="19">
-        <v>19832</v>
+        <v>20253</v>
       </c>
       <c r="I58" s="19">
-        <v>15293</v>
+        <v>17055</v>
       </c>
       <c r="J58" s="19">
-        <v>4539</v>
+        <v>3198</v>
       </c>
       <c r="K58" s="21">
-        <v>1.07</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4050,325 +4050,325 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
-        <v>-6.97</v>
+        <v>5.57</v>
       </c>
       <c r="C63" s="27">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D63" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E63" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F63" s="27">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="28">
-        <v>0.26300000000000001</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H63" s="27">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="I63" s="27">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="J63" s="27">
-        <v>-158</v>
+        <v>115</v>
       </c>
       <c r="K63" s="29">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="L63" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>0.79</v>
+        <v>2.02</v>
       </c>
       <c r="C64" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G64" s="28">
-        <v>0.57899999999999996</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H64" s="27">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="I64" s="27">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="J64" s="27">
-        <v>-29</v>
+        <v>114</v>
       </c>
       <c r="K64" s="29">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="L64" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>2.13</v>
+        <v>-5.66</v>
       </c>
       <c r="C65" s="27">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D65" s="27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E65" s="27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F65" s="27">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="G65" s="28">
-        <v>0.47399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="H65" s="27">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="I65" s="27">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="J65" s="27">
-        <v>-149</v>
+        <v>-44</v>
       </c>
       <c r="K65" s="29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L65" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>14.96</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="C66" s="27">
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="D66" s="27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E66" s="27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F66" s="27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G66" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H66" s="27">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="I66" s="27">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="J66" s="27">
-        <v>268</v>
+        <v>-15</v>
       </c>
       <c r="K66" s="29">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="L66" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>21.35</v>
+        <v>5.94</v>
       </c>
       <c r="C67" s="27">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D67" s="27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E67" s="27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67" s="27">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G67" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H67" s="27">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="I67" s="27">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J67" s="27">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="K67" s="29">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="L67" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>-6.42</v>
+        <v>-6.97</v>
       </c>
       <c r="C68" s="27">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D68" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="27">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" s="27">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="G68" s="28">
-        <v>0.158</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H68" s="27">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I68" s="27">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="J68" s="27">
-        <v>-294</v>
+        <v>-158</v>
       </c>
       <c r="K68" s="29">
-        <v>1.0900000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="L68" s="30">
-        <v>42846</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>15.17</v>
+        <v>0.79</v>
       </c>
       <c r="C69" s="27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D69" s="27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E69" s="27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F69" s="27">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G69" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H69" s="27">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="I69" s="27">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="J69" s="27">
-        <v>269</v>
+        <v>-29</v>
       </c>
       <c r="K69" s="29">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="L69" s="30">
-        <v>42845</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>-0.14000000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="C70" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="27">
+        <v>9</v>
+      </c>
+      <c r="E70" s="27">
         <v>10</v>
       </c>
-      <c r="E70" s="27">
-        <v>9</v>
-      </c>
       <c r="F70" s="27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G70" s="28">
-        <v>0.52600000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H70" s="27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70" s="27">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="J70" s="27">
-        <v>-92</v>
+        <v>-149</v>
       </c>
       <c r="K70" s="29">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="L70" s="30">
-        <v>42844</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>-6.37</v>
+        <v>14.96</v>
       </c>
       <c r="C71" s="27">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="D71" s="27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E71" s="27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F71" s="27">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="G71" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H71" s="27">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="I71" s="27">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="J71" s="27">
-        <v>-155</v>
+        <v>268</v>
       </c>
       <c r="K71" s="29">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="L71" s="30">
-        <v>42843</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="31">
-        <v>14.88</v>
+        <v>21.35</v>
       </c>
       <c r="C72" s="32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D72" s="32">
         <v>18</v>
@@ -4383,51 +4383,51 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="H72" s="32">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="I72" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="32">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="K72" s="34">
-        <v>0.82</v>
+        <v>1.25</v>
       </c>
       <c r="L72" s="30">
-        <v>42842</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="18">
-        <v>49.38</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="C73" s="19">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D73" s="19">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="19">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F73" s="19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G73" s="20">
-        <v>0.6</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="H73" s="19">
-        <v>1638</v>
+        <v>1728</v>
       </c>
       <c r="I73" s="19">
-        <v>1354</v>
+        <v>1085</v>
       </c>
       <c r="J73" s="19">
-        <v>284</v>
+        <v>643</v>
       </c>
       <c r="K73" s="21">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -318,19 +318,19 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 2.51 Points per Component with overall change of -2.15% from closing price 2399.29 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 5.67 Points per Component with overall change of -3.75% from closing price 5646.09 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.54 Points per Component with overall change of -1.14% from closing price 848.96 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.12 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.98 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 0.23 Points per Component with overall change of -0.28% from closing price 2390.90 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.60 Points per Component with overall change of -1.85% from closing price 5686.81 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.59 Points per Component with overall change of 1.51% from closing price 838.54 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.25 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.30 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1122,46 +1122,46 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9">
-        <v>8</v>
-      </c>
       <c r="G4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="11">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I4" s="13">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="J4" s="14">
         <f>H4-I4</f>
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="10">
         <v>6</v>
@@ -1170,25 +1170,25 @@
         <v>7</v>
       </c>
       <c r="H5" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="I5" s="15">
         <v>5.75</v>
-      </c>
-      <c r="I5" s="15">
-        <v>6.5</v>
       </c>
       <c r="J5" s="16">
         <f>H5-I5</f>
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="10">
         <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5</v>
       </c>
       <c r="E6" s="10">
         <v>4</v>
@@ -1197,197 +1197,197 @@
         <v>5</v>
       </c>
       <c r="G6" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="I6" s="15">
         <v>5.25</v>
-      </c>
-      <c r="I6" s="15">
-        <v>5.5</v>
       </c>
       <c r="J6" s="16">
         <f>H6-I6</f>
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D7" s="10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="I7" s="15">
         <v>5.25</v>
-      </c>
-      <c r="I7" s="15">
-        <v>5.5</v>
       </c>
       <c r="J7" s="16">
         <f>H7-I7</f>
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
       </c>
       <c r="G8" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H8" s="12">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="I8" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" s="16">
         <f>H8-I8</f>
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10">
         <v>3</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <v>6</v>
       </c>
       <c r="G9" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="12">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I9" s="15">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="J9" s="16">
         <f>H9-I9</f>
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="12">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I10" s="15">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="J10" s="16">
         <f>H10-I10</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
         <v>4</v>
-      </c>
-      <c r="F11" s="10">
-        <v>6</v>
       </c>
       <c r="G11" s="10">
         <v>5</v>
       </c>
       <c r="H11" s="12">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I11" s="15">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="J11" s="16">
         <f>H11-I11</f>
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
       <c r="F12" s="10">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
-        <v>9</v>
-      </c>
       <c r="H12" s="12">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="I12" s="15">
-        <v>6.75</v>
+        <v>4</v>
       </c>
       <c r="J12" s="16">
         <f>H12-I12</f>
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -1398,577 +1398,577 @@
         <v>75</v>
       </c>
       <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="10">
-        <v>6</v>
-      </c>
       <c r="H13" s="12">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="I13" s="15">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="J13" s="16">
         <f>H13-I13</f>
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="10">
-        <v>4</v>
-      </c>
       <c r="H14" s="12">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="I14" s="15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J14" s="16">
         <f>H14-I14</f>
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D15" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10">
         <v>5</v>
       </c>
-      <c r="F15" s="10">
-        <v>6</v>
-      </c>
-      <c r="G15" s="10">
-        <v>6</v>
-      </c>
       <c r="H15" s="12">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="I15" s="15">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
       <c r="J15" s="16">
         <f>H15-I15</f>
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="H16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="12">
-        <v>4</v>
-      </c>
       <c r="I16" s="15">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="J16" s="16">
         <f>H16-I16</f>
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D17" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10">
         <v>3</v>
       </c>
       <c r="G17" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="12">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="I17" s="15">
         <v>2.5</v>
       </c>
       <c r="J17" s="16">
         <f>H17-I17</f>
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D18" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <v>8</v>
       </c>
       <c r="H18" s="12">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="I18" s="15">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="J18" s="16">
         <f>H18-I18</f>
-        <v>-0.75</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D19" s="10">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="E19" s="10">
         <v>-1</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19" s="12">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="15">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="J19" s="16">
         <f>H19-I19</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D20" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F20" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G20" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="12">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="15">
         <v>4</v>
       </c>
       <c r="J20" s="16">
         <f>H20-I20</f>
-        <v>-0.75</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D21" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>6</v>
-      </c>
       <c r="H21" s="12">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="15">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="16">
         <f>H21-I21</f>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="10">
         <v>-1</v>
       </c>
       <c r="E22" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="15">
         <v>2</v>
-      </c>
-      <c r="G22" s="10">
-        <v>8</v>
-      </c>
-      <c r="H22" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="I22" s="15">
-        <v>6.75</v>
       </c>
       <c r="J22" s="16">
         <f>H22-I22</f>
-        <v>-4.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D23" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="F23" s="10">
-        <v>2</v>
-      </c>
       <c r="G23" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23" s="12">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="I23" s="15">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="J23" s="16">
         <f>H23-I23</f>
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
         <v>2</v>
       </c>
-      <c r="F24" s="10">
-        <v>2</v>
-      </c>
-      <c r="G24" s="10">
-        <v>3</v>
-      </c>
       <c r="H24" s="12">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="15">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="J24" s="16">
         <f>H24-I24</f>
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E25" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4</v>
+      </c>
+      <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="F25" s="10">
-        <v>2</v>
-      </c>
-      <c r="G25" s="10">
-        <v>3</v>
-      </c>
       <c r="H25" s="12">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="15">
-        <v>4.25</v>
+        <v>0.75</v>
       </c>
       <c r="J25" s="16">
         <f>H25-I25</f>
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="F26" s="10">
-        <v>2</v>
-      </c>
-      <c r="G26" s="10">
-        <v>4</v>
-      </c>
       <c r="H26" s="12">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="15">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J26" s="16">
         <f>H26-I26</f>
-        <v>-1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="F27" s="10">
-        <v>2</v>
-      </c>
       <c r="G27" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="12">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="I27" s="15">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J27" s="16">
         <f>H27-I27</f>
-        <v>-1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D28" s="10">
+        <v>-2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
         <v>2</v>
       </c>
-      <c r="E28" s="10">
+      <c r="H28" s="12">
         <v>0</v>
       </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>3</v>
-      </c>
-      <c r="H28" s="12">
-        <v>1.25</v>
-      </c>
       <c r="I28" s="15">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="J28" s="16">
         <f>H28-I28</f>
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
         <v>1</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F29" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H29" s="12">
         <v>0</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>2</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1</v>
-      </c>
       <c r="I29" s="15">
-        <v>3.75</v>
+        <v>-3.5</v>
       </c>
       <c r="J29" s="16">
         <f>H29-I29</f>
-        <v>-2.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D30" s="10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F30" s="10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G30" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H30" s="12">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="I30" s="15">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="J30" s="16">
         <f>H30-I30</f>
-        <v>-1.25</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D31" s="10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
       </c>
       <c r="H31" s="12">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I31" s="15">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="J31" s="16">
         <f>H31-I31</f>
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D32" s="10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E32" s="10">
         <v>-2</v>
@@ -1977,137 +1977,137 @@
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="I32" s="15">
-        <v>3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="J32" s="16">
         <f>H32-I32</f>
-        <v>-3.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E33" s="10">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F33" s="10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G33" s="10">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="H33" s="12">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="I33" s="15">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="J33" s="16">
         <f>H33-I33</f>
-        <v>-1.75</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D34" s="10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E34" s="10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="12">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="I34" s="15">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="J34" s="16">
         <f>H34-I34</f>
-        <v>-1.75</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D35" s="10">
+        <v>-3</v>
+      </c>
+      <c r="E35" s="10">
         <v>-2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="10">
         <v>-3</v>
       </c>
-      <c r="F35" s="10">
-        <v>-4</v>
-      </c>
       <c r="G35" s="10">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H35" s="12">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="I35" s="15">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="J35" s="16">
         <f>H35-I35</f>
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D36" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E36" s="10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F36" s="10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G36" s="10">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12">
-        <v>-2.5</v>
+        <v>-2.75</v>
       </c>
       <c r="I36" s="15">
-        <v>-4.25</v>
+        <v>-1.75</v>
       </c>
       <c r="J36" s="16">
         <f>H36-I36</f>
-        <v>1.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -2118,26 +2118,26 @@
         <v>79</v>
       </c>
       <c r="D37" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="10">
         <v>-4</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="10">
         <v>-5</v>
       </c>
-      <c r="F37" s="10">
-        <v>-6</v>
-      </c>
       <c r="G37" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H37" s="12">
-        <v>-4.75</v>
+        <v>-3.25</v>
       </c>
       <c r="I37" s="15">
-        <v>-4.75</v>
+        <v>-6.25</v>
       </c>
       <c r="J37" s="16">
         <f>H37-I37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -2148,26 +2148,26 @@
         <v>77</v>
       </c>
       <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
         <v>-5</v>
       </c>
-      <c r="E38" s="10">
+      <c r="F38" s="10">
         <v>-7</v>
       </c>
-      <c r="F38" s="10">
-        <v>-8</v>
-      </c>
       <c r="G38" s="10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="H38" s="12">
-        <v>-6.25</v>
+        <v>-3.75</v>
       </c>
       <c r="I38" s="15">
-        <v>-7</v>
+        <v>-8.5</v>
       </c>
       <c r="J38" s="16">
         <f>H38-I38</f>
-        <v>0.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -2178,26 +2178,26 @@
         <v>59</v>
       </c>
       <c r="D39" s="10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E39" s="10">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F39" s="10">
         <v>-8</v>
       </c>
       <c r="G39" s="10">
+        <v>-4</v>
+      </c>
+      <c r="H39" s="12">
         <v>-5</v>
       </c>
-      <c r="H39" s="12">
-        <v>-6.5</v>
-      </c>
       <c r="I39" s="15">
-        <v>-7</v>
+        <v>-8.25</v>
       </c>
       <c r="J39" s="16">
         <f>H39-I39</f>
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2208,10 +2208,10 @@
         <v>78</v>
       </c>
       <c r="D40" s="10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E40" s="10">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F40" s="10">
         <v>-9</v>
@@ -2220,44 +2220,44 @@
         <v>-6</v>
       </c>
       <c r="H40" s="35">
-        <v>-8.25</v>
+        <v>-7.75</v>
       </c>
       <c r="I40" s="36">
-        <v>-7.25</v>
+        <v>-9</v>
       </c>
       <c r="J40" s="37">
         <f>H40-I40</f>
-        <v>-1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D41" s="38">
         <f t="shared" ref="D41:I41" si="0">AVERAGE(D4:D40)</f>
-        <v>1.9459459459459461</v>
+        <v>-0.3783783783783784</v>
       </c>
       <c r="E41" s="38">
         <f t="shared" si="0"/>
-        <v>0.35135135135135137</v>
+        <v>-0.86486486486486491</v>
       </c>
       <c r="F41" s="38">
         <f t="shared" si="0"/>
-        <v>1.4594594594594594</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" si="0"/>
-        <v>3.6756756756756759</v>
+        <v>3.1081081081081079</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="0"/>
-        <v>1.8581081081081081</v>
+        <v>0.66891891891891897</v>
       </c>
       <c r="I41" s="40">
         <f t="shared" si="0"/>
-        <v>2.9729729729729728</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="J41" s="41">
         <f t="shared" ref="J41" si="1">H41-I41</f>
-        <v>-1.1148648648648647</v>
+        <v>-0.68243243243243235</v>
       </c>
     </row>
   </sheetData>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2337,384 +2337,384 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <v>230.74</v>
+        <v>-146.1</v>
       </c>
       <c r="C3" s="27">
-        <v>237</v>
+        <v>-168</v>
       </c>
       <c r="D3" s="27">
-        <v>367</v>
+        <v>156</v>
       </c>
       <c r="E3" s="27">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="F3" s="27">
-        <v>235</v>
+        <v>-188</v>
       </c>
       <c r="G3" s="28">
-        <v>0.72499999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="H3" s="27">
-        <v>1342</v>
+        <v>513</v>
       </c>
       <c r="I3" s="27">
-        <v>478</v>
+        <v>1277</v>
       </c>
       <c r="J3" s="27">
-        <v>863</v>
+        <v>-763</v>
       </c>
       <c r="K3" s="29">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="L3" s="30">
-        <v>42860</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>149.57</v>
+        <v>-131.56</v>
       </c>
       <c r="C4" s="27">
-        <v>247</v>
+        <v>-165</v>
       </c>
       <c r="D4" s="27">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="E4" s="27">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="F4" s="27">
-        <v>61</v>
+        <v>-189</v>
       </c>
       <c r="G4" s="28">
-        <v>0.55100000000000005</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H4" s="27">
-        <v>903</v>
+        <v>656</v>
       </c>
       <c r="I4" s="27">
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="J4" s="27">
-        <v>-422</v>
+        <v>-692</v>
       </c>
       <c r="K4" s="29">
-        <v>1.1299999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="L4" s="30">
-        <v>42859</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>-108.74</v>
+        <v>3.03</v>
       </c>
       <c r="C5" s="27">
-        <v>-249</v>
+        <v>-114</v>
       </c>
       <c r="D5" s="27">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="E5" s="27">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="F5" s="27">
-        <v>-94</v>
+        <v>118</v>
       </c>
       <c r="G5" s="28">
-        <v>0.39900000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H5" s="27">
-        <v>1126</v>
+        <v>1265</v>
       </c>
       <c r="I5" s="27">
-        <v>1143</v>
+        <v>705</v>
       </c>
       <c r="J5" s="27">
-        <v>-17</v>
+        <v>560</v>
       </c>
       <c r="K5" s="29">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="L5" s="30">
-        <v>42858</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>155.30000000000001</v>
+        <v>15.24</v>
       </c>
       <c r="C6" s="27">
-        <v>209</v>
+        <v>-16</v>
       </c>
       <c r="D6" s="27">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E6" s="27">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="F6" s="27">
-        <v>81</v>
+        <v>-33</v>
       </c>
       <c r="G6" s="28">
-        <v>0.57299999999999995</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="H6" s="27">
-        <v>1069</v>
+        <v>890</v>
       </c>
       <c r="I6" s="27">
-        <v>1326</v>
+        <v>969</v>
       </c>
       <c r="J6" s="27">
-        <v>-257</v>
+        <v>-78</v>
       </c>
       <c r="K6" s="29">
-        <v>1.21</v>
+        <v>0.94</v>
       </c>
       <c r="L6" s="30">
-        <v>42857</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>51.41</v>
+        <v>-101.86</v>
       </c>
       <c r="C7" s="27">
-        <v>52</v>
+        <v>-101</v>
       </c>
       <c r="D7" s="27">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="E7" s="27">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="F7" s="27">
-        <v>-38</v>
+        <v>-128</v>
       </c>
       <c r="G7" s="28">
-        <v>0.45300000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="H7" s="27">
-        <v>993</v>
+        <v>804</v>
       </c>
       <c r="I7" s="27">
-        <v>873</v>
+        <v>1025</v>
       </c>
       <c r="J7" s="27">
-        <v>120</v>
+        <v>-221</v>
       </c>
       <c r="K7" s="29">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="L7" s="30">
-        <v>42856</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>-90.03</v>
+        <v>230.74</v>
       </c>
       <c r="C8" s="27">
-        <v>-15</v>
+        <v>230</v>
       </c>
       <c r="D8" s="27">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="E8" s="27">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="F8" s="27">
-        <v>-217</v>
+        <v>235</v>
       </c>
       <c r="G8" s="28">
-        <v>0.27900000000000003</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H8" s="27">
-        <v>649</v>
+        <v>1342</v>
       </c>
       <c r="I8" s="27">
-        <v>1536</v>
+        <v>478</v>
       </c>
       <c r="J8" s="27">
-        <v>-887</v>
+        <v>863</v>
       </c>
       <c r="K8" s="29">
-        <v>1.1299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L8" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>29.81</v>
+        <v>149.57</v>
       </c>
       <c r="C9" s="27">
-        <v>-88</v>
+        <v>224</v>
       </c>
       <c r="D9" s="27">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E9" s="27">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F9" s="27">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G9" s="28">
-        <v>0.53200000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="H9" s="27">
-        <v>1054</v>
+        <v>903</v>
       </c>
       <c r="I9" s="27">
-        <v>1142</v>
+        <v>1326</v>
       </c>
       <c r="J9" s="27">
-        <v>-87</v>
+        <v>-422</v>
       </c>
       <c r="K9" s="29">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L9" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>20.72</v>
+        <v>-108.74</v>
       </c>
       <c r="C10" s="27">
-        <v>108</v>
+        <v>-217</v>
       </c>
       <c r="D10" s="27">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E10" s="27">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F10" s="27">
-        <v>-12</v>
+        <v>-94</v>
       </c>
       <c r="G10" s="28">
-        <v>0.47599999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="H10" s="27">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="I10" s="27">
-        <v>1106</v>
+        <v>1143</v>
       </c>
       <c r="J10" s="27">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="K10" s="29">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L10" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>260.14999999999998</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="C11" s="27">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="D11" s="27">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="E11" s="27">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F11" s="27">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="G11" s="28">
-        <v>0.749</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="H11" s="27">
-        <v>1719</v>
+        <v>1069</v>
       </c>
       <c r="I11" s="27">
-        <v>584</v>
+        <v>1326</v>
       </c>
       <c r="J11" s="27">
-        <v>1135</v>
+        <v>-257</v>
       </c>
       <c r="K11" s="29">
-        <v>1.1599999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="L11" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31">
-        <v>565.28</v>
+        <v>51.41</v>
       </c>
       <c r="C12" s="32">
-        <v>1076</v>
+        <v>48</v>
       </c>
       <c r="D12" s="32">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="E12" s="32">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="F12" s="32">
-        <v>357</v>
+        <v>-38</v>
       </c>
       <c r="G12" s="33">
-        <v>0.84599999999999997</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H12" s="32">
-        <v>1769</v>
+        <v>993</v>
       </c>
       <c r="I12" s="32">
-        <v>411</v>
+        <v>873</v>
       </c>
       <c r="J12" s="32">
-        <v>1357</v>
+        <v>120</v>
       </c>
       <c r="K12" s="34">
-        <v>1.1399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L12" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
-        <v>1264.21</v>
+        <v>117.03</v>
       </c>
       <c r="C13" s="19">
-        <v>1889</v>
+        <v>-75</v>
       </c>
       <c r="D13" s="19">
-        <v>2825</v>
+        <v>2402</v>
       </c>
       <c r="E13" s="19">
-        <v>2153</v>
+        <v>2577</v>
       </c>
       <c r="F13" s="19">
-        <v>672</v>
+        <v>-175</v>
       </c>
       <c r="G13" s="20">
-        <v>0.56699999999999995</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="H13" s="19">
-        <v>11734</v>
+        <v>9566</v>
       </c>
       <c r="I13" s="19">
-        <v>9929</v>
+        <v>10475</v>
       </c>
       <c r="J13" s="19">
-        <v>1805</v>
+        <v>-909</v>
       </c>
       <c r="K13" s="21">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2765,384 +2765,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>24.31</v>
+        <v>10.98</v>
       </c>
       <c r="C18" s="27">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D18" s="27">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E18" s="27">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F18" s="27">
-        <v>36</v>
+        <v>-27</v>
       </c>
       <c r="G18" s="28">
-        <v>0.68</v>
+        <v>0.36</v>
       </c>
       <c r="H18" s="27">
-        <v>323</v>
+        <v>178</v>
       </c>
       <c r="I18" s="27">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="J18" s="27">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="29">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="L18" s="30">
-        <v>42860</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>65.58</v>
+        <v>-26.23</v>
       </c>
       <c r="C19" s="27">
-        <v>105</v>
+        <v>-35</v>
       </c>
       <c r="D19" s="27">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E19" s="27">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F19" s="27">
-        <v>15</v>
+        <v>-31</v>
       </c>
       <c r="G19" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.34</v>
       </c>
       <c r="H19" s="27">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I19" s="27">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="J19" s="27">
-        <v>-75</v>
+        <v>-110</v>
       </c>
       <c r="K19" s="29">
-        <v>1.05</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L19" s="30">
-        <v>42859</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-49.37</v>
+        <v>-50.59</v>
       </c>
       <c r="C20" s="27">
-        <v>-184</v>
+        <v>-175</v>
       </c>
       <c r="D20" s="27">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E20" s="27">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F20" s="27">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="G20" s="28">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="H20" s="27">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="I20" s="27">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="J20" s="27">
-        <v>-140</v>
+        <v>76</v>
       </c>
       <c r="K20" s="29">
-        <v>1.18</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L20" s="30">
-        <v>42858</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>48.84</v>
+        <v>84.51</v>
       </c>
       <c r="C21" s="27">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D21" s="27">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" s="28">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="H21" s="27">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="I21" s="27">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="J21" s="27">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K21" s="29">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="L21" s="30">
-        <v>42857</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>98.3</v>
+        <v>-46.45</v>
       </c>
       <c r="C22" s="27">
-        <v>122</v>
+        <v>-76</v>
       </c>
       <c r="D22" s="27">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E22" s="27">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F22" s="27">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="G22" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="H22" s="27">
-        <v>352</v>
+        <v>229</v>
       </c>
       <c r="I22" s="27">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="J22" s="27">
-        <v>193</v>
+        <v>-69</v>
       </c>
       <c r="K22" s="29">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="L22" s="30">
-        <v>42856</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>28.9</v>
+        <v>24.31</v>
       </c>
       <c r="C23" s="27">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="D23" s="27">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E23" s="27">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F23" s="27">
-        <v>-30</v>
+        <v>36</v>
       </c>
       <c r="G23" s="28">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="H23" s="27">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="I23" s="27">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="J23" s="27">
-        <v>-93</v>
+        <v>200</v>
       </c>
       <c r="K23" s="29">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="L23" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>78.2</v>
+        <v>65.58</v>
       </c>
       <c r="C24" s="27">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D24" s="27">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E24" s="27">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F24" s="27">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G24" s="28">
-        <v>0.68</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H24" s="27">
-        <v>429</v>
+        <v>211</v>
       </c>
       <c r="I24" s="27">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="J24" s="27">
-        <v>251</v>
+        <v>-75</v>
       </c>
       <c r="K24" s="29">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="L24" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>-15.81</v>
+        <v>-49.37</v>
       </c>
       <c r="C25" s="27">
-        <v>-60</v>
+        <v>-151</v>
       </c>
       <c r="D25" s="27">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E25" s="27">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F25" s="27">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="G25" s="28">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="H25" s="27">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="I25" s="27">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="J25" s="27">
-        <v>-59</v>
+        <v>-140</v>
       </c>
       <c r="K25" s="29">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L25" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>85.51</v>
+        <v>48.84</v>
       </c>
       <c r="C26" s="27">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D26" s="27">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E26" s="27">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F26" s="27">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G26" s="28">
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="H26" s="27">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="I26" s="27">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="J26" s="27">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="K26" s="29">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L26" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>202.12</v>
+        <v>98.3</v>
       </c>
       <c r="C27" s="32">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="D27" s="32">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E27" s="32">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F27" s="32">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G27" s="33">
-        <v>0.88</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H27" s="32">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="I27" s="32">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J27" s="32">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="K27" s="34">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="L27" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
-        <v>566.58000000000004</v>
+        <v>159.88</v>
       </c>
       <c r="C28" s="19">
-        <v>739</v>
+        <v>-29</v>
       </c>
       <c r="D28" s="19">
-        <v>610</v>
+        <v>507</v>
       </c>
       <c r="E28" s="19">
-        <v>383</v>
+        <v>487</v>
       </c>
       <c r="F28" s="19">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G28" s="20">
-        <v>0.61399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H28" s="19">
-        <v>3281</v>
+        <v>2707</v>
       </c>
       <c r="I28" s="19">
-        <v>2229</v>
+        <v>2521</v>
       </c>
       <c r="J28" s="19">
-        <v>1052</v>
+        <v>186</v>
       </c>
       <c r="K28" s="21">
-        <v>1.1599999999999999</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3192,384 +3192,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
-        <v>79.260000000000005</v>
+        <v>-163.58000000000001</v>
       </c>
       <c r="C33" s="27">
-        <v>67</v>
+        <v>-126</v>
       </c>
       <c r="D33" s="27">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="E33" s="27">
-        <v>207</v>
+        <v>451</v>
       </c>
       <c r="F33" s="27">
-        <v>153</v>
+        <v>-325</v>
       </c>
       <c r="G33" s="28">
-        <v>0.59699999999999998</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H33" s="27">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="I33" s="27">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="J33" s="27">
-        <v>184</v>
+        <v>-138</v>
       </c>
       <c r="K33" s="29">
-        <v>1.1299999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="L33" s="30">
-        <v>42860</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>-25.81</v>
+        <v>-161.38999999999999</v>
       </c>
       <c r="C34" s="27">
-        <v>-52</v>
+        <v>-121</v>
       </c>
       <c r="D34" s="27">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="E34" s="27">
-        <v>309</v>
+        <v>431</v>
       </c>
       <c r="F34" s="27">
-        <v>-42</v>
+        <v>-281</v>
       </c>
       <c r="G34" s="28">
-        <v>0.443</v>
+        <v>0.249</v>
       </c>
       <c r="H34" s="27">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="I34" s="27">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J34" s="27">
-        <v>-114</v>
+        <v>-134</v>
       </c>
       <c r="K34" s="29">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="L34" s="30">
-        <v>42859</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>-163.41</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="C35" s="27">
-        <v>-245</v>
+        <v>72</v>
       </c>
       <c r="D35" s="27">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="E35" s="27">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="F35" s="27">
-        <v>-214</v>
+        <v>98</v>
       </c>
       <c r="G35" s="28">
-        <v>0.30199999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="H35" s="27">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="I35" s="27">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="J35" s="27">
-        <v>-118</v>
+        <v>130</v>
       </c>
       <c r="K35" s="29">
-        <v>1.1299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L35" s="30">
-        <v>42858</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>-94.29</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="C36" s="27">
-        <v>-219</v>
+        <v>241</v>
       </c>
       <c r="D36" s="27">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="E36" s="27">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="F36" s="27">
-        <v>-102</v>
+        <v>22</v>
       </c>
       <c r="G36" s="28">
-        <v>0.39</v>
+        <v>0.499</v>
       </c>
       <c r="H36" s="27">
+        <v>187</v>
+      </c>
+      <c r="I36" s="27">
         <v>155</v>
       </c>
-      <c r="I36" s="27">
-        <v>207</v>
-      </c>
       <c r="J36" s="27">
-        <v>-52</v>
+        <v>32</v>
       </c>
       <c r="K36" s="29">
-        <v>1.1599999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="L36" s="30">
-        <v>42857</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>104.03</v>
+        <v>-75.25</v>
       </c>
       <c r="C37" s="27">
-        <v>94</v>
+        <v>-52</v>
       </c>
       <c r="D37" s="27">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="E37" s="27">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="F37" s="27">
-        <v>132</v>
+        <v>-86</v>
       </c>
       <c r="G37" s="28">
-        <v>0.59399999999999997</v>
+        <v>0.41</v>
       </c>
       <c r="H37" s="27">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="I37" s="27">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="J37" s="27">
-        <v>35</v>
+        <v>-33</v>
       </c>
       <c r="K37" s="29">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="L37" s="30">
-        <v>42856</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>-277.79000000000002</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="C38" s="27">
-        <v>-357</v>
+        <v>78</v>
       </c>
       <c r="D38" s="27">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="E38" s="27">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="F38" s="27">
-        <v>-355</v>
+        <v>153</v>
       </c>
       <c r="G38" s="28">
-        <v>0.19700000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="H38" s="27">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="I38" s="27">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="J38" s="27">
-        <v>-135</v>
+        <v>183</v>
       </c>
       <c r="K38" s="29">
-        <v>1.05</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L38" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>21.52</v>
+        <v>-26.26</v>
       </c>
       <c r="C39" s="27">
-        <v>34</v>
+        <v>-41</v>
       </c>
       <c r="D39" s="27">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E39" s="27">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="F39" s="27">
-        <v>-91</v>
+        <v>-42</v>
       </c>
       <c r="G39" s="28">
-        <v>0.40600000000000003</v>
+        <v>0.443</v>
       </c>
       <c r="H39" s="27">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I39" s="27">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="J39" s="27">
-        <v>-93</v>
+        <v>-114</v>
       </c>
       <c r="K39" s="29">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="L39" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>167.62</v>
+        <v>-163.78</v>
       </c>
       <c r="C40" s="27">
-        <v>246</v>
+        <v>-234</v>
       </c>
       <c r="D40" s="27">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="E40" s="27">
-        <v>126</v>
+        <v>396</v>
       </c>
       <c r="F40" s="27">
-        <v>328</v>
+        <v>-214</v>
       </c>
       <c r="G40" s="28">
-        <v>0.753</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="H40" s="27">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="I40" s="27">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="J40" s="27">
-        <v>141</v>
+        <v>-118</v>
       </c>
       <c r="K40" s="29">
-        <v>1.22</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L40" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>216.96</v>
+        <v>-94.08</v>
       </c>
       <c r="C41" s="27">
-        <v>320</v>
+        <v>-211</v>
       </c>
       <c r="D41" s="27">
-        <v>444</v>
+        <v>235</v>
       </c>
       <c r="E41" s="27">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="F41" s="27">
-        <v>301</v>
+        <v>-102</v>
       </c>
       <c r="G41" s="28">
-        <v>0.73599999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="H41" s="27">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="I41" s="27">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="J41" s="27">
-        <v>75</v>
+        <v>-52</v>
       </c>
       <c r="K41" s="29">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L41" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31">
-        <v>297.33999999999997</v>
+        <v>104.16</v>
       </c>
       <c r="C42" s="32">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="D42" s="32">
-        <v>482</v>
+        <v>358</v>
       </c>
       <c r="E42" s="32">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F42" s="32">
-        <v>384</v>
+        <v>132</v>
       </c>
       <c r="G42" s="33">
-        <v>0.79900000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="H42" s="32">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="I42" s="32">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="J42" s="32">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="K42" s="34">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="L42" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
-        <v>325.43</v>
+        <v>-352.42</v>
       </c>
       <c r="C43" s="19">
-        <v>185</v>
+        <v>-305</v>
       </c>
       <c r="D43" s="19">
-        <v>3146</v>
+        <v>2564</v>
       </c>
       <c r="E43" s="19">
-        <v>2652</v>
+        <v>3209</v>
       </c>
       <c r="F43" s="19">
-        <v>494</v>
+        <v>-645</v>
       </c>
       <c r="G43" s="20">
-        <v>0.54300000000000004</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H43" s="19">
-        <v>1814</v>
+        <v>1573</v>
       </c>
       <c r="I43" s="19">
-        <v>1714</v>
+        <v>1786</v>
       </c>
       <c r="J43" s="19">
-        <v>100</v>
+        <v>-213</v>
       </c>
       <c r="K43" s="21">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3620,384 +3620,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="26">
-        <v>585.08000000000004</v>
+        <v>-169.09</v>
       </c>
       <c r="C48" s="27">
-        <v>858</v>
+        <v>-117</v>
       </c>
       <c r="D48" s="27">
-        <v>1008</v>
+        <v>504</v>
       </c>
       <c r="E48" s="27">
-        <v>325</v>
+        <v>867</v>
       </c>
       <c r="F48" s="27">
-        <v>683</v>
+        <v>-363</v>
       </c>
       <c r="G48" s="28">
-        <v>0.73299999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="H48" s="27">
-        <v>2523</v>
+        <v>1269</v>
       </c>
       <c r="I48" s="27">
-        <v>813</v>
+        <v>1976</v>
       </c>
       <c r="J48" s="27">
-        <v>1709</v>
+        <v>-707</v>
       </c>
       <c r="K48" s="29">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="L48" s="30">
-        <v>42860</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>-22.42</v>
+        <v>-329.79</v>
       </c>
       <c r="C49" s="27">
-        <v>-217</v>
+        <v>-491</v>
       </c>
       <c r="D49" s="27">
-        <v>633</v>
+        <v>470</v>
       </c>
       <c r="E49" s="27">
-        <v>700</v>
+        <v>899</v>
       </c>
       <c r="F49" s="27">
-        <v>-67</v>
+        <v>-429</v>
       </c>
       <c r="G49" s="28">
-        <v>0.46</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H49" s="27">
-        <v>1613</v>
+        <v>1399</v>
       </c>
       <c r="I49" s="27">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="J49" s="27">
-        <v>-710</v>
+        <v>-918</v>
       </c>
       <c r="K49" s="29">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="L49" s="30">
-        <v>42859</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>-280.89</v>
+        <v>232.85</v>
       </c>
       <c r="C50" s="27">
-        <v>-599</v>
+        <v>-3</v>
       </c>
       <c r="D50" s="27">
-        <v>447</v>
+        <v>930</v>
       </c>
       <c r="E50" s="27">
-        <v>881</v>
+        <v>435</v>
       </c>
       <c r="F50" s="27">
-        <v>-434</v>
+        <v>495</v>
       </c>
       <c r="G50" s="28">
-        <v>0.32500000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H50" s="27">
-        <v>1583</v>
+        <v>2491</v>
       </c>
       <c r="I50" s="27">
-        <v>2222</v>
+        <v>1225</v>
       </c>
       <c r="J50" s="27">
-        <v>-639</v>
+        <v>1265</v>
       </c>
       <c r="K50" s="29">
-        <v>1.1399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="L50" s="30">
-        <v>42858</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>69.099999999999994</v>
+        <v>150.82</v>
       </c>
       <c r="C51" s="27">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="D51" s="27">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E51" s="27">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="F51" s="27">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G51" s="28">
-        <v>0.503</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="H51" s="27">
-        <v>1917</v>
+        <v>1877</v>
       </c>
       <c r="I51" s="27">
-        <v>2114</v>
+        <v>1768</v>
       </c>
       <c r="J51" s="27">
-        <v>-197</v>
+        <v>109</v>
       </c>
       <c r="K51" s="29">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="L51" s="30">
-        <v>42857</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>169.7</v>
+        <v>-157.57</v>
       </c>
       <c r="C52" s="27">
-        <v>159</v>
+        <v>-130</v>
       </c>
       <c r="D52" s="27">
-        <v>716</v>
+        <v>540</v>
       </c>
       <c r="E52" s="27">
-        <v>614</v>
+        <v>839</v>
       </c>
       <c r="F52" s="27">
-        <v>102</v>
+        <v>-299</v>
       </c>
       <c r="G52" s="28">
-        <v>0.52</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H52" s="27">
-        <v>1723</v>
+        <v>1563</v>
       </c>
       <c r="I52" s="27">
-        <v>1452</v>
+        <v>1929</v>
       </c>
       <c r="J52" s="27">
-        <v>271</v>
+        <v>-365</v>
       </c>
       <c r="K52" s="29">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="L52" s="30">
-        <v>42856</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>-299.02999999999997</v>
+        <v>628.08000000000004</v>
       </c>
       <c r="C53" s="27">
-        <v>-446</v>
+        <v>922</v>
       </c>
       <c r="D53" s="27">
-        <v>404</v>
+        <v>1032</v>
       </c>
       <c r="E53" s="27">
-        <v>941</v>
+        <v>334</v>
       </c>
       <c r="F53" s="27">
-        <v>-537</v>
+        <v>698</v>
       </c>
       <c r="G53" s="28">
-        <v>0.29399999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="H53" s="27">
-        <v>1184</v>
+        <v>2575</v>
       </c>
       <c r="I53" s="27">
-        <v>2514</v>
+        <v>818</v>
       </c>
       <c r="J53" s="27">
-        <v>-1329</v>
+        <v>1757</v>
       </c>
       <c r="K53" s="29">
-        <v>1.1200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="L53" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>-44.5</v>
+        <v>16.11</v>
       </c>
       <c r="C54" s="27">
-        <v>-289</v>
+        <v>-167</v>
       </c>
       <c r="D54" s="27">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="E54" s="27">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="F54" s="27">
-        <v>16</v>
+        <v>-47</v>
       </c>
       <c r="G54" s="28">
-        <v>0.49199999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="H54" s="27">
-        <v>1942</v>
+        <v>1627</v>
       </c>
       <c r="I54" s="27">
-        <v>1999</v>
+        <v>2391</v>
       </c>
       <c r="J54" s="27">
-        <v>-57</v>
+        <v>-764</v>
       </c>
       <c r="K54" s="29">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L54" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>6.74</v>
+        <v>-287.23</v>
       </c>
       <c r="C55" s="27">
-        <v>66</v>
+        <v>-513</v>
       </c>
       <c r="D55" s="27">
-        <v>709</v>
+        <v>457</v>
       </c>
       <c r="E55" s="27">
-        <v>627</v>
+        <v>901</v>
       </c>
       <c r="F55" s="27">
-        <v>82</v>
+        <v>-444</v>
       </c>
       <c r="G55" s="28">
-        <v>0.51500000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="H55" s="27">
-        <v>2019</v>
+        <v>1611</v>
       </c>
       <c r="I55" s="27">
-        <v>1904</v>
+        <v>2249</v>
       </c>
       <c r="J55" s="27">
-        <v>115</v>
+        <v>-638</v>
       </c>
       <c r="K55" s="29">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L55" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>505.8</v>
+        <v>65.39</v>
       </c>
       <c r="C56" s="27">
-        <v>771</v>
+        <v>194</v>
       </c>
       <c r="D56" s="27">
-        <v>1009</v>
+        <v>704</v>
       </c>
       <c r="E56" s="27">
-        <v>332</v>
+        <v>667</v>
       </c>
       <c r="F56" s="27">
-        <v>677</v>
+        <v>37</v>
       </c>
       <c r="G56" s="28">
-        <v>0.73299999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="H56" s="27">
-        <v>2841</v>
+        <v>1961</v>
       </c>
       <c r="I56" s="27">
-        <v>1031</v>
+        <v>2150</v>
       </c>
       <c r="J56" s="27">
-        <v>1809</v>
+        <v>-189</v>
       </c>
       <c r="K56" s="29">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="L56" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="31">
-        <v>848.76</v>
+        <v>203.42</v>
       </c>
       <c r="C57" s="32">
-        <v>1308</v>
+        <v>153</v>
       </c>
       <c r="D57" s="32">
-        <v>1101</v>
+        <v>743</v>
       </c>
       <c r="E57" s="32">
-        <v>246</v>
+        <v>620</v>
       </c>
       <c r="F57" s="32">
-        <v>855</v>
+        <v>123</v>
       </c>
       <c r="G57" s="33">
-        <v>0.8</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H57" s="32">
-        <v>2903</v>
+        <v>1779</v>
       </c>
       <c r="I57" s="32">
-        <v>676</v>
+        <v>1451</v>
       </c>
       <c r="J57" s="32">
-        <v>2226</v>
+        <v>327</v>
       </c>
       <c r="K57" s="34">
-        <v>1.0900000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L57" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
-        <v>1538.34</v>
+        <v>352.99</v>
       </c>
       <c r="C58" s="19">
-        <v>1877</v>
+        <v>-6</v>
       </c>
       <c r="D58" s="19">
-        <v>7396</v>
+        <v>6728</v>
       </c>
       <c r="E58" s="19">
-        <v>5971</v>
+        <v>6941</v>
       </c>
       <c r="F58" s="19">
-        <v>1425</v>
+        <v>-213</v>
       </c>
       <c r="G58" s="20">
-        <v>0.55300000000000005</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="H58" s="19">
-        <v>20253</v>
+        <v>18156</v>
       </c>
       <c r="I58" s="19">
-        <v>17055</v>
+        <v>18280</v>
       </c>
       <c r="J58" s="19">
-        <v>3198</v>
+        <v>-124</v>
       </c>
       <c r="K58" s="21">
-        <v>1.1200000000000001</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4050,384 +4050,384 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
-        <v>5.57</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="C63" s="27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D63" s="27">
+        <v>4</v>
+      </c>
+      <c r="E63" s="27">
         <v>15</v>
       </c>
-      <c r="E63" s="27">
-        <v>4</v>
-      </c>
       <c r="F63" s="27">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="G63" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H63" s="27">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="I63" s="27">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="J63" s="27">
-        <v>115</v>
+        <v>-152</v>
       </c>
       <c r="K63" s="29">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="L63" s="30">
-        <v>42860</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>2.02</v>
+        <v>-5.36</v>
       </c>
       <c r="C64" s="27">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D64" s="27">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E64" s="27">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F64" s="27">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="G64" s="28">
-        <v>0.63200000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H64" s="27">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="I64" s="27">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="J64" s="27">
-        <v>114</v>
+        <v>-227</v>
       </c>
       <c r="K64" s="29">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="L64" s="30">
-        <v>42859</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>-5.66</v>
+        <v>2.62</v>
       </c>
       <c r="C65" s="27">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D65" s="27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E65" s="27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F65" s="27">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="28">
-        <v>0.316</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H65" s="27">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="I65" s="27">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="J65" s="27">
-        <v>-44</v>
+        <v>173</v>
       </c>
       <c r="K65" s="29">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="L65" s="30">
-        <v>42858</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>-2.5099999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="C66" s="27">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D66" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F66" s="27">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G66" s="28">
-        <v>0.52600000000000002</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H66" s="27">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="I66" s="27">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="J66" s="27">
-        <v>-15</v>
+        <v>-121</v>
       </c>
       <c r="K66" s="29">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L66" s="30">
-        <v>42857</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>5.94</v>
+        <v>-7.87</v>
       </c>
       <c r="C67" s="27">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="D67" s="27">
+        <v>6</v>
+      </c>
+      <c r="E67" s="27">
         <v>13</v>
       </c>
-      <c r="E67" s="27">
-        <v>6</v>
-      </c>
       <c r="F67" s="27">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="G67" s="28">
-        <v>0.68400000000000005</v>
+        <v>0.316</v>
       </c>
       <c r="H67" s="27">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="I67" s="27">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="J67" s="27">
-        <v>176</v>
+        <v>-102</v>
       </c>
       <c r="K67" s="29">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="L67" s="30">
-        <v>42856</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>-6.97</v>
+        <v>5.57</v>
       </c>
       <c r="C68" s="27">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="D68" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E68" s="27">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F68" s="27">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="28">
-        <v>0.26300000000000001</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H68" s="27">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="I68" s="27">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="J68" s="27">
-        <v>-158</v>
+        <v>115</v>
       </c>
       <c r="K68" s="29">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="L68" s="30">
-        <v>42853</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>0.79</v>
+        <v>2.02</v>
       </c>
       <c r="C69" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69" s="28">
-        <v>0.57899999999999996</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H69" s="27">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="I69" s="27">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="J69" s="27">
-        <v>-29</v>
+        <v>114</v>
       </c>
       <c r="K69" s="29">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="L69" s="30">
-        <v>42852</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>2.13</v>
+        <v>-5.66</v>
       </c>
       <c r="C70" s="27">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D70" s="27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E70" s="27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F70" s="27">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="G70" s="28">
-        <v>0.47399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="H70" s="27">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="I70" s="27">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="J70" s="27">
-        <v>-149</v>
+        <v>-44</v>
       </c>
       <c r="K70" s="29">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="L70" s="30">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>14.96</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="C71" s="27">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="D71" s="27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E71" s="27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F71" s="27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G71" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H71" s="27">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="I71" s="27">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="J71" s="27">
-        <v>268</v>
+        <v>-15</v>
       </c>
       <c r="K71" s="29">
-        <v>1.02</v>
+        <v>0.89</v>
       </c>
       <c r="L71" s="30">
-        <v>42850</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="31">
-        <v>21.35</v>
+        <v>5.94</v>
       </c>
       <c r="C72" s="32">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D72" s="32">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E72" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F72" s="32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G72" s="33">
-        <v>0.94699999999999995</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H72" s="32">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="I72" s="32">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J72" s="32">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="K72" s="34">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="L72" s="30">
-        <v>42849</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="18">
-        <v>37.619999999999997</v>
+        <v>-5.63</v>
       </c>
       <c r="C73" s="19">
-        <v>47</v>
+        <v>-8</v>
       </c>
       <c r="D73" s="19">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E73" s="19">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F73" s="19">
-        <v>42</v>
+        <v>-7</v>
       </c>
       <c r="G73" s="20">
-        <v>0.61099999999999999</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="H73" s="19">
-        <v>1728</v>
+        <v>1180</v>
       </c>
       <c r="I73" s="19">
-        <v>1085</v>
+        <v>1263</v>
       </c>
       <c r="J73" s="19">
-        <v>643</v>
+        <v>-83</v>
       </c>
       <c r="K73" s="21">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -318,19 +318,19 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 0.23 Points per Component with overall change of -0.28% from closing price 2390.90 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.60 Points per Component with overall change of -1.85% from closing price 5686.81 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.59 Points per Component with overall change of 1.51% from closing price 838.54 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.25 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.30 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 1.24 Points per Component with overall change of -1.04% from closing price 2415.82 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 3.58 Points per Component with overall change of -1.79% from closing price 5788.36 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.03 Points per Component with overall change of 0.12% from closing price 837.50 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.58 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.47 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
   <dimension ref="B1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1122,133 +1122,133 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D4" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4" s="9">
         <v>9</v>
       </c>
       <c r="H4" s="11">
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="I4" s="13">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J4" s="14">
         <f>H4-I4</f>
-        <v>0.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D5" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" s="12">
-        <v>4.75</v>
+        <v>7.75</v>
       </c>
       <c r="I5" s="15">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J5" s="16">
         <f>H5-I5</f>
-        <v>-1</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="12">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I6" s="15">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="J6" s="16">
         <f>H6-I6</f>
-        <v>-0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D7" s="10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" s="10">
         <v>8</v>
       </c>
       <c r="H7" s="12">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="I7" s="15">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="J7" s="16">
         <f>H7-I7</f>
-        <v>-1</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D8" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="10">
         <v>4</v>
@@ -1257,91 +1257,91 @@
         <v>5</v>
       </c>
       <c r="G8" s="10">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="I8" s="15">
         <v>3</v>
-      </c>
-      <c r="H8" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="I8" s="15">
-        <v>4.5</v>
       </c>
       <c r="J8" s="16">
         <f>H8-I8</f>
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="10">
         <v>5</v>
       </c>
       <c r="H9" s="12">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="I9" s="15">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="J9" s="16">
         <f>H9-I9</f>
-        <v>-1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
       </c>
       <c r="E10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="10">
         <v>6</v>
       </c>
       <c r="G10" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" s="12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I10" s="15">
         <v>3.75</v>
       </c>
       <c r="J10" s="16">
         <f>H10-I10</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10">
         <v>4</v>
@@ -1350,74 +1350,74 @@
         <v>5</v>
       </c>
       <c r="H11" s="12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I11" s="15">
-        <v>4.75</v>
+        <v>0.25</v>
       </c>
       <c r="J11" s="16">
         <f>H11-I11</f>
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="10">
         <v>5</v>
       </c>
       <c r="H12" s="12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="16">
         <f>H12-I12</f>
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="I13" s="15">
         <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="I13" s="15">
-        <v>4.25</v>
       </c>
       <c r="J13" s="16">
         <f>H13-I13</f>
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -1428,67 +1428,67 @@
         <v>82</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="10">
         <v>5</v>
       </c>
       <c r="H14" s="12">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="I14" s="15">
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J14" s="16">
         <f>H14-I14</f>
-        <v>-0.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
         <v>3</v>
-      </c>
-      <c r="E15" s="10">
-        <v>-1</v>
       </c>
       <c r="F15" s="10">
         <v>4</v>
       </c>
       <c r="G15" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="I15" s="15">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="J15" s="16">
         <f>H15-I15</f>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D16" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -1500,175 +1500,175 @@
         <v>4</v>
       </c>
       <c r="H16" s="12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I16" s="15">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="J16" s="16">
         <f>H16-I16</f>
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="I17" s="15">
         <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10">
-        <v>4</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="I17" s="15">
-        <v>2.5</v>
       </c>
       <c r="J17" s="16">
         <f>H17-I17</f>
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="10">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="12">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="I18" s="15">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="J18" s="16">
         <f>H18-I18</f>
-        <v>-3.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H19" s="12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" s="15">
-        <v>1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="J19" s="16">
         <f>H19-I19</f>
-        <v>-0.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D20" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E20" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="12">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="I20" s="15">
-        <v>4</v>
+        <v>-1.5</v>
       </c>
       <c r="J20" s="16">
         <f>H20-I20</f>
-        <v>-3.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
         <v>1</v>
       </c>
-      <c r="G21" s="10">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.5</v>
-      </c>
       <c r="I21" s="15">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="J21" s="16">
         <f>H21-I21</f>
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D22" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="10">
         <v>-1</v>
@@ -1677,118 +1677,118 @@
         <v>0</v>
       </c>
       <c r="G22" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15">
-        <v>2</v>
+        <v>-2.5</v>
       </c>
       <c r="J22" s="16">
         <f>H22-I22</f>
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D23" s="10">
+        <v>-2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F23" s="10">
         <v>-1</v>
       </c>
-      <c r="E23" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
       <c r="G23" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H23" s="12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="15">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="J23" s="16">
         <f>H23-I23</f>
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D24" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
       <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
         <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2</v>
       </c>
       <c r="H24" s="12">
         <v>0.5</v>
       </c>
       <c r="I24" s="15">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="J24" s="16">
         <f>H24-I24</f>
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D25" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12">
         <v>0.5</v>
       </c>
       <c r="I25" s="15">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="J25" s="16">
         <f>H25-I25</f>
-        <v>-0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
@@ -1800,74 +1800,74 @@
         <v>1</v>
       </c>
       <c r="H26" s="12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I26" s="15">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="J26" s="16">
         <f>H26-I26</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="10">
         <v>-2</v>
       </c>
       <c r="F27" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G27" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="12">
         <v>0.25</v>
       </c>
       <c r="I27" s="15">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="J27" s="16">
         <f>H27-I27</f>
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E28" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
         <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>2</v>
       </c>
       <c r="H28" s="12">
         <v>0</v>
       </c>
       <c r="I28" s="15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="J28" s="16">
         <f>H28-I28</f>
-        <v>-0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -1878,56 +1878,56 @@
         <v>81</v>
       </c>
       <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
         <v>2</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
       </c>
       <c r="F29" s="10">
         <v>-1</v>
       </c>
       <c r="G29" s="10">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H29" s="12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="I29" s="15">
-        <v>-3.5</v>
+        <v>-2.75</v>
       </c>
       <c r="J29" s="16">
         <f>H29-I29</f>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D30" s="10">
         <v>-2</v>
       </c>
       <c r="E30" s="10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F30" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="12">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="I30" s="15">
-        <v>4</v>
+        <v>-1.5</v>
       </c>
       <c r="J30" s="16">
         <f>H30-I30</f>
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -1938,176 +1938,176 @@
         <v>52</v>
       </c>
       <c r="D31" s="10">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E31" s="10">
         <v>-1</v>
       </c>
       <c r="F31" s="10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
       </c>
       <c r="H31" s="12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="15">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="J31" s="16">
         <f>H31-I31</f>
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D32" s="10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E32" s="10">
         <v>-2</v>
       </c>
       <c r="F32" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="12">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="15">
-        <v>-1.75</v>
+        <v>-4.25</v>
       </c>
       <c r="J32" s="16">
         <f>H32-I32</f>
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D33" s="10">
+        <v>-5</v>
+      </c>
+      <c r="E33" s="10">
+        <v>-4</v>
+      </c>
+      <c r="F33" s="10">
         <v>-3</v>
       </c>
-      <c r="E33" s="10">
-        <v>-8</v>
-      </c>
-      <c r="F33" s="10">
-        <v>-4</v>
-      </c>
       <c r="G33" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H33" s="12">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="I33" s="15">
-        <v>3.75</v>
+        <v>-3.5</v>
       </c>
       <c r="J33" s="16">
         <f>H33-I33</f>
-        <v>-5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D34" s="10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E34" s="10">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F34" s="10">
         <v>-1</v>
       </c>
       <c r="G34" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="12">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="I34" s="15">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="J34" s="16">
         <f>H34-I34</f>
-        <v>-4</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" s="10">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E35" s="10">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F35" s="10">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="G35" s="10">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="H35" s="12">
-        <v>-2.75</v>
+        <v>-3.5</v>
       </c>
       <c r="I35" s="15">
-        <v>-0.75</v>
+        <v>-4.5</v>
       </c>
       <c r="J35" s="16">
         <f>H35-I35</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D36" s="10">
         <v>-4</v>
       </c>
       <c r="E36" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F36" s="10">
         <v>-4</v>
       </c>
       <c r="G36" s="10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H36" s="12">
-        <v>-2.75</v>
+        <v>-3.75</v>
       </c>
       <c r="I36" s="15">
-        <v>-1.75</v>
+        <v>-4.5</v>
       </c>
       <c r="J36" s="16">
         <f>H36-I36</f>
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -2118,26 +2118,26 @@
         <v>79</v>
       </c>
       <c r="D37" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E37" s="10">
+        <v>-5</v>
+      </c>
+      <c r="F37" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G37" s="10">
         <v>-4</v>
       </c>
-      <c r="F37" s="10">
-        <v>-5</v>
-      </c>
-      <c r="G37" s="10">
-        <v>-3</v>
-      </c>
       <c r="H37" s="12">
-        <v>-3.25</v>
+        <v>-4.75</v>
       </c>
       <c r="I37" s="15">
-        <v>-6.25</v>
+        <v>-4.75</v>
       </c>
       <c r="J37" s="16">
         <f>H37-I37</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -2148,26 +2148,26 @@
         <v>77</v>
       </c>
       <c r="D38" s="10">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="E38" s="10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F38" s="10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G38" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H38" s="12">
-        <v>-3.75</v>
+        <v>-6.5</v>
       </c>
       <c r="I38" s="15">
-        <v>-8.5</v>
+        <v>-5.75</v>
       </c>
       <c r="J38" s="16">
         <f>H38-I38</f>
-        <v>4.75</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -2178,26 +2178,26 @@
         <v>59</v>
       </c>
       <c r="D39" s="10">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E39" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F39" s="10">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G39" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H39" s="12">
-        <v>-5</v>
+        <v>-7.5</v>
       </c>
       <c r="I39" s="15">
-        <v>-8.25</v>
+        <v>-7.5</v>
       </c>
       <c r="J39" s="16">
         <f>H39-I39</f>
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2208,56 +2208,56 @@
         <v>78</v>
       </c>
       <c r="D40" s="10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E40" s="10">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F40" s="10">
         <v>-9</v>
       </c>
       <c r="G40" s="10">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H40" s="35">
-        <v>-7.75</v>
+        <v>-8</v>
       </c>
       <c r="I40" s="36">
-        <v>-9</v>
+        <v>-7.25</v>
       </c>
       <c r="J40" s="37">
         <f>H40-I40</f>
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D41" s="38">
         <f t="shared" ref="D41:I41" si="0">AVERAGE(D4:D40)</f>
-        <v>-0.3783783783783784</v>
+        <v>-5.4054054054054057E-2</v>
       </c>
       <c r="E41" s="38">
         <f t="shared" si="0"/>
-        <v>-0.86486486486486491</v>
+        <v>0</v>
       </c>
       <c r="F41" s="38">
         <f t="shared" si="0"/>
-        <v>0.81081081081081086</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="G41" s="38">
         <f t="shared" si="0"/>
-        <v>3.1081081081081079</v>
+        <v>2.7567567567567566</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="0"/>
-        <v>0.66891891891891897</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="I41" s="40">
         <f t="shared" si="0"/>
-        <v>1.3513513513513513</v>
+        <v>-1.0675675675675675</v>
       </c>
       <c r="J41" s="41">
         <f t="shared" ref="J41" si="1">H41-I41</f>
-        <v>-0.68243243243243235</v>
+        <v>1.8513513513513513</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2275,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2337,384 +2337,384 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <v>-146.1</v>
+        <v>12.11</v>
       </c>
       <c r="C3" s="27">
-        <v>-168</v>
+        <v>33</v>
       </c>
       <c r="D3" s="27">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="E3" s="27">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="F3" s="27">
-        <v>-188</v>
+        <v>1</v>
       </c>
       <c r="G3" s="28">
-        <v>0.308</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="H3" s="27">
-        <v>513</v>
+        <v>804</v>
       </c>
       <c r="I3" s="27">
-        <v>1277</v>
+        <v>704</v>
       </c>
       <c r="J3" s="27">
-        <v>-763</v>
+        <v>100</v>
       </c>
       <c r="K3" s="29">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="L3" s="30">
-        <v>42867</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>-131.56</v>
+        <v>314.05</v>
       </c>
       <c r="C4" s="27">
-        <v>-165</v>
+        <v>389</v>
       </c>
       <c r="D4" s="27">
-        <v>154</v>
+        <v>357</v>
       </c>
       <c r="E4" s="27">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="F4" s="27">
-        <v>-189</v>
+        <v>215</v>
       </c>
       <c r="G4" s="28">
-        <v>0.30399999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H4" s="27">
-        <v>656</v>
+        <v>1160</v>
       </c>
       <c r="I4" s="27">
-        <v>1348</v>
+        <v>840</v>
       </c>
       <c r="J4" s="27">
-        <v>-692</v>
+        <v>319</v>
       </c>
       <c r="K4" s="29">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="L4" s="30">
-        <v>42866</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>3.03</v>
+        <v>167.67</v>
       </c>
       <c r="C5" s="27">
-        <v>-114</v>
+        <v>74</v>
       </c>
       <c r="D5" s="27">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E5" s="27">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F5" s="27">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G5" s="28">
-        <v>0.60899999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="H5" s="27">
-        <v>1265</v>
+        <v>889</v>
       </c>
       <c r="I5" s="27">
-        <v>705</v>
+        <v>861</v>
       </c>
       <c r="J5" s="27">
-        <v>560</v>
+        <v>27</v>
       </c>
       <c r="K5" s="29">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="L5" s="30">
-        <v>42865</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>15.24</v>
+        <v>-62.09</v>
       </c>
       <c r="C6" s="27">
-        <v>-16</v>
+        <v>-366</v>
       </c>
       <c r="D6" s="27">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E6" s="27">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="F6" s="27">
-        <v>-33</v>
+        <v>72</v>
       </c>
       <c r="G6" s="28">
-        <v>0.45800000000000002</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="H6" s="27">
-        <v>890</v>
+        <v>1032</v>
       </c>
       <c r="I6" s="27">
-        <v>969</v>
+        <v>716</v>
       </c>
       <c r="J6" s="27">
-        <v>-78</v>
+        <v>315</v>
       </c>
       <c r="K6" s="29">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="L6" s="30">
-        <v>42864</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>-101.86</v>
+        <v>291.95999999999998</v>
       </c>
       <c r="C7" s="27">
-        <v>-101</v>
+        <v>258</v>
       </c>
       <c r="D7" s="27">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="E7" s="27">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="F7" s="27">
-        <v>-128</v>
+        <v>294</v>
       </c>
       <c r="G7" s="28">
-        <v>0.36599999999999999</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="H7" s="27">
-        <v>804</v>
+        <v>1262</v>
       </c>
       <c r="I7" s="27">
-        <v>1025</v>
+        <v>571</v>
       </c>
       <c r="J7" s="27">
-        <v>-221</v>
+        <v>691</v>
       </c>
       <c r="K7" s="29">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="L7" s="30">
-        <v>42863</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>230.74</v>
+        <v>332.27</v>
       </c>
       <c r="C8" s="27">
-        <v>230</v>
+        <v>459</v>
       </c>
       <c r="D8" s="27">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="E8" s="27">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="F8" s="27">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="G8" s="28">
-        <v>0.72499999999999998</v>
+        <v>0.83</v>
       </c>
       <c r="H8" s="27">
-        <v>1342</v>
+        <v>1877</v>
       </c>
       <c r="I8" s="27">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="J8" s="27">
-        <v>863</v>
+        <v>1503</v>
       </c>
       <c r="K8" s="29">
-        <v>0.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L8" s="30">
-        <v>42860</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>149.57</v>
+        <v>205.38</v>
       </c>
       <c r="C9" s="27">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D9" s="27">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E9" s="27">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F9" s="27">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="G9" s="28">
-        <v>0.55100000000000005</v>
+        <v>0.621</v>
       </c>
       <c r="H9" s="27">
-        <v>903</v>
+        <v>1503</v>
       </c>
       <c r="I9" s="27">
-        <v>1326</v>
+        <v>814</v>
       </c>
       <c r="J9" s="27">
-        <v>-422</v>
+        <v>688</v>
       </c>
       <c r="K9" s="29">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L9" s="30">
-        <v>42859</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>-108.74</v>
+        <v>-842.18</v>
       </c>
       <c r="C10" s="27">
-        <v>-217</v>
+        <v>-1420</v>
       </c>
       <c r="D10" s="27">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="E10" s="27">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="F10" s="27">
-        <v>-94</v>
+        <v>-349</v>
       </c>
       <c r="G10" s="28">
-        <v>0.39900000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="H10" s="27">
-        <v>1126</v>
+        <v>293</v>
       </c>
       <c r="I10" s="27">
-        <v>1143</v>
+        <v>2413</v>
       </c>
       <c r="J10" s="27">
-        <v>-17</v>
+        <v>-2120</v>
       </c>
       <c r="K10" s="29">
-        <v>1.1499999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="L10" s="30">
-        <v>42858</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>155.30000000000001</v>
+        <v>-66.14</v>
       </c>
       <c r="C11" s="27">
-        <v>204</v>
+        <v>-89</v>
       </c>
       <c r="D11" s="27">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="E11" s="27">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="F11" s="27">
-        <v>81</v>
+        <v>-107</v>
       </c>
       <c r="G11" s="28">
-        <v>0.57299999999999995</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="H11" s="27">
-        <v>1069</v>
+        <v>869</v>
       </c>
       <c r="I11" s="27">
-        <v>1326</v>
+        <v>1128</v>
       </c>
       <c r="J11" s="27">
-        <v>-257</v>
+        <v>-258</v>
       </c>
       <c r="K11" s="29">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="L11" s="30">
-        <v>42857</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31">
-        <v>51.41</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="C12" s="32">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="D12" s="32">
-        <v>229</v>
+        <v>401</v>
       </c>
       <c r="E12" s="32">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="F12" s="32">
-        <v>-38</v>
+        <v>300</v>
       </c>
       <c r="G12" s="33">
-        <v>0.45300000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H12" s="32">
-        <v>993</v>
+        <v>1410</v>
       </c>
       <c r="I12" s="32">
-        <v>873</v>
+        <v>481</v>
       </c>
       <c r="J12" s="32">
-        <v>120</v>
+        <v>929</v>
       </c>
       <c r="K12" s="34">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="L12" s="30">
-        <v>42856</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
-        <v>117.03</v>
+        <v>624.63</v>
       </c>
       <c r="C13" s="19">
-        <v>-75</v>
+        <v>-136</v>
       </c>
       <c r="D13" s="19">
-        <v>2402</v>
+        <v>3011</v>
       </c>
       <c r="E13" s="19">
-        <v>2577</v>
+        <v>1983</v>
       </c>
       <c r="F13" s="19">
-        <v>-175</v>
+        <v>1028</v>
       </c>
       <c r="G13" s="20">
-        <v>0.48199999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="H13" s="19">
-        <v>9566</v>
+        <v>11103</v>
       </c>
       <c r="I13" s="19">
-        <v>10475</v>
+        <v>8906</v>
       </c>
       <c r="J13" s="19">
-        <v>-909</v>
+        <v>2197</v>
       </c>
       <c r="K13" s="21">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2765,384 +2765,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>10.98</v>
+        <v>24.27</v>
       </c>
       <c r="C18" s="27">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D18" s="27">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E18" s="27">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F18" s="27">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="G18" s="28">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="H18" s="27">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="I18" s="27">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="J18" s="27">
-        <v>-100</v>
+        <v>129</v>
       </c>
       <c r="K18" s="29">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="L18" s="30">
-        <v>42867</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>-26.23</v>
+        <v>128.9</v>
       </c>
       <c r="C19" s="27">
-        <v>-35</v>
+        <v>141</v>
       </c>
       <c r="D19" s="27">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E19" s="27">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F19" s="27">
-        <v>-31</v>
+        <v>67</v>
       </c>
       <c r="G19" s="28">
-        <v>0.34</v>
+        <v>0.83</v>
       </c>
       <c r="H19" s="27">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="I19" s="27">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="J19" s="27">
-        <v>-110</v>
+        <v>330</v>
       </c>
       <c r="K19" s="29">
-        <v>1.1100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L19" s="30">
-        <v>42866</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-50.59</v>
+        <v>77.08</v>
       </c>
       <c r="C20" s="27">
-        <v>-175</v>
+        <v>58</v>
       </c>
       <c r="D20" s="27">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E20" s="27">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F20" s="27">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G20" s="28">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="H20" s="27">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I20" s="27">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="J20" s="27">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="K20" s="29">
-        <v>1.1599999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L20" s="30">
-        <v>42865</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>84.51</v>
+        <v>-26.64</v>
       </c>
       <c r="C21" s="27">
-        <v>117</v>
+        <v>-76</v>
       </c>
       <c r="D21" s="27">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E21" s="27">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F21" s="27">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G21" s="28">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="H21" s="27">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="I21" s="27">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J21" s="27">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="K21" s="29">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="L21" s="30">
-        <v>42864</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>-46.45</v>
+        <v>135.66</v>
       </c>
       <c r="C22" s="27">
-        <v>-76</v>
+        <v>118</v>
       </c>
       <c r="D22" s="27">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E22" s="27">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F22" s="27">
-        <v>-30</v>
+        <v>74</v>
       </c>
       <c r="G22" s="28">
-        <v>0.35</v>
+        <v>0.87</v>
       </c>
       <c r="H22" s="27">
-        <v>229</v>
+        <v>436</v>
       </c>
       <c r="I22" s="27">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="J22" s="27">
-        <v>-69</v>
+        <v>388</v>
       </c>
       <c r="K22" s="29">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="L22" s="30">
-        <v>42863</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>24.31</v>
+        <v>71.59</v>
       </c>
       <c r="C23" s="27">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="D23" s="27">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E23" s="27">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F23" s="27">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G23" s="28">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="H23" s="27">
-        <v>323</v>
+        <v>438</v>
       </c>
       <c r="I23" s="27">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J23" s="27">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="K23" s="29">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="L23" s="30">
-        <v>42860</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>65.58</v>
+        <v>130.66</v>
       </c>
       <c r="C24" s="27">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="D24" s="27">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E24" s="27">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F24" s="27">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G24" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="H24" s="27">
-        <v>211</v>
+        <v>486</v>
       </c>
       <c r="I24" s="27">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="J24" s="27">
-        <v>-75</v>
+        <v>316</v>
       </c>
       <c r="K24" s="29">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="L24" s="30">
-        <v>42859</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>-49.37</v>
+        <v>-309.11</v>
       </c>
       <c r="C25" s="27">
-        <v>-151</v>
+        <v>-511</v>
       </c>
       <c r="D25" s="27">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E25" s="27">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F25" s="27">
-        <v>-16</v>
+        <v>-90</v>
       </c>
       <c r="G25" s="28">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="H25" s="27">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="I25" s="27">
-        <v>352</v>
+        <v>666</v>
       </c>
       <c r="J25" s="27">
-        <v>-140</v>
+        <v>-639</v>
       </c>
       <c r="K25" s="29">
-        <v>1.1399999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="L25" s="30">
-        <v>42858</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>48.84</v>
+        <v>64.87</v>
       </c>
       <c r="C26" s="27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="27">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="27">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26" s="27">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G26" s="28">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="H26" s="27">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I26" s="27">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="J26" s="27">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="K26" s="29">
-        <v>1.1599999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="L26" s="30">
-        <v>42857</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>98.3</v>
+        <v>60.38</v>
       </c>
       <c r="C27" s="32">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D27" s="32">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E27" s="32">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F27" s="32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G27" s="33">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="H27" s="32">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="I27" s="32">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="J27" s="32">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="K27" s="34">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="L27" s="30">
-        <v>42856</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
-        <v>159.88</v>
+        <v>357.66</v>
       </c>
       <c r="C28" s="19">
-        <v>-29</v>
+        <v>239</v>
       </c>
       <c r="D28" s="19">
-        <v>507</v>
+        <v>626</v>
       </c>
       <c r="E28" s="19">
-        <v>487</v>
+        <v>368</v>
       </c>
       <c r="F28" s="19">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="G28" s="20">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="H28" s="19">
-        <v>2707</v>
+        <v>3280</v>
       </c>
       <c r="I28" s="19">
-        <v>2521</v>
+        <v>2040</v>
       </c>
       <c r="J28" s="19">
-        <v>186</v>
+        <v>1240</v>
       </c>
       <c r="K28" s="21">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3192,384 +3192,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
-        <v>-163.58000000000001</v>
+        <v>15.28</v>
       </c>
       <c r="C33" s="27">
-        <v>-126</v>
+        <v>24</v>
       </c>
       <c r="D33" s="27">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="E33" s="27">
-        <v>451</v>
+        <v>325</v>
       </c>
       <c r="F33" s="27">
-        <v>-325</v>
+        <v>-84</v>
       </c>
       <c r="G33" s="28">
-        <v>0.20899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H33" s="27">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I33" s="27">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="J33" s="27">
-        <v>-138</v>
+        <v>-41</v>
       </c>
       <c r="K33" s="29">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="L33" s="30">
-        <v>42867</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>-161.38999999999999</v>
+        <v>6.06</v>
       </c>
       <c r="C34" s="27">
-        <v>-121</v>
+        <v>-44</v>
       </c>
       <c r="D34" s="27">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="E34" s="27">
-        <v>431</v>
+        <v>278</v>
       </c>
       <c r="F34" s="27">
-        <v>-281</v>
+        <v>17</v>
       </c>
       <c r="G34" s="28">
-        <v>0.249</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="H34" s="27">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="I34" s="27">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="J34" s="27">
-        <v>-134</v>
+        <v>-40</v>
       </c>
       <c r="K34" s="29">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="L34" s="30">
-        <v>42866</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>81.650000000000006</v>
+        <v>7.04</v>
       </c>
       <c r="C35" s="27">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D35" s="27">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="E35" s="27">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="F35" s="27">
-        <v>98</v>
+        <v>-55</v>
       </c>
       <c r="G35" s="28">
-        <v>0.56100000000000005</v>
+        <v>0.43</v>
       </c>
       <c r="H35" s="27">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="I35" s="27">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="J35" s="27">
-        <v>130</v>
+        <v>-27</v>
       </c>
       <c r="K35" s="29">
-        <v>1.1599999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="L35" s="30">
-        <v>42865</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>67.209999999999994</v>
+        <v>53.04</v>
       </c>
       <c r="C36" s="27">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="D36" s="27">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E36" s="27">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="F36" s="27">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G36" s="28">
-        <v>0.499</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="H36" s="27">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="I36" s="27">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="J36" s="27">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K36" s="29">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="L36" s="30">
-        <v>42864</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>-75.25</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="C37" s="27">
-        <v>-52</v>
+        <v>129</v>
       </c>
       <c r="D37" s="27">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="E37" s="27">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="F37" s="27">
-        <v>-86</v>
+        <v>268</v>
       </c>
       <c r="G37" s="28">
-        <v>0.41</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="H37" s="27">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="I37" s="27">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="J37" s="27">
-        <v>-33</v>
+        <v>100</v>
       </c>
       <c r="K37" s="29">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="L37" s="30">
-        <v>42863</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>78.900000000000006</v>
+        <v>100.01</v>
       </c>
       <c r="C38" s="27">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D38" s="27">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E38" s="27">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="27">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G38" s="28">
-        <v>0.59699999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H38" s="27">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="I38" s="27">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J38" s="27">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="K38" s="29">
-        <v>1.1200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="L38" s="30">
-        <v>42860</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>-26.26</v>
+        <v>42.4</v>
       </c>
       <c r="C39" s="27">
-        <v>-41</v>
+        <v>43</v>
       </c>
       <c r="D39" s="27">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="E39" s="27">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="F39" s="27">
-        <v>-42</v>
+        <v>58</v>
       </c>
       <c r="G39" s="28">
-        <v>0.443</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H39" s="27">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="I39" s="27">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="J39" s="27">
-        <v>-114</v>
+        <v>-13</v>
       </c>
       <c r="K39" s="29">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="L39" s="30">
-        <v>42859</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>-163.78</v>
+        <v>-535.44000000000005</v>
       </c>
       <c r="C40" s="27">
-        <v>-234</v>
+        <v>-609</v>
       </c>
       <c r="D40" s="27">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="E40" s="27">
-        <v>396</v>
+        <v>544</v>
       </c>
       <c r="F40" s="27">
-        <v>-214</v>
+        <v>-494</v>
       </c>
       <c r="G40" s="28">
-        <v>0.30199999999999999</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H40" s="27">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I40" s="27">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="J40" s="27">
-        <v>-118</v>
+        <v>-270</v>
       </c>
       <c r="K40" s="29">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="L40" s="30">
-        <v>42858</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-94.08</v>
+        <v>-7.97</v>
       </c>
       <c r="C41" s="27">
-        <v>-211</v>
+        <v>7</v>
       </c>
       <c r="D41" s="27">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="E41" s="27">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="F41" s="27">
-        <v>-102</v>
+        <v>-37</v>
       </c>
       <c r="G41" s="28">
-        <v>0.39</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H41" s="27">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="I41" s="27">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="J41" s="27">
-        <v>-52</v>
+        <v>-66</v>
       </c>
       <c r="K41" s="29">
-        <v>1.1599999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="L41" s="30">
-        <v>42857</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31">
-        <v>104.16</v>
+        <v>138.25</v>
       </c>
       <c r="C42" s="32">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D42" s="32">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="E42" s="32">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="F42" s="32">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="G42" s="33">
-        <v>0.59399999999999997</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="H42" s="32">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="I42" s="32">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J42" s="32">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="K42" s="34">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="L42" s="30">
-        <v>42856</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
-        <v>-352.42</v>
+        <v>-18.13</v>
       </c>
       <c r="C43" s="19">
-        <v>-305</v>
+        <v>-164</v>
       </c>
       <c r="D43" s="19">
-        <v>2564</v>
+        <v>2968</v>
       </c>
       <c r="E43" s="19">
-        <v>3209</v>
+        <v>2804</v>
       </c>
       <c r="F43" s="19">
-        <v>-645</v>
+        <v>164</v>
       </c>
       <c r="G43" s="20">
-        <v>0.44400000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="H43" s="19">
-        <v>1573</v>
+        <v>1495</v>
       </c>
       <c r="I43" s="19">
-        <v>1786</v>
+        <v>1582</v>
       </c>
       <c r="J43" s="19">
-        <v>-213</v>
+        <v>-87</v>
       </c>
       <c r="K43" s="21">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3620,384 +3620,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="26">
-        <v>-169.09</v>
+        <v>27.93</v>
       </c>
       <c r="C48" s="27">
-        <v>-117</v>
+        <v>108</v>
       </c>
       <c r="D48" s="27">
-        <v>504</v>
+        <v>677</v>
       </c>
       <c r="E48" s="27">
-        <v>867</v>
+        <v>690</v>
       </c>
       <c r="F48" s="27">
-        <v>-363</v>
+        <v>-13</v>
       </c>
       <c r="G48" s="28">
-        <v>0.35699999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="H48" s="27">
-        <v>1269</v>
+        <v>1459</v>
       </c>
       <c r="I48" s="27">
-        <v>1976</v>
+        <v>1337</v>
       </c>
       <c r="J48" s="27">
-        <v>-707</v>
+        <v>121</v>
       </c>
       <c r="K48" s="29">
-        <v>0.94</v>
+        <v>0.79</v>
       </c>
       <c r="L48" s="30">
-        <v>42867</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>-329.79</v>
+        <v>328.83</v>
       </c>
       <c r="C49" s="27">
-        <v>-491</v>
+        <v>449</v>
       </c>
       <c r="D49" s="27">
-        <v>470</v>
+        <v>808</v>
       </c>
       <c r="E49" s="27">
-        <v>899</v>
+        <v>581</v>
       </c>
       <c r="F49" s="27">
-        <v>-429</v>
+        <v>227</v>
       </c>
       <c r="G49" s="28">
-        <v>0.33300000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="H49" s="27">
-        <v>1399</v>
+        <v>1860</v>
       </c>
       <c r="I49" s="27">
-        <v>2318</v>
+        <v>1582</v>
       </c>
       <c r="J49" s="27">
-        <v>-918</v>
+        <v>278</v>
       </c>
       <c r="K49" s="29">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="L49" s="30">
-        <v>42866</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>232.85</v>
+        <v>250.44</v>
       </c>
       <c r="C50" s="27">
-        <v>-3</v>
+        <v>129</v>
       </c>
       <c r="D50" s="27">
-        <v>930</v>
+        <v>830</v>
       </c>
       <c r="E50" s="27">
-        <v>435</v>
+        <v>547</v>
       </c>
       <c r="F50" s="27">
-        <v>495</v>
+        <v>283</v>
       </c>
       <c r="G50" s="28">
-        <v>0.65800000000000003</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="H50" s="27">
-        <v>2491</v>
+        <v>1771</v>
       </c>
       <c r="I50" s="27">
-        <v>1225</v>
+        <v>1445</v>
       </c>
       <c r="J50" s="27">
-        <v>1265</v>
+        <v>325</v>
       </c>
       <c r="K50" s="29">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="L50" s="30">
-        <v>42865</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>150.82</v>
+        <v>-94.56</v>
       </c>
       <c r="C51" s="27">
-        <v>146</v>
+        <v>-391</v>
       </c>
       <c r="D51" s="27">
-        <v>689</v>
+        <v>732</v>
       </c>
       <c r="E51" s="27">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="F51" s="27">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="G51" s="28">
-        <v>0.48799999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="H51" s="27">
-        <v>1877</v>
+        <v>1721</v>
       </c>
       <c r="I51" s="27">
-        <v>1768</v>
+        <v>1475</v>
       </c>
       <c r="J51" s="27">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="K51" s="29">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="L51" s="30">
-        <v>42864</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>-157.57</v>
+        <v>518.30999999999995</v>
       </c>
       <c r="C52" s="27">
-        <v>-130</v>
+        <v>505</v>
       </c>
       <c r="D52" s="27">
-        <v>540</v>
+        <v>1002</v>
       </c>
       <c r="E52" s="27">
-        <v>839</v>
+        <v>368</v>
       </c>
       <c r="F52" s="27">
-        <v>-299</v>
+        <v>634</v>
       </c>
       <c r="G52" s="28">
-        <v>0.38200000000000001</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="H52" s="27">
-        <v>1563</v>
+        <v>2203</v>
       </c>
       <c r="I52" s="27">
-        <v>1929</v>
+        <v>1013</v>
       </c>
       <c r="J52" s="27">
-        <v>-365</v>
+        <v>1190</v>
       </c>
       <c r="K52" s="29">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="L52" s="30">
-        <v>42863</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>628.08000000000004</v>
+        <v>598.30999999999995</v>
       </c>
       <c r="C53" s="27">
-        <v>922</v>
+        <v>758</v>
       </c>
       <c r="D53" s="27">
-        <v>1032</v>
+        <v>1098</v>
       </c>
       <c r="E53" s="27">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="F53" s="27">
-        <v>698</v>
+        <v>810</v>
       </c>
       <c r="G53" s="28">
-        <v>0.73</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="H53" s="27">
-        <v>2575</v>
+        <v>3063</v>
       </c>
       <c r="I53" s="27">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="J53" s="27">
-        <v>1757</v>
+        <v>2328</v>
       </c>
       <c r="K53" s="29">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="L53" s="30">
-        <v>42860</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>16.11</v>
+        <v>319.08999999999997</v>
       </c>
       <c r="C54" s="27">
-        <v>-167</v>
+        <v>460</v>
       </c>
       <c r="D54" s="27">
-        <v>659</v>
+        <v>813</v>
       </c>
       <c r="E54" s="27">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="F54" s="27">
-        <v>-47</v>
+        <v>251</v>
       </c>
       <c r="G54" s="28">
-        <v>0.46600000000000003</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="H54" s="27">
-        <v>1627</v>
+        <v>2427</v>
       </c>
       <c r="I54" s="27">
-        <v>2391</v>
+        <v>1654</v>
       </c>
       <c r="J54" s="27">
-        <v>-764</v>
+        <v>772</v>
       </c>
       <c r="K54" s="29">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L54" s="30">
-        <v>42859</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>-287.23</v>
+        <v>-1602.52</v>
       </c>
       <c r="C55" s="27">
-        <v>-513</v>
+        <v>-2341</v>
       </c>
       <c r="D55" s="27">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="E55" s="27">
-        <v>901</v>
+        <v>1213</v>
       </c>
       <c r="F55" s="27">
-        <v>-444</v>
+        <v>-1028</v>
       </c>
       <c r="G55" s="28">
-        <v>0.32300000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H55" s="27">
-        <v>1611</v>
+        <v>557</v>
       </c>
       <c r="I55" s="27">
-        <v>2249</v>
+        <v>3955</v>
       </c>
       <c r="J55" s="27">
-        <v>-638</v>
+        <v>-3397</v>
       </c>
       <c r="K55" s="29">
-        <v>1.1200000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="L55" s="30">
-        <v>42858</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>65.39</v>
+        <v>11.47</v>
       </c>
       <c r="C56" s="27">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D56" s="27">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="E56" s="27">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="F56" s="27">
-        <v>37</v>
+        <v>-114</v>
       </c>
       <c r="G56" s="28">
-        <v>0.498</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="H56" s="27">
-        <v>1961</v>
+        <v>1758</v>
       </c>
       <c r="I56" s="27">
-        <v>2150</v>
+        <v>1831</v>
       </c>
       <c r="J56" s="27">
-        <v>-189</v>
+        <v>-72</v>
       </c>
       <c r="K56" s="29">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="L56" s="30">
-        <v>42857</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="31">
-        <v>203.42</v>
+        <v>461.09</v>
       </c>
       <c r="C57" s="32">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="D57" s="32">
-        <v>743</v>
+        <v>1057</v>
       </c>
       <c r="E57" s="32">
-        <v>620</v>
+        <v>321</v>
       </c>
       <c r="F57" s="32">
-        <v>123</v>
+        <v>736</v>
       </c>
       <c r="G57" s="33">
-        <v>0.52600000000000002</v>
+        <v>0.748</v>
       </c>
       <c r="H57" s="32">
-        <v>1779</v>
+        <v>2587</v>
       </c>
       <c r="I57" s="32">
-        <v>1451</v>
+        <v>825</v>
       </c>
       <c r="J57" s="32">
-        <v>327</v>
+        <v>1762</v>
       </c>
       <c r="K57" s="34">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L57" s="30">
-        <v>42856</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
-        <v>352.99</v>
+        <v>818.39</v>
       </c>
       <c r="C58" s="19">
-        <v>-6</v>
+        <v>163</v>
       </c>
       <c r="D58" s="19">
-        <v>6728</v>
+        <v>7836</v>
       </c>
       <c r="E58" s="19">
-        <v>6941</v>
+        <v>5955</v>
       </c>
       <c r="F58" s="19">
-        <v>-213</v>
+        <v>1881</v>
       </c>
       <c r="G58" s="20">
-        <v>0.49199999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H58" s="19">
-        <v>18156</v>
+        <v>19412</v>
       </c>
       <c r="I58" s="19">
-        <v>18280</v>
+        <v>15855</v>
       </c>
       <c r="J58" s="19">
-        <v>-124</v>
+        <v>3557</v>
       </c>
       <c r="K58" s="21">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4050,384 +4050,384 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
-        <v>-2.5499999999999998</v>
+        <v>-2.77</v>
       </c>
       <c r="C63" s="27">
         <v>-1</v>
       </c>
       <c r="D63" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63" s="27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F63" s="27">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="G63" s="28">
-        <v>0.21099999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="H63" s="27">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I63" s="27">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J63" s="27">
-        <v>-152</v>
+        <v>-120</v>
       </c>
       <c r="K63" s="29">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="L63" s="30">
-        <v>42867</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>-5.36</v>
+        <v>4.5</v>
       </c>
       <c r="C64" s="27">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D64" s="27">
+        <v>15</v>
+      </c>
+      <c r="E64" s="27">
         <v>4</v>
       </c>
-      <c r="E64" s="27">
-        <v>15</v>
-      </c>
       <c r="F64" s="27">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="G64" s="28">
-        <v>0.21099999999999999</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H64" s="27">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I64" s="27">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="J64" s="27">
-        <v>-227</v>
+        <v>184</v>
       </c>
       <c r="K64" s="29">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="L64" s="30">
-        <v>42866</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>2.62</v>
+        <v>3.98</v>
       </c>
       <c r="C65" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G65" s="28">
-        <v>0.68400000000000005</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H65" s="27">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="I65" s="27">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="J65" s="27">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="K65" s="29">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="L65" s="30">
-        <v>42865</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>2.17</v>
+        <v>2.96</v>
       </c>
       <c r="C66" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E66" s="27">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F66" s="27">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="G66" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H66" s="27">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="I66" s="27">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="J66" s="27">
-        <v>-121</v>
+        <v>212</v>
       </c>
       <c r="K66" s="29">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="L66" s="30">
-        <v>42864</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>-7.87</v>
+        <v>9.15</v>
       </c>
       <c r="C67" s="27">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="D67" s="27">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E67" s="27">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F67" s="27">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="G67" s="28">
-        <v>0.316</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H67" s="27">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="I67" s="27">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="J67" s="27">
-        <v>-102</v>
+        <v>225</v>
       </c>
       <c r="K67" s="29">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="L67" s="30">
-        <v>42863</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>5.57</v>
+        <v>8.59</v>
       </c>
       <c r="C68" s="27">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D68" s="27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E68" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" s="27">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G68" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H68" s="27">
-        <v>173</v>
+        <v>357</v>
       </c>
       <c r="I68" s="27">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J68" s="27">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="K68" s="29">
-        <v>0.82</v>
+        <v>1.28</v>
       </c>
       <c r="L68" s="30">
-        <v>42860</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>2.02</v>
+        <v>9.42</v>
       </c>
       <c r="C69" s="27">
+        <v>19</v>
+      </c>
+      <c r="D69" s="27">
+        <v>18</v>
+      </c>
+      <c r="E69" s="27">
         <v>1</v>
       </c>
-      <c r="D69" s="27">
-        <v>12</v>
-      </c>
-      <c r="E69" s="27">
-        <v>7</v>
-      </c>
       <c r="F69" s="27">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G69" s="28">
-        <v>0.63200000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H69" s="27">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="I69" s="27">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J69" s="27">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="K69" s="29">
-        <v>0.96</v>
+        <v>1.5</v>
       </c>
       <c r="L69" s="30">
-        <v>42859</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>-5.66</v>
+        <v>-37.770000000000003</v>
       </c>
       <c r="C70" s="27">
-        <v>-5</v>
+        <v>-144</v>
       </c>
       <c r="D70" s="27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" s="27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F70" s="27">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="G70" s="28">
-        <v>0.316</v>
+        <v>0.105</v>
       </c>
       <c r="H70" s="27">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I70" s="27">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="J70" s="27">
-        <v>-44</v>
+        <v>-522</v>
       </c>
       <c r="K70" s="29">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="L70" s="30">
-        <v>42858</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>-2.5099999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="C71" s="27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D71" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="27">
         <v>9</v>
       </c>
       <c r="F71" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="28">
-        <v>0.52600000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H71" s="27">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I71" s="27">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="J71" s="27">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="K71" s="29">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="L71" s="30">
-        <v>42857</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="31">
-        <v>5.94</v>
+        <v>10.3</v>
       </c>
       <c r="C72" s="32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72" s="32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E72" s="32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F72" s="32">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G72" s="33">
-        <v>0.68400000000000005</v>
+        <v>1</v>
       </c>
       <c r="H72" s="32">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="I72" s="32">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J72" s="32">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="K72" s="34">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="L72" s="30">
-        <v>42856</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="18">
-        <v>-5.63</v>
+        <v>9</v>
       </c>
       <c r="C73" s="19">
-        <v>-8</v>
+        <v>-94</v>
       </c>
       <c r="D73" s="19">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E73" s="19">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F73" s="19">
-        <v>-7</v>
+        <v>84</v>
       </c>
       <c r="G73" s="20">
-        <v>0.48099999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="H73" s="19">
-        <v>1180</v>
+        <v>1983</v>
       </c>
       <c r="I73" s="19">
-        <v>1263</v>
+        <v>942</v>
       </c>
       <c r="J73" s="19">
-        <v>-83</v>
+        <v>1041</v>
       </c>
       <c r="K73" s="21">
-        <v>0.86</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\PTV\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -318,25 +318,25 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 1.24 Points per Component with overall change of -1.04% from closing price 2415.82 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 3.58 Points per Component with overall change of -1.79% from closing price 5788.36 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.03 Points per Component with overall change of 0.12% from closing price 837.50 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.58 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.47 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 0.71 Points per Component with overall change of -1.20% from closing price 2683.34 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.54 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.38 Points per Component with overall change of -1.21% from closing price 939.34 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.81 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.90 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0%_);[Red]\(#,##0.0%\)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,9 +747,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,6 +754,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,11 +1075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1122,388 +1125,388 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9">
         <v>9</v>
       </c>
       <c r="E4" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="11">
         <v>8.75</v>
       </c>
       <c r="I4" s="13">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J4" s="14">
         <f>H4-I4</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D5" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="10">
         <v>7</v>
       </c>
       <c r="F5" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="12">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="I5" s="15">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J5" s="16">
         <f>H5-I5</f>
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="I6" s="15">
         <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10">
-        <v>7</v>
-      </c>
-      <c r="H6" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="I6" s="15">
-        <v>3.25</v>
       </c>
       <c r="J6" s="16">
         <f>H6-I6</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D7" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="10">
         <v>8</v>
       </c>
       <c r="H7" s="12">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="I7" s="15">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J7" s="16">
         <f>H7-I7</f>
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" s="12">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="I8" s="15">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="J8" s="16">
         <f>H8-I8</f>
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D9" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="12">
-        <v>4.25</v>
+        <v>7.25</v>
       </c>
       <c r="I9" s="15">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="16">
         <f>H9-I9</f>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="12">
-        <v>4</v>
+        <v>7.25</v>
       </c>
       <c r="I10" s="15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J10" s="16">
         <f>H10-I10</f>
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G11" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" s="12">
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="I11" s="15">
-        <v>0.25</v>
+        <v>6.25</v>
       </c>
       <c r="J11" s="16">
         <f>H11-I11</f>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D12" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="12">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="I12" s="15">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J12" s="16">
         <f>H12-I12</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10">
         <v>7</v>
       </c>
-      <c r="E13" s="10">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3</v>
-      </c>
       <c r="G13" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13" s="12">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J13" s="16">
         <f>H13-I13</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>4</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="12">
-        <v>3.25</v>
-      </c>
       <c r="I14" s="15">
-        <v>-0.25</v>
+        <v>4.25</v>
       </c>
       <c r="J14" s="16">
         <f>H14-I14</f>
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D15" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F15" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="10">
         <v>3</v>
       </c>
       <c r="H15" s="12">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="16">
         <f>H15-I15</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G16" s="10">
         <v>4</v>
       </c>
       <c r="H16" s="12">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J16" s="16">
         <f>H16-I16</f>
@@ -1512,28 +1515,28 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12">
         <v>5</v>
       </c>
-      <c r="H17" s="12">
-        <v>2.25</v>
-      </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J17" s="16">
         <f>H17-I17</f>
@@ -1542,726 +1545,728 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="12">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="I18" s="15">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="J18" s="16">
         <f>H18-I18</f>
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D19" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="10">
         <v>4</v>
       </c>
       <c r="H19" s="12">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="I19" s="15">
-        <v>-2.5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="16">
         <f>H19-I19</f>
-        <v>4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E20" s="10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="10">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10">
         <v>2</v>
       </c>
-      <c r="G20" s="10">
-        <v>5</v>
-      </c>
       <c r="H20" s="12">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="I20" s="15">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J20" s="16">
         <f>H20-I20</f>
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="12">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I21" s="15">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="J21" s="16">
         <f>H21-I21</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F22" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="12">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I22" s="15">
-        <v>-2.5</v>
+        <v>3</v>
       </c>
       <c r="J22" s="16">
         <f>H22-I22</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D23" s="10">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="10">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12">
-        <v>0.75</v>
+        <v>4.5</v>
       </c>
       <c r="I23" s="15">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="J23" s="16">
         <f>H23-I23</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="12">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="I24" s="15">
-        <v>-1.25</v>
+        <v>4</v>
       </c>
       <c r="J24" s="16">
         <f>H24-I24</f>
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D25" s="10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="I25" s="15">
         <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>3</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="15">
-        <v>-1.5</v>
       </c>
       <c r="J25" s="16">
         <f>H25-I25</f>
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D26" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E26" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="12">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="I26" s="15">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="J26" s="16">
         <f>H26-I26</f>
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D27" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="10">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="10">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" s="12">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="I27" s="15">
-        <v>-2.25</v>
+        <v>3.25</v>
       </c>
       <c r="J27" s="16">
         <f>H27-I27</f>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D28" s="10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" s="12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I28" s="15">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="J28" s="16">
         <f>H28-I28</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D29" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="10">
+        <v>3</v>
+      </c>
+      <c r="F29" s="10">
+        <v>4</v>
+      </c>
+      <c r="G29" s="10">
+        <v>4</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="I29" s="15">
         <v>2</v>
-      </c>
-      <c r="F29" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-3</v>
-      </c>
-      <c r="H29" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="I29" s="15">
-        <v>-2.75</v>
       </c>
       <c r="J29" s="16">
         <f>H29-I29</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D30" s="10">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E30" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H30" s="12">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="I30" s="15">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="J30" s="16">
         <f>H30-I30</f>
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D31" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="10">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31" s="12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="15">
-        <v>-1.75</v>
+        <v>2.75</v>
       </c>
       <c r="J31" s="16">
         <f>H31-I31</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D32" s="10">
+        <v>-3</v>
+      </c>
+      <c r="E32" s="10">
         <v>0</v>
       </c>
-      <c r="E32" s="10">
-        <v>-2</v>
-      </c>
       <c r="F32" s="10">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="G32" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H32" s="12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="I32" s="15">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="16">
         <f>H32-I32</f>
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D33" s="10">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="10">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33" s="12">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I33" s="15">
-        <v>-3.5</v>
+        <v>1.75</v>
       </c>
       <c r="J33" s="16">
         <f>H33-I33</f>
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="10">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="12">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="I34" s="15">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="J34" s="16">
         <f>H34-I34</f>
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="10">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E35" s="10">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="F35" s="10">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="G35" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H35" s="12">
-        <v>-3.5</v>
+        <v>2.25</v>
       </c>
       <c r="I35" s="15">
-        <v>-4.5</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="16">
         <f>H35-I35</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D36" s="10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="10">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="G36" s="10">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H36" s="12">
-        <v>-3.75</v>
+        <v>2</v>
       </c>
       <c r="I36" s="15">
-        <v>-4.5</v>
+        <v>0.5</v>
       </c>
       <c r="J36" s="16">
         <f>H36-I36</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D37" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E37" s="10">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="F37" s="10">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="G37" s="10">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="12">
-        <v>-4.75</v>
+        <v>1.5</v>
       </c>
       <c r="I37" s="15">
-        <v>-4.75</v>
+        <v>0.25</v>
       </c>
       <c r="J37" s="16">
         <f>H37-I37</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D38" s="10">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E38" s="10">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F38" s="10">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="H38" s="12">
-        <v>-6.5</v>
+        <v>1.25</v>
       </c>
       <c r="I38" s="15">
-        <v>-5.75</v>
+        <v>-0.5</v>
       </c>
       <c r="J38" s="16">
         <f>H38-I38</f>
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D39" s="10">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E39" s="10">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F39" s="10">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="G39" s="10">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12">
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I39" s="15">
-        <v>-7.5</v>
+        <v>1</v>
       </c>
       <c r="J39" s="16">
         <f>H39-I39</f>
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D40" s="10">
         <v>-8</v>
       </c>
       <c r="E40" s="10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F40" s="10">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="G40" s="10">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="H40" s="35">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="I40" s="36">
-        <v>-7.25</v>
+        <v>1.75</v>
       </c>
       <c r="J40" s="37">
         <f>H40-I40</f>
-        <v>-0.75</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="38">
-        <f t="shared" ref="D41:I41" si="0">AVERAGE(D4:D40)</f>
-        <v>-5.4054054054054057E-2</v>
-      </c>
-      <c r="E41" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="38">
-        <f t="shared" si="0"/>
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="G41" s="38">
-        <f t="shared" si="0"/>
-        <v>2.7567567567567566</v>
-      </c>
-      <c r="H41" s="39">
-        <f t="shared" si="0"/>
-        <v>0.78378378378378377</v>
-      </c>
-      <c r="I41" s="40">
-        <f t="shared" si="0"/>
-        <v>-1.0675675675675675</v>
-      </c>
-      <c r="J41" s="41">
-        <f t="shared" ref="J41" si="1">H41-I41</f>
-        <v>1.8513513513513513</v>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42">
+        <f>AVERAGE(D4:D40)</f>
+        <v>3.5135135135135136</v>
+      </c>
+      <c r="E41" s="42">
+        <f>AVERAGE(E4:E40)</f>
+        <v>4.3513513513513518</v>
+      </c>
+      <c r="F41" s="42">
+        <f>AVERAGE(F4:F40)</f>
+        <v>4.8648648648648649</v>
+      </c>
+      <c r="G41" s="42">
+        <f>AVERAGE(G4:G40)</f>
+        <v>4.6486486486486482</v>
+      </c>
+      <c r="H41" s="38">
+        <f>AVERAGE(H4:H40)</f>
+        <v>4.3445945945945947</v>
+      </c>
+      <c r="I41" s="39">
+        <f>AVERAGE(I4:I40)</f>
+        <v>2.7297297297297298</v>
+      </c>
+      <c r="J41" s="40">
+        <f>H41-I41</f>
+        <v>1.6148648648648649</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:J40">
+  <sortState ref="B4:I40">
     <sortCondition descending="1" ref="H4:H40"/>
     <sortCondition descending="1" ref="I4:I40"/>
   </sortState>
@@ -2271,11 +2276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2337,384 +2342,384 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <v>12.11</v>
+        <v>21.33</v>
       </c>
       <c r="C3" s="27">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D3" s="27">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E3" s="27">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F3" s="27">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G3" s="28">
-        <v>0.49399999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="H3" s="27">
-        <v>804</v>
+        <v>708</v>
       </c>
       <c r="I3" s="27">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="J3" s="27">
-        <v>100</v>
+        <v>-6</v>
       </c>
       <c r="K3" s="29">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="L3" s="30">
-        <v>42881</v>
+        <v>43091</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>314.05</v>
+        <v>24.22</v>
       </c>
       <c r="C4" s="27">
-        <v>389</v>
+        <v>-22</v>
       </c>
       <c r="D4" s="27">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="E4" s="27">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="F4" s="27">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="G4" s="28">
-        <v>0.70599999999999996</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="H4" s="27">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="I4" s="27">
-        <v>840</v>
+        <v>781</v>
       </c>
       <c r="J4" s="27">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="K4" s="29">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="L4" s="30">
-        <v>42880</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>167.67</v>
+        <v>-58.2</v>
       </c>
       <c r="C5" s="27">
-        <v>74</v>
+        <v>-49</v>
       </c>
       <c r="D5" s="27">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E5" s="27">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="F5" s="27">
-        <v>133</v>
+        <v>-64</v>
       </c>
       <c r="G5" s="28">
-        <v>0.626</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="H5" s="27">
-        <v>889</v>
+        <v>1003</v>
       </c>
       <c r="I5" s="27">
-        <v>861</v>
+        <v>967</v>
       </c>
       <c r="J5" s="27">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K5" s="29">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="L5" s="30">
-        <v>42879</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>-62.09</v>
+        <v>-168.28</v>
       </c>
       <c r="C6" s="27">
-        <v>-366</v>
+        <v>-131</v>
       </c>
       <c r="D6" s="27">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="E6" s="27">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="F6" s="27">
-        <v>72</v>
+        <v>-129</v>
       </c>
       <c r="G6" s="28">
-        <v>0.56299999999999994</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="H6" s="27">
-        <v>1032</v>
+        <v>678</v>
       </c>
       <c r="I6" s="27">
-        <v>716</v>
+        <v>1305</v>
       </c>
       <c r="J6" s="27">
-        <v>315</v>
+        <v>-626</v>
       </c>
       <c r="K6" s="29">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="L6" s="30">
-        <v>42878</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>291.95999999999998</v>
+        <v>333.31</v>
       </c>
       <c r="C7" s="27">
-        <v>258</v>
+        <v>397</v>
       </c>
       <c r="D7" s="27">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="E7" s="27">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="F7" s="27">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="G7" s="28">
-        <v>0.78100000000000003</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="H7" s="27">
-        <v>1262</v>
+        <v>1601</v>
       </c>
       <c r="I7" s="27">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="J7" s="27">
-        <v>691</v>
+        <v>1022</v>
       </c>
       <c r="K7" s="29">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="L7" s="30">
-        <v>42877</v>
+        <v>43087</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>332.27</v>
+        <v>473.42</v>
       </c>
       <c r="C8" s="27">
-        <v>459</v>
+        <v>1416</v>
       </c>
       <c r="D8" s="27">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E8" s="27">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="27">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G8" s="28">
-        <v>0.83</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="H8" s="27">
-        <v>1877</v>
+        <v>3119</v>
       </c>
       <c r="I8" s="27">
-        <v>373</v>
+        <v>632</v>
       </c>
       <c r="J8" s="27">
-        <v>1503</v>
+        <v>2486</v>
       </c>
       <c r="K8" s="29">
-        <v>1.1000000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="L8" s="30">
-        <v>42874</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>205.38</v>
+        <v>-246.3</v>
       </c>
       <c r="C9" s="27">
-        <v>270</v>
+        <v>-196</v>
       </c>
       <c r="D9" s="27">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="E9" s="27">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="F9" s="27">
-        <v>130</v>
+        <v>-258</v>
       </c>
       <c r="G9" s="28">
-        <v>0.621</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="H9" s="27">
-        <v>1503</v>
+        <v>612</v>
       </c>
       <c r="I9" s="27">
-        <v>814</v>
+        <v>1384</v>
       </c>
       <c r="J9" s="27">
-        <v>688</v>
+        <v>-771</v>
       </c>
       <c r="K9" s="29">
-        <v>1.1399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="30">
-        <v>42873</v>
+        <v>43083</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>-842.18</v>
+        <v>-5.59</v>
       </c>
       <c r="C10" s="27">
-        <v>-1420</v>
+        <v>-8</v>
       </c>
       <c r="D10" s="27">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="E10" s="27">
-        <v>425</v>
+        <v>267</v>
       </c>
       <c r="F10" s="27">
-        <v>-349</v>
+        <v>-35</v>
       </c>
       <c r="G10" s="28">
-        <v>0.15</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="H10" s="27">
-        <v>293</v>
+        <v>940</v>
       </c>
       <c r="I10" s="27">
-        <v>2413</v>
+        <v>1066</v>
       </c>
       <c r="J10" s="27">
-        <v>-2120</v>
+        <v>-126</v>
       </c>
       <c r="K10" s="29">
-        <v>1.33</v>
+        <v>0.96</v>
       </c>
       <c r="L10" s="30">
-        <v>42872</v>
+        <v>43082</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>-66.14</v>
+        <v>-9.51</v>
       </c>
       <c r="C11" s="27">
-        <v>-89</v>
+        <v>2</v>
       </c>
       <c r="D11" s="27">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="E11" s="27">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="F11" s="27">
-        <v>-107</v>
+        <v>11</v>
       </c>
       <c r="G11" s="28">
-        <v>0.38700000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="H11" s="27">
-        <v>869</v>
+        <v>1168</v>
       </c>
       <c r="I11" s="27">
-        <v>1128</v>
+        <v>850</v>
       </c>
       <c r="J11" s="27">
-        <v>-258</v>
+        <v>318</v>
       </c>
       <c r="K11" s="29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L11" s="30">
-        <v>42871</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31">
-        <v>271.60000000000002</v>
+        <v>-6.08</v>
       </c>
       <c r="C12" s="32">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="D12" s="32">
-        <v>401</v>
+        <v>259</v>
       </c>
       <c r="E12" s="32">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="F12" s="32">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="G12" s="33">
-        <v>0.79200000000000004</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="H12" s="32">
-        <v>1410</v>
+        <v>1093</v>
       </c>
       <c r="I12" s="32">
-        <v>481</v>
+        <v>721</v>
       </c>
       <c r="J12" s="32">
-        <v>929</v>
+        <v>371</v>
       </c>
       <c r="K12" s="34">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="L12" s="30">
-        <v>42870</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
-        <v>624.63</v>
+        <v>358.32</v>
       </c>
       <c r="C13" s="19">
-        <v>-136</v>
+        <v>1426</v>
       </c>
       <c r="D13" s="19">
-        <v>3011</v>
+        <v>2579</v>
       </c>
       <c r="E13" s="19">
-        <v>1983</v>
+        <v>2396</v>
       </c>
       <c r="F13" s="19">
-        <v>1028</v>
+        <v>183</v>
       </c>
       <c r="G13" s="20">
-        <v>0.60299999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="H13" s="19">
-        <v>11103</v>
+        <v>12103</v>
       </c>
       <c r="I13" s="19">
-        <v>8906</v>
+        <v>9002</v>
       </c>
       <c r="J13" s="19">
-        <v>2197</v>
+        <v>3101</v>
       </c>
       <c r="K13" s="21">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2765,381 +2770,381 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>24.27</v>
+        <v>-28.19</v>
       </c>
       <c r="C18" s="27">
-        <v>38</v>
+        <v>-15</v>
       </c>
       <c r="D18" s="27">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="27">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F18" s="27">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="G18" s="28">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="H18" s="27">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="I18" s="27">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J18" s="27">
-        <v>129</v>
+        <v>-69</v>
       </c>
       <c r="K18" s="29">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="L18" s="30">
-        <v>42881</v>
+        <v>43091</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>128.9</v>
+        <v>11.42</v>
       </c>
       <c r="C19" s="27">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="D19" s="27">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E19" s="27">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F19" s="27">
-        <v>67</v>
+        <v>-5</v>
       </c>
       <c r="G19" s="28">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
       <c r="H19" s="27">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="I19" s="27">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="J19" s="27">
-        <v>330</v>
+        <v>-45</v>
       </c>
       <c r="K19" s="29">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="L19" s="30">
-        <v>42880</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>77.08</v>
+        <v>-16.61</v>
       </c>
       <c r="C20" s="27">
-        <v>58</v>
+        <v>-11</v>
       </c>
       <c r="D20" s="27">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E20" s="27">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F20" s="27">
-        <v>32</v>
+        <v>-5</v>
       </c>
       <c r="G20" s="28">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="H20" s="27">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="I20" s="27">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="J20" s="27">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="K20" s="29">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="L20" s="30">
-        <v>42879</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>-26.64</v>
+        <v>-49.65</v>
       </c>
       <c r="C21" s="27">
-        <v>-76</v>
+        <v>-26</v>
       </c>
       <c r="D21" s="27">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E21" s="27">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F21" s="27">
-        <v>4</v>
+        <v>-25</v>
       </c>
       <c r="G21" s="28">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="H21" s="27">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="I21" s="27">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="J21" s="27">
-        <v>27</v>
+        <v>-88</v>
       </c>
       <c r="K21" s="29">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="L21" s="30">
-        <v>42878</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>135.66</v>
+        <v>117.98</v>
       </c>
       <c r="C22" s="27">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D22" s="27">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E22" s="27">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F22" s="27">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G22" s="28">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
       <c r="H22" s="27">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="I22" s="27">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="J22" s="27">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="K22" s="29">
-        <v>0.92</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L22" s="30">
-        <v>42877</v>
+        <v>43087</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>71.59</v>
+        <v>140.33000000000001</v>
       </c>
       <c r="C23" s="27">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="D23" s="27">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E23" s="27">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F23" s="27">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G23" s="28">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="H23" s="27">
-        <v>438</v>
+        <v>818</v>
       </c>
       <c r="I23" s="27">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="J23" s="27">
-        <v>306</v>
+        <v>576</v>
       </c>
       <c r="K23" s="29">
-        <v>1.08</v>
+        <v>1.9</v>
       </c>
       <c r="L23" s="30">
-        <v>42874</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>130.66</v>
+        <v>-21.57</v>
       </c>
       <c r="C24" s="27">
-        <v>214</v>
+        <v>-10</v>
       </c>
       <c r="D24" s="27">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E24" s="27">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F24" s="27">
-        <v>64</v>
+        <v>-25</v>
       </c>
       <c r="G24" s="28">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="H24" s="27">
-        <v>486</v>
+        <v>268</v>
       </c>
       <c r="I24" s="27">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="J24" s="27">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="K24" s="29">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
       <c r="L24" s="30">
-        <v>42873</v>
+        <v>43083</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>-309.11</v>
+        <v>59.04</v>
       </c>
       <c r="C25" s="27">
-        <v>-511</v>
+        <v>57</v>
       </c>
       <c r="D25" s="27">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E25" s="27">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F25" s="27">
-        <v>-90</v>
+        <v>16</v>
       </c>
       <c r="G25" s="28">
-        <v>0.05</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H25" s="27">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="I25" s="27">
-        <v>666</v>
+        <v>184</v>
       </c>
       <c r="J25" s="27">
-        <v>-639</v>
+        <v>130</v>
       </c>
       <c r="K25" s="29">
-        <v>1.32</v>
+        <v>0.92</v>
       </c>
       <c r="L25" s="30">
-        <v>42872</v>
+        <v>43082</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>64.87</v>
+        <v>-16.739999999999998</v>
       </c>
       <c r="C26" s="27">
-        <v>63</v>
+        <v>-2</v>
       </c>
       <c r="D26" s="27">
+        <v>38</v>
+      </c>
+      <c r="E26" s="27">
         <v>60</v>
       </c>
-      <c r="E26" s="27">
-        <v>39</v>
-      </c>
       <c r="F26" s="27">
-        <v>21</v>
+        <v>-22</v>
       </c>
       <c r="G26" s="28">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="H26" s="27">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="I26" s="27">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="J26" s="27">
-        <v>150</v>
+        <v>-44</v>
       </c>
       <c r="K26" s="29">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="L26" s="30">
-        <v>42871</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>60.38</v>
+        <v>55.01</v>
       </c>
       <c r="C27" s="32">
+        <v>69</v>
+      </c>
+      <c r="D27" s="32">
         <v>64</v>
       </c>
-      <c r="D27" s="32">
-        <v>62</v>
-      </c>
       <c r="E27" s="32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="32">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G27" s="33">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="H27" s="32">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="I27" s="32">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="J27" s="32">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="K27" s="34">
-        <v>1.01</v>
+        <v>0.88</v>
       </c>
       <c r="L27" s="30">
-        <v>42870</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
-        <v>357.66</v>
+        <v>251.02</v>
       </c>
       <c r="C28" s="19">
-        <v>239</v>
+        <v>640</v>
       </c>
       <c r="D28" s="19">
-        <v>626</v>
+        <v>524</v>
       </c>
       <c r="E28" s="19">
-        <v>368</v>
+        <v>459</v>
       </c>
       <c r="F28" s="19">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="G28" s="20">
-        <v>0.63</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H28" s="19">
-        <v>3280</v>
+        <v>3345</v>
       </c>
       <c r="I28" s="19">
-        <v>2040</v>
+        <v>2238</v>
       </c>
       <c r="J28" s="19">
-        <v>1240</v>
+        <v>1107</v>
       </c>
       <c r="K28" s="21">
         <v>1.01</v>
@@ -3192,384 +3197,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
-        <v>15.28</v>
+        <v>-81.290000000000006</v>
       </c>
       <c r="C33" s="27">
-        <v>24</v>
+        <v>-45</v>
       </c>
       <c r="D33" s="27">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E33" s="27">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="F33" s="27">
-        <v>-84</v>
+        <v>-180</v>
       </c>
       <c r="G33" s="28">
-        <v>0.4</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="H33" s="27">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I33" s="27">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J33" s="27">
-        <v>-41</v>
+        <v>-16</v>
       </c>
       <c r="K33" s="29">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="L33" s="30">
-        <v>42881</v>
+        <v>43091</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>6.06</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="C34" s="27">
-        <v>-44</v>
+        <v>7</v>
       </c>
       <c r="D34" s="27">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="E34" s="27">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="F34" s="27">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G34" s="28">
-        <v>0.48899999999999999</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H34" s="27">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="I34" s="27">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="J34" s="27">
-        <v>-40</v>
+        <v>129</v>
       </c>
       <c r="K34" s="29">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="L34" s="30">
-        <v>42880</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>7.04</v>
+        <v>23.68</v>
       </c>
       <c r="C35" s="27">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D35" s="27">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="E35" s="27">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="F35" s="27">
-        <v>-55</v>
+        <v>76</v>
       </c>
       <c r="G35" s="28">
-        <v>0.43</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="H35" s="27">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="I35" s="27">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="J35" s="27">
-        <v>-27</v>
+        <v>48</v>
       </c>
       <c r="K35" s="29">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="L35" s="30">
-        <v>42879</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>53.04</v>
+        <v>-250.02</v>
       </c>
       <c r="C36" s="27">
-        <v>41</v>
+        <v>-287</v>
       </c>
       <c r="D36" s="27">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="E36" s="27">
+        <v>431</v>
+      </c>
+      <c r="F36" s="27">
+        <v>-275</v>
+      </c>
+      <c r="G36" s="28">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H36" s="27">
+        <v>131</v>
+      </c>
+      <c r="I36" s="27">
         <v>237</v>
       </c>
-      <c r="F36" s="27">
-        <v>100</v>
-      </c>
-      <c r="G36" s="28">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="H36" s="27">
-        <v>148</v>
-      </c>
-      <c r="I36" s="27">
-        <v>131</v>
-      </c>
       <c r="J36" s="27">
-        <v>17</v>
+        <v>-106</v>
       </c>
       <c r="K36" s="29">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="L36" s="30">
-        <v>42878</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>163.19999999999999</v>
+        <v>306.61</v>
       </c>
       <c r="C37" s="27">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="D37" s="27">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="E37" s="27">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F37" s="27">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="G37" s="28">
-        <v>0.70499999999999996</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="H37" s="27">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="I37" s="27">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J37" s="27">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="K37" s="29">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="L37" s="30">
-        <v>42877</v>
+        <v>43087</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>100.01</v>
+        <v>430.3</v>
       </c>
       <c r="C38" s="27">
-        <v>111</v>
+        <v>2669</v>
       </c>
       <c r="D38" s="27">
-        <v>367</v>
+        <v>520</v>
       </c>
       <c r="E38" s="27">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="F38" s="27">
-        <v>161</v>
+        <v>453</v>
       </c>
       <c r="G38" s="28">
-        <v>0.60899999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="H38" s="27">
-        <v>226</v>
+        <v>604</v>
       </c>
       <c r="I38" s="27">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="J38" s="27">
-        <v>137</v>
+        <v>430</v>
       </c>
       <c r="K38" s="29">
-        <v>0.98</v>
+        <v>2.23</v>
       </c>
       <c r="L38" s="30">
-        <v>42874</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>42.4</v>
+        <v>-272.52999999999997</v>
       </c>
       <c r="C39" s="27">
-        <v>43</v>
+        <v>-272</v>
       </c>
       <c r="D39" s="27">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="E39" s="27">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="F39" s="27">
-        <v>58</v>
+        <v>-407</v>
       </c>
       <c r="G39" s="28">
-        <v>0.52600000000000002</v>
+        <v>0.152</v>
       </c>
       <c r="H39" s="27">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="I39" s="27">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="J39" s="27">
-        <v>-13</v>
+        <v>-207</v>
       </c>
       <c r="K39" s="29">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L39" s="30">
-        <v>42873</v>
+        <v>43083</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>-535.44000000000005</v>
+        <v>144.21</v>
       </c>
       <c r="C40" s="27">
-        <v>-609</v>
+        <v>138</v>
       </c>
       <c r="D40" s="27">
-        <v>50</v>
+        <v>383</v>
       </c>
       <c r="E40" s="27">
-        <v>544</v>
+        <v>199</v>
       </c>
       <c r="F40" s="27">
-        <v>-494</v>
+        <v>184</v>
       </c>
       <c r="G40" s="28">
-        <v>8.3000000000000004E-2</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="H40" s="27">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="I40" s="27">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="J40" s="27">
-        <v>-270</v>
+        <v>87</v>
       </c>
       <c r="K40" s="29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="L40" s="30">
-        <v>42872</v>
+        <v>43082</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-7.97</v>
+        <v>-39.35</v>
       </c>
       <c r="C41" s="27">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="D41" s="27">
         <v>268</v>
       </c>
       <c r="E41" s="27">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F41" s="27">
-        <v>-37</v>
+        <v>-43</v>
       </c>
       <c r="G41" s="28">
         <v>0.44400000000000001</v>
       </c>
       <c r="H41" s="27">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I41" s="27">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J41" s="27">
-        <v>-66</v>
+        <v>-80</v>
       </c>
       <c r="K41" s="29">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L41" s="30">
-        <v>42871</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31">
-        <v>138.25</v>
+        <v>-110.71</v>
       </c>
       <c r="C42" s="32">
-        <v>100</v>
+        <v>-85</v>
       </c>
       <c r="D42" s="32">
-        <v>409</v>
+        <v>244</v>
       </c>
       <c r="E42" s="32">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="F42" s="32">
-        <v>230</v>
+        <v>-95</v>
       </c>
       <c r="G42" s="33">
-        <v>0.67800000000000005</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="H42" s="32">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="I42" s="32">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="J42" s="32">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="K42" s="34">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="L42" s="30">
-        <v>42870</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
-        <v>-18.13</v>
+        <v>231</v>
       </c>
       <c r="C43" s="19">
-        <v>-164</v>
+        <v>2450</v>
       </c>
       <c r="D43" s="19">
-        <v>2968</v>
+        <v>3043</v>
       </c>
       <c r="E43" s="19">
-        <v>2804</v>
+        <v>2793</v>
       </c>
       <c r="F43" s="19">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="G43" s="20">
-        <v>0.51400000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="H43" s="19">
-        <v>1495</v>
+        <v>2161</v>
       </c>
       <c r="I43" s="19">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="J43" s="19">
-        <v>-87</v>
+        <v>586</v>
       </c>
       <c r="K43" s="21">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3620,384 +3625,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="26">
-        <v>27.93</v>
+        <v>26.72</v>
       </c>
       <c r="C48" s="27">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="D48" s="27">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="E48" s="27">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="F48" s="27">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="G48" s="28">
-        <v>0.47899999999999998</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="H48" s="27">
-        <v>1459</v>
+        <v>1259</v>
       </c>
       <c r="I48" s="27">
-        <v>1337</v>
+        <v>1287</v>
       </c>
       <c r="J48" s="27">
-        <v>121</v>
+        <v>-27</v>
       </c>
       <c r="K48" s="29">
-        <v>0.79</v>
+        <v>0.69</v>
       </c>
       <c r="L48" s="30">
-        <v>42881</v>
+        <v>43091</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>328.83</v>
+        <v>210.28</v>
       </c>
       <c r="C49" s="27">
-        <v>449</v>
+        <v>192</v>
       </c>
       <c r="D49" s="27">
-        <v>808</v>
+        <v>876</v>
       </c>
       <c r="E49" s="27">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="F49" s="27">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="G49" s="28">
-        <v>0.57199999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="H49" s="27">
-        <v>1860</v>
+        <v>2148</v>
       </c>
       <c r="I49" s="27">
-        <v>1582</v>
+        <v>1212</v>
       </c>
       <c r="J49" s="27">
-        <v>278</v>
+        <v>936</v>
       </c>
       <c r="K49" s="29">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="L49" s="30">
-        <v>42880</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>250.44</v>
+        <v>48.73</v>
       </c>
       <c r="C50" s="27">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D50" s="27">
-        <v>830</v>
+        <v>728</v>
       </c>
       <c r="E50" s="27">
-        <v>547</v>
+        <v>699</v>
       </c>
       <c r="F50" s="27">
-        <v>283</v>
+        <v>29</v>
       </c>
       <c r="G50" s="28">
-        <v>0.58699999999999997</v>
+        <v>0.499</v>
       </c>
       <c r="H50" s="27">
-        <v>1771</v>
+        <v>1883</v>
       </c>
       <c r="I50" s="27">
-        <v>1445</v>
+        <v>1567</v>
       </c>
       <c r="J50" s="27">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K50" s="29">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L50" s="30">
-        <v>42879</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>-94.56</v>
+        <v>-274.81</v>
       </c>
       <c r="C51" s="27">
-        <v>-391</v>
+        <v>-209</v>
       </c>
       <c r="D51" s="27">
-        <v>732</v>
+        <v>528</v>
       </c>
       <c r="E51" s="27">
-        <v>637</v>
+        <v>892</v>
       </c>
       <c r="F51" s="27">
-        <v>95</v>
+        <v>-364</v>
       </c>
       <c r="G51" s="28">
-        <v>0.51800000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="H51" s="27">
-        <v>1721</v>
+        <v>1406</v>
       </c>
       <c r="I51" s="27">
-        <v>1475</v>
+        <v>2192</v>
       </c>
       <c r="J51" s="27">
-        <v>245</v>
+        <v>-785</v>
       </c>
       <c r="K51" s="29">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="L51" s="30">
-        <v>42878</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>518.30999999999995</v>
+        <v>802.98</v>
       </c>
       <c r="C52" s="27">
-        <v>505</v>
+        <v>1057</v>
       </c>
       <c r="D52" s="27">
-        <v>1002</v>
+        <v>1105</v>
       </c>
       <c r="E52" s="27">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="F52" s="27">
-        <v>634</v>
+        <v>776</v>
       </c>
       <c r="G52" s="28">
-        <v>0.70899999999999996</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="H52" s="27">
-        <v>2203</v>
+        <v>3095</v>
       </c>
       <c r="I52" s="27">
-        <v>1013</v>
+        <v>905</v>
       </c>
       <c r="J52" s="27">
-        <v>1190</v>
+        <v>2190</v>
       </c>
       <c r="K52" s="29">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="L52" s="30">
-        <v>42877</v>
+        <v>43087</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>598.30999999999995</v>
+        <v>761.3</v>
       </c>
       <c r="C53" s="27">
-        <v>758</v>
+        <v>2158</v>
       </c>
       <c r="D53" s="27">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="E53" s="27">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="F53" s="27">
-        <v>810</v>
+        <v>772</v>
       </c>
       <c r="G53" s="28">
-        <v>0.77700000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="H53" s="27">
-        <v>3063</v>
+        <v>4929</v>
       </c>
       <c r="I53" s="27">
-        <v>734</v>
+        <v>1347</v>
       </c>
       <c r="J53" s="27">
-        <v>2328</v>
+        <v>3582</v>
       </c>
       <c r="K53" s="29">
-        <v>1.06</v>
+        <v>1.68</v>
       </c>
       <c r="L53" s="30">
-        <v>42874</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>319.08999999999997</v>
+        <v>-557.32000000000005</v>
       </c>
       <c r="C54" s="27">
-        <v>460</v>
+        <v>-584</v>
       </c>
       <c r="D54" s="27">
-        <v>813</v>
+        <v>395</v>
       </c>
       <c r="E54" s="27">
-        <v>562</v>
+        <v>1043</v>
       </c>
       <c r="F54" s="27">
-        <v>251</v>
+        <v>-648</v>
       </c>
       <c r="G54" s="28">
-        <v>0.57499999999999996</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H54" s="27">
-        <v>2427</v>
+        <v>1269</v>
       </c>
       <c r="I54" s="27">
-        <v>1654</v>
+        <v>2445</v>
       </c>
       <c r="J54" s="27">
-        <v>772</v>
+        <v>-1176</v>
       </c>
       <c r="K54" s="29">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="L54" s="30">
-        <v>42873</v>
+        <v>43083</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>-1602.52</v>
+        <v>173.63</v>
       </c>
       <c r="C55" s="27">
-        <v>-2341</v>
+        <v>198</v>
       </c>
       <c r="D55" s="27">
-        <v>185</v>
+        <v>792</v>
       </c>
       <c r="E55" s="27">
-        <v>1213</v>
+        <v>639</v>
       </c>
       <c r="F55" s="27">
-        <v>-1028</v>
+        <v>153</v>
       </c>
       <c r="G55" s="28">
-        <v>0.13100000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H55" s="27">
-        <v>557</v>
+        <v>1965</v>
       </c>
       <c r="I55" s="27">
-        <v>3955</v>
+        <v>1750</v>
       </c>
       <c r="J55" s="27">
-        <v>-3397</v>
+        <v>215</v>
       </c>
       <c r="K55" s="29">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="L55" s="30">
-        <v>42872</v>
+        <v>43082</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>11.47</v>
+        <v>-149.16</v>
       </c>
       <c r="C56" s="27">
-        <v>117</v>
+        <v>-147</v>
       </c>
       <c r="D56" s="27">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="E56" s="27">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="F56" s="27">
-        <v>-114</v>
+        <v>-50</v>
       </c>
       <c r="G56" s="28">
-        <v>0.44900000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="H56" s="27">
-        <v>1758</v>
+        <v>1989</v>
       </c>
       <c r="I56" s="27">
-        <v>1831</v>
+        <v>1621</v>
       </c>
       <c r="J56" s="27">
-        <v>-72</v>
+        <v>368</v>
       </c>
       <c r="K56" s="29">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L56" s="30">
-        <v>42871</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="31">
-        <v>461.09</v>
+        <v>140.44999999999999</v>
       </c>
       <c r="C57" s="32">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="D57" s="32">
-        <v>1057</v>
+        <v>786</v>
       </c>
       <c r="E57" s="32">
-        <v>321</v>
+        <v>639</v>
       </c>
       <c r="F57" s="32">
-        <v>736</v>
+        <v>147</v>
       </c>
       <c r="G57" s="33">
-        <v>0.748</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="H57" s="32">
-        <v>2587</v>
+        <v>2133</v>
       </c>
       <c r="I57" s="32">
-        <v>825</v>
+        <v>1194</v>
       </c>
       <c r="J57" s="32">
-        <v>1762</v>
+        <v>939</v>
       </c>
       <c r="K57" s="34">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="L57" s="30">
-        <v>42870</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
-        <v>818.39</v>
+        <v>1182.8</v>
       </c>
       <c r="C58" s="19">
-        <v>163</v>
+        <v>3118</v>
       </c>
       <c r="D58" s="19">
-        <v>7836</v>
+        <v>7718</v>
       </c>
       <c r="E58" s="19">
-        <v>5955</v>
+        <v>6569</v>
       </c>
       <c r="F58" s="19">
-        <v>1881</v>
+        <v>1149</v>
       </c>
       <c r="G58" s="20">
-        <v>0.56799999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="H58" s="19">
-        <v>19412</v>
+        <v>22083</v>
       </c>
       <c r="I58" s="19">
-        <v>15855</v>
+        <v>15523</v>
       </c>
       <c r="J58" s="19">
-        <v>3557</v>
+        <v>6560</v>
       </c>
       <c r="K58" s="21">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4050,384 +4055,384 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
-        <v>-2.77</v>
+        <v>-1.08</v>
       </c>
       <c r="C63" s="27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63" s="27">
         <v>12</v>
       </c>
       <c r="F63" s="27">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G63" s="28">
-        <v>0.316</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H63" s="27">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I63" s="27">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="J63" s="27">
-        <v>-120</v>
+        <v>-148</v>
       </c>
       <c r="K63" s="29">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="L63" s="30">
-        <v>42881</v>
+        <v>43091</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>4.5</v>
+        <v>4.92</v>
       </c>
       <c r="C64" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" s="27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H64" s="27">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I64" s="27">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J64" s="27">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="K64" s="29">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="L64" s="30">
-        <v>42880</v>
+        <v>43090</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>3.98</v>
+        <v>0.68</v>
       </c>
       <c r="C65" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" s="27">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E65" s="27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F65" s="27">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="G65" s="28">
-        <v>0.78900000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H65" s="27">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="I65" s="27">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="J65" s="27">
-        <v>57</v>
+        <v>-196</v>
       </c>
       <c r="K65" s="29">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="L65" s="30">
-        <v>42879</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>2.96</v>
+        <v>-9.0500000000000007</v>
       </c>
       <c r="C66" s="27">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="D66" s="27">
+        <v>3</v>
+      </c>
+      <c r="E66" s="27">
         <v>16</v>
       </c>
-      <c r="E66" s="27">
-        <v>3</v>
-      </c>
       <c r="F66" s="27">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="G66" s="28">
-        <v>0.84199999999999997</v>
+        <v>0.158</v>
       </c>
       <c r="H66" s="27">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="I66" s="27">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="J66" s="27">
-        <v>212</v>
+        <v>-232</v>
       </c>
       <c r="K66" s="29">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="L66" s="30">
-        <v>42878</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>9.15</v>
+        <v>13.65</v>
       </c>
       <c r="C67" s="27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D67" s="27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G67" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H67" s="27">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="I67" s="27">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J67" s="27">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K67" s="29">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="L67" s="30">
-        <v>42877</v>
+        <v>43087</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>8.59</v>
+        <v>11.99</v>
       </c>
       <c r="C68" s="27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D68" s="27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G68" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H68" s="27">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="I68" s="27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J68" s="27">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="K68" s="29">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="L68" s="30">
-        <v>42874</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>9.42</v>
+        <v>-10.84</v>
       </c>
       <c r="C69" s="27">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="D69" s="27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E69" s="27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F69" s="27">
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="G69" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.105</v>
       </c>
       <c r="H69" s="27">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="I69" s="27">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="J69" s="27">
-        <v>389</v>
+        <v>-325</v>
       </c>
       <c r="K69" s="29">
-        <v>1.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L69" s="30">
-        <v>42873</v>
+        <v>43083</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>-37.770000000000003</v>
+        <v>3.64</v>
       </c>
       <c r="C70" s="27">
-        <v>-144</v>
+        <v>4</v>
       </c>
       <c r="D70" s="27">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E70" s="27">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F70" s="27">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="G70" s="28">
-        <v>0.105</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H70" s="27">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I70" s="27">
-        <v>540</v>
+        <v>222</v>
       </c>
       <c r="J70" s="27">
-        <v>-522</v>
+        <v>-92</v>
       </c>
       <c r="K70" s="29">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="L70" s="30">
-        <v>42872</v>
+        <v>43082</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>0.64</v>
+        <v>-0.15</v>
       </c>
       <c r="C71" s="27">
         <v>0</v>
       </c>
       <c r="D71" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="27">
         <v>9</v>
       </c>
       <c r="F71" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="28">
-        <v>0.47399999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H71" s="27">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="I71" s="27">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J71" s="27">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K71" s="29">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="L71" s="30">
-        <v>42871</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="31">
-        <v>10.3</v>
+        <v>3.41</v>
       </c>
       <c r="C72" s="32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" s="32">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E72" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F72" s="32">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G72" s="33">
-        <v>1</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H72" s="32">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="I72" s="32">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J72" s="32">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="K72" s="34">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L72" s="30">
-        <v>42870</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="18">
-        <v>9</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="C73" s="19">
-        <v>-94</v>
+        <v>25</v>
       </c>
       <c r="D73" s="19">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E73" s="19">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F73" s="19">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G73" s="20">
-        <v>0.72299999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H73" s="19">
-        <v>1983</v>
+        <v>1480</v>
       </c>
       <c r="I73" s="19">
-        <v>942</v>
+        <v>1527</v>
       </c>
       <c r="J73" s="19">
-        <v>1041</v>
+        <v>-47</v>
       </c>
       <c r="K73" s="21">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -318,19 +318,19 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 0.71 Points per Component with overall change of -1.20% from closing price 2683.34 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 2.54 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.38 Points per Component with overall change of -1.21% from closing price 939.34 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.81 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.90 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 1.89 Points per Component with overall change of -3.27% from closing price 2832.97 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 6.26 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.91 Points per Component with overall change of -3.00% from closing price 977.65 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.09 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 3.40 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1125,32 +1125,32 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
         <v>9</v>
-      </c>
-      <c r="E4" s="9">
-        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="11">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="I4" s="13">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="14">
-        <f>H4-I4</f>
-        <v>2.25</v>
+        <f t="shared" ref="J4:J41" si="0">H4-I4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1161,116 +1161,116 @@
         <v>86</v>
       </c>
       <c r="D5" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="10">
         <v>9</v>
       </c>
       <c r="G5" s="10">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12">
+        <v>9</v>
+      </c>
+      <c r="I5" s="15">
         <v>8</v>
       </c>
-      <c r="H5" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="I5" s="15">
-        <v>7.5</v>
-      </c>
       <c r="J5" s="16">
-        <f>H5-I5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10">
         <v>8</v>
       </c>
       <c r="F6" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="10">
         <v>8</v>
       </c>
       <c r="H6" s="12">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I6" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="16">
-        <f>H6-I6</f>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D7" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="10">
         <v>8</v>
       </c>
       <c r="H7" s="12">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="I7" s="15">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="J7" s="16">
-        <f>H7-I7</f>
-        <v>4.25</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D8" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="12">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="I8" s="15">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J8" s="16">
-        <f>H8-I8</f>
-        <v>-1.25</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -1281,776 +1281,776 @@
         <v>61</v>
       </c>
       <c r="D9" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="10">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10">
-        <v>7</v>
-      </c>
       <c r="H9" s="12">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="I9" s="15">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="J9" s="16">
-        <f>H9-I9</f>
-        <v>1.75</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D10" s="10">
         <v>7</v>
       </c>
       <c r="E10" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" s="12">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="I10" s="15">
-        <v>3</v>
+        <v>7.75</v>
       </c>
       <c r="J10" s="16">
-        <f>H10-I10</f>
-        <v>4.25</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5</v>
-      </c>
       <c r="E11" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="10">
         <v>8</v>
       </c>
       <c r="H11" s="12">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="I11" s="15">
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="J11" s="16">
-        <f>H11-I11</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D12" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="10">
         <v>8</v>
       </c>
       <c r="H12" s="12">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="15">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="J12" s="16">
-        <f>H12-I12</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D13" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10">
         <v>7</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="12">
         <v>8</v>
       </c>
-      <c r="H13" s="12">
-        <v>6.25</v>
-      </c>
       <c r="I13" s="15">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="J13" s="16">
-        <f>H13-I13</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10">
         <v>8</v>
       </c>
       <c r="F14" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14" s="15">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
       <c r="J14" s="16">
-        <f>H14-I14</f>
-        <v>1.75</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10">
         <v>7</v>
       </c>
       <c r="F15" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H15" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" s="15">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="J15" s="16">
-        <f>H15-I15</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="12">
-        <v>5.5</v>
+        <v>7.75</v>
       </c>
       <c r="I16" s="15">
-        <v>3.25</v>
+        <v>7.75</v>
       </c>
       <c r="J16" s="16">
-        <f>H16-I16</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17" s="12">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="I17" s="15">
-        <v>2.75</v>
+        <v>8.25</v>
       </c>
       <c r="J17" s="16">
-        <f>H17-I17</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="10">
+        <v>8</v>
+      </c>
+      <c r="H18" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="I18" s="15">
         <v>7</v>
       </c>
-      <c r="H18" s="12">
-        <v>4.75</v>
-      </c>
-      <c r="I18" s="15">
-        <v>4.25</v>
-      </c>
       <c r="J18" s="16">
-        <f>H18-I18</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H19" s="12">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="I19" s="15">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="J19" s="16">
-        <f>H19-I19</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D20" s="10">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10">
         <v>7</v>
       </c>
-      <c r="E20" s="10">
-        <v>5</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5</v>
-      </c>
       <c r="G20" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20" s="12">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="I20" s="15">
-        <v>-0.25</v>
+        <v>5.75</v>
       </c>
       <c r="J20" s="16">
-        <f>H20-I20</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D21" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E21" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="10">
         <v>5</v>
       </c>
       <c r="H21" s="12">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="I21" s="15">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J21" s="16">
-        <f>H21-I21</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" s="12">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="I22" s="15">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="J22" s="16">
-        <f>H22-I22</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="10">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10">
+        <v>6</v>
+      </c>
+      <c r="F23" s="10">
         <v>7</v>
       </c>
-      <c r="E23" s="10">
-        <v>5</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5</v>
-      </c>
       <c r="G23" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H23" s="12">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="I23" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <f>H23-I23</f>
-        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D24" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24" s="10">
+        <v>7</v>
+      </c>
+      <c r="G24" s="10">
         <v>4</v>
       </c>
-      <c r="G24" s="10">
-        <v>3</v>
-      </c>
       <c r="H24" s="12">
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
       <c r="I24" s="15">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J24" s="16">
-        <f>H24-I24</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" s="10">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10">
+        <v>6</v>
+      </c>
+      <c r="G25" s="10">
         <v>5</v>
       </c>
-      <c r="F25" s="10">
-        <v>2</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
       <c r="H25" s="12">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="I25" s="15">
+        <v>6</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <f>H25-I25</f>
-        <v>4.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D26" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="10">
         <v>6</v>
       </c>
       <c r="G26" s="10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H26" s="12">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="I26" s="15">
-        <v>-2.25</v>
+        <v>5</v>
       </c>
       <c r="J26" s="16">
-        <f>H26-I26</f>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D27" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F27" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="12">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I27" s="15">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J27" s="16">
-        <f>H27-I27</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D28" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="12">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I28" s="15">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="J28" s="16">
-        <f>H28-I28</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29" s="10">
+        <v>6</v>
+      </c>
+      <c r="G29" s="10">
+        <v>5</v>
+      </c>
+      <c r="H29" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="I29" s="15">
         <v>4</v>
       </c>
-      <c r="G29" s="10">
-        <v>4</v>
-      </c>
-      <c r="H29" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="I29" s="15">
-        <v>2</v>
-      </c>
       <c r="J29" s="16">
-        <f>H29-I29</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E30" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H30" s="12">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I30" s="15">
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="J30" s="16">
-        <f>H30-I30</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D31" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="10">
         <v>5</v>
       </c>
       <c r="H31" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" s="15">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="J31" s="16">
-        <f>H31-I31</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D32" s="10">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G32" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32" s="12">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="I32" s="15">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="J32" s="16">
-        <f>H32-I32</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>3.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D33" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" s="10">
+        <v>5</v>
+      </c>
+      <c r="H33" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="I33" s="15">
         <v>4</v>
       </c>
-      <c r="H33" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1.75</v>
-      </c>
       <c r="J33" s="16">
-        <f>H33-I33</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D34" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="12">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="I34" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="J34" s="16">
-        <f>H34-I34</f>
-        <v>1.25</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -2061,26 +2061,26 @@
         <v>52</v>
       </c>
       <c r="D35" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35" s="10">
+        <v>4</v>
+      </c>
+      <c r="F35" s="10">
+        <v>5</v>
+      </c>
+      <c r="G35" s="10">
+        <v>5</v>
+      </c>
+      <c r="H35" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="I35" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="F35" s="10">
-        <v>3</v>
-      </c>
-      <c r="G35" s="10">
-        <v>3</v>
-      </c>
-      <c r="H35" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="16">
-        <f>H35-I35</f>
-        <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -2091,10 +2091,10 @@
         <v>71</v>
       </c>
       <c r="D36" s="10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E36" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="10">
         <v>4</v>
@@ -2103,44 +2103,44 @@
         <v>4</v>
       </c>
       <c r="H36" s="12">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="I36" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J36" s="16">
-        <f>H36-I36</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>3.25</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37" s="10">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E37" s="10">
+        <v>6</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+      <c r="G37" s="10">
         <v>2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="H37" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="I37" s="15">
         <v>2</v>
       </c>
-      <c r="G37" s="10">
-        <v>5</v>
-      </c>
-      <c r="H37" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="I37" s="15">
-        <v>0.25</v>
-      </c>
       <c r="J37" s="16">
-        <f>H37-I37</f>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -2154,23 +2154,23 @@
         <v>3</v>
       </c>
       <c r="E38" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="12">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="I38" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
-      </c>
-      <c r="J38" s="16">
-        <f>H38-I38</f>
-        <v>1.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -2181,26 +2181,26 @@
         <v>67</v>
       </c>
       <c r="D39" s="10">
+        <v>-8</v>
+      </c>
+      <c r="E39" s="10">
         <v>-6</v>
       </c>
-      <c r="E39" s="10">
-        <v>-2</v>
-      </c>
       <c r="F39" s="10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G39" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H39" s="12">
-        <v>-2.5</v>
+        <v>-5.25</v>
       </c>
       <c r="I39" s="15">
-        <v>1</v>
+        <v>-5.5</v>
       </c>
       <c r="J39" s="16">
-        <f>H39-I39</f>
-        <v>-3.5</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2214,55 +2214,55 @@
         <v>-8</v>
       </c>
       <c r="E40" s="10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F40" s="10">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="G40" s="10">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="H40" s="35">
-        <v>-4</v>
+        <v>-7.5</v>
       </c>
       <c r="I40" s="36">
-        <v>1.75</v>
+        <v>-7.25</v>
       </c>
       <c r="J40" s="37">
-        <f>H40-I40</f>
-        <v>-5.75</v>
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="42">
-        <f>AVERAGE(D4:D40)</f>
-        <v>3.5135135135135136</v>
+        <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
+        <v>5.8108108108108105</v>
       </c>
       <c r="E41" s="42">
-        <f>AVERAGE(E4:E40)</f>
-        <v>4.3513513513513518</v>
+        <f t="shared" si="1"/>
+        <v>6.4054054054054053</v>
       </c>
       <c r="F41" s="42">
-        <f>AVERAGE(F4:F40)</f>
-        <v>4.8648648648648649</v>
+        <f t="shared" si="1"/>
+        <v>6.1891891891891895</v>
       </c>
       <c r="G41" s="42">
-        <f>AVERAGE(G4:G40)</f>
-        <v>4.6486486486486482</v>
+        <f t="shared" si="1"/>
+        <v>5.5945945945945947</v>
       </c>
       <c r="H41" s="38">
-        <f>AVERAGE(H4:H40)</f>
-        <v>4.3445945945945947</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="I41" s="39">
-        <f>AVERAGE(I4:I40)</f>
-        <v>2.7297297297297298</v>
+        <f t="shared" si="1"/>
+        <v>5.1013513513513518</v>
       </c>
       <c r="J41" s="40">
-        <f>H41-I41</f>
-        <v>1.6148648648648649</v>
+        <f t="shared" si="0"/>
+        <v>0.89864864864864824</v>
       </c>
     </row>
   </sheetData>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2342,384 +2342,384 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
-        <v>21.33</v>
+        <v>202.77</v>
       </c>
       <c r="C3" s="27">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="D3" s="27">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="E3" s="27">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="F3" s="27">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="G3" s="28">
-        <v>0.51600000000000001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H3" s="27">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="I3" s="27">
-        <v>715</v>
+        <v>169</v>
       </c>
       <c r="J3" s="27">
-        <v>-6</v>
+        <v>531</v>
       </c>
       <c r="K3" s="29">
-        <v>0.69</v>
+        <v>1.04</v>
       </c>
       <c r="L3" s="30">
-        <v>43091</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>24.22</v>
+        <v>118.36</v>
       </c>
       <c r="C4" s="27">
-        <v>-22</v>
+        <v>154</v>
       </c>
       <c r="D4" s="27">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="E4" s="27">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="F4" s="27">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28">
-        <v>0.53600000000000003</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="H4" s="27">
-        <v>1176</v>
+        <v>619</v>
       </c>
       <c r="I4" s="27">
-        <v>781</v>
+        <v>324</v>
       </c>
       <c r="J4" s="27">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="K4" s="29">
-        <v>0.94</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L4" s="30">
-        <v>43090</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>-58.2</v>
+        <v>-50.66</v>
       </c>
       <c r="C5" s="27">
         <v>-49</v>
       </c>
       <c r="D5" s="27">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="E5" s="27">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="F5" s="27">
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="G5" s="28">
-        <v>0.42899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H5" s="27">
-        <v>1003</v>
+        <v>430</v>
       </c>
       <c r="I5" s="27">
-        <v>967</v>
+        <v>438</v>
       </c>
       <c r="J5" s="27">
-        <v>36</v>
+        <v>-7</v>
       </c>
       <c r="K5" s="29">
-        <v>0.94</v>
+        <v>1.04</v>
       </c>
       <c r="L5" s="30">
-        <v>43089</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>-168.28</v>
+        <v>245.76</v>
       </c>
       <c r="C6" s="27">
-        <v>-131</v>
+        <v>302</v>
       </c>
       <c r="D6" s="27">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E6" s="27">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="F6" s="27">
-        <v>-129</v>
+        <v>142</v>
       </c>
       <c r="G6" s="28">
-        <v>0.36599999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="H6" s="27">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="I6" s="27">
-        <v>1305</v>
+        <v>172</v>
       </c>
       <c r="J6" s="27">
-        <v>-626</v>
+        <v>551</v>
       </c>
       <c r="K6" s="29">
-        <v>0.95</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L6" s="30">
-        <v>43088</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>333.31</v>
+        <v>-83.39</v>
       </c>
       <c r="C7" s="27">
-        <v>397</v>
+        <v>-107</v>
       </c>
       <c r="D7" s="27">
-        <v>358</v>
+        <v>62</v>
       </c>
       <c r="E7" s="27">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="27">
-        <v>219</v>
+        <v>-76</v>
       </c>
       <c r="G7" s="28">
-        <v>0.70799999999999996</v>
+        <v>0.123</v>
       </c>
       <c r="H7" s="27">
-        <v>1601</v>
+        <v>333</v>
       </c>
       <c r="I7" s="27">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="J7" s="27">
-        <v>1022</v>
+        <v>-318</v>
       </c>
       <c r="K7" s="29">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="L7" s="30">
-        <v>43087</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>473.42</v>
+        <v>227.85</v>
       </c>
       <c r="C8" s="27">
-        <v>1416</v>
+        <v>280</v>
       </c>
       <c r="D8" s="27">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="E8" s="27">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F8" s="27">
-        <v>342</v>
+        <v>105</v>
       </c>
       <c r="G8" s="28">
-        <v>0.83199999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="27">
-        <v>3119</v>
+        <v>525</v>
       </c>
       <c r="I8" s="27">
-        <v>632</v>
+        <v>334</v>
       </c>
       <c r="J8" s="27">
-        <v>2486</v>
+        <v>191</v>
       </c>
       <c r="K8" s="29">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="L8" s="30">
-        <v>43084</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>-246.3</v>
+        <v>174.62</v>
       </c>
       <c r="C9" s="27">
-        <v>-196</v>
+        <v>175</v>
       </c>
       <c r="D9" s="27">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E9" s="27">
-        <v>379</v>
+        <v>49</v>
       </c>
       <c r="F9" s="27">
-        <v>-258</v>
+        <v>101</v>
       </c>
       <c r="G9" s="28">
-        <v>0.23899999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H9" s="27">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="I9" s="27">
-        <v>1384</v>
+        <v>210</v>
       </c>
       <c r="J9" s="27">
-        <v>-771</v>
+        <v>370</v>
       </c>
       <c r="K9" s="29">
         <v>0.95</v>
       </c>
       <c r="L9" s="30">
-        <v>43083</v>
+        <v>43111</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>-5.59</v>
+        <v>-58.44</v>
       </c>
       <c r="C10" s="27">
-        <v>-8</v>
+        <v>-44</v>
       </c>
       <c r="D10" s="27">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="E10" s="27">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="F10" s="27">
-        <v>-35</v>
+        <v>-46</v>
       </c>
       <c r="G10" s="28">
-        <v>0.45800000000000002</v>
+        <v>0.152</v>
       </c>
       <c r="H10" s="27">
-        <v>940</v>
+        <v>408</v>
       </c>
       <c r="I10" s="27">
-        <v>1066</v>
+        <v>471</v>
       </c>
       <c r="J10" s="27">
-        <v>-126</v>
+        <v>-63</v>
       </c>
       <c r="K10" s="29">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="L10" s="30">
-        <v>43082</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>-9.51</v>
+        <v>47.54</v>
       </c>
       <c r="C11" s="27">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D11" s="27">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="E11" s="27">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="F11" s="27">
-        <v>11</v>
+        <v>-8</v>
       </c>
       <c r="G11" s="28">
-        <v>0.502</v>
+        <v>0.19</v>
       </c>
       <c r="H11" s="27">
-        <v>1168</v>
+        <v>285</v>
       </c>
       <c r="I11" s="27">
-        <v>850</v>
+        <v>552</v>
       </c>
       <c r="J11" s="27">
-        <v>318</v>
+        <v>-266</v>
       </c>
       <c r="K11" s="29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="L11" s="30">
-        <v>43081</v>
+        <v>43109</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31">
-        <v>-6.08</v>
+        <v>127.28</v>
       </c>
       <c r="C12" s="32">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="D12" s="32">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="E12" s="32">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="F12" s="32">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G12" s="33">
-        <v>0.51200000000000001</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="H12" s="32">
-        <v>1093</v>
+        <v>541</v>
       </c>
       <c r="I12" s="32">
-        <v>721</v>
+        <v>258</v>
       </c>
       <c r="J12" s="32">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="K12" s="34">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L12" s="30">
-        <v>43080</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
-        <v>358.32</v>
+        <v>951.68</v>
       </c>
       <c r="C13" s="19">
-        <v>1426</v>
+        <v>1231</v>
       </c>
       <c r="D13" s="19">
-        <v>2579</v>
+        <v>1218</v>
       </c>
       <c r="E13" s="19">
-        <v>2396</v>
+        <v>774</v>
       </c>
       <c r="F13" s="19">
-        <v>183</v>
+        <v>444</v>
       </c>
       <c r="G13" s="20">
-        <v>0.51800000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="H13" s="19">
-        <v>12103</v>
+        <v>5151</v>
       </c>
       <c r="I13" s="19">
-        <v>9002</v>
+        <v>3585</v>
       </c>
       <c r="J13" s="19">
-        <v>3101</v>
+        <v>1566</v>
       </c>
       <c r="K13" s="21">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2770,384 +2770,384 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
-        <v>-28.19</v>
+        <v>138.38999999999999</v>
       </c>
       <c r="C18" s="27">
-        <v>-15</v>
+        <v>165</v>
       </c>
       <c r="D18" s="27">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E18" s="27">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F18" s="27">
-        <v>-8</v>
+        <v>64</v>
       </c>
       <c r="G18" s="28">
-        <v>0.45</v>
+        <v>0.81</v>
       </c>
       <c r="H18" s="27">
-        <v>141</v>
+        <v>459</v>
       </c>
       <c r="I18" s="27">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="J18" s="27">
-        <v>-69</v>
+        <v>362</v>
       </c>
       <c r="K18" s="29">
-        <v>0.66</v>
+        <v>1.06</v>
       </c>
       <c r="L18" s="30">
-        <v>43091</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>11.42</v>
+        <v>52.46</v>
       </c>
       <c r="C19" s="27">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D19" s="27">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E19" s="27">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F19" s="27">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="G19" s="28">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="H19" s="27">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="I19" s="27">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="J19" s="27">
-        <v>-45</v>
+        <v>115</v>
       </c>
       <c r="K19" s="29">
-        <v>0.91</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L19" s="30">
-        <v>43090</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-16.61</v>
+        <v>-21.9</v>
       </c>
       <c r="C20" s="27">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="D20" s="27">
         <v>47</v>
       </c>
       <c r="E20" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="27">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G20" s="28">
         <v>0.47</v>
       </c>
       <c r="H20" s="27">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I20" s="27">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J20" s="27">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="K20" s="29">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="L20" s="30">
-        <v>43089</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>-49.65</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="C21" s="27">
-        <v>-26</v>
+        <v>211</v>
       </c>
       <c r="D21" s="27">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E21" s="27">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F21" s="27">
-        <v>-25</v>
+        <v>56</v>
       </c>
       <c r="G21" s="28">
-        <v>0.37</v>
+        <v>0.77</v>
       </c>
       <c r="H21" s="27">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="I21" s="27">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="J21" s="27">
-        <v>-88</v>
+        <v>277</v>
       </c>
       <c r="K21" s="29">
-        <v>0.98</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L21" s="30">
-        <v>43088</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>117.98</v>
+        <v>-28.16</v>
       </c>
       <c r="C22" s="27">
-        <v>160</v>
+        <v>-32</v>
       </c>
       <c r="D22" s="27">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E22" s="27">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F22" s="27">
-        <v>40</v>
+        <v>-24</v>
       </c>
       <c r="G22" s="28">
-        <v>0.69</v>
+        <v>0.37</v>
       </c>
       <c r="H22" s="27">
-        <v>459</v>
+        <v>228</v>
       </c>
       <c r="I22" s="27">
-        <v>157</v>
+        <v>417</v>
       </c>
       <c r="J22" s="27">
-        <v>301</v>
+        <v>-188</v>
       </c>
       <c r="K22" s="29">
-        <v>1.1100000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="L22" s="30">
-        <v>43087</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>140.33000000000001</v>
+        <v>139.46</v>
       </c>
       <c r="C23" s="27">
-        <v>410</v>
+        <v>176</v>
       </c>
       <c r="D23" s="27">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E23" s="27">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F23" s="27">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G23" s="28">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="H23" s="27">
-        <v>818</v>
+        <v>313</v>
       </c>
       <c r="I23" s="27">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J23" s="27">
-        <v>576</v>
+        <v>78</v>
       </c>
       <c r="K23" s="29">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="L23" s="30">
-        <v>43084</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>-21.57</v>
+        <v>97.58</v>
       </c>
       <c r="C24" s="27">
-        <v>-10</v>
+        <v>100</v>
       </c>
       <c r="D24" s="27">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E24" s="27">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F24" s="27">
-        <v>-25</v>
+        <v>40</v>
       </c>
       <c r="G24" s="28">
-        <v>0.37</v>
+        <v>0.69</v>
       </c>
       <c r="H24" s="27">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="I24" s="27">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J24" s="27">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="K24" s="29">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="L24" s="30">
-        <v>43083</v>
+        <v>43111</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>59.04</v>
+        <v>-23.23</v>
       </c>
       <c r="C25" s="27">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D25" s="27">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E25" s="27">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F25" s="27">
-        <v>16</v>
+        <v>-32</v>
       </c>
       <c r="G25" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="H25" s="27">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="I25" s="27">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="J25" s="27">
-        <v>130</v>
+        <v>-9</v>
       </c>
       <c r="K25" s="29">
-        <v>0.92</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L25" s="30">
-        <v>43082</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>-16.739999999999998</v>
+        <v>37.57</v>
       </c>
       <c r="C26" s="27">
-        <v>-2</v>
+        <v>78</v>
       </c>
       <c r="D26" s="27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E26" s="27">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F26" s="27">
-        <v>-22</v>
+        <v>-9</v>
       </c>
       <c r="G26" s="28">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="H26" s="27">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I26" s="27">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="J26" s="27">
-        <v>-44</v>
+        <v>-173</v>
       </c>
       <c r="K26" s="29">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
       <c r="L26" s="30">
-        <v>43081</v>
+        <v>43109</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="31">
-        <v>55.01</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="C27" s="32">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D27" s="32">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E27" s="32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G27" s="33">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="H27" s="32">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="I27" s="32">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="J27" s="32">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="K27" s="34">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="L27" s="30">
-        <v>43080</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
-        <v>251.02</v>
+        <v>619.39</v>
       </c>
       <c r="C28" s="19">
-        <v>640</v>
+        <v>833</v>
       </c>
       <c r="D28" s="19">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="E28" s="19">
-        <v>459</v>
+        <v>384</v>
       </c>
       <c r="F28" s="19">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="G28" s="20">
-        <v>0.53300000000000003</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="H28" s="19">
-        <v>3345</v>
+        <v>3195</v>
       </c>
       <c r="I28" s="19">
-        <v>2238</v>
+        <v>2343</v>
       </c>
       <c r="J28" s="19">
-        <v>1107</v>
+        <v>852</v>
       </c>
       <c r="K28" s="21">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3197,384 +3197,384 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
-        <v>-81.290000000000006</v>
+        <v>-11.16</v>
       </c>
       <c r="C33" s="27">
-        <v>-45</v>
+        <v>-75</v>
       </c>
       <c r="D33" s="27">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E33" s="27">
-        <v>382</v>
+        <v>183</v>
       </c>
       <c r="F33" s="27">
-        <v>-180</v>
+        <v>2</v>
       </c>
       <c r="G33" s="28">
-        <v>0.33400000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H33" s="27">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I33" s="27">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="J33" s="27">
-        <v>-16</v>
+        <v>40</v>
       </c>
       <c r="K33" s="29">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="L33" s="30">
-        <v>43091</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>80.099999999999994</v>
+        <v>259.87</v>
       </c>
       <c r="C34" s="27">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="D34" s="27">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="E34" s="27">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="F34" s="27">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="G34" s="28">
-        <v>0.61899999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="H34" s="27">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="I34" s="27">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="J34" s="27">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K34" s="29">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="L34" s="30">
-        <v>43090</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>23.68</v>
+        <v>-106.55</v>
       </c>
       <c r="C35" s="27">
-        <v>11</v>
+        <v>-81</v>
       </c>
       <c r="D35" s="27">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="E35" s="27">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="F35" s="27">
-        <v>76</v>
+        <v>-205</v>
       </c>
       <c r="G35" s="28">
-        <v>0.53800000000000003</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H35" s="27">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="I35" s="27">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="J35" s="27">
-        <v>48</v>
+        <v>-59</v>
       </c>
       <c r="K35" s="29">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="L35" s="30">
-        <v>43089</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>-250.02</v>
+        <v>160.6</v>
       </c>
       <c r="C36" s="27">
-        <v>-287</v>
+        <v>161</v>
       </c>
       <c r="D36" s="27">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="E36" s="27">
-        <v>431</v>
+        <v>89</v>
       </c>
       <c r="F36" s="27">
-        <v>-275</v>
+        <v>194</v>
       </c>
       <c r="G36" s="28">
-        <v>0.25800000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="H36" s="27">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="I36" s="27">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="J36" s="27">
-        <v>-106</v>
+        <v>65</v>
       </c>
       <c r="K36" s="29">
-        <v>1.06</v>
+        <v>0.94</v>
       </c>
       <c r="L36" s="30">
-        <v>43088</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>306.61</v>
+        <v>-117.99</v>
       </c>
       <c r="C37" s="27">
-        <v>334</v>
+        <v>-111</v>
       </c>
       <c r="D37" s="27">
-        <v>479</v>
+        <v>105</v>
       </c>
       <c r="E37" s="27">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="F37" s="27">
-        <v>369</v>
+        <v>-162</v>
       </c>
       <c r="G37" s="28">
-        <v>0.79300000000000004</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="H37" s="27">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="I37" s="27">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="J37" s="27">
-        <v>245</v>
+        <v>-92</v>
       </c>
       <c r="K37" s="29">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="L37" s="30">
-        <v>43087</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>430.3</v>
+        <v>70.86</v>
       </c>
       <c r="C38" s="27">
-        <v>2669</v>
+        <v>65</v>
       </c>
       <c r="D38" s="27">
-        <v>520</v>
+        <v>235</v>
       </c>
       <c r="E38" s="27">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="F38" s="27">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="G38" s="28">
-        <v>0.86099999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="H38" s="27">
-        <v>604</v>
+        <v>102</v>
       </c>
       <c r="I38" s="27">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="J38" s="27">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="K38" s="29">
-        <v>2.23</v>
+        <v>0.87</v>
       </c>
       <c r="L38" s="30">
-        <v>43084</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>-272.52999999999997</v>
+        <v>282.83999999999997</v>
       </c>
       <c r="C39" s="27">
-        <v>-272</v>
+        <v>334</v>
       </c>
       <c r="D39" s="27">
-        <v>92</v>
+        <v>340</v>
       </c>
       <c r="E39" s="27">
-        <v>499</v>
+        <v>35</v>
       </c>
       <c r="F39" s="27">
-        <v>-407</v>
+        <v>305</v>
       </c>
       <c r="G39" s="28">
-        <v>0.152</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="H39" s="27">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="I39" s="27">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="J39" s="27">
-        <v>-207</v>
+        <v>128</v>
       </c>
       <c r="K39" s="29">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L39" s="30">
-        <v>43083</v>
+        <v>43111</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>144.21</v>
+        <v>-7.96</v>
       </c>
       <c r="C40" s="27">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D40" s="27">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="E40" s="27">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F40" s="27">
-        <v>184</v>
+        <v>-18</v>
       </c>
       <c r="G40" s="28">
-        <v>0.63400000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H40" s="27">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="I40" s="27">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="J40" s="27">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="K40" s="29">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L40" s="30">
-        <v>43082</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-39.35</v>
+        <v>1.19</v>
       </c>
       <c r="C41" s="27">
-        <v>-20</v>
+        <v>49</v>
       </c>
       <c r="D41" s="27">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="E41" s="27">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="F41" s="27">
-        <v>-43</v>
+        <v>-70</v>
       </c>
       <c r="G41" s="28">
-        <v>0.44400000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="H41" s="27">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="I41" s="27">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="J41" s="27">
-        <v>-80</v>
+        <v>-41</v>
       </c>
       <c r="K41" s="29">
-        <v>0.95</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L41" s="30">
-        <v>43081</v>
+        <v>43109</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="31">
-        <v>-110.71</v>
+        <v>14.89</v>
       </c>
       <c r="C42" s="32">
-        <v>-85</v>
+        <v>-37</v>
       </c>
       <c r="D42" s="32">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="E42" s="32">
-        <v>339</v>
+        <v>166</v>
       </c>
       <c r="F42" s="32">
-        <v>-95</v>
+        <v>33</v>
       </c>
       <c r="G42" s="33">
-        <v>0.40400000000000003</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H42" s="32">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="I42" s="32">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="J42" s="32">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K42" s="34">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
       <c r="L42" s="30">
-        <v>43080</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
+        <v>546.58000000000004</v>
+      </c>
+      <c r="C43" s="19">
+        <v>631</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2094</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1627</v>
+      </c>
+      <c r="F43" s="19">
+        <v>467</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H43" s="19">
+        <v>986</v>
+      </c>
+      <c r="I43" s="19">
+        <v>755</v>
+      </c>
+      <c r="J43" s="19">
         <v>231</v>
       </c>
-      <c r="C43" s="19">
-        <v>2450</v>
-      </c>
-      <c r="D43" s="19">
-        <v>3043</v>
-      </c>
-      <c r="E43" s="19">
-        <v>2793</v>
-      </c>
-      <c r="F43" s="19">
-        <v>250</v>
-      </c>
-      <c r="G43" s="20">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="H43" s="19">
-        <v>2161</v>
-      </c>
-      <c r="I43" s="19">
-        <v>1575</v>
-      </c>
-      <c r="J43" s="19">
-        <v>586</v>
-      </c>
       <c r="K43" s="21">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3625,384 +3625,384 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="26">
-        <v>26.72</v>
+        <v>464.76</v>
       </c>
       <c r="C48" s="27">
-        <v>182</v>
+        <v>1243</v>
       </c>
       <c r="D48" s="27">
-        <v>713</v>
+        <v>459</v>
       </c>
       <c r="E48" s="27">
-        <v>705</v>
+        <v>187</v>
       </c>
       <c r="F48" s="27">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="G48" s="28">
-        <v>0.48899999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="H48" s="27">
-        <v>1259</v>
+        <v>1316</v>
       </c>
       <c r="I48" s="27">
-        <v>1287</v>
+        <v>423</v>
       </c>
       <c r="J48" s="27">
-        <v>-27</v>
+        <v>893</v>
       </c>
       <c r="K48" s="29">
-        <v>0.69</v>
+        <v>1.08</v>
       </c>
       <c r="L48" s="30">
-        <v>43091</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>210.28</v>
+        <v>305.2</v>
       </c>
       <c r="C49" s="27">
-        <v>192</v>
+        <v>391</v>
       </c>
       <c r="D49" s="27">
-        <v>876</v>
+        <v>470</v>
       </c>
       <c r="E49" s="27">
-        <v>550</v>
+        <v>173</v>
       </c>
       <c r="F49" s="27">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="G49" s="28">
-        <v>0.6</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="H49" s="27">
-        <v>2148</v>
+        <v>1156</v>
       </c>
       <c r="I49" s="27">
-        <v>1212</v>
+        <v>513</v>
       </c>
       <c r="J49" s="27">
-        <v>936</v>
+        <v>642</v>
       </c>
       <c r="K49" s="29">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="L49" s="30">
-        <v>43090</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>48.73</v>
+        <v>-31.22</v>
       </c>
       <c r="C50" s="27">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="D50" s="27">
-        <v>728</v>
+        <v>251</v>
       </c>
       <c r="E50" s="27">
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="F50" s="27">
-        <v>29</v>
+        <v>-142</v>
       </c>
       <c r="G50" s="28">
-        <v>0.499</v>
+        <v>0.185</v>
       </c>
       <c r="H50" s="27">
-        <v>1883</v>
+        <v>828</v>
       </c>
       <c r="I50" s="27">
-        <v>1567</v>
+        <v>830</v>
       </c>
       <c r="J50" s="27">
-        <v>316</v>
+        <v>-1</v>
       </c>
       <c r="K50" s="29">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="L50" s="30">
-        <v>43089</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>-274.81</v>
+        <v>396.27</v>
       </c>
       <c r="C51" s="27">
-        <v>-209</v>
+        <v>587</v>
       </c>
       <c r="D51" s="27">
-        <v>528</v>
+        <v>474</v>
       </c>
       <c r="E51" s="27">
-        <v>892</v>
+        <v>173</v>
       </c>
       <c r="F51" s="27">
-        <v>-364</v>
+        <v>301</v>
       </c>
       <c r="G51" s="28">
-        <v>0.36199999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="H51" s="27">
-        <v>1406</v>
+        <v>1325</v>
       </c>
       <c r="I51" s="27">
-        <v>2192</v>
+        <v>426</v>
       </c>
       <c r="J51" s="27">
-        <v>-785</v>
+        <v>898</v>
       </c>
       <c r="K51" s="29">
-        <v>0.97</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L51" s="30">
-        <v>43088</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>802.98</v>
+        <v>-365.31</v>
       </c>
       <c r="C52" s="27">
-        <v>1057</v>
+        <v>-504</v>
       </c>
       <c r="D52" s="27">
-        <v>1105</v>
+        <v>170</v>
       </c>
       <c r="E52" s="27">
-        <v>329</v>
+        <v>478</v>
       </c>
       <c r="F52" s="27">
-        <v>776</v>
+        <v>-308</v>
       </c>
       <c r="G52" s="28">
-        <v>0.75700000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="H52" s="27">
-        <v>3095</v>
+        <v>573</v>
       </c>
       <c r="I52" s="27">
-        <v>905</v>
+        <v>1350</v>
       </c>
       <c r="J52" s="27">
-        <v>2190</v>
+        <v>-776</v>
       </c>
       <c r="K52" s="29">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="L52" s="30">
-        <v>43087</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>761.3</v>
+        <v>259.47000000000003</v>
       </c>
       <c r="C53" s="27">
-        <v>2158</v>
+        <v>280</v>
       </c>
       <c r="D53" s="27">
-        <v>1105</v>
+        <v>409</v>
       </c>
       <c r="E53" s="27">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="F53" s="27">
-        <v>772</v>
+        <v>175</v>
       </c>
       <c r="G53" s="28">
-        <v>0.75700000000000001</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H53" s="27">
-        <v>4929</v>
+        <v>925</v>
       </c>
       <c r="I53" s="27">
-        <v>1347</v>
+        <v>693</v>
       </c>
       <c r="J53" s="27">
-        <v>3582</v>
+        <v>232</v>
       </c>
       <c r="K53" s="29">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="L53" s="30">
-        <v>43084</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>-557.32000000000005</v>
+        <v>344.51</v>
       </c>
       <c r="C54" s="27">
-        <v>-584</v>
+        <v>408</v>
       </c>
       <c r="D54" s="27">
-        <v>395</v>
+        <v>500</v>
       </c>
       <c r="E54" s="27">
-        <v>1043</v>
+        <v>147</v>
       </c>
       <c r="F54" s="27">
-        <v>-648</v>
+        <v>353</v>
       </c>
       <c r="G54" s="28">
-        <v>0.27100000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H54" s="27">
-        <v>1269</v>
+        <v>1223</v>
       </c>
       <c r="I54" s="27">
-        <v>2445</v>
+        <v>397</v>
       </c>
       <c r="J54" s="27">
-        <v>-1176</v>
+        <v>826</v>
       </c>
       <c r="K54" s="29">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L54" s="30">
-        <v>43083</v>
+        <v>43111</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>173.63</v>
+        <v>-72.77</v>
       </c>
       <c r="C55" s="27">
-        <v>198</v>
+        <v>-55</v>
       </c>
       <c r="D55" s="27">
-        <v>792</v>
+        <v>274</v>
       </c>
       <c r="E55" s="27">
-        <v>639</v>
+        <v>374</v>
       </c>
       <c r="F55" s="27">
-        <v>153</v>
+        <v>-100</v>
       </c>
       <c r="G55" s="28">
-        <v>0.54300000000000004</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="H55" s="27">
-        <v>1965</v>
+        <v>754</v>
       </c>
       <c r="I55" s="27">
-        <v>1750</v>
+        <v>932</v>
       </c>
       <c r="J55" s="27">
-        <v>215</v>
+        <v>-177</v>
       </c>
       <c r="K55" s="29">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L55" s="30">
-        <v>43082</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>-149.16</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="C56" s="27">
-        <v>-147</v>
+        <v>112</v>
       </c>
       <c r="D56" s="27">
-        <v>690</v>
+        <v>293</v>
       </c>
       <c r="E56" s="27">
-        <v>740</v>
+        <v>355</v>
       </c>
       <c r="F56" s="27">
-        <v>-50</v>
+        <v>-62</v>
       </c>
       <c r="G56" s="28">
-        <v>0.47299999999999998</v>
+        <v>0.216</v>
       </c>
       <c r="H56" s="27">
-        <v>1989</v>
+        <v>669</v>
       </c>
       <c r="I56" s="27">
-        <v>1621</v>
+        <v>943</v>
       </c>
       <c r="J56" s="27">
-        <v>368</v>
+        <v>-273</v>
       </c>
       <c r="K56" s="29">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="L56" s="30">
-        <v>43081</v>
+        <v>43109</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="31">
-        <v>140.44999999999999</v>
+        <v>140.9</v>
       </c>
       <c r="C57" s="32">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="D57" s="32">
-        <v>786</v>
+        <v>386</v>
       </c>
       <c r="E57" s="32">
-        <v>639</v>
+        <v>255</v>
       </c>
       <c r="F57" s="32">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G57" s="33">
-        <v>0.53900000000000003</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H57" s="32">
-        <v>2133</v>
+        <v>968</v>
       </c>
       <c r="I57" s="32">
-        <v>1194</v>
+        <v>618</v>
       </c>
       <c r="J57" s="32">
-        <v>939</v>
+        <v>349</v>
       </c>
       <c r="K57" s="34">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="L57" s="30">
-        <v>43080</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="18">
-        <v>1182.8</v>
+        <v>1478.84</v>
       </c>
       <c r="C58" s="19">
-        <v>3118</v>
+        <v>2642</v>
       </c>
       <c r="D58" s="19">
-        <v>7718</v>
+        <v>3686</v>
       </c>
       <c r="E58" s="19">
-        <v>6569</v>
+        <v>2769</v>
       </c>
       <c r="F58" s="19">
-        <v>1149</v>
+        <v>917</v>
       </c>
       <c r="G58" s="20">
-        <v>0.54</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="H58" s="19">
-        <v>22083</v>
+        <v>9741</v>
       </c>
       <c r="I58" s="19">
-        <v>15523</v>
+        <v>7128</v>
       </c>
       <c r="J58" s="19">
-        <v>6560</v>
+        <v>2613</v>
       </c>
       <c r="K58" s="21">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4055,384 +4055,384 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
-        <v>-1.08</v>
+        <v>16.37</v>
       </c>
       <c r="C63" s="27">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D63" s="27">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E63" s="27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F63" s="27">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="G63" s="28">
-        <v>0.36799999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H63" s="27">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="I63" s="27">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="J63" s="27">
-        <v>-148</v>
+        <v>262</v>
       </c>
       <c r="K63" s="29">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="L63" s="30">
-        <v>43091</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>4.92</v>
+        <v>12.57</v>
       </c>
       <c r="C64" s="27">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D64" s="27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E64" s="27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64" s="27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G64" s="28">
-        <v>0.73699999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H64" s="27">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="I64" s="27">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J64" s="27">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="K64" s="29">
-        <v>0.81</v>
+        <v>1.29</v>
       </c>
       <c r="L64" s="30">
-        <v>43090</v>
+        <v>43119</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>0.68</v>
+        <v>-6.6</v>
       </c>
       <c r="C65" s="27">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D65" s="27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E65" s="27">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F65" s="27">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="G65" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="H65" s="27">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I65" s="27">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J65" s="27">
-        <v>-196</v>
+        <v>-200</v>
       </c>
       <c r="K65" s="29">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="L65" s="30">
-        <v>43089</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>-9.0500000000000007</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C66" s="27">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="D66" s="27">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E66" s="27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F66" s="27">
-        <v>-13</v>
+        <v>19</v>
       </c>
       <c r="G66" s="28">
-        <v>0.158</v>
+        <v>1</v>
       </c>
       <c r="H66" s="27">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="I66" s="27">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J66" s="27">
-        <v>-232</v>
+        <v>340</v>
       </c>
       <c r="K66" s="29">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="L66" s="30">
-        <v>43088</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>13.65</v>
+        <v>-11.33</v>
       </c>
       <c r="C67" s="27">
-        <v>10</v>
+        <v>-22</v>
       </c>
       <c r="D67" s="27">
+        <v>3</v>
+      </c>
+      <c r="E67" s="27">
         <v>16</v>
       </c>
-      <c r="E67" s="27">
-        <v>3</v>
-      </c>
       <c r="F67" s="27">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="G67" s="28">
-        <v>0.84199999999999997</v>
+        <v>0.158</v>
       </c>
       <c r="H67" s="27">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="I67" s="27">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="J67" s="27">
-        <v>217</v>
+        <v>-335</v>
       </c>
       <c r="K67" s="29">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="L67" s="30">
-        <v>43087</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="C68" s="27">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D68" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" s="28">
-        <v>0.84199999999999997</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H68" s="27">
-        <v>438</v>
+        <v>270</v>
       </c>
       <c r="I68" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J68" s="27">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="K68" s="29">
-        <v>1.55</v>
+        <v>1.02</v>
       </c>
       <c r="L68" s="30">
-        <v>43084</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>-10.84</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="C69" s="27">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="27">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E69" s="27">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F69" s="27">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="G69" s="28">
-        <v>0.105</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H69" s="27">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="I69" s="27">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="J69" s="27">
-        <v>-325</v>
+        <v>190</v>
       </c>
       <c r="K69" s="29">
-        <v>1.1200000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="L69" s="30">
-        <v>43083</v>
+        <v>43111</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>3.64</v>
+        <v>-3.51</v>
       </c>
       <c r="C70" s="27">
+        <v>-3</v>
+      </c>
+      <c r="D70" s="27">
         <v>4</v>
       </c>
-      <c r="D70" s="27">
-        <v>13</v>
-      </c>
       <c r="E70" s="27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F70" s="27">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="G70" s="28">
-        <v>0.68400000000000005</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H70" s="27">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I70" s="27">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="J70" s="27">
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="K70" s="29">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="L70" s="30">
-        <v>43082</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>-0.15</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="C71" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D71" s="27">
+        <v>9</v>
+      </c>
+      <c r="E71" s="27">
         <v>10</v>
       </c>
-      <c r="E71" s="27">
-        <v>9</v>
-      </c>
       <c r="F71" s="27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G71" s="28">
-        <v>0.52600000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H71" s="27">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="I71" s="27">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J71" s="27">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K71" s="29">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="L71" s="30">
-        <v>43081</v>
+        <v>43109</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="31">
-        <v>3.41</v>
+        <v>2.59</v>
       </c>
       <c r="C72" s="32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" s="32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E72" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F72" s="32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G72" s="33">
-        <v>0.57899999999999996</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H72" s="32">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I72" s="32">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="J72" s="32">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="K72" s="34">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="L72" s="30">
-        <v>43080</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="18">
-        <v>17.170000000000002</v>
+        <v>64.63</v>
       </c>
       <c r="C73" s="19">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D73" s="19">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E73" s="19">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F73" s="19">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G73" s="20">
-        <v>0.52600000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="H73" s="19">
-        <v>1480</v>
+        <v>1936</v>
       </c>
       <c r="I73" s="19">
-        <v>1527</v>
+        <v>1025</v>
       </c>
       <c r="J73" s="19">
-        <v>-47</v>
+        <v>911</v>
       </c>
       <c r="K73" s="21">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D50447-A73D-43C3-B803-7B9EA64804BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +16,7 @@
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
     <sheet name="breadth" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>130dma</t>
   </si>
@@ -318,19 +319,7 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 1.89 Points per Component with overall change of -3.27% from closing price 2832.97 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 6.26 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.91 Points per Component with overall change of -3.00% from closing price 977.65 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.09 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 3.40 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 0.67 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -378,12 +367,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="23">
@@ -664,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,6 +757,19 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1125,58 +1133,58 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" s="11">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="13">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" ref="J4:J41" si="0">H4-I4</f>
-        <v>0</v>
+        <f t="shared" ref="J4:J40" si="0">H4-I4</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E5" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F5" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
@@ -1185,268 +1193,268 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" s="15">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G7" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="12">
-        <v>8.75</v>
+        <v>3.75</v>
       </c>
       <c r="I7" s="15">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8" s="12">
-        <v>8.75</v>
+        <v>3.5</v>
       </c>
       <c r="I8" s="15">
-        <v>8.25</v>
+        <v>1</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="10">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="10">
-        <v>8</v>
-      </c>
       <c r="E9" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F9" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G9" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H9" s="12">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="I9" s="15">
-        <v>8.25</v>
+        <v>-2.75</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D10" s="10">
         <v>7</v>
       </c>
       <c r="E10" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F10" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G10" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="I10" s="15">
-        <v>7.75</v>
+        <v>-0.5</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="F11" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G11" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="12">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="15">
-        <v>7.25</v>
+        <v>2</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12" s="12">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="15">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="E13" s="10">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G13" s="10">
         <v>7</v>
       </c>
       <c r="H13" s="12">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="I13" s="15">
-        <v>7.25</v>
+        <v>-2</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" s="10">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="F14" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H14" s="12">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="I14" s="15">
-        <v>6.75</v>
+        <v>-0.5</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
@@ -1455,58 +1463,58 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D15" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F15" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="15">
-        <v>6.25</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D16" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="I16" s="15">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
@@ -1515,272 +1523,272 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="10">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="E17" s="10">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F17" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15">
-        <v>8.25</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D18" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="10">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="10">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="G18" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H18" s="12">
-        <v>7.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I18" s="15">
-        <v>7</v>
+        <v>-0.75</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="10">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H19" s="12">
-        <v>7.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I19" s="15">
-        <v>6.75</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E20" s="10">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F20" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G20" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H20" s="12">
-        <v>7.25</v>
+        <v>-0.5</v>
       </c>
       <c r="I20" s="15">
-        <v>5.75</v>
+        <v>-2.75</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D21" s="10">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E21" s="10">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="F21" s="10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="12">
-        <v>6.75</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="15">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D22" s="10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E22" s="10">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="F22" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" s="12">
-        <v>6.75</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="15">
-        <v>5.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D23" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="10">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F23" s="10">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="G23" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="15">
-        <v>6.5</v>
+        <v>-2</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="10">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="F24" s="10">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="G24" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="12">
-        <v>6.25</v>
+        <v>-1.25</v>
       </c>
       <c r="I24" s="15">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D25" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="10">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F25" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="12">
-        <v>6</v>
+        <v>-1.5</v>
       </c>
       <c r="I25" s="15">
-        <v>6</v>
+        <v>-0.25</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -1791,26 +1799,26 @@
         <v>50</v>
       </c>
       <c r="D26" s="10">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="10">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="F26" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H26" s="12">
-        <v>6</v>
+        <v>-1.5</v>
       </c>
       <c r="I26" s="15">
-        <v>5</v>
+        <v>-0.75</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -1821,86 +1829,86 @@
         <v>69</v>
       </c>
       <c r="D27" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F27" s="10">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="G27" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="12">
-        <v>6</v>
+        <v>-1.5</v>
       </c>
       <c r="I27" s="15">
-        <v>4.75</v>
+        <v>-1.25</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D28" s="10">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E28" s="10">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="F28" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G28" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12">
-        <v>5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I28" s="15">
-        <v>6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D29" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F29" s="10">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="G29" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12">
-        <v>5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I29" s="15">
-        <v>4</v>
+        <v>-3.25</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -1914,19 +1922,19 @@
         <v>3</v>
       </c>
       <c r="E30" s="10">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="10">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="H30" s="12">
-        <v>5</v>
+        <v>-1.75</v>
       </c>
       <c r="I30" s="15">
-        <v>4.25</v>
+        <v>-2.5</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
@@ -1935,302 +1943,302 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D31" s="10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="10">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="F31" s="10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H31" s="12">
-        <v>5</v>
+        <v>-1.75</v>
       </c>
       <c r="I31" s="15">
-        <v>3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D32" s="10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="E32" s="10">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="F32" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H32" s="12">
-        <v>5</v>
+        <v>-1.75</v>
       </c>
       <c r="I32" s="15">
-        <v>1.75</v>
+        <v>-3</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D33" s="10">
+        <v>-5</v>
+      </c>
+      <c r="E33" s="10">
+        <v>-6</v>
+      </c>
+      <c r="F33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="10">
         <v>4</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="10">
-        <v>5</v>
-      </c>
-      <c r="G33" s="10">
-        <v>5</v>
-      </c>
       <c r="H33" s="12">
-        <v>4.75</v>
+        <v>-2</v>
       </c>
       <c r="I33" s="15">
-        <v>4</v>
+        <v>-1.5</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D34" s="10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="E34" s="10">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F34" s="10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
-        <v>4.75</v>
+        <v>-2.25</v>
       </c>
       <c r="I34" s="15">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D35" s="10">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="E35" s="10">
+        <v>-7</v>
+      </c>
+      <c r="F35" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="10">
         <v>4</v>
       </c>
-      <c r="F35" s="10">
-        <v>5</v>
-      </c>
-      <c r="G35" s="10">
-        <v>5</v>
-      </c>
       <c r="H35" s="12">
-        <v>4.75</v>
+        <v>-2.5</v>
       </c>
       <c r="I35" s="15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D36" s="10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="10">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F36" s="10">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G36" s="10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="H36" s="12">
-        <v>4.25</v>
+        <v>-3</v>
       </c>
       <c r="I36" s="15">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D37" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E37" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" s="10">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="G37" s="10">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="H37" s="12">
-        <v>3.75</v>
+        <v>-3.75</v>
       </c>
       <c r="I37" s="15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="10">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E38" s="10">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="F38" s="10">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="G38" s="10">
         <v>2</v>
       </c>
       <c r="H38" s="12">
-        <v>2.75</v>
+        <v>-3.75</v>
       </c>
       <c r="I38" s="15">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D39" s="10">
         <v>-8</v>
       </c>
       <c r="E39" s="10">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F39" s="10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G39" s="10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H39" s="12">
-        <v>-5.25</v>
+        <v>-3.75</v>
       </c>
       <c r="I39" s="15">
-        <v>-5.5</v>
+        <v>-1.25</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D40" s="10">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E40" s="10">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="F40" s="10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G40" s="10">
         <v>-5</v>
       </c>
       <c r="H40" s="35">
-        <v>-7.5</v>
+        <v>-4</v>
       </c>
       <c r="I40" s="36">
-        <v>-7.25</v>
+        <v>-0.75</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2238,31 +2246,31 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>5.8108108108108105</v>
+        <v>-0.10810810810810811</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="1"/>
-        <v>6.4054054054054053</v>
+        <v>-2.189189189189189</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="1"/>
-        <v>6.1891891891891895</v>
+        <v>-0.64864864864864868</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="1"/>
-        <v>5.5945945945945947</v>
+        <v>1.7297297297297298</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>-0.30405405405405406</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="1"/>
-        <v>5.1013513513513518</v>
+        <v>-0.47297297297297297</v>
       </c>
       <c r="J41" s="40">
-        <f t="shared" si="0"/>
-        <v>0.89864864864864824</v>
+        <f t="shared" ref="J41" si="2">H41-I41</f>
+        <v>0.16891891891891891</v>
       </c>
     </row>
   </sheetData>
@@ -2277,2168 +2285,2535 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="43" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="19" customWidth="1"/>
     <col min="4" max="6" width="7.28515625" style="19" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="19" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="2"/>
+    <col min="13" max="16" width="9.140625" style="43"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
     <col min="18" max="18" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="26">
-        <v>202.77</v>
-      </c>
-      <c r="C3" s="27">
-        <v>275</v>
-      </c>
-      <c r="D3" s="27">
-        <v>150</v>
-      </c>
-      <c r="E3" s="27">
-        <v>49</v>
-      </c>
-      <c r="F3" s="27">
-        <v>101</v>
-      </c>
-      <c r="G3" s="28">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="H3" s="27">
-        <v>700</v>
-      </c>
-      <c r="I3" s="27">
-        <v>169</v>
-      </c>
-      <c r="J3" s="27">
-        <v>531</v>
-      </c>
-      <c r="K3" s="29">
-        <v>1.04</v>
-      </c>
-      <c r="L3" s="30">
-        <v>43122</v>
-      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>118.36</v>
+        <v>-169.05</v>
       </c>
       <c r="C4" s="27">
-        <v>154</v>
+        <v>-114</v>
       </c>
       <c r="D4" s="27">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E4" s="27">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="F4" s="27">
-        <v>99</v>
+        <v>-102</v>
       </c>
       <c r="G4" s="28">
-        <v>0.29399999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="H4" s="27">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="I4" s="27">
-        <v>324</v>
+        <v>1157</v>
       </c>
       <c r="J4" s="27">
-        <v>294</v>
+        <v>-488</v>
       </c>
       <c r="K4" s="29">
-        <v>1.1399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="L4" s="30">
-        <v>43119</v>
+        <v>43203</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>-50.66</v>
+        <v>361.69</v>
       </c>
       <c r="C5" s="27">
-        <v>-49</v>
+        <v>237</v>
       </c>
       <c r="D5" s="27">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="E5" s="27">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F5" s="27">
-        <v>-48</v>
+        <v>205</v>
       </c>
       <c r="G5" s="28">
-        <v>0.15</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="H5" s="27">
-        <v>430</v>
+        <v>1337</v>
       </c>
       <c r="I5" s="27">
-        <v>438</v>
+        <v>584</v>
       </c>
       <c r="J5" s="27">
-        <v>-7</v>
+        <v>752</v>
       </c>
       <c r="K5" s="29">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="L5" s="30">
-        <v>43118</v>
+        <v>43202</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>245.76</v>
+        <v>-272.58</v>
       </c>
       <c r="C6" s="27">
-        <v>302</v>
+        <v>-150</v>
       </c>
       <c r="D6" s="27">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E6" s="27">
-        <v>28</v>
+        <v>354</v>
       </c>
       <c r="F6" s="27">
-        <v>142</v>
+        <v>-211</v>
       </c>
       <c r="G6" s="28">
-        <v>0.33600000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="H6" s="27">
-        <v>724</v>
+        <v>555</v>
       </c>
       <c r="I6" s="27">
-        <v>172</v>
+        <v>1209</v>
       </c>
       <c r="J6" s="27">
-        <v>551</v>
+        <v>-654</v>
       </c>
       <c r="K6" s="29">
-        <v>1.0900000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L6" s="30">
-        <v>43117</v>
+        <v>43201</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>-83.39</v>
+        <v>796.89</v>
       </c>
       <c r="C7" s="27">
-        <v>-107</v>
+        <v>660</v>
       </c>
       <c r="D7" s="27">
-        <v>62</v>
+        <v>430</v>
       </c>
       <c r="E7" s="27">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="F7" s="27">
-        <v>-76</v>
+        <v>359</v>
       </c>
       <c r="G7" s="28">
-        <v>0.123</v>
+        <v>0.85</v>
       </c>
       <c r="H7" s="27">
-        <v>333</v>
+        <v>1870</v>
       </c>
       <c r="I7" s="27">
-        <v>651</v>
+        <v>287</v>
       </c>
       <c r="J7" s="27">
-        <v>-318</v>
+        <v>1582</v>
       </c>
       <c r="K7" s="29">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="L7" s="30">
-        <v>43116</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>227.85</v>
+        <v>155.81</v>
       </c>
       <c r="C8" s="27">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="D8" s="27">
-        <v>152</v>
+        <v>285</v>
       </c>
       <c r="E8" s="27">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F8" s="27">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="G8" s="28">
-        <v>0.3</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="H8" s="27">
-        <v>525</v>
+        <v>1117</v>
       </c>
       <c r="I8" s="27">
+        <v>783</v>
+      </c>
+      <c r="J8" s="27">
         <v>334</v>
       </c>
-      <c r="J8" s="27">
-        <v>191</v>
-      </c>
       <c r="K8" s="29">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="L8" s="30">
-        <v>43112</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>174.62</v>
+        <v>-1245.51</v>
       </c>
       <c r="C9" s="27">
-        <v>175</v>
+        <v>-1302</v>
       </c>
       <c r="D9" s="27">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E9" s="27">
-        <v>49</v>
+        <v>490</v>
       </c>
       <c r="F9" s="27">
-        <v>101</v>
+        <v>-480</v>
       </c>
       <c r="G9" s="28">
-        <v>0.29599999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="H9" s="27">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="I9" s="27">
-        <v>210</v>
+        <v>2154</v>
       </c>
       <c r="J9" s="27">
-        <v>370</v>
+        <v>-2123</v>
       </c>
       <c r="K9" s="29">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="L9" s="30">
-        <v>43111</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>-58.44</v>
+        <v>355.56</v>
       </c>
       <c r="C10" s="27">
-        <v>-44</v>
+        <v>314</v>
       </c>
       <c r="D10" s="27">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="E10" s="27">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F10" s="27">
-        <v>-46</v>
+        <v>282</v>
       </c>
       <c r="G10" s="28">
-        <v>0.152</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="H10" s="27">
-        <v>408</v>
+        <v>1600</v>
       </c>
       <c r="I10" s="27">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="J10" s="27">
-        <v>-63</v>
+        <v>1158</v>
       </c>
       <c r="K10" s="29">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="L10" s="30">
-        <v>43110</v>
+        <v>43195</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>47.54</v>
+        <v>566.19000000000005</v>
       </c>
       <c r="C11" s="27">
-        <v>89</v>
+        <v>573</v>
       </c>
       <c r="D11" s="27">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="E11" s="27">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F11" s="27">
-        <v>-8</v>
+        <v>371</v>
       </c>
       <c r="G11" s="28">
-        <v>0.19</v>
+        <v>0.86</v>
       </c>
       <c r="H11" s="27">
-        <v>285</v>
+        <v>1908</v>
       </c>
       <c r="I11" s="27">
-        <v>552</v>
+        <v>313</v>
       </c>
       <c r="J11" s="27">
-        <v>-266</v>
+        <v>1594</v>
       </c>
       <c r="K11" s="29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L11" s="30">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="31">
-        <v>127.28</v>
-      </c>
-      <c r="C12" s="32">
-        <v>156</v>
-      </c>
-      <c r="D12" s="32">
-        <v>136</v>
-      </c>
-      <c r="E12" s="32">
-        <v>62</v>
-      </c>
-      <c r="F12" s="32">
-        <v>74</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="H12" s="32">
-        <v>541</v>
-      </c>
-      <c r="I12" s="32">
-        <v>258</v>
-      </c>
-      <c r="J12" s="32">
-        <v>283</v>
-      </c>
-      <c r="K12" s="34">
-        <v>1</v>
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
+        <v>616.11</v>
+      </c>
+      <c r="C12" s="27">
+        <v>598</v>
+      </c>
+      <c r="D12" s="27">
+        <v>453</v>
+      </c>
+      <c r="E12" s="27">
+        <v>47</v>
+      </c>
+      <c r="F12" s="27">
+        <v>406</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1959</v>
+      </c>
+      <c r="I12" s="27">
+        <v>225</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1734</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.97</v>
       </c>
       <c r="L12" s="30">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="18">
-        <v>951.68</v>
-      </c>
-      <c r="C13" s="19">
-        <v>1231</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1218</v>
-      </c>
-      <c r="E13" s="19">
-        <v>774</v>
-      </c>
-      <c r="F13" s="19">
-        <v>444</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="H13" s="19">
-        <v>5151</v>
-      </c>
-      <c r="I13" s="19">
-        <v>3585</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1566</v>
-      </c>
-      <c r="K13" s="21">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="31">
+        <v>-1252.6400000000001</v>
+      </c>
+      <c r="C13" s="32">
+        <v>-1561</v>
+      </c>
+      <c r="D13" s="32">
+        <v>13</v>
+      </c>
+      <c r="E13" s="32">
+        <v>486</v>
+      </c>
+      <c r="F13" s="32">
+        <v>-473</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H13" s="32">
+        <v>81</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2368</v>
+      </c>
+      <c r="J13" s="32">
+        <v>-2287</v>
+      </c>
+      <c r="K13" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13" s="30">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>-87.53</v>
+      </c>
+      <c r="C14" s="19">
+        <v>-615</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2710</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2280</v>
+      </c>
+      <c r="F14" s="19">
+        <v>430</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H14" s="19">
+        <v>11129</v>
+      </c>
+      <c r="I14" s="19">
+        <v>9527</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1602</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="43"/>
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K18" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="26">
-        <v>138.38999999999999</v>
-      </c>
-      <c r="C18" s="27">
-        <v>165</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
+        <v>-77.69</v>
+      </c>
+      <c r="C19" s="27">
+        <v>-39</v>
+      </c>
+      <c r="D19" s="27">
+        <v>26</v>
+      </c>
+      <c r="E19" s="27">
+        <v>79</v>
+      </c>
+      <c r="F19" s="27">
+        <v>-53</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H19" s="27">
+        <v>128</v>
+      </c>
+      <c r="I19" s="27">
+        <v>334</v>
+      </c>
+      <c r="J19" s="27">
+        <v>-205</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="L19" s="30">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="26">
+        <v>159.04</v>
+      </c>
+      <c r="C20" s="27">
+        <v>101</v>
+      </c>
+      <c r="D20" s="27">
         <v>81</v>
       </c>
-      <c r="E18" s="27">
-        <v>17</v>
-      </c>
-      <c r="F18" s="27">
-        <v>64</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="E20" s="27">
+        <v>25</v>
+      </c>
+      <c r="F20" s="27">
+        <v>56</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H20" s="27">
+        <v>399</v>
+      </c>
+      <c r="I20" s="27">
+        <v>134</v>
+      </c>
+      <c r="J20" s="27">
+        <v>264</v>
+      </c>
+      <c r="K20" s="29">
         <v>0.81</v>
       </c>
-      <c r="H18" s="27">
-        <v>459</v>
-      </c>
-      <c r="I18" s="27">
-        <v>97</v>
-      </c>
-      <c r="J18" s="27">
-        <v>362</v>
-      </c>
-      <c r="K18" s="29">
-        <v>1.06</v>
-      </c>
-      <c r="L18" s="30">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="26">
-        <v>52.46</v>
-      </c>
-      <c r="C19" s="27">
-        <v>57</v>
-      </c>
-      <c r="D19" s="27">
-        <v>68</v>
-      </c>
-      <c r="E19" s="27">
-        <v>27</v>
-      </c>
-      <c r="F19" s="27">
-        <v>41</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0.68</v>
-      </c>
-      <c r="H19" s="27">
-        <v>342</v>
-      </c>
-      <c r="I19" s="27">
-        <v>227</v>
-      </c>
-      <c r="J19" s="27">
-        <v>115</v>
-      </c>
-      <c r="K19" s="29">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L19" s="30">
-        <v>43119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="26">
-        <v>-21.9</v>
-      </c>
-      <c r="C20" s="27">
-        <v>-18</v>
-      </c>
-      <c r="D20" s="27">
-        <v>47</v>
-      </c>
-      <c r="E20" s="27">
-        <v>51</v>
-      </c>
-      <c r="F20" s="27">
-        <v>-4</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0.47</v>
-      </c>
-      <c r="H20" s="27">
-        <v>308</v>
-      </c>
-      <c r="I20" s="27">
-        <v>225</v>
-      </c>
-      <c r="J20" s="27">
-        <v>82</v>
-      </c>
-      <c r="K20" s="29">
-        <v>1.02</v>
-      </c>
       <c r="L20" s="30">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>153.30000000000001</v>
+        <v>-112.71</v>
       </c>
       <c r="C21" s="27">
-        <v>211</v>
+        <v>-83</v>
       </c>
       <c r="D21" s="27">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E21" s="27">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F21" s="27">
-        <v>56</v>
+        <v>-54</v>
       </c>
       <c r="G21" s="28">
-        <v>0.77</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="H21" s="27">
-        <v>442</v>
+        <v>162</v>
       </c>
       <c r="I21" s="27">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="J21" s="27">
-        <v>277</v>
+        <v>-161</v>
       </c>
       <c r="K21" s="29">
-        <v>1.1499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="L21" s="30">
-        <v>43117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>-28.16</v>
+        <v>333.2</v>
       </c>
       <c r="C22" s="27">
-        <v>-32</v>
+        <v>289</v>
       </c>
       <c r="D22" s="27">
+        <v>98</v>
+      </c>
+      <c r="E22" s="27">
+        <v>7</v>
+      </c>
+      <c r="F22" s="27">
+        <v>91</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H22" s="27">
+        <v>566</v>
+      </c>
+      <c r="I22" s="27">
+        <v>55</v>
+      </c>
+      <c r="J22" s="27">
+        <v>511</v>
+      </c>
+      <c r="K22" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="L22" s="30">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="26">
+        <v>96.53</v>
+      </c>
+      <c r="C23" s="27">
+        <v>66</v>
+      </c>
+      <c r="D23" s="27">
+        <v>71</v>
+      </c>
+      <c r="E23" s="27">
+        <v>33</v>
+      </c>
+      <c r="F23" s="27">
+        <v>38</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="H23" s="27">
+        <v>369</v>
+      </c>
+      <c r="I23" s="27">
+        <v>155</v>
+      </c>
+      <c r="J23" s="27">
+        <v>213</v>
+      </c>
+      <c r="K23" s="29">
+        <v>0.83</v>
+      </c>
+      <c r="L23" s="30">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="26">
+        <v>-423.7</v>
+      </c>
+      <c r="C24" s="27">
+        <v>-522</v>
+      </c>
+      <c r="D24" s="27">
+        <v>6</v>
+      </c>
+      <c r="E24" s="27">
+        <v>99</v>
+      </c>
+      <c r="F24" s="27">
+        <v>-93</v>
+      </c>
+      <c r="G24" s="28">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H24" s="27">
+        <v>8</v>
+      </c>
+      <c r="I24" s="27">
+        <v>652</v>
+      </c>
+      <c r="J24" s="27">
+        <v>-643</v>
+      </c>
+      <c r="K24" s="29">
+        <v>1.01</v>
+      </c>
+      <c r="L24" s="30">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="26">
+        <v>79.84</v>
+      </c>
+      <c r="C25" s="27">
+        <v>75</v>
+      </c>
+      <c r="D25" s="27">
+        <v>69</v>
+      </c>
+      <c r="E25" s="27">
         <v>37</v>
       </c>
-      <c r="E22" s="27">
-        <v>61</v>
-      </c>
-      <c r="F22" s="27">
-        <v>-24</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0.37</v>
-      </c>
-      <c r="H22" s="27">
-        <v>228</v>
-      </c>
-      <c r="I22" s="27">
-        <v>417</v>
-      </c>
-      <c r="J22" s="27">
-        <v>-188</v>
-      </c>
-      <c r="K22" s="29">
-        <v>1.23</v>
-      </c>
-      <c r="L22" s="30">
-        <v>43116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="26">
-        <v>139.46</v>
-      </c>
-      <c r="C23" s="27">
-        <v>176</v>
-      </c>
-      <c r="D23" s="27">
-        <v>74</v>
-      </c>
-      <c r="E23" s="27">
-        <v>24</v>
-      </c>
-      <c r="F23" s="27">
-        <v>50</v>
-      </c>
-      <c r="G23" s="28">
-        <v>0.74</v>
-      </c>
-      <c r="H23" s="27">
-        <v>313</v>
-      </c>
-      <c r="I23" s="27">
-        <v>235</v>
-      </c>
-      <c r="J23" s="27">
-        <v>78</v>
-      </c>
-      <c r="K23" s="29">
-        <v>1.05</v>
-      </c>
-      <c r="L23" s="30">
-        <v>43112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="26">
-        <v>97.58</v>
-      </c>
-      <c r="C24" s="27">
-        <v>100</v>
-      </c>
-      <c r="D24" s="27">
-        <v>69</v>
-      </c>
-      <c r="E24" s="27">
-        <v>29</v>
-      </c>
-      <c r="F24" s="27">
-        <v>40</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0.69</v>
-      </c>
-      <c r="H24" s="27">
-        <v>362</v>
-      </c>
-      <c r="I24" s="27">
-        <v>151</v>
-      </c>
-      <c r="J24" s="27">
-        <v>210</v>
-      </c>
-      <c r="K24" s="29">
-        <v>0.98</v>
-      </c>
-      <c r="L24" s="30">
-        <v>43111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="26">
-        <v>-23.23</v>
-      </c>
-      <c r="C25" s="27">
-        <v>3</v>
-      </c>
-      <c r="D25" s="27">
-        <v>33</v>
-      </c>
-      <c r="E25" s="27">
-        <v>65</v>
-      </c>
       <c r="F25" s="27">
-        <v>-32</v>
+        <v>32</v>
       </c>
       <c r="G25" s="28">
-        <v>0.33</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="H25" s="27">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="I25" s="27">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="J25" s="27">
-        <v>-9</v>
+        <v>185</v>
       </c>
       <c r="K25" s="29">
-        <v>1.1100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L25" s="30">
-        <v>43110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>37.57</v>
+        <v>240.4</v>
       </c>
       <c r="C26" s="27">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="D26" s="27">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E26" s="27">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F26" s="27">
-        <v>-9</v>
+        <v>91</v>
       </c>
       <c r="G26" s="28">
-        <v>0.44</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="H26" s="27">
-        <v>168</v>
+        <v>562</v>
       </c>
       <c r="I26" s="27">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="J26" s="27">
-        <v>-173</v>
+        <v>470</v>
       </c>
       <c r="K26" s="29">
         <v>1.01</v>
       </c>
       <c r="L26" s="30">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="C27" s="32">
-        <v>93</v>
-      </c>
-      <c r="D27" s="32">
-        <v>61</v>
-      </c>
-      <c r="E27" s="32">
-        <v>36</v>
-      </c>
-      <c r="F27" s="32">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="26">
+        <v>165.41</v>
+      </c>
+      <c r="C27" s="27">
+        <v>181</v>
+      </c>
+      <c r="D27" s="27">
+        <v>86</v>
+      </c>
+      <c r="E27" s="27">
+        <v>20</v>
+      </c>
+      <c r="F27" s="27">
+        <v>66</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H27" s="27">
+        <v>555</v>
+      </c>
+      <c r="I27" s="27">
+        <v>95</v>
+      </c>
+      <c r="J27" s="27">
+        <v>460</v>
+      </c>
+      <c r="K27" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="L27" s="30">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="31">
+        <v>-475.07</v>
+      </c>
+      <c r="C28" s="32">
+        <v>-673</v>
+      </c>
+      <c r="D28" s="32">
+        <v>4</v>
+      </c>
+      <c r="E28" s="32">
+        <v>102</v>
+      </c>
+      <c r="F28" s="32">
+        <v>-98</v>
+      </c>
+      <c r="G28" s="33">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H28" s="32">
+        <v>14</v>
+      </c>
+      <c r="I28" s="32">
+        <v>751</v>
+      </c>
+      <c r="J28" s="32">
+        <v>-737</v>
+      </c>
+      <c r="K28" s="34">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L28" s="30">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="18">
+        <v>-14.75</v>
+      </c>
+      <c r="C29" s="19">
+        <v>-342</v>
+      </c>
+      <c r="D29" s="19">
+        <v>564</v>
+      </c>
+      <c r="E29" s="19">
+        <v>488</v>
+      </c>
+      <c r="F29" s="19">
+        <v>76</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H29" s="19">
+        <v>3160</v>
+      </c>
+      <c r="I29" s="19">
+        <v>2804</v>
+      </c>
+      <c r="J29" s="19">
+        <v>356</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="33">
-        <v>0.61</v>
-      </c>
-      <c r="H27" s="32">
-        <v>283</v>
-      </c>
-      <c r="I27" s="32">
-        <v>187</v>
-      </c>
-      <c r="J27" s="32">
-        <v>96</v>
-      </c>
-      <c r="K27" s="34">
-        <v>0.96</v>
-      </c>
-      <c r="L27" s="30">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="18">
-        <v>619.39</v>
-      </c>
-      <c r="C28" s="19">
-        <v>833</v>
-      </c>
-      <c r="D28" s="19">
-        <v>591</v>
-      </c>
-      <c r="E28" s="19">
-        <v>384</v>
-      </c>
-      <c r="F28" s="19">
-        <v>207</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="H28" s="19">
-        <v>3195</v>
-      </c>
-      <c r="I28" s="19">
-        <v>2343</v>
-      </c>
-      <c r="J28" s="19">
-        <v>852</v>
-      </c>
-      <c r="K28" s="21">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="C33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
+        <v>-86.82</v>
+      </c>
+      <c r="C34" s="27">
+        <v>-129</v>
+      </c>
+      <c r="D34" s="27">
+        <v>227</v>
+      </c>
+      <c r="E34" s="27">
+        <v>339</v>
+      </c>
+      <c r="F34" s="27">
+        <v>-112</v>
+      </c>
+      <c r="G34" s="28">
+        <v>0.376</v>
+      </c>
+      <c r="H34" s="27">
+        <v>94</v>
+      </c>
+      <c r="I34" s="27">
+        <v>169</v>
+      </c>
+      <c r="J34" s="27">
+        <v>-75</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="L34" s="30">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
+        <v>100.13</v>
+      </c>
+      <c r="C35" s="27">
+        <v>57</v>
+      </c>
+      <c r="D35" s="27">
+        <v>395</v>
+      </c>
+      <c r="E35" s="27">
+        <v>195</v>
+      </c>
+      <c r="F35" s="27">
+        <v>200</v>
+      </c>
+      <c r="G35" s="28">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H35" s="27">
+        <v>191</v>
+      </c>
+      <c r="I35" s="27">
+        <v>114</v>
+      </c>
+      <c r="J35" s="27">
+        <v>77</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="L35" s="30">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="26">
+        <v>16.39</v>
+      </c>
+      <c r="C36" s="27">
+        <v>4</v>
+      </c>
+      <c r="D36" s="27">
+        <v>314</v>
+      </c>
+      <c r="E36" s="27">
+        <v>255</v>
+      </c>
+      <c r="F36" s="27">
+        <v>59</v>
+      </c>
+      <c r="G36" s="28">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H36" s="27">
+        <v>162</v>
+      </c>
+      <c r="I36" s="27">
+        <v>129</v>
+      </c>
+      <c r="J36" s="27">
+        <v>32</v>
+      </c>
+      <c r="K36" s="29">
+        <v>0.84</v>
+      </c>
+      <c r="L36" s="30">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="26">
+        <v>393.14</v>
+      </c>
+      <c r="C37" s="27">
+        <v>354</v>
+      </c>
+      <c r="D37" s="27">
+        <v>530</v>
+      </c>
+      <c r="E37" s="27">
+        <v>55</v>
+      </c>
+      <c r="F37" s="27">
+        <v>475</v>
+      </c>
+      <c r="G37" s="28">
+        <v>0.879</v>
+      </c>
+      <c r="H37" s="27">
+        <v>300</v>
+      </c>
+      <c r="I37" s="27">
+        <v>24</v>
+      </c>
+      <c r="J37" s="27">
+        <v>275</v>
+      </c>
+      <c r="K37" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="L37" s="30">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="26">
+        <v>-58.86</v>
+      </c>
+      <c r="C38" s="27">
+        <v>-47</v>
+      </c>
+      <c r="D38" s="27">
+        <v>217</v>
+      </c>
+      <c r="E38" s="27">
+        <v>358</v>
+      </c>
+      <c r="F38" s="27">
+        <v>-141</v>
+      </c>
+      <c r="G38" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="H38" s="27">
+        <v>111</v>
+      </c>
+      <c r="I38" s="27">
+        <v>165</v>
+      </c>
+      <c r="J38" s="27">
+        <v>-54</v>
+      </c>
+      <c r="K38" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="L38" s="30">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="26">
+        <v>-412.61</v>
+      </c>
+      <c r="C39" s="27">
+        <v>-383</v>
+      </c>
+      <c r="D39" s="27">
+        <v>56</v>
+      </c>
+      <c r="E39" s="27">
+        <v>534</v>
+      </c>
+      <c r="F39" s="27">
+        <v>-478</v>
+      </c>
+      <c r="G39" s="28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H39" s="27">
+        <v>45</v>
+      </c>
+      <c r="I39" s="27">
+        <v>287</v>
+      </c>
+      <c r="J39" s="27">
+        <v>-241</v>
+      </c>
+      <c r="K39" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="L39" s="30">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="26">
+        <v>256.06</v>
+      </c>
+      <c r="C40" s="27">
+        <v>244</v>
+      </c>
+      <c r="D40" s="27">
+        <v>442</v>
+      </c>
+      <c r="E40" s="27">
+        <v>140</v>
+      </c>
+      <c r="F40" s="27">
+        <v>302</v>
+      </c>
+      <c r="G40" s="28">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H40" s="27">
+        <v>234</v>
+      </c>
+      <c r="I40" s="27">
+        <v>88</v>
+      </c>
+      <c r="J40" s="27">
+        <v>145</v>
+      </c>
+      <c r="K40" s="29">
+        <v>0.91</v>
+      </c>
+      <c r="L40" s="30">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="26">
+        <v>289.48</v>
+      </c>
+      <c r="C41" s="27">
+        <v>258</v>
+      </c>
+      <c r="D41" s="27">
+        <v>498</v>
+      </c>
+      <c r="E41" s="27">
+        <v>89</v>
+      </c>
+      <c r="F41" s="27">
+        <v>409</v>
+      </c>
+      <c r="G41" s="28">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H41" s="27">
+        <v>248</v>
+      </c>
+      <c r="I41" s="27">
+        <v>79</v>
+      </c>
+      <c r="J41" s="27">
+        <v>169</v>
+      </c>
+      <c r="K41" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="L41" s="30">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="26">
+        <v>344.53</v>
+      </c>
+      <c r="C42" s="27">
+        <v>344</v>
+      </c>
+      <c r="D42" s="27">
+        <v>519</v>
+      </c>
+      <c r="E42" s="27">
+        <v>68</v>
+      </c>
+      <c r="F42" s="27">
+        <v>451</v>
+      </c>
+      <c r="G42" s="28">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H42" s="27">
+        <v>304</v>
+      </c>
+      <c r="I42" s="27">
+        <v>45</v>
+      </c>
+      <c r="J42" s="27">
+        <v>258</v>
+      </c>
+      <c r="K42" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="L42" s="30">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="31">
+        <v>-524.58000000000004</v>
+      </c>
+      <c r="C43" s="32">
+        <v>-529</v>
+      </c>
+      <c r="D43" s="32">
+        <v>41</v>
+      </c>
+      <c r="E43" s="32">
+        <v>554</v>
+      </c>
+      <c r="F43" s="32">
+        <v>-513</v>
+      </c>
+      <c r="G43" s="33">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H43" s="32">
+        <v>24</v>
+      </c>
+      <c r="I43" s="32">
+        <v>325</v>
+      </c>
+      <c r="J43" s="32">
+        <v>-301</v>
+      </c>
+      <c r="K43" s="34">
+        <v>0.98</v>
+      </c>
+      <c r="L43" s="30">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="18">
+        <v>316.88</v>
+      </c>
+      <c r="C44" s="19">
+        <v>173</v>
+      </c>
+      <c r="D44" s="19">
+        <v>3239</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2587</v>
+      </c>
+      <c r="F44" s="19">
+        <v>652</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H44" s="19">
+        <v>1718</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1431</v>
+      </c>
+      <c r="J44" s="19">
+        <v>287</v>
+      </c>
+      <c r="K44" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="44"/>
+      <c r="C47" s="19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
+      <c r="B48" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D48" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E48" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G48" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K48" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="26">
-        <v>-11.16</v>
-      </c>
-      <c r="C33" s="27">
-        <v>-75</v>
-      </c>
-      <c r="D33" s="27">
-        <v>185</v>
-      </c>
-      <c r="E33" s="27">
-        <v>183</v>
-      </c>
-      <c r="F33" s="27">
-        <v>2</v>
-      </c>
-      <c r="G33" s="28">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="H33" s="27">
-        <v>111</v>
-      </c>
-      <c r="I33" s="27">
-        <v>70</v>
-      </c>
-      <c r="J33" s="27">
-        <v>40</v>
-      </c>
-      <c r="K33" s="29">
-        <v>1.04</v>
-      </c>
-      <c r="L33" s="30">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
-        <v>259.87</v>
-      </c>
-      <c r="C34" s="27">
-        <v>304</v>
-      </c>
-      <c r="D34" s="27">
-        <v>334</v>
-      </c>
-      <c r="E34" s="27">
-        <v>45</v>
-      </c>
-      <c r="F34" s="27">
-        <v>289</v>
-      </c>
-      <c r="G34" s="28">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="H34" s="27">
-        <v>141</v>
-      </c>
-      <c r="I34" s="27">
-        <v>30</v>
-      </c>
-      <c r="J34" s="27">
-        <v>110</v>
-      </c>
-      <c r="K34" s="29">
-        <v>0.97</v>
-      </c>
-      <c r="L34" s="30">
-        <v>43119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
-        <v>-106.55</v>
-      </c>
-      <c r="C35" s="27">
-        <v>-81</v>
-      </c>
-      <c r="D35" s="27">
-        <v>85</v>
-      </c>
-      <c r="E35" s="27">
-        <v>290</v>
-      </c>
-      <c r="F35" s="27">
-        <v>-205</v>
-      </c>
-      <c r="G35" s="28">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H35" s="27">
-        <v>53</v>
-      </c>
-      <c r="I35" s="27">
-        <v>112</v>
-      </c>
-      <c r="J35" s="27">
-        <v>-59</v>
-      </c>
-      <c r="K35" s="29">
-        <v>0.95</v>
-      </c>
-      <c r="L35" s="30">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="26">
-        <v>160.6</v>
-      </c>
-      <c r="C36" s="27">
-        <v>161</v>
-      </c>
-      <c r="D36" s="27">
-        <v>283</v>
-      </c>
-      <c r="E36" s="27">
-        <v>89</v>
-      </c>
-      <c r="F36" s="27">
-        <v>194</v>
-      </c>
-      <c r="G36" s="28">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="H36" s="27">
-        <v>114</v>
-      </c>
-      <c r="I36" s="27">
-        <v>48</v>
-      </c>
-      <c r="J36" s="27">
-        <v>65</v>
-      </c>
-      <c r="K36" s="29">
-        <v>0.94</v>
-      </c>
-      <c r="L36" s="30">
-        <v>43117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="26">
-        <v>-117.99</v>
-      </c>
-      <c r="C37" s="27">
-        <v>-111</v>
-      </c>
-      <c r="D37" s="27">
-        <v>105</v>
-      </c>
-      <c r="E37" s="27">
-        <v>267</v>
-      </c>
-      <c r="F37" s="27">
-        <v>-162</v>
-      </c>
-      <c r="G37" s="28">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H37" s="27">
-        <v>42</v>
-      </c>
-      <c r="I37" s="27">
-        <v>135</v>
-      </c>
-      <c r="J37" s="27">
-        <v>-92</v>
-      </c>
-      <c r="K37" s="29">
-        <v>1.02</v>
-      </c>
-      <c r="L37" s="30">
-        <v>43116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="26">
-        <v>70.86</v>
-      </c>
-      <c r="C38" s="27">
-        <v>65</v>
-      </c>
-      <c r="D38" s="27">
-        <v>235</v>
-      </c>
-      <c r="E38" s="27">
-        <v>136</v>
-      </c>
-      <c r="F38" s="27">
-        <v>99</v>
-      </c>
-      <c r="G38" s="28">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="H38" s="27">
-        <v>102</v>
-      </c>
-      <c r="I38" s="27">
-        <v>50</v>
-      </c>
-      <c r="J38" s="27">
-        <v>52</v>
-      </c>
-      <c r="K38" s="29">
-        <v>0.87</v>
-      </c>
-      <c r="L38" s="30">
-        <v>43112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="26">
-        <v>282.83999999999997</v>
-      </c>
-      <c r="C39" s="27">
-        <v>334</v>
-      </c>
-      <c r="D39" s="27">
-        <v>340</v>
-      </c>
-      <c r="E39" s="27">
-        <v>35</v>
-      </c>
-      <c r="F39" s="27">
-        <v>305</v>
-      </c>
-      <c r="G39" s="28">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H39" s="27">
-        <v>154</v>
-      </c>
-      <c r="I39" s="27">
-        <v>25</v>
-      </c>
-      <c r="J39" s="27">
-        <v>128</v>
-      </c>
-      <c r="K39" s="29">
-        <v>1.01</v>
-      </c>
-      <c r="L39" s="30">
-        <v>43111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="26">
-        <v>-7.96</v>
-      </c>
-      <c r="C40" s="27">
-        <v>22</v>
-      </c>
-      <c r="D40" s="27">
-        <v>176</v>
-      </c>
-      <c r="E40" s="27">
-        <v>194</v>
-      </c>
-      <c r="F40" s="27">
-        <v>-18</v>
-      </c>
-      <c r="G40" s="28">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="H40" s="27">
-        <v>90</v>
-      </c>
-      <c r="I40" s="27">
-        <v>82</v>
-      </c>
-      <c r="J40" s="27">
-        <v>7</v>
-      </c>
-      <c r="K40" s="29">
-        <v>1.01</v>
-      </c>
-      <c r="L40" s="30">
-        <v>43110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="26">
-        <v>1.19</v>
-      </c>
-      <c r="C41" s="27">
-        <v>49</v>
-      </c>
-      <c r="D41" s="27">
-        <v>152</v>
-      </c>
-      <c r="E41" s="27">
-        <v>222</v>
-      </c>
-      <c r="F41" s="27">
-        <v>-70</v>
-      </c>
-      <c r="G41" s="28">
-        <v>0.252</v>
-      </c>
-      <c r="H41" s="27">
-        <v>76</v>
-      </c>
-      <c r="I41" s="27">
-        <v>117</v>
-      </c>
-      <c r="J41" s="27">
-        <v>-41</v>
-      </c>
-      <c r="K41" s="29">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L41" s="30">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="31">
-        <v>14.89</v>
-      </c>
-      <c r="C42" s="32">
-        <v>-37</v>
-      </c>
-      <c r="D42" s="32">
-        <v>199</v>
-      </c>
-      <c r="E42" s="32">
-        <v>166</v>
-      </c>
-      <c r="F42" s="32">
-        <v>33</v>
-      </c>
-      <c r="G42" s="33">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="H42" s="32">
-        <v>100</v>
-      </c>
-      <c r="I42" s="32">
-        <v>82</v>
-      </c>
-      <c r="J42" s="32">
-        <v>18</v>
-      </c>
-      <c r="K42" s="34">
-        <v>1.07</v>
-      </c>
-      <c r="L42" s="30">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="18">
-        <v>546.58000000000004</v>
-      </c>
-      <c r="C43" s="19">
-        <v>631</v>
-      </c>
-      <c r="D43" s="19">
-        <v>2094</v>
-      </c>
-      <c r="E43" s="19">
-        <v>1627</v>
-      </c>
-      <c r="F43" s="19">
-        <v>467</v>
-      </c>
-      <c r="G43" s="20">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H43" s="19">
-        <v>986</v>
-      </c>
-      <c r="I43" s="19">
-        <v>755</v>
-      </c>
-      <c r="J43" s="19">
-        <v>231</v>
-      </c>
-      <c r="K43" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="26">
-        <v>464.76</v>
-      </c>
-      <c r="C48" s="27">
-        <v>1243</v>
-      </c>
-      <c r="D48" s="27">
-        <v>459</v>
-      </c>
-      <c r="E48" s="27">
-        <v>187</v>
-      </c>
-      <c r="F48" s="27">
-        <v>272</v>
-      </c>
-      <c r="G48" s="28">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="H48" s="27">
-        <v>1316</v>
-      </c>
-      <c r="I48" s="27">
-        <v>423</v>
-      </c>
-      <c r="J48" s="27">
-        <v>893</v>
-      </c>
-      <c r="K48" s="29">
-        <v>1.08</v>
-      </c>
-      <c r="L48" s="30">
-        <v>43122</v>
-      </c>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>305.2</v>
+        <v>-416.12</v>
       </c>
       <c r="C49" s="27">
-        <v>391</v>
+        <v>-359</v>
       </c>
       <c r="D49" s="27">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="E49" s="27">
-        <v>173</v>
+        <v>894</v>
       </c>
       <c r="F49" s="27">
-        <v>297</v>
+        <v>-373</v>
       </c>
       <c r="G49" s="28">
-        <v>0.34599999999999997</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="H49" s="27">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="I49" s="27">
-        <v>513</v>
+        <v>1944</v>
       </c>
       <c r="J49" s="27">
-        <v>642</v>
+        <v>-803</v>
       </c>
       <c r="K49" s="29">
-        <v>1.05</v>
+        <v>0.83</v>
       </c>
       <c r="L49" s="30">
-        <v>43119</v>
+        <v>43203</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>-31.22</v>
+        <v>557.61</v>
       </c>
       <c r="C50" s="27">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="D50" s="27">
-        <v>251</v>
+        <v>958</v>
       </c>
       <c r="E50" s="27">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="F50" s="27">
-        <v>-142</v>
+        <v>486</v>
       </c>
       <c r="G50" s="28">
-        <v>0.185</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H50" s="27">
-        <v>828</v>
+        <v>2133</v>
       </c>
       <c r="I50" s="27">
-        <v>830</v>
+        <v>1115</v>
       </c>
       <c r="J50" s="27">
-        <v>-1</v>
+        <v>1018</v>
       </c>
       <c r="K50" s="29">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="L50" s="30">
-        <v>43118</v>
+        <v>43202</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>396.27</v>
+        <v>-257.92</v>
       </c>
       <c r="C51" s="27">
-        <v>587</v>
+        <v>-123</v>
       </c>
       <c r="D51" s="27">
-        <v>474</v>
+        <v>618</v>
       </c>
       <c r="E51" s="27">
-        <v>173</v>
+        <v>795</v>
       </c>
       <c r="F51" s="27">
-        <v>301</v>
+        <v>-177</v>
       </c>
       <c r="G51" s="28">
-        <v>0.34899999999999998</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H51" s="27">
-        <v>1325</v>
+        <v>1357</v>
       </c>
       <c r="I51" s="27">
-        <v>426</v>
+        <v>1753</v>
       </c>
       <c r="J51" s="27">
-        <v>898</v>
+        <v>-396</v>
       </c>
       <c r="K51" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="L51" s="30">
-        <v>43117</v>
+        <v>43201</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>-365.31</v>
+        <v>1484.46</v>
       </c>
       <c r="C52" s="27">
-        <v>-504</v>
+        <v>1571</v>
       </c>
       <c r="D52" s="27">
-        <v>170</v>
+        <v>1237</v>
       </c>
       <c r="E52" s="27">
-        <v>478</v>
+        <v>191</v>
       </c>
       <c r="F52" s="27">
-        <v>-308</v>
+        <v>1046</v>
       </c>
       <c r="G52" s="28">
-        <v>0.125</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="H52" s="27">
-        <v>573</v>
+        <v>3316</v>
       </c>
       <c r="I52" s="27">
-        <v>1350</v>
+        <v>468</v>
       </c>
       <c r="J52" s="27">
-        <v>-776</v>
+        <v>2847</v>
       </c>
       <c r="K52" s="29">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L52" s="30">
-        <v>43116</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>259.47000000000003</v>
+        <v>289.39</v>
       </c>
       <c r="C53" s="27">
-        <v>280</v>
+        <v>925</v>
       </c>
       <c r="D53" s="27">
-        <v>409</v>
+        <v>731</v>
       </c>
       <c r="E53" s="27">
-        <v>234</v>
+        <v>680</v>
       </c>
       <c r="F53" s="27">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="G53" s="28">
-        <v>0.30099999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="H53" s="27">
-        <v>925</v>
+        <v>1780</v>
       </c>
       <c r="I53" s="27">
-        <v>693</v>
+        <v>1472</v>
       </c>
       <c r="J53" s="27">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="K53" s="29">
-        <v>1.01</v>
+        <v>0.87</v>
       </c>
       <c r="L53" s="30">
-        <v>43112</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>344.51</v>
+        <v>-1803.38</v>
       </c>
       <c r="C54" s="27">
-        <v>408</v>
+        <v>-1739</v>
       </c>
       <c r="D54" s="27">
-        <v>500</v>
+        <v>118</v>
       </c>
       <c r="E54" s="27">
-        <v>147</v>
+        <v>1321</v>
       </c>
       <c r="F54" s="27">
-        <v>353</v>
+        <v>-1203</v>
       </c>
       <c r="G54" s="28">
-        <v>0.36799999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H54" s="27">
-        <v>1223</v>
+        <v>223</v>
       </c>
       <c r="I54" s="27">
-        <v>397</v>
+        <v>3384</v>
       </c>
       <c r="J54" s="27">
-        <v>826</v>
+        <v>-3160</v>
       </c>
       <c r="K54" s="29">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="L54" s="30">
-        <v>43111</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>-72.77</v>
+        <v>585.80999999999995</v>
       </c>
       <c r="C55" s="27">
-        <v>-55</v>
+        <v>554</v>
       </c>
       <c r="D55" s="27">
-        <v>274</v>
+        <v>1039</v>
       </c>
       <c r="E55" s="27">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F55" s="27">
-        <v>-100</v>
+        <v>648</v>
       </c>
       <c r="G55" s="28">
-        <v>0.20200000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="H55" s="27">
-        <v>754</v>
+        <v>2655</v>
       </c>
       <c r="I55" s="27">
-        <v>932</v>
+        <v>832</v>
       </c>
       <c r="J55" s="27">
-        <v>-177</v>
+        <v>1823</v>
       </c>
       <c r="K55" s="29">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="L55" s="30">
-        <v>43110</v>
+        <v>43195</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>37.020000000000003</v>
+        <v>973.11</v>
       </c>
       <c r="C56" s="27">
-        <v>112</v>
+        <v>939</v>
       </c>
       <c r="D56" s="27">
-        <v>293</v>
+        <v>1164</v>
       </c>
       <c r="E56" s="27">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="F56" s="27">
-        <v>-62</v>
+        <v>901</v>
       </c>
       <c r="G56" s="28">
-        <v>0.216</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="H56" s="27">
-        <v>669</v>
+        <v>2992</v>
       </c>
       <c r="I56" s="27">
-        <v>943</v>
+        <v>769</v>
       </c>
       <c r="J56" s="27">
-        <v>-273</v>
+        <v>2223</v>
       </c>
       <c r="K56" s="29">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L56" s="30">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="31">
-        <v>140.9</v>
-      </c>
-      <c r="C57" s="32">
-        <v>139</v>
-      </c>
-      <c r="D57" s="32">
-        <v>386</v>
-      </c>
-      <c r="E57" s="32">
-        <v>255</v>
-      </c>
-      <c r="F57" s="32">
-        <v>131</v>
-      </c>
-      <c r="G57" s="33">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="H57" s="32">
-        <v>968</v>
-      </c>
-      <c r="I57" s="32">
-        <v>618</v>
-      </c>
-      <c r="J57" s="32">
-        <v>349</v>
-      </c>
-      <c r="K57" s="34">
-        <v>1.02</v>
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="26">
+        <v>904.69</v>
+      </c>
+      <c r="C57" s="27">
+        <v>896</v>
+      </c>
+      <c r="D57" s="27">
+        <v>1185</v>
+      </c>
+      <c r="E57" s="27">
+        <v>248</v>
+      </c>
+      <c r="F57" s="27">
+        <v>937</v>
+      </c>
+      <c r="G57" s="28">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="H57" s="27">
+        <v>3004</v>
+      </c>
+      <c r="I57" s="27">
+        <v>694</v>
+      </c>
+      <c r="J57" s="27">
+        <v>2309</v>
+      </c>
+      <c r="K57" s="29">
+        <v>0.98</v>
       </c>
       <c r="L57" s="30">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="18">
-        <v>1478.84</v>
-      </c>
-      <c r="C58" s="19">
-        <v>2642</v>
-      </c>
-      <c r="D58" s="19">
-        <v>3686</v>
-      </c>
-      <c r="E58" s="19">
-        <v>2769</v>
-      </c>
-      <c r="F58" s="19">
-        <v>917</v>
-      </c>
-      <c r="G58" s="20">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="H58" s="19">
-        <v>9741</v>
-      </c>
-      <c r="I58" s="19">
-        <v>7128</v>
-      </c>
-      <c r="J58" s="19">
-        <v>2613</v>
-      </c>
-      <c r="K58" s="21">
-        <v>1.06</v>
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="31">
+        <v>-1981.44</v>
+      </c>
+      <c r="C58" s="32">
+        <v>-2416</v>
+      </c>
+      <c r="D58" s="32">
+        <v>94</v>
+      </c>
+      <c r="E58" s="32">
+        <v>1342</v>
+      </c>
+      <c r="F58" s="32">
+        <v>-1248</v>
+      </c>
+      <c r="G58" s="33">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H58" s="32">
+        <v>252</v>
+      </c>
+      <c r="I58" s="32">
+        <v>3777</v>
+      </c>
+      <c r="J58" s="32">
+        <v>-3525</v>
+      </c>
+      <c r="K58" s="34">
+        <v>1.07</v>
+      </c>
+      <c r="L58" s="30">
+        <v>43192</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18" t="s">
+      <c r="B59" s="18">
+        <v>336.21</v>
+      </c>
+      <c r="C59" s="19">
+        <v>611</v>
+      </c>
+      <c r="D59" s="19">
+        <v>7665</v>
+      </c>
+      <c r="E59" s="19">
+        <v>6597</v>
+      </c>
+      <c r="F59" s="19">
+        <v>1068</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H59" s="19">
+        <v>18858</v>
+      </c>
+      <c r="I59" s="19">
+        <v>16214</v>
+      </c>
+      <c r="J59" s="19">
+        <v>2644</v>
+      </c>
+      <c r="K59" s="21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="43"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="43"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="44"/>
+      <c r="B62" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="22" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C63" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D63" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F63" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G63" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H63" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I63" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="23" t="s">
+      <c r="J63" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="25" t="s">
+      <c r="K63" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="26">
-        <v>16.37</v>
-      </c>
-      <c r="C63" s="27">
-        <v>19</v>
-      </c>
-      <c r="D63" s="27">
-        <v>17</v>
-      </c>
-      <c r="E63" s="27">
-        <v>1</v>
-      </c>
-      <c r="F63" s="27">
-        <v>16</v>
-      </c>
-      <c r="G63" s="28">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="H63" s="27">
-        <v>267</v>
-      </c>
-      <c r="I63" s="27">
-        <v>5</v>
-      </c>
-      <c r="J63" s="27">
-        <v>262</v>
-      </c>
-      <c r="K63" s="29">
-        <v>1</v>
-      </c>
-      <c r="L63" s="30">
-        <v>43122</v>
-      </c>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>12.57</v>
+        <v>-6.13</v>
       </c>
       <c r="C64" s="27">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="D64" s="27">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E64" s="27">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F64" s="27">
-        <v>15</v>
+        <v>-9</v>
       </c>
       <c r="G64" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H64" s="27">
-        <v>336</v>
+        <v>38</v>
       </c>
       <c r="I64" s="27">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="J64" s="27">
-        <v>304</v>
+        <v>-238</v>
       </c>
       <c r="K64" s="29">
-        <v>1.29</v>
+        <v>0.84</v>
       </c>
       <c r="L64" s="30">
-        <v>43119</v>
+        <v>43203</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>-6.6</v>
+        <v>14.22</v>
       </c>
       <c r="C65" s="27">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="27">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E65" s="27">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F65" s="27">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="G65" s="28">
-        <v>0.158</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H65" s="27">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I65" s="27">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="J65" s="27">
-        <v>-200</v>
+        <v>181</v>
       </c>
       <c r="K65" s="29">
-        <v>1.05</v>
+        <v>0.71</v>
       </c>
       <c r="L65" s="30">
-        <v>43118</v>
+        <v>43202</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>18.600000000000001</v>
+        <v>-7.49</v>
       </c>
       <c r="C66" s="27">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="D66" s="27">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E66" s="27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F66" s="27">
-        <v>19</v>
+        <v>-11</v>
       </c>
       <c r="G66" s="28">
-        <v>1</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H66" s="27">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="I66" s="27">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J66" s="27">
-        <v>340</v>
+        <v>-211</v>
       </c>
       <c r="K66" s="29">
-        <v>1.2</v>
+        <v>0.79</v>
       </c>
       <c r="L66" s="30">
-        <v>43117</v>
+        <v>43201</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>-11.33</v>
+        <v>31.96</v>
       </c>
       <c r="C67" s="27">
-        <v>-22</v>
+        <v>33</v>
       </c>
       <c r="D67" s="27">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E67" s="27">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F67" s="27">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="G67" s="28">
-        <v>0.158</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H67" s="27">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="I67" s="27">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="J67" s="27">
-        <v>-335</v>
+        <v>346</v>
       </c>
       <c r="K67" s="29">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="L67" s="30">
-        <v>43116</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>11.81</v>
+        <v>6.1</v>
       </c>
       <c r="C68" s="27">
+        <v>4</v>
+      </c>
+      <c r="D68" s="27">
         <v>12</v>
       </c>
-      <c r="D68" s="27">
-        <v>17</v>
-      </c>
       <c r="E68" s="27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F68" s="27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G68" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H68" s="27">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I68" s="27">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J68" s="27">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="K68" s="29">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="L68" s="30">
-        <v>43112</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>19.489999999999998</v>
+        <v>-42.22</v>
       </c>
       <c r="C69" s="27">
-        <v>17</v>
+        <v>-68</v>
       </c>
       <c r="D69" s="27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E69" s="27">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F69" s="27">
-        <v>13</v>
+        <v>-19</v>
       </c>
       <c r="G69" s="28">
-        <v>0.84199999999999997</v>
+        <v>0</v>
       </c>
       <c r="H69" s="27">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="I69" s="27">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="J69" s="27">
-        <v>190</v>
+        <v>-500</v>
       </c>
       <c r="K69" s="29">
-        <v>0.88</v>
+        <v>1.34</v>
       </c>
       <c r="L69" s="30">
-        <v>43111</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>-3.51</v>
+        <v>13.69</v>
       </c>
       <c r="C70" s="27">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="D70" s="27">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E70" s="27">
+        <v>2</v>
+      </c>
+      <c r="F70" s="27">
         <v>15</v>
       </c>
-      <c r="F70" s="27">
-        <v>-11</v>
-      </c>
       <c r="G70" s="28">
-        <v>0.21099999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H70" s="27">
-        <v>93</v>
+        <v>301</v>
       </c>
       <c r="I70" s="27">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="J70" s="27">
-        <v>-97</v>
+        <v>290</v>
       </c>
       <c r="K70" s="29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="L70" s="30">
-        <v>43110</v>
+        <v>43195</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>4.6399999999999997</v>
+        <v>23.62</v>
       </c>
       <c r="C71" s="27">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D71" s="27">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E71" s="27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F71" s="27">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="G71" s="28">
-        <v>0.47399999999999998</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H71" s="27">
-        <v>167</v>
+        <v>429</v>
       </c>
       <c r="I71" s="27">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J71" s="27">
-        <v>96</v>
+        <v>416</v>
       </c>
       <c r="K71" s="29">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="L71" s="30">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="31">
-        <v>2.59</v>
-      </c>
-      <c r="C72" s="32">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="26">
+        <v>24.25</v>
+      </c>
+      <c r="C72" s="27">
+        <v>34</v>
+      </c>
+      <c r="D72" s="27">
+        <v>19</v>
+      </c>
+      <c r="E72" s="27">
         <v>0</v>
       </c>
-      <c r="D72" s="32">
-        <v>14</v>
-      </c>
-      <c r="E72" s="32">
-        <v>5</v>
-      </c>
-      <c r="F72" s="32">
-        <v>9</v>
-      </c>
-      <c r="G72" s="33">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="H72" s="32">
-        <v>162</v>
-      </c>
-      <c r="I72" s="32">
-        <v>63</v>
-      </c>
-      <c r="J72" s="32">
-        <v>99</v>
-      </c>
-      <c r="K72" s="34">
-        <v>0.79</v>
+      <c r="F72" s="27">
+        <v>19</v>
+      </c>
+      <c r="G72" s="28">
+        <v>1</v>
+      </c>
+      <c r="H72" s="27">
+        <v>436</v>
+      </c>
+      <c r="I72" s="27">
+        <v>0</v>
+      </c>
+      <c r="J72" s="27">
+        <v>436</v>
+      </c>
+      <c r="K72" s="29">
+        <v>1.17</v>
       </c>
       <c r="L72" s="30">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="18">
-        <v>64.63</v>
-      </c>
-      <c r="C73" s="19">
-        <v>68</v>
-      </c>
-      <c r="D73" s="19">
-        <v>119</v>
-      </c>
-      <c r="E73" s="19">
-        <v>70</v>
-      </c>
-      <c r="F73" s="19">
-        <v>49</v>
-      </c>
-      <c r="G73" s="20">
-        <v>0.63</v>
-      </c>
-      <c r="H73" s="19">
-        <v>1936</v>
-      </c>
-      <c r="I73" s="19">
-        <v>1025</v>
-      </c>
-      <c r="J73" s="19">
-        <v>911</v>
-      </c>
-      <c r="K73" s="21">
-        <v>1.05</v>
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="31">
+        <v>-45.22</v>
+      </c>
+      <c r="C73" s="32">
+        <v>-97</v>
+      </c>
+      <c r="D73" s="32">
+        <v>0</v>
+      </c>
+      <c r="E73" s="32">
+        <v>19</v>
+      </c>
+      <c r="F73" s="32">
+        <v>-19</v>
+      </c>
+      <c r="G73" s="33">
+        <v>0</v>
+      </c>
+      <c r="H73" s="32">
+        <v>0</v>
+      </c>
+      <c r="I73" s="32">
+        <v>567</v>
+      </c>
+      <c r="J73" s="32">
+        <v>-567</v>
+      </c>
+      <c r="K73" s="34">
+        <v>1.52</v>
+      </c>
+      <c r="L73" s="30">
+        <v>43192</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B74" s="18">
+        <v>12.78</v>
+      </c>
+      <c r="C74" s="19">
+        <v>-54</v>
+      </c>
+      <c r="D74" s="19">
+        <v>106</v>
+      </c>
+      <c r="E74" s="19">
+        <v>84</v>
+      </c>
+      <c r="F74" s="19">
+        <v>22</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H74" s="19">
+        <v>2115</v>
+      </c>
+      <c r="I74" s="19">
+        <v>1726</v>
+      </c>
+      <c r="J74" s="19">
+        <v>389</v>
+      </c>
+      <c r="K74" s="21">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="43"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="43"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="43"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="43"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="43"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="43"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="43"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="43"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="43"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="43"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="43"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="43"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="43"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="43"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="43"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="43"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="43"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="43"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D50447-A73D-43C3-B803-7B9EA64804BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547AF458-4E34-4C2A-93AE-9556278E4713}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>130dma</t>
   </si>
@@ -319,7 +319,13 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Up 0.67 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Down -1.78 Points per Component with overall change of 0.86% from closing price 2654.80 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -1.91 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -1.94 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1093,7 @@
   <dimension ref="B1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1133,122 +1139,122 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D4" s="9">
         <v>8</v>
       </c>
       <c r="E4" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="I4" s="13">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12">
         <v>6</v>
       </c>
-      <c r="H5" s="12">
-        <v>4</v>
-      </c>
       <c r="I5" s="15">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="12">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I6" s="15">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="10">
-        <v>6</v>
-      </c>
       <c r="H7" s="12">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" s="15">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -1259,160 +1265,160 @@
         <v>80</v>
       </c>
       <c r="D8" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="10">
         <v>6</v>
       </c>
       <c r="H8" s="12">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="I8" s="15">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
       </c>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="15">
-        <v>-2.75</v>
+        <v>5.75</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D10" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4</v>
+      </c>
+      <c r="I10" s="15">
         <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="I10" s="15">
-        <v>-0.5</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="10">
-        <v>7</v>
-      </c>
       <c r="H11" s="12">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" s="12">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="15">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D13" s="10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E13" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10">
         <v>3</v>
@@ -1421,115 +1427,115 @@
         <v>7</v>
       </c>
       <c r="H13" s="12">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="I13" s="15">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
-        <v>-4</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>4</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.75</v>
-      </c>
       <c r="I14" s="15">
-        <v>-0.5</v>
+        <v>2.75</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="12">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="I15" s="15">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D17" s="10">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10">
         <v>-2</v>
@@ -1541,148 +1547,148 @@
         <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="I17" s="15">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D18" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="12">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="I18" s="15">
-        <v>-0.75</v>
+        <v>2.5</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D19" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E19" s="10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10">
+        <v>5</v>
+      </c>
+      <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="12">
-        <v>-0.5</v>
-      </c>
       <c r="I19" s="15">
-        <v>-1</v>
+        <v>6.25</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D20" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
       </c>
       <c r="G20" s="10">
+        <v>3</v>
+      </c>
+      <c r="H20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="12">
-        <v>-0.5</v>
-      </c>
       <c r="I20" s="15">
-        <v>-2.75</v>
+        <v>3.25</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="10">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F21" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="10">
         <v>4</v>
       </c>
       <c r="H21" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I21" s="15">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10">
         <v>-1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>-5</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
@@ -1691,284 +1697,284 @@
         <v>2</v>
       </c>
       <c r="H22" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15">
         <v>-0.25</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="10">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D24" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="12">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I24" s="15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10">
         <v>-1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>-5</v>
       </c>
       <c r="F25" s="10">
         <v>-1</v>
       </c>
       <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="15">
         <v>1</v>
-      </c>
-      <c r="H25" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="I25" s="15">
-        <v>-0.25</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
         <v>-2</v>
       </c>
-      <c r="E26" s="10">
-        <v>-4</v>
-      </c>
       <c r="F26" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="12">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="I26" s="15">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E27" s="10">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F27" s="10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G27" s="10">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="H27" s="12">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="I27" s="15">
-        <v>-1.25</v>
+        <v>-5</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
         <v>-2</v>
       </c>
-      <c r="E28" s="10">
-        <v>-4</v>
-      </c>
       <c r="F28" s="10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G28" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" s="12">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="15">
-        <v>-2.5</v>
+        <v>2</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F29" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G29" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="12">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="15">
-        <v>-3.25</v>
+        <v>1.75</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D30" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="10">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="12">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="15">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D31" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="I31" s="15">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -1979,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="D32" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="10">
         <v>-1</v>
@@ -1991,254 +1997,254 @@
         <v>1</v>
       </c>
       <c r="H32" s="12">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="I32" s="15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33" s="10">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F33" s="10">
         <v>-1</v>
       </c>
       <c r="G33" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="I33" s="15">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>-4</v>
+      </c>
+      <c r="F34" s="10">
         <v>-3</v>
-      </c>
-      <c r="E34" s="10">
-        <v>-5</v>
-      </c>
-      <c r="F34" s="10">
-        <v>-1</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="12">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="I34" s="15">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D35" s="10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E35" s="10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F35" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G35" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" s="12">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="I35" s="15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D36" s="10">
         <v>-1</v>
       </c>
       <c r="E36" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F36" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
         <v>-2</v>
       </c>
-      <c r="H36" s="12">
-        <v>-3</v>
-      </c>
       <c r="I36" s="15">
-        <v>-2.25</v>
+        <v>-3.5</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D37" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="G37" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="H37" s="12">
-        <v>-3.75</v>
+        <v>-2.5</v>
       </c>
       <c r="I37" s="15">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D38" s="10">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F38" s="10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="G38" s="10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H38" s="12">
-        <v>-3.75</v>
+        <v>-2.5</v>
       </c>
       <c r="I38" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>-4.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D39" s="10">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E39" s="10">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F39" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G39" s="10">
         <v>-2</v>
       </c>
-      <c r="G39" s="10">
-        <v>3</v>
-      </c>
       <c r="H39" s="12">
-        <v>-3.75</v>
+        <v>-3</v>
       </c>
       <c r="I39" s="15">
-        <v>-1.25</v>
+        <v>-3.25</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D40" s="10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E40" s="10">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F40" s="10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="G40" s="10">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="H40" s="35">
-        <v>-4</v>
+        <v>-3.75</v>
       </c>
       <c r="I40" s="36">
-        <v>-0.75</v>
+        <v>-3.5</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>-3.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2246,31 +2252,31 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>-0.10810810810810811</v>
+        <v>2.3783783783783785</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="1"/>
-        <v>-2.189189189189189</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="1"/>
-        <v>-0.64864864864864868</v>
+        <v>0</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="1"/>
-        <v>1.7297297297297298</v>
+        <v>2.0540540540540539</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>-0.30405405405405406</v>
+        <v>1.2094594594594594</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="1"/>
-        <v>-0.47297297297297297</v>
+        <v>1.7027027027027026</v>
       </c>
       <c r="J41" s="40">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>0.16891891891891891</v>
+        <v>-0.4932432432432432</v>
       </c>
     </row>
   </sheetData>
@@ -2287,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2369,387 +2375,390 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>-169.05</v>
+        <v>88.34</v>
       </c>
       <c r="C4" s="27">
-        <v>-114</v>
+        <v>-64</v>
       </c>
       <c r="D4" s="27">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="E4" s="27">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="F4" s="27">
-        <v>-102</v>
+        <v>45</v>
       </c>
       <c r="G4" s="28">
-        <v>0.38900000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="H4" s="27">
-        <v>668</v>
+        <v>1112</v>
       </c>
       <c r="I4" s="27">
-        <v>1157</v>
+        <v>1033</v>
       </c>
       <c r="J4" s="27">
-        <v>-488</v>
+        <v>78</v>
       </c>
       <c r="K4" s="29">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="L4" s="30">
-        <v>43203</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>361.69</v>
+        <v>-417.45</v>
       </c>
       <c r="C5" s="27">
-        <v>237</v>
+        <v>-445</v>
       </c>
       <c r="D5" s="27">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="E5" s="27">
-        <v>148</v>
+        <v>401</v>
       </c>
       <c r="F5" s="27">
-        <v>205</v>
+        <v>-305</v>
       </c>
       <c r="G5" s="28">
-        <v>0.69799999999999995</v>
+        <v>0.19</v>
       </c>
       <c r="H5" s="27">
-        <v>1337</v>
+        <v>444</v>
       </c>
       <c r="I5" s="27">
-        <v>584</v>
+        <v>1889</v>
       </c>
       <c r="J5" s="27">
-        <v>752</v>
+        <v>-1445</v>
       </c>
       <c r="K5" s="29">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="L5" s="30">
-        <v>43202</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>-272.58</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="C6" s="27">
-        <v>-150</v>
+        <v>131</v>
       </c>
       <c r="D6" s="27">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="E6" s="27">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="F6" s="27">
-        <v>-211</v>
+        <v>126</v>
       </c>
       <c r="G6" s="28">
-        <v>0.28299999999999997</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H6" s="27">
-        <v>555</v>
+        <v>1120</v>
       </c>
       <c r="I6" s="27">
-        <v>1209</v>
+        <v>936</v>
       </c>
       <c r="J6" s="27">
-        <v>-654</v>
+        <v>184</v>
       </c>
       <c r="K6" s="29">
-        <v>0.81</v>
+        <v>0.96</v>
       </c>
       <c r="L6" s="30">
-        <v>43201</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>796.89</v>
+        <v>586.54999999999995</v>
       </c>
       <c r="C7" s="27">
-        <v>660</v>
+        <v>1249</v>
       </c>
       <c r="D7" s="27">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="E7" s="27">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="F7" s="27">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="G7" s="28">
-        <v>0.85</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="H7" s="27">
-        <v>1870</v>
+        <v>1773</v>
       </c>
       <c r="I7" s="27">
-        <v>287</v>
+        <v>791</v>
       </c>
       <c r="J7" s="27">
-        <v>1582</v>
+        <v>982</v>
       </c>
       <c r="K7" s="29">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
       <c r="L7" s="30">
-        <v>43200</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>155.81</v>
+        <v>128.81</v>
       </c>
       <c r="C8" s="27">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D8" s="27">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="E8" s="27">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F8" s="27">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G8" s="28">
-        <v>0.56299999999999994</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="H8" s="27">
-        <v>1117</v>
+        <v>1211</v>
       </c>
       <c r="I8" s="27">
-        <v>783</v>
+        <v>1028</v>
       </c>
       <c r="J8" s="27">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="K8" s="29">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
       <c r="L8" s="30">
-        <v>43199</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>-1245.51</v>
+        <v>-857.27</v>
       </c>
       <c r="C9" s="27">
-        <v>-1302</v>
+        <v>-1473</v>
       </c>
       <c r="D9" s="27">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E9" s="27">
-        <v>490</v>
+        <v>377</v>
       </c>
       <c r="F9" s="27">
-        <v>-480</v>
+        <v>-253</v>
       </c>
       <c r="G9" s="28">
-        <v>0.02</v>
+        <v>0.245</v>
       </c>
       <c r="H9" s="27">
-        <v>30</v>
+        <v>683</v>
       </c>
       <c r="I9" s="27">
-        <v>2154</v>
+        <v>1738</v>
       </c>
       <c r="J9" s="27">
-        <v>-2123</v>
+        <v>-1054</v>
       </c>
       <c r="K9" s="29">
-        <v>0.97</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L9" s="30">
-        <v>43196</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>355.56</v>
+        <v>8.85</v>
       </c>
       <c r="C10" s="27">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="D10" s="27">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="E10" s="27">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="F10" s="27">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="G10" s="28">
-        <v>0.77300000000000002</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H10" s="27">
-        <v>1600</v>
+        <v>1069</v>
       </c>
       <c r="I10" s="27">
-        <v>442</v>
+        <v>819</v>
       </c>
       <c r="J10" s="27">
-        <v>1158</v>
+        <v>249</v>
       </c>
       <c r="K10" s="29">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="L10" s="30">
-        <v>43195</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>566.19000000000005</v>
+        <v>-461.29</v>
       </c>
       <c r="C11" s="27">
-        <v>573</v>
+        <v>-552</v>
       </c>
       <c r="D11" s="27">
-        <v>435</v>
+        <v>94</v>
       </c>
       <c r="E11" s="27">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="F11" s="27">
-        <v>371</v>
+        <v>-313</v>
       </c>
       <c r="G11" s="28">
-        <v>0.86</v>
+        <v>0.186</v>
       </c>
       <c r="H11" s="27">
-        <v>1908</v>
+        <v>633</v>
       </c>
       <c r="I11" s="27">
-        <v>313</v>
+        <v>1660</v>
       </c>
       <c r="J11" s="27">
-        <v>1594</v>
+        <v>-1026</v>
       </c>
       <c r="K11" s="29">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="L11" s="30">
-        <v>43194</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
-        <v>616.11</v>
+        <v>-352.48</v>
       </c>
       <c r="C12" s="27">
-        <v>598</v>
+        <v>-465</v>
       </c>
       <c r="D12" s="27">
-        <v>453</v>
+        <v>139</v>
       </c>
       <c r="E12" s="27">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="F12" s="27">
-        <v>406</v>
+        <v>-222</v>
       </c>
       <c r="G12" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H12" s="27">
-        <v>1959</v>
+        <v>740</v>
       </c>
       <c r="I12" s="27">
-        <v>225</v>
+        <v>1443</v>
       </c>
       <c r="J12" s="27">
-        <v>1734</v>
+        <v>-703</v>
       </c>
       <c r="K12" s="29">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="L12" s="30">
-        <v>43193</v>
+        <v>43209</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31">
-        <v>-1252.6400000000001</v>
+        <v>215.45</v>
       </c>
       <c r="C13" s="32">
-        <v>-1561</v>
+        <v>253</v>
       </c>
       <c r="D13" s="32">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="E13" s="32">
-        <v>486</v>
+        <v>217</v>
       </c>
       <c r="F13" s="32">
-        <v>-473</v>
+        <v>64</v>
       </c>
       <c r="G13" s="33">
-        <v>2.5999999999999999E-2</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H13" s="32">
-        <v>81</v>
+        <v>946</v>
       </c>
       <c r="I13" s="32">
-        <v>2368</v>
+        <v>1005</v>
       </c>
       <c r="J13" s="32">
-        <v>-2287</v>
+        <v>-59</v>
       </c>
       <c r="K13" s="34">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L13" s="30">
-        <v>43192</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
-        <v>-87.53</v>
+        <v>-897.19</v>
       </c>
       <c r="C14" s="19">
-        <v>-615</v>
+        <v>-1198</v>
       </c>
       <c r="D14" s="19">
+        <v>2281</v>
+      </c>
+      <c r="E14" s="19">
         <v>2710</v>
       </c>
-      <c r="E14" s="19">
-        <v>2280</v>
-      </c>
       <c r="F14" s="19">
-        <v>430</v>
+        <v>-429</v>
       </c>
       <c r="G14" s="20">
-        <v>0.54300000000000004</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="H14" s="19">
-        <v>11129</v>
+        <v>9735</v>
       </c>
       <c r="I14" s="19">
-        <v>9527</v>
+        <v>12347</v>
       </c>
       <c r="J14" s="19">
-        <v>1602</v>
+        <v>-2612</v>
       </c>
       <c r="K14" s="21">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>97</v>
+      </c>
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -2823,387 +2832,390 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>-77.69</v>
+        <v>137.51</v>
       </c>
       <c r="C19" s="27">
-        <v>-39</v>
+        <v>88</v>
       </c>
       <c r="D19" s="27">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E19" s="27">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F19" s="27">
-        <v>-53</v>
+        <v>46</v>
       </c>
       <c r="G19" s="28">
-        <v>0.24299999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="H19" s="27">
+        <v>410</v>
+      </c>
+      <c r="I19" s="27">
         <v>128</v>
       </c>
-      <c r="I19" s="27">
-        <v>334</v>
-      </c>
       <c r="J19" s="27">
-        <v>-205</v>
+        <v>282</v>
       </c>
       <c r="K19" s="29">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="L19" s="30">
-        <v>43203</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>159.04</v>
+        <v>-92.95</v>
       </c>
       <c r="C20" s="27">
-        <v>101</v>
+        <v>-93</v>
       </c>
       <c r="D20" s="27">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E20" s="27">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F20" s="27">
-        <v>56</v>
+        <v>-58</v>
       </c>
       <c r="G20" s="28">
-        <v>0.75700000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="H20" s="27">
-        <v>399</v>
+        <v>139</v>
       </c>
       <c r="I20" s="27">
-        <v>134</v>
+        <v>496</v>
       </c>
       <c r="J20" s="27">
-        <v>264</v>
+        <v>-357</v>
       </c>
       <c r="K20" s="29">
-        <v>0.81</v>
+        <v>1.01</v>
       </c>
       <c r="L20" s="30">
-        <v>43202</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>-112.71</v>
+        <v>50.51</v>
       </c>
       <c r="C21" s="27">
-        <v>-83</v>
+        <v>-51</v>
       </c>
       <c r="D21" s="27">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E21" s="27">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F21" s="27">
-        <v>-54</v>
+        <v>7</v>
       </c>
       <c r="G21" s="28">
-        <v>0.23400000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H21" s="27">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="I21" s="27">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="J21" s="27">
-        <v>-161</v>
+        <v>-179</v>
       </c>
       <c r="K21" s="29">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L21" s="30">
-        <v>43201</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>333.2</v>
+        <v>361.65</v>
       </c>
       <c r="C22" s="27">
-        <v>289</v>
+        <v>640</v>
       </c>
       <c r="D22" s="27">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E22" s="27">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F22" s="27">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G22" s="28">
-        <v>0.91600000000000004</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="H22" s="27">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I22" s="27">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="J22" s="27">
-        <v>511</v>
+        <v>420</v>
       </c>
       <c r="K22" s="29">
-        <v>0.95</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L22" s="30">
-        <v>43200</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>96.53</v>
+        <v>11.78</v>
       </c>
       <c r="C23" s="27">
-        <v>66</v>
+        <v>-28</v>
       </c>
       <c r="D23" s="27">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E23" s="27">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F23" s="27">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G23" s="28">
-        <v>0.66400000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H23" s="27">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="I23" s="27">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="J23" s="27">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="K23" s="29">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="L23" s="30">
-        <v>43199</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>-423.7</v>
+        <v>-381.04</v>
       </c>
       <c r="C24" s="27">
-        <v>-522</v>
+        <v>-632</v>
       </c>
       <c r="D24" s="27">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E24" s="27">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F24" s="27">
-        <v>-93</v>
+        <v>-63</v>
       </c>
       <c r="G24" s="28">
-        <v>5.6000000000000001E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H24" s="27">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="I24" s="27">
-        <v>652</v>
+        <v>545</v>
       </c>
       <c r="J24" s="27">
-        <v>-643</v>
+        <v>-423</v>
       </c>
       <c r="K24" s="29">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="L24" s="30">
-        <v>43196</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>79.84</v>
+        <v>-41.75</v>
       </c>
       <c r="C25" s="27">
-        <v>75</v>
+        <v>-15</v>
       </c>
       <c r="D25" s="27">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E25" s="27">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F25" s="27">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G25" s="28">
-        <v>0.64500000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H25" s="27">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="I25" s="27">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="J25" s="27">
-        <v>185</v>
+        <v>-72</v>
       </c>
       <c r="K25" s="29">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="L25" s="30">
-        <v>43195</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>240.4</v>
+        <v>-213.8</v>
       </c>
       <c r="C26" s="27">
-        <v>263</v>
+        <v>-237</v>
       </c>
       <c r="D26" s="27">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E26" s="27">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F26" s="27">
-        <v>91</v>
+        <v>-87</v>
       </c>
       <c r="G26" s="28">
-        <v>0.91600000000000004</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H26" s="27">
-        <v>562</v>
+        <v>42</v>
       </c>
       <c r="I26" s="27">
-        <v>92</v>
+        <v>592</v>
       </c>
       <c r="J26" s="27">
-        <v>470</v>
+        <v>-550</v>
       </c>
       <c r="K26" s="29">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L26" s="30">
-        <v>43194</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
-        <v>165.41</v>
+        <v>-150.19</v>
       </c>
       <c r="C27" s="27">
-        <v>181</v>
+        <v>-211</v>
       </c>
       <c r="D27" s="27">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E27" s="27">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F27" s="27">
-        <v>66</v>
+        <v>-79</v>
       </c>
       <c r="G27" s="28">
-        <v>0.80400000000000005</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H27" s="27">
-        <v>555</v>
+        <v>88</v>
       </c>
       <c r="I27" s="27">
-        <v>95</v>
+        <v>490</v>
       </c>
       <c r="J27" s="27">
-        <v>460</v>
+        <v>-401</v>
       </c>
       <c r="K27" s="29">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="L27" s="30">
-        <v>43193</v>
+        <v>43209</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31">
-        <v>-475.07</v>
+        <v>113.66</v>
       </c>
       <c r="C28" s="32">
-        <v>-673</v>
+        <v>154</v>
       </c>
       <c r="D28" s="32">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E28" s="32">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F28" s="32">
-        <v>-98</v>
+        <v>10</v>
       </c>
       <c r="G28" s="33">
-        <v>3.6999999999999998E-2</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="H28" s="32">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="I28" s="32">
-        <v>751</v>
+        <v>198</v>
       </c>
       <c r="J28" s="32">
-        <v>-737</v>
+        <v>88</v>
       </c>
       <c r="K28" s="34">
-        <v>1.1599999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="L28" s="30">
-        <v>43192</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
-        <v>-14.75</v>
+        <v>-204.62</v>
       </c>
       <c r="C29" s="19">
-        <v>-342</v>
+        <v>-385</v>
       </c>
       <c r="D29" s="19">
-        <v>564</v>
+        <v>463</v>
       </c>
       <c r="E29" s="19">
-        <v>488</v>
+        <v>601</v>
       </c>
       <c r="F29" s="19">
-        <v>76</v>
+        <v>-138</v>
       </c>
       <c r="G29" s="20">
-        <v>0.53600000000000003</v>
+        <v>0.435</v>
       </c>
       <c r="H29" s="19">
-        <v>3160</v>
+        <v>2448</v>
       </c>
       <c r="I29" s="19">
-        <v>2804</v>
+        <v>3618</v>
       </c>
       <c r="J29" s="19">
-        <v>356</v>
+        <v>-1170</v>
       </c>
       <c r="K29" s="21">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="B30" s="50"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -3278,384 +3290,384 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>-86.82</v>
+        <v>10.97</v>
       </c>
       <c r="C34" s="27">
-        <v>-129</v>
+        <v>-18</v>
       </c>
       <c r="D34" s="27">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="E34" s="27">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="F34" s="27">
-        <v>-112</v>
+        <v>147</v>
       </c>
       <c r="G34" s="28">
-        <v>0.376</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H34" s="27">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="I34" s="27">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="J34" s="27">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="K34" s="29">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="L34" s="30">
-        <v>43203</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>100.13</v>
+        <v>-216.95</v>
       </c>
       <c r="C35" s="27">
-        <v>57</v>
+        <v>-235</v>
       </c>
       <c r="D35" s="27">
-        <v>395</v>
+        <v>118</v>
       </c>
       <c r="E35" s="27">
-        <v>195</v>
+        <v>467</v>
       </c>
       <c r="F35" s="27">
-        <v>200</v>
+        <v>-349</v>
       </c>
       <c r="G35" s="28">
-        <v>0.65500000000000003</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="H35" s="27">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="I35" s="27">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="J35" s="27">
-        <v>77</v>
+        <v>-184</v>
       </c>
       <c r="K35" s="29">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="L35" s="30">
-        <v>43202</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>16.39</v>
+        <v>-165.1</v>
       </c>
       <c r="C36" s="27">
-        <v>4</v>
+        <v>-414</v>
       </c>
       <c r="D36" s="27">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="E36" s="27">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="F36" s="27">
-        <v>59</v>
+        <v>-63</v>
       </c>
       <c r="G36" s="28">
-        <v>0.52100000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="H36" s="27">
         <v>162</v>
       </c>
       <c r="I36" s="27">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="J36" s="27">
-        <v>32</v>
+        <v>-15</v>
       </c>
       <c r="K36" s="29">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
       <c r="L36" s="30">
-        <v>43201</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>393.14</v>
+        <v>92.99</v>
       </c>
       <c r="C37" s="27">
-        <v>354</v>
+        <v>-86</v>
       </c>
       <c r="D37" s="27">
-        <v>530</v>
+        <v>342</v>
       </c>
       <c r="E37" s="27">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="F37" s="27">
-        <v>475</v>
+        <v>100</v>
       </c>
       <c r="G37" s="28">
-        <v>0.879</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="H37" s="27">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="I37" s="27">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="J37" s="27">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="K37" s="29">
-        <v>0.94</v>
+        <v>1.04</v>
       </c>
       <c r="L37" s="30">
-        <v>43200</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>-58.86</v>
+        <v>-49.97</v>
       </c>
       <c r="C38" s="27">
-        <v>-47</v>
+        <v>-147</v>
       </c>
       <c r="D38" s="27">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="E38" s="27">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="F38" s="27">
-        <v>-141</v>
+        <v>-24</v>
       </c>
       <c r="G38" s="28">
-        <v>0.36</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H38" s="27">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="I38" s="27">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J38" s="27">
-        <v>-54</v>
+        <v>-41</v>
       </c>
       <c r="K38" s="29">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="L38" s="30">
-        <v>43199</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>-412.61</v>
+        <v>-150.82</v>
       </c>
       <c r="C39" s="27">
-        <v>-383</v>
+        <v>-169</v>
       </c>
       <c r="D39" s="27">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="E39" s="27">
-        <v>534</v>
+        <v>339</v>
       </c>
       <c r="F39" s="27">
-        <v>-478</v>
+        <v>-104</v>
       </c>
       <c r="G39" s="28">
-        <v>9.2999999999999999E-2</v>
+        <v>0.39</v>
       </c>
       <c r="H39" s="27">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="I39" s="27">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="J39" s="27">
-        <v>-241</v>
+        <v>67</v>
       </c>
       <c r="K39" s="29">
-        <v>0.94</v>
+        <v>1.04</v>
       </c>
       <c r="L39" s="30">
-        <v>43196</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>256.06</v>
+        <v>-13.22</v>
       </c>
       <c r="C40" s="27">
-        <v>244</v>
+        <v>-17</v>
       </c>
       <c r="D40" s="27">
-        <v>442</v>
+        <v>272</v>
       </c>
       <c r="E40" s="27">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="F40" s="27">
-        <v>302</v>
+        <v>-34</v>
       </c>
       <c r="G40" s="28">
-        <v>0.73299999999999998</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H40" s="27">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I40" s="27">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="J40" s="27">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="K40" s="29">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="L40" s="30">
-        <v>43195</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>289.48</v>
+        <v>-156.85</v>
       </c>
       <c r="C41" s="27">
-        <v>258</v>
+        <v>-163</v>
       </c>
       <c r="D41" s="27">
-        <v>498</v>
+        <v>167</v>
       </c>
       <c r="E41" s="27">
-        <v>89</v>
+        <v>404</v>
       </c>
       <c r="F41" s="27">
-        <v>409</v>
+        <v>-237</v>
       </c>
       <c r="G41" s="28">
-        <v>0.82599999999999996</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="H41" s="27">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="I41" s="27">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="J41" s="27">
-        <v>169</v>
+        <v>-118</v>
       </c>
       <c r="K41" s="29">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="L41" s="30">
-        <v>43194</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="26">
-        <v>344.53</v>
+        <v>-194.2</v>
       </c>
       <c r="C42" s="27">
-        <v>344</v>
+        <v>-203</v>
       </c>
       <c r="D42" s="27">
-        <v>519</v>
+        <v>171</v>
       </c>
       <c r="E42" s="27">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="F42" s="27">
-        <v>451</v>
+        <v>-230</v>
       </c>
       <c r="G42" s="28">
-        <v>0.86099999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H42" s="27">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="I42" s="27">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="J42" s="27">
-        <v>258</v>
+        <v>-107</v>
       </c>
       <c r="K42" s="29">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="L42" s="30">
-        <v>43193</v>
+        <v>43209</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="31">
-        <v>-524.58000000000004</v>
+        <v>74.13</v>
       </c>
       <c r="C43" s="32">
-        <v>-529</v>
+        <v>64</v>
       </c>
       <c r="D43" s="32">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="E43" s="32">
-        <v>554</v>
+        <v>222</v>
       </c>
       <c r="F43" s="32">
-        <v>-513</v>
+        <v>129</v>
       </c>
       <c r="G43" s="33">
-        <v>6.8000000000000005E-2</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="H43" s="32">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="I43" s="32">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="J43" s="32">
-        <v>-301</v>
+        <v>77</v>
       </c>
       <c r="K43" s="34">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L43" s="30">
-        <v>43192</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
-        <v>316.88</v>
+        <v>-769.02</v>
       </c>
       <c r="C44" s="19">
-        <v>173</v>
+        <v>-1388</v>
       </c>
       <c r="D44" s="19">
-        <v>3239</v>
+        <v>2560</v>
       </c>
       <c r="E44" s="19">
-        <v>2587</v>
+        <v>3225</v>
       </c>
       <c r="F44" s="19">
-        <v>652</v>
+        <v>-665</v>
       </c>
       <c r="G44" s="20">
-        <v>0.55600000000000005</v>
+        <v>0.443</v>
       </c>
       <c r="H44" s="19">
-        <v>1718</v>
+        <v>1571</v>
       </c>
       <c r="I44" s="19">
-        <v>1431</v>
+        <v>1708</v>
       </c>
       <c r="J44" s="19">
-        <v>287</v>
+        <v>-137</v>
       </c>
       <c r="K44" s="21">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3734,384 +3746,384 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>-416.12</v>
+        <v>120.49</v>
       </c>
       <c r="C49" s="27">
-        <v>-359</v>
+        <v>-448</v>
       </c>
       <c r="D49" s="27">
-        <v>521</v>
+        <v>741</v>
       </c>
       <c r="E49" s="27">
-        <v>894</v>
+        <v>609</v>
       </c>
       <c r="F49" s="27">
-        <v>-373</v>
+        <v>132</v>
       </c>
       <c r="G49" s="28">
-        <v>0.35799999999999998</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="H49" s="27">
-        <v>1141</v>
+        <v>1935</v>
       </c>
       <c r="I49" s="27">
-        <v>1944</v>
+        <v>1864</v>
       </c>
       <c r="J49" s="27">
-        <v>-803</v>
+        <v>70</v>
       </c>
       <c r="K49" s="29">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="L49" s="30">
-        <v>43203</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>557.61</v>
+        <v>-608.12</v>
       </c>
       <c r="C50" s="27">
-        <v>363</v>
+        <v>-666</v>
       </c>
       <c r="D50" s="27">
-        <v>958</v>
+        <v>379</v>
       </c>
       <c r="E50" s="27">
-        <v>472</v>
+        <v>968</v>
       </c>
       <c r="F50" s="27">
-        <v>486</v>
+        <v>-589</v>
       </c>
       <c r="G50" s="28">
-        <v>0.65900000000000003</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H50" s="27">
-        <v>2133</v>
+        <v>1156</v>
       </c>
       <c r="I50" s="27">
-        <v>1115</v>
+        <v>2792</v>
       </c>
       <c r="J50" s="27">
-        <v>1018</v>
+        <v>-1636</v>
       </c>
       <c r="K50" s="29">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="L50" s="30">
-        <v>43202</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>-257.92</v>
+        <v>87.71</v>
       </c>
       <c r="C51" s="27">
-        <v>-123</v>
+        <v>-113</v>
       </c>
       <c r="D51" s="27">
-        <v>618</v>
+        <v>765</v>
       </c>
       <c r="E51" s="27">
-        <v>795</v>
+        <v>581</v>
       </c>
       <c r="F51" s="27">
-        <v>-177</v>
+        <v>184</v>
       </c>
       <c r="G51" s="28">
-        <v>0.42499999999999999</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="H51" s="27">
-        <v>1357</v>
+        <v>1835</v>
       </c>
       <c r="I51" s="27">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="J51" s="27">
-        <v>-396</v>
+        <v>93</v>
       </c>
       <c r="K51" s="29">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="L51" s="30">
-        <v>43201</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>1484.46</v>
+        <v>838.04</v>
       </c>
       <c r="C52" s="27">
-        <v>1571</v>
+        <v>1228</v>
       </c>
       <c r="D52" s="27">
-        <v>1237</v>
+        <v>950</v>
       </c>
       <c r="E52" s="27">
-        <v>191</v>
+        <v>393</v>
       </c>
       <c r="F52" s="27">
-        <v>1046</v>
+        <v>557</v>
       </c>
       <c r="G52" s="28">
-        <v>0.85099999999999998</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="H52" s="27">
-        <v>3316</v>
+        <v>2790</v>
       </c>
       <c r="I52" s="27">
-        <v>468</v>
+        <v>1315</v>
       </c>
       <c r="J52" s="27">
-        <v>2847</v>
+        <v>1474</v>
       </c>
       <c r="K52" s="29">
-        <v>1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L52" s="30">
-        <v>43200</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>289.39</v>
+        <v>51.01</v>
       </c>
       <c r="C53" s="27">
-        <v>925</v>
+        <v>-58</v>
       </c>
       <c r="D53" s="27">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="E53" s="27">
-        <v>680</v>
+        <v>625</v>
       </c>
       <c r="F53" s="27">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G53" s="28">
-        <v>0.503</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="H53" s="27">
-        <v>1780</v>
+        <v>1871</v>
       </c>
       <c r="I53" s="27">
-        <v>1472</v>
+        <v>2001</v>
       </c>
       <c r="J53" s="27">
-        <v>308</v>
+        <v>-129</v>
       </c>
       <c r="K53" s="29">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="L53" s="30">
-        <v>43199</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>-1803.38</v>
+        <v>-1124.33</v>
       </c>
       <c r="C54" s="27">
-        <v>-1739</v>
+        <v>-1823</v>
       </c>
       <c r="D54" s="27">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="E54" s="27">
-        <v>1321</v>
+        <v>952</v>
       </c>
       <c r="F54" s="27">
-        <v>-1203</v>
+        <v>-554</v>
       </c>
       <c r="G54" s="28">
-        <v>8.1000000000000003E-2</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="H54" s="27">
-        <v>223</v>
+        <v>1283</v>
       </c>
       <c r="I54" s="27">
-        <v>3384</v>
+        <v>2818</v>
       </c>
       <c r="J54" s="27">
-        <v>-3160</v>
+        <v>-1534</v>
       </c>
       <c r="K54" s="29">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L54" s="30">
-        <v>43196</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>585.80999999999995</v>
+        <v>-93.79</v>
       </c>
       <c r="C55" s="27">
-        <v>554</v>
+        <v>-244</v>
       </c>
       <c r="D55" s="27">
-        <v>1039</v>
+        <v>697</v>
       </c>
       <c r="E55" s="27">
-        <v>391</v>
+        <v>644</v>
       </c>
       <c r="F55" s="27">
-        <v>648</v>
+        <v>53</v>
       </c>
       <c r="G55" s="28">
-        <v>0.71499999999999997</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="H55" s="27">
-        <v>2655</v>
+        <v>1694</v>
       </c>
       <c r="I55" s="27">
-        <v>832</v>
+        <v>1565</v>
       </c>
       <c r="J55" s="27">
-        <v>1823</v>
+        <v>129</v>
       </c>
       <c r="K55" s="29">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="L55" s="30">
-        <v>43195</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>973.11</v>
+        <v>-677.78</v>
       </c>
       <c r="C56" s="27">
-        <v>939</v>
+        <v>-829</v>
       </c>
       <c r="D56" s="27">
-        <v>1164</v>
+        <v>362</v>
       </c>
       <c r="E56" s="27">
-        <v>263</v>
+        <v>980</v>
       </c>
       <c r="F56" s="27">
-        <v>901</v>
+        <v>-618</v>
       </c>
       <c r="G56" s="28">
-        <v>0.80100000000000005</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H56" s="27">
-        <v>2992</v>
+        <v>1107</v>
       </c>
       <c r="I56" s="27">
-        <v>769</v>
+        <v>2605</v>
       </c>
       <c r="J56" s="27">
-        <v>2223</v>
+        <v>-1497</v>
       </c>
       <c r="K56" s="29">
         <v>1</v>
       </c>
       <c r="L56" s="30">
-        <v>43194</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="26">
-        <v>904.69</v>
+        <v>-599.49</v>
       </c>
       <c r="C57" s="27">
-        <v>896</v>
+        <v>-771</v>
       </c>
       <c r="D57" s="27">
-        <v>1185</v>
+        <v>386</v>
       </c>
       <c r="E57" s="27">
-        <v>248</v>
+        <v>954</v>
       </c>
       <c r="F57" s="27">
-        <v>937</v>
+        <v>-568</v>
       </c>
       <c r="G57" s="28">
-        <v>0.81499999999999995</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H57" s="27">
-        <v>3004</v>
+        <v>1237</v>
       </c>
       <c r="I57" s="27">
-        <v>694</v>
+        <v>2406</v>
       </c>
       <c r="J57" s="27">
-        <v>2309</v>
+        <v>-1168</v>
       </c>
       <c r="K57" s="29">
         <v>0.98</v>
       </c>
       <c r="L57" s="30">
-        <v>43193</v>
+        <v>43209</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="31">
-        <v>-1981.44</v>
+        <v>337.64</v>
       </c>
       <c r="C58" s="32">
-        <v>-2416</v>
+        <v>379</v>
       </c>
       <c r="D58" s="32">
-        <v>94</v>
+        <v>796</v>
       </c>
       <c r="E58" s="32">
-        <v>1342</v>
+        <v>549</v>
       </c>
       <c r="F58" s="32">
-        <v>-1248</v>
+        <v>247</v>
       </c>
       <c r="G58" s="33">
-        <v>6.5000000000000002E-2</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H58" s="32">
-        <v>252</v>
+        <v>1956</v>
       </c>
       <c r="I58" s="32">
-        <v>3777</v>
+        <v>1516</v>
       </c>
       <c r="J58" s="32">
-        <v>-3525</v>
+        <v>440</v>
       </c>
       <c r="K58" s="34">
-        <v>1.07</v>
+        <v>0.94</v>
       </c>
       <c r="L58" s="30">
-        <v>43192</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="18">
-        <v>336.21</v>
+        <v>-1668.61</v>
       </c>
       <c r="C59" s="19">
-        <v>611</v>
+        <v>-3345</v>
       </c>
       <c r="D59" s="19">
-        <v>7665</v>
+        <v>6192</v>
       </c>
       <c r="E59" s="19">
-        <v>6597</v>
+        <v>7255</v>
       </c>
       <c r="F59" s="19">
-        <v>1068</v>
+        <v>-1063</v>
       </c>
       <c r="G59" s="20">
-        <v>0.53700000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="H59" s="19">
-        <v>18858</v>
+        <v>16869</v>
       </c>
       <c r="I59" s="19">
-        <v>16214</v>
+        <v>20629</v>
       </c>
       <c r="J59" s="19">
-        <v>2644</v>
+        <v>-3760</v>
       </c>
       <c r="K59" s="21">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4185,389 +4197,389 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>-6.13</v>
+        <v>4.42</v>
       </c>
       <c r="C64" s="27">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="27">
+        <v>12</v>
+      </c>
+      <c r="E64" s="27">
+        <v>7</v>
+      </c>
+      <c r="F64" s="27">
         <v>5</v>
       </c>
-      <c r="E64" s="27">
-        <v>14</v>
-      </c>
-      <c r="F64" s="27">
-        <v>-9</v>
-      </c>
       <c r="G64" s="28">
-        <v>0.26300000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H64" s="27">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="I64" s="27">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="J64" s="27">
-        <v>-238</v>
+        <v>137</v>
       </c>
       <c r="K64" s="29">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L64" s="30">
-        <v>43203</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>14.22</v>
+        <v>-17.25</v>
       </c>
       <c r="C65" s="27">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="D65" s="27">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E65" s="27">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F65" s="27">
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="G65" s="28">
-        <v>0.73699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H65" s="27">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="I65" s="27">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="J65" s="27">
-        <v>181</v>
+        <v>-276</v>
       </c>
       <c r="K65" s="29">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="L65" s="30">
-        <v>43202</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>-7.49</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C66" s="27">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D66" s="27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E66" s="27">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F66" s="27">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="G66" s="28">
-        <v>0.21099999999999999</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H66" s="27">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="I66" s="27">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J66" s="27">
-        <v>-211</v>
+        <v>141</v>
       </c>
       <c r="K66" s="29">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="L66" s="30">
-        <v>43201</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>31.96</v>
+        <v>18.97</v>
       </c>
       <c r="C67" s="27">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D67" s="27">
+        <v>18</v>
+      </c>
+      <c r="E67" s="27">
+        <v>1</v>
+      </c>
+      <c r="F67" s="27">
         <v>17</v>
       </c>
-      <c r="E67" s="27">
-        <v>2</v>
-      </c>
-      <c r="F67" s="27">
-        <v>15</v>
-      </c>
       <c r="G67" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H67" s="27">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="I67" s="27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J67" s="27">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="K67" s="29">
-        <v>1.04</v>
+        <v>0.75</v>
       </c>
       <c r="L67" s="30">
-        <v>43200</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="C68" s="27">
         <v>4</v>
       </c>
       <c r="D68" s="27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E68" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F68" s="27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G68" s="28">
-        <v>0.63200000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H68" s="27">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I68" s="27">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J68" s="27">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="K68" s="29">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="L68" s="30">
-        <v>43199</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>-42.22</v>
+        <v>-23.37</v>
       </c>
       <c r="C69" s="27">
-        <v>-68</v>
+        <v>-37</v>
       </c>
       <c r="D69" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E69" s="27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F69" s="27">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="G69" s="28">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="H69" s="27">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I69" s="27">
-        <v>500</v>
+        <v>397</v>
       </c>
       <c r="J69" s="27">
-        <v>-500</v>
+        <v>-368</v>
       </c>
       <c r="K69" s="29">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="L69" s="30">
-        <v>43196</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>13.69</v>
+        <v>0.1</v>
       </c>
       <c r="C70" s="27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D70" s="27">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E70" s="27">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F70" s="27">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="G70" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H70" s="27">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="I70" s="27">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="J70" s="27">
-        <v>290</v>
+        <v>-162</v>
       </c>
       <c r="K70" s="29">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="L70" s="30">
-        <v>43195</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>23.62</v>
+        <v>-15.38</v>
       </c>
       <c r="C71" s="27">
-        <v>33</v>
+        <v>-13</v>
       </c>
       <c r="D71" s="27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E71" s="27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F71" s="27">
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="G71" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.105</v>
       </c>
       <c r="H71" s="27">
-        <v>429</v>
+        <v>54</v>
       </c>
       <c r="I71" s="27">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="J71" s="27">
-        <v>416</v>
+        <v>-214</v>
       </c>
       <c r="K71" s="29">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="L71" s="30">
-        <v>43194</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
-        <v>24.25</v>
+        <v>-12.26</v>
       </c>
       <c r="C72" s="27">
-        <v>34</v>
+        <v>-10</v>
       </c>
       <c r="D72" s="27">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E72" s="27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F72" s="27">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="G72" s="28">
-        <v>1</v>
+        <v>0.158</v>
       </c>
       <c r="H72" s="27">
-        <v>436</v>
+        <v>101</v>
       </c>
       <c r="I72" s="27">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="J72" s="27">
-        <v>436</v>
+        <v>-127</v>
       </c>
       <c r="K72" s="29">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="L72" s="30">
-        <v>43193</v>
+        <v>43209</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="31">
-        <v>-45.22</v>
+        <v>3.35</v>
       </c>
       <c r="C73" s="32">
-        <v>-97</v>
+        <v>2</v>
       </c>
       <c r="D73" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E73" s="32">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F73" s="32">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="G73" s="33">
-        <v>0</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H73" s="32">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="I73" s="32">
-        <v>567</v>
+        <v>115</v>
       </c>
       <c r="J73" s="32">
-        <v>-567</v>
+        <v>35</v>
       </c>
       <c r="K73" s="34">
-        <v>1.52</v>
+        <v>0.74</v>
       </c>
       <c r="L73" s="30">
-        <v>43192</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="18">
-        <v>12.78</v>
+        <v>-36.79</v>
       </c>
       <c r="C74" s="19">
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="D74" s="19">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E74" s="19">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F74" s="19">
-        <v>22</v>
+        <v>-26</v>
       </c>
       <c r="G74" s="20">
-        <v>0.55800000000000005</v>
+        <v>0.432</v>
       </c>
       <c r="H74" s="19">
-        <v>2115</v>
+        <v>1334</v>
       </c>
       <c r="I74" s="19">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="J74" s="19">
-        <v>389</v>
+        <v>-412</v>
       </c>
       <c r="K74" s="21">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="44"/>
       <c r="C75" s="45"/>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547AF458-4E34-4C2A-93AE-9556278E4713}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B9683-6E6C-475D-A03A-07578C9B5D8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>130dma</t>
   </si>
@@ -319,13 +319,19 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Down -1.78 Points per Component with overall change of 0.86% from closing price 2654.80 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -1.91 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -1.94 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Down -0.55 Points per Component with overall change of 1.10% from closing price 2663.42 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.05 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.24 Points per Component with overall change of 0.92% from closing price 958.92 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.34 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -0.16 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1151,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -1157,14 +1163,14 @@
         <v>5</v>
       </c>
       <c r="H4" s="11">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I4" s="13">
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1175,7 +1181,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10">
         <v>7</v>
@@ -1187,298 +1193,298 @@
         <v>4</v>
       </c>
       <c r="H5" s="12">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I5" s="15">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
         <v>6</v>
       </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
       <c r="F6" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="12">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" s="15">
         <v>6</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="H7" s="12">
         <v>4</v>
       </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4.5</v>
-      </c>
       <c r="I7" s="15">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10">
-        <v>6</v>
-      </c>
       <c r="H8" s="12">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="I8" s="15">
-        <v>6.25</v>
+        <v>4.5</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D9" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="12">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I9" s="15">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="15">
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="10">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
-        <v>3</v>
-      </c>
       <c r="H11" s="12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I11" s="15">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D12" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="12">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I12" s="15">
-        <v>-0.75</v>
+        <v>4.5</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="12">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="I13" s="15">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F14" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G14" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H14" s="12">
         <v>2</v>
       </c>
       <c r="I14" s="15">
-        <v>2.75</v>
+        <v>-3.5</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1487,88 +1493,88 @@
         <v>3</v>
       </c>
       <c r="H15" s="12">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="I15" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D16" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="10">
         <v>3</v>
       </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
       <c r="F16" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="12">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="I16" s="15">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="10">
-        <v>5</v>
-      </c>
       <c r="H17" s="12">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="I17" s="15">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -1577,58 +1583,58 @@
         <v>2</v>
       </c>
       <c r="H18" s="12">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I18" s="15">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D19" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="15">
-        <v>6.25</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>-5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -1637,40 +1643,40 @@
         <v>3</v>
       </c>
       <c r="H20" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I20" s="15">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="15">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
@@ -1679,130 +1685,130 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I22" s="15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D23" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E23" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I24" s="15">
-        <v>1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D25" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I25" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1811,271 +1817,271 @@
         <v>-2</v>
       </c>
       <c r="F26" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="G26" s="10">
-        <v>2</v>
-      </c>
       <c r="H26" s="12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D27" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G27" s="10">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="I27" s="15">
-        <v>-5</v>
+        <v>1.25</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="10">
         <v>-2</v>
       </c>
       <c r="G28" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I28" s="15">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D29" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E29" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="10">
         <v>-1</v>
       </c>
       <c r="G29" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="12">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="I29" s="15">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G30" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="12">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="I30" s="15">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D31" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="12">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="I31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F32" s="10">
         <v>-2</v>
       </c>
-      <c r="F32" s="10">
-        <v>-1</v>
-      </c>
       <c r="G32" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="I32" s="15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D33" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
         <v>-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>-1</v>
       </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
       <c r="H33" s="12">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="I33" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F34" s="10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="12">
         <v>-1.75</v>
       </c>
       <c r="I34" s="15">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E35" s="10">
         <v>-4</v>
@@ -2087,164 +2093,164 @@
         <v>2</v>
       </c>
       <c r="H35" s="12">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="I35" s="15">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D36" s="10">
         <v>-1</v>
       </c>
       <c r="E36" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G36" s="10">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="H36" s="12">
-        <v>-2</v>
+        <v>-2.75</v>
       </c>
       <c r="I36" s="15">
         <v>-3.5</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D37" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E37" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F37" s="10">
         <v>-4</v>
       </c>
       <c r="G37" s="10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H37" s="12">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="I37" s="15">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D38" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E38" s="10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F38" s="10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G38" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12">
+        <v>-3.25</v>
+      </c>
+      <c r="I38" s="15">
         <v>-2.5</v>
-      </c>
-      <c r="I38" s="15">
-        <v>-2</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D39" s="10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E39" s="10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F39" s="10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G39" s="10">
         <v>-2</v>
       </c>
       <c r="H39" s="12">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I39" s="15">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D40" s="10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E40" s="10">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F40" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G40" s="10">
         <v>-4</v>
       </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
       <c r="H40" s="35">
-        <v>-3.75</v>
+        <v>-5.5</v>
       </c>
       <c r="I40" s="36">
         <v>-3.5</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2252,31 +2258,31 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>2.3783783783783785</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="1"/>
-        <v>0.40540540540540543</v>
+        <v>8.1081081081081086E-2</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.6216216216216216</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="1"/>
-        <v>2.0540540540540539</v>
+        <v>1.5945945945945945</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>1.2094594594594594</v>
+        <v>0.41891891891891891</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="1"/>
-        <v>1.7027027027027026</v>
+        <v>1.0472972972972974</v>
       </c>
       <c r="J41" s="40">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>-0.4932432432432432</v>
+        <v>-0.62837837837837851</v>
       </c>
     </row>
   </sheetData>
@@ -2293,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2375,384 +2381,384 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>88.34</v>
+        <v>609.86</v>
       </c>
       <c r="C4" s="27">
-        <v>-64</v>
+        <v>438</v>
       </c>
       <c r="D4" s="27">
-        <v>272</v>
+        <v>447</v>
       </c>
       <c r="E4" s="27">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="F4" s="27">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="G4" s="28">
-        <v>0.53800000000000003</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="H4" s="27">
-        <v>1112</v>
+        <v>1738</v>
       </c>
       <c r="I4" s="27">
-        <v>1033</v>
+        <v>168</v>
       </c>
       <c r="J4" s="27">
-        <v>78</v>
+        <v>1570</v>
       </c>
       <c r="K4" s="29">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="L4" s="30">
-        <v>43221</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>-417.45</v>
+        <v>-114.42</v>
       </c>
       <c r="C5" s="27">
-        <v>-445</v>
+        <v>-301</v>
       </c>
       <c r="D5" s="27">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="E5" s="27">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="F5" s="27">
-        <v>-305</v>
+        <v>-83</v>
       </c>
       <c r="G5" s="28">
-        <v>0.19</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="H5" s="27">
-        <v>444</v>
+        <v>852</v>
       </c>
       <c r="I5" s="27">
-        <v>1889</v>
+        <v>1538</v>
       </c>
       <c r="J5" s="27">
-        <v>-1445</v>
+        <v>-685</v>
       </c>
       <c r="K5" s="29">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L5" s="30">
-        <v>43220</v>
+        <v>43223</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>163.30000000000001</v>
+        <v>-472.09</v>
       </c>
       <c r="C6" s="27">
-        <v>131</v>
+        <v>-677</v>
       </c>
       <c r="D6" s="27">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="E6" s="27">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="F6" s="27">
-        <v>126</v>
+        <v>-241</v>
       </c>
       <c r="G6" s="28">
-        <v>0.61899999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="H6" s="27">
-        <v>1120</v>
+        <v>648</v>
       </c>
       <c r="I6" s="27">
-        <v>936</v>
+        <v>1665</v>
       </c>
       <c r="J6" s="27">
-        <v>184</v>
+        <v>-1017</v>
       </c>
       <c r="K6" s="29">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="L6" s="30">
-        <v>43217</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>586.54999999999995</v>
+        <v>88.83</v>
       </c>
       <c r="C7" s="27">
-        <v>1249</v>
+        <v>-29</v>
       </c>
       <c r="D7" s="27">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="E7" s="27">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="F7" s="27">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="G7" s="28">
-        <v>0.71099999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="H7" s="27">
-        <v>1773</v>
+        <v>1114</v>
       </c>
       <c r="I7" s="27">
-        <v>791</v>
+        <v>1033</v>
       </c>
       <c r="J7" s="27">
-        <v>982</v>
+        <v>81</v>
       </c>
       <c r="K7" s="29">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="L7" s="30">
-        <v>43216</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>128.81</v>
+        <v>-417.81</v>
       </c>
       <c r="C8" s="27">
-        <v>138</v>
+        <v>-427</v>
       </c>
       <c r="D8" s="27">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="E8" s="27">
-        <v>191</v>
+        <v>402</v>
       </c>
       <c r="F8" s="27">
-        <v>116</v>
+        <v>-306</v>
       </c>
       <c r="G8" s="28">
-        <v>0.60699999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="H8" s="27">
-        <v>1211</v>
+        <v>444</v>
       </c>
       <c r="I8" s="27">
-        <v>1028</v>
+        <v>1891</v>
       </c>
       <c r="J8" s="27">
-        <v>183</v>
+        <v>-1447</v>
       </c>
       <c r="K8" s="29">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="L8" s="30">
-        <v>43215</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>-857.27</v>
+        <v>163.75</v>
       </c>
       <c r="C9" s="27">
-        <v>-1473</v>
+        <v>148</v>
       </c>
       <c r="D9" s="27">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="E9" s="27">
-        <v>377</v>
+        <v>187</v>
       </c>
       <c r="F9" s="27">
-        <v>-253</v>
+        <v>127</v>
       </c>
       <c r="G9" s="28">
-        <v>0.245</v>
+        <v>0.621</v>
       </c>
       <c r="H9" s="27">
-        <v>683</v>
+        <v>1122</v>
       </c>
       <c r="I9" s="27">
-        <v>1738</v>
+        <v>936</v>
       </c>
       <c r="J9" s="27">
-        <v>-1054</v>
+        <v>186</v>
       </c>
       <c r="K9" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="L9" s="30">
-        <v>43214</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>8.85</v>
+        <v>586.38</v>
       </c>
       <c r="C10" s="27">
-        <v>30</v>
+        <v>1258</v>
       </c>
       <c r="D10" s="27">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="E10" s="27">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="F10" s="27">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="G10" s="28">
-        <v>0.58299999999999996</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="H10" s="27">
-        <v>1069</v>
+        <v>1773</v>
       </c>
       <c r="I10" s="27">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="J10" s="27">
-        <v>249</v>
+        <v>980</v>
       </c>
       <c r="K10" s="29">
-        <v>0.86</v>
+        <v>1.17</v>
       </c>
       <c r="L10" s="30">
-        <v>43213</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>-461.29</v>
+        <v>127.31</v>
       </c>
       <c r="C11" s="27">
-        <v>-552</v>
+        <v>140</v>
       </c>
       <c r="D11" s="27">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="E11" s="27">
-        <v>407</v>
+        <v>192</v>
       </c>
       <c r="F11" s="27">
-        <v>-313</v>
+        <v>115</v>
       </c>
       <c r="G11" s="28">
-        <v>0.186</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="H11" s="27">
-        <v>633</v>
+        <v>1211</v>
       </c>
       <c r="I11" s="27">
-        <v>1660</v>
+        <v>1031</v>
       </c>
       <c r="J11" s="27">
-        <v>-1026</v>
+        <v>180</v>
       </c>
       <c r="K11" s="29">
         <v>1.04</v>
       </c>
       <c r="L11" s="30">
-        <v>43210</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
-        <v>-352.48</v>
+        <v>-857.66</v>
       </c>
       <c r="C12" s="27">
-        <v>-465</v>
+        <v>-1468</v>
       </c>
       <c r="D12" s="27">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E12" s="27">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="F12" s="27">
-        <v>-222</v>
+        <v>-254</v>
       </c>
       <c r="G12" s="28">
-        <v>0.27500000000000002</v>
+        <v>0.245</v>
       </c>
       <c r="H12" s="27">
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="I12" s="27">
-        <v>1443</v>
+        <v>1740</v>
       </c>
       <c r="J12" s="27">
-        <v>-703</v>
+        <v>-1057</v>
       </c>
       <c r="K12" s="29">
-        <v>0.99</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L12" s="30">
-        <v>43209</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31">
-        <v>215.45</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C13" s="32">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="D13" s="32">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E13" s="32">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F13" s="32">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G13" s="33">
-        <v>0.55500000000000005</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H13" s="32">
-        <v>946</v>
+        <v>1069</v>
       </c>
       <c r="I13" s="32">
-        <v>1005</v>
+        <v>820</v>
       </c>
       <c r="J13" s="32">
-        <v>-59</v>
+        <v>248</v>
       </c>
       <c r="K13" s="34">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L13" s="30">
-        <v>43208</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
-        <v>-897.19</v>
+        <v>-277.14</v>
       </c>
       <c r="C14" s="19">
-        <v>-1198</v>
+        <v>-891</v>
       </c>
       <c r="D14" s="19">
-        <v>2281</v>
+        <v>2552</v>
       </c>
       <c r="E14" s="19">
-        <v>2710</v>
+        <v>2445</v>
       </c>
       <c r="F14" s="19">
-        <v>-429</v>
+        <v>107</v>
       </c>
       <c r="G14" s="20">
-        <v>0.45700000000000002</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="H14" s="19">
-        <v>9735</v>
+        <v>10659</v>
       </c>
       <c r="I14" s="19">
-        <v>12347</v>
+        <v>11619</v>
       </c>
       <c r="J14" s="19">
-        <v>-2612</v>
+        <v>-960</v>
       </c>
       <c r="K14" s="21">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2832,384 +2838,384 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>137.51</v>
+        <v>267.05</v>
       </c>
       <c r="C19" s="27">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D19" s="27">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E19" s="27">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F19" s="27">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="G19" s="28">
-        <v>0.71</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H19" s="27">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="I19" s="27">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="J19" s="27">
-        <v>282</v>
+        <v>530</v>
       </c>
       <c r="K19" s="29">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="L19" s="30">
-        <v>43221</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-92.95</v>
+        <v>-31.88</v>
       </c>
       <c r="C20" s="27">
-        <v>-93</v>
+        <v>-70</v>
       </c>
       <c r="D20" s="27">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E20" s="27">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F20" s="27">
-        <v>-58</v>
+        <v>-3</v>
       </c>
       <c r="G20" s="28">
-        <v>0.224</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="H20" s="27">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="I20" s="27">
-        <v>496</v>
+        <v>305</v>
       </c>
       <c r="J20" s="27">
-        <v>-357</v>
+        <v>33</v>
       </c>
       <c r="K20" s="29">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="L20" s="30">
-        <v>43220</v>
+        <v>43223</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>50.51</v>
+        <v>-169.01</v>
       </c>
       <c r="C21" s="27">
-        <v>-51</v>
+        <v>-195</v>
       </c>
       <c r="D21" s="27">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E21" s="27">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21" s="27">
-        <v>7</v>
+        <v>-54</v>
       </c>
       <c r="G21" s="28">
-        <v>0.53300000000000003</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H21" s="27">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="I21" s="27">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J21" s="27">
-        <v>-179</v>
+        <v>-251</v>
       </c>
       <c r="K21" s="29">
-        <v>1.1000000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="L21" s="30">
-        <v>43217</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>361.65</v>
+        <v>137.51</v>
       </c>
       <c r="C22" s="27">
-        <v>640</v>
+        <v>90</v>
       </c>
       <c r="D22" s="27">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E22" s="27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F22" s="27">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G22" s="28">
-        <v>0.79400000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="H22" s="27">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="I22" s="27">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J22" s="27">
-        <v>420</v>
+        <v>282</v>
       </c>
       <c r="K22" s="29">
-        <v>1.1200000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="L22" s="30">
-        <v>43216</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>11.78</v>
+        <v>-92.95</v>
       </c>
       <c r="C23" s="27">
-        <v>-28</v>
+        <v>-89</v>
       </c>
       <c r="D23" s="27">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E23" s="27">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F23" s="27">
-        <v>17</v>
+        <v>-58</v>
       </c>
       <c r="G23" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.224</v>
       </c>
       <c r="H23" s="27">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="I23" s="27">
-        <v>281</v>
+        <v>496</v>
       </c>
       <c r="J23" s="27">
-        <v>25</v>
+        <v>-357</v>
       </c>
       <c r="K23" s="29">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="L23" s="30">
-        <v>43215</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>-381.04</v>
+        <v>50.51</v>
       </c>
       <c r="C24" s="27">
-        <v>-632</v>
+        <v>-29</v>
       </c>
       <c r="D24" s="27">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E24" s="27">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F24" s="27">
-        <v>-63</v>
+        <v>7</v>
       </c>
       <c r="G24" s="28">
-        <v>0.20599999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H24" s="27">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="I24" s="27">
-        <v>545</v>
+        <v>439</v>
       </c>
       <c r="J24" s="27">
-        <v>-423</v>
+        <v>-179</v>
       </c>
       <c r="K24" s="29">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L24" s="30">
-        <v>43214</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>-41.75</v>
+        <v>361.65</v>
       </c>
       <c r="C25" s="27">
-        <v>-15</v>
+        <v>655</v>
       </c>
       <c r="D25" s="27">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E25" s="27">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F25" s="27">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="G25" s="28">
-        <v>0.52300000000000002</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="H25" s="27">
-        <v>227</v>
+        <v>564</v>
       </c>
       <c r="I25" s="27">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="J25" s="27">
-        <v>-72</v>
+        <v>420</v>
       </c>
       <c r="K25" s="29">
-        <v>0.83</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L25" s="30">
-        <v>43213</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>-213.8</v>
+        <v>11.78</v>
       </c>
       <c r="C26" s="27">
-        <v>-237</v>
+        <v>-29</v>
       </c>
       <c r="D26" s="27">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E26" s="27">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F26" s="27">
-        <v>-87</v>
+        <v>17</v>
       </c>
       <c r="G26" s="28">
-        <v>9.2999999999999999E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H26" s="27">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="I26" s="27">
-        <v>592</v>
+        <v>281</v>
       </c>
       <c r="J26" s="27">
-        <v>-550</v>
+        <v>25</v>
       </c>
       <c r="K26" s="29">
         <v>1</v>
       </c>
       <c r="L26" s="30">
-        <v>43210</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
-        <v>-150.19</v>
+        <v>-381.04</v>
       </c>
       <c r="C27" s="27">
-        <v>-211</v>
+        <v>-653</v>
       </c>
       <c r="D27" s="27">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E27" s="27">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F27" s="27">
-        <v>-79</v>
+        <v>-63</v>
       </c>
       <c r="G27" s="28">
-        <v>0.13100000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H27" s="27">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="I27" s="27">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="J27" s="27">
-        <v>-401</v>
+        <v>-423</v>
       </c>
       <c r="K27" s="29">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="L27" s="30">
-        <v>43209</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31">
-        <v>113.66</v>
+        <v>-41.75</v>
       </c>
       <c r="C28" s="32">
-        <v>154</v>
+        <v>-17</v>
       </c>
       <c r="D28" s="32">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="32">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G28" s="33">
-        <v>0.54200000000000004</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H28" s="32">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="I28" s="32">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="J28" s="32">
-        <v>88</v>
+        <v>-72</v>
       </c>
       <c r="K28" s="34">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="L28" s="30">
-        <v>43208</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
-        <v>-204.62</v>
+        <v>111.87</v>
       </c>
       <c r="C29" s="19">
-        <v>-385</v>
+        <v>-70</v>
       </c>
       <c r="D29" s="19">
-        <v>463</v>
+        <v>555</v>
       </c>
       <c r="E29" s="19">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="F29" s="19">
-        <v>-138</v>
+        <v>46</v>
       </c>
       <c r="G29" s="20">
-        <v>0.435</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="H29" s="19">
-        <v>2448</v>
+        <v>3121</v>
       </c>
       <c r="I29" s="19">
-        <v>3618</v>
+        <v>3114</v>
       </c>
       <c r="J29" s="19">
-        <v>-1170</v>
+        <v>7</v>
       </c>
       <c r="K29" s="21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -3290,387 +3296,390 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>10.97</v>
+        <v>306.82</v>
       </c>
       <c r="C34" s="27">
-        <v>-18</v>
+        <v>399</v>
       </c>
       <c r="D34" s="27">
-        <v>367</v>
+        <v>485</v>
       </c>
       <c r="E34" s="27">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="F34" s="27">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="G34" s="28">
-        <v>0.60899999999999999</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H34" s="27">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="I34" s="27">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="J34" s="27">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K34" s="29">
-        <v>1.19</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L34" s="30">
-        <v>43221</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>-216.95</v>
+        <v>-164.19</v>
       </c>
       <c r="C35" s="27">
-        <v>-235</v>
+        <v>-206</v>
       </c>
       <c r="D35" s="27">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="E35" s="27">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="F35" s="27">
-        <v>-349</v>
+        <v>-228</v>
       </c>
       <c r="G35" s="28">
-        <v>0.19600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H35" s="27">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="I35" s="27">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="J35" s="27">
-        <v>-184</v>
+        <v>-55</v>
       </c>
       <c r="K35" s="29">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="L35" s="30">
-        <v>43220</v>
+        <v>43223</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>-165.1</v>
+        <v>27.13</v>
       </c>
       <c r="C36" s="27">
-        <v>-414</v>
+        <v>6</v>
       </c>
       <c r="D36" s="27">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="E36" s="27">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="F36" s="27">
-        <v>-63</v>
+        <v>35</v>
       </c>
       <c r="G36" s="28">
-        <v>0.434</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="H36" s="27">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="I36" s="27">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="J36" s="27">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="K36" s="29">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="L36" s="30">
-        <v>43217</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>92.99</v>
+        <v>110.92</v>
       </c>
       <c r="C37" s="27">
-        <v>-86</v>
+        <v>254</v>
       </c>
       <c r="D37" s="27">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E37" s="27">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F37" s="27">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G37" s="28">
-        <v>0.56699999999999995</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="H37" s="27">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="I37" s="27">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="J37" s="27">
-        <v>117</v>
+        <v>-4</v>
       </c>
       <c r="K37" s="29">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="L37" s="30">
-        <v>43216</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>-49.97</v>
+        <v>-220.52</v>
       </c>
       <c r="C38" s="27">
-        <v>-147</v>
+        <v>-284</v>
       </c>
       <c r="D38" s="27">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="E38" s="27">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="F38" s="27">
-        <v>-24</v>
+        <v>-348</v>
       </c>
       <c r="G38" s="28">
-        <v>0.45600000000000002</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H38" s="27">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="I38" s="27">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="J38" s="27">
-        <v>-41</v>
+        <v>-216</v>
       </c>
       <c r="K38" s="29">
-        <v>1.02</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L38" s="30">
-        <v>43215</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>-150.82</v>
+        <v>-78.48</v>
       </c>
       <c r="C39" s="27">
-        <v>-169</v>
+        <v>-103</v>
       </c>
       <c r="D39" s="27">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="E39" s="27">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F39" s="27">
-        <v>-104</v>
+        <v>-60</v>
       </c>
       <c r="G39" s="28">
-        <v>0.39</v>
+        <v>0.438</v>
       </c>
       <c r="H39" s="27">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="I39" s="27">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="J39" s="27">
-        <v>67</v>
+        <v>-4</v>
       </c>
       <c r="K39" s="29">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="L39" s="30">
-        <v>43214</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>-13.22</v>
+        <v>85.13</v>
       </c>
       <c r="C40" s="27">
-        <v>-17</v>
+        <v>-74</v>
       </c>
       <c r="D40" s="27">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="E40" s="27">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="F40" s="27">
-        <v>-34</v>
+        <v>101</v>
       </c>
       <c r="G40" s="28">
-        <v>0.45100000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H40" s="27">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="I40" s="27">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="J40" s="27">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="K40" s="29">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="L40" s="30">
-        <v>43213</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-156.85</v>
+        <v>-47.96</v>
       </c>
       <c r="C41" s="27">
-        <v>-163</v>
+        <v>-135</v>
       </c>
       <c r="D41" s="27">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="E41" s="27">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="F41" s="27">
-        <v>-237</v>
+        <v>-19</v>
       </c>
       <c r="G41" s="28">
-        <v>0.27700000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H41" s="27">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="I41" s="27">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J41" s="27">
-        <v>-118</v>
+        <v>-34</v>
       </c>
       <c r="K41" s="29">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="L41" s="30">
-        <v>43210</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="26">
-        <v>-194.2</v>
+        <v>-147.80000000000001</v>
       </c>
       <c r="C42" s="27">
-        <v>-203</v>
+        <v>-156</v>
       </c>
       <c r="D42" s="27">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="E42" s="27">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="F42" s="27">
-        <v>-230</v>
+        <v>-102</v>
       </c>
       <c r="G42" s="28">
-        <v>0.28399999999999997</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="H42" s="27">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="I42" s="27">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="J42" s="27">
-        <v>-107</v>
+        <v>71</v>
       </c>
       <c r="K42" s="29">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="L42" s="30">
-        <v>43209</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="31">
-        <v>74.13</v>
+        <v>-17.420000000000002</v>
       </c>
       <c r="C43" s="32">
-        <v>64</v>
+        <v>-14</v>
       </c>
       <c r="D43" s="32">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="E43" s="32">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="F43" s="32">
-        <v>129</v>
+        <v>-33</v>
       </c>
       <c r="G43" s="33">
-        <v>0.58199999999999996</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H43" s="32">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I43" s="32">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J43" s="32">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K43" s="34">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L43" s="30">
-        <v>43208</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
-        <v>-769.02</v>
+        <v>-146.38999999999999</v>
       </c>
       <c r="C44" s="19">
-        <v>-1388</v>
+        <v>-313</v>
       </c>
       <c r="D44" s="19">
-        <v>2560</v>
+        <v>2856</v>
       </c>
       <c r="E44" s="19">
-        <v>3225</v>
+        <v>2976</v>
       </c>
       <c r="F44" s="19">
-        <v>-665</v>
+        <v>-120</v>
       </c>
       <c r="G44" s="20">
-        <v>0.443</v>
+        <v>0.49</v>
       </c>
       <c r="H44" s="19">
-        <v>1571</v>
+        <v>1909</v>
       </c>
       <c r="I44" s="19">
-        <v>1708</v>
+        <v>1760</v>
       </c>
       <c r="J44" s="19">
-        <v>-137</v>
+        <v>149</v>
       </c>
       <c r="K44" s="21">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
@@ -3685,9 +3694,7 @@
       <c r="M45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="44" t="s">
-        <v>92</v>
-      </c>
+      <c r="B46" s="44"/>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
       <c r="E46" s="51"/>
@@ -3702,6 +3709,9 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
+      <c r="B47" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="C47" s="19" t="s">
         <v>91</v>
       </c>
@@ -3746,387 +3756,390 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>120.49</v>
+        <v>992.05</v>
       </c>
       <c r="C49" s="27">
-        <v>-448</v>
+        <v>954</v>
       </c>
       <c r="D49" s="27">
-        <v>741</v>
+        <v>1138</v>
       </c>
       <c r="E49" s="27">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="F49" s="27">
-        <v>132</v>
+        <v>905</v>
       </c>
       <c r="G49" s="28">
-        <v>0.53900000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="H49" s="27">
-        <v>1935</v>
+        <v>3014</v>
       </c>
       <c r="I49" s="27">
-        <v>1864</v>
+        <v>569</v>
       </c>
       <c r="J49" s="27">
-        <v>70</v>
+        <v>2445</v>
       </c>
       <c r="K49" s="29">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="L49" s="30">
-        <v>43221</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>-608.12</v>
+        <v>-236.31</v>
       </c>
       <c r="C50" s="27">
-        <v>-666</v>
+        <v>-495</v>
       </c>
       <c r="D50" s="27">
-        <v>379</v>
+        <v>573</v>
       </c>
       <c r="E50" s="27">
-        <v>968</v>
+        <v>796</v>
       </c>
       <c r="F50" s="27">
-        <v>-589</v>
+        <v>-223</v>
       </c>
       <c r="G50" s="28">
-        <v>0.27600000000000002</v>
+        <v>0.41</v>
       </c>
       <c r="H50" s="27">
-        <v>1156</v>
+        <v>1691</v>
       </c>
       <c r="I50" s="27">
-        <v>2792</v>
+        <v>2571</v>
       </c>
       <c r="J50" s="27">
-        <v>-1636</v>
+        <v>-880</v>
       </c>
       <c r="K50" s="29">
-        <v>1.06</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L50" s="30">
-        <v>43220</v>
+        <v>43223</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>87.71</v>
+        <v>-457.49</v>
       </c>
       <c r="C51" s="27">
-        <v>-113</v>
+        <v>-940</v>
       </c>
       <c r="D51" s="27">
-        <v>765</v>
+        <v>568</v>
       </c>
       <c r="E51" s="27">
-        <v>581</v>
+        <v>796</v>
       </c>
       <c r="F51" s="27">
-        <v>184</v>
+        <v>-228</v>
       </c>
       <c r="G51" s="28">
-        <v>0.55600000000000005</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="H51" s="27">
-        <v>1835</v>
+        <v>1561</v>
       </c>
       <c r="I51" s="27">
-        <v>1742</v>
+        <v>2639</v>
       </c>
       <c r="J51" s="27">
-        <v>93</v>
+        <v>-1078</v>
       </c>
       <c r="K51" s="29">
-        <v>0.97</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L51" s="30">
-        <v>43217</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>838.04</v>
+        <v>155.81</v>
       </c>
       <c r="C52" s="27">
-        <v>1228</v>
+        <v>-262</v>
       </c>
       <c r="D52" s="27">
-        <v>950</v>
+        <v>762</v>
       </c>
       <c r="E52" s="27">
-        <v>393</v>
+        <v>610</v>
       </c>
       <c r="F52" s="27">
-        <v>557</v>
+        <v>152</v>
       </c>
       <c r="G52" s="28">
-        <v>0.69099999999999995</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="H52" s="27">
-        <v>2790</v>
+        <v>1974</v>
       </c>
       <c r="I52" s="27">
-        <v>1315</v>
+        <v>1854</v>
       </c>
       <c r="J52" s="27">
-        <v>1474</v>
+        <v>119</v>
       </c>
       <c r="K52" s="29">
-        <v>1.1100000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="L52" s="30">
-        <v>43216</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>51.01</v>
+        <v>-635.89</v>
       </c>
       <c r="C53" s="27">
-        <v>-58</v>
+        <v>-762</v>
       </c>
       <c r="D53" s="27">
-        <v>718</v>
+        <v>387</v>
       </c>
       <c r="E53" s="27">
-        <v>625</v>
+        <v>984</v>
       </c>
       <c r="F53" s="27">
-        <v>93</v>
+        <v>-597</v>
       </c>
       <c r="G53" s="28">
-        <v>0.52200000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="H53" s="27">
-        <v>1871</v>
+        <v>1153</v>
       </c>
       <c r="I53" s="27">
-        <v>2001</v>
+        <v>2816</v>
       </c>
       <c r="J53" s="27">
-        <v>-129</v>
+        <v>-1662</v>
       </c>
       <c r="K53" s="29">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="L53" s="30">
-        <v>43215</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>-1124.33</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="C54" s="27">
-        <v>-1823</v>
+        <v>-162</v>
       </c>
       <c r="D54" s="27">
-        <v>398</v>
+        <v>781</v>
       </c>
       <c r="E54" s="27">
-        <v>952</v>
+        <v>589</v>
       </c>
       <c r="F54" s="27">
-        <v>-554</v>
+        <v>192</v>
       </c>
       <c r="G54" s="28">
-        <v>0.28899999999999998</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="H54" s="27">
-        <v>1283</v>
+        <v>1842</v>
       </c>
       <c r="I54" s="27">
-        <v>2818</v>
+        <v>1742</v>
       </c>
       <c r="J54" s="27">
-        <v>-1534</v>
+        <v>100</v>
       </c>
       <c r="K54" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L54" s="30">
-        <v>43214</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>-93.79</v>
+        <v>842.17</v>
       </c>
       <c r="C55" s="27">
-        <v>-244</v>
+        <v>1183</v>
       </c>
       <c r="D55" s="27">
-        <v>697</v>
+        <v>958</v>
       </c>
       <c r="E55" s="27">
-        <v>644</v>
+        <v>409</v>
       </c>
       <c r="F55" s="27">
-        <v>53</v>
+        <v>549</v>
       </c>
       <c r="G55" s="28">
-        <v>0.50700000000000001</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="H55" s="27">
-        <v>1694</v>
+        <v>2777</v>
       </c>
       <c r="I55" s="27">
-        <v>1565</v>
+        <v>1329</v>
       </c>
       <c r="J55" s="27">
-        <v>129</v>
+        <v>1447</v>
       </c>
       <c r="K55" s="29">
-        <v>0.88</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L55" s="30">
-        <v>43213</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>-677.78</v>
+        <v>42.96</v>
       </c>
       <c r="C56" s="27">
-        <v>-829</v>
+        <v>-53</v>
       </c>
       <c r="D56" s="27">
-        <v>362</v>
+        <v>739</v>
       </c>
       <c r="E56" s="27">
-        <v>980</v>
+        <v>628</v>
       </c>
       <c r="F56" s="27">
-        <v>-618</v>
+        <v>111</v>
       </c>
       <c r="G56" s="28">
-        <v>0.26300000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="H56" s="27">
-        <v>1107</v>
+        <v>1870</v>
       </c>
       <c r="I56" s="27">
-        <v>2605</v>
+        <v>1998</v>
       </c>
       <c r="J56" s="27">
-        <v>-1497</v>
+        <v>-127</v>
       </c>
       <c r="K56" s="29">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L56" s="30">
-        <v>43210</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="26">
-        <v>-599.49</v>
+        <v>-1147.1300000000001</v>
       </c>
       <c r="C57" s="27">
-        <v>-771</v>
+        <v>-1833</v>
       </c>
       <c r="D57" s="27">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="E57" s="27">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="F57" s="27">
-        <v>-568</v>
+        <v>-555</v>
       </c>
       <c r="G57" s="28">
-        <v>0.28100000000000003</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="H57" s="27">
-        <v>1237</v>
+        <v>1281</v>
       </c>
       <c r="I57" s="27">
-        <v>2406</v>
+        <v>2820</v>
       </c>
       <c r="J57" s="27">
-        <v>-1168</v>
+        <v>-1539</v>
       </c>
       <c r="K57" s="29">
-        <v>0.98</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L57" s="30">
-        <v>43209</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="31">
-        <v>337.64</v>
+        <v>-103.13</v>
       </c>
       <c r="C58" s="32">
-        <v>379</v>
+        <v>-244</v>
       </c>
       <c r="D58" s="32">
-        <v>796</v>
+        <v>700</v>
       </c>
       <c r="E58" s="32">
-        <v>549</v>
+        <v>659</v>
       </c>
       <c r="F58" s="32">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="G58" s="33">
-        <v>0.57899999999999996</v>
+        <v>0.501</v>
       </c>
       <c r="H58" s="32">
-        <v>1956</v>
+        <v>1692</v>
       </c>
       <c r="I58" s="32">
-        <v>1516</v>
+        <v>1564</v>
       </c>
       <c r="J58" s="32">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="K58" s="34">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="L58" s="30">
-        <v>43208</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="18">
-        <v>-1668.61</v>
+        <v>-468.65</v>
       </c>
       <c r="C59" s="19">
-        <v>-3345</v>
+        <v>-2614</v>
       </c>
       <c r="D59" s="19">
-        <v>6192</v>
+        <v>7015</v>
       </c>
       <c r="E59" s="19">
-        <v>7255</v>
+        <v>6668</v>
       </c>
       <c r="F59" s="19">
-        <v>-1063</v>
+        <v>347</v>
       </c>
       <c r="G59" s="20">
-        <v>0.46</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="H59" s="19">
-        <v>16869</v>
+        <v>18858</v>
       </c>
       <c r="I59" s="19">
-        <v>20629</v>
+        <v>19907</v>
       </c>
       <c r="J59" s="19">
-        <v>-3760</v>
+        <v>-1049</v>
       </c>
       <c r="K59" s="21">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="B60" s="44"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
@@ -4197,290 +4210,290 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>4.42</v>
+        <v>24.35</v>
       </c>
       <c r="C64" s="27">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D64" s="27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E64" s="27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F64" s="27">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G64" s="28">
-        <v>0.63200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H64" s="27">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="I64" s="27">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J64" s="27">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="K64" s="29">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L64" s="30">
-        <v>43221</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>-17.25</v>
+        <v>-5.05</v>
       </c>
       <c r="C65" s="27">
+        <v>-8</v>
+      </c>
+      <c r="D65" s="27">
+        <v>4</v>
+      </c>
+      <c r="E65" s="27">
+        <v>15</v>
+      </c>
+      <c r="F65" s="27">
         <v>-11</v>
       </c>
-      <c r="D65" s="27">
-        <v>0</v>
-      </c>
-      <c r="E65" s="27">
-        <v>19</v>
-      </c>
-      <c r="F65" s="27">
-        <v>-19</v>
-      </c>
       <c r="G65" s="28">
-        <v>0</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H65" s="27">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I65" s="27">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="J65" s="27">
-        <v>-276</v>
+        <v>-329</v>
       </c>
       <c r="K65" s="29">
-        <v>0.76</v>
+        <v>1.21</v>
       </c>
       <c r="L65" s="30">
-        <v>43220</v>
+        <v>43223</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>1.1299999999999999</v>
+        <v>-9.82</v>
       </c>
       <c r="C66" s="27">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="D66" s="27">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E66" s="27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F66" s="27">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="G66" s="28">
-        <v>0.57899999999999996</v>
+        <v>0.158</v>
       </c>
       <c r="H66" s="27">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="I66" s="27">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="J66" s="27">
-        <v>141</v>
+        <v>-240</v>
       </c>
       <c r="K66" s="29">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="L66" s="30">
-        <v>43217</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>18.97</v>
+        <v>4.42</v>
       </c>
       <c r="C67" s="27">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D67" s="27">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E67" s="27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F67" s="27">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G67" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H67" s="27">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="I67" s="27">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J67" s="27">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="K67" s="29">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L67" s="30">
-        <v>43216</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>3.5</v>
+        <v>-17.25</v>
       </c>
       <c r="C68" s="27">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="D68" s="27">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E68" s="27">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F68" s="27">
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="G68" s="28">
-        <v>0.73699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H68" s="27">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="I68" s="27">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="J68" s="27">
-        <v>192</v>
+        <v>-276</v>
       </c>
       <c r="K68" s="29">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="L68" s="30">
-        <v>43215</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>-23.37</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C69" s="27">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="D69" s="27">
+        <v>11</v>
+      </c>
+      <c r="E69" s="27">
+        <v>8</v>
+      </c>
+      <c r="F69" s="27">
         <v>3</v>
       </c>
-      <c r="E69" s="27">
-        <v>16</v>
-      </c>
-      <c r="F69" s="27">
-        <v>-13</v>
-      </c>
       <c r="G69" s="28">
-        <v>0.158</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H69" s="27">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I69" s="27">
-        <v>397</v>
+        <v>67</v>
       </c>
       <c r="J69" s="27">
-        <v>-368</v>
+        <v>141</v>
       </c>
       <c r="K69" s="29">
-        <v>1.18</v>
+        <v>0.76</v>
       </c>
       <c r="L69" s="30">
-        <v>43214</v>
+        <v>43217</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>0.1</v>
+        <v>18.97</v>
       </c>
       <c r="C70" s="27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D70" s="27">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E70" s="27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F70" s="27">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="G70" s="28">
-        <v>0.36799999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H70" s="27">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="I70" s="27">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="J70" s="27">
-        <v>-162</v>
+        <v>230</v>
       </c>
       <c r="K70" s="29">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="L70" s="30">
-        <v>43213</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>-15.38</v>
+        <v>3.5</v>
       </c>
       <c r="C71" s="27">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="D71" s="27">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E71" s="27">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F71" s="27">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="G71" s="28">
-        <v>0.105</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H71" s="27">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="I71" s="27">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="J71" s="27">
-        <v>-214</v>
+        <v>192</v>
       </c>
       <c r="K71" s="29">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="L71" s="30">
-        <v>43210</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
-        <v>-12.26</v>
+        <v>-23.37</v>
       </c>
       <c r="C72" s="27">
-        <v>-10</v>
+        <v>-39</v>
       </c>
       <c r="D72" s="27">
         <v>3</v>
@@ -4495,91 +4508,91 @@
         <v>0.158</v>
       </c>
       <c r="H72" s="27">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I72" s="27">
-        <v>229</v>
+        <v>397</v>
       </c>
       <c r="J72" s="27">
-        <v>-127</v>
+        <v>-368</v>
       </c>
       <c r="K72" s="29">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="L72" s="30">
-        <v>43209</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="31">
-        <v>3.35</v>
+        <v>0.1</v>
       </c>
       <c r="C73" s="32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" s="32">
+        <v>7</v>
+      </c>
+      <c r="E73" s="32">
         <v>12</v>
       </c>
-      <c r="E73" s="32">
-        <v>7</v>
-      </c>
       <c r="F73" s="32">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="G73" s="33">
-        <v>0.63200000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H73" s="32">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="I73" s="32">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="J73" s="32">
-        <v>35</v>
+        <v>-162</v>
       </c>
       <c r="K73" s="34">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="L73" s="30">
-        <v>43208</v>
+        <v>43213</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="18">
-        <v>-36.79</v>
+        <v>-3.02</v>
       </c>
       <c r="C74" s="19">
-        <v>-48</v>
+        <v>-28</v>
       </c>
       <c r="D74" s="19">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E74" s="19">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F74" s="19">
-        <v>-26</v>
+        <v>-8</v>
       </c>
       <c r="G74" s="20">
-        <v>0.432</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="H74" s="19">
-        <v>1334</v>
+        <v>1399</v>
       </c>
       <c r="I74" s="19">
-        <v>1746</v>
+        <v>1788</v>
       </c>
       <c r="J74" s="19">
-        <v>-412</v>
+        <v>-389</v>
       </c>
       <c r="K74" s="21">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="44"/>
       <c r="C75" s="45"/>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B9683-6E6C-475D-A03A-07578C9B5D8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAFEBA-1731-4C10-A262-DC26344446CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>130dma</t>
   </si>
@@ -319,19 +319,25 @@
     <t>Metal Miners</t>
   </si>
   <si>
-    <t>Down -0.55 Points per Component with overall change of 1.10% from closing price 2663.42 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 1.05 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.24 Points per Component with overall change of 0.92% from closing price 958.92 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.34 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -0.16 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Score 10 to -10</t>
+  </si>
+  <si>
+    <t>0 means 50% above MA</t>
+  </si>
+  <si>
+    <t>Up 3.10 Points per Component with overall change of -3.44% from closing price 2720.13 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 4.73 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.13 Points per Component with overall change of -5.70% from closing price 1001.02 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.30 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 3.77 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,6 +788,9 @@
     <xf numFmtId="38" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J41"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1112,9 +1121,9 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
@@ -1151,89 +1160,89 @@
         <v>78</v>
       </c>
       <c r="D4" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="11">
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
       <c r="I4" s="13">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="12">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="I5" s="15">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D6" s="10">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10">
         <v>5</v>
-      </c>
-      <c r="E6" s="10">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10">
-        <v>4</v>
       </c>
       <c r="G6" s="10">
         <v>4</v>
       </c>
       <c r="H6" s="12">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="I6" s="15">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1241,296 +1250,302 @@
         <v>72</v>
       </c>
       <c r="D7" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="10">
+        <v>7</v>
+      </c>
+      <c r="H7" s="12">
         <v>6</v>
       </c>
-      <c r="H7" s="12">
-        <v>4</v>
-      </c>
       <c r="I7" s="15">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="12">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="I8" s="15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-1</v>
-      </c>
       <c r="H9" s="12">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="I9" s="15">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D10" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="10">
         <v>4</v>
       </c>
       <c r="G10" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="15">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10">
         <v>4</v>
       </c>
       <c r="E11" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="10">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12">
         <v>5</v>
       </c>
-      <c r="H11" s="12">
-        <v>2.75</v>
-      </c>
       <c r="I11" s="15">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="I12" s="15">
         <v>2.5</v>
-      </c>
-      <c r="I12" s="15">
-        <v>4.5</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="12">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="I13" s="15">
-        <v>2.75</v>
+        <v>-2.75</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10">
         <v>7</v>
       </c>
       <c r="E14" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14" s="10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G14" s="10">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="12">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="I14" s="15">
-        <v>-3.5</v>
+        <v>-1.75</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D15" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12">
+        <v>4</v>
+      </c>
+      <c r="I15" s="15">
         <v>3</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="I15" s="15">
-        <v>2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D16" s="10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10">
         <v>3</v>
       </c>
-      <c r="F16" s="10">
-        <v>-1</v>
-      </c>
       <c r="G16" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="12">
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="I16" s="15">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>3</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1541,326 +1556,326 @@
         <v>52</v>
       </c>
       <c r="D17" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="12">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="I17" s="15">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
       </c>
       <c r="G18" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="12">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="I18" s="15">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D19" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" s="12">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="I19" s="15">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D20" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="10">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="12">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="I20" s="15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="10">
         <v>-1</v>
       </c>
       <c r="G21" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="12">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="I21" s="15">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D22" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="12">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="I22" s="15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D23" s="10">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10">
         <v>-1</v>
       </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
       <c r="G23" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H23" s="12">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="I23" s="15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="10">
-        <v>-4</v>
-      </c>
-      <c r="F24" s="10">
-        <v>-1</v>
-      </c>
       <c r="G24" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="12">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="I24" s="15">
-        <v>-2.75</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="15">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10">
         <v>4</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="H26" s="12">
         <v>2</v>
       </c>
-      <c r="E26" s="10">
-        <v>-2</v>
-      </c>
-      <c r="F26" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
       <c r="I26" s="15">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D27" s="10">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>-2</v>
-      </c>
       <c r="G27" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="12">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="I27" s="15">
-        <v>1.25</v>
+        <v>-3.75</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -1871,247 +1886,247 @@
         <v>50</v>
       </c>
       <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="E28" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="10">
-        <v>-2</v>
-      </c>
       <c r="G28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="12">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I28" s="15">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D29" s="10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E29" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="I29" s="15">
-        <v>2.25</v>
+        <v>-2.25</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
       </c>
       <c r="E30" s="10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="12">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="15">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D31" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="12">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="I31" s="15">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="12">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D33" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12">
         <v>0</v>
       </c>
-      <c r="F33" s="10">
-        <v>-2</v>
-      </c>
-      <c r="G33" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="12">
-        <v>-1.5</v>
-      </c>
       <c r="I33" s="15">
-        <v>2</v>
+        <v>-4.75</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G34" s="10">
         <v>1</v>
       </c>
       <c r="H34" s="12">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="I34" s="15">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D35" s="10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E35" s="10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H35" s="12">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="15">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E36" s="10">
         <v>-1</v>
@@ -2120,107 +2135,107 @@
         <v>-4</v>
       </c>
       <c r="G36" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>-1.25</v>
+      </c>
+      <c r="I36" s="15">
         <v>-5</v>
-      </c>
-      <c r="H36" s="12">
-        <v>-2.75</v>
-      </c>
-      <c r="I36" s="15">
-        <v>-3.5</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D37" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G37" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12">
-        <v>-3</v>
+        <v>-1.75</v>
       </c>
       <c r="I37" s="15">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D38" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="10">
         <v>-3</v>
       </c>
-      <c r="E38" s="10">
-        <v>-5</v>
-      </c>
-      <c r="F38" s="10">
-        <v>-5</v>
-      </c>
       <c r="G38" s="10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H38" s="12">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="I38" s="15">
-        <v>-2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D39" s="10">
+        <v>-6</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3</v>
+      </c>
+      <c r="F39" s="10">
         <v>-4</v>
       </c>
-      <c r="E39" s="10">
-        <v>-5</v>
-      </c>
-      <c r="F39" s="10">
-        <v>-5</v>
-      </c>
       <c r="G39" s="10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H39" s="12">
-        <v>-4</v>
+        <v>-2.75</v>
       </c>
       <c r="I39" s="15">
-        <v>-1.75</v>
+        <v>2.5</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2231,26 +2246,26 @@
         <v>63</v>
       </c>
       <c r="D40" s="10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E40" s="10">
         <v>-6</v>
       </c>
       <c r="F40" s="10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G40" s="10">
         <v>-4</v>
       </c>
       <c r="H40" s="35">
-        <v>-5.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I40" s="36">
-        <v>-3.5</v>
+        <v>-6.25</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2258,31 +2273,31 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>0.6216216216216216</v>
+        <v>3.0270270270270272</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="1"/>
-        <v>8.1081081081081086E-2</v>
+        <v>2.2162162162162162</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="1"/>
-        <v>-0.6216216216216216</v>
+        <v>1.0810810810810811</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="1"/>
-        <v>1.5945945945945945</v>
+        <v>2.5675675675675675</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>0.41891891891891891</v>
+        <v>2.2229729729729728</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="1"/>
-        <v>1.0472972972972974</v>
+        <v>-0.81756756756756754</v>
       </c>
       <c r="J41" s="40">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>-0.62837837837837851</v>
+        <v>3.0405405405405403</v>
       </c>
     </row>
   </sheetData>
@@ -2299,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2381,389 +2396,389 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>609.86</v>
+        <v>36.65</v>
       </c>
       <c r="C4" s="27">
-        <v>438</v>
+        <v>34</v>
       </c>
       <c r="D4" s="27">
-        <v>447</v>
+        <v>262</v>
       </c>
       <c r="E4" s="27">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="F4" s="27">
-        <v>392</v>
+        <v>28</v>
       </c>
       <c r="G4" s="28">
-        <v>0.88300000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="H4" s="27">
-        <v>1738</v>
+        <v>875</v>
       </c>
       <c r="I4" s="27">
-        <v>168</v>
+        <v>924</v>
       </c>
       <c r="J4" s="27">
-        <v>1570</v>
+        <v>-49</v>
       </c>
       <c r="K4" s="29">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="L4" s="30">
-        <v>43224</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>-114.42</v>
+        <v>230.73</v>
       </c>
       <c r="C5" s="27">
-        <v>-301</v>
+        <v>175</v>
       </c>
       <c r="D5" s="27">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="E5" s="27">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="F5" s="27">
-        <v>-83</v>
+        <v>150</v>
       </c>
       <c r="G5" s="28">
-        <v>0.41099999999999998</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="H5" s="27">
-        <v>852</v>
+        <v>1301</v>
       </c>
       <c r="I5" s="27">
-        <v>1538</v>
+        <v>583</v>
       </c>
       <c r="J5" s="27">
-        <v>-685</v>
+        <v>717</v>
       </c>
       <c r="K5" s="29">
-        <v>1.0900000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="L5" s="30">
-        <v>43223</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>-472.09</v>
+        <v>-385.84</v>
       </c>
       <c r="C6" s="27">
-        <v>-677</v>
+        <v>-402</v>
       </c>
       <c r="D6" s="27">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E6" s="27">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="F6" s="27">
-        <v>-241</v>
+        <v>-165</v>
       </c>
       <c r="G6" s="28">
-        <v>0.253</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="H6" s="27">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="I6" s="27">
-        <v>1665</v>
+        <v>1182</v>
       </c>
       <c r="J6" s="27">
-        <v>-1017</v>
+        <v>-445</v>
       </c>
       <c r="K6" s="29">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="L6" s="30">
-        <v>43222</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>88.83</v>
+        <v>-14.46</v>
       </c>
       <c r="C7" s="27">
-        <v>-29</v>
+        <v>-2</v>
       </c>
       <c r="D7" s="27">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="E7" s="27">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="F7" s="27">
-        <v>46</v>
+        <v>-47</v>
       </c>
       <c r="G7" s="28">
-        <v>0.54</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H7" s="27">
-        <v>1114</v>
+        <v>1007</v>
       </c>
       <c r="I7" s="27">
-        <v>1033</v>
+        <v>811</v>
       </c>
       <c r="J7" s="27">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="K7" s="29">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="L7" s="30">
-        <v>43221</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>-417.81</v>
+        <v>118.47</v>
       </c>
       <c r="C8" s="27">
-        <v>-427</v>
+        <v>55</v>
       </c>
       <c r="D8" s="27">
-        <v>96</v>
+        <v>303</v>
       </c>
       <c r="E8" s="27">
-        <v>402</v>
+        <v>198</v>
       </c>
       <c r="F8" s="27">
-        <v>-306</v>
+        <v>105</v>
       </c>
       <c r="G8" s="28">
-        <v>0.19</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H8" s="27">
-        <v>444</v>
+        <v>962</v>
       </c>
       <c r="I8" s="27">
-        <v>1891</v>
+        <v>843</v>
       </c>
       <c r="J8" s="27">
-        <v>-1447</v>
+        <v>119</v>
       </c>
       <c r="K8" s="29">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="L8" s="30">
-        <v>43220</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>163.75</v>
+        <v>346.74</v>
       </c>
       <c r="C9" s="27">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D9" s="27">
-        <v>314</v>
+        <v>427</v>
       </c>
       <c r="E9" s="27">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="F9" s="27">
-        <v>127</v>
+        <v>352</v>
       </c>
       <c r="G9" s="28">
-        <v>0.621</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="H9" s="27">
-        <v>1122</v>
+        <v>1588</v>
       </c>
       <c r="I9" s="27">
-        <v>936</v>
+        <v>260</v>
       </c>
       <c r="J9" s="27">
-        <v>186</v>
+        <v>1328</v>
       </c>
       <c r="K9" s="29">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="L9" s="30">
-        <v>43217</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>586.38</v>
+        <v>475.41</v>
       </c>
       <c r="C10" s="27">
-        <v>1258</v>
+        <v>471</v>
       </c>
       <c r="D10" s="27">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E10" s="27">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F10" s="27">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G10" s="28">
-        <v>0.71099999999999997</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="H10" s="27">
-        <v>1773</v>
+        <v>1510</v>
       </c>
       <c r="I10" s="27">
-        <v>793</v>
+        <v>573</v>
       </c>
       <c r="J10" s="27">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="K10" s="29">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="L10" s="30">
-        <v>43216</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>127.31</v>
+        <v>-16.149999999999999</v>
       </c>
       <c r="C11" s="27">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="D11" s="27">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="E11" s="27">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="F11" s="27">
-        <v>115</v>
+        <v>-10</v>
       </c>
       <c r="G11" s="28">
-        <v>0.60699999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="H11" s="27">
-        <v>1211</v>
+        <v>1067</v>
       </c>
       <c r="I11" s="27">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="J11" s="27">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="K11" s="29">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L11" s="30">
-        <v>43215</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
-        <v>-857.66</v>
+        <v>156.66999999999999</v>
       </c>
       <c r="C12" s="27">
-        <v>-1468</v>
+        <v>90</v>
       </c>
       <c r="D12" s="27">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="E12" s="27">
-        <v>378</v>
+        <v>212</v>
       </c>
       <c r="F12" s="27">
-        <v>-254</v>
+        <v>78</v>
       </c>
       <c r="G12" s="28">
-        <v>0.245</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="H12" s="27">
-        <v>683</v>
+        <v>1166</v>
       </c>
       <c r="I12" s="27">
-        <v>1740</v>
+        <v>756</v>
       </c>
       <c r="J12" s="27">
-        <v>-1057</v>
+        <v>410</v>
       </c>
       <c r="K12" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L12" s="30">
-        <v>43214</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31">
-        <v>8.6999999999999993</v>
+        <v>609.86</v>
       </c>
       <c r="C13" s="32">
-        <v>27</v>
+        <v>492</v>
       </c>
       <c r="D13" s="32">
-        <v>295</v>
+        <v>447</v>
       </c>
       <c r="E13" s="32">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="F13" s="32">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="G13" s="33">
-        <v>0.58299999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>1069</v>
+        <v>1738</v>
       </c>
       <c r="I13" s="32">
-        <v>820</v>
+        <v>168</v>
       </c>
       <c r="J13" s="32">
-        <v>248</v>
+        <v>1570</v>
       </c>
       <c r="K13" s="34">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="L13" s="30">
-        <v>43213</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
-        <v>-277.14</v>
+        <v>1558.07</v>
       </c>
       <c r="C14" s="19">
-        <v>-891</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="19">
-        <v>2552</v>
+        <v>3062</v>
       </c>
       <c r="E14" s="19">
-        <v>2445</v>
+        <v>1932</v>
       </c>
       <c r="F14" s="19">
-        <v>107</v>
+        <v>1130</v>
       </c>
       <c r="G14" s="20">
-        <v>0.51100000000000001</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H14" s="19">
-        <v>10659</v>
+        <v>11956</v>
       </c>
       <c r="I14" s="19">
-        <v>11619</v>
+        <v>7154</v>
       </c>
       <c r="J14" s="19">
-        <v>-960</v>
+        <v>4802</v>
       </c>
       <c r="K14" s="21">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
@@ -2838,389 +2853,389 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>267.05</v>
+        <v>-39.61</v>
       </c>
       <c r="C19" s="27">
-        <v>267</v>
+        <v>-88</v>
       </c>
       <c r="D19" s="27">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E19" s="27">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F19" s="27">
-        <v>85</v>
+        <v>-14</v>
       </c>
       <c r="G19" s="28">
-        <v>0.89700000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="H19" s="27">
-        <v>561</v>
+        <v>169</v>
       </c>
       <c r="I19" s="27">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="J19" s="27">
-        <v>530</v>
+        <v>-186</v>
       </c>
       <c r="K19" s="29">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="L19" s="30">
-        <v>43224</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-31.88</v>
+        <v>116.68</v>
       </c>
       <c r="C20" s="27">
-        <v>-70</v>
+        <v>75</v>
       </c>
       <c r="D20" s="27">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E20" s="27">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F20" s="27">
-        <v>-3</v>
+        <v>49</v>
       </c>
       <c r="G20" s="28">
-        <v>0.48599999999999999</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="H20" s="27">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="I20" s="27">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="J20" s="27">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="K20" s="29">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="L20" s="30">
-        <v>43223</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>-169.01</v>
+        <v>-183.38</v>
       </c>
       <c r="C21" s="27">
-        <v>-195</v>
+        <v>-173</v>
       </c>
       <c r="D21" s="27">
         <v>26</v>
       </c>
       <c r="E21" s="27">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="27">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="G21" s="28">
         <v>0.24299999999999999</v>
       </c>
       <c r="H21" s="27">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="I21" s="27">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="J21" s="27">
-        <v>-251</v>
+        <v>-223</v>
       </c>
       <c r="K21" s="29">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L21" s="30">
-        <v>43222</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>137.51</v>
+        <v>12.29</v>
       </c>
       <c r="C22" s="27">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D22" s="27">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E22" s="27">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F22" s="27">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G22" s="28">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H22" s="27">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="I22" s="27">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="J22" s="27">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="K22" s="29">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="L22" s="30">
-        <v>43221</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>-92.95</v>
+        <v>15.88</v>
       </c>
       <c r="C23" s="27">
-        <v>-89</v>
+        <v>-14</v>
       </c>
       <c r="D23" s="27">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E23" s="27">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F23" s="27">
-        <v>-58</v>
+        <v>7</v>
       </c>
       <c r="G23" s="28">
-        <v>0.224</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H23" s="27">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="I23" s="27">
-        <v>496</v>
+        <v>369</v>
       </c>
       <c r="J23" s="27">
-        <v>-357</v>
+        <v>-161</v>
       </c>
       <c r="K23" s="29">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L23" s="30">
-        <v>43220</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>50.51</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="C24" s="27">
-        <v>-29</v>
+        <v>-159</v>
       </c>
       <c r="D24" s="27">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E24" s="27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F24" s="27">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G24" s="28">
-        <v>0.53300000000000003</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H24" s="27">
-        <v>259</v>
+        <v>456</v>
       </c>
       <c r="I24" s="27">
-        <v>439</v>
+        <v>64</v>
       </c>
       <c r="J24" s="27">
-        <v>-179</v>
+        <v>391</v>
       </c>
       <c r="K24" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L24" s="30">
-        <v>43217</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>361.65</v>
+        <v>187.59</v>
       </c>
       <c r="C25" s="27">
-        <v>655</v>
+        <v>182</v>
       </c>
       <c r="D25" s="27">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E25" s="27">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F25" s="27">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G25" s="28">
-        <v>0.79400000000000004</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H25" s="27">
-        <v>564</v>
+        <v>435</v>
       </c>
       <c r="I25" s="27">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="J25" s="27">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="K25" s="29">
-        <v>1.1200000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L25" s="30">
-        <v>43216</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>11.78</v>
+        <v>-52.92</v>
       </c>
       <c r="C26" s="27">
-        <v>-29</v>
+        <v>-58</v>
       </c>
       <c r="D26" s="27">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E26" s="27">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F26" s="27">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="G26" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="H26" s="27">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="I26" s="27">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J26" s="27">
-        <v>25</v>
+        <v>-62</v>
       </c>
       <c r="K26" s="29">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="L26" s="30">
-        <v>43215</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
-        <v>-381.04</v>
+        <v>141.96</v>
       </c>
       <c r="C27" s="27">
-        <v>-653</v>
+        <v>115</v>
       </c>
       <c r="D27" s="27">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E27" s="27">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F27" s="27">
-        <v>-63</v>
+        <v>53</v>
       </c>
       <c r="G27" s="28">
-        <v>0.20599999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="H27" s="27">
-        <v>122</v>
+        <v>438</v>
       </c>
       <c r="I27" s="27">
-        <v>545</v>
+        <v>119</v>
       </c>
       <c r="J27" s="27">
-        <v>-423</v>
+        <v>318</v>
       </c>
       <c r="K27" s="29">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="L27" s="30">
-        <v>43214</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31">
-        <v>-41.75</v>
+        <v>267.05</v>
       </c>
       <c r="C28" s="32">
-        <v>-17</v>
+        <v>289</v>
       </c>
       <c r="D28" s="32">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E28" s="32">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F28" s="32">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="G28" s="33">
-        <v>0.52300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H28" s="32">
-        <v>227</v>
+        <v>561</v>
       </c>
       <c r="I28" s="32">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="J28" s="32">
-        <v>-72</v>
+        <v>530</v>
       </c>
       <c r="K28" s="34">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="L28" s="30">
-        <v>43213</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
-        <v>111.87</v>
+        <v>506.45</v>
       </c>
       <c r="C29" s="19">
-        <v>-70</v>
+        <v>178</v>
       </c>
       <c r="D29" s="19">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="E29" s="19">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="F29" s="19">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="G29" s="20">
-        <v>0.52200000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="H29" s="19">
-        <v>3121</v>
+        <v>3415</v>
       </c>
       <c r="I29" s="19">
-        <v>3114</v>
+        <v>2084</v>
       </c>
       <c r="J29" s="19">
-        <v>7</v>
+        <v>1331</v>
       </c>
       <c r="K29" s="21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="51"/>
@@ -3296,389 +3311,389 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>306.82</v>
+        <v>164.88</v>
       </c>
       <c r="C34" s="27">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="D34" s="27">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="E34" s="27">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="F34" s="27">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="G34" s="28">
-        <v>0.80400000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="H34" s="27">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="I34" s="27">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="J34" s="27">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="K34" s="29">
-        <v>1.1200000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="L34" s="30">
-        <v>43224</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>-164.19</v>
+        <v>296.91000000000003</v>
       </c>
       <c r="C35" s="27">
-        <v>-206</v>
+        <v>503</v>
       </c>
       <c r="D35" s="27">
-        <v>181</v>
+        <v>509</v>
       </c>
       <c r="E35" s="27">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="F35" s="27">
-        <v>-228</v>
+        <v>433</v>
       </c>
       <c r="G35" s="28">
-        <v>0.3</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="H35" s="27">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="I35" s="27">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="J35" s="27">
-        <v>-55</v>
+        <v>278</v>
       </c>
       <c r="K35" s="29">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L35" s="30">
-        <v>43223</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>27.13</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C36" s="27">
-        <v>6</v>
+        <v>-24</v>
       </c>
       <c r="D36" s="27">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E36" s="27">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="F36" s="27">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G36" s="28">
-        <v>0.50900000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="H36" s="27">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="I36" s="27">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="J36" s="27">
-        <v>-10</v>
+        <v>66</v>
       </c>
       <c r="K36" s="29">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="L36" s="30">
-        <v>43222</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>110.92</v>
+        <v>-128.78</v>
       </c>
       <c r="C37" s="27">
-        <v>254</v>
+        <v>-107</v>
       </c>
       <c r="D37" s="27">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="E37" s="27">
-        <v>219</v>
+        <v>397</v>
       </c>
       <c r="F37" s="27">
-        <v>150</v>
+        <v>-211</v>
       </c>
       <c r="G37" s="28">
-        <v>0.61199999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="H37" s="27">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="I37" s="27">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J37" s="27">
-        <v>-4</v>
+        <v>-54</v>
       </c>
       <c r="K37" s="29">
-        <v>1.19</v>
+        <v>0.93</v>
       </c>
       <c r="L37" s="30">
-        <v>43221</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>-220.52</v>
+        <v>53.03</v>
       </c>
       <c r="C38" s="27">
-        <v>-284</v>
+        <v>106</v>
       </c>
       <c r="D38" s="27">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="E38" s="27">
-        <v>467</v>
+        <v>288</v>
       </c>
       <c r="F38" s="27">
-        <v>-348</v>
+        <v>-4</v>
       </c>
       <c r="G38" s="28">
-        <v>0.19700000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="H38" s="27">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="I38" s="27">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="J38" s="27">
-        <v>-216</v>
+        <v>-26</v>
       </c>
       <c r="K38" s="29">
-        <v>1.1499999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="L38" s="30">
-        <v>43220</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>-78.48</v>
+        <v>125.45</v>
       </c>
       <c r="C39" s="27">
-        <v>-103</v>
+        <v>153</v>
       </c>
       <c r="D39" s="27">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="E39" s="27">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="F39" s="27">
-        <v>-60</v>
+        <v>185</v>
       </c>
       <c r="G39" s="28">
-        <v>0.438</v>
+        <v>0.63</v>
       </c>
       <c r="H39" s="27">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="I39" s="27">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="J39" s="27">
-        <v>-4</v>
+        <v>111</v>
       </c>
       <c r="K39" s="29">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="L39" s="30">
-        <v>43217</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>85.13</v>
+        <v>70.59</v>
       </c>
       <c r="C40" s="27">
-        <v>-74</v>
+        <v>-185</v>
       </c>
       <c r="D40" s="27">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="E40" s="27">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="F40" s="27">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="G40" s="28">
-        <v>0.56899999999999995</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="H40" s="27">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="I40" s="27">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="J40" s="27">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="K40" s="29">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="L40" s="30">
-        <v>43216</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-47.96</v>
+        <v>207.52</v>
       </c>
       <c r="C41" s="27">
-        <v>-135</v>
+        <v>344</v>
       </c>
       <c r="D41" s="27">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="E41" s="27">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="F41" s="27">
-        <v>-19</v>
+        <v>206</v>
       </c>
       <c r="G41" s="28">
-        <v>0.46100000000000002</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="H41" s="27">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="I41" s="27">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J41" s="27">
-        <v>-34</v>
+        <v>30</v>
       </c>
       <c r="K41" s="29">
-        <v>0.98</v>
+        <v>1.22</v>
       </c>
       <c r="L41" s="30">
-        <v>43215</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="26">
-        <v>-147.80000000000001</v>
+        <v>178.16</v>
       </c>
       <c r="C42" s="27">
-        <v>-156</v>
+        <v>206</v>
       </c>
       <c r="D42" s="27">
-        <v>237</v>
+        <v>410</v>
       </c>
       <c r="E42" s="27">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="F42" s="27">
-        <v>-102</v>
+        <v>236</v>
       </c>
       <c r="G42" s="28">
-        <v>0.39300000000000002</v>
+        <v>0.68</v>
       </c>
       <c r="H42" s="27">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="I42" s="27">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="J42" s="27">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="K42" s="29">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="L42" s="30">
-        <v>43214</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="31">
-        <v>-17.420000000000002</v>
+        <v>306.83</v>
       </c>
       <c r="C43" s="32">
-        <v>-14</v>
+        <v>394</v>
       </c>
       <c r="D43" s="32">
-        <v>273</v>
+        <v>484</v>
       </c>
       <c r="E43" s="32">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="F43" s="32">
-        <v>-33</v>
+        <v>382</v>
       </c>
       <c r="G43" s="33">
-        <v>0.45300000000000001</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="H43" s="32">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="I43" s="32">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="J43" s="32">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="K43" s="34">
-        <v>0.97</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L43" s="30">
-        <v>43213</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
-        <v>-146.38999999999999</v>
+        <v>1275.73</v>
       </c>
       <c r="C44" s="19">
-        <v>-313</v>
+        <v>1620</v>
       </c>
       <c r="D44" s="19">
-        <v>2856</v>
+        <v>3799</v>
       </c>
       <c r="E44" s="19">
-        <v>2976</v>
+        <v>2008</v>
       </c>
       <c r="F44" s="19">
-        <v>-120</v>
+        <v>1791</v>
       </c>
       <c r="G44" s="20">
-        <v>0.49</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H44" s="19">
-        <v>1909</v>
+        <v>2285</v>
       </c>
       <c r="I44" s="19">
-        <v>1760</v>
+        <v>1290</v>
       </c>
       <c r="J44" s="19">
-        <v>149</v>
+        <v>995</v>
       </c>
       <c r="K44" s="21">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
@@ -3756,389 +3771,389 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>992.05</v>
+        <v>112.35</v>
       </c>
       <c r="C49" s="27">
-        <v>954</v>
+        <v>109</v>
       </c>
       <c r="D49" s="27">
-        <v>1138</v>
+        <v>795</v>
       </c>
       <c r="E49" s="27">
-        <v>233</v>
+        <v>607</v>
       </c>
       <c r="F49" s="27">
-        <v>905</v>
+        <v>188</v>
       </c>
       <c r="G49" s="28">
-        <v>0.81499999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="H49" s="27">
-        <v>3014</v>
+        <v>1732</v>
       </c>
       <c r="I49" s="27">
-        <v>569</v>
+        <v>1609</v>
       </c>
       <c r="J49" s="27">
-        <v>2445</v>
+        <v>122</v>
       </c>
       <c r="K49" s="29">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="L49" s="30">
-        <v>43224</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>-236.31</v>
+        <v>548.66</v>
       </c>
       <c r="C50" s="27">
-        <v>-495</v>
+        <v>481</v>
       </c>
       <c r="D50" s="27">
-        <v>573</v>
+        <v>1023</v>
       </c>
       <c r="E50" s="27">
-        <v>796</v>
+        <v>392</v>
       </c>
       <c r="F50" s="27">
-        <v>-223</v>
+        <v>631</v>
       </c>
       <c r="G50" s="28">
-        <v>0.41</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="H50" s="27">
-        <v>1691</v>
+        <v>2439</v>
       </c>
       <c r="I50" s="27">
-        <v>2571</v>
+        <v>918</v>
       </c>
       <c r="J50" s="27">
-        <v>-880</v>
+        <v>1521</v>
       </c>
       <c r="K50" s="29">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L50" s="30">
-        <v>43223</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>-457.49</v>
+        <v>-490.68</v>
       </c>
       <c r="C51" s="27">
-        <v>-940</v>
+        <v>-526</v>
       </c>
       <c r="D51" s="27">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E51" s="27">
-        <v>796</v>
+        <v>836</v>
       </c>
       <c r="F51" s="27">
-        <v>-228</v>
+        <v>-261</v>
       </c>
       <c r="G51" s="28">
-        <v>0.40699999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="H51" s="27">
-        <v>1561</v>
+        <v>1406</v>
       </c>
       <c r="I51" s="27">
-        <v>2639</v>
+        <v>2104</v>
       </c>
       <c r="J51" s="27">
-        <v>-1078</v>
+        <v>-698</v>
       </c>
       <c r="K51" s="29">
-        <v>1.1299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="L51" s="30">
-        <v>43222</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>155.81</v>
+        <v>-32.06</v>
       </c>
       <c r="C52" s="27">
-        <v>-262</v>
+        <v>24</v>
       </c>
       <c r="D52" s="27">
-        <v>762</v>
+        <v>681</v>
       </c>
       <c r="E52" s="27">
-        <v>610</v>
+        <v>731</v>
       </c>
       <c r="F52" s="27">
-        <v>152</v>
+        <v>-50</v>
       </c>
       <c r="G52" s="28">
-        <v>0.54600000000000004</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="H52" s="27">
-        <v>1974</v>
+        <v>1900</v>
       </c>
       <c r="I52" s="27">
-        <v>1854</v>
+        <v>1432</v>
       </c>
       <c r="J52" s="27">
-        <v>119</v>
+        <v>468</v>
       </c>
       <c r="K52" s="29">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="L52" s="30">
-        <v>43221</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>-635.89</v>
+        <v>146.06</v>
       </c>
       <c r="C53" s="27">
-        <v>-762</v>
+        <v>206</v>
       </c>
       <c r="D53" s="27">
-        <v>387</v>
+        <v>743</v>
       </c>
       <c r="E53" s="27">
-        <v>984</v>
+        <v>662</v>
       </c>
       <c r="F53" s="27">
-        <v>-597</v>
+        <v>81</v>
       </c>
       <c r="G53" s="28">
-        <v>0.27700000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="H53" s="27">
-        <v>1153</v>
+        <v>1638</v>
       </c>
       <c r="I53" s="27">
-        <v>2816</v>
+        <v>1613</v>
       </c>
       <c r="J53" s="27">
-        <v>-1662</v>
+        <v>25</v>
       </c>
       <c r="K53" s="29">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="L53" s="30">
-        <v>43220</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>78.319999999999993</v>
+        <v>707.16</v>
       </c>
       <c r="C54" s="27">
-        <v>-162</v>
+        <v>739</v>
       </c>
       <c r="D54" s="27">
-        <v>781</v>
+        <v>1062</v>
       </c>
       <c r="E54" s="27">
-        <v>589</v>
+        <v>350</v>
       </c>
       <c r="F54" s="27">
-        <v>192</v>
+        <v>712</v>
       </c>
       <c r="G54" s="28">
-        <v>0.55900000000000005</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H54" s="27">
-        <v>1842</v>
+        <v>2758</v>
       </c>
       <c r="I54" s="27">
-        <v>1742</v>
+        <v>792</v>
       </c>
       <c r="J54" s="27">
-        <v>100</v>
+        <v>1965</v>
       </c>
       <c r="K54" s="29">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L54" s="30">
-        <v>43217</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>842.17</v>
+        <v>665.41</v>
       </c>
       <c r="C55" s="27">
-        <v>1183</v>
+        <v>411</v>
       </c>
       <c r="D55" s="27">
-        <v>958</v>
+        <v>1003</v>
       </c>
       <c r="E55" s="27">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F55" s="27">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="G55" s="28">
-        <v>0.68600000000000005</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H55" s="27">
-        <v>2777</v>
+        <v>2800</v>
       </c>
       <c r="I55" s="27">
-        <v>1329</v>
+        <v>1217</v>
       </c>
       <c r="J55" s="27">
-        <v>1447</v>
+        <v>1583</v>
       </c>
       <c r="K55" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="L55" s="30">
-        <v>43216</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>42.96</v>
+        <v>130.68</v>
       </c>
       <c r="C56" s="27">
-        <v>-53</v>
+        <v>106</v>
       </c>
       <c r="D56" s="27">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E56" s="27">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="F56" s="27">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G56" s="28">
-        <v>0.52900000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H56" s="27">
-        <v>1870</v>
+        <v>2109</v>
       </c>
       <c r="I56" s="27">
-        <v>1998</v>
+        <v>1819</v>
       </c>
       <c r="J56" s="27">
-        <v>-127</v>
+        <v>290</v>
       </c>
       <c r="K56" s="29">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="L56" s="30">
-        <v>43215</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="26">
-        <v>-1147.1300000000001</v>
+        <v>514.91999999999996</v>
       </c>
       <c r="C57" s="27">
-        <v>-1833</v>
+        <v>528</v>
       </c>
       <c r="D57" s="27">
-        <v>409</v>
+        <v>944</v>
       </c>
       <c r="E57" s="27">
-        <v>964</v>
+        <v>466</v>
       </c>
       <c r="F57" s="27">
-        <v>-555</v>
+        <v>478</v>
       </c>
       <c r="G57" s="28">
-        <v>0.29299999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H57" s="27">
-        <v>1281</v>
+        <v>2298</v>
       </c>
       <c r="I57" s="27">
-        <v>2820</v>
+        <v>1217</v>
       </c>
       <c r="J57" s="27">
-        <v>-1539</v>
+        <v>1081</v>
       </c>
       <c r="K57" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L57" s="30">
-        <v>43214</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="31">
-        <v>-103.13</v>
+        <v>1007.03</v>
       </c>
       <c r="C58" s="32">
-        <v>-244</v>
+        <v>1003</v>
       </c>
       <c r="D58" s="32">
-        <v>700</v>
+        <v>1170</v>
       </c>
       <c r="E58" s="32">
-        <v>659</v>
+        <v>246</v>
       </c>
       <c r="F58" s="32">
-        <v>41</v>
+        <v>924</v>
       </c>
       <c r="G58" s="33">
-        <v>0.501</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H58" s="32">
-        <v>1692</v>
+        <v>3056</v>
       </c>
       <c r="I58" s="32">
-        <v>1564</v>
+        <v>586</v>
       </c>
       <c r="J58" s="32">
-        <v>127</v>
+        <v>2469</v>
       </c>
       <c r="K58" s="34">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="L58" s="30">
-        <v>43213</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="18">
-        <v>-468.65</v>
+        <v>3309.55</v>
       </c>
       <c r="C59" s="19">
-        <v>-2614</v>
+        <v>3081</v>
       </c>
       <c r="D59" s="19">
-        <v>7015</v>
+        <v>8751</v>
       </c>
       <c r="E59" s="19">
-        <v>6668</v>
+        <v>5357</v>
       </c>
       <c r="F59" s="19">
-        <v>347</v>
+        <v>3394</v>
       </c>
       <c r="G59" s="20">
-        <v>0.51300000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="H59" s="19">
-        <v>18858</v>
+        <v>22140</v>
       </c>
       <c r="I59" s="19">
-        <v>19907</v>
+        <v>13311</v>
       </c>
       <c r="J59" s="19">
-        <v>-1049</v>
+        <v>8829</v>
       </c>
       <c r="K59" s="21">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="44"/>
       <c r="C60" s="45"/>
@@ -4210,389 +4225,389 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>24.35</v>
+        <v>1.72</v>
       </c>
       <c r="C64" s="27">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D64" s="27">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E64" s="27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F64" s="27">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G64" s="28">
-        <v>1</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H64" s="27">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="I64" s="27">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="J64" s="27">
-        <v>286</v>
+        <v>-66</v>
       </c>
       <c r="K64" s="29">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="L64" s="30">
-        <v>43224</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>-5.05</v>
+        <v>11.17</v>
       </c>
       <c r="C65" s="27">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="27">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E65" s="27">
+        <v>2</v>
+      </c>
+      <c r="F65" s="27">
         <v>15</v>
       </c>
-      <c r="F65" s="27">
-        <v>-11</v>
-      </c>
       <c r="G65" s="28">
-        <v>0.21099999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H65" s="27">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="I65" s="27">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="J65" s="27">
-        <v>-329</v>
+        <v>186</v>
       </c>
       <c r="K65" s="29">
-        <v>1.21</v>
+        <v>0.72</v>
       </c>
       <c r="L65" s="30">
-        <v>43223</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>-9.82</v>
+        <v>-12.31</v>
       </c>
       <c r="C66" s="27">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="D66" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" s="27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" s="27">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="G66" s="28">
-        <v>0.158</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H66" s="27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I66" s="27">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="J66" s="27">
-        <v>-240</v>
+        <v>-249</v>
       </c>
       <c r="K66" s="29">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="L66" s="30">
-        <v>43222</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>4.42</v>
+        <v>1.53</v>
       </c>
       <c r="C67" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E67" s="27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F67" s="27">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="G67" s="28">
-        <v>0.63200000000000001</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H67" s="27">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="I67" s="27">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J67" s="27">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="K67" s="29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="L67" s="30">
-        <v>43221</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>-17.25</v>
+        <v>6.91</v>
       </c>
       <c r="C68" s="27">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="D68" s="27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E68" s="27">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F68" s="27">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28">
-        <v>0</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H68" s="27">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I68" s="27">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="J68" s="27">
-        <v>-276</v>
+        <v>68</v>
       </c>
       <c r="K68" s="29">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="L68" s="30">
-        <v>43220</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>1.1299999999999999</v>
+        <v>14.67</v>
       </c>
       <c r="C69" s="27">
+        <v>11</v>
+      </c>
+      <c r="D69" s="27">
+        <v>18</v>
+      </c>
+      <c r="E69" s="27">
         <v>1</v>
       </c>
-      <c r="D69" s="27">
-        <v>11</v>
-      </c>
-      <c r="E69" s="27">
-        <v>8</v>
-      </c>
       <c r="F69" s="27">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G69" s="28">
-        <v>0.57899999999999996</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H69" s="27">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="I69" s="27">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="J69" s="27">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="K69" s="29">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="L69" s="30">
-        <v>43217</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>18.97</v>
+        <v>15.07</v>
       </c>
       <c r="C70" s="27">
         <v>14</v>
       </c>
       <c r="D70" s="27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G70" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H70" s="27">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I70" s="27">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J70" s="27">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K70" s="29">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="L70" s="30">
-        <v>43216</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>3.5</v>
+        <v>0.59</v>
       </c>
       <c r="C71" s="27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D71" s="27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E71" s="27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71" s="27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G71" s="28">
-        <v>0.73699999999999999</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H71" s="27">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="I71" s="27">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J71" s="27">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="K71" s="29">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="L71" s="30">
-        <v>43215</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
-        <v>-23.37</v>
+        <v>8</v>
       </c>
       <c r="C72" s="27">
-        <v>-39</v>
+        <v>5</v>
       </c>
       <c r="D72" s="27">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E72" s="27">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F72" s="27">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="G72" s="28">
-        <v>0.158</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H72" s="27">
+        <v>201</v>
+      </c>
+      <c r="I72" s="27">
         <v>29</v>
       </c>
-      <c r="I72" s="27">
-        <v>397</v>
-      </c>
       <c r="J72" s="27">
-        <v>-368</v>
+        <v>172</v>
       </c>
       <c r="K72" s="29">
-        <v>1.18</v>
+        <v>0.77</v>
       </c>
       <c r="L72" s="30">
-        <v>43214</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="31">
-        <v>0.1</v>
+        <v>24.35</v>
       </c>
       <c r="C73" s="32">
+        <v>21</v>
+      </c>
+      <c r="D73" s="32">
+        <v>19</v>
+      </c>
+      <c r="E73" s="32">
         <v>0</v>
       </c>
-      <c r="D73" s="32">
-        <v>7</v>
-      </c>
-      <c r="E73" s="32">
-        <v>12</v>
-      </c>
       <c r="F73" s="32">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="G73" s="33">
-        <v>0.36799999999999999</v>
+        <v>1</v>
       </c>
       <c r="H73" s="32">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="I73" s="32">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="J73" s="32">
-        <v>-162</v>
+        <v>286</v>
       </c>
       <c r="K73" s="34">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="L73" s="30">
-        <v>43213</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="18">
-        <v>-3.02</v>
+        <v>71.7</v>
       </c>
       <c r="C74" s="19">
-        <v>-28</v>
+        <v>52</v>
       </c>
       <c r="D74" s="19">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E74" s="19">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F74" s="19">
-        <v>-8</v>
+        <v>74</v>
       </c>
       <c r="G74" s="20">
-        <v>0.47899999999999998</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="H74" s="19">
-        <v>1399</v>
+        <v>1701</v>
       </c>
       <c r="I74" s="19">
-        <v>1788</v>
+        <v>754</v>
       </c>
       <c r="J74" s="19">
-        <v>-389</v>
+        <v>947</v>
       </c>
       <c r="K74" s="21">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="44"/>
       <c r="C75" s="45"/>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAFEBA-1731-4C10-A262-DC26344446CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CB930D-05F6-4EC0-B512-AF6809804B00}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -325,19 +325,19 @@
     <t>0 means 50% above MA</t>
   </si>
   <si>
-    <t>Up 3.10 Points per Component with overall change of -3.44% from closing price 2720.13 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 4.73 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 2.13 Points per Component with overall change of -5.70% from closing price 1001.02 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 2.30 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 3.77 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 1.80 Points per Component with overall change of -1.86% from closing price 2712.97 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.18 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.71 Points per Component with overall change of -4.55% from closing price 1002.57 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.49 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.34 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1160,86 +1160,86 @@
         <v>78</v>
       </c>
       <c r="D4" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="11">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="I4" s="13">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
         <v>6</v>
-      </c>
-      <c r="F5" s="10">
-        <v>5</v>
       </c>
       <c r="G5" s="10">
         <v>6</v>
       </c>
       <c r="H5" s="12">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15">
         <v>6.25</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.5</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10">
         <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="10">
-        <v>6</v>
       </c>
       <c r="E6" s="10">
         <v>9</v>
       </c>
       <c r="F6" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="15">
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -1250,56 +1250,56 @@
         <v>72</v>
       </c>
       <c r="D7" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="10">
         <v>6</v>
       </c>
       <c r="F7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="12">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I7" s="15">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="12">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I8" s="15">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -1310,26 +1310,26 @@
         <v>55</v>
       </c>
       <c r="D9" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
       </c>
       <c r="F9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="12">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I9" s="15">
-        <v>0.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1343,23 +1343,23 @@
         <v>5</v>
       </c>
       <c r="E10" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="12">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I10" s="15">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1370,86 +1370,86 @@
         <v>86</v>
       </c>
       <c r="D11" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="10">
         <v>5</v>
       </c>
       <c r="G11" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="12">
         <v>5</v>
       </c>
       <c r="I11" s="15">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="10">
-        <v>5</v>
-      </c>
       <c r="G12" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="12">
         <v>4.75</v>
       </c>
       <c r="I12" s="15">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="12">
         <v>4.5</v>
       </c>
       <c r="I13" s="15">
-        <v>-2.75</v>
+        <v>4</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1475,41 +1475,41 @@
         <v>4.25</v>
       </c>
       <c r="I14" s="15">
-        <v>-1.75</v>
+        <v>4.25</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="10">
         <v>3</v>
       </c>
       <c r="F15" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="10">
         <v>5</v>
       </c>
       <c r="H15" s="12">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I15" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="L15" s="54" t="s">
         <v>97</v>
@@ -1523,26 +1523,26 @@
         <v>96</v>
       </c>
       <c r="D16" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10">
         <v>2</v>
       </c>
       <c r="F16" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="12">
         <v>4</v>
       </c>
-      <c r="H16" s="12">
-        <v>3.25</v>
-      </c>
       <c r="I16" s="15">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L16" s="54" t="s">
         <v>98</v>
@@ -1550,160 +1550,160 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="10">
-        <v>2</v>
-      </c>
       <c r="G17" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="I17" s="15">
-        <v>-0.25</v>
+        <v>5.5</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D18" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <v>3</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18" s="12">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="I18" s="15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D19" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="10">
         <v>2</v>
       </c>
       <c r="G19" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="12">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="I19" s="15">
-        <v>-2</v>
+        <v>2.5</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D20" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>5</v>
+      </c>
+      <c r="H20" s="12">
         <v>3</v>
       </c>
-      <c r="F20" s="10">
+      <c r="I20" s="15">
         <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>2</v>
-      </c>
-      <c r="H20" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="I20" s="15">
-        <v>-1</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D21" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="10">
         <v>2</v>
       </c>
       <c r="F21" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G21" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I21" s="15">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D22" s="10">
         <v>3</v>
@@ -1721,49 +1721,49 @@
         <v>2</v>
       </c>
       <c r="I22" s="15">
-        <v>-0.25</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D23" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G23" s="10">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12">
         <v>2</v>
       </c>
       <c r="I23" s="15">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D24" s="10">
         <v>4</v>
@@ -1781,289 +1781,289 @@
         <v>2</v>
       </c>
       <c r="I24" s="15">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D25" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="10">
         <v>2</v>
       </c>
       <c r="F25" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
       </c>
       <c r="H25" s="12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I25" s="15">
-        <v>-2.5</v>
+        <v>-3.25</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
       </c>
       <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
         <v>2</v>
       </c>
-      <c r="G26" s="10">
-        <v>4</v>
-      </c>
       <c r="H26" s="12">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="I26" s="15">
-        <v>-2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="10">
         <v>3</v>
       </c>
       <c r="E27" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
       <c r="G27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="12">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="I27" s="15">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
       <c r="G28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I28" s="15">
-        <v>-1.75</v>
+        <v>2.25</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
       </c>
       <c r="G29" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
       </c>
       <c r="I29" s="15">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D30" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I30" s="15">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="10">
         <v>1</v>
       </c>
       <c r="H31" s="12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I31" s="15">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D32" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="10">
         <v>-1</v>
       </c>
       <c r="G33" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I33" s="15">
-        <v>-4.75</v>
+        <v>0.25</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -2072,200 +2072,200 @@
         <v>0</v>
       </c>
       <c r="F34" s="10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="I34" s="15">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="10">
         <v>-1</v>
       </c>
       <c r="F35" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G35" s="10">
         <v>-2</v>
       </c>
       <c r="H35" s="12">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="I35" s="15">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D36" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="10">
         <v>-1</v>
       </c>
       <c r="F36" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G36" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12">
         <v>-1.25</v>
       </c>
       <c r="I36" s="15">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E37" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F37" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G37" s="10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H37" s="12">
-        <v>-1.75</v>
+        <v>-4</v>
       </c>
       <c r="I37" s="15">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D38" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E38" s="10">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F38" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G38" s="10">
         <v>-3</v>
       </c>
-      <c r="G38" s="10">
-        <v>-2</v>
-      </c>
       <c r="H38" s="12">
-        <v>-1.75</v>
+        <v>-4.5</v>
       </c>
       <c r="I38" s="15">
-        <v>-4.5</v>
+        <v>-4.75</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D39" s="10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E39" s="10">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F39" s="10">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G39" s="10">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="H39" s="12">
-        <v>-2.75</v>
+        <v>-5.75</v>
       </c>
       <c r="I39" s="15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>-5.25</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="10">
+        <v>-9</v>
+      </c>
+      <c r="E40" s="10">
+        <v>-5</v>
+      </c>
+      <c r="F40" s="10">
+        <v>-7</v>
+      </c>
+      <c r="G40" s="10">
+        <v>-6</v>
+      </c>
+      <c r="H40" s="35">
+        <v>-6.75</v>
+      </c>
+      <c r="I40" s="36">
         <v>-3</v>
-      </c>
-      <c r="E40" s="10">
-        <v>-6</v>
-      </c>
-      <c r="F40" s="10">
-        <v>-5</v>
-      </c>
-      <c r="G40" s="10">
-        <v>-4</v>
-      </c>
-      <c r="H40" s="35">
-        <v>-4.5</v>
-      </c>
-      <c r="I40" s="36">
-        <v>-6.25</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2273,31 +2273,31 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>3.0270270270270272</v>
+        <v>3.2702702702702702</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="1"/>
-        <v>2.2162162162162162</v>
+        <v>1.7297297297297298</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="1"/>
-        <v>1.0810810810810811</v>
+        <v>1.1351351351351351</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="1"/>
-        <v>2.5675675675675675</v>
+        <v>2.6486486486486487</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>2.2229729729729728</v>
+        <v>2.1959459459459461</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="1"/>
-        <v>-0.81756756756756754</v>
+        <v>2.0675675675675675</v>
       </c>
       <c r="J41" s="40">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>3.0405405405405403</v>
+        <v>0.12837837837837851</v>
       </c>
     </row>
   </sheetData>
@@ -2314,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2396,384 +2396,384 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>36.65</v>
+        <v>-41.47</v>
       </c>
       <c r="C4" s="27">
-        <v>34</v>
+        <v>-61</v>
       </c>
       <c r="D4" s="27">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="E4" s="27">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="F4" s="27">
-        <v>28</v>
+        <v>-55</v>
       </c>
       <c r="G4" s="28">
-        <v>0.51800000000000002</v>
+        <v>0.439</v>
       </c>
       <c r="H4" s="27">
-        <v>875</v>
+        <v>719</v>
       </c>
       <c r="I4" s="27">
-        <v>924</v>
+        <v>1264</v>
       </c>
       <c r="J4" s="27">
-        <v>-49</v>
+        <v>-545</v>
       </c>
       <c r="K4" s="29">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="L4" s="30">
-        <v>43237</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>230.73</v>
+        <v>36.65</v>
       </c>
       <c r="C5" s="27">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="D5" s="27">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="E5" s="27">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="F5" s="27">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="G5" s="28">
-        <v>0.64200000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="H5" s="27">
-        <v>1301</v>
+        <v>875</v>
       </c>
       <c r="I5" s="27">
-        <v>583</v>
+        <v>924</v>
       </c>
       <c r="J5" s="27">
-        <v>717</v>
+        <v>-49</v>
       </c>
       <c r="K5" s="29">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="L5" s="30">
-        <v>43236</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>-385.84</v>
+        <v>230.73</v>
       </c>
       <c r="C6" s="27">
-        <v>-402</v>
+        <v>180</v>
       </c>
       <c r="D6" s="27">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="E6" s="27">
-        <v>331</v>
+        <v>175</v>
       </c>
       <c r="F6" s="27">
-        <v>-165</v>
+        <v>150</v>
       </c>
       <c r="G6" s="28">
-        <v>0.32800000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="H6" s="27">
-        <v>737</v>
+        <v>1301</v>
       </c>
       <c r="I6" s="27">
-        <v>1182</v>
+        <v>583</v>
       </c>
       <c r="J6" s="27">
-        <v>-445</v>
+        <v>717</v>
       </c>
       <c r="K6" s="29">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="L6" s="30">
-        <v>43235</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>-14.46</v>
+        <v>-385.84</v>
       </c>
       <c r="C7" s="27">
-        <v>-2</v>
+        <v>-403</v>
       </c>
       <c r="D7" s="27">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="E7" s="27">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="F7" s="27">
-        <v>-47</v>
+        <v>-165</v>
       </c>
       <c r="G7" s="28">
-        <v>0.44500000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="H7" s="27">
-        <v>1007</v>
+        <v>737</v>
       </c>
       <c r="I7" s="27">
-        <v>811</v>
+        <v>1182</v>
       </c>
       <c r="J7" s="27">
-        <v>196</v>
+        <v>-445</v>
       </c>
       <c r="K7" s="29">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="L7" s="30">
-        <v>43234</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>118.47</v>
+        <v>-14.46</v>
       </c>
       <c r="C8" s="27">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="27">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="E8" s="27">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="F8" s="27">
-        <v>105</v>
+        <v>-47</v>
       </c>
       <c r="G8" s="28">
-        <v>0.59899999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H8" s="27">
-        <v>962</v>
+        <v>1007</v>
       </c>
       <c r="I8" s="27">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="J8" s="27">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="K8" s="29">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="L8" s="30">
-        <v>43231</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>346.74</v>
+        <v>118.47</v>
       </c>
       <c r="C9" s="27">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D9" s="27">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="E9" s="27">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="F9" s="27">
-        <v>352</v>
+        <v>105</v>
       </c>
       <c r="G9" s="28">
-        <v>0.84399999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H9" s="27">
-        <v>1588</v>
+        <v>962</v>
       </c>
       <c r="I9" s="27">
-        <v>260</v>
+        <v>843</v>
       </c>
       <c r="J9" s="27">
-        <v>1328</v>
+        <v>119</v>
       </c>
       <c r="K9" s="29">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L9" s="30">
-        <v>43230</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>475.41</v>
+        <v>346.74</v>
       </c>
       <c r="C10" s="27">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="D10" s="27">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="E10" s="27">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F10" s="27">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="G10" s="28">
-        <v>0.73899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="H10" s="27">
-        <v>1510</v>
+        <v>1588</v>
       </c>
       <c r="I10" s="27">
-        <v>573</v>
+        <v>260</v>
       </c>
       <c r="J10" s="27">
-        <v>936</v>
+        <v>1328</v>
       </c>
       <c r="K10" s="29">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="L10" s="30">
-        <v>43229</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>-16.149999999999999</v>
+        <v>475.41</v>
       </c>
       <c r="C11" s="27">
-        <v>5</v>
+        <v>475</v>
       </c>
       <c r="D11" s="27">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="E11" s="27">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="F11" s="27">
-        <v>-10</v>
+        <v>247</v>
       </c>
       <c r="G11" s="28">
-        <v>0.48</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="H11" s="27">
-        <v>1067</v>
+        <v>1510</v>
       </c>
       <c r="I11" s="27">
-        <v>1049</v>
+        <v>573</v>
       </c>
       <c r="J11" s="27">
-        <v>17</v>
+        <v>936</v>
       </c>
       <c r="K11" s="29">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="L11" s="30">
-        <v>43228</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
-        <v>156.66999999999999</v>
+        <v>-16.149999999999999</v>
       </c>
       <c r="C12" s="27">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D12" s="27">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="E12" s="27">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="F12" s="27">
-        <v>78</v>
+        <v>-10</v>
       </c>
       <c r="G12" s="28">
-        <v>0.57299999999999995</v>
+        <v>0.48</v>
       </c>
       <c r="H12" s="27">
-        <v>1166</v>
+        <v>1067</v>
       </c>
       <c r="I12" s="27">
-        <v>756</v>
+        <v>1049</v>
       </c>
       <c r="J12" s="27">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="K12" s="29">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="L12" s="30">
-        <v>43227</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31">
-        <v>609.86</v>
+        <v>156.66999999999999</v>
       </c>
       <c r="C13" s="32">
-        <v>492</v>
+        <v>95</v>
       </c>
       <c r="D13" s="32">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="E13" s="32">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="F13" s="32">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="G13" s="33">
-        <v>0.88300000000000001</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="H13" s="32">
-        <v>1738</v>
+        <v>1166</v>
       </c>
       <c r="I13" s="32">
-        <v>168</v>
+        <v>756</v>
       </c>
       <c r="J13" s="32">
-        <v>1570</v>
+        <v>410</v>
       </c>
       <c r="K13" s="34">
         <v>0.93</v>
       </c>
       <c r="L13" s="30">
-        <v>43224</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
-        <v>1558.07</v>
+        <v>906.74</v>
       </c>
       <c r="C14" s="19">
-        <v>1003</v>
+        <v>462</v>
       </c>
       <c r="D14" s="19">
-        <v>3062</v>
+        <v>2837</v>
       </c>
       <c r="E14" s="19">
-        <v>1932</v>
+        <v>2154</v>
       </c>
       <c r="F14" s="19">
-        <v>1130</v>
+        <v>683</v>
       </c>
       <c r="G14" s="20">
-        <v>0.61299999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H14" s="19">
-        <v>11956</v>
+        <v>10937</v>
       </c>
       <c r="I14" s="19">
-        <v>7154</v>
+        <v>8251</v>
       </c>
       <c r="J14" s="19">
-        <v>4802</v>
+        <v>2686</v>
       </c>
       <c r="K14" s="21">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -2853,381 +2853,381 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>-39.61</v>
+        <v>-113.27</v>
       </c>
       <c r="C19" s="27">
-        <v>-88</v>
+        <v>-197</v>
       </c>
       <c r="D19" s="27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="27">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" s="27">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="G19" s="28">
-        <v>0.43</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H19" s="27">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="I19" s="27">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="J19" s="27">
-        <v>-186</v>
+        <v>-200</v>
       </c>
       <c r="K19" s="29">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="L19" s="30">
-        <v>43237</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>116.68</v>
+        <v>-39.61</v>
       </c>
       <c r="C20" s="27">
-        <v>75</v>
+        <v>-90</v>
       </c>
       <c r="D20" s="27">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E20" s="27">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F20" s="27">
-        <v>49</v>
+        <v>-14</v>
       </c>
       <c r="G20" s="28">
-        <v>0.72899999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="H20" s="27">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="I20" s="27">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="J20" s="27">
-        <v>252</v>
+        <v>-186</v>
       </c>
       <c r="K20" s="29">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="L20" s="30">
-        <v>43236</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>-183.38</v>
+        <v>116.68</v>
       </c>
       <c r="C21" s="27">
-        <v>-173</v>
+        <v>75</v>
       </c>
       <c r="D21" s="27">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E21" s="27">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F21" s="27">
-        <v>-55</v>
+        <v>49</v>
       </c>
       <c r="G21" s="28">
-        <v>0.24299999999999999</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="H21" s="27">
-        <v>167</v>
+        <v>379</v>
       </c>
       <c r="I21" s="27">
-        <v>391</v>
+        <v>127</v>
       </c>
       <c r="J21" s="27">
-        <v>-223</v>
+        <v>252</v>
       </c>
       <c r="K21" s="29">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="L21" s="30">
-        <v>43235</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>12.29</v>
+        <v>-183.38</v>
       </c>
       <c r="C22" s="27">
-        <v>9</v>
+        <v>-175</v>
       </c>
       <c r="D22" s="27">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E22" s="27">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F22" s="27">
-        <v>17</v>
+        <v>-55</v>
       </c>
       <c r="G22" s="28">
-        <v>0.56999999999999995</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H22" s="27">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="I22" s="27">
-        <v>182</v>
+        <v>391</v>
       </c>
       <c r="J22" s="27">
-        <v>158</v>
+        <v>-223</v>
       </c>
       <c r="K22" s="29">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="L22" s="30">
-        <v>43234</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>15.88</v>
+        <v>12.29</v>
       </c>
       <c r="C23" s="27">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="27">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E23" s="27">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F23" s="27">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G23" s="28">
-        <v>0.53300000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H23" s="27">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="I23" s="27">
-        <v>369</v>
+        <v>182</v>
       </c>
       <c r="J23" s="27">
-        <v>-161</v>
+        <v>158</v>
       </c>
       <c r="K23" s="29">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="L23" s="30">
-        <v>43231</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>40.909999999999997</v>
+        <v>15.88</v>
       </c>
       <c r="C24" s="27">
-        <v>-159</v>
+        <v>-14</v>
       </c>
       <c r="D24" s="27">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E24" s="27">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F24" s="27">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="G24" s="28">
-        <v>0.81299999999999994</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H24" s="27">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="I24" s="27">
-        <v>64</v>
+        <v>369</v>
       </c>
       <c r="J24" s="27">
-        <v>391</v>
+        <v>-161</v>
       </c>
       <c r="K24" s="29">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="L24" s="30">
-        <v>43230</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>187.59</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="C25" s="27">
-        <v>182</v>
+        <v>-165</v>
       </c>
       <c r="D25" s="27">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E25" s="27">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F25" s="27">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G25" s="28">
-        <v>0.73799999999999999</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H25" s="27">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="I25" s="27">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="J25" s="27">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="K25" s="29">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="L25" s="30">
-        <v>43229</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>-52.92</v>
+        <v>187.59</v>
       </c>
       <c r="C26" s="27">
-        <v>-58</v>
+        <v>185</v>
       </c>
       <c r="D26" s="27">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E26" s="27">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F26" s="27">
-        <v>-4</v>
+        <v>51</v>
       </c>
       <c r="G26" s="28">
-        <v>0.46700000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H26" s="27">
-        <v>258</v>
+        <v>435</v>
       </c>
       <c r="I26" s="27">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="J26" s="27">
-        <v>-62</v>
+        <v>313</v>
       </c>
       <c r="K26" s="29">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L26" s="30">
-        <v>43228</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
-        <v>141.96</v>
+        <v>-52.92</v>
       </c>
       <c r="C27" s="27">
-        <v>115</v>
+        <v>-62</v>
       </c>
       <c r="D27" s="27">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E27" s="27">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F27" s="27">
-        <v>53</v>
+        <v>-4</v>
       </c>
       <c r="G27" s="28">
-        <v>0.748</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="H27" s="27">
-        <v>438</v>
+        <v>258</v>
       </c>
       <c r="I27" s="27">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="J27" s="27">
-        <v>318</v>
+        <v>-62</v>
       </c>
       <c r="K27" s="29">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="L27" s="30">
-        <v>43227</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31">
-        <v>267.05</v>
+        <v>141.96</v>
       </c>
       <c r="C28" s="32">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="D28" s="32">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E28" s="32">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F28" s="32">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G28" s="33">
-        <v>0.89700000000000002</v>
+        <v>0.748</v>
       </c>
       <c r="H28" s="32">
-        <v>561</v>
+        <v>438</v>
       </c>
       <c r="I28" s="32">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="J28" s="32">
-        <v>530</v>
+        <v>318</v>
       </c>
       <c r="K28" s="34">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="L28" s="30">
-        <v>43224</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
-        <v>506.45</v>
+        <v>126.13</v>
       </c>
       <c r="C29" s="19">
-        <v>178</v>
+        <v>-316</v>
       </c>
       <c r="D29" s="19">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="E29" s="19">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="F29" s="19">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="G29" s="20">
-        <v>0.62</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="H29" s="19">
-        <v>3415</v>
+        <v>3036</v>
       </c>
       <c r="I29" s="19">
-        <v>2084</v>
+        <v>2437</v>
       </c>
       <c r="J29" s="19">
-        <v>1331</v>
+        <v>599</v>
       </c>
       <c r="K29" s="21">
         <v>0.96</v>
@@ -3311,384 +3311,384 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>164.88</v>
+        <v>52.75</v>
       </c>
       <c r="C34" s="27">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="D34" s="27">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="E34" s="27">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="F34" s="27">
-        <v>278</v>
+        <v>92</v>
       </c>
       <c r="G34" s="28">
-        <v>0.71</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="H34" s="27">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="I34" s="27">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J34" s="27">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="K34" s="29">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="L34" s="30">
-        <v>43237</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>296.91000000000003</v>
+        <v>165.88</v>
       </c>
       <c r="C35" s="27">
-        <v>503</v>
+        <v>229</v>
       </c>
       <c r="D35" s="27">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="E35" s="27">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="F35" s="27">
-        <v>433</v>
+        <v>279</v>
       </c>
       <c r="G35" s="28">
-        <v>0.84399999999999997</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="H35" s="27">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="I35" s="27">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="J35" s="27">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="K35" s="29">
-        <v>1.1000000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="L35" s="30">
-        <v>43236</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>1.1399999999999999</v>
+        <v>297.11</v>
       </c>
       <c r="C36" s="27">
-        <v>-24</v>
+        <v>487</v>
       </c>
       <c r="D36" s="27">
+        <v>510</v>
+      </c>
+      <c r="E36" s="27">
+        <v>76</v>
+      </c>
+      <c r="F36" s="27">
+        <v>434</v>
+      </c>
+      <c r="G36" s="28">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H36" s="27">
         <v>322</v>
       </c>
-      <c r="E36" s="27">
-        <v>251</v>
-      </c>
-      <c r="F36" s="27">
-        <v>71</v>
-      </c>
-      <c r="G36" s="28">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="H36" s="27">
-        <v>181</v>
-      </c>
       <c r="I36" s="27">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="J36" s="27">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="K36" s="29">
-        <v>0.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L36" s="30">
-        <v>43235</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>-128.78</v>
+        <v>1.49</v>
       </c>
       <c r="C37" s="27">
-        <v>-107</v>
+        <v>-24</v>
       </c>
       <c r="D37" s="27">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="E37" s="27">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="F37" s="27">
-        <v>-211</v>
+        <v>72</v>
       </c>
       <c r="G37" s="28">
-        <v>0.308</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="H37" s="27">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="I37" s="27">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="J37" s="27">
-        <v>-54</v>
+        <v>68</v>
       </c>
       <c r="K37" s="29">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L37" s="30">
-        <v>43234</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>53.03</v>
+        <v>-127.43</v>
       </c>
       <c r="C38" s="27">
-        <v>106</v>
+        <v>-98</v>
       </c>
       <c r="D38" s="27">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="E38" s="27">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="F38" s="27">
-        <v>-4</v>
+        <v>-210</v>
       </c>
       <c r="G38" s="28">
-        <v>0.47099999999999997</v>
+        <v>0.31</v>
       </c>
       <c r="H38" s="27">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I38" s="27">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="J38" s="27">
-        <v>-26</v>
+        <v>-44</v>
       </c>
       <c r="K38" s="29">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L38" s="30">
-        <v>43231</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>125.45</v>
+        <v>53.08</v>
       </c>
       <c r="C39" s="27">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="D39" s="27">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="E39" s="27">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="F39" s="27">
-        <v>185</v>
+        <v>-3</v>
       </c>
       <c r="G39" s="28">
-        <v>0.63</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="H39" s="27">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="I39" s="27">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="J39" s="27">
-        <v>111</v>
+        <v>-25</v>
       </c>
       <c r="K39" s="29">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="L39" s="30">
-        <v>43230</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>70.59</v>
+        <v>125.65</v>
       </c>
       <c r="C40" s="27">
-        <v>-185</v>
+        <v>152</v>
       </c>
       <c r="D40" s="27">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="E40" s="27">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F40" s="27">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="G40" s="28">
-        <v>0.66300000000000003</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H40" s="27">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="I40" s="27">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="J40" s="27">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="K40" s="29">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="L40" s="30">
-        <v>43229</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>207.52</v>
+        <v>70.64</v>
       </c>
       <c r="C41" s="27">
-        <v>344</v>
+        <v>-189</v>
       </c>
       <c r="D41" s="27">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E41" s="27">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F41" s="27">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G41" s="28">
-        <v>0.65700000000000003</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H41" s="27">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="I41" s="27">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="J41" s="27">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="K41" s="29">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="L41" s="30">
-        <v>43228</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="26">
-        <v>178.16</v>
+        <v>207.72</v>
       </c>
       <c r="C42" s="27">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="D42" s="27">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E42" s="27">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F42" s="27">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G42" s="28">
-        <v>0.68</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H42" s="27">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="I42" s="27">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="J42" s="27">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K42" s="29">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="L42" s="30">
-        <v>43227</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="31">
-        <v>306.83</v>
+        <v>178.21</v>
       </c>
       <c r="C43" s="32">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="D43" s="32">
-        <v>484</v>
+        <v>411</v>
       </c>
       <c r="E43" s="32">
+        <v>174</v>
+      </c>
+      <c r="F43" s="32">
+        <v>237</v>
+      </c>
+      <c r="G43" s="33">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H43" s="32">
+        <v>254</v>
+      </c>
+      <c r="I43" s="32">
         <v>102</v>
       </c>
-      <c r="F43" s="32">
-        <v>382</v>
-      </c>
-      <c r="G43" s="33">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="H43" s="32">
-        <v>276</v>
-      </c>
-      <c r="I43" s="32">
-        <v>87</v>
-      </c>
       <c r="J43" s="32">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="K43" s="34">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="L43" s="30">
-        <v>43224</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
-        <v>1275.73</v>
+        <v>1025.0999999999999</v>
       </c>
       <c r="C44" s="19">
-        <v>1620</v>
+        <v>1235</v>
       </c>
       <c r="D44" s="19">
-        <v>3799</v>
+        <v>3661</v>
       </c>
       <c r="E44" s="19">
-        <v>2008</v>
+        <v>2151</v>
       </c>
       <c r="F44" s="19">
-        <v>1791</v>
+        <v>1510</v>
       </c>
       <c r="G44" s="20">
-        <v>0.65400000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="H44" s="19">
-        <v>2285</v>
+        <v>2207</v>
       </c>
       <c r="I44" s="19">
-        <v>1290</v>
+        <v>1364</v>
       </c>
       <c r="J44" s="19">
-        <v>995</v>
+        <v>843</v>
       </c>
       <c r="K44" s="21">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3771,381 +3771,381 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>112.35</v>
+        <v>-133.08000000000001</v>
       </c>
       <c r="C49" s="27">
-        <v>109</v>
+        <v>-256</v>
       </c>
       <c r="D49" s="27">
-        <v>795</v>
+        <v>656</v>
       </c>
       <c r="E49" s="27">
-        <v>607</v>
+        <v>786</v>
       </c>
       <c r="F49" s="27">
-        <v>188</v>
+        <v>-130</v>
       </c>
       <c r="G49" s="28">
-        <v>0.55200000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H49" s="27">
-        <v>1732</v>
+        <v>1325</v>
       </c>
       <c r="I49" s="27">
-        <v>1609</v>
+        <v>2131</v>
       </c>
       <c r="J49" s="27">
-        <v>122</v>
+        <v>-806</v>
       </c>
       <c r="K49" s="29">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="L49" s="30">
-        <v>43237</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>548.66</v>
+        <v>109.42</v>
       </c>
       <c r="C50" s="27">
-        <v>481</v>
+        <v>26</v>
       </c>
       <c r="D50" s="27">
-        <v>1023</v>
+        <v>818</v>
       </c>
       <c r="E50" s="27">
-        <v>392</v>
+        <v>621</v>
       </c>
       <c r="F50" s="27">
-        <v>631</v>
+        <v>197</v>
       </c>
       <c r="G50" s="28">
-        <v>0.71099999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H50" s="27">
-        <v>2439</v>
+        <v>1752</v>
       </c>
       <c r="I50" s="27">
-        <v>918</v>
+        <v>1638</v>
       </c>
       <c r="J50" s="27">
-        <v>1521</v>
+        <v>113</v>
       </c>
       <c r="K50" s="29">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="L50" s="30">
-        <v>43236</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>-490.68</v>
+        <v>563.92999999999995</v>
       </c>
       <c r="C51" s="27">
-        <v>-526</v>
+        <v>502</v>
       </c>
       <c r="D51" s="27">
-        <v>575</v>
+        <v>1054</v>
       </c>
       <c r="E51" s="27">
-        <v>836</v>
+        <v>397</v>
       </c>
       <c r="F51" s="27">
-        <v>-261</v>
+        <v>657</v>
       </c>
       <c r="G51" s="28">
-        <v>0.4</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="H51" s="27">
-        <v>1406</v>
+        <v>2478</v>
       </c>
       <c r="I51" s="27">
-        <v>2104</v>
+        <v>926</v>
       </c>
       <c r="J51" s="27">
-        <v>-698</v>
+        <v>1551</v>
       </c>
       <c r="K51" s="29">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="L51" s="30">
-        <v>43235</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>-32.06</v>
+        <v>-479.25</v>
       </c>
       <c r="C52" s="27">
-        <v>24</v>
+        <v>-452</v>
       </c>
       <c r="D52" s="27">
-        <v>681</v>
+        <v>600</v>
       </c>
       <c r="E52" s="27">
-        <v>731</v>
+        <v>848</v>
       </c>
       <c r="F52" s="27">
-        <v>-50</v>
+        <v>-248</v>
       </c>
       <c r="G52" s="28">
-        <v>0.47299999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="H52" s="27">
-        <v>1900</v>
+        <v>1438</v>
       </c>
       <c r="I52" s="27">
-        <v>1432</v>
+        <v>2109</v>
       </c>
       <c r="J52" s="27">
-        <v>468</v>
+        <v>-671</v>
       </c>
       <c r="K52" s="29">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="L52" s="30">
-        <v>43234</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>146.06</v>
+        <v>-25.1</v>
       </c>
       <c r="C53" s="27">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="D53" s="27">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="E53" s="27">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="F53" s="27">
-        <v>81</v>
+        <v>-32</v>
       </c>
       <c r="G53" s="28">
-        <v>0.51600000000000001</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="H53" s="27">
-        <v>1638</v>
+        <v>1937</v>
       </c>
       <c r="I53" s="27">
-        <v>1613</v>
+        <v>1443</v>
       </c>
       <c r="J53" s="27">
-        <v>25</v>
+        <v>493</v>
       </c>
       <c r="K53" s="29">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="L53" s="30">
-        <v>43231</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>707.16</v>
+        <v>161.77000000000001</v>
       </c>
       <c r="C54" s="27">
-        <v>739</v>
+        <v>211</v>
       </c>
       <c r="D54" s="27">
-        <v>1062</v>
+        <v>769</v>
       </c>
       <c r="E54" s="27">
-        <v>350</v>
+        <v>671</v>
       </c>
       <c r="F54" s="27">
-        <v>712</v>
+        <v>98</v>
       </c>
       <c r="G54" s="28">
-        <v>0.73799999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="H54" s="27">
-        <v>2758</v>
+        <v>1665</v>
       </c>
       <c r="I54" s="27">
-        <v>792</v>
+        <v>1618</v>
       </c>
       <c r="J54" s="27">
-        <v>1965</v>
+        <v>46</v>
       </c>
       <c r="K54" s="29">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="L54" s="30">
-        <v>43230</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>665.41</v>
+        <v>712.89</v>
       </c>
       <c r="C55" s="27">
-        <v>411</v>
+        <v>731</v>
       </c>
       <c r="D55" s="27">
-        <v>1003</v>
+        <v>1085</v>
       </c>
       <c r="E55" s="27">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="F55" s="27">
-        <v>592</v>
+        <v>722</v>
       </c>
       <c r="G55" s="28">
-        <v>0.69699999999999995</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="H55" s="27">
-        <v>2800</v>
+        <v>2771</v>
       </c>
       <c r="I55" s="27">
-        <v>1217</v>
+        <v>804</v>
       </c>
       <c r="J55" s="27">
-        <v>1583</v>
+        <v>1967</v>
       </c>
       <c r="K55" s="29">
-        <v>1.1000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="L55" s="30">
-        <v>43229</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>130.68</v>
+        <v>661.21</v>
       </c>
       <c r="C56" s="27">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="D56" s="27">
-        <v>755</v>
+        <v>1026</v>
       </c>
       <c r="E56" s="27">
-        <v>656</v>
+        <v>424</v>
       </c>
       <c r="F56" s="27">
-        <v>99</v>
+        <v>602</v>
       </c>
       <c r="G56" s="28">
-        <v>0.52500000000000002</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="H56" s="27">
-        <v>2109</v>
+        <v>2825</v>
       </c>
       <c r="I56" s="27">
-        <v>1819</v>
+        <v>1230</v>
       </c>
       <c r="J56" s="27">
-        <v>290</v>
+        <v>1595</v>
       </c>
       <c r="K56" s="29">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L56" s="30">
-        <v>43228</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="26">
-        <v>514.91999999999996</v>
+        <v>110.99</v>
       </c>
       <c r="C57" s="27">
-        <v>528</v>
+        <v>52</v>
       </c>
       <c r="D57" s="27">
-        <v>944</v>
+        <v>772</v>
       </c>
       <c r="E57" s="27">
-        <v>466</v>
+        <v>675</v>
       </c>
       <c r="F57" s="27">
-        <v>478</v>
+        <v>97</v>
       </c>
       <c r="G57" s="28">
-        <v>0.65600000000000003</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H57" s="27">
-        <v>2298</v>
+        <v>2123</v>
       </c>
       <c r="I57" s="27">
-        <v>1217</v>
+        <v>1831</v>
       </c>
       <c r="J57" s="27">
-        <v>1081</v>
+        <v>291</v>
       </c>
       <c r="K57" s="29">
-        <v>0.97</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L57" s="30">
-        <v>43227</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="31">
-        <v>1007.03</v>
+        <v>507.97</v>
       </c>
       <c r="C58" s="32">
-        <v>1003</v>
+        <v>531</v>
       </c>
       <c r="D58" s="32">
-        <v>1170</v>
+        <v>967</v>
       </c>
       <c r="E58" s="32">
-        <v>246</v>
+        <v>480</v>
       </c>
       <c r="F58" s="32">
-        <v>924</v>
+        <v>487</v>
       </c>
       <c r="G58" s="33">
-        <v>0.81299999999999994</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H58" s="32">
-        <v>3056</v>
+        <v>2317</v>
       </c>
       <c r="I58" s="32">
-        <v>586</v>
+        <v>1224</v>
       </c>
       <c r="J58" s="32">
-        <v>2469</v>
+        <v>1092</v>
       </c>
       <c r="K58" s="34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L58" s="30">
-        <v>43224</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="18">
-        <v>3309.55</v>
+        <v>2190.7399999999998</v>
       </c>
       <c r="C59" s="19">
-        <v>3081</v>
+        <v>1788</v>
       </c>
       <c r="D59" s="19">
-        <v>8751</v>
+        <v>8456</v>
       </c>
       <c r="E59" s="19">
-        <v>5357</v>
+        <v>6006</v>
       </c>
       <c r="F59" s="19">
-        <v>3394</v>
+        <v>2450</v>
       </c>
       <c r="G59" s="20">
-        <v>0.62</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="H59" s="19">
-        <v>22140</v>
+        <v>20635</v>
       </c>
       <c r="I59" s="19">
-        <v>13311</v>
+        <v>14960</v>
       </c>
       <c r="J59" s="19">
-        <v>8829</v>
+        <v>5675</v>
       </c>
       <c r="K59" s="21">
         <v>0.98</v>
@@ -4225,384 +4225,384 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>1.72</v>
+        <v>-2.9</v>
       </c>
       <c r="C64" s="27">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D64" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" s="27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F64" s="27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G64" s="28">
-        <v>0.57899999999999996</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H64" s="27">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I64" s="27">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J64" s="27">
-        <v>-66</v>
+        <v>-115</v>
       </c>
       <c r="K64" s="29">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="L64" s="30">
-        <v>43237</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>11.17</v>
+        <v>1.72</v>
       </c>
       <c r="C65" s="27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D65" s="27">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E65" s="27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F65" s="27">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G65" s="28">
-        <v>0.89500000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H65" s="27">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="I65" s="27">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="J65" s="27">
-        <v>186</v>
+        <v>-66</v>
       </c>
       <c r="K65" s="29">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="L65" s="30">
-        <v>43236</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>-12.31</v>
+        <v>11.17</v>
       </c>
       <c r="C66" s="27">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="D66" s="27">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E66" s="27">
+        <v>2</v>
+      </c>
+      <c r="F66" s="27">
         <v>15</v>
       </c>
-      <c r="F66" s="27">
-        <v>-11</v>
-      </c>
       <c r="G66" s="28">
-        <v>0.21099999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H66" s="27">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="I66" s="27">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="J66" s="27">
-        <v>-249</v>
+        <v>186</v>
       </c>
       <c r="K66" s="29">
-        <v>1.07</v>
+        <v>0.75</v>
       </c>
       <c r="L66" s="30">
-        <v>43235</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>1.53</v>
+        <v>-12.31</v>
       </c>
       <c r="C67" s="27">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="D67" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E67" s="27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F67" s="27">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="G67" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H67" s="27">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I67" s="27">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="J67" s="27">
-        <v>25</v>
+        <v>-249</v>
       </c>
       <c r="K67" s="29">
-        <v>0.67</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L67" s="30">
-        <v>43234</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>6.91</v>
+        <v>1.53</v>
       </c>
       <c r="C68" s="27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" s="27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E68" s="27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F68" s="27">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="G68" s="28">
-        <v>0.68400000000000005</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="H68" s="27">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I68" s="27">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J68" s="27">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K68" s="29">
         <v>0.69</v>
       </c>
       <c r="L68" s="30">
-        <v>43231</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>14.67</v>
+        <v>6.91</v>
       </c>
       <c r="C69" s="27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" s="27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E69" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69" s="27">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G69" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H69" s="27">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="I69" s="27">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="J69" s="27">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="K69" s="29">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="L69" s="30">
-        <v>43230</v>
+        <v>43231</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>15.07</v>
+        <v>14.67</v>
       </c>
       <c r="C70" s="27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D70" s="27">
+        <v>18</v>
+      </c>
+      <c r="E70" s="27">
+        <v>1</v>
+      </c>
+      <c r="F70" s="27">
         <v>17</v>
       </c>
-      <c r="E70" s="27">
+      <c r="G70" s="28">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H70" s="27">
+        <v>248</v>
+      </c>
+      <c r="I70" s="27">
         <v>2</v>
       </c>
-      <c r="F70" s="27">
-        <v>15</v>
-      </c>
-      <c r="G70" s="28">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="H70" s="27">
-        <v>258</v>
-      </c>
-      <c r="I70" s="27">
-        <v>28</v>
-      </c>
       <c r="J70" s="27">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="K70" s="29">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="L70" s="30">
-        <v>43229</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>0.59</v>
+        <v>15.07</v>
       </c>
       <c r="C71" s="27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D71" s="27">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E71" s="27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F71" s="27">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G71" s="28">
-        <v>0.47399999999999998</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H71" s="27">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="I71" s="27">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="J71" s="27">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="K71" s="29">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="L71" s="30">
-        <v>43228</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
+        <v>0.59</v>
+      </c>
+      <c r="C72" s="27">
+        <v>0</v>
+      </c>
+      <c r="D72" s="27">
+        <v>9</v>
+      </c>
+      <c r="E72" s="27">
         <v>8</v>
       </c>
-      <c r="C72" s="27">
-        <v>5</v>
-      </c>
-      <c r="D72" s="27">
-        <v>14</v>
-      </c>
-      <c r="E72" s="27">
-        <v>4</v>
-      </c>
       <c r="F72" s="27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G72" s="28">
-        <v>0.73699999999999999</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H72" s="27">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="I72" s="27">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="J72" s="27">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="K72" s="29">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="L72" s="30">
-        <v>43227</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="31">
-        <v>24.35</v>
+        <v>8</v>
       </c>
       <c r="C73" s="32">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D73" s="32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E73" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F73" s="32">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G73" s="33">
-        <v>1</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H73" s="32">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="I73" s="32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J73" s="32">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="K73" s="34">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="L73" s="30">
-        <v>43224</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="18">
-        <v>71.7</v>
+        <v>44.45</v>
       </c>
       <c r="C74" s="19">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D74" s="19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E74" s="19">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F74" s="19">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G74" s="20">
-        <v>0.69899999999999995</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="H74" s="19">
-        <v>1701</v>
+        <v>1473</v>
       </c>
       <c r="I74" s="19">
-        <v>754</v>
+        <v>928</v>
       </c>
       <c r="J74" s="19">
-        <v>947</v>
+        <v>545</v>
       </c>
       <c r="K74" s="21">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAFB28-E2AD-409E-808C-C2F8AE81B571}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC738CC-4C10-4C88-AB7D-6478DD4A1658}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>130dma</t>
   </si>
@@ -325,19 +325,7 @@
     <t>0 means 50% above MA</t>
   </si>
   <si>
-    <t>Up 0.92 Points per Component with overall change of -0.53% from closing price 2734.62 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 3.48 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.73 Points per Component with overall change of -1.45% from closing price 1015.57 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.32 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Up 0.74 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>NYSE Composite</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1096,7 @@
   <dimension ref="B1:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1154,62 +1142,62 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="I4" s="13">
-        <v>7.75</v>
+        <v>5</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10">
         <v>9</v>
       </c>
       <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15">
         <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7</v>
-      </c>
-      <c r="I5" s="15">
-        <v>6.25</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -1220,26 +1208,26 @@
         <v>77</v>
       </c>
       <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
         <v>7</v>
       </c>
-      <c r="E6" s="10">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
+        <v>7</v>
+      </c>
+      <c r="H6" s="12">
         <v>6</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6</v>
-      </c>
-      <c r="H6" s="12">
-        <v>7</v>
       </c>
       <c r="I6" s="15">
         <v>6.25</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -1250,26 +1238,26 @@
         <v>72</v>
       </c>
       <c r="D7" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="10">
         <v>8</v>
       </c>
       <c r="H7" s="12">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I7" s="15">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -1280,37 +1268,37 @@
         <v>73</v>
       </c>
       <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
         <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6</v>
       </c>
       <c r="F8" s="10">
         <v>6</v>
       </c>
       <c r="G8" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="12">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="I8" s="15">
         <v>4.25</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
@@ -1319,88 +1307,88 @@
         <v>4</v>
       </c>
       <c r="G9" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="12">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="I9" s="15">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
         <v>6</v>
       </c>
       <c r="F10" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10" s="12">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="I10" s="15">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="10">
         <v>5</v>
       </c>
       <c r="G11" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="15">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="10">
         <v>3</v>
@@ -1409,107 +1397,107 @@
         <v>4</v>
       </c>
       <c r="G12" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="12">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I12" s="15">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="10">
         <v>5</v>
       </c>
       <c r="H13" s="12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I13" s="15">
-        <v>4</v>
+        <v>-0.25</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="10">
         <v>3</v>
       </c>
       <c r="G14" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="12">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="I14" s="15">
-        <v>4.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="10">
-        <v>7</v>
-      </c>
       <c r="E15" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="10">
         <v>2</v>
       </c>
       <c r="G15" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="I15" s="15">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L15" s="54" t="s">
         <v>97</v>
@@ -1517,32 +1505,32 @@
     </row>
     <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
         <v>5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
       <c r="H16" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="15">
-        <v>2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L16" s="54" t="s">
         <v>98</v>
@@ -1550,76 +1538,76 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D17" s="10">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="E17" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10">
         <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I17" s="15">
-        <v>5.5</v>
+        <v>-1.25</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
         <v>3</v>
       </c>
-      <c r="E18" s="10">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10">
-        <v>6</v>
-      </c>
       <c r="H18" s="12">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="I18" s="15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="10">
         <v>2</v>
@@ -1628,44 +1616,44 @@
         <v>3</v>
       </c>
       <c r="H19" s="12">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="I19" s="15">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>3</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2</v>
       </c>
       <c r="F20" s="10">
         <v>2</v>
       </c>
       <c r="G20" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="I20" s="15">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -1676,146 +1664,146 @@
         <v>56</v>
       </c>
       <c r="D21" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10">
         <v>2</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
       </c>
       <c r="G21" s="10">
         <v>2</v>
       </c>
       <c r="H21" s="12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I21" s="15">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="10">
+      <c r="H22" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="I22" s="15">
         <v>2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>2</v>
-      </c>
-      <c r="H22" s="12">
-        <v>2</v>
-      </c>
-      <c r="I22" s="15">
-        <v>2.5</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
         <v>3</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
       </c>
       <c r="G23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="I23" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="10">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10">
         <v>4</v>
       </c>
-      <c r="E24" s="10">
-        <v>2</v>
-      </c>
       <c r="F24" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H24" s="12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="I24" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="10">
-        <v>2</v>
-      </c>
       <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
         <v>-1</v>
       </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
       <c r="H25" s="12">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="I25" s="15">
-        <v>-3.25</v>
+        <v>-4.75</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -1826,217 +1814,217 @@
         <v>50</v>
       </c>
       <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F26" s="10">
         <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
       </c>
       <c r="G26" s="10">
         <v>2</v>
       </c>
       <c r="H26" s="12">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I26" s="15">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
         <v>3</v>
-      </c>
-      <c r="E27" s="10">
-        <v>-1</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
       </c>
       <c r="G27" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
         <v>1.25</v>
       </c>
       <c r="I27" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D28" s="10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I28" s="15">
-        <v>2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D29" s="10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
         <v>-1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
       </c>
       <c r="G29" s="10">
         <v>3</v>
       </c>
       <c r="H29" s="12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="I29" s="15">
-        <v>2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="I30" s="15">
-        <v>1.5</v>
+        <v>-4.25</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D31" s="10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="10">
         <v>-1</v>
       </c>
       <c r="G31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="I31" s="15">
-        <v>1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D32" s="10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E32" s="10">
         <v>1</v>
       </c>
       <c r="F32" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
       <c r="H32" s="12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="15">
-        <v>-0.25</v>
+        <v>-3</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D33" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
@@ -2045,103 +2033,103 @@
         <v>-1</v>
       </c>
       <c r="G33" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H33" s="12">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="I33" s="15">
-        <v>0.25</v>
+        <v>-4.75</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D34" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E34" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G34" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="12">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="I34" s="15">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D35" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E35" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F35" s="10">
         <v>-3</v>
       </c>
       <c r="G35" s="10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="12">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="I35" s="15">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="10">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="E36" s="10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F36" s="10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="G36" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="12">
-        <v>-1.25</v>
+        <v>-2.75</v>
       </c>
       <c r="I36" s="15">
-        <v>-2.25</v>
+        <v>-3.75</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
@@ -2150,122 +2138,122 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D37" s="10">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E37" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F37" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G37" s="10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="H37" s="12">
-        <v>-4</v>
+        <v>-2.75</v>
       </c>
       <c r="I37" s="15">
-        <v>-0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D38" s="10">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E38" s="10">
         <v>-5</v>
       </c>
       <c r="F38" s="10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="G38" s="10">
+        <v>4</v>
+      </c>
+      <c r="H38" s="12">
         <v>-3</v>
       </c>
-      <c r="H38" s="12">
-        <v>-4.5</v>
-      </c>
       <c r="I38" s="15">
-        <v>-4.75</v>
+        <v>-2</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D39" s="10">
         <v>-5</v>
       </c>
       <c r="E39" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F39" s="10">
         <v>-4</v>
       </c>
-      <c r="F39" s="10">
-        <v>-7</v>
-      </c>
       <c r="G39" s="10">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H39" s="12">
-        <v>-5.75</v>
+        <v>-3.5</v>
       </c>
       <c r="I39" s="15">
-        <v>2.75</v>
+        <v>-5.25</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>-8.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D40" s="10">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E40" s="10">
+        <v>-7</v>
+      </c>
+      <c r="F40" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G40" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="35">
         <v>-5</v>
       </c>
-      <c r="F40" s="10">
-        <v>-7</v>
-      </c>
-      <c r="G40" s="10">
-        <v>-6</v>
-      </c>
-      <c r="H40" s="35">
-        <v>-6.75</v>
-      </c>
       <c r="I40" s="36">
-        <v>-3</v>
+        <v>-6.25</v>
       </c>
       <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>-3.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2273,31 +2261,31 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>3.2702702702702702</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E41" s="42">
         <f t="shared" si="1"/>
-        <v>1.7297297297297298</v>
+        <v>2.1351351351351351</v>
       </c>
       <c r="F41" s="42">
         <f t="shared" si="1"/>
-        <v>1.1351351351351351</v>
+        <v>1.5135135135135136</v>
       </c>
       <c r="G41" s="42">
         <f t="shared" si="1"/>
-        <v>2.6486486486486487</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="1"/>
-        <v>2.1959459459459461</v>
+        <v>1.6216216216216217</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="1"/>
-        <v>2.0675675675675675</v>
+        <v>-0.45945945945945948</v>
       </c>
       <c r="J41" s="40">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>0.12837837837837851</v>
+        <v>2.0810810810810811</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2350,7 +2338,7 @@
       <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2396,390 +2384,387 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
-        <v>593.95000000000005</v>
+        <v>485.9</v>
       </c>
       <c r="C4" s="27">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="D4" s="27">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E4" s="27">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F4" s="27">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="G4" s="28">
-        <v>0.78700000000000003</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="H4" s="27">
-        <v>1616</v>
+        <v>1452</v>
       </c>
       <c r="I4" s="27">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="J4" s="27">
-        <v>1283</v>
+        <v>1317</v>
       </c>
       <c r="K4" s="29">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="L4" s="30">
-        <v>43252</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
-        <v>-424.39</v>
+        <v>457.04</v>
       </c>
       <c r="C5" s="27">
-        <v>-846</v>
+        <v>326</v>
       </c>
       <c r="D5" s="27">
-        <v>88</v>
+        <v>405</v>
       </c>
       <c r="E5" s="27">
-        <v>411</v>
+        <v>93</v>
       </c>
       <c r="F5" s="27">
-        <v>-323</v>
+        <v>312</v>
       </c>
       <c r="G5" s="28">
-        <v>0.17399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="27">
-        <v>510</v>
+        <v>1376</v>
       </c>
       <c r="I5" s="27">
-        <v>2166</v>
+        <v>345</v>
       </c>
       <c r="J5" s="27">
-        <v>-1656</v>
+        <v>1030</v>
       </c>
       <c r="K5" s="29">
-        <v>1.32</v>
+        <v>0.81</v>
       </c>
       <c r="L5" s="30">
-        <v>43251</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
-        <v>689.7</v>
+        <v>-153.51</v>
       </c>
       <c r="C6" s="27">
-        <v>634</v>
+        <v>-40</v>
       </c>
       <c r="D6" s="27">
-        <v>461</v>
+        <v>225</v>
       </c>
       <c r="E6" s="27">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="F6" s="27">
-        <v>422</v>
+        <v>-46</v>
       </c>
       <c r="G6" s="28">
-        <v>0.91100000000000003</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H6" s="27">
-        <v>1705</v>
+        <v>409</v>
       </c>
       <c r="I6" s="27">
-        <v>312</v>
+        <v>700</v>
       </c>
       <c r="J6" s="27">
-        <v>1392</v>
+        <v>-290</v>
       </c>
       <c r="K6" s="29">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="L6" s="30">
-        <v>43250</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
-        <v>-593.98</v>
+        <v>126.29</v>
       </c>
       <c r="C7" s="27">
-        <v>-785</v>
+        <v>54</v>
       </c>
       <c r="D7" s="27">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="E7" s="27">
-        <v>402</v>
+        <v>218</v>
       </c>
       <c r="F7" s="27">
-        <v>-304</v>
+        <v>63</v>
       </c>
       <c r="G7" s="28">
-        <v>0.19400000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H7" s="27">
-        <v>429</v>
+        <v>1064</v>
       </c>
       <c r="I7" s="27">
-        <v>1807</v>
+        <v>709</v>
       </c>
       <c r="J7" s="27">
-        <v>-1378</v>
+        <v>355</v>
       </c>
       <c r="K7" s="29">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="L7" s="30">
-        <v>43249</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
-        <v>-67.8</v>
+        <v>58.46</v>
       </c>
       <c r="C8" s="27">
-        <v>-31</v>
+        <v>116</v>
       </c>
       <c r="D8" s="27">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="E8" s="27">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="F8" s="27">
-        <v>-32</v>
+        <v>52</v>
       </c>
       <c r="G8" s="28">
-        <v>0.46</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="H8" s="27">
-        <v>801</v>
+        <v>1106</v>
       </c>
       <c r="I8" s="27">
-        <v>903</v>
+        <v>1176</v>
       </c>
       <c r="J8" s="27">
-        <v>-101</v>
+        <v>-70</v>
       </c>
       <c r="K8" s="29">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="L8" s="30">
-        <v>43245</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
-        <v>-15.78</v>
+        <v>294.02</v>
       </c>
       <c r="C9" s="27">
-        <v>-23</v>
+        <v>178</v>
       </c>
       <c r="D9" s="27">
-        <v>218</v>
+        <v>345</v>
       </c>
       <c r="E9" s="27">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="F9" s="27">
-        <v>-60</v>
+        <v>190</v>
       </c>
       <c r="G9" s="28">
-        <v>0.43099999999999999</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="H9" s="27">
-        <v>989</v>
+        <v>1378</v>
       </c>
       <c r="I9" s="27">
-        <v>984</v>
+        <v>734</v>
       </c>
       <c r="J9" s="27">
-        <v>5</v>
+        <v>643</v>
       </c>
       <c r="K9" s="29">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="L9" s="30">
-        <v>43244</v>
+        <v>43279</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
-        <v>264.08</v>
+        <v>-584.66999999999996</v>
       </c>
       <c r="C10" s="27">
-        <v>450</v>
+        <v>-674</v>
       </c>
       <c r="D10" s="27">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="E10" s="27">
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="F10" s="27">
-        <v>55</v>
+        <v>-292</v>
       </c>
       <c r="G10" s="28">
-        <v>0.54900000000000004</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H10" s="27">
-        <v>1056</v>
+        <v>642</v>
       </c>
       <c r="I10" s="27">
-        <v>984</v>
+        <v>1636</v>
       </c>
       <c r="J10" s="27">
-        <v>71</v>
+        <v>-994</v>
       </c>
       <c r="K10" s="29">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="L10" s="30">
-        <v>43243</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
-        <v>-336.81</v>
+        <v>82.82</v>
       </c>
       <c r="C11" s="27">
-        <v>-501</v>
+        <v>110</v>
       </c>
       <c r="D11" s="27">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="E11" s="27">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="F11" s="27">
-        <v>-111</v>
+        <v>-17</v>
       </c>
       <c r="G11" s="28">
-        <v>0.38100000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H11" s="27">
-        <v>909</v>
+        <v>1279</v>
       </c>
       <c r="I11" s="27">
-        <v>992</v>
+        <v>911</v>
       </c>
       <c r="J11" s="27">
-        <v>-83</v>
+        <v>367</v>
       </c>
       <c r="K11" s="29">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="L11" s="30">
-        <v>43242</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
-        <v>390.58</v>
+        <v>-805.15</v>
       </c>
       <c r="C12" s="27">
-        <v>314</v>
+        <v>-1193</v>
       </c>
       <c r="D12" s="27">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="E12" s="27">
-        <v>111</v>
+        <v>396</v>
       </c>
       <c r="F12" s="27">
-        <v>280</v>
+        <v>-291</v>
       </c>
       <c r="G12" s="28">
-        <v>0.77300000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="H12" s="27">
-        <v>1321</v>
+        <v>459</v>
       </c>
       <c r="I12" s="27">
-        <v>493</v>
+        <v>1946</v>
       </c>
       <c r="J12" s="27">
-        <v>828</v>
+        <v>-1486</v>
       </c>
       <c r="K12" s="29">
-        <v>0.87</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L12" s="30">
-        <v>43241</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="31">
-        <v>-36.770000000000003</v>
+        <v>24.81</v>
       </c>
       <c r="C13" s="32">
-        <v>-44</v>
+        <v>-8</v>
       </c>
       <c r="D13" s="32">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="E13" s="32">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="F13" s="32">
-        <v>-54</v>
+        <v>98</v>
       </c>
       <c r="G13" s="33">
-        <v>0.439</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="H13" s="32">
-        <v>718</v>
+        <v>1735</v>
       </c>
       <c r="I13" s="32">
-        <v>1263</v>
+        <v>1146</v>
       </c>
       <c r="J13" s="32">
-        <v>-544</v>
+        <v>589</v>
       </c>
       <c r="K13" s="34">
-        <v>0.96</v>
+        <v>1.35</v>
       </c>
       <c r="L13" s="30">
-        <v>43238</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
-        <v>462.78</v>
+        <v>-13.99</v>
       </c>
       <c r="C14" s="19">
-        <v>-265</v>
+        <v>-599</v>
       </c>
       <c r="D14" s="19">
-        <v>2580</v>
+        <v>2712</v>
       </c>
       <c r="E14" s="19">
-        <v>2411</v>
+        <v>2274</v>
       </c>
       <c r="F14" s="19">
-        <v>169</v>
+        <v>438</v>
       </c>
       <c r="G14" s="20">
-        <v>0.51700000000000002</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H14" s="19">
-        <v>10059</v>
+        <v>10904</v>
       </c>
       <c r="I14" s="19">
-        <v>10241</v>
+        <v>9443</v>
       </c>
       <c r="J14" s="19">
-        <v>-182</v>
+        <v>1461</v>
       </c>
       <c r="K14" s="21">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>99</v>
-      </c>
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -2807,7 +2792,7 @@
       <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2853,390 +2838,387 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
-        <v>268.67</v>
+        <v>290.49</v>
       </c>
       <c r="C19" s="27">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="D19" s="27">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E19" s="27">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F19" s="27">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G19" s="28">
-        <v>0.84099999999999997</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="H19" s="27">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="I19" s="27">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J19" s="27">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K19" s="29">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="L19" s="30">
-        <v>43252</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
-        <v>-28.94</v>
+        <v>199.51</v>
       </c>
       <c r="C20" s="27">
-        <v>-92</v>
+        <v>143</v>
       </c>
       <c r="D20" s="27">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E20" s="27">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F20" s="27">
-        <v>-51</v>
+        <v>77</v>
       </c>
       <c r="G20" s="28">
-        <v>0.26200000000000001</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="H20" s="27">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="I20" s="27">
-        <v>635</v>
+        <v>67</v>
       </c>
       <c r="J20" s="27">
-        <v>-508</v>
+        <v>342</v>
       </c>
       <c r="K20" s="29">
-        <v>1.32</v>
+        <v>0.84</v>
       </c>
       <c r="L20" s="30">
-        <v>43251</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
-        <v>162.97</v>
+        <v>-142.81</v>
       </c>
       <c r="C21" s="27">
-        <v>145</v>
+        <v>-52</v>
       </c>
       <c r="D21" s="27">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E21" s="27">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F21" s="27">
-        <v>54</v>
+        <v>-47</v>
       </c>
       <c r="G21" s="28">
-        <v>0.748</v>
+        <v>0.252</v>
       </c>
       <c r="H21" s="27">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="I21" s="27">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="J21" s="27">
-        <v>93</v>
+        <v>-266</v>
       </c>
       <c r="K21" s="29">
-        <v>0.92</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L21" s="30">
-        <v>43250</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
-        <v>-121.03</v>
+        <v>106.44</v>
       </c>
       <c r="C22" s="27">
-        <v>-141</v>
+        <v>50</v>
       </c>
       <c r="D22" s="27">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E22" s="27">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F22" s="27">
-        <v>-68</v>
+        <v>33</v>
       </c>
       <c r="G22" s="28">
-        <v>0.17799999999999999</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H22" s="27">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="I22" s="27">
-        <v>389</v>
+        <v>157</v>
       </c>
       <c r="J22" s="27">
-        <v>-244</v>
+        <v>154</v>
       </c>
       <c r="K22" s="29">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="L22" s="30">
-        <v>43249</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
-        <v>42.21</v>
+        <v>41.61</v>
       </c>
       <c r="C23" s="27">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D23" s="27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="27">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F23" s="27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G23" s="28">
-        <v>0.60699999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="H23" s="27">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="I23" s="27">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="J23" s="27">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K23" s="29">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="L23" s="30">
-        <v>43245</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
-        <v>11.46</v>
+        <v>175.75</v>
       </c>
       <c r="C24" s="27">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D24" s="27">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E24" s="27">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F24" s="27">
-        <v>-10</v>
+        <v>49</v>
       </c>
       <c r="G24" s="28">
-        <v>0.44900000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H24" s="27">
-        <v>245</v>
+        <v>443</v>
       </c>
       <c r="I24" s="27">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="J24" s="27">
-        <v>-27</v>
+        <v>278</v>
       </c>
       <c r="K24" s="29">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
       <c r="L24" s="30">
-        <v>43244</v>
+        <v>43279</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
-        <v>138.56</v>
+        <v>-276.77</v>
       </c>
       <c r="C25" s="27">
-        <v>122</v>
+        <v>-325</v>
       </c>
       <c r="D25" s="27">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E25" s="27">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F25" s="27">
-        <v>37</v>
+        <v>-85</v>
       </c>
       <c r="G25" s="28">
-        <v>0.67300000000000004</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H25" s="27">
-        <v>395</v>
+        <v>70</v>
       </c>
       <c r="I25" s="27">
-        <v>126</v>
+        <v>556</v>
       </c>
       <c r="J25" s="27">
-        <v>269</v>
+        <v>-485</v>
       </c>
       <c r="K25" s="29">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L25" s="30">
-        <v>43243</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
-        <v>-48.31</v>
+        <v>54.18</v>
       </c>
       <c r="C26" s="27">
+        <v>55</v>
+      </c>
+      <c r="D26" s="27">
+        <v>49</v>
+      </c>
+      <c r="E26" s="27">
+        <v>54</v>
+      </c>
+      <c r="F26" s="27">
+        <v>-5</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0.441</v>
+      </c>
+      <c r="H26" s="27">
+        <v>267</v>
+      </c>
+      <c r="I26" s="27">
+        <v>308</v>
+      </c>
+      <c r="J26" s="27">
         <v>-41</v>
       </c>
-      <c r="D26" s="27">
-        <v>47</v>
-      </c>
-      <c r="E26" s="27">
-        <v>60</v>
-      </c>
-      <c r="F26" s="27">
-        <v>-13</v>
-      </c>
-      <c r="G26" s="28">
-        <v>0.439</v>
-      </c>
-      <c r="H26" s="27">
-        <v>284</v>
-      </c>
-      <c r="I26" s="27">
-        <v>234</v>
-      </c>
-      <c r="J26" s="27">
-        <v>49</v>
-      </c>
       <c r="K26" s="29">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="L26" s="30">
-        <v>43242</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
-        <v>60.1</v>
+        <v>-412.62</v>
       </c>
       <c r="C27" s="27">
-        <v>13</v>
+        <v>-724</v>
       </c>
       <c r="D27" s="27">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E27" s="27">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F27" s="27">
-        <v>33</v>
+        <v>-89</v>
       </c>
       <c r="G27" s="28">
-        <v>0.65400000000000003</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H27" s="27">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="I27" s="27">
-        <v>176</v>
+        <v>660</v>
       </c>
       <c r="J27" s="27">
-        <v>192</v>
+        <v>-630</v>
       </c>
       <c r="K27" s="29">
-        <v>0.94</v>
+        <v>1.21</v>
       </c>
       <c r="L27" s="30">
-        <v>43241</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="31">
-        <v>-113.27</v>
+        <v>-73.14</v>
       </c>
       <c r="C28" s="32">
-        <v>-176</v>
+        <v>-116</v>
       </c>
       <c r="D28" s="32">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="32">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F28" s="32">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="G28" s="33">
-        <v>0.42099999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="H28" s="32">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="I28" s="32">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J28" s="32">
-        <v>-200</v>
+        <v>-32</v>
       </c>
       <c r="K28" s="34">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="L28" s="30">
-        <v>43238</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
-        <v>372.42</v>
+        <v>-37.36</v>
       </c>
       <c r="C29" s="19">
-        <v>160</v>
+        <v>-256</v>
       </c>
       <c r="D29" s="19">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="E29" s="19">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F29" s="19">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G29" s="20">
-        <v>0.52900000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="H29" s="19">
-        <v>2813</v>
+        <v>2678</v>
       </c>
       <c r="I29" s="19">
-        <v>2663</v>
+        <v>2845</v>
       </c>
       <c r="J29" s="19">
-        <v>150</v>
+        <v>-167</v>
       </c>
       <c r="K29" s="21">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
-        <v>100</v>
-      </c>
       <c r="B30" s="50"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -3265,7 +3247,7 @@
       <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -3311,390 +3293,387 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
-        <v>201.7</v>
+        <v>184</v>
       </c>
       <c r="C34" s="27">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="D34" s="27">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="E34" s="27">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F34" s="27">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="G34" s="28">
-        <v>0.71099999999999997</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="H34" s="27">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="I34" s="27">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="J34" s="27">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="K34" s="29">
-        <v>1.1399999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="L34" s="30">
-        <v>43252</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
-        <v>-250.9</v>
+        <v>321.17</v>
       </c>
       <c r="C35" s="27">
-        <v>-269</v>
+        <v>234</v>
       </c>
       <c r="D35" s="27">
-        <v>109</v>
+        <v>520</v>
       </c>
       <c r="E35" s="27">
-        <v>472</v>
+        <v>73</v>
       </c>
       <c r="F35" s="27">
-        <v>-363</v>
+        <v>447</v>
       </c>
       <c r="G35" s="28">
-        <v>0.18099999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="H35" s="27">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="I35" s="27">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="J35" s="27">
-        <v>-190</v>
+        <v>173</v>
       </c>
       <c r="K35" s="29">
-        <v>1.0900000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="L35" s="30">
-        <v>43251</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
-        <v>367.12</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="C36" s="27">
-        <v>551</v>
+        <v>16</v>
       </c>
       <c r="D36" s="27">
-        <v>504</v>
+        <v>325</v>
       </c>
       <c r="E36" s="27">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="F36" s="27">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="G36" s="28">
-        <v>0.83599999999999997</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="H36" s="27">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="I36" s="27">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="J36" s="27">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="K36" s="29">
-        <v>1.1299999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="L36" s="30">
-        <v>43250</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
-        <v>20.8</v>
+        <v>274.99</v>
       </c>
       <c r="C37" s="27">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="D37" s="27">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="E37" s="27">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="F37" s="27">
-        <v>-8</v>
+        <v>362</v>
       </c>
       <c r="G37" s="28">
-        <v>0.47399999999999998</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H37" s="27">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="I37" s="27">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="J37" s="27">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="K37" s="29">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="L37" s="30">
-        <v>43249</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
-        <v>17.32</v>
+        <v>-53.53</v>
       </c>
       <c r="C38" s="27">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="D38" s="27">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="E38" s="27">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="F38" s="27">
-        <v>16</v>
+        <v>-124</v>
       </c>
       <c r="G38" s="28">
-        <v>0.48799999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="H38" s="27">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I38" s="27">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="J38" s="27">
-        <v>-54</v>
+        <v>-64</v>
       </c>
       <c r="K38" s="29">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="L38" s="30">
-        <v>43245</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
-        <v>25.3</v>
+        <v>78.91</v>
       </c>
       <c r="C39" s="27">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D39" s="27">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="E39" s="27">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F39" s="27">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G39" s="28">
-        <v>0.47599999999999998</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="H39" s="27">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="I39" s="27">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J39" s="27">
-        <v>-41</v>
+        <v>-8</v>
       </c>
       <c r="K39" s="29">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="L39" s="30">
-        <v>43244</v>
+        <v>43279</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
-        <v>32.42</v>
+        <v>-396.95</v>
       </c>
       <c r="C40" s="27">
-        <v>-41</v>
+        <v>-325</v>
       </c>
       <c r="D40" s="27">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="E40" s="27">
-        <v>239</v>
+        <v>522</v>
       </c>
       <c r="F40" s="27">
-        <v>95</v>
+        <v>-454</v>
       </c>
       <c r="G40" s="28">
-        <v>0.55400000000000005</v>
+        <v>0.113</v>
       </c>
       <c r="H40" s="27">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="I40" s="27">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="J40" s="27">
-        <v>32</v>
+        <v>-178</v>
       </c>
       <c r="K40" s="29">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="L40" s="30">
-        <v>43243</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
-        <v>-223.64</v>
+        <v>177.67</v>
       </c>
       <c r="C41" s="27">
-        <v>-217</v>
+        <v>153</v>
       </c>
       <c r="D41" s="27">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="E41" s="27">
-        <v>426</v>
+        <v>180</v>
       </c>
       <c r="F41" s="27">
-        <v>-260</v>
+        <v>222</v>
       </c>
       <c r="G41" s="28">
-        <v>0.27500000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="H41" s="27">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="I41" s="27">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="J41" s="27">
-        <v>-169</v>
+        <v>85</v>
       </c>
       <c r="K41" s="29">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="L41" s="30">
-        <v>43242</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="26">
-        <v>195.29</v>
+        <v>-388.31</v>
       </c>
       <c r="C42" s="27">
-        <v>192</v>
+        <v>-382</v>
       </c>
       <c r="D42" s="27">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="E42" s="27">
-        <v>117</v>
+        <v>502</v>
       </c>
       <c r="F42" s="27">
-        <v>354</v>
+        <v>-420</v>
       </c>
       <c r="G42" s="28">
-        <v>0.78100000000000003</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="H42" s="27">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="I42" s="27">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="J42" s="27">
-        <v>105</v>
+        <v>-270</v>
       </c>
       <c r="K42" s="29">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="L42" s="30">
-        <v>43241</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="31">
-        <v>52.75</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="C43" s="32">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D43" s="32">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="E43" s="32">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="F43" s="32">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="G43" s="33">
-        <v>0.55900000000000005</v>
+        <v>0.502</v>
       </c>
       <c r="H43" s="32">
-        <v>176</v>
+        <v>392</v>
       </c>
       <c r="I43" s="32">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="J43" s="32">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="K43" s="34">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="L43" s="30">
-        <v>43238</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
-        <v>438.16</v>
+        <v>230.49</v>
       </c>
       <c r="C44" s="19">
-        <v>598</v>
+        <v>98</v>
       </c>
       <c r="D44" s="19">
-        <v>3217</v>
+        <v>3161</v>
       </c>
       <c r="E44" s="19">
-        <v>2595</v>
+        <v>2666</v>
       </c>
       <c r="F44" s="19">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="G44" s="20">
-        <v>0.55400000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="H44" s="19">
-        <v>1662</v>
+        <v>1708</v>
       </c>
       <c r="I44" s="19">
-        <v>1653</v>
+        <v>1625</v>
       </c>
       <c r="J44" s="19">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="K44" s="21">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
-        <v>101</v>
-      </c>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
@@ -3709,7 +3688,9 @@
       <c r="M45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
+      <c r="B46" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
       <c r="E46" s="51"/>
@@ -3724,9 +3705,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
-      <c r="B47" s="18" t="s">
-        <v>92</v>
-      </c>
+      <c r="B47" s="44"/>
       <c r="C47" s="19" t="s">
         <v>91</v>
       </c>
@@ -3771,390 +3750,387 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="26">
-        <v>847.21</v>
+        <v>913.07</v>
       </c>
       <c r="C49" s="27">
-        <v>956</v>
+        <v>750</v>
       </c>
       <c r="D49" s="27">
-        <v>1019</v>
+        <v>1243</v>
       </c>
       <c r="E49" s="27">
-        <v>390</v>
+        <v>221</v>
       </c>
       <c r="F49" s="27">
-        <v>629</v>
+        <v>1022</v>
       </c>
       <c r="G49" s="28">
-        <v>0.70899999999999996</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="H49" s="27">
-        <v>2831</v>
+        <v>2482</v>
       </c>
       <c r="I49" s="27">
-        <v>1051</v>
+        <v>316</v>
       </c>
       <c r="J49" s="27">
-        <v>1779</v>
+        <v>2166</v>
       </c>
       <c r="K49" s="29">
-        <v>1.05</v>
+        <v>0.73</v>
       </c>
       <c r="L49" s="30">
-        <v>43252</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="26">
-        <v>-653.83000000000004</v>
+        <v>761.22</v>
       </c>
       <c r="C50" s="27">
-        <v>-1143</v>
+        <v>532</v>
       </c>
       <c r="D50" s="27">
-        <v>353</v>
+        <v>1152</v>
       </c>
       <c r="E50" s="27">
-        <v>1055</v>
+        <v>313</v>
       </c>
       <c r="F50" s="27">
-        <v>-702</v>
+        <v>839</v>
       </c>
       <c r="G50" s="28">
-        <v>0.246</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="H50" s="27">
-        <v>1175</v>
+        <v>2457</v>
       </c>
       <c r="I50" s="27">
-        <v>3464</v>
+        <v>696</v>
       </c>
       <c r="J50" s="27">
-        <v>-2288</v>
+        <v>1761</v>
       </c>
       <c r="K50" s="29">
-        <v>1.27</v>
+        <v>0.82</v>
       </c>
       <c r="L50" s="30">
-        <v>43251</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
-        <v>1056.72</v>
+        <v>-87.43</v>
       </c>
       <c r="C51" s="27">
-        <v>1120</v>
+        <v>4</v>
       </c>
       <c r="D51" s="27">
-        <v>1195</v>
+        <v>787</v>
       </c>
       <c r="E51" s="27">
-        <v>219</v>
+        <v>670</v>
       </c>
       <c r="F51" s="27">
-        <v>976</v>
+        <v>117</v>
       </c>
       <c r="G51" s="28">
-        <v>0.83199999999999996</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="H51" s="27">
-        <v>3014</v>
+        <v>941</v>
       </c>
       <c r="I51" s="27">
-        <v>636</v>
+        <v>1044</v>
       </c>
       <c r="J51" s="27">
-        <v>2378</v>
+        <v>-103</v>
       </c>
       <c r="K51" s="29">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="L51" s="30">
-        <v>43250</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
-        <v>-659.86</v>
+        <v>168.9</v>
       </c>
       <c r="C52" s="27">
-        <v>-789</v>
+        <v>38</v>
       </c>
       <c r="D52" s="27">
-        <v>458</v>
+        <v>802</v>
       </c>
       <c r="E52" s="27">
-        <v>950</v>
+        <v>665</v>
       </c>
       <c r="F52" s="27">
-        <v>-492</v>
+        <v>137</v>
       </c>
       <c r="G52" s="28">
-        <v>0.31900000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="H52" s="27">
-        <v>1020</v>
+        <v>1811</v>
       </c>
       <c r="I52" s="27">
-        <v>2871</v>
+        <v>1525</v>
       </c>
       <c r="J52" s="27">
-        <v>-1851</v>
+        <v>286</v>
       </c>
       <c r="K52" s="29">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="L52" s="30">
-        <v>43249</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
-        <v>-226.96</v>
+        <v>126.88</v>
       </c>
       <c r="C53" s="27">
-        <v>-199</v>
+        <v>380</v>
       </c>
       <c r="D53" s="27">
-        <v>675</v>
+        <v>804</v>
       </c>
       <c r="E53" s="27">
-        <v>727</v>
+        <v>656</v>
       </c>
       <c r="F53" s="27">
-        <v>-52</v>
+        <v>148</v>
       </c>
       <c r="G53" s="28">
-        <v>0.47</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="H53" s="27">
-        <v>1408</v>
+        <v>2088</v>
       </c>
       <c r="I53" s="27">
-        <v>1688</v>
+        <v>1917</v>
       </c>
       <c r="J53" s="27">
-        <v>-280</v>
+        <v>170</v>
       </c>
       <c r="K53" s="29">
-        <v>0.84</v>
+        <v>1.04</v>
       </c>
       <c r="L53" s="30">
-        <v>43245</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
-        <v>-28.19</v>
+        <v>480.48</v>
       </c>
       <c r="C54" s="27">
-        <v>-57</v>
+        <v>348</v>
       </c>
       <c r="D54" s="27">
-        <v>654</v>
+        <v>941</v>
       </c>
       <c r="E54" s="27">
-        <v>749</v>
+        <v>526</v>
       </c>
       <c r="F54" s="27">
-        <v>-95</v>
+        <v>415</v>
       </c>
       <c r="G54" s="28">
-        <v>0.45500000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="H54" s="27">
-        <v>1662</v>
+        <v>2425</v>
       </c>
       <c r="I54" s="27">
-        <v>1844</v>
+        <v>1323</v>
       </c>
       <c r="J54" s="27">
-        <v>-181</v>
+        <v>1101</v>
       </c>
       <c r="K54" s="29">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="L54" s="30">
-        <v>43244</v>
+        <v>43279</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
-        <v>268.01</v>
+        <v>-1227.57</v>
       </c>
       <c r="C55" s="27">
-        <v>369</v>
+        <v>-1303</v>
       </c>
       <c r="D55" s="27">
-        <v>735</v>
+        <v>263</v>
       </c>
       <c r="E55" s="27">
-        <v>676</v>
+        <v>1213</v>
       </c>
       <c r="F55" s="27">
-        <v>59</v>
+        <v>-950</v>
       </c>
       <c r="G55" s="28">
-        <v>0.51100000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="H55" s="27">
-        <v>1740</v>
+        <v>1104</v>
       </c>
       <c r="I55" s="27">
-        <v>1744</v>
+        <v>2968</v>
       </c>
       <c r="J55" s="27">
-        <v>-4</v>
+        <v>-1863</v>
       </c>
       <c r="K55" s="29">
-        <v>0.94</v>
+        <v>1.06</v>
       </c>
       <c r="L55" s="30">
-        <v>43243</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
-        <v>-536.55999999999995</v>
+        <v>351.05</v>
       </c>
       <c r="C56" s="27">
-        <v>-632</v>
+        <v>428</v>
       </c>
       <c r="D56" s="27">
-        <v>523</v>
+        <v>856</v>
       </c>
       <c r="E56" s="27">
-        <v>892</v>
+        <v>615</v>
       </c>
       <c r="F56" s="27">
-        <v>-369</v>
+        <v>241</v>
       </c>
       <c r="G56" s="28">
-        <v>0.36399999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="H56" s="27">
-        <v>1446</v>
+        <v>2327</v>
       </c>
       <c r="I56" s="27">
-        <v>1933</v>
+        <v>1485</v>
       </c>
       <c r="J56" s="27">
-        <v>-487</v>
+        <v>842</v>
       </c>
       <c r="K56" s="29">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="L56" s="30">
-        <v>43242</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="26">
-        <v>508.17</v>
+        <v>-1598.04</v>
       </c>
       <c r="C57" s="27">
-        <v>464</v>
+        <v>-2076</v>
       </c>
       <c r="D57" s="27">
-        <v>1013</v>
+        <v>242</v>
       </c>
       <c r="E57" s="27">
-        <v>399</v>
+        <v>1236</v>
       </c>
       <c r="F57" s="27">
-        <v>614</v>
+        <v>-994</v>
       </c>
       <c r="G57" s="28">
-        <v>0.70499999999999996</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H57" s="27">
-        <v>2261</v>
+        <v>701</v>
       </c>
       <c r="I57" s="27">
-        <v>976</v>
+        <v>3432</v>
       </c>
       <c r="J57" s="27">
-        <v>1285</v>
+        <v>-2730</v>
       </c>
       <c r="K57" s="29">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="L57" s="30">
-        <v>43241</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="31">
-        <v>-120.45</v>
+        <v>-19.77</v>
       </c>
       <c r="C58" s="32">
-        <v>-216</v>
+        <v>-680</v>
       </c>
       <c r="D58" s="32">
-        <v>644</v>
+        <v>840</v>
       </c>
       <c r="E58" s="32">
-        <v>758</v>
+        <v>629</v>
       </c>
       <c r="F58" s="32">
-        <v>-114</v>
+        <v>211</v>
       </c>
       <c r="G58" s="33">
-        <v>0.44800000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="H58" s="32">
-        <v>1319</v>
+        <v>3280</v>
       </c>
       <c r="I58" s="32">
-        <v>2103</v>
+        <v>2528</v>
       </c>
       <c r="J58" s="32">
-        <v>-784</v>
+        <v>752</v>
       </c>
       <c r="K58" s="34">
-        <v>0.93</v>
+        <v>1.51</v>
       </c>
       <c r="L58" s="30">
-        <v>43238</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="18">
-        <v>454.25</v>
+        <v>-131.21</v>
       </c>
       <c r="C59" s="19">
-        <v>-127</v>
+        <v>-1579</v>
       </c>
       <c r="D59" s="19">
-        <v>7269</v>
+        <v>7930</v>
       </c>
       <c r="E59" s="19">
-        <v>6815</v>
+        <v>6744</v>
       </c>
       <c r="F59" s="19">
-        <v>454</v>
+        <v>1186</v>
       </c>
       <c r="G59" s="20">
-        <v>0.51600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="H59" s="19">
-        <v>17881</v>
+        <v>19622</v>
       </c>
       <c r="I59" s="19">
-        <v>18316</v>
+        <v>17239</v>
       </c>
       <c r="J59" s="19">
-        <v>-435</v>
+        <v>2383</v>
       </c>
       <c r="K59" s="21">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="43" t="s">
-        <v>102</v>
-      </c>
       <c r="B60" s="44"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
@@ -4168,7 +4144,6 @@
       <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="44"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
@@ -4182,7 +4157,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="44"/>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -4225,390 +4200,387 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
-        <v>17.13</v>
+        <v>19.21</v>
       </c>
       <c r="C64" s="27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E64" s="27">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27">
+        <v>19</v>
+      </c>
+      <c r="G64" s="28">
         <v>1</v>
       </c>
-      <c r="F64" s="27">
-        <v>16</v>
-      </c>
-      <c r="G64" s="28">
-        <v>0.89500000000000002</v>
-      </c>
       <c r="H64" s="27">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I64" s="27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J64" s="27">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K64" s="29">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="L64" s="30">
-        <v>43252</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="26">
-        <v>-14.27</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="C65" s="27">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="D65" s="27">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E65" s="27">
+        <v>1</v>
+      </c>
+      <c r="F65" s="27">
         <v>17</v>
       </c>
-      <c r="F65" s="27">
-        <v>-15</v>
-      </c>
       <c r="G65" s="28">
-        <v>0.105</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H65" s="27">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="I65" s="27">
-        <v>319</v>
+        <v>9</v>
       </c>
       <c r="J65" s="27">
-        <v>-289</v>
+        <v>221</v>
       </c>
       <c r="K65" s="29">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="L65" s="30">
-        <v>43251</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
-        <v>25.74</v>
+        <v>-4.2</v>
       </c>
       <c r="C66" s="27">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="D66" s="27">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E66" s="27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F66" s="27">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="G66" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H66" s="27">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="I66" s="27">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="J66" s="27">
-        <v>302</v>
+        <v>-72</v>
       </c>
       <c r="K66" s="29">
-        <v>1.06</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L66" s="30">
-        <v>43250</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
-        <v>-16.100000000000001</v>
+        <v>4.93</v>
       </c>
       <c r="C67" s="27">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="D67" s="27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E67" s="27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F67" s="27">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="G67" s="28">
-        <v>0.158</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H67" s="27">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="I67" s="27">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="J67" s="27">
-        <v>-427</v>
+        <v>214</v>
       </c>
       <c r="K67" s="29">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="L67" s="30">
-        <v>43249</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
-        <v>-3.48</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C68" s="27">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E68" s="27">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F68" s="27">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28">
-        <v>0.36799999999999999</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H68" s="27">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="I68" s="27">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="J68" s="27">
-        <v>-112</v>
+        <v>148</v>
       </c>
       <c r="K68" s="29">
-        <v>0.85</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L68" s="30">
-        <v>43245</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
-        <v>-2.35</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="C69" s="27">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="D69" s="27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E69" s="27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F69" s="27">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="G69" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="H69" s="27">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c r="I69" s="27">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="J69" s="27">
-        <v>-159</v>
+        <v>277</v>
       </c>
       <c r="K69" s="29">
-        <v>0.9</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L69" s="30">
-        <v>43244</v>
+        <v>43279</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
-        <v>5.74</v>
+        <v>-19.2</v>
       </c>
       <c r="C70" s="27">
-        <v>4</v>
+        <v>-32</v>
       </c>
       <c r="D70" s="27">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E70" s="27">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F70" s="27">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="G70" s="28">
-        <v>0.73699999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="H70" s="27">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="I70" s="27">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="J70" s="27">
-        <v>91</v>
+        <v>-331</v>
       </c>
       <c r="K70" s="29">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="L70" s="30">
-        <v>43243</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
-        <v>-9.0299999999999994</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C71" s="27">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E71" s="27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F71" s="27">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="G71" s="28">
-        <v>0.26300000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H71" s="27">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="I71" s="27">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="J71" s="27">
-        <v>-74</v>
+        <v>123</v>
       </c>
       <c r="K71" s="29">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="L71" s="30">
-        <v>43242</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
-        <v>13.58</v>
+        <v>-28.58</v>
       </c>
       <c r="C72" s="27">
-        <v>10</v>
+        <v>-81</v>
       </c>
       <c r="D72" s="27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E72" s="27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F72" s="27">
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="G72" s="28">
-        <v>0.94699999999999995</v>
+        <v>0.105</v>
       </c>
       <c r="H72" s="27">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="I72" s="27">
-        <v>2</v>
+        <v>459</v>
       </c>
       <c r="J72" s="27">
-        <v>215</v>
+        <v>-415</v>
       </c>
       <c r="K72" s="29">
-        <v>0.77</v>
+        <v>1.65</v>
       </c>
       <c r="L72" s="30">
-        <v>43241</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="31">
-        <v>-2.9</v>
+        <v>2.86</v>
       </c>
       <c r="C73" s="32">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="32">
+        <v>10</v>
+      </c>
+      <c r="E73" s="32">
         <v>9</v>
       </c>
-      <c r="E73" s="32">
-        <v>10</v>
-      </c>
       <c r="F73" s="32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G73" s="33">
-        <v>0.47399999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H73" s="32">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I73" s="32">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J73" s="32">
-        <v>-115</v>
+        <v>-17</v>
       </c>
       <c r="K73" s="34">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="L73" s="30">
-        <v>43238</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="18">
-        <v>14.06</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="C74" s="19">
-        <v>-13</v>
+        <v>-61</v>
       </c>
       <c r="D74" s="19">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E74" s="19">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F74" s="19">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G74" s="20">
-        <v>0.53700000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H74" s="19">
-        <v>1263</v>
+        <v>1759</v>
       </c>
       <c r="I74" s="19">
-        <v>1575</v>
+        <v>1351</v>
       </c>
       <c r="J74" s="19">
-        <v>-312</v>
+        <v>408</v>
       </c>
       <c r="K74" s="21">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
-        <v>103</v>
-      </c>
       <c r="B75" s="44"/>
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
@@ -4622,7 +4594,9 @@
       <c r="L75" s="43"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="44"/>
+      <c r="B76" s="44" t="s">
+        <v>99</v>
+      </c>
       <c r="C76" s="45"/>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
@@ -4634,174 +4608,428 @@
       <c r="K76" s="47"/>
       <c r="L76" s="43"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="44"/>
       <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="43"/>
+      <c r="C77" s="19" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="43"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="43"/>
+      <c r="B79" s="26">
+        <v>608.20000000000005</v>
+      </c>
+      <c r="C79" s="27">
+        <v>341</v>
+      </c>
+      <c r="D79" s="27">
+        <v>1396</v>
+      </c>
+      <c r="E79" s="27">
+        <v>400</v>
+      </c>
+      <c r="F79" s="27">
+        <v>996</v>
+      </c>
+      <c r="G79" s="28">
+        <v>0.73</v>
+      </c>
+      <c r="H79" s="27">
+        <v>1986</v>
+      </c>
+      <c r="I79" s="27">
+        <v>403</v>
+      </c>
+      <c r="J79" s="27">
+        <v>1582</v>
+      </c>
+      <c r="K79" s="29">
+        <v>0.73</v>
+      </c>
+      <c r="L79" s="30">
+        <v>43287</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="43"/>
+      <c r="B80" s="26">
+        <v>782.88</v>
+      </c>
+      <c r="C80" s="27">
+        <v>550</v>
+      </c>
+      <c r="D80" s="27">
+        <v>1439</v>
+      </c>
+      <c r="E80" s="27">
+        <v>376</v>
+      </c>
+      <c r="F80" s="27">
+        <v>1063</v>
+      </c>
+      <c r="G80" s="28">
+        <v>0.752</v>
+      </c>
+      <c r="H80" s="27">
+        <v>2094</v>
+      </c>
+      <c r="I80" s="27">
+        <v>646</v>
+      </c>
+      <c r="J80" s="27">
+        <v>1448</v>
+      </c>
+      <c r="K80" s="29">
+        <v>0.84</v>
+      </c>
+      <c r="L80" s="30">
+        <v>43286</v>
+      </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="43"/>
+      <c r="B81" s="26">
+        <v>244.01</v>
+      </c>
+      <c r="C81" s="27">
+        <v>95</v>
+      </c>
+      <c r="D81" s="27">
+        <v>1102</v>
+      </c>
+      <c r="E81" s="27">
+        <v>694</v>
+      </c>
+      <c r="F81" s="27">
+        <v>408</v>
+      </c>
+      <c r="G81" s="28">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H81" s="27">
+        <v>1036</v>
+      </c>
+      <c r="I81" s="27">
+        <v>669</v>
+      </c>
+      <c r="J81" s="27">
+        <v>367</v>
+      </c>
+      <c r="K81" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="L81" s="30">
+        <v>43284</v>
+      </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="43"/>
+      <c r="B82" s="26">
+        <v>74.86</v>
+      </c>
+      <c r="C82" s="27">
+        <v>-3</v>
+      </c>
+      <c r="D82" s="27">
+        <v>930</v>
+      </c>
+      <c r="E82" s="27">
+        <v>887</v>
+      </c>
+      <c r="F82" s="27">
+        <v>43</v>
+      </c>
+      <c r="G82" s="28">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H82" s="27">
+        <v>1280</v>
+      </c>
+      <c r="I82" s="27">
+        <v>1552</v>
+      </c>
+      <c r="J82" s="27">
+        <v>-272</v>
+      </c>
+      <c r="K82" s="29">
+        <v>0.87</v>
+      </c>
+      <c r="L82" s="30">
+        <v>43283</v>
+      </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="43"/>
+      <c r="B83" s="26">
+        <v>87.87</v>
+      </c>
+      <c r="C83" s="27">
+        <v>110</v>
+      </c>
+      <c r="D83" s="27">
+        <v>965</v>
+      </c>
+      <c r="E83" s="27">
+        <v>828</v>
+      </c>
+      <c r="F83" s="27">
+        <v>137</v>
+      </c>
+      <c r="G83" s="28">
+        <v>0.504</v>
+      </c>
+      <c r="H83" s="27">
+        <v>1698</v>
+      </c>
+      <c r="I83" s="27">
+        <v>1623</v>
+      </c>
+      <c r="J83" s="27">
+        <v>74</v>
+      </c>
+      <c r="K83" s="29">
+        <v>1.02</v>
+      </c>
+      <c r="L83" s="30">
+        <v>43280</v>
+      </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="47"/>
-      <c r="L84" s="43"/>
+      <c r="B84" s="26">
+        <v>350.1</v>
+      </c>
+      <c r="C84" s="27">
+        <v>332</v>
+      </c>
+      <c r="D84" s="27">
+        <v>1067</v>
+      </c>
+      <c r="E84" s="27">
+        <v>749</v>
+      </c>
+      <c r="F84" s="27">
+        <v>318</v>
+      </c>
+      <c r="G84" s="28">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H84" s="27">
+        <v>1969</v>
+      </c>
+      <c r="I84" s="27">
+        <v>1230</v>
+      </c>
+      <c r="J84" s="27">
+        <v>739</v>
+      </c>
+      <c r="K84" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="L84" s="30">
+        <v>43279</v>
+      </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="43"/>
+      <c r="B85" s="26">
+        <v>-1110.5899999999999</v>
+      </c>
+      <c r="C85" s="27">
+        <v>-1224</v>
+      </c>
+      <c r="D85" s="27">
+        <v>357</v>
+      </c>
+      <c r="E85" s="27">
+        <v>1460</v>
+      </c>
+      <c r="F85" s="27">
+        <v>-1103</v>
+      </c>
+      <c r="G85" s="28">
+        <v>0.187</v>
+      </c>
+      <c r="H85" s="27">
+        <v>1153</v>
+      </c>
+      <c r="I85" s="27">
+        <v>2385</v>
+      </c>
+      <c r="J85" s="27">
+        <v>-1232</v>
+      </c>
+      <c r="K85" s="29">
+        <v>1.08</v>
+      </c>
+      <c r="L85" s="30">
+        <v>43278</v>
+      </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="44"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="43"/>
+      <c r="B86" s="26">
+        <v>353.34</v>
+      </c>
+      <c r="C86" s="27">
+        <v>343</v>
+      </c>
+      <c r="D86" s="27">
+        <v>1110</v>
+      </c>
+      <c r="E86" s="27">
+        <v>706</v>
+      </c>
+      <c r="F86" s="27">
+        <v>404</v>
+      </c>
+      <c r="G86" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H86" s="27">
+        <v>2061</v>
+      </c>
+      <c r="I86" s="27">
+        <v>1233</v>
+      </c>
+      <c r="J86" s="27">
+        <v>827</v>
+      </c>
+      <c r="K86" s="29">
+        <v>1.01</v>
+      </c>
+      <c r="L86" s="30">
+        <v>43277</v>
+      </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="43"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="44"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="43"/>
+      <c r="B87" s="26">
+        <v>-1337.13</v>
+      </c>
+      <c r="C87" s="27">
+        <v>-1564</v>
+      </c>
+      <c r="D87" s="27">
+        <v>362</v>
+      </c>
+      <c r="E87" s="27">
+        <v>1466</v>
+      </c>
+      <c r="F87" s="27">
+        <v>-1104</v>
+      </c>
+      <c r="G87" s="28">
+        <v>0.189</v>
+      </c>
+      <c r="H87" s="27">
+        <v>724</v>
+      </c>
+      <c r="I87" s="27">
+        <v>2728</v>
+      </c>
+      <c r="J87" s="27">
+        <v>-2004</v>
+      </c>
+      <c r="K87" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="L87" s="30">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="31">
+        <v>246.22</v>
+      </c>
+      <c r="C88" s="32">
+        <v>309</v>
+      </c>
+      <c r="D88" s="32">
+        <v>1175</v>
+      </c>
+      <c r="E88" s="32">
+        <v>649</v>
+      </c>
+      <c r="F88" s="32">
+        <v>526</v>
+      </c>
+      <c r="G88" s="33">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="H88" s="32">
+        <v>3367</v>
+      </c>
+      <c r="I88" s="32">
+        <v>1836</v>
+      </c>
+      <c r="J88" s="32">
+        <v>1531</v>
+      </c>
+      <c r="K88" s="34">
+        <v>1.58</v>
+      </c>
+      <c r="L88" s="30">
+        <v>43273</v>
+      </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="43"/>
+      <c r="B89" s="18">
+        <v>299.77</v>
+      </c>
+      <c r="C89" s="19">
+        <v>-711</v>
+      </c>
+      <c r="D89" s="19">
+        <v>9903</v>
+      </c>
+      <c r="E89" s="19">
+        <v>8215</v>
+      </c>
+      <c r="F89" s="19">
+        <v>1688</v>
+      </c>
+      <c r="G89" s="20">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H89" s="19">
+        <v>17372</v>
+      </c>
+      <c r="I89" s="19">
+        <v>14311</v>
+      </c>
+      <c r="J89" s="19">
+        <v>3061</v>
+      </c>
+      <c r="K89" s="21">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="44"/>
@@ -4829,32 +5057,6 @@
       <c r="K91" s="47"/>
       <c r="L91" s="43"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="43"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="43"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BB8AC-1C9D-4546-A2EA-21616C757864}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4CE8B-B7C4-414A-8308-784772A3614C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
@@ -336,22 +336,22 @@
     <t>TRIN</t>
   </si>
   <si>
-    <t>Down -2.98 Points per Component with overall change of 1.21% from closing price 2880.34 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -6.88 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -2.25 Points per Component with overall change of 4.84% from closing price 1015.94 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -2.48 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -1.76 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Down -5.91 Points per Component with overall change of 4.53% from closing price 2682.63 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -12.30 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -1.64 Points per Component with overall change of 4.60% from closing price 950.90 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -3.83 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
   <si>
     <t>Down -2.44 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Down -5.14 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,7 +812,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1137,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1190,262 +1189,262 @@
         <v>64</v>
       </c>
       <c r="D4" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="9">
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="11">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13">
         <v>7.25</v>
-      </c>
-      <c r="I4" s="13">
-        <v>-2.75</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>10</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D5" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H5" s="12">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="I5" s="15">
-        <v>6.75</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10">
-        <v>7</v>
-      </c>
       <c r="G6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="12">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="I6" s="15">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F7" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" s="12">
-        <v>4.75</v>
+        <v>-0.5</v>
       </c>
       <c r="I7" s="15">
-        <v>6.75</v>
+        <v>-0.5</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F8" s="10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G8" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" s="12">
-        <v>4.5</v>
+        <v>-0.75</v>
       </c>
       <c r="I8" s="15">
-        <v>3.25</v>
+        <v>-3.75</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="F9" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
-        <v>4.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I9" s="15">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G10" s="10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="H10" s="12">
-        <v>2.25</v>
+        <v>-2.25</v>
       </c>
       <c r="I10" s="15">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="10">
         <v>-4</v>
       </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
       <c r="F11" s="10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="G11" s="10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="12">
-        <v>2</v>
+        <v>-2.25</v>
       </c>
       <c r="I11" s="15">
-        <v>4.5</v>
+        <v>-4.75</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="10">
         <v>-3</v>
       </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
       <c r="F12" s="10">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="G12" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12">
-        <v>2</v>
+        <v>-2.5</v>
       </c>
       <c r="I12" s="15">
-        <v>3.75</v>
+        <v>-0.75</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
@@ -1454,92 +1453,92 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F13" s="10">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="G13" s="10">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="H13" s="12">
-        <v>1.25</v>
+        <v>-3</v>
       </c>
       <c r="I13" s="15">
-        <v>6.75</v>
+        <v>-5</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>-5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10">
         <v>-4</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F14" s="10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="G14" s="10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="12">
-        <v>0.75</v>
+        <v>-3.5</v>
       </c>
       <c r="I14" s="15">
-        <v>2.25</v>
+        <v>-4</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10">
+        <v>-4</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-6</v>
+      </c>
+      <c r="F15" s="10">
         <v>-3</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>3</v>
-      </c>
       <c r="G15" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="12">
-        <v>0.75</v>
+        <v>-3.5</v>
       </c>
       <c r="I15" s="15">
-        <v>1.5</v>
+        <v>-5.25</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="L15" s="53" t="s">
         <v>97</v>
@@ -1547,32 +1546,32 @@
     </row>
     <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10">
+        <v>-8</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-7</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-4</v>
+      </c>
+      <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="E16" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
       <c r="H16" s="12">
-        <v>0.5</v>
+        <v>-4</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="L16" s="53" t="s">
         <v>98</v>
@@ -1580,32 +1579,32 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D17" s="10">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E17" s="10">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F17" s="10">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G17" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
-        <v>0.25</v>
+        <v>-4.5</v>
       </c>
       <c r="I17" s="15">
-        <v>3.75</v>
+        <v>-1.5</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -1616,86 +1615,86 @@
         <v>53</v>
       </c>
       <c r="D18" s="10">
+        <v>-6</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-7</v>
+      </c>
+      <c r="F18" s="10">
         <v>-4</v>
       </c>
-      <c r="E18" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
       <c r="G18" s="10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H18" s="12">
-        <v>-0.5</v>
+        <v>-4.75</v>
       </c>
       <c r="I18" s="15">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D19" s="10">
+        <v>-4</v>
+      </c>
+      <c r="E19" s="10">
         <v>-7</v>
       </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
       <c r="F19" s="10">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G19" s="10">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H19" s="12">
-        <v>-0.75</v>
+        <v>-4.75</v>
       </c>
       <c r="I19" s="15">
-        <v>2.75</v>
+        <v>-5.5</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D20" s="10">
         <v>-5</v>
       </c>
       <c r="E20" s="10">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F20" s="10">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G20" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H20" s="12">
-        <v>-0.75</v>
+        <v>-5</v>
       </c>
       <c r="I20" s="15">
-        <v>0.25</v>
+        <v>-5</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -1706,596 +1705,596 @@
         <v>74</v>
       </c>
       <c r="D21" s="10">
+        <v>-8</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-6</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-5</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>-5.25</v>
+      </c>
+      <c r="I21" s="15">
         <v>-3</v>
-      </c>
-      <c r="E21" s="10">
-        <v>-3</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="15">
-        <v>1.5</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D22" s="10">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E22" s="10">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F22" s="10">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G22" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="12">
-        <v>-1.25</v>
+        <v>-5.25</v>
       </c>
       <c r="I22" s="15">
-        <v>2.25</v>
+        <v>-5.25</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D23" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E23" s="10">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F23" s="10">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="G23" s="10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H23" s="12">
-        <v>-1.25</v>
+        <v>-5.5</v>
       </c>
       <c r="I23" s="15">
-        <v>-1.25</v>
+        <v>-6.25</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D24" s="10">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E24" s="10">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G24" s="10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H24" s="12">
-        <v>-1.25</v>
+        <v>-5.75</v>
       </c>
       <c r="I24" s="15">
-        <v>-2.75</v>
+        <v>-5</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D25" s="10">
+        <v>-6</v>
+      </c>
+      <c r="E25" s="10">
+        <v>-7</v>
+      </c>
+      <c r="F25" s="10">
         <v>-5</v>
       </c>
-      <c r="E25" s="10">
-        <v>-3</v>
-      </c>
-      <c r="F25" s="10">
-        <v>-1</v>
-      </c>
       <c r="G25" s="10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H25" s="12">
-        <v>-2.25</v>
+        <v>-5.75</v>
       </c>
       <c r="I25" s="15">
-        <v>-0.25</v>
+        <v>-6</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D26" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E26" s="10">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F26" s="10">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="G26" s="10">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="H26" s="12">
-        <v>-2.5</v>
+        <v>-6</v>
       </c>
       <c r="I26" s="15">
-        <v>0.5</v>
+        <v>-8</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D27" s="10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E27" s="10">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="F27" s="10">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="G27" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H27" s="12">
-        <v>-2.75</v>
+        <v>-6.25</v>
       </c>
       <c r="I27" s="15">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D28" s="10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E28" s="10">
+        <v>-9</v>
+      </c>
+      <c r="F28" s="10">
+        <v>-6</v>
+      </c>
+      <c r="G28" s="10">
         <v>-4</v>
       </c>
-      <c r="F28" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
       <c r="H28" s="12">
-        <v>-3</v>
+        <v>-6.5</v>
       </c>
       <c r="I28" s="15">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E29" s="10">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F29" s="10">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="G29" s="10">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="H29" s="12">
-        <v>-3</v>
+        <v>-6.5</v>
       </c>
       <c r="I29" s="15">
-        <v>1.5</v>
+        <v>-7.75</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>-4.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D30" s="10">
+        <v>-8</v>
+      </c>
+      <c r="E30" s="10">
+        <v>-8</v>
+      </c>
+      <c r="F30" s="10">
         <v>-7</v>
       </c>
-      <c r="E30" s="10">
+      <c r="G30" s="10">
+        <v>-4</v>
+      </c>
+      <c r="H30" s="12">
+        <v>-6.75</v>
+      </c>
+      <c r="I30" s="15">
         <v>-5</v>
-      </c>
-      <c r="F30" s="10">
-        <v>-2</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="12">
-        <v>-3.5</v>
-      </c>
-      <c r="I30" s="15">
-        <v>-0.75</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E31" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F31" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="G31" s="10">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H31" s="12">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="I31" s="15">
-        <v>-1.25</v>
+        <v>-7.75</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D32" s="10">
+        <v>-8</v>
+      </c>
+      <c r="E32" s="10">
+        <v>-9</v>
+      </c>
+      <c r="F32" s="10">
         <v>-7</v>
       </c>
-      <c r="E32" s="10">
+      <c r="G32" s="10">
         <v>-5</v>
       </c>
-      <c r="F32" s="10">
-        <v>-3</v>
-      </c>
-      <c r="G32" s="10">
-        <v>-2</v>
-      </c>
       <c r="H32" s="12">
-        <v>-4.25</v>
+        <v>-7.25</v>
       </c>
       <c r="I32" s="15">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D33" s="10">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E33" s="10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F33" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="G33" s="10">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H33" s="12">
-        <v>-4.25</v>
+        <v>-7.75</v>
       </c>
       <c r="I33" s="15">
-        <v>-3.25</v>
+        <v>-8.5</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D34" s="10">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E34" s="10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F34" s="10">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="G34" s="10">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H34" s="12">
-        <v>-4.75</v>
+        <v>-8</v>
       </c>
       <c r="I34" s="15">
-        <v>-3.25</v>
+        <v>-5.25</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D35" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E35" s="10">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="F35" s="10">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="G35" s="10">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H35" s="12">
-        <v>-4.75</v>
+        <v>-8</v>
       </c>
       <c r="I35" s="15">
         <v>-6</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D36" s="10">
         <v>-8</v>
       </c>
       <c r="E36" s="10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F36" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="G36" s="10">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H36" s="12">
-        <v>-5.5</v>
+        <v>-8</v>
       </c>
       <c r="I36" s="15">
-        <v>-5.25</v>
+        <v>-7</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E37" s="10">
+        <v>-9</v>
+      </c>
+      <c r="F37" s="10">
         <v>-8</v>
       </c>
-      <c r="F37" s="10">
-        <v>-6</v>
-      </c>
       <c r="G37" s="10">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H37" s="12">
-        <v>-5.75</v>
+        <v>-8.25</v>
       </c>
       <c r="I37" s="15">
-        <v>-5</v>
+        <v>-6.75</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="10">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E38" s="10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F38" s="10">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="G38" s="10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="H38" s="12">
-        <v>-6</v>
+        <v>-8.5</v>
       </c>
       <c r="I38" s="15">
-        <v>-4.75</v>
+        <v>-7</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" s="10">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E39" s="10">
+        <v>-10</v>
+      </c>
+      <c r="F39" s="10">
+        <v>-10</v>
+      </c>
+      <c r="G39" s="10">
         <v>-8</v>
       </c>
-      <c r="F39" s="10">
-        <v>-6</v>
-      </c>
-      <c r="G39" s="10">
-        <v>-3</v>
-      </c>
       <c r="H39" s="12">
-        <v>-6.5</v>
+        <v>-8.75</v>
       </c>
       <c r="I39" s="15">
-        <v>-7.75</v>
+        <v>-9.5</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="10">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E40" s="10">
         <v>-9</v>
       </c>
       <c r="F40" s="10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="G40" s="10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H40" s="34">
-        <v>-8.25</v>
+        <v>-8.75</v>
       </c>
       <c r="I40" s="35">
-        <v>-6.5</v>
+        <v>-9.75</v>
       </c>
       <c r="J40" s="36">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2303,31 +2302,31 @@
       <c r="C41" s="40"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>-3.5405405405405403</v>
+        <v>-4.8378378378378377</v>
       </c>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>-1.6756756756756757</v>
+        <v>-6.1081081081081079</v>
       </c>
       <c r="F41" s="41">
         <f t="shared" si="1"/>
-        <v>0.3783783783783784</v>
+        <v>-4.5945945945945947</v>
       </c>
       <c r="G41" s="41">
         <f t="shared" si="1"/>
-        <v>0.83783783783783783</v>
+        <v>-3</v>
       </c>
       <c r="H41" s="37">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-4.6351351351351351</v>
       </c>
       <c r="I41" s="38">
         <f t="shared" si="1"/>
-        <v>0.23648648648648649</v>
+        <v>-4.6486486486486482</v>
       </c>
       <c r="J41" s="39">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>-1.2364864864864864</v>
+        <v>1.3513513513513153E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2344,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2361,7 +2360,7 @@
     <col min="11" max="11" width="8.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="2.140625" style="42" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="42"/>
     <col min="16" max="17" width="10.7109375" style="2" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
@@ -2430,560 +2429,560 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
-        <v>-297.05</v>
+        <v>988.53</v>
       </c>
       <c r="C4" s="26">
-        <v>-460</v>
+        <v>1634</v>
       </c>
       <c r="D4" s="26">
-        <v>199</v>
+        <v>445</v>
       </c>
       <c r="E4" s="26">
-        <v>300</v>
+        <v>58</v>
       </c>
       <c r="F4" s="26">
-        <v>-101</v>
+        <v>387</v>
       </c>
       <c r="G4" s="27">
-        <v>0.39300000000000002</v>
+        <v>0.879</v>
       </c>
       <c r="H4" s="26">
-        <v>837</v>
+        <v>2589</v>
       </c>
       <c r="I4" s="26">
-        <v>1293</v>
+        <v>755</v>
       </c>
       <c r="J4" s="26">
-        <v>-456</v>
+        <v>1833</v>
       </c>
       <c r="K4" s="28">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="L4" s="29">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="N4" s="54">
         <f>(D4/E4)/(H4/I4)</f>
-        <v>1.0247192353643966</v>
-      </c>
-      <c r="P4" s="60">
+        <v>2.2374169230564322</v>
+      </c>
+      <c r="P4" s="59">
         <f>D4/E4</f>
-        <v>0.66333333333333333</v>
-      </c>
-      <c r="Q4" s="60">
+        <v>7.6724137931034484</v>
+      </c>
+      <c r="Q4" s="59">
         <f>H4/I4</f>
-        <v>0.64733178654292345</v>
-      </c>
-      <c r="R4" s="61">
+        <v>3.4291390728476823</v>
+      </c>
+      <c r="R4" s="60">
         <f>P4/Q4</f>
-        <v>1.0247192353643966</v>
+        <v>2.2374169230564322</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
-        <v>-129.25</v>
+        <v>-337.55</v>
       </c>
       <c r="C5" s="26">
-        <v>-218</v>
+        <v>-277</v>
       </c>
       <c r="D5" s="26">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E5" s="26">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F5" s="26">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G5" s="27">
-        <v>0.58499999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="H5" s="26">
-        <v>1245</v>
+        <v>1453</v>
       </c>
       <c r="I5" s="26">
-        <v>774</v>
+        <v>1507</v>
       </c>
       <c r="J5" s="26">
-        <v>471</v>
+        <v>-53</v>
       </c>
       <c r="K5" s="28">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
       <c r="L5" s="29">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="N5" s="54">
         <f t="shared" ref="N5:N14" si="0">(D5/E5)/(H5/I5)</f>
-        <v>0.91098652033878091</v>
-      </c>
-      <c r="P5" s="60">
+        <v>1.1878636008023482</v>
+      </c>
+      <c r="P5" s="59">
         <f t="shared" ref="P5:P14" si="1">D5/E5</f>
-        <v>1.4653465346534653</v>
-      </c>
-      <c r="Q5" s="60">
+        <v>1.1452991452991452</v>
+      </c>
+      <c r="Q5" s="59">
         <f t="shared" ref="Q5:Q14" si="2">H5/I5</f>
-        <v>1.6085271317829457</v>
-      </c>
-      <c r="R5" s="61">
+        <v>0.96416721964167218</v>
+      </c>
+      <c r="R5" s="60">
         <f t="shared" ref="R5:R14" si="3">P5/Q5</f>
-        <v>0.91098652033878091</v>
+        <v>1.1878636008023482</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
-        <v>-354.87</v>
+        <v>-952.13</v>
       </c>
       <c r="C6" s="26">
-        <v>-524</v>
+        <v>-2117</v>
       </c>
       <c r="D6" s="26">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="E6" s="26">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="F6" s="26">
-        <v>-160</v>
+        <v>-335</v>
       </c>
       <c r="G6" s="27">
-        <v>0.33400000000000002</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="H6" s="26">
-        <v>640</v>
+        <v>553</v>
       </c>
       <c r="I6" s="26">
-        <v>1446</v>
+        <v>2719</v>
       </c>
       <c r="J6" s="26">
-        <v>-805</v>
+        <v>-2165</v>
       </c>
       <c r="K6" s="28">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="L6" s="29">
-        <v>43378</v>
+        <v>43399</v>
       </c>
       <c r="N6" s="54">
         <f t="shared" si="0"/>
-        <v>1.1605908054711247</v>
-      </c>
-      <c r="P6" s="60">
+        <v>0.97630583939711191</v>
+      </c>
+      <c r="P6" s="59">
         <f t="shared" si="1"/>
-        <v>0.51367781155015202</v>
-      </c>
-      <c r="Q6" s="60">
+        <v>0.19856459330143542</v>
+      </c>
+      <c r="Q6" s="59">
         <f t="shared" si="2"/>
-        <v>0.44260027662517287</v>
-      </c>
-      <c r="R6" s="61">
+        <v>0.20338359691062891</v>
+      </c>
+      <c r="R6" s="60">
         <f t="shared" si="3"/>
-        <v>1.1605908054711247</v>
+        <v>0.97630583939711191</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
-        <v>-597.61</v>
+        <v>827.48</v>
       </c>
       <c r="C7" s="26">
-        <v>-695</v>
+        <v>717</v>
       </c>
       <c r="D7" s="26">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="E7" s="26">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="F7" s="26">
-        <v>-185</v>
+        <v>308</v>
       </c>
       <c r="G7" s="27">
-        <v>0.312</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="26">
-        <v>795</v>
+        <v>2226</v>
       </c>
       <c r="I7" s="26">
-        <v>1319</v>
+        <v>841</v>
       </c>
       <c r="J7" s="26">
-        <v>-524</v>
+        <v>1384</v>
       </c>
       <c r="K7" s="28">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="L7" s="29">
-        <v>43377</v>
+        <v>43398</v>
       </c>
       <c r="N7" s="54">
         <f t="shared" si="0"/>
-        <v>0.76425912683132546</v>
-      </c>
-      <c r="P7" s="60">
+        <v>1.577444632784061</v>
+      </c>
+      <c r="P7" s="59">
         <f t="shared" si="1"/>
-        <v>0.46064139941690962</v>
-      </c>
-      <c r="Q7" s="60">
+        <v>4.1752577319587632</v>
+      </c>
+      <c r="Q7" s="59">
         <f t="shared" si="2"/>
-        <v>0.60272934040940107</v>
-      </c>
-      <c r="R7" s="61">
+        <v>2.6468489892984541</v>
+      </c>
+      <c r="R7" s="60">
         <f t="shared" si="3"/>
-        <v>0.76425912683132546</v>
+        <v>1.577444632784061</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
-        <v>-18.02</v>
+        <v>-1732.65</v>
       </c>
       <c r="C8" s="26">
-        <v>-39</v>
+        <v>-2875</v>
       </c>
       <c r="D8" s="26">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="E8" s="26">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="F8" s="26">
-        <v>16</v>
+        <v>-335</v>
       </c>
       <c r="G8" s="27">
-        <v>0.51</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="H8" s="26">
-        <v>1132</v>
+        <v>364</v>
       </c>
       <c r="I8" s="26">
-        <v>965</v>
+        <v>2830</v>
       </c>
       <c r="J8" s="26">
-        <v>167</v>
+        <v>-2465</v>
       </c>
       <c r="K8" s="28">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="L8" s="29">
-        <v>43376</v>
+        <v>43397</v>
       </c>
       <c r="N8" s="54">
         <f t="shared" si="0"/>
-        <v>0.90883538241392403</v>
-      </c>
-      <c r="P8" s="60">
+        <v>1.5586561409950432</v>
+      </c>
+      <c r="P8" s="59">
         <f t="shared" si="1"/>
-        <v>1.0661157024793388</v>
-      </c>
-      <c r="Q8" s="60">
+        <v>0.20047732696897375</v>
+      </c>
+      <c r="Q8" s="59">
         <f t="shared" si="2"/>
-        <v>1.1730569948186529</v>
-      </c>
-      <c r="R8" s="61">
+        <v>0.12862190812720847</v>
+      </c>
+      <c r="R8" s="60">
         <f t="shared" si="3"/>
-        <v>0.90883538241392403</v>
+        <v>1.5586561409950432</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
-        <v>-211.52</v>
+        <v>-379.3</v>
       </c>
       <c r="C9" s="26">
-        <v>-239</v>
+        <v>-558</v>
       </c>
       <c r="D9" s="26">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="E9" s="26">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="F9" s="26">
-        <v>-24</v>
+        <v>-184</v>
       </c>
       <c r="G9" s="27">
-        <v>0.46800000000000003</v>
+        <v>0.314</v>
       </c>
       <c r="H9" s="26">
-        <v>1014</v>
+        <v>1070</v>
       </c>
       <c r="I9" s="26">
-        <v>1052</v>
+        <v>1747</v>
       </c>
       <c r="J9" s="26">
-        <v>-37</v>
+        <v>-676</v>
       </c>
       <c r="K9" s="28">
-        <v>1.01</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L9" s="29">
-        <v>43375</v>
+        <v>43396</v>
       </c>
       <c r="N9" s="54">
         <f t="shared" si="0"/>
-        <v>0.94207531342809858</v>
-      </c>
-      <c r="P9" s="60">
+        <v>0.75685403667475004</v>
+      </c>
+      <c r="P9" s="59">
         <f t="shared" si="1"/>
-        <v>0.90804597701149425</v>
-      </c>
-      <c r="Q9" s="60">
+        <v>0.46355685131195334</v>
+      </c>
+      <c r="Q9" s="59">
         <f t="shared" si="2"/>
-        <v>0.96387832699619769</v>
-      </c>
-      <c r="R9" s="61">
+        <v>0.6124785346307956</v>
+      </c>
+      <c r="R9" s="60">
         <f t="shared" si="3"/>
-        <v>0.94207531342809858</v>
+        <v>0.75685403667475004</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
-        <v>53.03</v>
+        <v>-150.93</v>
       </c>
       <c r="C10" s="26">
-        <v>45</v>
+        <v>-186</v>
       </c>
       <c r="D10" s="26">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="E10" s="26">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="F10" s="26">
-        <v>17</v>
+        <v>-181</v>
       </c>
       <c r="G10" s="27">
-        <v>0.51200000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="H10" s="26">
-        <v>1380</v>
+        <v>746</v>
       </c>
       <c r="I10" s="26">
-        <v>753</v>
+        <v>1483</v>
       </c>
       <c r="J10" s="26">
-        <v>626</v>
+        <v>-737</v>
       </c>
       <c r="K10" s="28">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="L10" s="29">
-        <v>43374</v>
+        <v>43395</v>
       </c>
       <c r="N10" s="54">
         <f t="shared" si="0"/>
-        <v>0.58398311174991024</v>
-      </c>
-      <c r="P10" s="60">
+        <v>0.93275573341300233</v>
+      </c>
+      <c r="P10" s="59">
         <f t="shared" si="1"/>
-        <v>1.0702479338842976</v>
-      </c>
-      <c r="Q10" s="60">
+        <v>0.46920821114369504</v>
+      </c>
+      <c r="Q10" s="59">
         <f t="shared" si="2"/>
-        <v>1.8326693227091633</v>
-      </c>
-      <c r="R10" s="61">
+        <v>0.50303438975050574</v>
+      </c>
+      <c r="R10" s="60">
         <f t="shared" si="3"/>
-        <v>0.58398311174991024</v>
+        <v>0.93275573341300233</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
-        <v>71.59</v>
+        <v>-264.27999999999997</v>
       </c>
       <c r="C11" s="26">
-        <v>97</v>
+        <v>-316</v>
       </c>
       <c r="D11" s="26">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="E11" s="26">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="F11" s="26">
-        <v>98</v>
+        <v>-47</v>
       </c>
       <c r="G11" s="27">
-        <v>0.58899999999999997</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H11" s="26">
-        <v>1076</v>
+        <v>1200</v>
       </c>
       <c r="I11" s="26">
-        <v>1115</v>
+        <v>1288</v>
       </c>
       <c r="J11" s="26">
-        <v>-38</v>
+        <v>-87</v>
       </c>
       <c r="K11" s="28">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="L11" s="29">
-        <v>43371</v>
+        <v>43392</v>
       </c>
       <c r="N11" s="54">
         <f t="shared" si="0"/>
-        <v>1.5440055762081784</v>
-      </c>
-      <c r="P11" s="60">
+        <v>0.88989090909090907</v>
+      </c>
+      <c r="P11" s="59">
         <f t="shared" si="1"/>
-        <v>1.49</v>
-      </c>
-      <c r="Q11" s="60">
+        <v>0.8290909090909091</v>
+      </c>
+      <c r="Q11" s="59">
         <f t="shared" si="2"/>
-        <v>0.96502242152466366</v>
-      </c>
-      <c r="R11" s="61">
+        <v>0.93167701863354035</v>
+      </c>
+      <c r="R11" s="60">
         <f t="shared" si="3"/>
-        <v>1.5440055762081784</v>
+        <v>0.88989090909090907</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
-        <v>137.34</v>
+        <v>-829.47</v>
       </c>
       <c r="C12" s="26">
+        <v>-822</v>
+      </c>
+      <c r="D12" s="26">
         <v>97</v>
       </c>
-      <c r="D12" s="26">
-        <v>254</v>
-      </c>
       <c r="E12" s="26">
-        <v>247</v>
+        <v>403</v>
       </c>
       <c r="F12" s="26">
-        <v>7</v>
+        <v>-306</v>
       </c>
       <c r="G12" s="27">
-        <v>0.502</v>
+        <v>0.192</v>
       </c>
       <c r="H12" s="26">
-        <v>995</v>
+        <v>402</v>
       </c>
       <c r="I12" s="26">
-        <v>831</v>
+        <v>1948</v>
       </c>
       <c r="J12" s="26">
-        <v>164</v>
+        <v>-1546</v>
       </c>
       <c r="K12" s="28">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="L12" s="29">
-        <v>43370</v>
+        <v>43391</v>
       </c>
       <c r="N12" s="54">
         <f t="shared" si="0"/>
-        <v>0.85884483144467261</v>
-      </c>
-      <c r="P12" s="60">
+        <v>1.166351863511228</v>
+      </c>
+      <c r="P12" s="59">
         <f t="shared" si="1"/>
-        <v>1.0283400809716599</v>
-      </c>
-      <c r="Q12" s="60">
+        <v>0.24069478908188585</v>
+      </c>
+      <c r="Q12" s="59">
         <f t="shared" si="2"/>
-        <v>1.1973525872442841</v>
-      </c>
-      <c r="R12" s="61">
+        <v>0.20636550308008214</v>
+      </c>
+      <c r="R12" s="60">
         <f t="shared" si="3"/>
-        <v>0.85884483144467261</v>
+        <v>1.166351863511228</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30">
-        <v>-152.07</v>
+        <v>-141.83000000000001</v>
       </c>
       <c r="C13" s="31">
-        <v>-162</v>
+        <v>-200</v>
       </c>
       <c r="D13" s="31">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="E13" s="31">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F13" s="31">
-        <v>-183</v>
+        <v>-72</v>
       </c>
       <c r="G13" s="32">
-        <v>0.312</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="H13" s="31">
-        <v>616</v>
+        <v>1033</v>
       </c>
       <c r="I13" s="31">
-        <v>1455</v>
+        <v>1103</v>
       </c>
       <c r="J13" s="31">
-        <v>-838</v>
+        <v>-70</v>
       </c>
       <c r="K13" s="33">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="L13" s="29">
-        <v>43369</v>
+        <v>43390</v>
       </c>
       <c r="N13" s="54">
         <f t="shared" si="0"/>
-        <v>1.0944224397303577</v>
-      </c>
-      <c r="P13" s="60">
+        <v>0.79706311440764621</v>
+      </c>
+      <c r="P13" s="59">
         <f t="shared" si="1"/>
-        <v>0.4633431085043988</v>
-      </c>
-      <c r="Q13" s="60">
+        <v>0.74647887323943662</v>
+      </c>
+      <c r="Q13" s="59">
         <f t="shared" si="2"/>
-        <v>0.42336769759450171</v>
-      </c>
-      <c r="R13" s="61">
+        <v>0.93653671804170446</v>
+      </c>
+      <c r="R13" s="60">
         <f t="shared" si="3"/>
-        <v>1.0944224397303577</v>
+        <v>0.79706311440764621</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
-        <v>-1498.43</v>
+        <v>-2972.13</v>
       </c>
       <c r="C14" s="18">
-        <v>-2098</v>
+        <v>-5000</v>
       </c>
       <c r="D14" s="18">
-        <v>2286</v>
+        <v>2141</v>
       </c>
       <c r="E14" s="18">
-        <v>2707</v>
+        <v>2872</v>
       </c>
       <c r="F14" s="18">
-        <v>-421</v>
+        <v>-731</v>
       </c>
       <c r="G14" s="19">
-        <v>0.45800000000000002</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="H14" s="18">
-        <v>9735</v>
+        <v>11642</v>
       </c>
       <c r="I14" s="18">
-        <v>11008</v>
+        <v>16226</v>
       </c>
       <c r="J14" s="18">
-        <v>-1273</v>
+        <v>-4584</v>
       </c>
       <c r="K14" s="20">
-        <v>1.01</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="N14" s="54">
         <f t="shared" si="0"/>
-        <v>0.95490558917330692</v>
-      </c>
-      <c r="P14" s="60">
+        <v>1.039001341794358</v>
+      </c>
+      <c r="P14" s="59">
         <f t="shared" si="1"/>
-        <v>0.84447728112301446</v>
-      </c>
-      <c r="Q14" s="60">
+        <v>0.74547353760445678</v>
+      </c>
+      <c r="Q14" s="59">
         <f t="shared" si="2"/>
-        <v>0.88435683139534882</v>
-      </c>
-      <c r="R14" s="61">
+        <v>0.71749044743005053</v>
+      </c>
+      <c r="R14" s="60">
         <f t="shared" si="3"/>
-        <v>0.95490558917330692</v>
+        <v>1.039001341794358</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -3065,560 +3064,560 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
-        <v>-21.39</v>
+        <v>295.83999999999997</v>
       </c>
       <c r="C19" s="26">
-        <v>-24</v>
+        <v>426</v>
       </c>
       <c r="D19" s="26">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E19" s="26">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F19" s="26">
-        <v>-7</v>
+        <v>71</v>
       </c>
       <c r="G19" s="27">
-        <v>0.432</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="H19" s="26">
-        <v>247</v>
+        <v>654</v>
       </c>
       <c r="I19" s="26">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="J19" s="26">
-        <v>-73</v>
+        <v>484</v>
       </c>
       <c r="K19" s="28">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="L19" s="29">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="N19" s="54">
         <f t="shared" ref="N19:N82" si="4">(D19/E19)/(H19/I19)</f>
-        <v>1.1306588148693411</v>
-      </c>
-      <c r="P19" s="60">
+        <v>1.4134174311926606</v>
+      </c>
+      <c r="P19" s="59">
         <f>D19/E19</f>
-        <v>0.87272727272727268</v>
-      </c>
-      <c r="Q19" s="60">
+        <v>5.4375</v>
+      </c>
+      <c r="Q19" s="59">
         <f>H19/I19</f>
-        <v>0.77187499999999998</v>
-      </c>
-      <c r="R19" s="61">
+        <v>3.8470588235294119</v>
+      </c>
+      <c r="R19" s="60">
         <f>P19/Q19</f>
-        <v>1.1306588148693411</v>
+        <v>1.4134174311926606</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
-        <v>-139.09</v>
+        <v>-283.97000000000003</v>
       </c>
       <c r="C20" s="26">
-        <v>-204</v>
+        <v>-535</v>
       </c>
       <c r="D20" s="26">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E20" s="26">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F20" s="26">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="G20" s="27">
-        <v>0.34200000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H20" s="26">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="I20" s="26">
-        <v>362</v>
+        <v>572</v>
       </c>
       <c r="J20" s="26">
-        <v>-196</v>
+        <v>-370</v>
       </c>
       <c r="K20" s="28">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="L20" s="29">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="N20" s="54">
         <f t="shared" si="4"/>
-        <v>1.2948042168674698</v>
-      </c>
-      <c r="P20" s="60">
+        <v>1.9920398009950246</v>
+      </c>
+      <c r="P20" s="59">
         <f t="shared" ref="P20:P29" si="5">D20/E20</f>
-        <v>0.59375</v>
-      </c>
-      <c r="Q20" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="Q20" s="59">
         <f t="shared" ref="Q20:Q29" si="6">H20/I20</f>
-        <v>0.4585635359116022</v>
-      </c>
-      <c r="R20" s="61">
+        <v>0.35139860139860141</v>
+      </c>
+      <c r="R20" s="60">
         <f t="shared" ref="R20:R29" si="7">P20/Q20</f>
-        <v>1.2948042168674698</v>
+        <v>1.9920398009950246</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
-        <v>-236.59</v>
+        <v>-379.27</v>
       </c>
       <c r="C21" s="26">
-        <v>-362</v>
+        <v>-892</v>
       </c>
       <c r="D21" s="26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21" s="26">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F21" s="26">
-        <v>-65</v>
+        <v>-55</v>
       </c>
       <c r="G21" s="27">
-        <v>0.16200000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H21" s="26">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="I21" s="26">
-        <v>566</v>
+        <v>697</v>
       </c>
       <c r="J21" s="26">
-        <v>-525</v>
+        <v>-485</v>
       </c>
       <c r="K21" s="28">
-        <v>1.0900000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="L21" s="29">
-        <v>43378</v>
+        <v>43399</v>
       </c>
       <c r="N21" s="54">
         <f t="shared" si="4"/>
-        <v>3.0686746987951805</v>
-      </c>
-      <c r="P21" s="60">
+        <v>1.0035395044693742</v>
+      </c>
+      <c r="P21" s="59">
         <f t="shared" si="5"/>
-        <v>0.21686746987951808</v>
-      </c>
-      <c r="Q21" s="60">
+        <v>0.30379746835443039</v>
+      </c>
+      <c r="Q21" s="59">
         <f t="shared" si="6"/>
-        <v>7.0671378091872794E-2</v>
-      </c>
-      <c r="R21" s="61">
+        <v>0.30272596843615496</v>
+      </c>
+      <c r="R21" s="60">
         <f t="shared" si="7"/>
-        <v>3.0686746987951805</v>
+        <v>1.0035395044693742</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
-        <v>-411.84</v>
+        <v>466.68</v>
       </c>
       <c r="C22" s="26">
-        <v>-541</v>
+        <v>415</v>
       </c>
       <c r="D22" s="26">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E22" s="26">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="F22" s="26">
-        <v>-91</v>
+        <v>89</v>
       </c>
       <c r="G22" s="27">
-        <v>5.3999999999999999E-2</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H22" s="26">
-        <v>41</v>
+        <v>713</v>
       </c>
       <c r="I22" s="26">
-        <v>562</v>
+        <v>64</v>
       </c>
       <c r="J22" s="26">
-        <v>-521</v>
+        <v>648</v>
       </c>
       <c r="K22" s="28">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="L22" s="29">
-        <v>43377</v>
+        <v>43398</v>
       </c>
       <c r="N22" s="54">
         <f t="shared" si="4"/>
-        <v>0.84787528287654013</v>
-      </c>
-      <c r="P22" s="60">
+        <v>1.2310158284912842</v>
+      </c>
+      <c r="P22" s="59">
         <f t="shared" si="5"/>
-        <v>6.1855670103092786E-2</v>
-      </c>
-      <c r="Q22" s="60">
+        <v>13.714285714285714</v>
+      </c>
+      <c r="Q22" s="59">
         <f t="shared" si="6"/>
-        <v>7.2953736654804271E-2</v>
-      </c>
-      <c r="R22" s="61">
+        <v>11.140625</v>
+      </c>
+      <c r="R22" s="60">
         <f t="shared" si="7"/>
-        <v>0.84787528287654013</v>
+        <v>1.2310158284912842</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
-        <v>-16.36</v>
+        <v>-867.83</v>
       </c>
       <c r="C23" s="26">
-        <v>-15</v>
+        <v>-1445</v>
       </c>
       <c r="D23" s="26">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E23" s="26">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F23" s="26">
-        <v>21</v>
+        <v>-99</v>
       </c>
       <c r="G23" s="27">
-        <v>0.55900000000000005</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H23" s="26">
-        <v>340</v>
+        <v>15</v>
       </c>
       <c r="I23" s="26">
-        <v>179</v>
+        <v>852</v>
       </c>
       <c r="J23" s="26">
-        <v>161</v>
+        <v>-836</v>
       </c>
       <c r="K23" s="28">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="L23" s="29">
-        <v>43376</v>
+        <v>43397</v>
       </c>
       <c r="N23" s="54">
         <f t="shared" si="4"/>
-        <v>0.79612625538020088</v>
-      </c>
-      <c r="P23" s="60">
+        <v>1.1247524752475246</v>
+      </c>
+      <c r="P23" s="59">
         <f t="shared" si="5"/>
-        <v>1.5121951219512195</v>
-      </c>
-      <c r="Q23" s="60">
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="Q23" s="59">
         <f t="shared" si="6"/>
-        <v>1.8994413407821229</v>
-      </c>
-      <c r="R23" s="61">
+        <v>1.7605633802816902E-2</v>
+      </c>
+      <c r="R23" s="60">
         <f t="shared" si="7"/>
-        <v>0.79612625538020088</v>
+        <v>1.1247524752475246</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
-        <v>-99.94</v>
+        <v>-61.54</v>
       </c>
       <c r="C24" s="26">
-        <v>-112</v>
+        <v>-37</v>
       </c>
       <c r="D24" s="26">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E24" s="26">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F24" s="26">
-        <v>-5</v>
+        <v>-43</v>
       </c>
       <c r="G24" s="27">
-        <v>0.441</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H24" s="26">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="I24" s="26">
-        <v>253</v>
+        <v>489</v>
       </c>
       <c r="J24" s="26">
-        <v>54</v>
+        <v>-280</v>
       </c>
       <c r="K24" s="28">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="L24" s="29">
-        <v>43375</v>
+        <v>43396</v>
       </c>
       <c r="N24" s="54">
         <f t="shared" si="4"/>
-        <v>0.74779828688623473</v>
-      </c>
-      <c r="P24" s="60">
+        <v>0.9661485774499472</v>
+      </c>
+      <c r="P24" s="59">
         <f t="shared" si="5"/>
-        <v>0.90740740740740744</v>
-      </c>
-      <c r="Q24" s="60">
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="Q24" s="59">
         <f t="shared" si="6"/>
-        <v>1.2134387351778657</v>
-      </c>
-      <c r="R24" s="61">
+        <v>0.42535787321063395</v>
+      </c>
+      <c r="R24" s="60">
         <f t="shared" si="7"/>
-        <v>0.74779828688623473</v>
+        <v>0.9661485774499472</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
-        <v>38.53</v>
+        <v>98.76</v>
       </c>
       <c r="C25" s="26">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D25" s="26">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E25" s="26">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F25" s="26">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="G25" s="27">
-        <v>0.39600000000000002</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H25" s="26">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="I25" s="26">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="J25" s="26">
-        <v>-67</v>
+        <v>84</v>
       </c>
       <c r="K25" s="28">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="L25" s="29">
-        <v>43374</v>
+        <v>43395</v>
       </c>
       <c r="N25" s="54">
         <f t="shared" si="4"/>
-        <v>0.96882566585956409</v>
-      </c>
-      <c r="P25" s="60">
+        <v>0.9097046413502109</v>
+      </c>
+      <c r="P25" s="59">
         <f t="shared" si="5"/>
-        <v>0.74576271186440679</v>
-      </c>
-      <c r="Q25" s="60">
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="Q25" s="59">
         <f t="shared" si="6"/>
-        <v>0.76975945017182135</v>
-      </c>
-      <c r="R25" s="61">
+        <v>1.3679653679653681</v>
+      </c>
+      <c r="R25" s="60">
         <f t="shared" si="7"/>
-        <v>0.96882566585956409</v>
+        <v>0.9097046413502109</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
-        <v>-17.53</v>
+        <v>-117.15</v>
       </c>
       <c r="C26" s="26">
-        <v>-91</v>
+        <v>-127</v>
       </c>
       <c r="D26" s="26">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E26" s="26">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F26" s="26">
-        <v>22</v>
+        <v>-23</v>
       </c>
       <c r="G26" s="27">
-        <v>0.55900000000000005</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="H26" s="26">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="I26" s="26">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="J26" s="26">
-        <v>70</v>
+        <v>-105</v>
       </c>
       <c r="K26" s="28">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L26" s="29">
-        <v>43371</v>
+        <v>43392</v>
       </c>
       <c r="N26" s="54">
         <f t="shared" si="4"/>
-        <v>1.2171779141104295</v>
-      </c>
-      <c r="P26" s="60">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="P26" s="59">
         <f t="shared" si="5"/>
-        <v>1.55</v>
-      </c>
-      <c r="Q26" s="60">
+        <v>0.63492063492063489</v>
+      </c>
+      <c r="Q26" s="59">
         <f t="shared" si="6"/>
-        <v>1.2734375</v>
-      </c>
-      <c r="R26" s="61">
+        <v>0.71957671957671954</v>
+      </c>
+      <c r="R26" s="60">
         <f t="shared" si="7"/>
-        <v>1.2171779141104295</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
-        <v>144.51</v>
+        <v>-437.87</v>
       </c>
       <c r="C27" s="26">
-        <v>108</v>
+        <v>-386</v>
       </c>
       <c r="D27" s="26">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E27" s="26">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F27" s="26">
-        <v>31</v>
+        <v>-95</v>
       </c>
       <c r="G27" s="27">
-        <v>0.60399999999999998</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H27" s="26">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="I27" s="26">
-        <v>166</v>
+        <v>608</v>
       </c>
       <c r="J27" s="26">
-        <v>125</v>
+        <v>-597</v>
       </c>
       <c r="K27" s="28">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="L27" s="29">
-        <v>43370</v>
+        <v>43391</v>
       </c>
       <c r="N27" s="54">
         <f t="shared" si="4"/>
-        <v>1.0616647575410463</v>
-      </c>
-      <c r="P27" s="60">
+        <v>2.4565656565656568</v>
+      </c>
+      <c r="P27" s="59">
         <f t="shared" si="5"/>
-        <v>1.8611111111111112</v>
-      </c>
-      <c r="Q27" s="60">
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="Q27" s="59">
         <f t="shared" si="6"/>
-        <v>1.7530120481927711</v>
-      </c>
-      <c r="R27" s="61">
+        <v>1.6447368421052631E-2</v>
+      </c>
+      <c r="R27" s="60">
         <f t="shared" si="7"/>
-        <v>1.0616647575410463</v>
+        <v>2.4565656565656568</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="30">
-        <v>50.6</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="C28" s="31">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D28" s="31">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E28" s="31">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F28" s="31">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="G28" s="32">
-        <v>0.505</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H28" s="31">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="I28" s="31">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="J28" s="31">
-        <v>5</v>
+        <v>-80</v>
       </c>
       <c r="K28" s="33">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="L28" s="29">
-        <v>43369</v>
+        <v>43390</v>
       </c>
       <c r="N28" s="54">
         <f t="shared" si="4"/>
-        <v>1.1960335621662854</v>
-      </c>
-      <c r="P28" s="60">
+        <v>1.207462938005391</v>
+      </c>
+      <c r="P28" s="59">
         <f t="shared" si="5"/>
-        <v>1.2173913043478262</v>
-      </c>
-      <c r="Q28" s="60">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="Q28" s="59">
         <f t="shared" si="6"/>
-        <v>1.0178571428571428</v>
-      </c>
-      <c r="R28" s="61">
+        <v>0.73442622950819669</v>
+      </c>
+      <c r="R28" s="60">
         <f t="shared" si="7"/>
-        <v>1.1960335621662854</v>
+        <v>1.207462938005391</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
-        <v>-709.1</v>
+        <v>-1266.77</v>
       </c>
       <c r="C29" s="18">
-        <v>-1122</v>
+        <v>-2504</v>
       </c>
       <c r="D29" s="18">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E29" s="18">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="F29" s="18">
-        <v>-125</v>
+        <v>-168</v>
       </c>
       <c r="G29" s="19">
-        <v>0.439</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="H29" s="18">
-        <v>2273</v>
+        <v>2830</v>
       </c>
       <c r="I29" s="18">
-        <v>3240</v>
+        <v>4371</v>
       </c>
       <c r="J29" s="18">
-        <v>-967</v>
+        <v>-1541</v>
       </c>
       <c r="K29" s="20">
-        <v>0.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N29" s="54">
         <f t="shared" si="4"/>
-        <v>1.1155530901509212</v>
-      </c>
-      <c r="P29" s="60">
+        <v>1.1091540778333766</v>
+      </c>
+      <c r="P29" s="59">
         <f t="shared" si="5"/>
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="Q29" s="60">
+        <v>0.71812080536912748</v>
+      </c>
+      <c r="Q29" s="59">
         <f t="shared" si="6"/>
-        <v>0.70154320987654317</v>
-      </c>
-      <c r="R29" s="61">
+        <v>0.64744909631663239</v>
+      </c>
+      <c r="R29" s="60">
         <f t="shared" si="7"/>
-        <v>1.1155530901509212</v>
+        <v>1.1091540778333766</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -3701,560 +3700,560 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
-        <v>-107.72</v>
+        <v>487.91</v>
       </c>
       <c r="C34" s="26">
-        <v>-129</v>
+        <v>729</v>
       </c>
       <c r="D34" s="26">
-        <v>263</v>
+        <v>509</v>
       </c>
       <c r="E34" s="26">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="F34" s="26">
-        <v>-61</v>
+        <v>424</v>
       </c>
       <c r="G34" s="27">
-        <v>0.437</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="H34" s="26">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="I34" s="26">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="J34" s="26">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K34" s="28">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="L34" s="29">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="N34" s="54">
         <f t="shared" ref="N34" si="8">(D34/E34)/(H34/I34)</f>
-        <v>0.81172839506172845</v>
-      </c>
-      <c r="P34" s="60">
+        <v>1.306215630728212</v>
+      </c>
+      <c r="P34" s="59">
         <f>D34/E34</f>
-        <v>0.81172839506172845</v>
-      </c>
-      <c r="Q34" s="60">
+        <v>5.9882352941176471</v>
+      </c>
+      <c r="Q34" s="59">
         <f>H34/I34</f>
-        <v>1</v>
-      </c>
-      <c r="R34" s="61">
+        <v>4.5844155844155843</v>
+      </c>
+      <c r="R34" s="60">
         <f>P34/Q34</f>
-        <v>0.81172839506172845</v>
+        <v>1.306215630728212</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
-        <v>-39.85</v>
+        <v>-59.65</v>
       </c>
       <c r="C35" s="26">
-        <v>-110</v>
+        <v>-89</v>
       </c>
       <c r="D35" s="26">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="E35" s="26">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="F35" s="26">
-        <v>54</v>
+        <v>-33</v>
       </c>
       <c r="G35" s="27">
-        <v>0.53300000000000003</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="H35" s="26">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="I35" s="26">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="J35" s="26">
-        <v>20</v>
+        <v>-80</v>
       </c>
       <c r="K35" s="28">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="L35" s="29">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="N35" s="54">
         <f t="shared" si="4"/>
-        <v>1.0450906954542116</v>
-      </c>
-      <c r="P35" s="60">
+        <v>1.3040036396724295</v>
+      </c>
+      <c r="P35" s="59">
         <f t="shared" ref="P35:P44" si="9">D35/E35</f>
-        <v>1.202247191011236</v>
-      </c>
-      <c r="Q35" s="60">
+        <v>0.89490445859872614</v>
+      </c>
+      <c r="Q35" s="59">
         <f t="shared" ref="Q35:Q44" si="10">H35/I35</f>
-        <v>1.1503759398496241</v>
-      </c>
-      <c r="R35" s="61">
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="R35" s="60">
         <f t="shared" ref="R35:R44" si="11">P35/Q35</f>
-        <v>1.0450906954542116</v>
+        <v>1.3040036396724295</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
-        <v>-327.16000000000003</v>
+        <v>-183.76</v>
       </c>
       <c r="C36" s="26">
-        <v>-543</v>
+        <v>-214</v>
       </c>
       <c r="D36" s="26">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E36" s="26">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="F36" s="26">
-        <v>-295</v>
+        <v>-267</v>
       </c>
       <c r="G36" s="27">
-        <v>0.24399999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H36" s="26">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I36" s="26">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="J36" s="26">
-        <v>-138</v>
+        <v>-232</v>
       </c>
       <c r="K36" s="28">
-        <v>1.05</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L36" s="29">
-        <v>43378</v>
+        <v>43399</v>
       </c>
       <c r="N36" s="54">
         <f t="shared" si="4"/>
-        <v>0.7869943102907575</v>
-      </c>
-      <c r="P36" s="60">
+        <v>1.4450364713927513</v>
+      </c>
+      <c r="P36" s="59">
         <f t="shared" si="9"/>
-        <v>0.33257918552036198</v>
-      </c>
-      <c r="Q36" s="60">
+        <v>0.37616822429906543</v>
+      </c>
+      <c r="Q36" s="59">
         <f t="shared" si="10"/>
-        <v>0.42259414225941422</v>
-      </c>
-      <c r="R36" s="61">
+        <v>0.26031746031746034</v>
+      </c>
+      <c r="R36" s="60">
         <f t="shared" si="11"/>
-        <v>0.7869943102907575</v>
+        <v>1.4450364713927513</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
-        <v>-293.69</v>
+        <v>470.14</v>
       </c>
       <c r="C37" s="26">
-        <v>-260</v>
+        <v>661</v>
       </c>
       <c r="D37" s="26">
-        <v>92</v>
+        <v>517</v>
       </c>
       <c r="E37" s="26">
-        <v>499</v>
+        <v>77</v>
       </c>
       <c r="F37" s="26">
-        <v>-407</v>
+        <v>440</v>
       </c>
       <c r="G37" s="27">
-        <v>0.153</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="H37" s="26">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="I37" s="26">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="J37" s="26">
-        <v>-177</v>
+        <v>258</v>
       </c>
       <c r="K37" s="28">
-        <v>1.01</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L37" s="29">
-        <v>43377</v>
+        <v>43398</v>
       </c>
       <c r="N37" s="54">
         <f t="shared" si="4"/>
-        <v>0.61375382343634632</v>
-      </c>
-      <c r="P37" s="60">
+        <v>1.3677248677248677</v>
+      </c>
+      <c r="P37" s="59">
         <f t="shared" si="9"/>
-        <v>0.18436873747494989</v>
-      </c>
-      <c r="Q37" s="60">
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="Q37" s="59">
         <f t="shared" si="10"/>
-        <v>0.30039525691699603</v>
-      </c>
-      <c r="R37" s="61">
+        <v>4.9090909090909092</v>
+      </c>
+      <c r="R37" s="60">
         <f t="shared" si="11"/>
-        <v>0.61375382343634632</v>
+        <v>1.3677248677248677</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
-        <v>172.48</v>
+        <v>-742.69</v>
       </c>
       <c r="C38" s="26">
-        <v>157</v>
+        <v>-960</v>
       </c>
       <c r="D38" s="26">
-        <v>426</v>
+        <v>60</v>
       </c>
       <c r="E38" s="26">
-        <v>162</v>
+        <v>537</v>
       </c>
       <c r="F38" s="26">
-        <v>264</v>
+        <v>-477</v>
       </c>
       <c r="G38" s="27">
-        <v>0.70799999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="26">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I38" s="26">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="J38" s="26">
-        <v>160</v>
+        <v>-306</v>
       </c>
       <c r="K38" s="28">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L38" s="29">
-        <v>43376</v>
+        <v>43397</v>
       </c>
       <c r="N38" s="54">
         <f t="shared" si="4"/>
-        <v>0.9988515647430376</v>
-      </c>
-      <c r="P38" s="60">
+        <v>0.87150837988826813</v>
+      </c>
+      <c r="P38" s="59">
         <f t="shared" si="9"/>
-        <v>2.6296296296296298</v>
-      </c>
-      <c r="Q38" s="60">
+        <v>0.11173184357541899</v>
+      </c>
+      <c r="Q38" s="59">
         <f t="shared" si="10"/>
-        <v>2.6326530612244898</v>
-      </c>
-      <c r="R38" s="61">
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="R38" s="60">
         <f t="shared" si="11"/>
-        <v>0.9988515647430376</v>
+        <v>0.87150837988826813</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
-        <v>-296.89999999999998</v>
+        <v>-163.88</v>
       </c>
       <c r="C39" s="26">
-        <v>-320</v>
+        <v>-217</v>
       </c>
       <c r="D39" s="26">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="E39" s="26">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="F39" s="26">
-        <v>-294</v>
+        <v>-201</v>
       </c>
       <c r="G39" s="27">
-        <v>0.246</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="H39" s="26">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="I39" s="26">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J39" s="26">
-        <v>-173</v>
+        <v>-142</v>
       </c>
       <c r="K39" s="28">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="L39" s="29">
-        <v>43375</v>
+        <v>43396</v>
       </c>
       <c r="N39" s="54">
         <f t="shared" si="4"/>
-        <v>1.1072096530920059</v>
-      </c>
-      <c r="P39" s="60">
+        <v>1.1444304152637486</v>
+      </c>
+      <c r="P39" s="59">
         <f t="shared" si="9"/>
-        <v>0.33484162895927599</v>
-      </c>
-      <c r="Q39" s="60">
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="Q39" s="59">
         <f t="shared" si="10"/>
-        <v>0.30241935483870969</v>
-      </c>
-      <c r="R39" s="61">
+        <v>0.4302788844621514</v>
+      </c>
+      <c r="R39" s="60">
         <f t="shared" si="11"/>
-        <v>1.1072096530920059</v>
+        <v>1.1444304152637486</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
-        <v>-370.29</v>
+        <v>34.07</v>
       </c>
       <c r="C40" s="26">
-        <v>-396</v>
+        <v>-12</v>
       </c>
       <c r="D40" s="26">
-        <v>91</v>
+        <v>299</v>
       </c>
       <c r="E40" s="26">
-        <v>502</v>
+        <v>291</v>
       </c>
       <c r="F40" s="26">
-        <v>-411</v>
+        <v>8</v>
       </c>
       <c r="G40" s="27">
-        <v>0.151</v>
+        <v>0.496</v>
       </c>
       <c r="H40" s="26">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="I40" s="26">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="J40" s="26">
-        <v>-150</v>
+        <v>-43</v>
       </c>
       <c r="K40" s="28">
-        <v>1.04</v>
+        <v>0.84</v>
       </c>
       <c r="L40" s="29">
-        <v>43374</v>
+        <v>43395</v>
       </c>
       <c r="N40" s="54">
         <f t="shared" si="4"/>
-        <v>0.47880218257405166</v>
-      </c>
-      <c r="P40" s="60">
+        <v>1.3866957226273293</v>
+      </c>
+      <c r="P40" s="59">
         <f t="shared" si="9"/>
-        <v>0.18127490039840638</v>
-      </c>
-      <c r="Q40" s="60">
+        <v>1.0274914089347078</v>
+      </c>
+      <c r="Q40" s="59">
         <f t="shared" si="10"/>
-        <v>0.37860082304526749</v>
-      </c>
-      <c r="R40" s="61">
+        <v>0.74096385542168675</v>
+      </c>
+      <c r="R40" s="60">
         <f t="shared" si="11"/>
-        <v>0.47880218257405166</v>
+        <v>1.3866957226273293</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
-        <v>97.77</v>
+        <v>-230.67</v>
       </c>
       <c r="C41" s="26">
-        <v>101</v>
+        <v>-189</v>
       </c>
       <c r="D41" s="26">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="E41" s="26">
-        <v>193</v>
+        <v>422</v>
       </c>
       <c r="F41" s="26">
-        <v>190</v>
+        <v>-253</v>
       </c>
       <c r="G41" s="27">
-        <v>0.63600000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H41" s="26">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="I41" s="26">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="J41" s="26">
-        <v>23</v>
+        <v>-122</v>
       </c>
       <c r="K41" s="28">
-        <v>1.0900000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="L41" s="29">
-        <v>43371</v>
+        <v>43392</v>
       </c>
       <c r="N41" s="54">
         <f t="shared" si="4"/>
-        <v>1.7377398123512113</v>
-      </c>
-      <c r="P41" s="60">
+        <v>0.94778830963665095</v>
+      </c>
+      <c r="P41" s="59">
         <f t="shared" si="9"/>
-        <v>1.9844559585492227</v>
-      </c>
-      <c r="Q41" s="60">
+        <v>0.40047393364928913</v>
+      </c>
+      <c r="Q41" s="59">
         <f t="shared" si="10"/>
-        <v>1.1419753086419753</v>
-      </c>
-      <c r="R41" s="61">
+        <v>0.42253521126760563</v>
+      </c>
+      <c r="R41" s="60">
         <f t="shared" si="11"/>
-        <v>1.7377398123512113</v>
+        <v>0.94778830963665095</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
-        <v>1.21</v>
+        <v>-448.32</v>
       </c>
       <c r="C42" s="26">
-        <v>-22</v>
+        <v>-379</v>
       </c>
       <c r="D42" s="26">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="E42" s="26">
-        <v>298</v>
+        <v>532</v>
       </c>
       <c r="F42" s="26">
-        <v>-19</v>
+        <v>-467</v>
       </c>
       <c r="G42" s="27">
-        <v>0.46300000000000002</v>
+        <v>0.108</v>
       </c>
       <c r="H42" s="26">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="I42" s="26">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="J42" s="26">
-        <v>-19</v>
+        <v>-229</v>
       </c>
       <c r="K42" s="28">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L42" s="29">
-        <v>43370</v>
+        <v>43391</v>
       </c>
       <c r="N42" s="54">
         <f t="shared" si="4"/>
-        <v>1.0796979865771814</v>
-      </c>
-      <c r="P42" s="60">
+        <v>0.84273182957393478</v>
+      </c>
+      <c r="P42" s="59">
         <f t="shared" si="9"/>
-        <v>0.93624161073825507</v>
-      </c>
-      <c r="Q42" s="60">
+        <v>0.12218045112781954</v>
+      </c>
+      <c r="Q42" s="59">
         <f t="shared" si="10"/>
-        <v>0.86713286713286708</v>
-      </c>
-      <c r="R42" s="61">
+        <v>0.1449814126394052</v>
+      </c>
+      <c r="R42" s="60">
         <f t="shared" si="11"/>
-        <v>1.0796979865771814</v>
+        <v>0.84273182957393478</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="30">
-        <v>-188.72</v>
+        <v>-146.94</v>
       </c>
       <c r="C43" s="31">
-        <v>-172</v>
+        <v>-137</v>
       </c>
       <c r="D43" s="31">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="E43" s="31">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="F43" s="31">
-        <v>-273</v>
+        <v>-134</v>
       </c>
       <c r="G43" s="32">
-        <v>0.25700000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="H43" s="31">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I43" s="31">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="J43" s="31">
-        <v>-117</v>
+        <v>-79</v>
       </c>
       <c r="K43" s="33">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="L43" s="29">
-        <v>43369</v>
+        <v>43390</v>
       </c>
       <c r="N43" s="54">
         <f t="shared" si="4"/>
-        <v>0.85334085293801698</v>
-      </c>
-      <c r="P43" s="60">
+        <v>1.077958053027305</v>
+      </c>
+      <c r="P43" s="59">
         <f t="shared" si="9"/>
-        <v>0.36214953271028039</v>
-      </c>
-      <c r="Q43" s="60">
+        <v>0.62880886426592797</v>
+      </c>
+      <c r="Q43" s="59">
         <f t="shared" si="10"/>
-        <v>0.42439024390243901</v>
-      </c>
-      <c r="R43" s="61">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R43" s="60">
         <f t="shared" si="11"/>
-        <v>0.85334085293801698</v>
+        <v>1.077958053027305</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="17">
-        <v>-1352.85</v>
+        <v>-983.78</v>
       </c>
       <c r="C44" s="18">
-        <v>-1694</v>
+        <v>-807</v>
       </c>
       <c r="D44" s="18">
-        <v>2305</v>
+        <v>2483</v>
       </c>
       <c r="E44" s="18">
-        <v>3557</v>
+        <v>3443</v>
       </c>
       <c r="F44" s="18">
-        <v>-1252</v>
+        <v>-960</v>
       </c>
       <c r="G44" s="19">
-        <v>0.39300000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="H44" s="18">
-        <v>1318</v>
+        <v>1454</v>
       </c>
       <c r="I44" s="18">
-        <v>1891</v>
+        <v>2158</v>
       </c>
       <c r="J44" s="18">
-        <v>-573</v>
+        <v>-704</v>
       </c>
       <c r="K44" s="20">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="N44" s="54">
         <f t="shared" si="4"/>
-        <v>0.92974356917881462</v>
-      </c>
-      <c r="P44" s="60">
+        <v>1.0703522606920086</v>
+      </c>
+      <c r="P44" s="59">
         <f t="shared" si="9"/>
-        <v>0.64801799269046945</v>
-      </c>
-      <c r="Q44" s="60">
+        <v>0.72117339529480107</v>
+      </c>
+      <c r="Q44" s="59">
         <f t="shared" si="10"/>
-        <v>0.69698572184029617</v>
-      </c>
-      <c r="R44" s="61">
+        <v>0.67377201112140872</v>
+      </c>
+      <c r="R44" s="60">
         <f t="shared" si="11"/>
-        <v>0.92974356917881462</v>
+        <v>1.0703522606920086</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -4275,6 +4274,7 @@
       <c r="M45" s="48"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B46" s="43"/>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -4339,560 +4339,560 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
-        <v>-457.66</v>
+        <v>1721.9</v>
       </c>
       <c r="C49" s="26">
-        <v>-675</v>
+        <v>2787</v>
       </c>
       <c r="D49" s="26">
-        <v>542</v>
+        <v>1214</v>
       </c>
       <c r="E49" s="26">
-        <v>819</v>
+        <v>219</v>
       </c>
       <c r="F49" s="26">
-        <v>-277</v>
+        <v>995</v>
       </c>
       <c r="G49" s="27">
-        <v>0.39200000000000002</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="H49" s="26">
-        <v>1533</v>
+        <v>4052</v>
       </c>
       <c r="I49" s="26">
-        <v>2097</v>
+        <v>1119</v>
       </c>
       <c r="J49" s="26">
-        <v>-563</v>
+        <v>2932</v>
       </c>
       <c r="K49" s="28">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="L49" s="29">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="N49" s="54">
         <f t="shared" ref="N49" si="12">(D49/E49)/(H49/I49)</f>
-        <v>0.90525651778097949</v>
-      </c>
-      <c r="P49" s="60">
+        <v>1.5308591055998053</v>
+      </c>
+      <c r="P49" s="59">
         <f>D49/E49</f>
-        <v>0.66178266178266176</v>
-      </c>
-      <c r="Q49" s="60">
+        <v>5.5433789954337902</v>
+      </c>
+      <c r="Q49" s="59">
         <f>H49/I49</f>
-        <v>0.73104434907010019</v>
-      </c>
-      <c r="R49" s="61">
+        <v>3.6210902591599643</v>
+      </c>
+      <c r="R49" s="60">
         <f>P49/Q49</f>
-        <v>0.90525651778097949</v>
+        <v>1.5308591055998053</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
-        <v>-410.01</v>
+        <v>-728.79</v>
       </c>
       <c r="C50" s="26">
-        <v>-588</v>
+        <v>-794</v>
       </c>
       <c r="D50" s="26">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="E50" s="26">
-        <v>690</v>
+        <v>843</v>
       </c>
       <c r="F50" s="26">
-        <v>-17</v>
+        <v>-253</v>
       </c>
       <c r="G50" s="27">
-        <v>0.48699999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H50" s="26">
-        <v>1900</v>
+        <v>1916</v>
       </c>
       <c r="I50" s="26">
-        <v>1658</v>
+        <v>2856</v>
       </c>
       <c r="J50" s="26">
-        <v>242</v>
+        <v>-939</v>
       </c>
       <c r="K50" s="28">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="L50" s="29">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="N50" s="54">
         <f t="shared" si="4"/>
-        <v>0.85113196033562166</v>
-      </c>
-      <c r="P50" s="60">
+        <v>1.0432469780607583</v>
+      </c>
+      <c r="P50" s="59">
         <f t="shared" ref="P50:P59" si="13">D50/E50</f>
-        <v>0.97536231884057967</v>
-      </c>
-      <c r="Q50" s="60">
+        <v>0.69988137603795963</v>
+      </c>
+      <c r="Q50" s="59">
         <f t="shared" ref="Q50:Q59" si="14">H50/I50</f>
-        <v>1.1459589867310012</v>
-      </c>
-      <c r="R50" s="61">
+        <v>0.67086834733893552</v>
+      </c>
+      <c r="R50" s="60">
         <f t="shared" ref="R50:R59" si="15">P50/Q50</f>
-        <v>0.85113196033562166</v>
+        <v>1.0432469780607583</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B51" s="25">
-        <v>-642.04</v>
+        <v>-1368.32</v>
       </c>
       <c r="C51" s="26">
-        <v>-881</v>
+        <v>-2644</v>
       </c>
       <c r="D51" s="26">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="E51" s="26">
-        <v>920</v>
+        <v>1099</v>
       </c>
       <c r="F51" s="26">
-        <v>-474</v>
+        <v>-765</v>
       </c>
       <c r="G51" s="27">
-        <v>0.32200000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H51" s="26">
-        <v>1119</v>
+        <v>1188</v>
       </c>
       <c r="I51" s="26">
-        <v>2539</v>
+        <v>3853</v>
       </c>
       <c r="J51" s="26">
-        <v>-1420</v>
+        <v>-2664</v>
       </c>
       <c r="K51" s="28">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="L51" s="29">
-        <v>43378</v>
+        <v>43399</v>
       </c>
       <c r="N51" s="54">
         <f t="shared" si="4"/>
-        <v>1.0999669736177486</v>
-      </c>
-      <c r="P51" s="60">
+        <v>0.98566955573324999</v>
+      </c>
+      <c r="P51" s="59">
         <f t="shared" si="13"/>
-        <v>0.48478260869565215</v>
-      </c>
-      <c r="Q51" s="60">
+        <v>0.30391264786169248</v>
+      </c>
+      <c r="Q51" s="59">
         <f t="shared" si="14"/>
-        <v>0.44072469476171722</v>
-      </c>
-      <c r="R51" s="61">
+        <v>0.30833117051648068</v>
+      </c>
+      <c r="R51" s="60">
         <f t="shared" si="15"/>
-        <v>1.0999669736177486</v>
+        <v>0.98566955573324999</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
-        <v>-1175.33</v>
+        <v>1483.51</v>
       </c>
       <c r="C52" s="26">
-        <v>-1411</v>
+        <v>1455</v>
       </c>
       <c r="D52" s="26">
-        <v>295</v>
+        <v>1183</v>
       </c>
       <c r="E52" s="26">
-        <v>1072</v>
+        <v>248</v>
       </c>
       <c r="F52" s="26">
-        <v>-777</v>
+        <v>935</v>
       </c>
       <c r="G52" s="27">
-        <v>0.21299999999999999</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="H52" s="26">
-        <v>1200</v>
+        <v>3660</v>
       </c>
       <c r="I52" s="26">
-        <v>2610</v>
+        <v>1176</v>
       </c>
       <c r="J52" s="26">
-        <v>-1410</v>
+        <v>2483</v>
       </c>
       <c r="K52" s="28">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="L52" s="29">
-        <v>43377</v>
+        <v>43398</v>
       </c>
       <c r="N52" s="54">
         <f t="shared" si="4"/>
-        <v>0.59853078358208955</v>
-      </c>
-      <c r="P52" s="60">
+        <v>1.5327075621364359</v>
+      </c>
+      <c r="P52" s="59">
         <f t="shared" si="13"/>
-        <v>0.27518656716417911</v>
-      </c>
-      <c r="Q52" s="60">
+        <v>4.770161290322581</v>
+      </c>
+      <c r="Q52" s="59">
         <f t="shared" si="14"/>
-        <v>0.45977011494252873</v>
-      </c>
-      <c r="R52" s="61">
+        <v>3.1122448979591835</v>
+      </c>
+      <c r="R52" s="60">
         <f t="shared" si="15"/>
-        <v>0.59853078358208955</v>
+        <v>1.5327075621364359</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B53" s="25">
-        <v>190.97</v>
+        <v>-3183.36</v>
       </c>
       <c r="C53" s="26">
-        <v>107</v>
+        <v>-5131</v>
       </c>
       <c r="D53" s="26">
-        <v>837</v>
+        <v>167</v>
       </c>
       <c r="E53" s="26">
-        <v>527</v>
+        <v>1272</v>
       </c>
       <c r="F53" s="26">
-        <v>310</v>
+        <v>-1105</v>
       </c>
       <c r="G53" s="27">
-        <v>0.60499999999999998</v>
+        <v>0.115</v>
       </c>
       <c r="H53" s="26">
-        <v>2264</v>
+        <v>539</v>
       </c>
       <c r="I53" s="26">
-        <v>1506</v>
+        <v>4561</v>
       </c>
       <c r="J53" s="26">
-        <v>757</v>
+        <v>-4022</v>
       </c>
       <c r="K53" s="28">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="L53" s="29">
-        <v>43376</v>
+        <v>43397</v>
       </c>
       <c r="N53" s="54">
         <f t="shared" si="4"/>
-        <v>1.0564851382249012</v>
-      </c>
-      <c r="P53" s="60">
+        <v>1.110965741356577</v>
+      </c>
+      <c r="P53" s="59">
         <f t="shared" si="13"/>
-        <v>1.588235294117647</v>
-      </c>
-      <c r="Q53" s="60">
+        <v>0.13128930817610063</v>
+      </c>
+      <c r="Q53" s="59">
         <f t="shared" si="14"/>
-        <v>1.5033200531208499</v>
-      </c>
-      <c r="R53" s="61">
+        <v>0.11817583863187897</v>
+      </c>
+      <c r="R53" s="60">
         <f t="shared" si="15"/>
-        <v>1.0564851382249012</v>
+        <v>1.110965741356577</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
-        <v>-561.98</v>
+        <v>-673.46</v>
       </c>
       <c r="C54" s="26">
-        <v>-751</v>
+        <v>-1059</v>
       </c>
       <c r="D54" s="26">
-        <v>541</v>
+        <v>453</v>
       </c>
       <c r="E54" s="26">
-        <v>823</v>
+        <v>979</v>
       </c>
       <c r="F54" s="26">
-        <v>-282</v>
+        <v>-526</v>
       </c>
       <c r="G54" s="27">
-        <v>0.39100000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="H54" s="26">
-        <v>1681</v>
+        <v>1581</v>
       </c>
       <c r="I54" s="26">
-        <v>1969</v>
+        <v>3023</v>
       </c>
       <c r="J54" s="26">
-        <v>-288</v>
+        <v>-1441</v>
       </c>
       <c r="K54" s="28">
-        <v>1.04</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L54" s="29">
-        <v>43375</v>
+        <v>43396</v>
       </c>
       <c r="N54" s="54">
         <f t="shared" si="4"/>
-        <v>0.76997288687879617</v>
-      </c>
-      <c r="P54" s="60">
+        <v>0.88475247755037967</v>
+      </c>
+      <c r="P54" s="59">
         <f t="shared" si="13"/>
-        <v>0.65735115431348723</v>
-      </c>
-      <c r="Q54" s="60">
+        <v>0.46271705822267623</v>
+      </c>
+      <c r="Q54" s="59">
         <f t="shared" si="14"/>
-        <v>0.85373285931945153</v>
-      </c>
-      <c r="R54" s="61">
+        <v>0.52299040688058218</v>
+      </c>
+      <c r="R54" s="60">
         <f t="shared" si="15"/>
-        <v>0.76997288687879617</v>
+        <v>0.88475247755037967</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
-        <v>-221.36</v>
+        <v>-202.6</v>
       </c>
       <c r="C55" s="26">
-        <v>-331</v>
+        <v>-303</v>
       </c>
       <c r="D55" s="26">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E55" s="26">
-        <v>812</v>
+        <v>892</v>
       </c>
       <c r="F55" s="26">
-        <v>-257</v>
+        <v>-352</v>
       </c>
       <c r="G55" s="27">
-        <v>0.40100000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="H55" s="26">
-        <v>1941</v>
+        <v>1441</v>
       </c>
       <c r="I55" s="26">
-        <v>1646</v>
+        <v>2202</v>
       </c>
       <c r="J55" s="26">
-        <v>295</v>
+        <v>-760</v>
       </c>
       <c r="K55" s="28">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="L55" s="29">
-        <v>43374</v>
+        <v>43395</v>
       </c>
       <c r="N55" s="54">
         <f t="shared" si="4"/>
-        <v>0.57961717970778359</v>
-      </c>
-      <c r="P55" s="60">
+        <v>0.92508627852481617</v>
+      </c>
+      <c r="P55" s="59">
         <f t="shared" si="13"/>
-        <v>0.68349753694581283</v>
-      </c>
-      <c r="Q55" s="60">
+        <v>0.60538116591928248</v>
+      </c>
+      <c r="Q55" s="59">
         <f t="shared" si="14"/>
-        <v>1.1792223572296476</v>
-      </c>
-      <c r="R55" s="61">
+        <v>0.65440508628519523</v>
+      </c>
+      <c r="R55" s="60">
         <f t="shared" si="15"/>
-        <v>0.57961717970778359</v>
+        <v>0.92508627852481617</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
-        <v>4.74</v>
+        <v>-723.25</v>
       </c>
       <c r="C56" s="26">
-        <v>-156</v>
+        <v>-798</v>
       </c>
       <c r="D56" s="26">
-        <v>767</v>
+        <v>535</v>
       </c>
       <c r="E56" s="26">
-        <v>582</v>
+        <v>893</v>
       </c>
       <c r="F56" s="26">
-        <v>185</v>
+        <v>-358</v>
       </c>
       <c r="G56" s="27">
-        <v>0.55500000000000005</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H56" s="26">
-        <v>1845</v>
+        <v>1758</v>
       </c>
       <c r="I56" s="26">
-        <v>1828</v>
+        <v>2179</v>
       </c>
       <c r="J56" s="26">
-        <v>16</v>
+        <v>-420</v>
       </c>
       <c r="K56" s="28">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="L56" s="29">
-        <v>43371</v>
+        <v>43392</v>
       </c>
       <c r="N56" s="54">
         <f t="shared" si="4"/>
-        <v>1.3057264455806068</v>
-      </c>
-      <c r="P56" s="60">
+        <v>0.74257561338536238</v>
+      </c>
+      <c r="P56" s="59">
         <f t="shared" si="13"/>
-        <v>1.3178694158075601</v>
-      </c>
-      <c r="Q56" s="60">
+        <v>0.59910414333706608</v>
+      </c>
+      <c r="Q56" s="59">
         <f t="shared" si="14"/>
-        <v>1.0092997811816193</v>
-      </c>
-      <c r="R56" s="61">
+        <v>0.80679210647085819</v>
+      </c>
+      <c r="R56" s="60">
         <f t="shared" si="15"/>
-        <v>1.3057264455806068</v>
+        <v>0.74257561338536238</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
-        <v>162.97</v>
+        <v>-1586.71</v>
       </c>
       <c r="C57" s="26">
-        <v>107</v>
+        <v>-1450</v>
       </c>
       <c r="D57" s="26">
-        <v>702</v>
+        <v>211</v>
       </c>
       <c r="E57" s="26">
-        <v>652</v>
+        <v>1218</v>
       </c>
       <c r="F57" s="26">
-        <v>50</v>
+        <v>-1007</v>
       </c>
       <c r="G57" s="27">
-        <v>0.50800000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H57" s="26">
-        <v>1770</v>
+        <v>700</v>
       </c>
       <c r="I57" s="26">
-        <v>1417</v>
+        <v>3178</v>
       </c>
       <c r="J57" s="26">
-        <v>353</v>
+        <v>-2478</v>
       </c>
       <c r="K57" s="28">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="L57" s="29">
-        <v>43370</v>
+        <v>43391</v>
       </c>
       <c r="N57" s="54">
         <f t="shared" si="4"/>
-        <v>0.86195799105750237</v>
-      </c>
-      <c r="P57" s="60">
+        <v>0.78648604269293931</v>
+      </c>
+      <c r="P57" s="59">
         <f t="shared" si="13"/>
-        <v>1.0766871165644172</v>
-      </c>
-      <c r="Q57" s="60">
+        <v>0.17323481116584566</v>
+      </c>
+      <c r="Q57" s="59">
         <f t="shared" si="14"/>
-        <v>1.2491178546224417</v>
-      </c>
-      <c r="R57" s="61">
+        <v>0.22026431718061673</v>
+      </c>
+      <c r="R57" s="60">
         <f t="shared" si="15"/>
-        <v>0.86195799105750237</v>
+        <v>0.78648604269293931</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="30">
-        <v>-319.92</v>
+        <v>-313.62</v>
       </c>
       <c r="C58" s="31">
-        <v>-273</v>
+        <v>-234</v>
       </c>
       <c r="D58" s="31">
-        <v>427</v>
+        <v>569</v>
       </c>
       <c r="E58" s="31">
-        <v>926</v>
+        <v>855</v>
       </c>
       <c r="F58" s="31">
-        <v>-499</v>
+        <v>-286</v>
       </c>
       <c r="G58" s="32">
-        <v>0.309</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="H58" s="31">
-        <v>1128</v>
+        <v>1621</v>
       </c>
       <c r="I58" s="31">
-        <v>2429</v>
+        <v>1857</v>
       </c>
       <c r="J58" s="31">
-        <v>-1300</v>
+        <v>-235</v>
       </c>
       <c r="K58" s="33">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="L58" s="29">
-        <v>43369</v>
+        <v>43390</v>
       </c>
       <c r="N58" s="54">
         <f t="shared" si="4"/>
-        <v>0.99296811574222998</v>
-      </c>
-      <c r="P58" s="60">
+        <v>0.76238622466097383</v>
+      </c>
+      <c r="P58" s="59">
         <f t="shared" si="13"/>
-        <v>0.4611231101511879</v>
-      </c>
-      <c r="Q58" s="60">
+        <v>0.66549707602339181</v>
+      </c>
+      <c r="Q58" s="59">
         <f t="shared" si="14"/>
-        <v>0.46438863729930013</v>
-      </c>
-      <c r="R58" s="61">
+        <v>0.87291330102315567</v>
+      </c>
+      <c r="R58" s="60">
         <f t="shared" si="15"/>
-        <v>0.99296811574222998</v>
+        <v>0.76238622466097383</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B59" s="17">
-        <v>-3429.62</v>
+        <v>-5574.69</v>
       </c>
       <c r="C59" s="18">
-        <v>-4852</v>
+        <v>-8171</v>
       </c>
       <c r="D59" s="18">
-        <v>5785</v>
+        <v>5796</v>
       </c>
       <c r="E59" s="18">
-        <v>7823</v>
+        <v>8518</v>
       </c>
       <c r="F59" s="18">
-        <v>-2038</v>
+        <v>-2722</v>
       </c>
       <c r="G59" s="19">
-        <v>0.42499999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="H59" s="18">
-        <v>16386</v>
+        <v>18460</v>
       </c>
       <c r="I59" s="18">
-        <v>19704</v>
+        <v>26008</v>
       </c>
       <c r="J59" s="18">
-        <v>-3318</v>
+        <v>-7548</v>
       </c>
       <c r="K59" s="20">
-        <v>1.03</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N59" s="54">
         <f t="shared" si="4"/>
-        <v>0.88922462578657513</v>
-      </c>
-      <c r="P59" s="60">
+        <v>0.9586630771316722</v>
+      </c>
+      <c r="P59" s="59">
         <f t="shared" si="13"/>
-        <v>0.73948613064041924</v>
-      </c>
-      <c r="Q59" s="60">
+        <v>0.68044141817328008</v>
+      </c>
+      <c r="Q59" s="59">
         <f t="shared" si="14"/>
-        <v>0.8316077953714982</v>
-      </c>
-      <c r="R59" s="61">
+        <v>0.70978160565979698</v>
+      </c>
+      <c r="R59" s="60">
         <f t="shared" si="15"/>
-        <v>0.88922462578657513</v>
+        <v>0.9586630771316722</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4912,20 +4912,21 @@
       <c r="L60" s="42"/>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="43"/>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="44"/>
       <c r="K61" s="46"/>
       <c r="L61" s="42"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C62" s="44" t="s">
@@ -4973,560 +4974,560 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
-        <v>-630.94000000000005</v>
+        <v>1718.2</v>
       </c>
       <c r="C64" s="26">
-        <v>-947</v>
+        <v>2590</v>
       </c>
       <c r="D64" s="26">
-        <v>704</v>
+        <v>1489</v>
       </c>
       <c r="E64" s="26">
-        <v>1086</v>
+        <v>322</v>
       </c>
       <c r="F64" s="26">
-        <v>-382</v>
+        <v>1167</v>
       </c>
       <c r="G64" s="27">
-        <v>0.36799999999999999</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="H64" s="26">
-        <v>1267</v>
+        <v>3572</v>
       </c>
       <c r="I64" s="26">
-        <v>1951</v>
+        <v>1244</v>
       </c>
       <c r="J64" s="26">
-        <v>-683</v>
+        <v>2327</v>
       </c>
       <c r="K64" s="28">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="L64" s="29">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="N64" s="54">
         <f t="shared" ref="N64" si="16">(D64/E64)/(H64/I64)</f>
-        <v>0.99821361345734849</v>
-      </c>
-      <c r="P64" s="60">
+        <v>1.6104518929145248</v>
+      </c>
+      <c r="P64" s="59">
         <f>D64/E64</f>
-        <v>0.64825046040515655</v>
-      </c>
-      <c r="Q64" s="60">
+        <v>4.6242236024844718</v>
+      </c>
+      <c r="Q64" s="59">
         <f>H64/I64</f>
-        <v>0.64941055868785236</v>
-      </c>
-      <c r="R64" s="61">
+        <v>2.8713826366559485</v>
+      </c>
+      <c r="R64" s="60">
         <f>P64/Q64</f>
-        <v>0.99821361345734849</v>
+        <v>1.6104518929145248</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
-        <v>-9.39</v>
+        <v>-465.14</v>
       </c>
       <c r="C65" s="26">
-        <v>-72</v>
+        <v>-429</v>
       </c>
       <c r="D65" s="26">
-        <v>1021</v>
+        <v>783</v>
       </c>
       <c r="E65" s="26">
-        <v>783</v>
+        <v>1030</v>
       </c>
       <c r="F65" s="26">
-        <v>238</v>
+        <v>-247</v>
       </c>
       <c r="G65" s="27">
-        <v>0.53400000000000003</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="H65" s="26">
-        <v>2068</v>
+        <v>1852</v>
       </c>
       <c r="I65" s="26">
-        <v>1018</v>
+        <v>2526</v>
       </c>
       <c r="J65" s="26">
-        <v>1050</v>
+        <v>-674</v>
       </c>
       <c r="K65" s="28">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="L65" s="29">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="N65" s="54">
         <f t="shared" si="4"/>
-        <v>0.64189090711467822</v>
-      </c>
-      <c r="P65" s="60">
+        <v>1.0368523139508063</v>
+      </c>
+      <c r="P65" s="59">
         <f t="shared" ref="P65:P74" si="17">D65/E65</f>
-        <v>1.3039591315453385</v>
-      </c>
-      <c r="Q65" s="60">
+        <v>0.76019417475728157</v>
+      </c>
+      <c r="Q65" s="59">
         <f t="shared" ref="Q65:Q74" si="18">H65/I65</f>
-        <v>2.031434184675835</v>
-      </c>
-      <c r="R65" s="61">
+        <v>0.73317498020585903</v>
+      </c>
+      <c r="R65" s="60">
         <f t="shared" ref="R65:R74" si="19">P65/Q65</f>
-        <v>0.64189090711467822</v>
+        <v>1.0368523139508063</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
-        <v>-470.28</v>
+        <v>-982.59</v>
       </c>
       <c r="C66" s="26">
-        <v>-503</v>
+        <v>-1715</v>
       </c>
       <c r="D66" s="26">
-        <v>600</v>
+        <v>469</v>
       </c>
       <c r="E66" s="26">
-        <v>1208</v>
+        <v>1329</v>
       </c>
       <c r="F66" s="26">
-        <v>-608</v>
+        <v>-860</v>
       </c>
       <c r="G66" s="27">
-        <v>0.314</v>
+        <v>0.245</v>
       </c>
       <c r="H66" s="26">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="I66" s="26">
-        <v>1898</v>
+        <v>3347</v>
       </c>
       <c r="J66" s="26">
-        <v>-777</v>
+        <v>-2215</v>
       </c>
       <c r="K66" s="28">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="L66" s="29">
-        <v>43378</v>
+        <v>43399</v>
       </c>
       <c r="N66" s="54">
         <f t="shared" si="4"/>
-        <v>0.84095917197866143</v>
-      </c>
-      <c r="P66" s="60">
+        <v>1.0434151717463382</v>
+      </c>
+      <c r="P66" s="59">
         <f t="shared" si="17"/>
-        <v>0.49668874172185429</v>
-      </c>
-      <c r="Q66" s="60">
+        <v>0.35289691497366443</v>
+      </c>
+      <c r="Q66" s="59">
         <f t="shared" si="18"/>
-        <v>0.59062170706006323</v>
-      </c>
-      <c r="R66" s="61">
+        <v>0.33821332536599941</v>
+      </c>
+      <c r="R66" s="60">
         <f t="shared" si="19"/>
-        <v>0.84095917197866143</v>
+        <v>1.0434151717463382</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
-        <v>-983.91</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="C67" s="26">
-        <v>-1071</v>
+        <v>1305</v>
       </c>
       <c r="D67" s="26">
-        <v>418</v>
+        <v>1453</v>
       </c>
       <c r="E67" s="26">
-        <v>1390</v>
+        <v>354</v>
       </c>
       <c r="F67" s="26">
-        <v>-972</v>
+        <v>1099</v>
       </c>
       <c r="G67" s="27">
-        <v>0.219</v>
+        <v>0.76</v>
       </c>
       <c r="H67" s="26">
-        <v>1117</v>
+        <v>3142</v>
       </c>
       <c r="I67" s="26">
-        <v>2050</v>
+        <v>1168</v>
       </c>
       <c r="J67" s="26">
-        <v>-932</v>
+        <v>1974</v>
       </c>
       <c r="K67" s="28">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="L67" s="29">
-        <v>43377</v>
+        <v>43398</v>
       </c>
       <c r="N67" s="54">
         <f t="shared" si="4"/>
-        <v>0.5519022561717859</v>
-      </c>
-      <c r="P67" s="60">
+        <v>1.5258049319049005</v>
+      </c>
+      <c r="P67" s="59">
         <f t="shared" si="17"/>
-        <v>0.30071942446043165</v>
-      </c>
-      <c r="Q67" s="60">
+        <v>4.1045197740112993</v>
+      </c>
+      <c r="Q67" s="59">
         <f t="shared" si="18"/>
-        <v>0.54487804878048784</v>
-      </c>
-      <c r="R67" s="61">
+        <v>2.6900684931506849</v>
+      </c>
+      <c r="R67" s="60">
         <f t="shared" si="19"/>
-        <v>0.5519022561717859</v>
+        <v>1.5258049319049005</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
-        <v>143.83000000000001</v>
+        <v>-2548.25</v>
       </c>
       <c r="C68" s="26">
-        <v>51</v>
+        <v>-4044</v>
       </c>
       <c r="D68" s="26">
-        <v>1093</v>
+        <v>278</v>
       </c>
       <c r="E68" s="26">
-        <v>707</v>
+        <v>1535</v>
       </c>
       <c r="F68" s="26">
-        <v>386</v>
+        <v>-1257</v>
       </c>
       <c r="G68" s="27">
-        <v>0.57099999999999995</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H68" s="26">
-        <v>1985</v>
+        <v>556</v>
       </c>
       <c r="I68" s="26">
-        <v>1220</v>
+        <v>3857</v>
       </c>
       <c r="J68" s="26">
-        <v>765</v>
+        <v>-3300</v>
       </c>
       <c r="K68" s="28">
-        <v>1.0900000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="L68" s="29">
-        <v>43376</v>
+        <v>43397</v>
       </c>
       <c r="N68" s="54">
         <f t="shared" si="4"/>
-        <v>0.95016727293456227</v>
-      </c>
-      <c r="P68" s="60">
+        <v>1.2563517915309446</v>
+      </c>
+      <c r="P68" s="59">
         <f t="shared" si="17"/>
-        <v>1.5459688826025459</v>
-      </c>
-      <c r="Q68" s="60">
+        <v>0.18110749185667752</v>
+      </c>
+      <c r="Q68" s="59">
         <f t="shared" si="18"/>
-        <v>1.6270491803278688</v>
-      </c>
-      <c r="R68" s="61">
+        <v>0.14415348716619134</v>
+      </c>
+      <c r="R68" s="60">
         <f t="shared" si="19"/>
-        <v>0.95016727293456227</v>
+        <v>1.2563517915309446</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
-        <v>-473.61</v>
+        <v>-746.19</v>
       </c>
       <c r="C69" s="26">
-        <v>-524</v>
+        <v>-1136</v>
       </c>
       <c r="D69" s="26">
-        <v>692</v>
+        <v>546</v>
       </c>
       <c r="E69" s="26">
-        <v>1108</v>
+        <v>1262</v>
       </c>
       <c r="F69" s="26">
-        <v>-416</v>
+        <v>-716</v>
       </c>
       <c r="G69" s="27">
-        <v>0.36199999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="H69" s="26">
-        <v>1444</v>
+        <v>1279</v>
       </c>
       <c r="I69" s="26">
-        <v>1687</v>
+        <v>2739</v>
       </c>
       <c r="J69" s="26">
-        <v>-242</v>
+        <v>-1459</v>
       </c>
       <c r="K69" s="28">
-        <v>1.05</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L69" s="29">
-        <v>43375</v>
+        <v>43396</v>
       </c>
       <c r="N69" s="54">
         <f t="shared" si="4"/>
-        <v>0.72964938948168445</v>
-      </c>
-      <c r="P69" s="60">
+        <v>0.92651995108103724</v>
+      </c>
+      <c r="P69" s="59">
         <f t="shared" si="17"/>
-        <v>0.62454873646209386</v>
-      </c>
-      <c r="Q69" s="60">
+        <v>0.43264659270998418</v>
+      </c>
+      <c r="Q69" s="59">
         <f t="shared" si="18"/>
-        <v>0.8559573206876111</v>
-      </c>
-      <c r="R69" s="61">
+        <v>0.4669587440671778</v>
+      </c>
+      <c r="R69" s="60">
         <f t="shared" si="19"/>
-        <v>0.72964938948168445</v>
+        <v>0.92651995108103724</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
-        <v>-379.1</v>
+        <v>-299.47000000000003</v>
       </c>
       <c r="C70" s="26">
-        <v>-393</v>
+        <v>-275</v>
       </c>
       <c r="D70" s="26">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="E70" s="26">
-        <v>1152</v>
+        <v>1107</v>
       </c>
       <c r="F70" s="26">
-        <v>-495</v>
+        <v>-419</v>
       </c>
       <c r="G70" s="27">
-        <v>0.34300000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="H70" s="26">
-        <v>1722</v>
+        <v>954</v>
       </c>
       <c r="I70" s="26">
-        <v>1343</v>
+        <v>2099</v>
       </c>
       <c r="J70" s="26">
-        <v>378</v>
+        <v>-1144</v>
       </c>
       <c r="K70" s="28">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="L70" s="29">
-        <v>43374</v>
+        <v>43395</v>
       </c>
       <c r="N70" s="54">
         <f t="shared" si="4"/>
-        <v>0.44479075929152151</v>
-      </c>
-      <c r="P70" s="60">
+        <v>1.3674292997297548</v>
+      </c>
+      <c r="P70" s="59">
         <f t="shared" si="17"/>
-        <v>0.5703125</v>
-      </c>
-      <c r="Q70" s="60">
+        <v>0.6214995483288166</v>
+      </c>
+      <c r="Q70" s="59">
         <f t="shared" si="18"/>
-        <v>1.2822040208488459</v>
-      </c>
-      <c r="R70" s="61">
+        <v>0.45450214387803717</v>
+      </c>
+      <c r="R70" s="60">
         <f t="shared" si="19"/>
-        <v>0.44479075929152151</v>
+        <v>1.3674292997297548</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
-        <v>74.97</v>
+        <v>-394.48</v>
       </c>
       <c r="C71" s="26">
-        <v>58</v>
+        <v>-380</v>
       </c>
       <c r="D71" s="26">
-        <v>1026</v>
+        <v>768</v>
       </c>
       <c r="E71" s="26">
-        <v>758</v>
+        <v>1021</v>
       </c>
       <c r="F71" s="26">
-        <v>268</v>
+        <v>-253</v>
       </c>
       <c r="G71" s="27">
-        <v>0.53600000000000003</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="H71" s="26">
-        <v>1553</v>
+        <v>1696</v>
       </c>
       <c r="I71" s="26">
-        <v>1549</v>
+        <v>1590</v>
       </c>
       <c r="J71" s="26">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="K71" s="28">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="L71" s="29">
-        <v>43371</v>
+        <v>43392</v>
       </c>
       <c r="N71" s="54">
         <f t="shared" si="4"/>
-        <v>1.3500756897451016</v>
-      </c>
-      <c r="P71" s="60">
+        <v>0.70519098922624879</v>
+      </c>
+      <c r="P71" s="59">
         <f t="shared" si="17"/>
-        <v>1.353562005277045</v>
-      </c>
-      <c r="Q71" s="60">
+        <v>0.752203721841332</v>
+      </c>
+      <c r="Q71" s="59">
         <f t="shared" si="18"/>
-        <v>1.0025823111684957</v>
-      </c>
-      <c r="R71" s="61">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="R71" s="60">
         <f t="shared" si="19"/>
-        <v>1.3500756897451016</v>
+        <v>0.70519098922624879</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
-        <v>12.6</v>
+        <v>-1481.28</v>
       </c>
       <c r="C72" s="26">
-        <v>-12</v>
+        <v>-1477</v>
       </c>
       <c r="D72" s="26">
-        <v>885</v>
+        <v>266</v>
       </c>
       <c r="E72" s="26">
-        <v>891</v>
+        <v>1545</v>
       </c>
       <c r="F72" s="26">
-        <v>-6</v>
+        <v>-1279</v>
       </c>
       <c r="G72" s="27">
-        <v>0.46300000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="H72" s="26">
-        <v>1387</v>
+        <v>648</v>
       </c>
       <c r="I72" s="26">
-        <v>1401</v>
+        <v>2728</v>
       </c>
       <c r="J72" s="26">
-        <v>-13</v>
+        <v>-2079</v>
       </c>
       <c r="K72" s="28">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="L72" s="29">
-        <v>43370</v>
+        <v>43391</v>
       </c>
       <c r="N72" s="54">
         <f t="shared" si="4"/>
-        <v>1.0032917495066018</v>
-      </c>
-      <c r="P72" s="60">
+        <v>0.72480722362060013</v>
+      </c>
+      <c r="P72" s="59">
         <f t="shared" si="17"/>
-        <v>0.9932659932659933</v>
-      </c>
-      <c r="Q72" s="60">
+        <v>0.17216828478964402</v>
+      </c>
+      <c r="Q72" s="59">
         <f t="shared" si="18"/>
-        <v>0.99000713775874372</v>
-      </c>
-      <c r="R72" s="61">
+        <v>0.23753665689149561</v>
+      </c>
+      <c r="R72" s="60">
         <f t="shared" si="19"/>
-        <v>1.0032917495066018</v>
+        <v>0.72480722362060013</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="30">
-        <v>-546.55999999999995</v>
+        <v>-536.97</v>
       </c>
       <c r="C73" s="31">
-        <v>-567</v>
+        <v>-533</v>
       </c>
       <c r="D73" s="31">
-        <v>499</v>
+        <v>604</v>
       </c>
       <c r="E73" s="31">
-        <v>1293</v>
+        <v>1195</v>
       </c>
       <c r="F73" s="31">
-        <v>-794</v>
+        <v>-591</v>
       </c>
       <c r="G73" s="32">
-        <v>0.26100000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="H73" s="31">
-        <v>874</v>
+        <v>1348</v>
       </c>
       <c r="I73" s="31">
-        <v>2303</v>
+        <v>1764</v>
       </c>
       <c r="J73" s="31">
-        <v>-1428</v>
+        <v>-416</v>
       </c>
       <c r="K73" s="33">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="L73" s="29">
-        <v>43369</v>
+        <v>43390</v>
       </c>
       <c r="N73" s="54">
         <f t="shared" si="4"/>
-        <v>1.0169147017650046</v>
-      </c>
-      <c r="P73" s="60">
+        <v>0.66142060762574029</v>
+      </c>
+      <c r="P73" s="59">
         <f t="shared" si="17"/>
-        <v>0.38592420726991494</v>
-      </c>
-      <c r="Q73" s="60">
+        <v>0.50543933054393309</v>
+      </c>
+      <c r="Q73" s="59">
         <f t="shared" si="18"/>
-        <v>0.37950499348675643</v>
-      </c>
-      <c r="R73" s="61">
+        <v>0.76417233560090703</v>
+      </c>
+      <c r="R73" s="60">
         <f t="shared" si="19"/>
-        <v>1.0169147017650046</v>
+        <v>0.66142060762574029</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B74" s="17">
-        <v>-3262.39</v>
+        <v>-4503.07</v>
       </c>
       <c r="C74" s="18">
-        <v>-3980</v>
+        <v>-6094</v>
       </c>
       <c r="D74" s="18">
-        <v>7595</v>
+        <v>7344</v>
       </c>
       <c r="E74" s="18">
-        <v>10376</v>
+        <v>10700</v>
       </c>
       <c r="F74" s="18">
-        <v>-2781</v>
+        <v>-3356</v>
       </c>
       <c r="G74" s="19">
-        <v>0.42299999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="H74" s="18">
-        <v>14543</v>
+        <v>16183</v>
       </c>
       <c r="I74" s="18">
-        <v>16424</v>
+        <v>23065</v>
       </c>
       <c r="J74" s="18">
-        <v>-1881</v>
+        <v>-6882</v>
       </c>
       <c r="K74" s="20">
-        <v>1.04</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N74" s="54">
         <f t="shared" si="4"/>
-        <v>0.82665205054046786</v>
-      </c>
-      <c r="P74" s="60">
+        <v>0.97823526592172128</v>
+      </c>
+      <c r="P74" s="59">
         <f t="shared" si="17"/>
-        <v>0.73197764070932925</v>
-      </c>
-      <c r="Q74" s="60">
+        <v>0.6863551401869159</v>
+      </c>
+      <c r="Q74" s="59">
         <f t="shared" si="18"/>
-        <v>0.88547247929858741</v>
-      </c>
-      <c r="R74" s="61">
+        <v>0.70162584001734229</v>
+      </c>
+      <c r="R74" s="60">
         <f t="shared" si="19"/>
-        <v>0.82665205054046786</v>
+        <v>0.97823526592172128</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
@@ -5607,560 +5608,560 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
-        <v>-6.33</v>
+        <v>31.29</v>
       </c>
       <c r="C79" s="26">
-        <v>-9</v>
+        <v>46</v>
       </c>
       <c r="D79" s="26">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E79" s="26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F79" s="26">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="G79" s="27">
-        <v>0.316</v>
+        <v>1</v>
       </c>
       <c r="H79" s="26">
-        <v>110</v>
+        <v>591</v>
       </c>
       <c r="I79" s="26">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="J79" s="26">
-        <v>-96</v>
+        <v>591</v>
       </c>
       <c r="K79" s="28">
-        <v>1.1499999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="L79" s="29">
-        <v>43382</v>
-      </c>
-      <c r="N79" s="54">
+        <v>43403</v>
+      </c>
+      <c r="N79" s="54" t="e">
         <f t="shared" ref="N79" si="20">(D79/E79)/(H79/I79)</f>
-        <v>0.86853146853146856</v>
-      </c>
-      <c r="P79" s="60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P79" s="59" t="e">
         <f>D79/E79</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="Q79" s="60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q79" s="59" t="e">
         <f>H79/I79</f>
-        <v>0.53140096618357491</v>
-      </c>
-      <c r="R79" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R79" s="60" t="e">
         <f>P79/Q79</f>
-        <v>0.86853146853146856</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B80" s="25">
-        <v>0.21</v>
+        <v>-11.53</v>
       </c>
       <c r="C80" s="26">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="D80" s="26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E80" s="26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F80" s="26">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="G80" s="27">
-        <v>0.47399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="H80" s="26">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="I80" s="26">
-        <v>142</v>
+        <v>441</v>
       </c>
       <c r="J80" s="26">
-        <v>-15</v>
+        <v>-255</v>
       </c>
       <c r="K80" s="28">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="L80" s="29">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="N80" s="54">
         <f t="shared" si="4"/>
-        <v>1.2578740157480315</v>
-      </c>
-      <c r="P80" s="60">
+        <v>1.0942928039702233</v>
+      </c>
+      <c r="P80" s="59">
         <f t="shared" ref="P80:P89" si="21">D80/E80</f>
-        <v>1.125</v>
-      </c>
-      <c r="Q80" s="60">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="Q80" s="59">
         <f t="shared" ref="Q80:Q89" si="22">H80/I80</f>
-        <v>0.89436619718309862</v>
-      </c>
-      <c r="R80" s="61">
+        <v>0.42176870748299322</v>
+      </c>
+      <c r="R80" s="60">
         <f t="shared" ref="R80:R89" si="23">P80/Q80</f>
-        <v>1.2578740157480315</v>
+        <v>1.0942928039702233</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B81" s="25">
-        <v>-13.8</v>
+        <v>-27.79</v>
       </c>
       <c r="C81" s="26">
-        <v>-31</v>
+        <v>-66</v>
       </c>
       <c r="D81" s="26">
+        <v>0</v>
+      </c>
+      <c r="E81" s="26">
+        <v>18</v>
+      </c>
+      <c r="F81" s="26">
+        <v>-18</v>
+      </c>
+      <c r="G81" s="27">
+        <v>0</v>
+      </c>
+      <c r="H81" s="26">
+        <v>0</v>
+      </c>
+      <c r="I81" s="26">
+        <v>775</v>
+      </c>
+      <c r="J81" s="26">
+        <v>-775</v>
+      </c>
+      <c r="K81" s="28">
+        <v>1.72</v>
+      </c>
+      <c r="L81" s="29">
+        <v>43399</v>
+      </c>
+      <c r="N81" s="54" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P81" s="59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="60" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B82" s="25">
+        <v>33.94</v>
+      </c>
+      <c r="C82" s="26">
+        <v>40</v>
+      </c>
+      <c r="D82" s="26">
+        <v>18</v>
+      </c>
+      <c r="E82" s="26">
+        <v>1</v>
+      </c>
+      <c r="F82" s="26">
+        <v>17</v>
+      </c>
+      <c r="G82" s="27">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H82" s="26">
+        <v>512</v>
+      </c>
+      <c r="I82" s="26">
+        <v>29</v>
+      </c>
+      <c r="J82" s="26">
+        <v>482</v>
+      </c>
+      <c r="K82" s="28">
+        <v>1.19</v>
+      </c>
+      <c r="L82" s="29">
+        <v>43398</v>
+      </c>
+      <c r="N82" s="54">
+        <f t="shared" si="4"/>
+        <v>1.01953125</v>
+      </c>
+      <c r="P82" s="59">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="Q82" s="59">
+        <f t="shared" si="22"/>
+        <v>17.655172413793103</v>
+      </c>
+      <c r="R82" s="60">
+        <f t="shared" si="23"/>
+        <v>1.01953125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B83" s="25">
+        <v>-60.62</v>
+      </c>
+      <c r="C83" s="26">
+        <v>-121</v>
+      </c>
+      <c r="D83" s="26">
+        <v>3</v>
+      </c>
+      <c r="E83" s="26">
+        <v>16</v>
+      </c>
+      <c r="F83" s="26">
+        <v>-13</v>
+      </c>
+      <c r="G83" s="27">
+        <v>0.158</v>
+      </c>
+      <c r="H83" s="26">
+        <v>71</v>
+      </c>
+      <c r="I83" s="26">
+        <v>602</v>
+      </c>
+      <c r="J83" s="26">
+        <v>-530</v>
+      </c>
+      <c r="K83" s="28">
+        <v>1.47</v>
+      </c>
+      <c r="L83" s="29">
+        <v>43397</v>
+      </c>
+      <c r="N83" s="54">
+        <f t="shared" ref="N83:N89" si="24">(D83/E83)/(H83/I83)</f>
+        <v>1.5897887323943662</v>
+      </c>
+      <c r="P83" s="59">
+        <f t="shared" si="21"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q83" s="59">
+        <f t="shared" si="22"/>
+        <v>0.11794019933554817</v>
+      </c>
+      <c r="R83" s="60">
+        <f t="shared" si="23"/>
+        <v>1.5897887323943662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B84" s="25">
+        <v>-11.45</v>
+      </c>
+      <c r="C84" s="26">
+        <v>-15</v>
+      </c>
+      <c r="D84" s="26">
+        <v>5</v>
+      </c>
+      <c r="E84" s="26">
+        <v>14</v>
+      </c>
+      <c r="F84" s="26">
+        <v>-9</v>
+      </c>
+      <c r="G84" s="27">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H84" s="26">
+        <v>74</v>
+      </c>
+      <c r="I84" s="26">
+        <v>503</v>
+      </c>
+      <c r="J84" s="26">
+        <v>-429</v>
+      </c>
+      <c r="K84" s="28">
+        <v>1.26</v>
+      </c>
+      <c r="L84" s="29">
+        <v>43396</v>
+      </c>
+      <c r="N84" s="54">
+        <f t="shared" si="24"/>
+        <v>2.4276061776061777</v>
+      </c>
+      <c r="P84" s="59">
+        <f t="shared" si="21"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="Q84" s="59">
+        <f t="shared" si="22"/>
+        <v>0.14711729622266401</v>
+      </c>
+      <c r="R84" s="60">
+        <f t="shared" si="23"/>
+        <v>2.4276061776061777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B85" s="25">
+        <v>-9.8800000000000008</v>
+      </c>
+      <c r="C85" s="26">
+        <v>-5</v>
+      </c>
+      <c r="D85" s="26">
+        <v>3</v>
+      </c>
+      <c r="E85" s="26">
+        <v>16</v>
+      </c>
+      <c r="F85" s="26">
+        <v>-13</v>
+      </c>
+      <c r="G85" s="27">
+        <v>0.158</v>
+      </c>
+      <c r="H85" s="26">
+        <v>75</v>
+      </c>
+      <c r="I85" s="26">
+        <v>279</v>
+      </c>
+      <c r="J85" s="26">
+        <v>-203</v>
+      </c>
+      <c r="K85" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="L85" s="29">
+        <v>43395</v>
+      </c>
+      <c r="N85" s="54">
+        <f t="shared" si="24"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="P85" s="59">
+        <f t="shared" si="21"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q85" s="59">
+        <f t="shared" si="22"/>
+        <v>0.26881720430107525</v>
+      </c>
+      <c r="R85" s="60">
+        <f t="shared" si="23"/>
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B86" s="25">
+        <v>-7.52</v>
+      </c>
+      <c r="C86" s="26">
+        <v>-5</v>
+      </c>
+      <c r="D86" s="26">
+        <v>5</v>
+      </c>
+      <c r="E86" s="26">
+        <v>14</v>
+      </c>
+      <c r="F86" s="26">
+        <v>-9</v>
+      </c>
+      <c r="G86" s="27">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H86" s="26">
+        <v>141</v>
+      </c>
+      <c r="I86" s="26">
+        <v>359</v>
+      </c>
+      <c r="J86" s="26">
+        <v>-217</v>
+      </c>
+      <c r="K86" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L86" s="29">
+        <v>43392</v>
+      </c>
+      <c r="N86" s="54">
+        <f t="shared" si="24"/>
+        <v>0.90932117527862211</v>
+      </c>
+      <c r="P86" s="59">
+        <f t="shared" si="21"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="Q86" s="59">
+        <f t="shared" si="22"/>
+        <v>0.39275766016713093</v>
+      </c>
+      <c r="R86" s="60">
+        <f t="shared" si="23"/>
+        <v>0.90932117527862211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B87" s="25">
+        <v>-29.4</v>
+      </c>
+      <c r="C87" s="26">
+        <v>-28</v>
+      </c>
+      <c r="D87" s="26">
         <v>2</v>
       </c>
-      <c r="E81" s="26">
+      <c r="E87" s="26">
         <v>17</v>
       </c>
-      <c r="F81" s="26">
+      <c r="F87" s="26">
         <v>-15</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G87" s="27">
         <v>0.105</v>
       </c>
-      <c r="H81" s="26">
-        <v>33</v>
-      </c>
-      <c r="I81" s="26">
-        <v>393</v>
-      </c>
-      <c r="J81" s="26">
-        <v>-359</v>
-      </c>
-      <c r="K81" s="28">
-        <v>1.54</v>
-      </c>
-      <c r="L81" s="29">
-        <v>43378</v>
-      </c>
-      <c r="N81" s="54">
-        <f t="shared" si="4"/>
-        <v>1.4010695187165776</v>
-      </c>
-      <c r="P81" s="60">
+      <c r="H87" s="26">
+        <v>19</v>
+      </c>
+      <c r="I87" s="26">
+        <v>471</v>
+      </c>
+      <c r="J87" s="26">
+        <v>-452</v>
+      </c>
+      <c r="K87" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="L87" s="29">
+        <v>43391</v>
+      </c>
+      <c r="N87" s="54">
+        <f t="shared" si="24"/>
+        <v>2.9164086687306501</v>
+      </c>
+      <c r="P87" s="59">
         <f t="shared" si="21"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="Q81" s="60">
+      <c r="Q87" s="59">
         <f t="shared" si="22"/>
-        <v>8.3969465648854963E-2</v>
-      </c>
-      <c r="R81" s="61">
+        <v>4.0339702760084924E-2</v>
+      </c>
+      <c r="R87" s="60">
         <f t="shared" si="23"/>
-        <v>1.4010695187165776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="25">
-        <v>-21.68</v>
-      </c>
-      <c r="C82" s="26">
-        <v>-58</v>
-      </c>
-      <c r="D82" s="26">
-        <v>3</v>
-      </c>
-      <c r="E82" s="26">
-        <v>16</v>
-      </c>
-      <c r="F82" s="26">
-        <v>-13</v>
-      </c>
-      <c r="G82" s="27">
-        <v>0.158</v>
-      </c>
-      <c r="H82" s="26">
-        <v>135</v>
-      </c>
-      <c r="I82" s="26">
-        <v>345</v>
-      </c>
-      <c r="J82" s="26">
-        <v>-209</v>
-      </c>
-      <c r="K82" s="28">
-        <v>1.74</v>
-      </c>
-      <c r="L82" s="29">
-        <v>43377</v>
-      </c>
-      <c r="N82" s="54">
-        <f t="shared" si="4"/>
-        <v>0.47916666666666663</v>
-      </c>
-      <c r="P82" s="60">
-        <f t="shared" si="21"/>
-        <v>0.1875</v>
-      </c>
-      <c r="Q82" s="60">
-        <f t="shared" si="22"/>
-        <v>0.39130434782608697</v>
-      </c>
-      <c r="R82" s="61">
-        <f t="shared" si="23"/>
-        <v>0.47916666666666663</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="25">
-        <v>4.45</v>
-      </c>
-      <c r="C83" s="26">
-        <v>6</v>
-      </c>
-      <c r="D83" s="26">
-        <v>12</v>
-      </c>
-      <c r="E83" s="26">
-        <v>7</v>
-      </c>
-      <c r="F83" s="26">
-        <v>5</v>
-      </c>
-      <c r="G83" s="27">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="H83" s="26">
-        <v>262</v>
-      </c>
-      <c r="I83" s="26">
-        <v>67</v>
-      </c>
-      <c r="J83" s="26">
-        <v>195</v>
-      </c>
-      <c r="K83" s="28">
-        <v>1.19</v>
-      </c>
-      <c r="L83" s="29">
-        <v>43376</v>
-      </c>
-      <c r="N83" s="54">
-        <f t="shared" ref="N83:N89" si="24">(D83/E83)/(H83/I83)</f>
-        <v>0.43838604143947651</v>
-      </c>
-      <c r="P83" s="60">
-        <f t="shared" si="21"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="Q83" s="60">
-        <f t="shared" si="22"/>
-        <v>3.91044776119403</v>
-      </c>
-      <c r="R83" s="61">
-        <f t="shared" si="23"/>
-        <v>0.43838604143947651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="25">
-        <v>-4.57</v>
-      </c>
-      <c r="C84" s="26">
-        <v>-6</v>
-      </c>
-      <c r="D84" s="26">
-        <v>7</v>
-      </c>
-      <c r="E84" s="26">
-        <v>11</v>
-      </c>
-      <c r="F84" s="26">
-        <v>-4</v>
-      </c>
-      <c r="G84" s="27">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H84" s="26">
-        <v>65</v>
-      </c>
-      <c r="I84" s="26">
-        <v>140</v>
-      </c>
-      <c r="J84" s="26">
-        <v>-74</v>
-      </c>
-      <c r="K84" s="28">
-        <v>0.91</v>
-      </c>
-      <c r="L84" s="29">
-        <v>43375</v>
-      </c>
-      <c r="N84" s="54">
-        <f t="shared" si="24"/>
-        <v>1.3706293706293706</v>
-      </c>
-      <c r="P84" s="60">
-        <f t="shared" si="21"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="Q84" s="60">
-        <f t="shared" si="22"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="R84" s="61">
-        <f t="shared" si="23"/>
-        <v>1.3706293706293706</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="25">
-        <v>-0.39</v>
-      </c>
-      <c r="C85" s="26">
-        <v>0</v>
-      </c>
-      <c r="D85" s="26">
-        <v>9</v>
-      </c>
-      <c r="E85" s="26">
-        <v>10</v>
-      </c>
-      <c r="F85" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G85" s="27">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="H85" s="26">
-        <v>196</v>
-      </c>
-      <c r="I85" s="26">
-        <v>79</v>
-      </c>
-      <c r="J85" s="26">
-        <v>117</v>
-      </c>
-      <c r="K85" s="28">
-        <v>1</v>
-      </c>
-      <c r="L85" s="29">
-        <v>43374</v>
-      </c>
-      <c r="N85" s="54">
-        <f t="shared" si="24"/>
-        <v>0.36275510204081635</v>
-      </c>
-      <c r="P85" s="60">
-        <f t="shared" si="21"/>
-        <v>0.9</v>
-      </c>
-      <c r="Q85" s="60">
-        <f t="shared" si="22"/>
-        <v>2.481012658227848</v>
-      </c>
-      <c r="R85" s="61">
-        <f t="shared" si="23"/>
-        <v>0.36275510204081635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="25">
-        <v>2.13</v>
-      </c>
-      <c r="C86" s="26">
-        <v>1</v>
-      </c>
-      <c r="D86" s="26">
-        <v>11</v>
-      </c>
-      <c r="E86" s="26">
-        <v>8</v>
-      </c>
-      <c r="F86" s="26">
-        <v>3</v>
-      </c>
-      <c r="G86" s="27">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="H86" s="26">
-        <v>148</v>
-      </c>
-      <c r="I86" s="26">
-        <v>136</v>
-      </c>
-      <c r="J86" s="26">
-        <v>12</v>
-      </c>
-      <c r="K86" s="28">
-        <v>1.03</v>
-      </c>
-      <c r="L86" s="29">
-        <v>43371</v>
-      </c>
-      <c r="N86" s="54">
-        <f t="shared" si="24"/>
-        <v>1.2635135135135136</v>
-      </c>
-      <c r="P86" s="60">
-        <f t="shared" si="21"/>
-        <v>1.375</v>
-      </c>
-      <c r="Q86" s="60">
-        <f t="shared" si="22"/>
-        <v>1.088235294117647</v>
-      </c>
-      <c r="R86" s="61">
-        <f t="shared" si="23"/>
-        <v>1.2635135135135136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="25">
-        <v>4.75</v>
-      </c>
-      <c r="C87" s="26">
-        <v>3</v>
-      </c>
-      <c r="D87" s="26">
-        <v>13</v>
-      </c>
-      <c r="E87" s="26">
-        <v>5</v>
-      </c>
-      <c r="F87" s="26">
-        <v>8</v>
-      </c>
-      <c r="G87" s="27">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="H87" s="26">
-        <v>168</v>
-      </c>
-      <c r="I87" s="26">
-        <v>83</v>
-      </c>
-      <c r="J87" s="26">
-        <v>85</v>
-      </c>
-      <c r="K87" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="L87" s="29">
-        <v>43370</v>
-      </c>
-      <c r="N87" s="54">
-        <f t="shared" si="24"/>
-        <v>1.2845238095238096</v>
-      </c>
-      <c r="P87" s="60">
-        <f t="shared" si="21"/>
-        <v>2.6</v>
-      </c>
-      <c r="Q87" s="60">
-        <f t="shared" si="22"/>
-        <v>2.0240963855421685</v>
-      </c>
-      <c r="R87" s="61">
-        <f t="shared" si="23"/>
-        <v>1.2845238095238096</v>
+        <v>2.9164086687306501</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="30">
-        <v>-11.17</v>
+        <v>-4.67</v>
       </c>
       <c r="C88" s="31">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="D88" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E88" s="31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="31">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="G88" s="32">
-        <v>0.26300000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="H88" s="31">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="I88" s="31">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="J88" s="31">
-        <v>-184</v>
+        <v>162</v>
       </c>
       <c r="K88" s="33">
-        <v>1.1399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L88" s="29">
-        <v>43369</v>
+        <v>43390</v>
       </c>
       <c r="N88" s="54">
         <f t="shared" si="24"/>
-        <v>1.3736263736263736</v>
-      </c>
-      <c r="P88" s="60">
+        <v>0.20979020979020979</v>
+      </c>
+      <c r="P88" s="59">
         <f t="shared" si="21"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="Q88" s="60">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="Q88" s="59">
         <f t="shared" si="22"/>
-        <v>0.26</v>
-      </c>
-      <c r="R88" s="61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R88" s="60">
         <f t="shared" si="23"/>
-        <v>1.3736263736263736</v>
+        <v>0.20979020979020979</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B89" s="17">
-        <v>-46.4</v>
+        <v>-97.63</v>
       </c>
       <c r="C89" s="18">
-        <v>-106</v>
+        <v>-175</v>
       </c>
       <c r="D89" s="18">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E89" s="18">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F89" s="18">
-        <v>-32</v>
+        <v>-55</v>
       </c>
       <c r="G89" s="19">
-        <v>0.41399999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="H89" s="18">
-        <v>1316</v>
+        <v>1970</v>
       </c>
       <c r="I89" s="18">
-        <v>1846</v>
+        <v>3597</v>
       </c>
       <c r="J89" s="18">
-        <v>-530</v>
+        <v>-1627</v>
       </c>
       <c r="K89" s="20">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="N89" s="54">
         <f t="shared" si="24"/>
-        <v>0.99092328713644351</v>
-      </c>
-      <c r="P89" s="60">
+        <v>1.002741948905717</v>
+      </c>
+      <c r="P89" s="59">
         <f t="shared" si="21"/>
-        <v>0.70642201834862384</v>
-      </c>
-      <c r="Q89" s="60">
+        <v>0.54918032786885251</v>
+      </c>
+      <c r="Q89" s="59">
         <f t="shared" si="22"/>
-        <v>0.71289274106175515</v>
-      </c>
-      <c r="R89" s="61">
+        <v>0.54767862107311649</v>
+      </c>
+      <c r="R89" s="60">
         <f t="shared" si="23"/>
-        <v>0.99092328713644351</v>
+        <v>1.002741948905717</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">

--- a/excel/Breadth-Calcs.xlsx
+++ b/excel/Breadth-Calcs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4CE8B-B7C4-414A-8308-784772A3614C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0A0521-503D-42C4-AB37-7FD9F8C58538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETFs" sheetId="5" r:id="rId1"/>
     <sheet name="breadth" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -336,22 +337,22 @@
     <t>TRIN</t>
   </si>
   <si>
-    <t>Down -5.91 Points per Component with overall change of 4.53% from closing price 2682.63 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -12.30 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -1.64 Points per Component with overall change of 4.60% from closing price 950.90 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -3.83 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -2.44 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
-  </si>
-  <si>
-    <t>Down -5.14 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+    <t>Up 2.53 Points per Component with overall change of -1.98% from closing price 2790.37 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 6.67 Points per Component with overall change of NaN% from closing price 0.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.29 Points per Component with overall change of -0.87% from closing price 969.77 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 1.54 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 0.74 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
+  </si>
+  <si>
+    <t>Up 2.19 Points per Component with overall change of 0.00% from closing price 1.00 which was 11 days ago.</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1189,86 +1190,86 @@
         <v>64</v>
       </c>
       <c r="D4" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9">
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="11">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="I4" s="13">
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J40" si="0">H4-I4</f>
-        <v>-0.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="10">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>5.75</v>
+      </c>
+      <c r="I5" s="15">
         <v>3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.25</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="10">
         <v>3</v>
       </c>
       <c r="H6" s="12">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="I6" s="15">
-        <v>-6</v>
+        <v>-2.5</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -1279,206 +1280,206 @@
         <v>73</v>
       </c>
       <c r="D7" s="10">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="12">
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I7" s="15">
         <v>-0.5</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
-        <v>-4</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-2</v>
-      </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="12">
-        <v>-0.75</v>
+        <v>3</v>
       </c>
       <c r="I8" s="15">
-        <v>-3.75</v>
+        <v>-2.75</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D9" s="10">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="12">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="15">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D10" s="10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="10">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F10" s="10">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G10" s="10">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>-2.25</v>
+        <v>2</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="15">
         <v>-3</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>-2.25</v>
-      </c>
-      <c r="I11" s="15">
-        <v>-4.75</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="I12" s="15">
-        <v>-0.75</v>
+        <v>-4</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="10">
-        <v>-4</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-4</v>
-      </c>
       <c r="G13" s="10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="15">
-        <v>-5</v>
+        <v>-2.25</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1489,56 +1490,56 @@
         <v>50</v>
       </c>
       <c r="D14" s="10">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E14" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="12">
-        <v>-3.5</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="15">
-        <v>-4</v>
+        <v>-3.25</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" s="10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="15">
         <v>-3</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="12">
-        <v>-3.5</v>
-      </c>
-      <c r="I15" s="15">
-        <v>-5.25</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L15" s="53" t="s">
         <v>97</v>
@@ -1546,32 +1547,32 @@
     </row>
     <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="10">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F16" s="10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="10">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H16" s="12">
-        <v>-4</v>
+        <v>0.25</v>
       </c>
       <c r="I16" s="15">
-        <v>-2.75</v>
+        <v>-3.75</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>4</v>
       </c>
       <c r="L16" s="53" t="s">
         <v>98</v>
@@ -1579,542 +1580,542 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="10">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="F17" s="10">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="G17" s="10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H17" s="12">
+        <v>-0.75</v>
+      </c>
+      <c r="I17" s="15">
         <v>-4.5</v>
-      </c>
-      <c r="I17" s="15">
-        <v>-1.5</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D18" s="10">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F18" s="10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G18" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="12">
-        <v>-4.75</v>
+        <v>-0.75</v>
       </c>
       <c r="I18" s="15">
-        <v>-4</v>
+        <v>-6.25</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D19" s="10">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-3</v>
+      </c>
+      <c r="G19" s="10">
         <v>-4</v>
       </c>
-      <c r="E19" s="10">
-        <v>-7</v>
-      </c>
-      <c r="F19" s="10">
-        <v>-5</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-3</v>
-      </c>
       <c r="H19" s="12">
-        <v>-4.75</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="15">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D20" s="10">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="10">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="10">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G20" s="10">
         <v>-3</v>
       </c>
       <c r="H20" s="12">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I20" s="15">
-        <v>-5</v>
+        <v>-3.5</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="E21" s="10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F21" s="10">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G21" s="10">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H21" s="12">
-        <v>-5.25</v>
+        <v>-1.25</v>
       </c>
       <c r="I21" s="15">
-        <v>-3</v>
+        <v>-3.25</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>-2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F22" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G22" s="10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H22" s="12">
-        <v>-5.25</v>
+        <v>-1.25</v>
       </c>
       <c r="I22" s="15">
-        <v>-5.25</v>
+        <v>-3.75</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D23" s="10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="10">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G23" s="10">
         <v>-5</v>
       </c>
       <c r="H23" s="12">
-        <v>-5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I23" s="15">
-        <v>-6.25</v>
+        <v>-1.5</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D24" s="10">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E24" s="10">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G24" s="10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H24" s="12">
-        <v>-5.75</v>
+        <v>-1.75</v>
       </c>
       <c r="I24" s="15">
-        <v>-5</v>
+        <v>-3.75</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D25" s="10">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="10">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F25" s="10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G25" s="10">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H25" s="12">
-        <v>-5.75</v>
+        <v>-2</v>
       </c>
       <c r="I25" s="15">
-        <v>-6</v>
+        <v>-4.25</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D26" s="10">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="E26" s="10">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F26" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G26" s="10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="H26" s="12">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="I26" s="15">
-        <v>-8</v>
+        <v>-4.25</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D27" s="10">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="E27" s="10">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G27" s="10">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="H27" s="12">
-        <v>-6.25</v>
+        <v>-2</v>
       </c>
       <c r="I27" s="15">
-        <v>-3</v>
+        <v>-4.75</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>-3.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D28" s="10">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="10">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F28" s="10">
         <v>-6</v>
       </c>
       <c r="G28" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H28" s="12">
-        <v>-6.5</v>
+        <v>-2.25</v>
       </c>
       <c r="I28" s="15">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>-4</v>
+      </c>
+      <c r="F29" s="10">
         <v>-5</v>
       </c>
-      <c r="E29" s="10">
-        <v>-7</v>
-      </c>
-      <c r="F29" s="10">
-        <v>-7</v>
-      </c>
       <c r="G29" s="10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H29" s="12">
-        <v>-6.5</v>
+        <v>-3</v>
       </c>
       <c r="I29" s="15">
-        <v>-7.75</v>
+        <v>-5.5</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D30" s="10">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="E30" s="10">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F30" s="10">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="G30" s="10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H30" s="12">
-        <v>-6.75</v>
+        <v>-3</v>
       </c>
       <c r="I30" s="15">
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D31" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="10">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F31" s="10">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G31" s="10">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="12">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="I31" s="15">
-        <v>-7.75</v>
+        <v>-5.75</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D32" s="10">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="E32" s="10">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F32" s="10">
         <v>-7</v>
       </c>
       <c r="G32" s="10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="H32" s="12">
-        <v>-7.25</v>
+        <v>-3.25</v>
       </c>
       <c r="I32" s="15">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>-1.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D33" s="10">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E33" s="10">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="F33" s="10">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="G33" s="10">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="H33" s="12">
-        <v>-7.75</v>
+        <v>-4</v>
       </c>
       <c r="I33" s="15">
-        <v>-8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D34" s="10">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="E34" s="10">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F34" s="10">
         <v>-9</v>
       </c>
       <c r="G34" s="10">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="H34" s="12">
-        <v>-8</v>
+        <v>-4.5</v>
       </c>
       <c r="I34" s="15">
-        <v>-5.25</v>
+        <v>-6.25</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>-2.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -2125,10 +2126,10 @@
         <v>79</v>
       </c>
       <c r="D35" s="10">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E35" s="10">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F35" s="10">
         <v>-8</v>
@@ -2137,85 +2138,85 @@
         <v>-7</v>
       </c>
       <c r="H35" s="12">
-        <v>-8</v>
+        <v>-6.75</v>
       </c>
       <c r="I35" s="15">
-        <v>-6</v>
+        <v>-6.25</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>-10</v>
+      </c>
+      <c r="F36" s="10">
+        <v>-10</v>
+      </c>
+      <c r="G36" s="10">
         <v>-8</v>
       </c>
-      <c r="E36" s="10">
-        <v>-9</v>
-      </c>
-      <c r="F36" s="10">
-        <v>-8</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="H36" s="12">
         <v>-7</v>
       </c>
-      <c r="H36" s="12">
-        <v>-8</v>
-      </c>
       <c r="I36" s="15">
-        <v>-7</v>
+        <v>-7.5</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D37" s="10">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E37" s="10">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F37" s="10">
         <v>-8</v>
       </c>
       <c r="G37" s="10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H37" s="12">
-        <v>-8.25</v>
+        <v>-7.25</v>
       </c>
       <c r="I37" s="15">
-        <v>-6.75</v>
+        <v>-7.5</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D38" s="10">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E38" s="10">
         <v>-9</v>
@@ -2227,74 +2228,74 @@
         <v>-7</v>
       </c>
       <c r="H38" s="12">
-        <v>-8.5</v>
+        <v>-8.25</v>
       </c>
       <c r="I38" s="15">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39" s="10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E39" s="10">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F39" s="10">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G39" s="10">
         <v>-8</v>
       </c>
       <c r="H39" s="12">
-        <v>-8.75</v>
+        <v>-8.5</v>
       </c>
       <c r="I39" s="15">
-        <v>-9.5</v>
+        <v>-8.25</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D40" s="10">
+        <v>-9</v>
+      </c>
+      <c r="E40" s="10">
+        <v>-10</v>
+      </c>
+      <c r="F40" s="10">
+        <v>-10</v>
+      </c>
+      <c r="G40" s="10">
         <v>-8</v>
       </c>
-      <c r="E40" s="10">
-        <v>-9</v>
-      </c>
-      <c r="F40" s="10">
-        <v>-9</v>
-      </c>
-      <c r="G40" s="10">
-        <v>-9</v>
-      </c>
       <c r="H40" s="34">
-        <v>-8.75</v>
+        <v>-9.25</v>
       </c>
       <c r="I40" s="35">
-        <v>-9.75</v>
+        <v>-8</v>
       </c>
       <c r="J40" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2302,35 +2303,35 @@
       <c r="C41" s="40"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:I41" si="1">AVERAGE(D4:D40)</f>
-        <v>-4.8378378378378377</v>
+        <v>2.3243243243243241</v>
       </c>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>-6.1081081081081079</v>
+        <v>-2.1351351351351351</v>
       </c>
       <c r="F41" s="41">
         <f t="shared" si="1"/>
-        <v>-4.5945945945945947</v>
+        <v>-3.0540540540540539</v>
       </c>
       <c r="G41" s="41">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-2.6486486486486487</v>
       </c>
       <c r="H41" s="37">
         <f t="shared" si="1"/>
-        <v>-4.6351351351351351</v>
+        <v>-1.3783783783783783</v>
       </c>
       <c r="I41" s="38">
         <f t="shared" si="1"/>
-        <v>-4.6486486486486482</v>
+        <v>-3.9324324324324325</v>
       </c>
       <c r="J41" s="39">
         <f t="shared" ref="J41" si="2">H41-I41</f>
-        <v>1.3513513513513153E-2</v>
+        <v>2.5540540540540544</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:I40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I40">
     <sortCondition descending="1" ref="H4:H40"/>
     <sortCondition descending="1" ref="I4:I40"/>
   </sortState>
@@ -2341,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2429,560 +2430,560 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
-        <v>988.53</v>
+        <v>660.6</v>
       </c>
       <c r="C4" s="26">
-        <v>1634</v>
+        <v>824</v>
       </c>
       <c r="D4" s="26">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="E4" s="26">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F4" s="26">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="G4" s="27">
-        <v>0.879</v>
+        <v>0.754</v>
       </c>
       <c r="H4" s="26">
-        <v>2589</v>
+        <v>2159</v>
       </c>
       <c r="I4" s="26">
-        <v>755</v>
+        <v>580</v>
       </c>
       <c r="J4" s="26">
-        <v>1833</v>
+        <v>1578</v>
       </c>
       <c r="K4" s="28">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="L4" s="29">
-        <v>43403</v>
+        <v>43437</v>
       </c>
       <c r="N4" s="54">
         <f>(D4/E4)/(H4/I4)</f>
-        <v>2.2374169230564322</v>
+        <v>0.85070248571869689</v>
       </c>
       <c r="P4" s="59">
         <f>D4/E4</f>
-        <v>7.6724137931034484</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="Q4" s="59">
         <f>H4/I4</f>
-        <v>3.4291390728476823</v>
+        <v>3.7224137931034482</v>
       </c>
       <c r="R4" s="60">
         <f>P4/Q4</f>
-        <v>2.2374169230564322</v>
+        <v>0.85070248571869689</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
-        <v>-337.55</v>
+        <v>344.92</v>
       </c>
       <c r="C5" s="26">
-        <v>-277</v>
+        <v>492</v>
       </c>
       <c r="D5" s="26">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="E5" s="26">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="F5" s="26">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="G5" s="27">
-        <v>0.53</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H5" s="26">
-        <v>1453</v>
+        <v>1998</v>
       </c>
       <c r="I5" s="26">
-        <v>1507</v>
+        <v>1076</v>
       </c>
       <c r="J5" s="26">
-        <v>-53</v>
+        <v>921</v>
       </c>
       <c r="K5" s="28">
         <v>1.2</v>
       </c>
       <c r="L5" s="29">
-        <v>43402</v>
+        <v>43434</v>
       </c>
       <c r="N5" s="54">
         <f t="shared" ref="N5:N14" si="0">(D5/E5)/(H5/I5)</f>
-        <v>1.1878636008023482</v>
+        <v>1.3597143242533314</v>
       </c>
       <c r="P5" s="59">
         <f t="shared" ref="P5:P14" si="1">D5/E5</f>
-        <v>1.1452991452991452</v>
+        <v>2.5248226950354611</v>
       </c>
       <c r="Q5" s="59">
         <f t="shared" ref="Q5:Q14" si="2">H5/I5</f>
-        <v>0.96416721964167218</v>
+        <v>1.8568773234200744</v>
       </c>
       <c r="R5" s="60">
         <f t="shared" ref="R5:R14" si="3">P5/Q5</f>
-        <v>1.1878636008023482</v>
+        <v>1.3597143242533314</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
-        <v>-952.13</v>
+        <v>-135.84</v>
       </c>
       <c r="C6" s="26">
-        <v>-2117</v>
+        <v>-111</v>
       </c>
       <c r="D6" s="26">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="E6" s="26">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="F6" s="26">
-        <v>-335</v>
+        <v>-111</v>
       </c>
       <c r="G6" s="27">
-        <v>0.16400000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="H6" s="26">
-        <v>553</v>
+        <v>915</v>
       </c>
       <c r="I6" s="26">
-        <v>2719</v>
+        <v>1205</v>
       </c>
       <c r="J6" s="26">
-        <v>-2165</v>
+        <v>-290</v>
       </c>
       <c r="K6" s="28">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="L6" s="29">
-        <v>43399</v>
+        <v>43433</v>
       </c>
       <c r="N6" s="54">
         <f t="shared" si="0"/>
-        <v>0.97630583939711191</v>
+        <v>0.83449656441053943</v>
       </c>
       <c r="P6" s="59">
         <f t="shared" si="1"/>
-        <v>0.19856459330143542</v>
+        <v>0.63366336633663367</v>
       </c>
       <c r="Q6" s="59">
         <f t="shared" si="2"/>
-        <v>0.20338359691062891</v>
+        <v>0.75933609958506221</v>
       </c>
       <c r="R6" s="60">
         <f t="shared" si="3"/>
-        <v>0.97630583939711191</v>
+        <v>0.83449656441053943</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
-        <v>827.48</v>
+        <v>1264.07</v>
       </c>
       <c r="C7" s="26">
-        <v>717</v>
+        <v>1269</v>
       </c>
       <c r="D7" s="26">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="E7" s="26">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F7" s="26">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="G7" s="27">
-        <v>0.8</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="H7" s="26">
-        <v>2226</v>
+        <v>2269</v>
       </c>
       <c r="I7" s="26">
-        <v>841</v>
+        <v>175</v>
       </c>
       <c r="J7" s="26">
-        <v>1384</v>
+        <v>2093</v>
       </c>
       <c r="K7" s="28">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
       <c r="L7" s="29">
-        <v>43398</v>
+        <v>43432</v>
       </c>
       <c r="N7" s="54">
         <f t="shared" si="0"/>
-        <v>1.577444632784061</v>
+        <v>0.69105332745702952</v>
       </c>
       <c r="P7" s="59">
         <f t="shared" si="1"/>
-        <v>4.1752577319587632</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="Q7" s="59">
         <f t="shared" si="2"/>
-        <v>2.6468489892984541</v>
+        <v>12.965714285714286</v>
       </c>
       <c r="R7" s="60">
         <f t="shared" si="3"/>
-        <v>1.577444632784061</v>
+        <v>0.69105332745702952</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
-        <v>-1732.65</v>
+        <v>26.76</v>
       </c>
       <c r="C8" s="26">
-        <v>-2875</v>
+        <v>8</v>
       </c>
       <c r="D8" s="26">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="E8" s="26">
-        <v>419</v>
+        <v>240</v>
       </c>
       <c r="F8" s="26">
-        <v>-335</v>
+        <v>19</v>
       </c>
       <c r="G8" s="27">
-        <v>0.16600000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="H8" s="26">
-        <v>364</v>
+        <v>1217</v>
       </c>
       <c r="I8" s="26">
-        <v>2830</v>
+        <v>942</v>
       </c>
       <c r="J8" s="26">
-        <v>-2465</v>
+        <v>274</v>
       </c>
       <c r="K8" s="28">
-        <v>1.29</v>
+        <v>0.84</v>
       </c>
       <c r="L8" s="29">
-        <v>43397</v>
+        <v>43431</v>
       </c>
       <c r="N8" s="54">
         <f t="shared" si="0"/>
-        <v>1.5586561409950432</v>
+        <v>0.83531224322103526</v>
       </c>
       <c r="P8" s="59">
         <f t="shared" si="1"/>
-        <v>0.20047732696897375</v>
+        <v>1.0791666666666666</v>
       </c>
       <c r="Q8" s="59">
         <f t="shared" si="2"/>
-        <v>0.12862190812720847</v>
+        <v>1.2919320594479831</v>
       </c>
       <c r="R8" s="60">
         <f t="shared" si="3"/>
-        <v>1.5586561409950432</v>
+        <v>0.83531224322103526</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
-        <v>-379.3</v>
+        <v>810.52</v>
       </c>
       <c r="C9" s="26">
-        <v>-558</v>
+        <v>678</v>
       </c>
       <c r="D9" s="26">
-        <v>159</v>
+        <v>429</v>
       </c>
       <c r="E9" s="26">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="F9" s="26">
-        <v>-184</v>
+        <v>360</v>
       </c>
       <c r="G9" s="27">
-        <v>0.314</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="H9" s="26">
-        <v>1070</v>
+        <v>1993</v>
       </c>
       <c r="I9" s="26">
-        <v>1747</v>
+        <v>248</v>
       </c>
       <c r="J9" s="26">
-        <v>-676</v>
+        <v>1744</v>
       </c>
       <c r="K9" s="28">
-        <v>1.1399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="L9" s="29">
-        <v>43396</v>
+        <v>43430</v>
       </c>
       <c r="N9" s="54">
         <f t="shared" si="0"/>
-        <v>0.75685403667475004</v>
+        <v>0.77366434695346753</v>
       </c>
       <c r="P9" s="59">
         <f t="shared" si="1"/>
-        <v>0.46355685131195334</v>
+        <v>6.2173913043478262</v>
       </c>
       <c r="Q9" s="59">
         <f t="shared" si="2"/>
-        <v>0.6124785346307956</v>
+        <v>8.0362903225806459</v>
       </c>
       <c r="R9" s="60">
         <f t="shared" si="3"/>
-        <v>0.75685403667475004</v>
+        <v>0.77366434695346753</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
-        <v>-150.93</v>
+        <v>-148.4</v>
       </c>
       <c r="C10" s="26">
-        <v>-186</v>
+        <v>-25</v>
       </c>
       <c r="D10" s="26">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E10" s="26">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="F10" s="26">
-        <v>-181</v>
+        <v>-98</v>
       </c>
       <c r="G10" s="27">
-        <v>0.316</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="H10" s="26">
-        <v>746</v>
+        <v>352</v>
       </c>
       <c r="I10" s="26">
-        <v>1483</v>
+        <v>630</v>
       </c>
       <c r="J10" s="26">
-        <v>-737</v>
+        <v>-277</v>
       </c>
       <c r="K10" s="28">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
       <c r="L10" s="29">
-        <v>43395</v>
+        <v>43427</v>
       </c>
       <c r="N10" s="54">
         <f t="shared" si="0"/>
-        <v>0.93275573341300233</v>
+        <v>1.201189749847468</v>
       </c>
       <c r="P10" s="59">
         <f t="shared" si="1"/>
-        <v>0.46920821114369504</v>
+        <v>0.67114093959731547</v>
       </c>
       <c r="Q10" s="59">
         <f t="shared" si="2"/>
-        <v>0.50303438975050574</v>
+        <v>0.55873015873015874</v>
       </c>
       <c r="R10" s="60">
         <f t="shared" si="3"/>
-        <v>0.93275573341300233</v>
+        <v>1.201189749847468</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
-        <v>-264.27999999999997</v>
+        <v>354.59</v>
       </c>
       <c r="C11" s="26">
-        <v>-316</v>
+        <v>268</v>
       </c>
       <c r="D11" s="26">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="E11" s="26">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="F11" s="26">
-        <v>-47</v>
+        <v>166</v>
       </c>
       <c r="G11" s="27">
-        <v>0.45100000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H11" s="26">
-        <v>1200</v>
+        <v>1285</v>
       </c>
       <c r="I11" s="26">
-        <v>1288</v>
+        <v>753</v>
       </c>
       <c r="J11" s="26">
-        <v>-87</v>
+        <v>532</v>
       </c>
       <c r="K11" s="28">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="L11" s="29">
-        <v>43392</v>
+        <v>43425</v>
       </c>
       <c r="N11" s="54">
         <f t="shared" si="0"/>
-        <v>0.88989090909090907</v>
+        <v>1.1719844357976654</v>
       </c>
       <c r="P11" s="59">
         <f t="shared" si="1"/>
-        <v>0.8290909090909091</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="59">
         <f t="shared" si="2"/>
-        <v>0.93167701863354035</v>
+        <v>1.7065073041168659</v>
       </c>
       <c r="R11" s="60">
         <f t="shared" si="3"/>
-        <v>0.88989090909090907</v>
+        <v>1.1719844357976654</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
-        <v>-829.47</v>
+        <v>-819.73</v>
       </c>
       <c r="C12" s="26">
-        <v>-822</v>
+        <v>-1219</v>
       </c>
       <c r="D12" s="26">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E12" s="26">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F12" s="26">
-        <v>-306</v>
+        <v>-356</v>
       </c>
       <c r="G12" s="27">
-        <v>0.192</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H12" s="26">
-        <v>402</v>
+        <v>522</v>
       </c>
       <c r="I12" s="26">
-        <v>1948</v>
+        <v>2371</v>
       </c>
       <c r="J12" s="26">
-        <v>-1546</v>
+        <v>-1848</v>
       </c>
       <c r="K12" s="28">
-        <v>0.95</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L12" s="29">
-        <v>43391</v>
+        <v>43424</v>
       </c>
       <c r="N12" s="54">
         <f t="shared" si="0"/>
-        <v>1.166351863511228</v>
+        <v>0.75525137509309359</v>
       </c>
       <c r="P12" s="59">
         <f t="shared" si="1"/>
-        <v>0.24069478908188585</v>
+        <v>0.16627634660421545</v>
       </c>
       <c r="Q12" s="59">
         <f t="shared" si="2"/>
-        <v>0.20636550308008214</v>
+        <v>0.22016026992830029</v>
       </c>
       <c r="R12" s="60">
         <f t="shared" si="3"/>
-        <v>1.166351863511228</v>
+        <v>0.75525137509309359</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30">
-        <v>-141.83000000000001</v>
+        <v>-1089.0899999999999</v>
       </c>
       <c r="C13" s="31">
-        <v>-200</v>
+        <v>-1261</v>
       </c>
       <c r="D13" s="31">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="E13" s="31">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="F13" s="31">
-        <v>-72</v>
+        <v>-210</v>
       </c>
       <c r="G13" s="32">
-        <v>0.41899999999999998</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H13" s="31">
-        <v>1033</v>
+        <v>704</v>
       </c>
       <c r="I13" s="31">
-        <v>1103</v>
+        <v>1786</v>
       </c>
       <c r="J13" s="31">
-        <v>-70</v>
+        <v>-1082</v>
       </c>
       <c r="K13" s="33">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="L13" s="29">
-        <v>43390</v>
+        <v>43423</v>
       </c>
       <c r="N13" s="54">
         <f t="shared" si="0"/>
-        <v>0.79706311440764621</v>
+        <v>1.0277089235127479</v>
       </c>
       <c r="P13" s="59">
         <f t="shared" si="1"/>
-        <v>0.74647887323943662</v>
+        <v>0.40509915014164305</v>
       </c>
       <c r="Q13" s="59">
         <f t="shared" si="2"/>
-        <v>0.93653671804170446</v>
+        <v>0.39417693169092943</v>
       </c>
       <c r="R13" s="60">
         <f t="shared" si="3"/>
-        <v>0.79706311440764621</v>
+        <v>1.0277089235127479</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
-        <v>-2972.13</v>
+        <v>1268.4000000000001</v>
       </c>
       <c r="C14" s="18">
-        <v>-5000</v>
+        <v>923</v>
       </c>
       <c r="D14" s="18">
-        <v>2141</v>
+        <v>2810</v>
       </c>
       <c r="E14" s="18">
-        <v>2872</v>
+        <v>2167</v>
       </c>
       <c r="F14" s="18">
-        <v>-731</v>
+        <v>643</v>
       </c>
       <c r="G14" s="19">
-        <v>0.42699999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="H14" s="18">
-        <v>11642</v>
+        <v>13418</v>
       </c>
       <c r="I14" s="18">
-        <v>16226</v>
+        <v>9772</v>
       </c>
       <c r="J14" s="18">
-        <v>-4584</v>
+        <v>3646</v>
       </c>
       <c r="K14" s="20">
-        <v>1.1299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="N14" s="54">
         <f t="shared" si="0"/>
-        <v>1.039001341794358</v>
+        <v>0.94437195061933554</v>
       </c>
       <c r="P14" s="59">
         <f t="shared" si="1"/>
-        <v>0.74547353760445678</v>
+        <v>1.2967235809875404</v>
       </c>
       <c r="Q14" s="59">
         <f t="shared" si="2"/>
-        <v>0.71749044743005053</v>
+        <v>1.3731068358575522</v>
       </c>
       <c r="R14" s="60">
         <f t="shared" si="3"/>
-        <v>1.039001341794358</v>
+        <v>0.94437195061933554</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -3064,560 +3065,560 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
-        <v>295.83999999999997</v>
+        <v>312.41000000000003</v>
       </c>
       <c r="C19" s="26">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="D19" s="26">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E19" s="26">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" s="26">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G19" s="27">
-        <v>0.84499999999999997</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H19" s="26">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="I19" s="26">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="J19" s="26">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K19" s="28">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="L19" s="29">
-        <v>43403</v>
+        <v>43437</v>
       </c>
       <c r="N19" s="54">
         <f t="shared" ref="N19:N82" si="4">(D19/E19)/(H19/I19)</f>
-        <v>1.4134174311926606</v>
+        <v>0.68923498449780096</v>
       </c>
       <c r="P19" s="59">
         <f>D19/E19</f>
-        <v>5.4375</v>
+        <v>3.4347826086956523</v>
       </c>
       <c r="Q19" s="59">
         <f>H19/I19</f>
-        <v>3.8470588235294119</v>
+        <v>4.9834710743801649</v>
       </c>
       <c r="R19" s="60">
         <f>P19/Q19</f>
-        <v>1.4134174311926606</v>
+        <v>0.68923498449780096</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
-        <v>-283.97000000000003</v>
+        <v>155.58000000000001</v>
       </c>
       <c r="C20" s="26">
-        <v>-535</v>
+        <v>247</v>
       </c>
       <c r="D20" s="26">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E20" s="26">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F20" s="26">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="G20" s="27">
-        <v>0.40799999999999997</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="H20" s="26">
-        <v>201</v>
+        <v>528</v>
       </c>
       <c r="I20" s="26">
-        <v>572</v>
+        <v>283</v>
       </c>
       <c r="J20" s="26">
-        <v>-370</v>
+        <v>245</v>
       </c>
       <c r="K20" s="28">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="L20" s="29">
-        <v>43402</v>
+        <v>43434</v>
       </c>
       <c r="N20" s="54">
         <f t="shared" si="4"/>
-        <v>1.9920398009950246</v>
+        <v>0.99540043290043301</v>
       </c>
       <c r="P20" s="59">
         <f t="shared" ref="P20:P29" si="5">D20/E20</f>
-        <v>0.7</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="Q20" s="59">
         <f t="shared" ref="Q20:Q29" si="6">H20/I20</f>
-        <v>0.35139860139860141</v>
+        <v>1.8657243816254416</v>
       </c>
       <c r="R20" s="60">
         <f t="shared" ref="R20:R29" si="7">P20/Q20</f>
-        <v>1.9920398009950246</v>
+        <v>0.99540043290043301</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
-        <v>-379.27</v>
+        <v>-51.96</v>
       </c>
       <c r="C21" s="26">
-        <v>-892</v>
+        <v>-23</v>
       </c>
       <c r="D21" s="26">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E21" s="26">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F21" s="26">
-        <v>-55</v>
+        <v>-23</v>
       </c>
       <c r="G21" s="27">
-        <v>0.23300000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="H21" s="26">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="I21" s="26">
-        <v>697</v>
+        <v>303</v>
       </c>
       <c r="J21" s="26">
-        <v>-485</v>
+        <v>-38</v>
       </c>
       <c r="K21" s="28">
-        <v>1.39</v>
+        <v>0.85</v>
       </c>
       <c r="L21" s="29">
-        <v>43399</v>
+        <v>43433</v>
       </c>
       <c r="N21" s="54">
         <f t="shared" si="4"/>
-        <v>1.0035395044693742</v>
+        <v>0.72195747800586507</v>
       </c>
       <c r="P21" s="59">
         <f t="shared" si="5"/>
-        <v>0.30379746835443039</v>
+        <v>0.62903225806451613</v>
       </c>
       <c r="Q21" s="59">
         <f t="shared" si="6"/>
-        <v>0.30272596843615496</v>
+        <v>0.87128712871287128</v>
       </c>
       <c r="R21" s="60">
         <f t="shared" si="7"/>
-        <v>1.0035395044693742</v>
+        <v>0.72195747800586507</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
-        <v>466.68</v>
+        <v>535.21</v>
       </c>
       <c r="C22" s="26">
-        <v>415</v>
+        <v>601</v>
       </c>
       <c r="D22" s="26">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" s="26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" s="26">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G22" s="27">
-        <v>0.93200000000000005</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H22" s="26">
-        <v>713</v>
+        <v>629</v>
       </c>
       <c r="I22" s="26">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J22" s="26">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="K22" s="28">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="L22" s="29">
-        <v>43398</v>
+        <v>43432</v>
       </c>
       <c r="N22" s="54">
         <f t="shared" si="4"/>
-        <v>1.2310158284912842</v>
+        <v>0.70641229464758881</v>
       </c>
       <c r="P22" s="59">
         <f t="shared" si="5"/>
-        <v>13.714285714285714</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="Q22" s="59">
         <f t="shared" si="6"/>
-        <v>11.140625</v>
+        <v>14.627906976744185</v>
       </c>
       <c r="R22" s="60">
         <f t="shared" si="7"/>
-        <v>1.2310158284912842</v>
+        <v>0.70641229464758881</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
-        <v>-867.83</v>
+        <v>47.08</v>
       </c>
       <c r="C23" s="26">
-        <v>-1445</v>
+        <v>37</v>
       </c>
       <c r="D23" s="26">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E23" s="26">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F23" s="26">
-        <v>-99</v>
+        <v>19</v>
       </c>
       <c r="G23" s="27">
-        <v>1.9E-2</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H23" s="26">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c r="I23" s="26">
-        <v>852</v>
+        <v>204</v>
       </c>
       <c r="J23" s="26">
-        <v>-836</v>
+        <v>148</v>
       </c>
       <c r="K23" s="28">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="L23" s="29">
-        <v>43397</v>
+        <v>43431</v>
       </c>
       <c r="N23" s="54">
         <f t="shared" si="4"/>
-        <v>1.1247524752475246</v>
+        <v>0.84571270641884888</v>
       </c>
       <c r="P23" s="59">
         <f t="shared" si="5"/>
-        <v>1.9801980198019802E-2</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="Q23" s="59">
         <f t="shared" si="6"/>
-        <v>1.7605633802816902E-2</v>
+        <v>1.7303921568627452</v>
       </c>
       <c r="R23" s="60">
         <f t="shared" si="7"/>
-        <v>1.1247524752475246</v>
+        <v>0.84571270641884888</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
-        <v>-61.54</v>
+        <v>396.65</v>
       </c>
       <c r="C24" s="26">
-        <v>-37</v>
+        <v>325</v>
       </c>
       <c r="D24" s="26">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E24" s="26">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F24" s="26">
-        <v>-43</v>
+        <v>86</v>
       </c>
       <c r="G24" s="27">
-        <v>0.29099999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H24" s="26">
-        <v>208</v>
+        <v>537</v>
       </c>
       <c r="I24" s="26">
-        <v>489</v>
+        <v>39</v>
       </c>
       <c r="J24" s="26">
-        <v>-280</v>
+        <v>498</v>
       </c>
       <c r="K24" s="28">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="L24" s="29">
-        <v>43396</v>
+        <v>43430</v>
       </c>
       <c r="N24" s="54">
         <f t="shared" si="4"/>
-        <v>0.9661485774499472</v>
+        <v>0.85335195530726249</v>
       </c>
       <c r="P24" s="59">
         <f t="shared" si="5"/>
-        <v>0.41095890410958902</v>
+        <v>11.75</v>
       </c>
       <c r="Q24" s="59">
         <f t="shared" si="6"/>
-        <v>0.42535787321063395</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="R24" s="60">
         <f t="shared" si="7"/>
-        <v>0.9661485774499472</v>
+        <v>0.85335195530726249</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
-        <v>98.76</v>
+        <v>-72.209999999999994</v>
       </c>
       <c r="C25" s="26">
-        <v>44</v>
+        <v>-15</v>
       </c>
       <c r="D25" s="26">
+        <v>46</v>
+      </c>
+      <c r="E25" s="26">
         <v>56</v>
       </c>
-      <c r="E25" s="26">
-        <v>45</v>
-      </c>
       <c r="F25" s="26">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="G25" s="27">
-        <v>0.54400000000000004</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="H25" s="26">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="I25" s="26">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="J25" s="26">
-        <v>84</v>
+        <v>-78</v>
       </c>
       <c r="K25" s="28">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="L25" s="29">
-        <v>43395</v>
+        <v>43427</v>
       </c>
       <c r="N25" s="54">
         <f t="shared" si="4"/>
-        <v>0.9097046413502109</v>
+        <v>1.481958762886598</v>
       </c>
       <c r="P25" s="59">
         <f t="shared" si="5"/>
-        <v>1.2444444444444445</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="Q25" s="59">
         <f t="shared" si="6"/>
-        <v>1.3679653679653681</v>
+        <v>0.55428571428571427</v>
       </c>
       <c r="R25" s="60">
         <f t="shared" si="7"/>
-        <v>0.9097046413502109</v>
+        <v>1.481958762886598</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
-        <v>-117.15</v>
+        <v>168.01</v>
       </c>
       <c r="C26" s="26">
-        <v>-127</v>
+        <v>131</v>
       </c>
       <c r="D26" s="26">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E26" s="26">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F26" s="26">
-        <v>-23</v>
+        <v>59</v>
       </c>
       <c r="G26" s="27">
-        <v>0.38800000000000001</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="H26" s="26">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="I26" s="26">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="J26" s="26">
-        <v>-105</v>
+        <v>219</v>
       </c>
       <c r="K26" s="28">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="L26" s="29">
-        <v>43392</v>
+        <v>43425</v>
       </c>
       <c r="N26" s="54">
         <f t="shared" si="4"/>
-        <v>0.88235294117647056</v>
+        <v>1.6326530612244896</v>
       </c>
       <c r="P26" s="59">
         <f t="shared" si="5"/>
-        <v>0.63492063492063489</v>
+        <v>3.8095238095238093</v>
       </c>
       <c r="Q26" s="59">
         <f t="shared" si="6"/>
-        <v>0.71957671957671954</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="R26" s="60">
         <f t="shared" si="7"/>
-        <v>0.88235294117647056</v>
+        <v>1.6326530612244896</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
-        <v>-437.87</v>
+        <v>-222.25</v>
       </c>
       <c r="C27" s="26">
-        <v>-386</v>
+        <v>-432</v>
       </c>
       <c r="D27" s="26">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E27" s="26">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F27" s="26">
-        <v>-95</v>
+        <v>-55</v>
       </c>
       <c r="G27" s="27">
-        <v>3.9E-2</v>
+        <v>0.223</v>
       </c>
       <c r="H27" s="26">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="I27" s="26">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="J27" s="26">
-        <v>-597</v>
+        <v>-427</v>
       </c>
       <c r="K27" s="28">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="L27" s="29">
-        <v>43391</v>
+        <v>43424</v>
       </c>
       <c r="N27" s="54">
         <f t="shared" si="4"/>
-        <v>2.4565656565656568</v>
+        <v>0.86719114219114224</v>
       </c>
       <c r="P27" s="59">
         <f t="shared" si="5"/>
-        <v>4.0404040404040407E-2</v>
+        <v>0.29487179487179488</v>
       </c>
       <c r="Q27" s="59">
         <f t="shared" si="6"/>
-        <v>1.6447368421052631E-2</v>
+        <v>0.34003091190108192</v>
       </c>
       <c r="R27" s="60">
         <f t="shared" si="7"/>
-        <v>2.4565656565656568</v>
+        <v>0.86719114219114224</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="30">
-        <v>19.579999999999998</v>
+        <v>-581.62</v>
       </c>
       <c r="C28" s="31">
-        <v>33</v>
+        <v>-821</v>
       </c>
       <c r="D28" s="31">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E28" s="31">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F28" s="31">
-        <v>-6</v>
+        <v>-80</v>
       </c>
       <c r="G28" s="32">
-        <v>0.45600000000000002</v>
+        <v>0.107</v>
       </c>
       <c r="H28" s="31">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="I28" s="31">
-        <v>305</v>
+        <v>680</v>
       </c>
       <c r="J28" s="31">
-        <v>-80</v>
+        <v>-601</v>
       </c>
       <c r="K28" s="33">
-        <v>0.82</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L28" s="29">
-        <v>43390</v>
+        <v>43423</v>
       </c>
       <c r="N28" s="54">
         <f t="shared" si="4"/>
-        <v>1.207462938005391</v>
+        <v>1.0538179768949001</v>
       </c>
       <c r="P28" s="59">
         <f t="shared" si="5"/>
-        <v>0.8867924528301887</v>
+        <v>0.12087912087912088</v>
       </c>
       <c r="Q28" s="59">
         <f t="shared" si="6"/>
-        <v>0.73442622950819669</v>
+        <v>0.11470588235294117</v>
       </c>
       <c r="R28" s="60">
         <f t="shared" si="7"/>
-        <v>1.207462938005391</v>
+        <v>1.0538179768949001</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
-        <v>-1266.77</v>
+        <v>686.9</v>
       </c>
       <c r="C29" s="18">
-        <v>-2504</v>
+        <v>443</v>
       </c>
       <c r="D29" s="18">
-        <v>428</v>
+        <v>590</v>
       </c>
       <c r="E29" s="18">
-        <v>596</v>
+        <v>424</v>
       </c>
       <c r="F29" s="18">
-        <v>-168</v>
+        <v>166</v>
       </c>
       <c r="G29" s="19">
-        <v>0.41799999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="H29" s="18">
-        <v>2830</v>
+        <v>3699</v>
       </c>
       <c r="I29" s="18">
-        <v>4371</v>
+        <v>2666</v>
       </c>
       <c r="J29" s="18">
-        <v>-1541</v>
+        <v>1033</v>
       </c>
       <c r="K29" s="20">
-        <v>1.1100000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="N29" s="54">
         <f t="shared" si="4"/>
-        <v>1.1091540778333766</v>
+        <v>1.002910016475641</v>
       </c>
       <c r="P29" s="59">
         <f t="shared" si="5"/>
-        <v>0.71812080536912748</v>
+        <v>1.3915094339622642</v>
       </c>
       <c r="Q29" s="59">
         <f t="shared" si="6"/>
-        <v>0.64744909631663239</v>
+        <v>1.3874718679669917</v>
       </c>
       <c r="R29" s="60">
         <f t="shared" si="7"/>
-        <v>1.1091540778333766</v>
+        <v>1.002910016475641</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -3700,560 +3701,560 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
-        <v>487.91</v>
+        <v>141.08000000000001</v>
       </c>
       <c r="C34" s="26">
-        <v>729</v>
+        <v>196</v>
       </c>
       <c r="D34" s="26">
-        <v>509</v>
+        <v>362</v>
       </c>
       <c r="E34" s="26">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="F34" s="26">
-        <v>424</v>
+        <v>135</v>
       </c>
       <c r="G34" s="27">
-        <v>0.84399999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="H34" s="26">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="I34" s="26">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="J34" s="26">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="K34" s="28">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="L34" s="29">
-        <v>43403</v>
+        <v>43437</v>
       </c>
       <c r="N34" s="54">
         <f t="shared" ref="N34" si="8">(D34/E34)/(H34/I34)</f>
-        <v>1.306215630728212</v>
+        <v>0.63186767517247111</v>
       </c>
       <c r="P34" s="59">
         <f>D34/E34</f>
-        <v>5.9882352941176471</v>
+        <v>1.5947136563876652</v>
       </c>
       <c r="Q34" s="59">
         <f>H34/I34</f>
-        <v>4.5844155844155843</v>
+        <v>2.5238095238095237</v>
       </c>
       <c r="R34" s="60">
         <f>P34/Q34</f>
-        <v>1.306215630728212</v>
+        <v>0.63186767517247111</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="25">
-        <v>-59.65</v>
+        <v>149.32</v>
       </c>
       <c r="C35" s="26">
-        <v>-89</v>
+        <v>106</v>
       </c>
       <c r="D35" s="26">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="E35" s="26">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="F35" s="26">
-        <v>-33</v>
+        <v>202</v>
       </c>
       <c r="G35" s="27">
-        <v>0.46600000000000003</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="H35" s="26">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="I35" s="26">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="J35" s="26">
-        <v>-80</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="28">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="L35" s="29">
-        <v>43402</v>
+        <v>43434</v>
       </c>
       <c r="N35" s="54">
         <f t="shared" si="4"/>
-        <v>1.3040036396724295</v>
+        <v>2.0408678622964338</v>
       </c>
       <c r="P35" s="59">
         <f t="shared" ref="P35:P44" si="9">D35/E35</f>
-        <v>0.89490445859872614</v>
+        <v>2.0306122448979593</v>
       </c>
       <c r="Q35" s="59">
         <f t="shared" ref="Q35:Q44" si="10">H35/I35</f>
-        <v>0.68627450980392157</v>
+        <v>0.99497487437185927</v>
       </c>
       <c r="R35" s="60">
         <f t="shared" ref="R35:R44" si="11">P35/Q35</f>
-        <v>1.3040036396724295</v>
+        <v>2.0408678622964338</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
-        <v>-183.76</v>
+        <v>-110.32</v>
       </c>
       <c r="C36" s="26">
-        <v>-214</v>
+        <v>-69</v>
       </c>
       <c r="D36" s="26">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E36" s="26">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F36" s="26">
-        <v>-267</v>
+        <v>-207</v>
       </c>
       <c r="G36" s="27">
-        <v>0.26700000000000002</v>
+        <v>0.317</v>
       </c>
       <c r="H36" s="26">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="I36" s="26">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="J36" s="26">
-        <v>-232</v>
+        <v>-56</v>
       </c>
       <c r="K36" s="28">
-        <v>1.1299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="L36" s="29">
-        <v>43399</v>
+        <v>43433</v>
       </c>
       <c r="N36" s="54">
         <f t="shared" si="4"/>
-        <v>1.4450364713927513</v>
+        <v>0.6532825417409629</v>
       </c>
       <c r="P36" s="59">
         <f t="shared" si="9"/>
-        <v>0.37616822429906543</v>
+        <v>0.47989949748743721</v>
       </c>
       <c r="Q36" s="59">
         <f t="shared" si="10"/>
-        <v>0.26031746031746034</v>
+        <v>0.7345971563981043</v>
       </c>
       <c r="R36" s="60">
         <f t="shared" si="11"/>
-        <v>1.4450364713927513</v>
+        <v>0.6532825417409629</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
-        <v>470.14</v>
+        <v>558.74</v>
       </c>
       <c r="C37" s="26">
-        <v>661</v>
+        <v>585</v>
       </c>
       <c r="D37" s="26">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="E37" s="26">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F37" s="26">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="G37" s="27">
-        <v>0.85699999999999998</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="H37" s="26">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I37" s="26">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J37" s="26">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="K37" s="28">
-        <v>1.1200000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="L37" s="29">
-        <v>43398</v>
+        <v>43432</v>
       </c>
       <c r="N37" s="54">
         <f t="shared" si="4"/>
-        <v>1.3677248677248677</v>
+        <v>3.303775743707094</v>
       </c>
       <c r="P37" s="59">
         <f t="shared" si="9"/>
-        <v>6.7142857142857144</v>
+        <v>11.956521739130435</v>
       </c>
       <c r="Q37" s="59">
         <f t="shared" si="10"/>
-        <v>4.9090909090909092</v>
+        <v>3.6190476190476191</v>
       </c>
       <c r="R37" s="60">
         <f t="shared" si="11"/>
-        <v>1.3677248677248677</v>
+        <v>3.303775743707094</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
-        <v>-742.69</v>
+        <v>-200.41</v>
       </c>
       <c r="C38" s="26">
-        <v>-960</v>
+        <v>-144</v>
       </c>
       <c r="D38" s="26">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E38" s="26">
-        <v>537</v>
+        <v>418</v>
       </c>
       <c r="F38" s="26">
-        <v>-477</v>
+        <v>-243</v>
       </c>
       <c r="G38" s="27">
-        <v>0.1</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H38" s="26">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="I38" s="26">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="J38" s="26">
-        <v>-306</v>
+        <v>-57</v>
       </c>
       <c r="K38" s="28">
-        <v>1.1100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="L38" s="29">
-        <v>43397</v>
+        <v>43431</v>
       </c>
       <c r="N38" s="54">
         <f t="shared" si="4"/>
-        <v>0.87150837988826813</v>
+        <v>0.59944541104828197</v>
       </c>
       <c r="P38" s="59">
         <f t="shared" si="9"/>
-        <v>0.11173184357541899</v>
+        <v>0.41866028708133973</v>
       </c>
       <c r="Q38" s="59">
         <f t="shared" si="10"/>
-        <v>0.12820512820512819</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="R38" s="60">
         <f t="shared" si="11"/>
-        <v>0.87150837988826813</v>
+        <v>0.59944541104828197</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
-        <v>-163.88</v>
+        <v>185.2</v>
       </c>
       <c r="C39" s="26">
-        <v>-217</v>
+        <v>133</v>
       </c>
       <c r="D39" s="26">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="E39" s="26">
-        <v>396</v>
+        <v>183</v>
       </c>
       <c r="F39" s="26">
-        <v>-201</v>
+        <v>227</v>
       </c>
       <c r="G39" s="27">
-        <v>0.32300000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H39" s="26">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="I39" s="26">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="J39" s="26">
-        <v>-142</v>
+        <v>106</v>
       </c>
       <c r="K39" s="28">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="L39" s="29">
-        <v>43396</v>
+        <v>43430</v>
       </c>
       <c r="N39" s="54">
         <f t="shared" si="4"/>
-        <v>1.1444304152637486</v>
+        <v>1.1041388867100688</v>
       </c>
       <c r="P39" s="59">
         <f t="shared" si="9"/>
-        <v>0.49242424242424243</v>
+        <v>2.2404371584699452</v>
       </c>
       <c r="Q39" s="59">
         <f t="shared" si="10"/>
-        <v>0.4302788844621514</v>
+        <v>2.029126213592233</v>
       </c>
       <c r="R39" s="60">
         <f t="shared" si="11"/>
-        <v>1.1444304152637486</v>
+        <v>1.1041388867100688</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="25">
-        <v>34.07</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="C40" s="26">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="D40" s="26">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="E40" s="26">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F40" s="26">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G40" s="27">
-        <v>0.496</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="H40" s="26">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="I40" s="26">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="J40" s="26">
-        <v>-43</v>
+        <v>-25</v>
       </c>
       <c r="K40" s="28">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="L40" s="29">
-        <v>43395</v>
+        <v>43427</v>
       </c>
       <c r="N40" s="54">
         <f t="shared" si="4"/>
-        <v>1.3866957226273293</v>
+        <v>1.7429193899782134</v>
       </c>
       <c r="P40" s="59">
         <f t="shared" si="9"/>
-        <v>1.0274914089347078</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="Q40" s="59">
         <f t="shared" si="10"/>
-        <v>0.74096385542168675</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="R40" s="60">
         <f t="shared" si="11"/>
-        <v>1.3866957226273293</v>
+        <v>1.7429193899782134</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="25">
-        <v>-230.67</v>
+        <v>197.56</v>
       </c>
       <c r="C41" s="26">
-        <v>-189</v>
+        <v>81</v>
       </c>
       <c r="D41" s="26">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="E41" s="26">
-        <v>422</v>
+        <v>130</v>
       </c>
       <c r="F41" s="26">
-        <v>-253</v>
+        <v>325</v>
       </c>
       <c r="G41" s="27">
-        <v>0.28000000000000003</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H41" s="26">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="I41" s="26">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="J41" s="26">
-        <v>-122</v>
+        <v>153</v>
       </c>
       <c r="K41" s="28">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="L41" s="29">
-        <v>43392</v>
+        <v>43425</v>
       </c>
       <c r="N41" s="54">
         <f t="shared" si="4"/>
-        <v>0.94778830963665095</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="P41" s="59">
         <f t="shared" si="9"/>
-        <v>0.40047393364928913</v>
+        <v>3.5</v>
       </c>
       <c r="Q41" s="59">
         <f t="shared" si="10"/>
-        <v>0.42253521126760563</v>
+        <v>4.5</v>
       </c>
       <c r="R41" s="60">
         <f t="shared" si="11"/>
-        <v>0.94778830963665095</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="25">
-        <v>-448.32</v>
+        <v>-393.83</v>
       </c>
       <c r="C42" s="26">
-        <v>-379</v>
+        <v>-406</v>
       </c>
       <c r="D42" s="26">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E42" s="26">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="F42" s="26">
-        <v>-467</v>
+        <v>-407</v>
       </c>
       <c r="G42" s="27">
-        <v>0.108</v>
+        <v>0.156</v>
       </c>
       <c r="H42" s="26">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I42" s="26">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="J42" s="26">
-        <v>-229</v>
+        <v>-243</v>
       </c>
       <c r="K42" s="28">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="L42" s="29">
-        <v>43391</v>
+        <v>43424</v>
       </c>
       <c r="N42" s="54">
         <f t="shared" si="4"/>
-        <v>0.84273182957393478</v>
+        <v>0.91429838735227953</v>
       </c>
       <c r="P42" s="59">
         <f t="shared" si="9"/>
-        <v>0.12218045112781954</v>
+        <v>0.18762475049900199</v>
       </c>
       <c r="Q42" s="59">
         <f t="shared" si="10"/>
-        <v>0.1449814126394052</v>
+        <v>0.20521172638436483</v>
       </c>
       <c r="R42" s="60">
         <f t="shared" si="11"/>
-        <v>0.84273182957393478</v>
+        <v>0.91429838735227953</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="30">
-        <v>-146.94</v>
+        <v>-370.86</v>
       </c>
       <c r="C43" s="31">
-        <v>-137</v>
+        <v>-314</v>
       </c>
       <c r="D43" s="31">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="E43" s="31">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="F43" s="31">
-        <v>-134</v>
+        <v>-309</v>
       </c>
       <c r="G43" s="32">
-        <v>0.376</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="H43" s="31">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I43" s="31">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="J43" s="31">
-        <v>-79</v>
+        <v>-163</v>
       </c>
       <c r="K43" s="33">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L43" s="29">
-        <v>43390</v>
+        <v>43423</v>
       </c>
       <c r="N43" s="54">
         <f t="shared" si="4"/>
-        <v>1.077958053027305</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="P43" s="59">
         <f t="shared" si="9"/>
-        <v>0.62880886426592797</v>
+        <v>0.31333333333333335</v>
       </c>
       <c r="Q43" s="59">
         <f t="shared" si="10"/>
-        <v>0.58333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R43" s="60">
         <f t="shared" si="11"/>
-        <v>1.077958053027305</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="17">
-        <v>-983.78</v>
+        <v>173.83</v>
       </c>
       <c r="C44" s="18">
-        <v>-807</v>
+        <v>165</v>
       </c>
       <c r="D44" s="18">
-        <v>2483</v>
+        <v>3096</v>
       </c>
       <c r="E44" s="18">
-        <v>3443</v>
+        <v>2821</v>
       </c>
       <c r="F44" s="18">
-        <v>-960</v>
+        <v>275</v>
       </c>
       <c r="G44" s="19">
-        <v>0.41899999999999998</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H44" s="18">
-        <v>1454</v>
+        <v>1664</v>
       </c>
       <c r="I44" s="18">
-        <v>2158</v>
+        <v>1571</v>
       </c>
       <c r="J44" s="18">
-        <v>-704</v>
+        <v>93</v>
       </c>
       <c r="K44" s="20">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="N44" s="54">
         <f t="shared" si="4"/>
-        <v>1.0703522606920086</v>
+        <v>1.0361454612385135</v>
       </c>
       <c r="P44" s="59">
         <f t="shared" si="9"/>
-        <v>0.72117339529480107</v>
+        <v>1.0974831619992911</v>
       </c>
       <c r="Q44" s="59">
         <f t="shared" si="10"/>
-        <v>0.67377201112140872</v>
+        <v>1.0591979630808401</v>
       </c>
       <c r="R44" s="60">
         <f t="shared" si="11"/>
-        <v>1.0703522606920086</v>
+        <v>1.0361454612385135</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -4274,7 +4275,6 @@
       <c r="M45" s="48"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="43"/>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -4337,565 +4337,613 @@
       <c r="N48" s="55"/>
       <c r="O48" s="47"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B49" s="25">
-        <v>1721.9</v>
+        <v>1195.1300000000001</v>
       </c>
       <c r="C49" s="26">
-        <v>2787</v>
+        <v>1920</v>
       </c>
       <c r="D49" s="26">
-        <v>1214</v>
+        <v>1056</v>
       </c>
       <c r="E49" s="26">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="F49" s="26">
-        <v>995</v>
+        <v>719</v>
       </c>
       <c r="G49" s="27">
-        <v>0.83499999999999996</v>
+        <v>0.746</v>
       </c>
       <c r="H49" s="26">
-        <v>4052</v>
+        <v>3389</v>
       </c>
       <c r="I49" s="26">
-        <v>1119</v>
+        <v>935</v>
       </c>
       <c r="J49" s="26">
-        <v>2932</v>
+        <v>2453</v>
       </c>
       <c r="K49" s="28">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="L49" s="29">
-        <v>43403</v>
+        <v>43437</v>
       </c>
       <c r="N49" s="54">
         <f t="shared" ref="N49" si="12">(D49/E49)/(H49/I49)</f>
-        <v>1.5308591055998053</v>
+        <v>0.86451803837340735</v>
       </c>
       <c r="P49" s="59">
         <f>D49/E49</f>
-        <v>5.5433789954337902</v>
+        <v>3.1335311572700295</v>
       </c>
       <c r="Q49" s="59">
         <f>H49/I49</f>
-        <v>3.6210902591599643</v>
+        <v>3.6245989304812833</v>
       </c>
       <c r="R49" s="60">
         <f>P49/Q49</f>
-        <v>1.5308591055998053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.86451803837340735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B50" s="25">
-        <v>-728.79</v>
+        <v>558.41</v>
       </c>
       <c r="C50" s="26">
-        <v>-794</v>
+        <v>914</v>
       </c>
       <c r="D50" s="26">
-        <v>590</v>
+        <v>899</v>
       </c>
       <c r="E50" s="26">
-        <v>843</v>
+        <v>488</v>
       </c>
       <c r="F50" s="26">
-        <v>-253</v>
+        <v>411</v>
       </c>
       <c r="G50" s="27">
-        <v>0.40600000000000003</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="H50" s="26">
-        <v>1916</v>
+        <v>3010</v>
       </c>
       <c r="I50" s="26">
-        <v>2856</v>
+        <v>1722</v>
       </c>
       <c r="J50" s="26">
-        <v>-939</v>
+        <v>1288</v>
       </c>
       <c r="K50" s="28">
         <v>1.18</v>
       </c>
       <c r="L50" s="29">
-        <v>43402</v>
+        <v>43434</v>
       </c>
       <c r="N50" s="54">
         <f t="shared" si="4"/>
-        <v>1.0432469780607583</v>
+        <v>1.0539172703011819</v>
       </c>
       <c r="P50" s="59">
         <f t="shared" ref="P50:P59" si="13">D50/E50</f>
-        <v>0.69988137603795963</v>
+        <v>1.8422131147540983</v>
       </c>
       <c r="Q50" s="59">
         <f t="shared" ref="Q50:Q59" si="14">H50/I50</f>
-        <v>0.67086834733893552</v>
+        <v>1.7479674796747968</v>
       </c>
       <c r="R50" s="60">
         <f t="shared" ref="R50:R59" si="15">P50/Q50</f>
-        <v>1.0432469780607583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.0539172703011819</v>
+      </c>
+      <c r="V50" s="26">
+        <v>901</v>
+      </c>
+      <c r="W50" s="26">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B51" s="25">
-        <v>-1368.32</v>
+        <v>-115.89</v>
       </c>
       <c r="C51" s="26">
-        <v>-2644</v>
+        <v>-17</v>
       </c>
       <c r="D51" s="26">
-        <v>334</v>
+        <v>595</v>
       </c>
       <c r="E51" s="26">
-        <v>1099</v>
+        <v>788</v>
       </c>
       <c r="F51" s="26">
-        <v>-765</v>
+        <v>-193</v>
       </c>
       <c r="G51" s="27">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="H51" s="26">
-        <v>1188</v>
+        <v>1453</v>
       </c>
       <c r="I51" s="26">
-        <v>3853</v>
+        <v>2017</v>
       </c>
       <c r="J51" s="26">
-        <v>-2664</v>
+        <v>-563</v>
       </c>
       <c r="K51" s="28">
-        <v>1.25</v>
+        <v>0.87</v>
       </c>
       <c r="L51" s="29">
-        <v>43399</v>
+        <v>43433</v>
       </c>
       <c r="N51" s="54">
         <f t="shared" si="4"/>
-        <v>0.98566955573324999</v>
+        <v>1.0481683266897475</v>
       </c>
       <c r="P51" s="59">
         <f t="shared" si="13"/>
-        <v>0.30391264786169248</v>
+        <v>0.75507614213197971</v>
       </c>
       <c r="Q51" s="59">
         <f t="shared" si="14"/>
-        <v>0.30833117051648068</v>
+        <v>0.72037679722359937</v>
       </c>
       <c r="R51" s="60">
         <f t="shared" si="15"/>
-        <v>0.98566955573324999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.0481683266897475</v>
+      </c>
+      <c r="V51" s="26">
+        <v>596</v>
+      </c>
+      <c r="W51" s="26">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
-        <v>1483.51</v>
+        <v>2124.41</v>
       </c>
       <c r="C52" s="26">
-        <v>1455</v>
+        <v>2247</v>
       </c>
       <c r="D52" s="26">
-        <v>1183</v>
+        <v>1255</v>
       </c>
       <c r="E52" s="26">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="F52" s="26">
-        <v>935</v>
+        <v>1117</v>
       </c>
       <c r="G52" s="27">
-        <v>0.81399999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="H52" s="26">
-        <v>3660</v>
+        <v>3572</v>
       </c>
       <c r="I52" s="26">
-        <v>1176</v>
+        <v>347</v>
       </c>
       <c r="J52" s="26">
-        <v>2483</v>
+        <v>3225</v>
       </c>
       <c r="K52" s="28">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="L52" s="29">
-        <v>43398</v>
+        <v>43432</v>
       </c>
       <c r="N52" s="54">
         <f t="shared" si="4"/>
-        <v>1.5327075621364359</v>
+        <v>0.8834514013989645</v>
       </c>
       <c r="P52" s="59">
         <f t="shared" si="13"/>
-        <v>4.770161290322581</v>
+        <v>9.0942028985507246</v>
       </c>
       <c r="Q52" s="59">
         <f t="shared" si="14"/>
-        <v>3.1122448979591835</v>
+        <v>10.293948126801153</v>
       </c>
       <c r="R52" s="60">
         <f t="shared" si="15"/>
-        <v>1.5327075621364359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.8834514013989645</v>
+      </c>
+      <c r="V52" s="26">
+        <v>1257</v>
+      </c>
+      <c r="W52" s="26">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B53" s="25">
-        <v>-3183.36</v>
+        <v>-294.42</v>
       </c>
       <c r="C53" s="26">
-        <v>-5131</v>
+        <v>-242</v>
       </c>
       <c r="D53" s="26">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="E53" s="26">
-        <v>1272</v>
+        <v>848</v>
       </c>
       <c r="F53" s="26">
-        <v>-1105</v>
+        <v>-308</v>
       </c>
       <c r="G53" s="27">
-        <v>0.115</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H53" s="26">
-        <v>539</v>
+        <v>1788</v>
       </c>
       <c r="I53" s="26">
-        <v>4561</v>
+        <v>1701</v>
       </c>
       <c r="J53" s="26">
-        <v>-4022</v>
+        <v>87</v>
       </c>
       <c r="K53" s="28">
-        <v>1.26</v>
+        <v>0.87</v>
       </c>
       <c r="L53" s="29">
-        <v>43397</v>
+        <v>43431</v>
       </c>
       <c r="N53" s="54">
         <f t="shared" si="4"/>
-        <v>1.110965741356577</v>
+        <v>0.60580758515892119</v>
       </c>
       <c r="P53" s="59">
         <f t="shared" si="13"/>
-        <v>0.13128930817610063</v>
+        <v>0.6367924528301887</v>
       </c>
       <c r="Q53" s="59">
         <f t="shared" si="14"/>
-        <v>0.11817583863187897</v>
+        <v>1.0511463844797178</v>
       </c>
       <c r="R53" s="60">
         <f t="shared" si="15"/>
-        <v>1.110965741356577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.60580758515892119</v>
+      </c>
+      <c r="V53" s="26">
+        <v>541</v>
+      </c>
+      <c r="W53" s="26">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
-        <v>-673.46</v>
+        <v>1369.82</v>
       </c>
       <c r="C54" s="26">
-        <v>-1059</v>
+        <v>1080</v>
       </c>
       <c r="D54" s="26">
-        <v>453</v>
+        <v>1137</v>
       </c>
       <c r="E54" s="26">
-        <v>979</v>
+        <v>256</v>
       </c>
       <c r="F54" s="26">
-        <v>-526</v>
+        <v>881</v>
       </c>
       <c r="G54" s="27">
-        <v>0.312</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H54" s="26">
-        <v>1581</v>
+        <v>2856</v>
       </c>
       <c r="I54" s="26">
-        <v>3023</v>
+        <v>597</v>
       </c>
       <c r="J54" s="26">
-        <v>-1441</v>
+        <v>2258</v>
       </c>
       <c r="K54" s="28">
-        <v>1.1399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="L54" s="29">
-        <v>43396</v>
+        <v>43430</v>
       </c>
       <c r="N54" s="54">
         <f t="shared" si="4"/>
-        <v>0.88475247755037967</v>
+        <v>0.92840319721638653</v>
       </c>
       <c r="P54" s="59">
         <f t="shared" si="13"/>
-        <v>0.46271705822267623</v>
+        <v>4.44140625</v>
       </c>
       <c r="Q54" s="59">
         <f t="shared" si="14"/>
-        <v>0.52299040688058218</v>
+        <v>4.78391959798995</v>
       </c>
       <c r="R54" s="60">
         <f t="shared" si="15"/>
-        <v>0.88475247755037967</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.92840319721638653</v>
+      </c>
+      <c r="V54" s="26">
+        <v>1140</v>
+      </c>
+      <c r="W54" s="26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
-        <v>-202.6</v>
+        <v>-218.83</v>
       </c>
       <c r="C55" s="26">
-        <v>-303</v>
+        <v>-51</v>
       </c>
       <c r="D55" s="26">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="E55" s="26">
-        <v>892</v>
+        <v>759</v>
       </c>
       <c r="F55" s="26">
-        <v>-352</v>
+        <v>-125</v>
       </c>
       <c r="G55" s="27">
-        <v>0.371</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="H55" s="26">
-        <v>1441</v>
+        <v>630</v>
       </c>
       <c r="I55" s="26">
-        <v>2202</v>
+        <v>1023</v>
       </c>
       <c r="J55" s="26">
-        <v>-760</v>
+        <v>-392</v>
       </c>
       <c r="K55" s="28">
-        <v>0.9</v>
+        <v>0.41</v>
       </c>
       <c r="L55" s="29">
-        <v>43395</v>
+        <v>43427</v>
       </c>
       <c r="N55" s="54">
         <f t="shared" si="4"/>
-        <v>0.92508627852481617</v>
+        <v>1.3563837129054521</v>
       </c>
       <c r="P55" s="59">
         <f t="shared" si="13"/>
-        <v>0.60538116591928248</v>
+        <v>0.8353096179183136</v>
       </c>
       <c r="Q55" s="59">
         <f t="shared" si="14"/>
-        <v>0.65440508628519523</v>
+        <v>0.61583577712609971</v>
       </c>
       <c r="R55" s="60">
         <f t="shared" si="15"/>
-        <v>0.92508627852481617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.3563837129054521</v>
+      </c>
+      <c r="V55" s="26">
+        <v>634</v>
+      </c>
+      <c r="W55" s="26">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
-        <v>-723.25</v>
+        <v>920.61</v>
       </c>
       <c r="C56" s="26">
-        <v>-798</v>
+        <v>683</v>
       </c>
       <c r="D56" s="26">
-        <v>535</v>
+        <v>1123</v>
       </c>
       <c r="E56" s="26">
-        <v>893</v>
+        <v>273</v>
       </c>
       <c r="F56" s="26">
-        <v>-358</v>
+        <v>850</v>
       </c>
       <c r="G56" s="27">
-        <v>0.36799999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="H56" s="26">
-        <v>1758</v>
+        <v>2368</v>
       </c>
       <c r="I56" s="26">
-        <v>2179</v>
+        <v>908</v>
       </c>
       <c r="J56" s="26">
-        <v>-420</v>
+        <v>1460</v>
       </c>
       <c r="K56" s="28">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="L56" s="29">
-        <v>43392</v>
+        <v>43425</v>
       </c>
       <c r="N56" s="54">
         <f t="shared" si="4"/>
-        <v>0.74257561338536238</v>
+        <v>1.5773252648252647</v>
       </c>
       <c r="P56" s="59">
         <f t="shared" si="13"/>
-        <v>0.59910414333706608</v>
+        <v>4.1135531135531131</v>
       </c>
       <c r="Q56" s="59">
         <f t="shared" si="14"/>
-        <v>0.80679210647085819</v>
+        <v>2.607929515418502</v>
       </c>
       <c r="R56" s="60">
         <f t="shared" si="15"/>
-        <v>0.74257561338536238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.5773252648252647</v>
+      </c>
+      <c r="V56" s="18">
+        <f>SUM(V50:V55)</f>
+        <v>5069</v>
+      </c>
+      <c r="W56" s="18">
+        <f>SUM(W50:W55)</f>
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
-        <v>-1586.71</v>
+        <v>-1381.67</v>
       </c>
       <c r="C57" s="26">
-        <v>-1450</v>
+        <v>-1996</v>
       </c>
       <c r="D57" s="26">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="E57" s="26">
-        <v>1218</v>
+        <v>1143</v>
       </c>
       <c r="F57" s="26">
-        <v>-1007</v>
+        <v>-894</v>
       </c>
       <c r="G57" s="27">
-        <v>0.14499999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="H57" s="26">
-        <v>700</v>
+        <v>877</v>
       </c>
       <c r="I57" s="26">
-        <v>3178</v>
+        <v>3623</v>
       </c>
       <c r="J57" s="26">
-        <v>-2478</v>
+        <v>-2745</v>
       </c>
       <c r="K57" s="28">
-        <v>0.96</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L57" s="29">
-        <v>43391</v>
+        <v>43424</v>
       </c>
       <c r="N57" s="54">
         <f t="shared" si="4"/>
-        <v>0.78648604269293931</v>
+        <v>0.89995720318312555</v>
       </c>
       <c r="P57" s="59">
         <f t="shared" si="13"/>
-        <v>0.17323481116584566</v>
+        <v>0.2178477690288714</v>
       </c>
       <c r="Q57" s="59">
         <f t="shared" si="14"/>
-        <v>0.22026431718061673</v>
+        <v>0.24206458735854264</v>
       </c>
       <c r="R57" s="60">
         <f t="shared" si="15"/>
-        <v>0.78648604269293931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.89995720318312555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="30">
-        <v>-313.62</v>
+        <v>-1984.63</v>
       </c>
       <c r="C58" s="31">
-        <v>-234</v>
+        <v>-2284</v>
       </c>
       <c r="D58" s="31">
-        <v>569</v>
+        <v>317</v>
       </c>
       <c r="E58" s="31">
-        <v>855</v>
+        <v>1069</v>
       </c>
       <c r="F58" s="31">
-        <v>-286</v>
+        <v>-752</v>
       </c>
       <c r="G58" s="32">
-        <v>0.39100000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="H58" s="31">
-        <v>1621</v>
+        <v>981</v>
       </c>
       <c r="I58" s="31">
-        <v>1857</v>
+        <v>2873</v>
       </c>
       <c r="J58" s="31">
-        <v>-235</v>
+        <v>-1891</v>
       </c>
       <c r="K58" s="33">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="L58" s="29">
-        <v>43390</v>
+        <v>43423</v>
       </c>
       <c r="N58" s="54">
         <f t="shared" si="4"/>
-        <v>0.76238622466097383</v>
+        <v>0.86845671118892265</v>
       </c>
       <c r="P58" s="59">
         <f t="shared" si="13"/>
-        <v>0.66549707602339181</v>
+        <v>0.29653882132834425</v>
       </c>
       <c r="Q58" s="59">
         <f t="shared" si="14"/>
-        <v>0.87291330102315567</v>
+        <v>0.34145492516533238</v>
       </c>
       <c r="R58" s="60">
         <f t="shared" si="15"/>
-        <v>0.76238622466097383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.86845671118892265</v>
+      </c>
+      <c r="W58" s="2">
+        <f>V56/(V56+W56)</f>
+        <v>0.60713857947059524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B59" s="17">
-        <v>-5574.69</v>
+        <v>2172.9499999999998</v>
       </c>
       <c r="C59" s="18">
-        <v>-8171</v>
+        <v>2254</v>
       </c>
       <c r="D59" s="18">
-        <v>5796</v>
+        <v>7805</v>
       </c>
       <c r="E59" s="18">
-        <v>8518</v>
+        <v>6099</v>
       </c>
       <c r="F59" s="18">
-        <v>-2722</v>
+        <v>1706</v>
       </c>
       <c r="G59" s="19">
-        <v>0.40500000000000003</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="H59" s="18">
-        <v>18460</v>
+        <v>20928</v>
       </c>
       <c r="I59" s="18">
-        <v>26008</v>
+        <v>15749</v>
       </c>
       <c r="J59" s="18">
-        <v>-7548</v>
+        <v>5179</v>
       </c>
       <c r="K59" s="20">
-        <v>1.1000000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="N59" s="54">
         <f t="shared" si="4"/>
-        <v>0.9586630771316722</v>
+        <v>0.96302936593355393</v>
       </c>
       <c r="P59" s="59">
         <f t="shared" si="13"/>
-        <v>0.68044141817328008</v>
+        <v>1.2797179865551729</v>
       </c>
       <c r="Q59" s="59">
         <f t="shared" si="14"/>
-        <v>0.70978160565979698</v>
+        <v>1.3288462759540289</v>
       </c>
       <c r="R59" s="60">
         <f t="shared" si="15"/>
-        <v>0.9586630771316722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.96302936593355393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
         <v>104</v>
       </c>
@@ -4911,7 +4959,7 @@
       <c r="K60" s="46"/>
       <c r="L60" s="42"/>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
@@ -4924,7 +4972,7 @@
       <c r="K61" s="46"/>
       <c r="L61" s="42"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
       <c r="B62" s="17" t="s">
         <v>99</v>
@@ -4937,7 +4985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="21" t="s">
         <v>25</v>
@@ -4972,562 +5020,562 @@
       <c r="L63" s="1"/>
       <c r="N63" s="55"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B64" s="25">
-        <v>1718.2</v>
+        <v>934.97</v>
       </c>
       <c r="C64" s="26">
-        <v>2590</v>
+        <v>1202</v>
       </c>
       <c r="D64" s="26">
-        <v>1489</v>
+        <v>1336</v>
       </c>
       <c r="E64" s="26">
-        <v>322</v>
+        <v>464</v>
       </c>
       <c r="F64" s="26">
-        <v>1167</v>
+        <v>872</v>
       </c>
       <c r="G64" s="27">
-        <v>0.77800000000000002</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="H64" s="26">
-        <v>3572</v>
+        <v>2969</v>
       </c>
       <c r="I64" s="26">
-        <v>1244</v>
+        <v>858</v>
       </c>
       <c r="J64" s="26">
-        <v>2327</v>
+        <v>2111</v>
       </c>
       <c r="K64" s="28">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="L64" s="29">
-        <v>43403</v>
+        <v>43437</v>
       </c>
       <c r="N64" s="54">
         <f t="shared" ref="N64" si="16">(D64/E64)/(H64/I64)</f>
-        <v>1.6104518929145248</v>
+        <v>0.83208092821221591</v>
       </c>
       <c r="P64" s="59">
         <f>D64/E64</f>
-        <v>4.6242236024844718</v>
+        <v>2.8793103448275863</v>
       </c>
       <c r="Q64" s="59">
         <f>H64/I64</f>
-        <v>2.8713826366559485</v>
+        <v>3.4603729603729603</v>
       </c>
       <c r="R64" s="60">
         <f>P64/Q64</f>
-        <v>1.6104518929145248</v>
+        <v>0.83208092821221591</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B65" s="25">
-        <v>-465.14</v>
+        <v>459.22</v>
       </c>
       <c r="C65" s="26">
-        <v>-429</v>
+        <v>638</v>
       </c>
       <c r="D65" s="26">
-        <v>783</v>
+        <v>1042</v>
       </c>
       <c r="E65" s="26">
-        <v>1030</v>
+        <v>746</v>
       </c>
       <c r="F65" s="26">
-        <v>-247</v>
+        <v>296</v>
       </c>
       <c r="G65" s="27">
-        <v>0.40899999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="H65" s="26">
-        <v>1852</v>
+        <v>2401</v>
       </c>
       <c r="I65" s="26">
-        <v>2526</v>
+        <v>1963</v>
       </c>
       <c r="J65" s="26">
-        <v>-674</v>
+        <v>437</v>
       </c>
       <c r="K65" s="28">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="L65" s="29">
-        <v>43402</v>
+        <v>43434</v>
       </c>
       <c r="N65" s="54">
         <f t="shared" si="4"/>
-        <v>1.0368523139508063</v>
+        <v>1.1419761426483379</v>
       </c>
       <c r="P65" s="59">
         <f t="shared" ref="P65:P74" si="17">D65/E65</f>
-        <v>0.76019417475728157</v>
+        <v>1.3967828418230563</v>
       </c>
       <c r="Q65" s="59">
         <f t="shared" ref="Q65:Q74" si="18">H65/I65</f>
-        <v>0.73317498020585903</v>
+        <v>1.2231278655119715</v>
       </c>
       <c r="R65" s="60">
         <f t="shared" ref="R65:R74" si="19">P65/Q65</f>
-        <v>1.0368523139508063</v>
+        <v>1.1419761426483379</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B66" s="25">
-        <v>-982.59</v>
+        <v>-341.6</v>
       </c>
       <c r="C66" s="26">
-        <v>-1715</v>
+        <v>-314</v>
       </c>
       <c r="D66" s="26">
-        <v>469</v>
+        <v>698</v>
       </c>
       <c r="E66" s="26">
-        <v>1329</v>
+        <v>1087</v>
       </c>
       <c r="F66" s="26">
-        <v>-860</v>
+        <v>-389</v>
       </c>
       <c r="G66" s="27">
-        <v>0.245</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="H66" s="26">
-        <v>1132</v>
+        <v>1347</v>
       </c>
       <c r="I66" s="26">
-        <v>3347</v>
+        <v>1921</v>
       </c>
       <c r="J66" s="26">
-        <v>-2215</v>
+        <v>-573</v>
       </c>
       <c r="K66" s="28">
-        <v>1.27</v>
+        <v>0.88</v>
       </c>
       <c r="L66" s="29">
-        <v>43399</v>
+        <v>43433</v>
       </c>
       <c r="N66" s="54">
         <f t="shared" si="4"/>
-        <v>1.0434151717463382</v>
+        <v>0.91576838782424941</v>
       </c>
       <c r="P66" s="59">
         <f t="shared" si="17"/>
-        <v>0.35289691497366443</v>
+        <v>0.64213431462741488</v>
       </c>
       <c r="Q66" s="59">
         <f t="shared" si="18"/>
-        <v>0.33821332536599941</v>
+        <v>0.70119729307652268</v>
       </c>
       <c r="R66" s="60">
         <f t="shared" si="19"/>
-        <v>1.0434151717463382</v>
+        <v>0.91576838782424941</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
-        <v>1233.1099999999999</v>
+        <v>1966.65</v>
       </c>
       <c r="C67" s="26">
-        <v>1305</v>
+        <v>2061</v>
       </c>
       <c r="D67" s="26">
-        <v>1453</v>
+        <v>1581</v>
       </c>
       <c r="E67" s="26">
-        <v>354</v>
+        <v>214</v>
       </c>
       <c r="F67" s="26">
-        <v>1099</v>
+        <v>1367</v>
       </c>
       <c r="G67" s="27">
-        <v>0.76</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="H67" s="26">
-        <v>3142</v>
+        <v>3219</v>
       </c>
       <c r="I67" s="26">
-        <v>1168</v>
+        <v>387</v>
       </c>
       <c r="J67" s="26">
-        <v>1974</v>
+        <v>2832</v>
       </c>
       <c r="K67" s="28">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="L67" s="29">
-        <v>43398</v>
+        <v>43432</v>
       </c>
       <c r="N67" s="54">
         <f t="shared" si="4"/>
-        <v>1.5258049319049005</v>
+        <v>0.88819451097891311</v>
       </c>
       <c r="P67" s="59">
         <f t="shared" si="17"/>
-        <v>4.1045197740112993</v>
+        <v>7.3878504672897201</v>
       </c>
       <c r="Q67" s="59">
         <f t="shared" si="18"/>
-        <v>2.6900684931506849</v>
+        <v>8.3178294573643416</v>
       </c>
       <c r="R67" s="60">
         <f t="shared" si="19"/>
-        <v>1.5258049319049005</v>
+        <v>0.88819451097891311</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B68" s="25">
-        <v>-2548.25</v>
+        <v>-389.6</v>
       </c>
       <c r="C68" s="26">
-        <v>-4044</v>
+        <v>-311</v>
       </c>
       <c r="D68" s="26">
-        <v>278</v>
+        <v>669</v>
       </c>
       <c r="E68" s="26">
-        <v>1535</v>
+        <v>1120</v>
       </c>
       <c r="F68" s="26">
-        <v>-1257</v>
+        <v>-451</v>
       </c>
       <c r="G68" s="27">
-        <v>0.14499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="H68" s="26">
-        <v>556</v>
+        <v>1402</v>
       </c>
       <c r="I68" s="26">
-        <v>3857</v>
+        <v>1792</v>
       </c>
       <c r="J68" s="26">
-        <v>-3300</v>
+        <v>-389</v>
       </c>
       <c r="K68" s="28">
-        <v>1.24</v>
+        <v>0.86</v>
       </c>
       <c r="L68" s="29">
-        <v>43397</v>
+        <v>43431</v>
       </c>
       <c r="N68" s="54">
         <f t="shared" si="4"/>
-        <v>1.2563517915309446</v>
+        <v>0.76348074179743231</v>
       </c>
       <c r="P68" s="59">
         <f t="shared" si="17"/>
-        <v>0.18110749185667752</v>
+        <v>0.59732142857142856</v>
       </c>
       <c r="Q68" s="59">
         <f t="shared" si="18"/>
-        <v>0.14415348716619134</v>
+        <v>0.7823660714285714</v>
       </c>
       <c r="R68" s="60">
         <f t="shared" si="19"/>
-        <v>1.2563517915309446</v>
+        <v>0.76348074179743231</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" s="25">
-        <v>-746.19</v>
+        <v>975.15</v>
       </c>
       <c r="C69" s="26">
-        <v>-1136</v>
+        <v>784</v>
       </c>
       <c r="D69" s="26">
-        <v>546</v>
+        <v>1283</v>
       </c>
       <c r="E69" s="26">
-        <v>1262</v>
+        <v>506</v>
       </c>
       <c r="F69" s="26">
-        <v>-716</v>
+        <v>777</v>
       </c>
       <c r="G69" s="27">
-        <v>0.28499999999999998</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="H69" s="26">
-        <v>1279</v>
+        <v>2388</v>
       </c>
       <c r="I69" s="26">
-        <v>2739</v>
+        <v>829</v>
       </c>
       <c r="J69" s="26">
-        <v>-1459</v>
+        <v>1559</v>
       </c>
       <c r="K69" s="28">
-        <v>1.1299999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="L69" s="29">
-        <v>43396</v>
+        <v>43430</v>
       </c>
       <c r="N69" s="54">
         <f t="shared" si="4"/>
-        <v>0.92651995108103724</v>
+        <v>0.88023036791334797</v>
       </c>
       <c r="P69" s="59">
         <f t="shared" si="17"/>
-        <v>0.43264659270998418</v>
+        <v>2.5355731225296441</v>
       </c>
       <c r="Q69" s="59">
         <f t="shared" si="18"/>
-        <v>0.4669587440671778</v>
+        <v>2.8805790108564535</v>
       </c>
       <c r="R69" s="60">
         <f t="shared" si="19"/>
-        <v>0.92651995108103724</v>
+        <v>0.88023036791334797</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B70" s="25">
-        <v>-299.47000000000003</v>
+        <v>-269.85000000000002</v>
       </c>
       <c r="C70" s="26">
-        <v>-275</v>
+        <v>-72</v>
       </c>
       <c r="D70" s="26">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="E70" s="26">
-        <v>1107</v>
+        <v>1026</v>
       </c>
       <c r="F70" s="26">
-        <v>-419</v>
+        <v>-268</v>
       </c>
       <c r="G70" s="27">
-        <v>0.36</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H70" s="26">
-        <v>954</v>
+        <v>455</v>
       </c>
       <c r="I70" s="26">
-        <v>2099</v>
+        <v>1062</v>
       </c>
       <c r="J70" s="26">
-        <v>-1144</v>
+        <v>-607</v>
       </c>
       <c r="K70" s="28">
-        <v>0.87</v>
+        <v>0.41</v>
       </c>
       <c r="L70" s="29">
-        <v>43395</v>
+        <v>43427</v>
       </c>
       <c r="N70" s="54">
         <f t="shared" si="4"/>
-        <v>1.3674292997297548</v>
+        <v>1.7243878928089456</v>
       </c>
       <c r="P70" s="59">
         <f t="shared" si="17"/>
-        <v>0.6214995483288166</v>
+        <v>0.73879142300194933</v>
       </c>
       <c r="Q70" s="59">
         <f t="shared" si="18"/>
-        <v>0.45450214387803717</v>
+        <v>0.42843691148775892</v>
       </c>
       <c r="R70" s="60">
         <f t="shared" si="19"/>
-        <v>1.3674292997297548</v>
+        <v>1.7243878928089456</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B71" s="25">
-        <v>-394.48</v>
+        <v>873.39</v>
       </c>
       <c r="C71" s="26">
-        <v>-380</v>
+        <v>596</v>
       </c>
       <c r="D71" s="26">
-        <v>768</v>
+        <v>1428</v>
       </c>
       <c r="E71" s="26">
-        <v>1021</v>
+        <v>368</v>
       </c>
       <c r="F71" s="26">
-        <v>-253</v>
+        <v>1060</v>
       </c>
       <c r="G71" s="27">
-        <v>0.40100000000000002</v>
+        <v>0.746</v>
       </c>
       <c r="H71" s="26">
-        <v>1696</v>
+        <v>2297</v>
       </c>
       <c r="I71" s="26">
-        <v>1590</v>
+        <v>663</v>
       </c>
       <c r="J71" s="26">
-        <v>106</v>
+        <v>1633</v>
       </c>
       <c r="K71" s="28">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="L71" s="29">
-        <v>43392</v>
+        <v>43425</v>
       </c>
       <c r="N71" s="54">
         <f t="shared" si="4"/>
-        <v>0.70519098922624879</v>
+        <v>1.1200384244099109</v>
       </c>
       <c r="P71" s="59">
         <f t="shared" si="17"/>
-        <v>0.752203721841332</v>
+        <v>3.8804347826086958</v>
       </c>
       <c r="Q71" s="59">
         <f t="shared" si="18"/>
-        <v>1.0666666666666667</v>
+        <v>3.464555052790347</v>
       </c>
       <c r="R71" s="60">
         <f t="shared" si="19"/>
-        <v>0.70519098922624879</v>
+        <v>1.1200384244099109</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B72" s="25">
-        <v>-1481.28</v>
+        <v>-1525.22</v>
       </c>
       <c r="C72" s="26">
-        <v>-1477</v>
+        <v>-1918</v>
       </c>
       <c r="D72" s="26">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E72" s="26">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="F72" s="26">
-        <v>-1279</v>
+        <v>-1275</v>
       </c>
       <c r="G72" s="27">
-        <v>0.13900000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H72" s="26">
-        <v>648</v>
+        <v>486</v>
       </c>
       <c r="I72" s="26">
-        <v>2728</v>
+        <v>3507</v>
       </c>
       <c r="J72" s="26">
-        <v>-2079</v>
+        <v>-3021</v>
       </c>
       <c r="K72" s="28">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="L72" s="29">
-        <v>43391</v>
+        <v>43424</v>
       </c>
       <c r="N72" s="54">
         <f t="shared" si="4"/>
-        <v>0.72480722362060013</v>
+        <v>1.2183551434963864</v>
       </c>
       <c r="P72" s="59">
         <f t="shared" si="17"/>
-        <v>0.17216828478964402</v>
+        <v>0.16883963494132986</v>
       </c>
       <c r="Q72" s="59">
         <f t="shared" si="18"/>
-        <v>0.23753665689149561</v>
+        <v>0.13857998289136014</v>
       </c>
       <c r="R72" s="60">
         <f t="shared" si="19"/>
-        <v>0.72480722362060013</v>
+        <v>1.2183551434963864</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="30">
-        <v>-536.97</v>
+        <v>-1327.48</v>
       </c>
       <c r="C73" s="31">
-        <v>-533</v>
+        <v>-1380</v>
       </c>
       <c r="D73" s="31">
-        <v>604</v>
+        <v>490</v>
       </c>
       <c r="E73" s="31">
-        <v>1195</v>
+        <v>1297</v>
       </c>
       <c r="F73" s="31">
-        <v>-591</v>
+        <v>-807</v>
       </c>
       <c r="G73" s="32">
-        <v>0.316</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H73" s="31">
-        <v>1348</v>
+        <v>1068</v>
       </c>
       <c r="I73" s="31">
-        <v>1764</v>
+        <v>2351</v>
       </c>
       <c r="J73" s="31">
-        <v>-416</v>
+        <v>-1283</v>
       </c>
       <c r="K73" s="33">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="L73" s="29">
-        <v>43390</v>
+        <v>43423</v>
       </c>
       <c r="N73" s="54">
         <f t="shared" si="4"/>
-        <v>0.66142060762574029</v>
+        <v>0.83164404170962092</v>
       </c>
       <c r="P73" s="59">
         <f t="shared" si="17"/>
-        <v>0.50543933054393309</v>
+        <v>0.37779491133384735</v>
       </c>
       <c r="Q73" s="59">
         <f t="shared" si="18"/>
-        <v>0.76417233560090703</v>
+        <v>0.45427477669076988</v>
       </c>
       <c r="R73" s="60">
         <f t="shared" si="19"/>
-        <v>0.66142060762574029</v>
+        <v>0.83164404170962092</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B74" s="17">
-        <v>-4503.07</v>
+        <v>1355.63</v>
       </c>
       <c r="C74" s="18">
-        <v>-6094</v>
+        <v>1286</v>
       </c>
       <c r="D74" s="18">
-        <v>7344</v>
+        <v>9544</v>
       </c>
       <c r="E74" s="18">
-        <v>10700</v>
+        <v>8362</v>
       </c>
       <c r="F74" s="18">
-        <v>-3356</v>
+        <v>1182</v>
       </c>
       <c r="G74" s="19">
-        <v>0.40699999999999997</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H74" s="18">
-        <v>16183</v>
+        <v>18037</v>
       </c>
       <c r="I74" s="18">
-        <v>23065</v>
+        <v>15337</v>
       </c>
       <c r="J74" s="18">
-        <v>-6882</v>
+        <v>2700</v>
       </c>
       <c r="K74" s="20">
-        <v>1.1100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N74" s="54">
         <f t="shared" si="4"/>
-        <v>0.97823526592172128</v>
+        <v>0.97050187715737057</v>
       </c>
       <c r="P74" s="59">
         <f t="shared" si="17"/>
-        <v>0.6863551401869159</v>
+        <v>1.1413537431236547</v>
       </c>
       <c r="Q74" s="59">
         <f t="shared" si="18"/>
-        <v>0.70162584001734229</v>
+        <v>1.1760448588381038</v>
       </c>
       <c r="R74" s="60">
         <f t="shared" si="19"/>
-        <v>0.97823526592172128</v>
+        <v>0.97050187715737057</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
@@ -5608,163 +5656,163 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B79" s="25">
-        <v>31.29</v>
+        <v>22.29</v>
       </c>
       <c r="C79" s="26">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D79" s="26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E79" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" s="26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G79" s="27">
-        <v>1</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H79" s="26">
-        <v>591</v>
+        <v>382</v>
       </c>
       <c r="I79" s="26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J79" s="26">
-        <v>591</v>
+        <v>361</v>
       </c>
       <c r="K79" s="28">
-        <v>1.29</v>
+        <v>0.94</v>
       </c>
       <c r="L79" s="29">
-        <v>43403</v>
-      </c>
-      <c r="N79" s="54" t="e">
+        <v>43437</v>
+      </c>
+      <c r="N79" s="54">
         <f t="shared" ref="N79" si="20">(D79/E79)/(H79/I79)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P79" s="59" t="e">
+        <v>0.4672774869109948</v>
+      </c>
+      <c r="P79" s="59">
         <f>D79/E79</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q79" s="59" t="e">
+        <v>8.5</v>
+      </c>
+      <c r="Q79" s="59">
         <f>H79/I79</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R79" s="60" t="e">
+        <v>18.19047619047619</v>
+      </c>
+      <c r="R79" s="60">
         <f>P79/Q79</f>
-        <v>#DIV/0!</v>
+        <v>0.4672774869109948</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B80" s="25">
-        <v>-11.53</v>
+        <v>15.38</v>
       </c>
       <c r="C80" s="26">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="D80" s="26">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E80" s="26">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F80" s="26">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="G80" s="27">
-        <v>0.316</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H80" s="26">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="I80" s="26">
-        <v>441</v>
+        <v>19</v>
       </c>
       <c r="J80" s="26">
-        <v>-255</v>
+        <v>296</v>
       </c>
       <c r="K80" s="28">
-        <v>1.37</v>
+        <v>0.78</v>
       </c>
       <c r="L80" s="29">
-        <v>43402</v>
+        <v>43434</v>
       </c>
       <c r="N80" s="54">
         <f t="shared" si="4"/>
-        <v>1.0942928039702233</v>
+        <v>0.51107594936708856</v>
       </c>
       <c r="P80" s="59">
         <f t="shared" ref="P80:P89" si="21">D80/E80</f>
-        <v>0.46153846153846156</v>
+        <v>8.5</v>
       </c>
       <c r="Q80" s="59">
         <f t="shared" ref="Q80:Q89" si="22">H80/I80</f>
-        <v>0.42176870748299322</v>
+        <v>16.631578947368421</v>
       </c>
       <c r="R80" s="60">
         <f t="shared" ref="R80:R89" si="23">P80/Q80</f>
-        <v>1.0942928039702233</v>
+        <v>0.51107594936708856</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B81" s="25">
-        <v>-27.79</v>
+        <v>-3.05</v>
       </c>
       <c r="C81" s="26">
-        <v>-66</v>
+        <v>-1</v>
       </c>
       <c r="D81" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E81" s="26">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F81" s="26">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="G81" s="27">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="H81" s="26">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I81" s="26">
-        <v>775</v>
+        <v>239</v>
       </c>
       <c r="J81" s="26">
-        <v>-775</v>
+        <v>-180</v>
       </c>
       <c r="K81" s="28">
-        <v>1.72</v>
+        <v>0.69</v>
       </c>
       <c r="L81" s="29">
-        <v>43399</v>
-      </c>
-      <c r="N81" s="54" t="e">
+        <v>43433</v>
+      </c>
+      <c r="N81" s="54">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.8696219035202086</v>
       </c>
       <c r="P81" s="59">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="Q81" s="59">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="60" t="e">
+        <v>0.24686192468619247</v>
+      </c>
+      <c r="R81" s="60">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>1.8696219035202086</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B82" s="25">
-        <v>33.94</v>
+        <v>43.58</v>
       </c>
       <c r="C82" s="26">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D82" s="26">
         <v>18</v>
@@ -5779,23 +5827,23 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="H82" s="26">
-        <v>512</v>
+        <v>414</v>
       </c>
       <c r="I82" s="26">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J82" s="26">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="K82" s="28">
-        <v>1.19</v>
+        <v>0.99</v>
       </c>
       <c r="L82" s="29">
-        <v>43398</v>
+        <v>43432</v>
       </c>
       <c r="N82" s="54">
         <f t="shared" si="4"/>
-        <v>1.01953125</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="P82" s="59">
         <f t="shared" si="21"/>
@@ -5803,365 +5851,365 @@
       </c>
       <c r="Q82" s="59">
         <f t="shared" si="22"/>
-        <v>17.655172413793103</v>
+        <v>34.5</v>
       </c>
       <c r="R82" s="60">
         <f t="shared" si="23"/>
-        <v>1.01953125</v>
+        <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B83" s="25">
-        <v>-60.62</v>
+        <v>0.24</v>
       </c>
       <c r="C83" s="26">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="D83" s="26">
+        <v>11</v>
+      </c>
+      <c r="E83" s="26">
+        <v>8</v>
+      </c>
+      <c r="F83" s="26">
         <v>3</v>
       </c>
-      <c r="E83" s="26">
-        <v>16</v>
-      </c>
-      <c r="F83" s="26">
-        <v>-13</v>
-      </c>
       <c r="G83" s="27">
-        <v>0.158</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H83" s="26">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="I83" s="26">
-        <v>602</v>
+        <v>68</v>
       </c>
       <c r="J83" s="26">
-        <v>-530</v>
+        <v>153</v>
       </c>
       <c r="K83" s="28">
-        <v>1.47</v>
+        <v>0.68</v>
       </c>
       <c r="L83" s="29">
-        <v>43397</v>
+        <v>43431</v>
       </c>
       <c r="N83" s="54">
         <f t="shared" ref="N83:N89" si="24">(D83/E83)/(H83/I83)</f>
-        <v>1.5897887323943662</v>
+        <v>0.4211711711711712</v>
       </c>
       <c r="P83" s="59">
         <f t="shared" si="21"/>
-        <v>0.1875</v>
+        <v>1.375</v>
       </c>
       <c r="Q83" s="59">
         <f t="shared" si="22"/>
-        <v>0.11794019933554817</v>
+        <v>3.2647058823529411</v>
       </c>
       <c r="R83" s="60">
         <f t="shared" si="23"/>
-        <v>1.5897887323943662</v>
+        <v>0.4211711711711712</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B84" s="25">
-        <v>-11.45</v>
+        <v>27.1</v>
       </c>
       <c r="C84" s="26">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="D84" s="26">
+        <v>19</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
+      <c r="F84" s="26">
+        <v>19</v>
+      </c>
+      <c r="G84" s="27">
+        <v>1</v>
+      </c>
+      <c r="H84" s="26">
+        <v>302</v>
+      </c>
+      <c r="I84" s="26">
+        <v>0</v>
+      </c>
+      <c r="J84" s="26">
+        <v>302</v>
+      </c>
+      <c r="K84" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="L84" s="29">
+        <v>43430</v>
+      </c>
+      <c r="N84" s="54" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P84" s="59" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q84" s="59" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R84" s="60" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B85" s="25">
+        <v>-8.64</v>
+      </c>
+      <c r="C85" s="26">
+        <v>-1</v>
+      </c>
+      <c r="D85" s="26">
         <v>5</v>
       </c>
-      <c r="E84" s="26">
+      <c r="E85" s="26">
         <v>14</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F85" s="26">
         <v>-9</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G85" s="27">
         <v>0.26300000000000001</v>
       </c>
-      <c r="H84" s="26">
-        <v>74</v>
-      </c>
-      <c r="I84" s="26">
-        <v>503</v>
-      </c>
-      <c r="J84" s="26">
-        <v>-429</v>
-      </c>
-      <c r="K84" s="28">
-        <v>1.26</v>
-      </c>
-      <c r="L84" s="29">
-        <v>43396</v>
-      </c>
-      <c r="N84" s="54">
+      <c r="H85" s="26">
+        <v>23</v>
+      </c>
+      <c r="I85" s="26">
+        <v>143</v>
+      </c>
+      <c r="J85" s="26">
+        <v>-119</v>
+      </c>
+      <c r="K85" s="28">
+        <v>0.39</v>
+      </c>
+      <c r="L85" s="29">
+        <v>43427</v>
+      </c>
+      <c r="N85" s="54">
         <f t="shared" si="24"/>
-        <v>2.4276061776061777</v>
-      </c>
-      <c r="P84" s="59">
+        <v>2.2204968944099379</v>
+      </c>
+      <c r="P85" s="59">
         <f t="shared" si="21"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="Q84" s="59">
+      <c r="Q85" s="59">
         <f t="shared" si="22"/>
-        <v>0.14711729622266401</v>
-      </c>
-      <c r="R84" s="60">
+        <v>0.16083916083916083</v>
+      </c>
+      <c r="R85" s="60">
         <f t="shared" si="23"/>
-        <v>2.4276061776061777</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="25">
-        <v>-9.8800000000000008</v>
-      </c>
-      <c r="C85" s="26">
-        <v>-5</v>
-      </c>
-      <c r="D85" s="26">
+        <v>2.2204968944099379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B86" s="25">
+        <v>10.16</v>
+      </c>
+      <c r="C86" s="26">
+        <v>6</v>
+      </c>
+      <c r="D86" s="26">
+        <v>15</v>
+      </c>
+      <c r="E86" s="26">
+        <v>4</v>
+      </c>
+      <c r="F86" s="26">
+        <v>11</v>
+      </c>
+      <c r="G86" s="27">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H86" s="26">
+        <v>266</v>
+      </c>
+      <c r="I86" s="26">
+        <v>48</v>
+      </c>
+      <c r="J86" s="26">
+        <v>217</v>
+      </c>
+      <c r="K86" s="28">
+        <v>0.73</v>
+      </c>
+      <c r="L86" s="29">
+        <v>43425</v>
+      </c>
+      <c r="N86" s="54">
+        <f t="shared" si="24"/>
+        <v>0.67669172932330823</v>
+      </c>
+      <c r="P86" s="59">
+        <f t="shared" si="21"/>
+        <v>3.75</v>
+      </c>
+      <c r="Q86" s="59">
+        <f t="shared" si="22"/>
+        <v>5.541666666666667</v>
+      </c>
+      <c r="R86" s="60">
+        <f t="shared" si="23"/>
+        <v>0.67669172932330823</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B87" s="25">
+        <v>-33.86</v>
+      </c>
+      <c r="C87" s="26">
+        <v>-65</v>
+      </c>
+      <c r="D87" s="26">
+        <v>0</v>
+      </c>
+      <c r="E87" s="26">
+        <v>19</v>
+      </c>
+      <c r="F87" s="26">
+        <v>-19</v>
+      </c>
+      <c r="G87" s="27">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26">
+        <v>0</v>
+      </c>
+      <c r="I87" s="26">
+        <v>567</v>
+      </c>
+      <c r="J87" s="26">
+        <v>-567</v>
+      </c>
+      <c r="K87" s="28">
+        <v>1.32</v>
+      </c>
+      <c r="L87" s="29">
+        <v>43424</v>
+      </c>
+      <c r="N87" s="54" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P87" s="59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="60" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="30">
+        <v>-31.57</v>
+      </c>
+      <c r="C88" s="31">
+        <v>-32</v>
+      </c>
+      <c r="D88" s="31">
         <v>3</v>
       </c>
-      <c r="E85" s="26">
+      <c r="E88" s="31">
         <v>16</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F88" s="31">
         <v>-13</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G88" s="32">
         <v>0.158</v>
       </c>
-      <c r="H85" s="26">
-        <v>75</v>
-      </c>
-      <c r="I85" s="26">
-        <v>279</v>
-      </c>
-      <c r="J85" s="26">
-        <v>-203</v>
-      </c>
-      <c r="K85" s="28">
-        <v>0.78</v>
-      </c>
-      <c r="L85" s="29">
-        <v>43395</v>
-      </c>
-      <c r="N85" s="54">
+      <c r="H88" s="31">
+        <v>22</v>
+      </c>
+      <c r="I88" s="31">
+        <v>370</v>
+      </c>
+      <c r="J88" s="31">
+        <v>-347</v>
+      </c>
+      <c r="K88" s="33">
+        <v>0.91</v>
+      </c>
+      <c r="L88" s="29">
+        <v>43423</v>
+      </c>
+      <c r="N88" s="54">
         <f t="shared" si="24"/>
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="P85" s="59">
+        <v>3.1534090909090908</v>
+      </c>
+      <c r="P88" s="59">
         <f t="shared" si="21"/>
         <v>0.1875</v>
       </c>
-      <c r="Q85" s="59">
-        <f t="shared" si="22"/>
-        <v>0.26881720430107525</v>
-      </c>
-      <c r="R85" s="60">
-        <f t="shared" si="23"/>
-        <v>0.69750000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="25">
-        <v>-7.52</v>
-      </c>
-      <c r="C86" s="26">
-        <v>-5</v>
-      </c>
-      <c r="D86" s="26">
-        <v>5</v>
-      </c>
-      <c r="E86" s="26">
-        <v>14</v>
-      </c>
-      <c r="F86" s="26">
-        <v>-9</v>
-      </c>
-      <c r="G86" s="27">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="H86" s="26">
-        <v>141</v>
-      </c>
-      <c r="I86" s="26">
-        <v>359</v>
-      </c>
-      <c r="J86" s="26">
-        <v>-217</v>
-      </c>
-      <c r="K86" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L86" s="29">
-        <v>43392</v>
-      </c>
-      <c r="N86" s="54">
-        <f t="shared" si="24"/>
-        <v>0.90932117527862211</v>
-      </c>
-      <c r="P86" s="59">
-        <f t="shared" si="21"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="Q86" s="59">
-        <f t="shared" si="22"/>
-        <v>0.39275766016713093</v>
-      </c>
-      <c r="R86" s="60">
-        <f t="shared" si="23"/>
-        <v>0.90932117527862211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="25">
-        <v>-29.4</v>
-      </c>
-      <c r="C87" s="26">
-        <v>-28</v>
-      </c>
-      <c r="D87" s="26">
-        <v>2</v>
-      </c>
-      <c r="E87" s="26">
-        <v>17</v>
-      </c>
-      <c r="F87" s